--- a/DOC/DEG2000.xlsx
+++ b/DOC/DEG2000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devel\1 DEG2000\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9F8311-78EE-496E-A82D-41F4161A399C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C614403-063A-4CC7-B661-1ABA8CDFC91B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="11100" activeTab="11" xr2:uid="{F91C61BF-F393-4C13-9000-551DF6FEF055}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="11100" activeTab="6" xr2:uid="{F91C61BF-F393-4C13-9000-551DF6FEF055}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGridView" sheetId="1" r:id="rId1"/>
@@ -3350,7 +3350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="237">
+  <borders count="247">
     <border>
       <left/>
       <right/>
@@ -6478,11 +6478,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="730">
+  <cellXfs count="751">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -7219,9 +7351,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="126" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="139" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7547,119 +7676,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7713,24 +7787,88 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="199" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="207" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="215" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="193" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="216" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="195" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="196" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="202" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="203" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7739,25 +7877,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="201" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="202" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="218" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="194" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="191" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="195" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="196" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="215" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="193" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="194" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="203" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -7768,10 +7894,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="216" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="199" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="218" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="207" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="231" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7870,6 +7999,72 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="238" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="239" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="238" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="240" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="241" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="242" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="243" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="237" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="243" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="138" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="244" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="245" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="246" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="130" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="127" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8224,16 +8419,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="613" t="s">
+      <c r="F1" s="612" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="614"/>
-      <c r="H1" s="614"/>
-      <c r="I1" s="615" t="s">
+      <c r="G1" s="613"/>
+      <c r="H1" s="613"/>
+      <c r="I1" s="614" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="616"/>
-      <c r="K1" s="617"/>
+      <c r="J1" s="615"/>
+      <c r="K1" s="616"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -8735,7 +8930,7 @@
       <c r="I10" s="225" t="s">
         <v>355</v>
       </c>
-      <c r="J10" s="721" t="s">
+      <c r="J10" s="720" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8752,7 +8947,7 @@
       <c r="I11" s="225" t="s">
         <v>356</v>
       </c>
-      <c r="J11" s="721"/>
+      <c r="J11" s="720"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="347"/>
@@ -8833,7 +9028,7 @@
       <c r="I16" s="225" t="s">
         <v>361</v>
       </c>
-      <c r="J16" s="721" t="s">
+      <c r="J16" s="720" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8850,7 +9045,7 @@
       <c r="I17" s="225" t="s">
         <v>362</v>
       </c>
-      <c r="J17" s="721"/>
+      <c r="J17" s="720"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="347"/>
@@ -9067,7 +9262,7 @@
       </c>
       <c r="G31" s="286"/>
       <c r="H31" s="246"/>
-      <c r="I31" s="487" t="s">
+      <c r="I31" s="486" t="s">
         <v>408</v>
       </c>
       <c r="J31" s="316" t="s">
@@ -9445,32 +9640,32 @@
       <c r="J53" s="252"/>
     </row>
     <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="436"/>
-      <c r="C54" s="436"/>
+      <c r="B54" s="435"/>
+      <c r="C54" s="435"/>
       <c r="D54" s="206"/>
-      <c r="E54" s="437" t="s">
+      <c r="E54" s="436" t="s">
         <v>342</v>
       </c>
-      <c r="F54" s="438" t="s">
+      <c r="F54" s="437" t="s">
         <v>829</v>
       </c>
-      <c r="G54" s="439" t="s">
+      <c r="G54" s="438" t="s">
         <v>348</v>
       </c>
-      <c r="H54" s="440" t="s">
+      <c r="H54" s="439" t="s">
         <v>349</v>
       </c>
-      <c r="I54" s="440"/>
-      <c r="J54" s="441"/>
+      <c r="I54" s="439"/>
+      <c r="J54" s="440"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E55" s="473" t="s">
+      <c r="E55" s="472" t="s">
         <v>821</v>
       </c>
-      <c r="F55" s="474" t="s">
+      <c r="F55" s="473" t="s">
         <v>490</v>
       </c>
-      <c r="G55" s="475"/>
+      <c r="G55" s="474"/>
       <c r="H55" s="223" t="s">
         <v>489</v>
       </c>
@@ -9478,7 +9673,7 @@
       <c r="J55" s="224"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E56" s="476" t="s">
+      <c r="E56" s="475" t="s">
         <v>822</v>
       </c>
       <c r="F56" s="296" t="s">
@@ -9490,7 +9685,7 @@
       <c r="J56" s="226"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E57" s="477" t="s">
+      <c r="E57" s="476" t="s">
         <v>823</v>
       </c>
       <c r="F57" s="298" t="s">
@@ -9504,208 +9699,208 @@
       <c r="J57" s="229"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E58" s="468" t="s">
+      <c r="E58" s="467" t="s">
         <v>824</v>
       </c>
-      <c r="F58" s="469" t="s">
+      <c r="F58" s="468" t="s">
         <v>841</v>
       </c>
-      <c r="G58" s="470"/>
-      <c r="H58" s="471" t="s">
+      <c r="G58" s="469"/>
+      <c r="H58" s="470" t="s">
         <v>842</v>
       </c>
-      <c r="I58" s="471" t="s">
+      <c r="I58" s="470" t="s">
         <v>843</v>
       </c>
-      <c r="J58" s="472"/>
+      <c r="J58" s="471"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E59" s="467" t="s">
+      <c r="E59" s="466" t="s">
         <v>847</v>
       </c>
-      <c r="F59" s="442" t="s">
+      <c r="F59" s="441" t="s">
         <v>832</v>
       </c>
-      <c r="G59" s="443"/>
-      <c r="H59" s="444"/>
-      <c r="I59" s="444" t="s">
+      <c r="G59" s="442"/>
+      <c r="H59" s="443"/>
+      <c r="I59" s="443" t="s">
         <v>833</v>
       </c>
-      <c r="J59" s="445"/>
+      <c r="J59" s="444"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E60" s="446" t="s">
+      <c r="E60" s="445" t="s">
         <v>268</v>
       </c>
-      <c r="F60" s="456" t="s">
+      <c r="F60" s="455" t="s">
         <v>834</v>
       </c>
-      <c r="G60" s="448"/>
-      <c r="H60" s="449"/>
-      <c r="I60" s="449" t="s">
+      <c r="G60" s="447"/>
+      <c r="H60" s="448"/>
+      <c r="I60" s="448" t="s">
         <v>835</v>
       </c>
-      <c r="J60" s="450"/>
+      <c r="J60" s="449"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E61" s="446" t="s">
+      <c r="E61" s="445" t="s">
         <v>268</v>
       </c>
-      <c r="F61" s="456" t="s">
+      <c r="F61" s="455" t="s">
         <v>836</v>
       </c>
-      <c r="G61" s="448"/>
-      <c r="H61" s="449"/>
-      <c r="I61" s="449" t="s">
+      <c r="G61" s="447"/>
+      <c r="H61" s="448"/>
+      <c r="I61" s="448" t="s">
         <v>837</v>
       </c>
-      <c r="J61" s="450"/>
+      <c r="J61" s="449"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E62" s="457" t="s">
+      <c r="E62" s="456" t="s">
         <v>825</v>
       </c>
-      <c r="F62" s="458" t="s">
+      <c r="F62" s="457" t="s">
         <v>841</v>
       </c>
-      <c r="G62" s="459"/>
-      <c r="H62" s="460" t="s">
+      <c r="G62" s="458"/>
+      <c r="H62" s="459" t="s">
         <v>842</v>
       </c>
-      <c r="I62" s="460" t="s">
+      <c r="I62" s="459" t="s">
         <v>844</v>
       </c>
-      <c r="J62" s="461"/>
+      <c r="J62" s="460"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E63" s="462" t="s">
+      <c r="E63" s="461" t="s">
         <v>831</v>
       </c>
-      <c r="F63" s="463" t="s">
+      <c r="F63" s="462" t="s">
         <v>112</v>
       </c>
-      <c r="G63" s="464"/>
-      <c r="H63" s="465"/>
-      <c r="I63" s="465" t="s">
+      <c r="G63" s="463"/>
+      <c r="H63" s="464"/>
+      <c r="I63" s="464" t="s">
         <v>838</v>
       </c>
-      <c r="J63" s="466"/>
+      <c r="J63" s="465"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="467" t="s">
+      <c r="E64" s="466" t="s">
         <v>825</v>
       </c>
-      <c r="F64" s="442" t="s">
+      <c r="F64" s="441" t="s">
         <v>845</v>
       </c>
-      <c r="G64" s="443"/>
-      <c r="H64" s="444"/>
-      <c r="I64" s="444" t="s">
+      <c r="G64" s="442"/>
+      <c r="H64" s="443"/>
+      <c r="I64" s="443" t="s">
         <v>838</v>
       </c>
-      <c r="J64" s="445"/>
+      <c r="J64" s="444"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E65" s="446" t="s">
+      <c r="E65" s="445" t="s">
         <v>826</v>
       </c>
-      <c r="F65" s="447" t="s">
+      <c r="F65" s="446" t="s">
         <v>846</v>
       </c>
-      <c r="G65" s="448"/>
-      <c r="H65" s="449"/>
-      <c r="I65" s="449" t="s">
+      <c r="G65" s="447"/>
+      <c r="H65" s="448"/>
+      <c r="I65" s="448" t="s">
         <v>838</v>
       </c>
-      <c r="J65" s="445"/>
+      <c r="J65" s="444"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E66" s="457" t="s">
+      <c r="E66" s="456" t="s">
         <v>827</v>
       </c>
-      <c r="F66" s="458" t="s">
+      <c r="F66" s="457" t="s">
         <v>841</v>
       </c>
-      <c r="G66" s="459"/>
-      <c r="H66" s="460" t="s">
+      <c r="G66" s="458"/>
+      <c r="H66" s="459" t="s">
         <v>842</v>
       </c>
-      <c r="I66" s="460" t="s">
+      <c r="I66" s="459" t="s">
         <v>838</v>
       </c>
-      <c r="J66" s="461"/>
+      <c r="J66" s="460"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E67" s="462" t="s">
+      <c r="E67" s="461" t="s">
         <v>824</v>
       </c>
-      <c r="F67" s="463" t="s">
+      <c r="F67" s="462" t="s">
         <v>839</v>
       </c>
-      <c r="G67" s="464"/>
-      <c r="H67" s="465"/>
-      <c r="I67" s="465" t="s">
+      <c r="G67" s="463"/>
+      <c r="H67" s="464"/>
+      <c r="I67" s="464" t="s">
         <v>840</v>
       </c>
-      <c r="J67" s="466"/>
+      <c r="J67" s="465"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E68" s="446" t="s">
+      <c r="E68" s="445" t="s">
         <v>825</v>
       </c>
-      <c r="F68" s="447" t="s">
+      <c r="F68" s="446" t="s">
         <v>112</v>
       </c>
-      <c r="G68" s="448"/>
-      <c r="H68" s="449"/>
-      <c r="I68" s="449" t="s">
+      <c r="G68" s="447"/>
+      <c r="H68" s="448"/>
+      <c r="I68" s="448" t="s">
         <v>840</v>
       </c>
-      <c r="J68" s="450"/>
+      <c r="J68" s="449"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E69" s="446" t="s">
+      <c r="E69" s="445" t="s">
         <v>826</v>
       </c>
-      <c r="F69" s="447" t="s">
+      <c r="F69" s="446" t="s">
         <v>845</v>
       </c>
-      <c r="G69" s="448"/>
-      <c r="H69" s="449"/>
-      <c r="I69" s="449" t="s">
+      <c r="G69" s="447"/>
+      <c r="H69" s="448"/>
+      <c r="I69" s="448" t="s">
         <v>840</v>
       </c>
-      <c r="J69" s="450"/>
+      <c r="J69" s="449"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E70" s="446" t="s">
+      <c r="E70" s="445" t="s">
         <v>827</v>
       </c>
-      <c r="F70" s="447" t="s">
+      <c r="F70" s="446" t="s">
         <v>846</v>
       </c>
-      <c r="G70" s="448"/>
-      <c r="H70" s="449"/>
-      <c r="I70" s="449" t="s">
+      <c r="G70" s="447"/>
+      <c r="H70" s="448"/>
+      <c r="I70" s="448" t="s">
         <v>840</v>
       </c>
-      <c r="J70" s="450"/>
+      <c r="J70" s="449"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="451" t="s">
+      <c r="E71" s="450" t="s">
         <v>828</v>
       </c>
-      <c r="F71" s="452" t="s">
+      <c r="F71" s="451" t="s">
         <v>841</v>
       </c>
-      <c r="G71" s="453"/>
-      <c r="H71" s="454" t="s">
+      <c r="G71" s="452"/>
+      <c r="H71" s="453" t="s">
         <v>842</v>
       </c>
-      <c r="I71" s="454" t="s">
+      <c r="I71" s="453" t="s">
         <v>840</v>
       </c>
-      <c r="J71" s="455"/>
+      <c r="J71" s="454"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="211" t="s">
@@ -10258,7 +10453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A67EE2-2541-4C21-B409-F79E37C3B854}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -11187,39 +11382,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="722"/>
-      <c r="C2" s="722"/>
-      <c r="D2" s="722"/>
-      <c r="E2" s="722"/>
-      <c r="F2" s="722"/>
-      <c r="G2" s="722"/>
+      <c r="B2" s="721"/>
+      <c r="C2" s="721"/>
+      <c r="D2" s="721"/>
+      <c r="E2" s="721"/>
+      <c r="F2" s="721"/>
+      <c r="G2" s="721"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="723" t="s">
+      <c r="B3" s="722" t="s">
         <v>857</v>
       </c>
-      <c r="C3" s="724"/>
-      <c r="D3" s="724"/>
-      <c r="E3" s="724"/>
-      <c r="F3" s="724"/>
-      <c r="G3" s="725"/>
+      <c r="C3" s="723"/>
+      <c r="D3" s="723"/>
+      <c r="E3" s="723"/>
+      <c r="F3" s="723"/>
+      <c r="G3" s="724"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="478" t="s">
+      <c r="B4" s="477" t="s">
         <v>848</v>
       </c>
-      <c r="C4" s="482"/>
-      <c r="D4" s="485" t="s">
+      <c r="C4" s="481"/>
+      <c r="D4" s="484" t="s">
         <v>851</v>
       </c>
       <c r="E4" s="338"/>
-      <c r="F4" s="483" t="s">
+      <c r="F4" s="482" t="s">
         <v>852</v>
       </c>
-      <c r="G4" s="479"/>
+      <c r="G4" s="478"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="480" t="s">
+      <c r="B5" s="479" t="s">
         <v>849</v>
       </c>
       <c r="C5" s="335"/>
@@ -11233,7 +11428,7 @@
       <c r="G5" s="213"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="480" t="s">
+      <c r="B6" s="479" t="s">
         <v>850</v>
       </c>
       <c r="C6" s="335"/>
@@ -11247,7 +11442,7 @@
       <c r="G6" s="213"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="481" t="s">
+      <c r="B7" s="480" t="s">
         <v>706</v>
       </c>
       <c r="C7" s="337"/>
@@ -11255,37 +11450,37 @@
         <v>707</v>
       </c>
       <c r="E7" s="323"/>
-      <c r="F7" s="484" t="s">
+      <c r="F7" s="483" t="s">
         <v>708</v>
       </c>
       <c r="G7" s="216"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="726" t="s">
+      <c r="B8" s="725" t="s">
         <v>858</v>
       </c>
-      <c r="C8" s="727"/>
-      <c r="D8" s="727"/>
-      <c r="E8" s="727"/>
-      <c r="F8" s="727"/>
-      <c r="G8" s="728"/>
+      <c r="C8" s="726"/>
+      <c r="D8" s="726"/>
+      <c r="E8" s="726"/>
+      <c r="F8" s="726"/>
+      <c r="G8" s="727"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="478" t="s">
+      <c r="B9" s="477" t="s">
         <v>848</v>
       </c>
-      <c r="C9" s="482"/>
-      <c r="D9" s="485" t="s">
+      <c r="C9" s="481"/>
+      <c r="D9" s="484" t="s">
         <v>851</v>
       </c>
       <c r="E9" s="338"/>
-      <c r="F9" s="483" t="s">
+      <c r="F9" s="482" t="s">
         <v>852</v>
       </c>
-      <c r="G9" s="479"/>
+      <c r="G9" s="478"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="480" t="s">
+      <c r="B10" s="479" t="s">
         <v>849</v>
       </c>
       <c r="C10" s="335"/>
@@ -11299,7 +11494,7 @@
       <c r="G10" s="213"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="480" t="s">
+      <c r="B11" s="479" t="s">
         <v>850</v>
       </c>
       <c r="C11" s="335"/>
@@ -11313,7 +11508,7 @@
       <c r="G11" s="213"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="481" t="s">
+      <c r="B12" s="480" t="s">
         <v>706</v>
       </c>
       <c r="C12" s="337"/>
@@ -11321,37 +11516,37 @@
         <v>707</v>
       </c>
       <c r="E12" s="323"/>
-      <c r="F12" s="484" t="s">
+      <c r="F12" s="483" t="s">
         <v>708</v>
       </c>
       <c r="G12" s="216"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="726" t="s">
+      <c r="B13" s="725" t="s">
         <v>859</v>
       </c>
-      <c r="C13" s="727"/>
-      <c r="D13" s="727"/>
-      <c r="E13" s="727"/>
-      <c r="F13" s="727"/>
-      <c r="G13" s="728"/>
+      <c r="C13" s="726"/>
+      <c r="D13" s="726"/>
+      <c r="E13" s="726"/>
+      <c r="F13" s="726"/>
+      <c r="G13" s="727"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="478" t="s">
+      <c r="B14" s="477" t="s">
         <v>848</v>
       </c>
-      <c r="C14" s="482"/>
-      <c r="D14" s="485" t="s">
+      <c r="C14" s="481"/>
+      <c r="D14" s="484" t="s">
         <v>851</v>
       </c>
       <c r="E14" s="338"/>
-      <c r="F14" s="483" t="s">
+      <c r="F14" s="482" t="s">
         <v>852</v>
       </c>
-      <c r="G14" s="479"/>
+      <c r="G14" s="478"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="480" t="s">
+      <c r="B15" s="479" t="s">
         <v>849</v>
       </c>
       <c r="C15" s="335"/>
@@ -11365,7 +11560,7 @@
       <c r="G15" s="213"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="480" t="s">
+      <c r="B16" s="479" t="s">
         <v>850</v>
       </c>
       <c r="C16" s="335"/>
@@ -11379,7 +11574,7 @@
       <c r="G16" s="213"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="481" t="s">
+      <c r="B17" s="480" t="s">
         <v>706</v>
       </c>
       <c r="C17" s="337"/>
@@ -11387,37 +11582,37 @@
         <v>707</v>
       </c>
       <c r="E17" s="323"/>
-      <c r="F17" s="484" t="s">
+      <c r="F17" s="483" t="s">
         <v>708</v>
       </c>
       <c r="G17" s="216"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="726" t="s">
+      <c r="B18" s="725" t="s">
         <v>860</v>
       </c>
-      <c r="C18" s="727"/>
-      <c r="D18" s="727"/>
-      <c r="E18" s="727"/>
-      <c r="F18" s="727"/>
-      <c r="G18" s="728"/>
+      <c r="C18" s="726"/>
+      <c r="D18" s="726"/>
+      <c r="E18" s="726"/>
+      <c r="F18" s="726"/>
+      <c r="G18" s="727"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="478" t="s">
+      <c r="B19" s="477" t="s">
         <v>848</v>
       </c>
-      <c r="C19" s="482"/>
-      <c r="D19" s="485" t="s">
+      <c r="C19" s="481"/>
+      <c r="D19" s="484" t="s">
         <v>851</v>
       </c>
       <c r="E19" s="338"/>
-      <c r="F19" s="483" t="s">
+      <c r="F19" s="482" t="s">
         <v>852</v>
       </c>
-      <c r="G19" s="479"/>
+      <c r="G19" s="478"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="480" t="s">
+      <c r="B20" s="479" t="s">
         <v>849</v>
       </c>
       <c r="C20" s="335"/>
@@ -11431,7 +11626,7 @@
       <c r="G20" s="213"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="480" t="s">
+      <c r="B21" s="479" t="s">
         <v>850</v>
       </c>
       <c r="C21" s="335"/>
@@ -11445,7 +11640,7 @@
       <c r="G21" s="213"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="481" t="s">
+      <c r="B22" s="480" t="s">
         <v>706</v>
       </c>
       <c r="C22" s="337"/>
@@ -11453,13 +11648,13 @@
         <v>707</v>
       </c>
       <c r="E22" s="323"/>
-      <c r="F22" s="484" t="s">
+      <c r="F22" s="483" t="s">
         <v>708</v>
       </c>
       <c r="G22" s="216"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="486"/>
+      <c r="B56" s="485"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11491,298 +11686,298 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="722" t="s">
+      <c r="B2" s="721" t="s">
         <v>870</v>
       </c>
-      <c r="C2" s="729"/>
-      <c r="D2" s="729"/>
-      <c r="E2" s="729"/>
-      <c r="F2" s="729"/>
-      <c r="G2" s="729"/>
+      <c r="C2" s="728"/>
+      <c r="D2" s="728"/>
+      <c r="E2" s="728"/>
+      <c r="F2" s="728"/>
+      <c r="G2" s="728"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="723" t="s">
+      <c r="B3" s="722" t="s">
         <v>857</v>
       </c>
-      <c r="C3" s="724"/>
-      <c r="D3" s="724"/>
-      <c r="E3" s="724"/>
-      <c r="F3" s="724"/>
-      <c r="G3" s="725"/>
+      <c r="C3" s="723"/>
+      <c r="D3" s="723"/>
+      <c r="E3" s="723"/>
+      <c r="F3" s="723"/>
+      <c r="G3" s="724"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="506" t="s">
+      <c r="B4" s="505" t="s">
         <v>848</v>
       </c>
-      <c r="C4" s="507" t="s">
+      <c r="C4" s="506" t="s">
         <v>866</v>
       </c>
-      <c r="D4" s="508" t="s">
+      <c r="D4" s="507" t="s">
         <v>851</v>
       </c>
-      <c r="E4" s="509" t="s">
+      <c r="E4" s="508" t="s">
         <v>863</v>
       </c>
-      <c r="F4" s="510" t="s">
+      <c r="F4" s="509" t="s">
         <v>852</v>
       </c>
-      <c r="G4" s="511" t="s">
+      <c r="G4" s="510" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="512" t="s">
+      <c r="B5" s="511" t="s">
         <v>849</v>
       </c>
-      <c r="C5" s="513" t="s">
+      <c r="C5" s="512" t="s">
         <v>868</v>
       </c>
-      <c r="D5" s="514" t="s">
+      <c r="D5" s="513" t="s">
         <v>853</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="516" t="s">
+      <c r="E5" s="514"/>
+      <c r="F5" s="515" t="s">
         <v>854</v>
       </c>
-      <c r="G5" s="517" t="s">
+      <c r="G5" s="516" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="512" t="s">
+      <c r="B6" s="511" t="s">
         <v>850</v>
       </c>
-      <c r="C6" s="513" t="s">
+      <c r="C6" s="512" t="s">
         <v>862</v>
       </c>
-      <c r="D6" s="514" t="s">
+      <c r="D6" s="513" t="s">
         <v>855</v>
       </c>
-      <c r="E6" s="515"/>
-      <c r="F6" s="516" t="s">
+      <c r="E6" s="514"/>
+      <c r="F6" s="515" t="s">
         <v>856</v>
       </c>
-      <c r="G6" s="517" t="s">
+      <c r="G6" s="516" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="518" t="s">
+      <c r="B7" s="517" t="s">
         <v>706</v>
       </c>
-      <c r="C7" s="521" t="s">
+      <c r="C7" s="520" t="s">
         <v>873</v>
       </c>
-      <c r="D7" s="519" t="s">
+      <c r="D7" s="518" t="s">
         <v>707</v>
       </c>
-      <c r="E7" s="522" t="s">
+      <c r="E7" s="521" t="s">
         <v>871</v>
       </c>
-      <c r="F7" s="520" t="s">
+      <c r="F7" s="519" t="s">
         <v>708</v>
       </c>
-      <c r="G7" s="523" t="s">
+      <c r="G7" s="522" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="726" t="s">
+      <c r="B8" s="725" t="s">
         <v>858</v>
       </c>
-      <c r="C8" s="727"/>
-      <c r="D8" s="727"/>
-      <c r="E8" s="727"/>
-      <c r="F8" s="727"/>
-      <c r="G8" s="728"/>
+      <c r="C8" s="726"/>
+      <c r="D8" s="726"/>
+      <c r="E8" s="726"/>
+      <c r="F8" s="726"/>
+      <c r="G8" s="727"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="488" t="s">
+      <c r="B9" s="487" t="s">
         <v>848</v>
       </c>
-      <c r="C9" s="489"/>
-      <c r="D9" s="490" t="s">
+      <c r="C9" s="488"/>
+      <c r="D9" s="489" t="s">
         <v>851</v>
       </c>
-      <c r="E9" s="491"/>
-      <c r="F9" s="492" t="s">
+      <c r="E9" s="490"/>
+      <c r="F9" s="491" t="s">
         <v>852</v>
       </c>
-      <c r="G9" s="493"/>
+      <c r="G9" s="492"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="494" t="s">
+      <c r="B10" s="493" t="s">
         <v>849</v>
       </c>
-      <c r="C10" s="495"/>
-      <c r="D10" s="496" t="s">
+      <c r="C10" s="494"/>
+      <c r="D10" s="495" t="s">
         <v>853</v>
       </c>
-      <c r="E10" s="497"/>
-      <c r="F10" s="498" t="s">
+      <c r="E10" s="496"/>
+      <c r="F10" s="497" t="s">
         <v>854</v>
       </c>
-      <c r="G10" s="499"/>
+      <c r="G10" s="498"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="494" t="s">
+      <c r="B11" s="493" t="s">
         <v>850</v>
       </c>
-      <c r="C11" s="495"/>
-      <c r="D11" s="496" t="s">
+      <c r="C11" s="494"/>
+      <c r="D11" s="495" t="s">
         <v>855</v>
       </c>
-      <c r="E11" s="497"/>
-      <c r="F11" s="498" t="s">
+      <c r="E11" s="496"/>
+      <c r="F11" s="497" t="s">
         <v>856</v>
       </c>
-      <c r="G11" s="499"/>
+      <c r="G11" s="498"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="500" t="s">
+      <c r="B12" s="499" t="s">
         <v>706</v>
       </c>
-      <c r="C12" s="501"/>
-      <c r="D12" s="502" t="s">
+      <c r="C12" s="500"/>
+      <c r="D12" s="501" t="s">
         <v>707</v>
       </c>
-      <c r="E12" s="503"/>
-      <c r="F12" s="504" t="s">
+      <c r="E12" s="502"/>
+      <c r="F12" s="503" t="s">
         <v>708</v>
       </c>
-      <c r="G12" s="505"/>
+      <c r="G12" s="504"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="726" t="s">
+      <c r="B13" s="725" t="s">
         <v>859</v>
       </c>
-      <c r="C13" s="727"/>
-      <c r="D13" s="727"/>
-      <c r="E13" s="727"/>
-      <c r="F13" s="727"/>
-      <c r="G13" s="728"/>
+      <c r="C13" s="726"/>
+      <c r="D13" s="726"/>
+      <c r="E13" s="726"/>
+      <c r="F13" s="726"/>
+      <c r="G13" s="727"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="488" t="s">
+      <c r="B14" s="487" t="s">
         <v>848</v>
       </c>
-      <c r="C14" s="489"/>
-      <c r="D14" s="490" t="s">
+      <c r="C14" s="488"/>
+      <c r="D14" s="489" t="s">
         <v>851</v>
       </c>
-      <c r="E14" s="491"/>
-      <c r="F14" s="492" t="s">
+      <c r="E14" s="490"/>
+      <c r="F14" s="491" t="s">
         <v>852</v>
       </c>
-      <c r="G14" s="493"/>
+      <c r="G14" s="492"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="494" t="s">
+      <c r="B15" s="493" t="s">
         <v>849</v>
       </c>
-      <c r="C15" s="495"/>
-      <c r="D15" s="496" t="s">
+      <c r="C15" s="494"/>
+      <c r="D15" s="495" t="s">
         <v>853</v>
       </c>
-      <c r="E15" s="497"/>
-      <c r="F15" s="498" t="s">
+      <c r="E15" s="496"/>
+      <c r="F15" s="497" t="s">
         <v>854</v>
       </c>
-      <c r="G15" s="499"/>
+      <c r="G15" s="498"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="494" t="s">
+      <c r="B16" s="493" t="s">
         <v>850</v>
       </c>
-      <c r="C16" s="495"/>
-      <c r="D16" s="496" t="s">
+      <c r="C16" s="494"/>
+      <c r="D16" s="495" t="s">
         <v>855</v>
       </c>
-      <c r="E16" s="497"/>
-      <c r="F16" s="498" t="s">
+      <c r="E16" s="496"/>
+      <c r="F16" s="497" t="s">
         <v>856</v>
       </c>
-      <c r="G16" s="499"/>
+      <c r="G16" s="498"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="500" t="s">
+      <c r="B17" s="499" t="s">
         <v>706</v>
       </c>
-      <c r="C17" s="501"/>
-      <c r="D17" s="502" t="s">
+      <c r="C17" s="500"/>
+      <c r="D17" s="501" t="s">
         <v>707</v>
       </c>
-      <c r="E17" s="503"/>
-      <c r="F17" s="504" t="s">
+      <c r="E17" s="502"/>
+      <c r="F17" s="503" t="s">
         <v>708</v>
       </c>
-      <c r="G17" s="505"/>
+      <c r="G17" s="504"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="726" t="s">
+      <c r="B18" s="725" t="s">
         <v>860</v>
       </c>
-      <c r="C18" s="727"/>
-      <c r="D18" s="727"/>
-      <c r="E18" s="727"/>
-      <c r="F18" s="727"/>
-      <c r="G18" s="728"/>
+      <c r="C18" s="726"/>
+      <c r="D18" s="726"/>
+      <c r="E18" s="726"/>
+      <c r="F18" s="726"/>
+      <c r="G18" s="727"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="488" t="s">
+      <c r="B19" s="487" t="s">
         <v>848</v>
       </c>
-      <c r="C19" s="489"/>
-      <c r="D19" s="490" t="s">
+      <c r="C19" s="488"/>
+      <c r="D19" s="489" t="s">
         <v>851</v>
       </c>
-      <c r="E19" s="491"/>
-      <c r="F19" s="492" t="s">
+      <c r="E19" s="490"/>
+      <c r="F19" s="491" t="s">
         <v>852</v>
       </c>
-      <c r="G19" s="493"/>
+      <c r="G19" s="492"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="494" t="s">
+      <c r="B20" s="493" t="s">
         <v>849</v>
       </c>
-      <c r="C20" s="495"/>
-      <c r="D20" s="496" t="s">
+      <c r="C20" s="494"/>
+      <c r="D20" s="495" t="s">
         <v>853</v>
       </c>
-      <c r="E20" s="497"/>
-      <c r="F20" s="498" t="s">
+      <c r="E20" s="496"/>
+      <c r="F20" s="497" t="s">
         <v>854</v>
       </c>
-      <c r="G20" s="499"/>
+      <c r="G20" s="498"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="494" t="s">
+      <c r="B21" s="493" t="s">
         <v>850</v>
       </c>
-      <c r="C21" s="495"/>
-      <c r="D21" s="496" t="s">
+      <c r="C21" s="494"/>
+      <c r="D21" s="495" t="s">
         <v>855</v>
       </c>
-      <c r="E21" s="497"/>
-      <c r="F21" s="498" t="s">
+      <c r="E21" s="496"/>
+      <c r="F21" s="497" t="s">
         <v>856</v>
       </c>
-      <c r="G21" s="499"/>
+      <c r="G21" s="498"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="500" t="s">
+      <c r="B22" s="499" t="s">
         <v>706</v>
       </c>
-      <c r="C22" s="501"/>
-      <c r="D22" s="502" t="s">
+      <c r="C22" s="500"/>
+      <c r="D22" s="501" t="s">
         <v>707</v>
       </c>
-      <c r="E22" s="503"/>
-      <c r="F22" s="504" t="s">
+      <c r="E22" s="502"/>
+      <c r="F22" s="503" t="s">
         <v>708</v>
       </c>
-      <c r="G22" s="505"/>
+      <c r="G22" s="504"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -11831,29 +12026,29 @@
       <c r="L3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="635">
+      <c r="M3" s="625">
         <v>0</v>
       </c>
-      <c r="N3" s="657"/>
-      <c r="O3" s="635" t="s">
+      <c r="N3" s="639"/>
+      <c r="O3" s="625" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="645"/>
-      <c r="Q3" s="645"/>
-      <c r="R3" s="645"/>
-      <c r="S3" s="645"/>
-      <c r="T3" s="646"/>
-      <c r="U3" s="618">
+      <c r="P3" s="626"/>
+      <c r="Q3" s="626"/>
+      <c r="R3" s="626"/>
+      <c r="S3" s="626"/>
+      <c r="T3" s="627"/>
+      <c r="U3" s="637">
         <v>2</v>
       </c>
-      <c r="V3" s="618">
+      <c r="V3" s="637">
         <v>3</v>
       </c>
-      <c r="W3" s="635">
+      <c r="W3" s="625">
         <v>4</v>
       </c>
-      <c r="X3" s="636"/>
-      <c r="Y3" s="618">
+      <c r="X3" s="672"/>
+      <c r="Y3" s="637">
         <v>5</v>
       </c>
     </row>
@@ -11881,22 +12076,22 @@
       <c r="T4" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="656"/>
-      <c r="V4" s="656"/>
-      <c r="W4" s="637" t="s">
+      <c r="U4" s="638"/>
+      <c r="V4" s="638"/>
+      <c r="W4" s="673" t="s">
         <v>323</v>
       </c>
-      <c r="X4" s="638"/>
-      <c r="Y4" s="619"/>
+      <c r="X4" s="674"/>
+      <c r="Y4" s="656"/>
     </row>
     <row r="5" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L5" s="674" t="s">
+      <c r="L5" s="617" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="642" t="s">
+      <c r="M5" s="622" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="658" t="s">
+      <c r="N5" s="640" t="s">
         <v>327</v>
       </c>
       <c r="O5" s="61"/>
@@ -11909,26 +12104,26 @@
       <c r="T5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="650" t="s">
+      <c r="U5" s="631" t="s">
         <v>476</v>
       </c>
-      <c r="V5" s="653" t="s">
+      <c r="V5" s="634" t="s">
         <v>326</v>
       </c>
-      <c r="W5" s="629" t="s">
+      <c r="W5" s="666" t="s">
         <v>314</v>
       </c>
-      <c r="X5" s="633" t="s">
+      <c r="X5" s="670" t="s">
         <v>315</v>
       </c>
-      <c r="Y5" s="620" t="s">
+      <c r="Y5" s="657" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L6" s="675"/>
-      <c r="M6" s="643"/>
-      <c r="N6" s="659"/>
+      <c r="L6" s="618"/>
+      <c r="M6" s="623"/>
+      <c r="N6" s="641"/>
       <c r="O6" s="64"/>
       <c r="P6" s="65"/>
       <c r="Q6" s="65"/>
@@ -11937,16 +12132,16 @@
       <c r="T6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="651"/>
-      <c r="V6" s="654"/>
-      <c r="W6" s="630"/>
-      <c r="X6" s="634"/>
-      <c r="Y6" s="621"/>
+      <c r="U6" s="632"/>
+      <c r="V6" s="635"/>
+      <c r="W6" s="667"/>
+      <c r="X6" s="671"/>
+      <c r="Y6" s="658"/>
     </row>
     <row r="7" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L7" s="675"/>
-      <c r="M7" s="643"/>
-      <c r="N7" s="660"/>
+      <c r="L7" s="618"/>
+      <c r="M7" s="623"/>
+      <c r="N7" s="642"/>
       <c r="O7" s="64"/>
       <c r="P7" s="65"/>
       <c r="Q7" s="65"/>
@@ -11955,18 +12150,18 @@
       <c r="T7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="651"/>
-      <c r="V7" s="654"/>
-      <c r="W7" s="631"/>
-      <c r="X7" s="639" t="s">
+      <c r="U7" s="632"/>
+      <c r="V7" s="635"/>
+      <c r="W7" s="668"/>
+      <c r="X7" s="675" t="s">
         <v>320</v>
       </c>
-      <c r="Y7" s="621"/>
+      <c r="Y7" s="658"/>
     </row>
     <row r="8" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L8" s="676"/>
-      <c r="M8" s="643"/>
-      <c r="N8" s="663" t="s">
+      <c r="L8" s="619"/>
+      <c r="M8" s="623"/>
+      <c r="N8" s="645" t="s">
         <v>312</v>
       </c>
       <c r="O8" s="108"/>
@@ -11979,18 +12174,18 @@
       <c r="T8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="651"/>
-      <c r="V8" s="654"/>
-      <c r="W8" s="631"/>
-      <c r="X8" s="640"/>
-      <c r="Y8" s="621"/>
+      <c r="U8" s="632"/>
+      <c r="V8" s="635"/>
+      <c r="W8" s="668"/>
+      <c r="X8" s="676"/>
+      <c r="Y8" s="658"/>
     </row>
     <row r="9" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L9" s="674" t="s">
+      <c r="L9" s="617" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="643"/>
-      <c r="N9" s="664"/>
+      <c r="M9" s="623"/>
+      <c r="N9" s="646"/>
       <c r="O9" s="61"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
@@ -12001,18 +12196,18 @@
       <c r="T9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="651"/>
-      <c r="V9" s="654"/>
-      <c r="W9" s="631"/>
-      <c r="X9" s="634" t="s">
+      <c r="U9" s="632"/>
+      <c r="V9" s="635"/>
+      <c r="W9" s="668"/>
+      <c r="X9" s="671" t="s">
         <v>319</v>
       </c>
-      <c r="Y9" s="621"/>
+      <c r="Y9" s="658"/>
     </row>
     <row r="10" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L10" s="675"/>
-      <c r="M10" s="643"/>
-      <c r="N10" s="664"/>
+      <c r="L10" s="618"/>
+      <c r="M10" s="623"/>
+      <c r="N10" s="646"/>
       <c r="O10" s="64"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="65"/>
@@ -12021,16 +12216,16 @@
       <c r="T10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="651"/>
-      <c r="V10" s="654"/>
-      <c r="W10" s="631"/>
-      <c r="X10" s="641"/>
-      <c r="Y10" s="621"/>
+      <c r="U10" s="632"/>
+      <c r="V10" s="635"/>
+      <c r="W10" s="668"/>
+      <c r="X10" s="677"/>
+      <c r="Y10" s="658"/>
     </row>
     <row r="11" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L11" s="675"/>
-      <c r="M11" s="643"/>
-      <c r="N11" s="665"/>
+      <c r="L11" s="618"/>
+      <c r="M11" s="623"/>
+      <c r="N11" s="647"/>
       <c r="O11" s="64"/>
       <c r="P11" s="65"/>
       <c r="Q11" s="65"/>
@@ -12039,18 +12234,18 @@
       <c r="T11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="651"/>
-      <c r="V11" s="654"/>
-      <c r="W11" s="631"/>
-      <c r="X11" s="639" t="s">
+      <c r="U11" s="632"/>
+      <c r="V11" s="635"/>
+      <c r="W11" s="668"/>
+      <c r="X11" s="675" t="s">
         <v>318</v>
       </c>
-      <c r="Y11" s="621"/>
+      <c r="Y11" s="658"/>
     </row>
     <row r="12" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L12" s="676"/>
-      <c r="M12" s="643"/>
-      <c r="N12" s="661" t="s">
+      <c r="L12" s="619"/>
+      <c r="M12" s="623"/>
+      <c r="N12" s="643" t="s">
         <v>311</v>
       </c>
       <c r="O12" s="80"/>
@@ -12063,19 +12258,19 @@
       <c r="T12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="651"/>
-      <c r="V12" s="654"/>
-      <c r="W12" s="631"/>
-      <c r="X12" s="640"/>
-      <c r="Y12" s="621"/>
+      <c r="U12" s="632"/>
+      <c r="V12" s="635"/>
+      <c r="W12" s="668"/>
+      <c r="X12" s="676"/>
+      <c r="Y12" s="658"/>
       <c r="Z12" s="203"/>
     </row>
     <row r="13" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L13" s="674" t="s">
+      <c r="L13" s="617" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="643"/>
-      <c r="N13" s="662"/>
+      <c r="M13" s="623"/>
+      <c r="N13" s="644"/>
       <c r="O13" s="106"/>
       <c r="P13" s="107"/>
       <c r="Q13" s="107"/>
@@ -12086,18 +12281,18 @@
       <c r="T13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="651"/>
-      <c r="V13" s="654"/>
-      <c r="W13" s="631"/>
-      <c r="X13" s="634" t="s">
+      <c r="U13" s="632"/>
+      <c r="V13" s="635"/>
+      <c r="W13" s="668"/>
+      <c r="X13" s="671" t="s">
         <v>317</v>
       </c>
-      <c r="Y13" s="621"/>
+      <c r="Y13" s="658"/>
       <c r="Z13" s="204"/>
     </row>
     <row r="14" spans="12:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="675"/>
-      <c r="M14" s="643"/>
+      <c r="L14" s="618"/>
+      <c r="M14" s="623"/>
       <c r="N14" s="208"/>
       <c r="O14" s="64"/>
       <c r="P14" s="65"/>
@@ -12107,16 +12302,16 @@
       <c r="T14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="651"/>
-      <c r="V14" s="654"/>
-      <c r="W14" s="631"/>
-      <c r="X14" s="641"/>
-      <c r="Y14" s="621"/>
+      <c r="U14" s="632"/>
+      <c r="V14" s="635"/>
+      <c r="W14" s="668"/>
+      <c r="X14" s="677"/>
+      <c r="Y14" s="658"/>
       <c r="Z14" s="204"/>
     </row>
     <row r="15" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L15" s="675"/>
-      <c r="M15" s="643"/>
+      <c r="L15" s="618"/>
+      <c r="M15" s="623"/>
       <c r="N15" s="209"/>
       <c r="O15" s="64"/>
       <c r="P15" s="65"/>
@@ -12126,18 +12321,18 @@
       <c r="T15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="651"/>
-      <c r="V15" s="654"/>
-      <c r="W15" s="631"/>
-      <c r="X15" s="639" t="s">
+      <c r="U15" s="632"/>
+      <c r="V15" s="635"/>
+      <c r="W15" s="668"/>
+      <c r="X15" s="675" t="s">
         <v>316</v>
       </c>
-      <c r="Y15" s="621"/>
+      <c r="Y15" s="658"/>
       <c r="Z15" s="204"/>
     </row>
     <row r="16" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L16" s="676"/>
-      <c r="M16" s="643"/>
+      <c r="L16" s="619"/>
+      <c r="M16" s="623"/>
       <c r="N16" s="209"/>
       <c r="O16" s="108"/>
       <c r="P16" s="109"/>
@@ -12149,18 +12344,18 @@
       <c r="T16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="651"/>
-      <c r="V16" s="654"/>
-      <c r="W16" s="632"/>
-      <c r="X16" s="640"/>
-      <c r="Y16" s="621"/>
+      <c r="U16" s="632"/>
+      <c r="V16" s="635"/>
+      <c r="W16" s="669"/>
+      <c r="X16" s="676"/>
+      <c r="Y16" s="658"/>
       <c r="Z16" s="204"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L17" s="674" t="s">
+      <c r="L17" s="617" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="643"/>
+      <c r="M17" s="623"/>
       <c r="N17" s="209"/>
       <c r="O17" s="61"/>
       <c r="P17" s="62"/>
@@ -12172,18 +12367,18 @@
       <c r="T17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="651"/>
-      <c r="V17" s="654"/>
-      <c r="W17" s="623" t="s">
+      <c r="U17" s="632"/>
+      <c r="V17" s="635"/>
+      <c r="W17" s="660" t="s">
         <v>321</v>
       </c>
-      <c r="X17" s="624"/>
-      <c r="Y17" s="621"/>
+      <c r="X17" s="661"/>
+      <c r="Y17" s="658"/>
       <c r="Z17" s="204"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L18" s="675"/>
-      <c r="M18" s="643"/>
+      <c r="L18" s="618"/>
+      <c r="M18" s="623"/>
       <c r="N18" s="209"/>
       <c r="O18" s="64"/>
       <c r="P18" s="65"/>
@@ -12193,16 +12388,16 @@
       <c r="T18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="651"/>
-      <c r="V18" s="654"/>
-      <c r="W18" s="625"/>
-      <c r="X18" s="626"/>
-      <c r="Y18" s="621"/>
+      <c r="U18" s="632"/>
+      <c r="V18" s="635"/>
+      <c r="W18" s="662"/>
+      <c r="X18" s="663"/>
+      <c r="Y18" s="658"/>
       <c r="Z18" s="204"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L19" s="675"/>
-      <c r="M19" s="643"/>
+      <c r="L19" s="618"/>
+      <c r="M19" s="623"/>
       <c r="N19" s="209"/>
       <c r="O19" s="64"/>
       <c r="P19" s="65"/>
@@ -12212,16 +12407,16 @@
       <c r="T19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="651"/>
-      <c r="V19" s="654"/>
-      <c r="W19" s="625"/>
-      <c r="X19" s="626"/>
-      <c r="Y19" s="621"/>
+      <c r="U19" s="632"/>
+      <c r="V19" s="635"/>
+      <c r="W19" s="662"/>
+      <c r="X19" s="663"/>
+      <c r="Y19" s="658"/>
       <c r="Z19" s="204"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L20" s="676"/>
-      <c r="M20" s="643"/>
+      <c r="L20" s="619"/>
+      <c r="M20" s="623"/>
       <c r="N20" s="209"/>
       <c r="O20" s="80" t="s">
         <v>73</v>
@@ -12237,18 +12432,18 @@
       <c r="T20" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="651"/>
-      <c r="V20" s="654"/>
-      <c r="W20" s="625"/>
-      <c r="X20" s="626"/>
-      <c r="Y20" s="621"/>
+      <c r="U20" s="632"/>
+      <c r="V20" s="635"/>
+      <c r="W20" s="662"/>
+      <c r="X20" s="663"/>
+      <c r="Y20" s="658"/>
       <c r="Z20" s="204"/>
     </row>
     <row r="21" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L21" s="674" t="s">
+      <c r="L21" s="617" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="643"/>
+      <c r="M21" s="623"/>
       <c r="N21" s="209"/>
       <c r="O21" s="78"/>
       <c r="P21" s="79"/>
@@ -12260,11 +12455,11 @@
       <c r="T21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="651"/>
-      <c r="V21" s="654"/>
-      <c r="W21" s="625"/>
-      <c r="X21" s="626"/>
-      <c r="Y21" s="621"/>
+      <c r="U21" s="632"/>
+      <c r="V21" s="635"/>
+      <c r="W21" s="662"/>
+      <c r="X21" s="663"/>
+      <c r="Y21" s="658"/>
       <c r="Z21" s="204"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
@@ -12291,8 +12486,8 @@
         <v>7759</v>
       </c>
       <c r="J22" s="206"/>
-      <c r="L22" s="675"/>
-      <c r="M22" s="643"/>
+      <c r="L22" s="618"/>
+      <c r="M22" s="623"/>
       <c r="N22" s="209"/>
       <c r="O22" s="64"/>
       <c r="P22" s="65"/>
@@ -12302,19 +12497,19 @@
       <c r="T22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="651"/>
-      <c r="V22" s="654"/>
-      <c r="W22" s="625"/>
-      <c r="X22" s="626"/>
-      <c r="Y22" s="621"/>
+      <c r="U22" s="632"/>
+      <c r="V22" s="635"/>
+      <c r="W22" s="662"/>
+      <c r="X22" s="663"/>
+      <c r="Y22" s="658"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D23" s="174" t="s">
         <v>60</v>
       </c>
       <c r="J23" s="207"/>
-      <c r="L23" s="675"/>
-      <c r="M23" s="643"/>
+      <c r="L23" s="618"/>
+      <c r="M23" s="623"/>
       <c r="N23" s="209"/>
       <c r="O23" s="80"/>
       <c r="P23" s="81"/>
@@ -12324,11 +12519,11 @@
       <c r="T23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="651"/>
-      <c r="V23" s="654"/>
-      <c r="W23" s="625"/>
-      <c r="X23" s="626"/>
-      <c r="Y23" s="621"/>
+      <c r="U23" s="632"/>
+      <c r="V23" s="635"/>
+      <c r="W23" s="662"/>
+      <c r="X23" s="663"/>
+      <c r="Y23" s="658"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="189" t="s">
@@ -12354,8 +12549,8 @@
         <v>305</v>
       </c>
       <c r="J24" s="199"/>
-      <c r="L24" s="676"/>
-      <c r="M24" s="643"/>
+      <c r="L24" s="619"/>
+      <c r="M24" s="623"/>
       <c r="N24" s="209"/>
       <c r="O24" s="108"/>
       <c r="P24" s="109"/>
@@ -12367,11 +12562,11 @@
       <c r="T24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="651"/>
-      <c r="V24" s="654"/>
-      <c r="W24" s="625"/>
-      <c r="X24" s="626"/>
-      <c r="Y24" s="621"/>
+      <c r="U24" s="632"/>
+      <c r="V24" s="635"/>
+      <c r="W24" s="662"/>
+      <c r="X24" s="663"/>
+      <c r="Y24" s="658"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="186" t="s">
@@ -12397,10 +12592,10 @@
         <v>30</v>
       </c>
       <c r="J25" s="340"/>
-      <c r="L25" s="674" t="s">
+      <c r="L25" s="617" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="643"/>
+      <c r="M25" s="623"/>
       <c r="N25" s="209"/>
       <c r="O25" s="61"/>
       <c r="P25" s="62"/>
@@ -12412,16 +12607,16 @@
       <c r="T25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U25" s="651"/>
-      <c r="V25" s="654"/>
-      <c r="W25" s="625"/>
-      <c r="X25" s="626"/>
-      <c r="Y25" s="621"/>
+      <c r="U25" s="632"/>
+      <c r="V25" s="635"/>
+      <c r="W25" s="662"/>
+      <c r="X25" s="663"/>
+      <c r="Y25" s="658"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L26" s="675"/>
-      <c r="M26" s="643"/>
-      <c r="N26" s="671" t="s">
+      <c r="L26" s="618"/>
+      <c r="M26" s="623"/>
+      <c r="N26" s="653" t="s">
         <v>330</v>
       </c>
       <c r="O26" s="64"/>
@@ -12432,17 +12627,17 @@
       <c r="T26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="651"/>
-      <c r="V26" s="654"/>
-      <c r="W26" s="625"/>
-      <c r="X26" s="626"/>
-      <c r="Y26" s="621"/>
+      <c r="U26" s="632"/>
+      <c r="V26" s="635"/>
+      <c r="W26" s="662"/>
+      <c r="X26" s="663"/>
+      <c r="Y26" s="658"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H27" s="199"/>
-      <c r="L27" s="675"/>
-      <c r="M27" s="643"/>
-      <c r="N27" s="672"/>
+      <c r="L27" s="618"/>
+      <c r="M27" s="623"/>
+      <c r="N27" s="654"/>
       <c r="O27" s="80"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
@@ -12451,17 +12646,17 @@
       <c r="T27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U27" s="651"/>
-      <c r="V27" s="654"/>
-      <c r="W27" s="625"/>
-      <c r="X27" s="626"/>
-      <c r="Y27" s="621"/>
+      <c r="U27" s="632"/>
+      <c r="V27" s="635"/>
+      <c r="W27" s="662"/>
+      <c r="X27" s="663"/>
+      <c r="Y27" s="658"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H28" s="199"/>
-      <c r="L28" s="676"/>
-      <c r="M28" s="643"/>
-      <c r="N28" s="672"/>
+      <c r="L28" s="619"/>
+      <c r="M28" s="623"/>
+      <c r="N28" s="654"/>
       <c r="O28" s="80"/>
       <c r="P28" s="81"/>
       <c r="Q28" s="82" t="s">
@@ -12472,19 +12667,19 @@
       <c r="T28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U28" s="651"/>
-      <c r="V28" s="654"/>
-      <c r="W28" s="625"/>
-      <c r="X28" s="626"/>
-      <c r="Y28" s="621"/>
+      <c r="U28" s="632"/>
+      <c r="V28" s="635"/>
+      <c r="W28" s="662"/>
+      <c r="X28" s="663"/>
+      <c r="Y28" s="658"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H29" s="144"/>
-      <c r="L29" s="674" t="s">
+      <c r="L29" s="617" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="643"/>
-      <c r="N29" s="672"/>
+      <c r="M29" s="623"/>
+      <c r="N29" s="654"/>
       <c r="O29" s="106"/>
       <c r="P29" s="107"/>
       <c r="Q29" s="107"/>
@@ -12495,16 +12690,16 @@
       <c r="T29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="651"/>
-      <c r="V29" s="654"/>
-      <c r="W29" s="625"/>
-      <c r="X29" s="626"/>
-      <c r="Y29" s="621"/>
+      <c r="U29" s="632"/>
+      <c r="V29" s="635"/>
+      <c r="W29" s="662"/>
+      <c r="X29" s="663"/>
+      <c r="Y29" s="658"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L30" s="675"/>
-      <c r="M30" s="643"/>
-      <c r="N30" s="673"/>
+      <c r="L30" s="618"/>
+      <c r="M30" s="623"/>
+      <c r="N30" s="655"/>
       <c r="O30" s="64"/>
       <c r="P30" s="65"/>
       <c r="Q30" s="65"/>
@@ -12513,16 +12708,16 @@
       <c r="T30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U30" s="651"/>
-      <c r="V30" s="654"/>
-      <c r="W30" s="625"/>
-      <c r="X30" s="626"/>
-      <c r="Y30" s="621"/>
+      <c r="U30" s="632"/>
+      <c r="V30" s="635"/>
+      <c r="W30" s="662"/>
+      <c r="X30" s="663"/>
+      <c r="Y30" s="658"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L31" s="675"/>
-      <c r="M31" s="643"/>
-      <c r="N31" s="670" t="s">
+      <c r="L31" s="618"/>
+      <c r="M31" s="623"/>
+      <c r="N31" s="652" t="s">
         <v>329</v>
       </c>
       <c r="O31" s="64"/>
@@ -12533,16 +12728,16 @@
       <c r="T31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="651"/>
-      <c r="V31" s="654"/>
-      <c r="W31" s="625"/>
-      <c r="X31" s="626"/>
-      <c r="Y31" s="621"/>
+      <c r="U31" s="632"/>
+      <c r="V31" s="635"/>
+      <c r="W31" s="662"/>
+      <c r="X31" s="663"/>
+      <c r="Y31" s="658"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L32" s="676"/>
-      <c r="M32" s="643"/>
-      <c r="N32" s="664"/>
+      <c r="L32" s="619"/>
+      <c r="M32" s="623"/>
+      <c r="N32" s="646"/>
       <c r="O32" s="110"/>
       <c r="P32" s="111"/>
       <c r="Q32" s="112" t="s">
@@ -12553,18 +12748,18 @@
       <c r="T32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="651"/>
-      <c r="V32" s="654"/>
-      <c r="W32" s="625"/>
-      <c r="X32" s="626"/>
-      <c r="Y32" s="621"/>
+      <c r="U32" s="632"/>
+      <c r="V32" s="635"/>
+      <c r="W32" s="662"/>
+      <c r="X32" s="663"/>
+      <c r="Y32" s="658"/>
     </row>
     <row r="33" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L33" s="674" t="s">
+      <c r="L33" s="617" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="643"/>
-      <c r="N33" s="664"/>
+      <c r="M33" s="623"/>
+      <c r="N33" s="646"/>
       <c r="O33" s="61"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
@@ -12575,17 +12770,17 @@
       <c r="T33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U33" s="651"/>
-      <c r="V33" s="654"/>
-      <c r="W33" s="625"/>
-      <c r="X33" s="626"/>
-      <c r="Y33" s="621"/>
+      <c r="U33" s="632"/>
+      <c r="V33" s="635"/>
+      <c r="W33" s="662"/>
+      <c r="X33" s="663"/>
+      <c r="Y33" s="658"/>
       <c r="Z33" s="205"/>
     </row>
     <row r="34" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L34" s="675"/>
-      <c r="M34" s="643"/>
-      <c r="N34" s="665"/>
+      <c r="L34" s="618"/>
+      <c r="M34" s="623"/>
+      <c r="N34" s="647"/>
       <c r="O34" s="64"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="65"/>
@@ -12594,17 +12789,17 @@
       <c r="T34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="651"/>
-      <c r="V34" s="654"/>
-      <c r="W34" s="625"/>
-      <c r="X34" s="626"/>
-      <c r="Y34" s="621"/>
+      <c r="U34" s="632"/>
+      <c r="V34" s="635"/>
+      <c r="W34" s="662"/>
+      <c r="X34" s="663"/>
+      <c r="Y34" s="658"/>
       <c r="Z34" s="205"/>
     </row>
     <row r="35" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L35" s="675"/>
-      <c r="M35" s="643"/>
-      <c r="N35" s="669" t="s">
+      <c r="L35" s="618"/>
+      <c r="M35" s="623"/>
+      <c r="N35" s="651" t="s">
         <v>328</v>
       </c>
       <c r="O35" s="64"/>
@@ -12615,17 +12810,17 @@
       <c r="T35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U35" s="651"/>
-      <c r="V35" s="654"/>
-      <c r="W35" s="625"/>
-      <c r="X35" s="626"/>
-      <c r="Y35" s="621"/>
+      <c r="U35" s="632"/>
+      <c r="V35" s="635"/>
+      <c r="W35" s="662"/>
+      <c r="X35" s="663"/>
+      <c r="Y35" s="658"/>
       <c r="Z35" s="203"/>
     </row>
     <row r="36" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L36" s="676"/>
-      <c r="M36" s="643"/>
-      <c r="N36" s="662"/>
+      <c r="L36" s="619"/>
+      <c r="M36" s="623"/>
+      <c r="N36" s="644"/>
       <c r="O36" s="67" t="s">
         <v>73</v>
       </c>
@@ -12640,19 +12835,19 @@
       <c r="T36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U36" s="651"/>
-      <c r="V36" s="654"/>
-      <c r="W36" s="625"/>
-      <c r="X36" s="626"/>
-      <c r="Y36" s="621"/>
+      <c r="U36" s="632"/>
+      <c r="V36" s="635"/>
+      <c r="W36" s="662"/>
+      <c r="X36" s="663"/>
+      <c r="Y36" s="658"/>
       <c r="Z36" s="204"/>
     </row>
     <row r="37" spans="12:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L37" s="674" t="s">
+      <c r="L37" s="617" t="s">
         <v>103</v>
       </c>
-      <c r="M37" s="643"/>
-      <c r="N37" s="666" t="s">
+      <c r="M37" s="623"/>
+      <c r="N37" s="648" t="s">
         <v>313</v>
       </c>
       <c r="O37" s="70"/>
@@ -12669,17 +12864,17 @@
       <c r="T37" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="U37" s="651"/>
-      <c r="V37" s="654"/>
-      <c r="W37" s="625"/>
-      <c r="X37" s="626"/>
-      <c r="Y37" s="621"/>
+      <c r="U37" s="632"/>
+      <c r="V37" s="635"/>
+      <c r="W37" s="662"/>
+      <c r="X37" s="663"/>
+      <c r="Y37" s="658"/>
       <c r="Z37" s="204"/>
     </row>
     <row r="38" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L38" s="675"/>
-      <c r="M38" s="643"/>
-      <c r="N38" s="667"/>
+      <c r="L38" s="618"/>
+      <c r="M38" s="623"/>
+      <c r="N38" s="649"/>
       <c r="O38" s="72"/>
       <c r="P38" s="73"/>
       <c r="Q38" s="74" t="s">
@@ -12692,17 +12887,17 @@
       <c r="T38" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U38" s="651"/>
-      <c r="V38" s="654"/>
-      <c r="W38" s="625"/>
-      <c r="X38" s="626"/>
-      <c r="Y38" s="621"/>
+      <c r="U38" s="632"/>
+      <c r="V38" s="635"/>
+      <c r="W38" s="662"/>
+      <c r="X38" s="663"/>
+      <c r="Y38" s="658"/>
       <c r="Z38" s="204"/>
     </row>
     <row r="39" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L39" s="675"/>
-      <c r="M39" s="643"/>
-      <c r="N39" s="667"/>
+      <c r="L39" s="618"/>
+      <c r="M39" s="623"/>
+      <c r="N39" s="649"/>
       <c r="O39" s="72"/>
       <c r="P39" s="73"/>
       <c r="Q39" s="74" t="s">
@@ -12715,17 +12910,17 @@
       <c r="T39" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U39" s="651"/>
-      <c r="V39" s="654"/>
-      <c r="W39" s="625"/>
-      <c r="X39" s="626"/>
-      <c r="Y39" s="621"/>
+      <c r="U39" s="632"/>
+      <c r="V39" s="635"/>
+      <c r="W39" s="662"/>
+      <c r="X39" s="663"/>
+      <c r="Y39" s="658"/>
       <c r="Z39" s="205"/>
     </row>
     <row r="40" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L40" s="676"/>
-      <c r="M40" s="643"/>
-      <c r="N40" s="667"/>
+      <c r="L40" s="619"/>
+      <c r="M40" s="623"/>
+      <c r="N40" s="649"/>
       <c r="O40" s="96"/>
       <c r="P40" s="97"/>
       <c r="Q40" s="170" t="s">
@@ -12740,19 +12935,19 @@
       <c r="T40" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U40" s="651"/>
-      <c r="V40" s="654"/>
-      <c r="W40" s="625"/>
-      <c r="X40" s="626"/>
-      <c r="Y40" s="621"/>
+      <c r="U40" s="632"/>
+      <c r="V40" s="635"/>
+      <c r="W40" s="662"/>
+      <c r="X40" s="663"/>
+      <c r="Y40" s="658"/>
       <c r="Z40" s="203"/>
     </row>
     <row r="41" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L41" s="674" t="s">
+      <c r="L41" s="617" t="s">
         <v>102</v>
       </c>
-      <c r="M41" s="643"/>
-      <c r="N41" s="667"/>
+      <c r="M41" s="623"/>
+      <c r="N41" s="649"/>
       <c r="O41" s="101"/>
       <c r="P41" s="102"/>
       <c r="Q41" s="103" t="s">
@@ -12767,17 +12962,17 @@
       <c r="T41" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U41" s="651"/>
-      <c r="V41" s="654"/>
-      <c r="W41" s="625"/>
-      <c r="X41" s="626"/>
-      <c r="Y41" s="621"/>
+      <c r="U41" s="632"/>
+      <c r="V41" s="635"/>
+      <c r="W41" s="662"/>
+      <c r="X41" s="663"/>
+      <c r="Y41" s="658"/>
       <c r="Z41" s="204"/>
     </row>
     <row r="42" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L42" s="675"/>
-      <c r="M42" s="643"/>
-      <c r="N42" s="667"/>
+      <c r="L42" s="618"/>
+      <c r="M42" s="623"/>
+      <c r="N42" s="649"/>
       <c r="O42" s="72"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="74" t="s">
@@ -12790,17 +12985,17 @@
       <c r="T42" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="651"/>
-      <c r="V42" s="654"/>
-      <c r="W42" s="625"/>
-      <c r="X42" s="626"/>
-      <c r="Y42" s="621"/>
+      <c r="U42" s="632"/>
+      <c r="V42" s="635"/>
+      <c r="W42" s="662"/>
+      <c r="X42" s="663"/>
+      <c r="Y42" s="658"/>
       <c r="Z42" s="205"/>
     </row>
     <row r="43" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L43" s="675"/>
-      <c r="M43" s="643"/>
-      <c r="N43" s="667"/>
+      <c r="L43" s="618"/>
+      <c r="M43" s="623"/>
+      <c r="N43" s="649"/>
       <c r="O43" s="96"/>
       <c r="P43" s="97"/>
       <c r="Q43" s="170" t="s">
@@ -12813,17 +13008,17 @@
       <c r="T43" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U43" s="651"/>
-      <c r="V43" s="654"/>
-      <c r="W43" s="625"/>
-      <c r="X43" s="626"/>
-      <c r="Y43" s="621"/>
+      <c r="U43" s="632"/>
+      <c r="V43" s="635"/>
+      <c r="W43" s="662"/>
+      <c r="X43" s="663"/>
+      <c r="Y43" s="658"/>
       <c r="Z43" s="205"/>
     </row>
     <row r="44" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L44" s="676"/>
-      <c r="M44" s="643"/>
-      <c r="N44" s="667"/>
+      <c r="L44" s="619"/>
+      <c r="M44" s="623"/>
+      <c r="N44" s="649"/>
       <c r="O44" s="104"/>
       <c r="P44" s="105"/>
       <c r="Q44" s="171" t="s">
@@ -12836,19 +13031,19 @@
       <c r="T44" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U44" s="651"/>
-      <c r="V44" s="654"/>
-      <c r="W44" s="625"/>
-      <c r="X44" s="626"/>
-      <c r="Y44" s="621"/>
+      <c r="U44" s="632"/>
+      <c r="V44" s="635"/>
+      <c r="W44" s="662"/>
+      <c r="X44" s="663"/>
+      <c r="Y44" s="658"/>
       <c r="Z44" s="205"/>
     </row>
     <row r="45" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L45" s="674" t="s">
+      <c r="L45" s="617" t="s">
         <v>101</v>
       </c>
-      <c r="M45" s="643"/>
-      <c r="N45" s="667"/>
+      <c r="M45" s="623"/>
+      <c r="N45" s="649"/>
       <c r="O45" s="98"/>
       <c r="P45" s="99"/>
       <c r="Q45" s="100" t="s">
@@ -12861,16 +13056,16 @@
       <c r="T45" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U45" s="651"/>
-      <c r="V45" s="654"/>
-      <c r="W45" s="625"/>
-      <c r="X45" s="626"/>
-      <c r="Y45" s="621"/>
+      <c r="U45" s="632"/>
+      <c r="V45" s="635"/>
+      <c r="W45" s="662"/>
+      <c r="X45" s="663"/>
+      <c r="Y45" s="658"/>
     </row>
     <row r="46" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L46" s="677"/>
-      <c r="M46" s="643"/>
-      <c r="N46" s="667"/>
+      <c r="L46" s="620"/>
+      <c r="M46" s="623"/>
+      <c r="N46" s="649"/>
       <c r="O46" s="72"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="74" t="s">
@@ -12883,16 +13078,16 @@
       <c r="T46" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U46" s="651"/>
-      <c r="V46" s="654"/>
-      <c r="W46" s="625"/>
-      <c r="X46" s="626"/>
-      <c r="Y46" s="621"/>
+      <c r="U46" s="632"/>
+      <c r="V46" s="635"/>
+      <c r="W46" s="662"/>
+      <c r="X46" s="663"/>
+      <c r="Y46" s="658"/>
     </row>
     <row r="47" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L47" s="677"/>
-      <c r="M47" s="643"/>
-      <c r="N47" s="667"/>
+      <c r="L47" s="620"/>
+      <c r="M47" s="623"/>
+      <c r="N47" s="649"/>
       <c r="O47" s="96"/>
       <c r="P47" s="97"/>
       <c r="Q47" s="170" t="s">
@@ -12905,16 +13100,16 @@
       <c r="T47" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U47" s="651"/>
-      <c r="V47" s="654"/>
-      <c r="W47" s="625"/>
-      <c r="X47" s="626"/>
-      <c r="Y47" s="621"/>
+      <c r="U47" s="632"/>
+      <c r="V47" s="635"/>
+      <c r="W47" s="662"/>
+      <c r="X47" s="663"/>
+      <c r="Y47" s="658"/>
     </row>
     <row r="48" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L48" s="678"/>
-      <c r="M48" s="643"/>
-      <c r="N48" s="667"/>
+      <c r="L48" s="621"/>
+      <c r="M48" s="623"/>
+      <c r="N48" s="649"/>
       <c r="O48" s="104"/>
       <c r="P48" s="105"/>
       <c r="Q48" s="171" t="s">
@@ -12927,18 +13122,18 @@
       <c r="T48" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U48" s="651"/>
-      <c r="V48" s="654"/>
-      <c r="W48" s="625"/>
-      <c r="X48" s="626"/>
-      <c r="Y48" s="621"/>
+      <c r="U48" s="632"/>
+      <c r="V48" s="635"/>
+      <c r="W48" s="662"/>
+      <c r="X48" s="663"/>
+      <c r="Y48" s="658"/>
     </row>
     <row r="49" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L49" s="674" t="s">
+      <c r="L49" s="617" t="s">
         <v>100</v>
       </c>
-      <c r="M49" s="643"/>
-      <c r="N49" s="667"/>
+      <c r="M49" s="623"/>
+      <c r="N49" s="649"/>
       <c r="O49" s="98"/>
       <c r="P49" s="99"/>
       <c r="Q49" s="100" t="s">
@@ -12951,16 +13146,16 @@
       <c r="T49" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U49" s="651"/>
-      <c r="V49" s="654"/>
-      <c r="W49" s="625"/>
-      <c r="X49" s="626"/>
-      <c r="Y49" s="621"/>
+      <c r="U49" s="632"/>
+      <c r="V49" s="635"/>
+      <c r="W49" s="662"/>
+      <c r="X49" s="663"/>
+      <c r="Y49" s="658"/>
     </row>
     <row r="50" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L50" s="675"/>
-      <c r="M50" s="643"/>
-      <c r="N50" s="667"/>
+      <c r="L50" s="618"/>
+      <c r="M50" s="623"/>
+      <c r="N50" s="649"/>
       <c r="O50" s="72"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="74" t="s">
@@ -12969,22 +13164,22 @@
       <c r="R50" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="S50" s="647" t="s">
+      <c r="S50" s="628" t="s">
         <v>115</v>
       </c>
       <c r="T50" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U50" s="651"/>
-      <c r="V50" s="654"/>
-      <c r="W50" s="625"/>
-      <c r="X50" s="626"/>
-      <c r="Y50" s="621"/>
+      <c r="U50" s="632"/>
+      <c r="V50" s="635"/>
+      <c r="W50" s="662"/>
+      <c r="X50" s="663"/>
+      <c r="Y50" s="658"/>
     </row>
     <row r="51" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L51" s="675"/>
-      <c r="M51" s="643"/>
-      <c r="N51" s="667"/>
+      <c r="L51" s="618"/>
+      <c r="M51" s="623"/>
+      <c r="N51" s="649"/>
       <c r="O51" s="72"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="74" t="s">
@@ -12993,20 +13188,20 @@
       <c r="R51" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="S51" s="648"/>
+      <c r="S51" s="629"/>
       <c r="T51" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U51" s="651"/>
-      <c r="V51" s="654"/>
-      <c r="W51" s="625"/>
-      <c r="X51" s="626"/>
-      <c r="Y51" s="621"/>
+      <c r="U51" s="632"/>
+      <c r="V51" s="635"/>
+      <c r="W51" s="662"/>
+      <c r="X51" s="663"/>
+      <c r="Y51" s="658"/>
     </row>
     <row r="52" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L52" s="676"/>
-      <c r="M52" s="643"/>
-      <c r="N52" s="667"/>
+      <c r="L52" s="619"/>
+      <c r="M52" s="623"/>
+      <c r="N52" s="649"/>
       <c r="O52" s="75" t="s">
         <v>64</v>
       </c>
@@ -13017,22 +13212,22 @@
       <c r="R52" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="S52" s="649"/>
+      <c r="S52" s="630"/>
       <c r="T52" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U52" s="651"/>
-      <c r="V52" s="654"/>
-      <c r="W52" s="625"/>
-      <c r="X52" s="626"/>
-      <c r="Y52" s="621"/>
+      <c r="U52" s="632"/>
+      <c r="V52" s="635"/>
+      <c r="W52" s="662"/>
+      <c r="X52" s="663"/>
+      <c r="Y52" s="658"/>
     </row>
     <row r="53" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L53" s="674" t="s">
+      <c r="L53" s="617" t="s">
         <v>99</v>
       </c>
-      <c r="M53" s="643"/>
-      <c r="N53" s="667"/>
+      <c r="M53" s="623"/>
+      <c r="N53" s="649"/>
       <c r="O53" s="83"/>
       <c r="P53" s="84"/>
       <c r="Q53" s="85" t="s">
@@ -13045,16 +13240,16 @@
       <c r="T53" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U53" s="651"/>
-      <c r="V53" s="654"/>
-      <c r="W53" s="625"/>
-      <c r="X53" s="626"/>
-      <c r="Y53" s="621"/>
+      <c r="U53" s="632"/>
+      <c r="V53" s="635"/>
+      <c r="W53" s="662"/>
+      <c r="X53" s="663"/>
+      <c r="Y53" s="658"/>
     </row>
     <row r="54" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L54" s="675"/>
-      <c r="M54" s="643"/>
-      <c r="N54" s="667"/>
+      <c r="L54" s="618"/>
+      <c r="M54" s="623"/>
+      <c r="N54" s="649"/>
       <c r="O54" s="86"/>
       <c r="P54" s="87"/>
       <c r="Q54" s="88" t="s">
@@ -13067,16 +13262,16 @@
       <c r="T54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U54" s="651"/>
-      <c r="V54" s="654"/>
-      <c r="W54" s="625"/>
-      <c r="X54" s="626"/>
-      <c r="Y54" s="621"/>
+      <c r="U54" s="632"/>
+      <c r="V54" s="635"/>
+      <c r="W54" s="662"/>
+      <c r="X54" s="663"/>
+      <c r="Y54" s="658"/>
     </row>
     <row r="55" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L55" s="675"/>
-      <c r="M55" s="643"/>
-      <c r="N55" s="667"/>
+      <c r="L55" s="618"/>
+      <c r="M55" s="623"/>
+      <c r="N55" s="649"/>
       <c r="O55" s="86"/>
       <c r="P55" s="87"/>
       <c r="Q55" s="88" t="s">
@@ -13089,16 +13284,16 @@
       <c r="T55" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U55" s="651"/>
-      <c r="V55" s="654"/>
-      <c r="W55" s="625"/>
-      <c r="X55" s="626"/>
-      <c r="Y55" s="621"/>
+      <c r="U55" s="632"/>
+      <c r="V55" s="635"/>
+      <c r="W55" s="662"/>
+      <c r="X55" s="663"/>
+      <c r="Y55" s="658"/>
     </row>
     <row r="56" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L56" s="676"/>
-      <c r="M56" s="643"/>
-      <c r="N56" s="667"/>
+      <c r="L56" s="619"/>
+      <c r="M56" s="623"/>
+      <c r="N56" s="649"/>
       <c r="O56" s="89" t="s">
         <v>54</v>
       </c>
@@ -13115,18 +13310,18 @@
       <c r="T56" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U56" s="651"/>
-      <c r="V56" s="654"/>
-      <c r="W56" s="625"/>
-      <c r="X56" s="626"/>
-      <c r="Y56" s="621"/>
+      <c r="U56" s="632"/>
+      <c r="V56" s="635"/>
+      <c r="W56" s="662"/>
+      <c r="X56" s="663"/>
+      <c r="Y56" s="658"/>
     </row>
     <row r="57" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L57" s="674" t="s">
+      <c r="L57" s="617" t="s">
         <v>98</v>
       </c>
-      <c r="M57" s="643"/>
-      <c r="N57" s="667"/>
+      <c r="M57" s="623"/>
+      <c r="N57" s="649"/>
       <c r="O57" s="52"/>
       <c r="P57" s="53"/>
       <c r="Q57" s="54" t="s">
@@ -13139,16 +13334,16 @@
       <c r="T57" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U57" s="651"/>
-      <c r="V57" s="654"/>
-      <c r="W57" s="625"/>
-      <c r="X57" s="626"/>
-      <c r="Y57" s="621"/>
+      <c r="U57" s="632"/>
+      <c r="V57" s="635"/>
+      <c r="W57" s="662"/>
+      <c r="X57" s="663"/>
+      <c r="Y57" s="658"/>
     </row>
     <row r="58" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L58" s="675"/>
-      <c r="M58" s="643"/>
-      <c r="N58" s="667"/>
+      <c r="L58" s="618"/>
+      <c r="M58" s="623"/>
+      <c r="N58" s="649"/>
       <c r="O58" s="55"/>
       <c r="P58" s="56"/>
       <c r="Q58" s="57" t="s">
@@ -13161,16 +13356,16 @@
       <c r="T58" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U58" s="651"/>
-      <c r="V58" s="654"/>
-      <c r="W58" s="625"/>
-      <c r="X58" s="626"/>
-      <c r="Y58" s="621"/>
+      <c r="U58" s="632"/>
+      <c r="V58" s="635"/>
+      <c r="W58" s="662"/>
+      <c r="X58" s="663"/>
+      <c r="Y58" s="658"/>
     </row>
     <row r="59" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L59" s="675"/>
-      <c r="M59" s="643"/>
-      <c r="N59" s="667"/>
+      <c r="L59" s="618"/>
+      <c r="M59" s="623"/>
+      <c r="N59" s="649"/>
       <c r="O59" s="55"/>
       <c r="P59" s="56"/>
       <c r="Q59" s="57" t="s">
@@ -13183,16 +13378,16 @@
       <c r="T59" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U59" s="651"/>
-      <c r="V59" s="654"/>
-      <c r="W59" s="625"/>
-      <c r="X59" s="626"/>
-      <c r="Y59" s="621"/>
+      <c r="U59" s="632"/>
+      <c r="V59" s="635"/>
+      <c r="W59" s="662"/>
+      <c r="X59" s="663"/>
+      <c r="Y59" s="658"/>
     </row>
     <row r="60" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L60" s="676"/>
-      <c r="M60" s="643"/>
-      <c r="N60" s="667"/>
+      <c r="L60" s="619"/>
+      <c r="M60" s="623"/>
+      <c r="N60" s="649"/>
       <c r="O60" s="55"/>
       <c r="P60" s="56"/>
       <c r="Q60" s="57" t="s">
@@ -13205,18 +13400,18 @@
       <c r="T60" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U60" s="651"/>
-      <c r="V60" s="654"/>
-      <c r="W60" s="625"/>
-      <c r="X60" s="626"/>
-      <c r="Y60" s="621"/>
+      <c r="U60" s="632"/>
+      <c r="V60" s="635"/>
+      <c r="W60" s="662"/>
+      <c r="X60" s="663"/>
+      <c r="Y60" s="658"/>
     </row>
     <row r="61" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L61" s="674" t="s">
+      <c r="L61" s="617" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="643"/>
-      <c r="N61" s="667"/>
+      <c r="M61" s="623"/>
+      <c r="N61" s="649"/>
       <c r="O61" s="55"/>
       <c r="P61" s="56"/>
       <c r="Q61" s="57" t="s">
@@ -13229,16 +13424,16 @@
       <c r="T61" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U61" s="651"/>
-      <c r="V61" s="654"/>
-      <c r="W61" s="625"/>
-      <c r="X61" s="626"/>
-      <c r="Y61" s="621"/>
+      <c r="U61" s="632"/>
+      <c r="V61" s="635"/>
+      <c r="W61" s="662"/>
+      <c r="X61" s="663"/>
+      <c r="Y61" s="658"/>
     </row>
     <row r="62" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L62" s="675"/>
-      <c r="M62" s="643"/>
-      <c r="N62" s="667"/>
+      <c r="L62" s="618"/>
+      <c r="M62" s="623"/>
+      <c r="N62" s="649"/>
       <c r="O62" s="55"/>
       <c r="P62" s="56"/>
       <c r="Q62" s="57" t="s">
@@ -13251,16 +13446,16 @@
       <c r="T62" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U62" s="651"/>
-      <c r="V62" s="654"/>
-      <c r="W62" s="625"/>
-      <c r="X62" s="626"/>
-      <c r="Y62" s="621"/>
+      <c r="U62" s="632"/>
+      <c r="V62" s="635"/>
+      <c r="W62" s="662"/>
+      <c r="X62" s="663"/>
+      <c r="Y62" s="658"/>
     </row>
     <row r="63" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L63" s="675"/>
-      <c r="M63" s="643"/>
-      <c r="N63" s="667"/>
+      <c r="L63" s="618"/>
+      <c r="M63" s="623"/>
+      <c r="N63" s="649"/>
       <c r="O63" s="55"/>
       <c r="P63" s="56"/>
       <c r="Q63" s="57" t="s">
@@ -13273,16 +13468,16 @@
       <c r="T63" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U63" s="651"/>
-      <c r="V63" s="654"/>
-      <c r="W63" s="625"/>
-      <c r="X63" s="626"/>
-      <c r="Y63" s="621"/>
+      <c r="U63" s="632"/>
+      <c r="V63" s="635"/>
+      <c r="W63" s="662"/>
+      <c r="X63" s="663"/>
+      <c r="Y63" s="658"/>
     </row>
     <row r="64" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L64" s="676"/>
-      <c r="M64" s="643"/>
-      <c r="N64" s="667"/>
+      <c r="L64" s="619"/>
+      <c r="M64" s="623"/>
+      <c r="N64" s="649"/>
       <c r="O64" s="58" t="s">
         <v>36</v>
       </c>
@@ -13299,18 +13494,18 @@
       <c r="T64" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U64" s="651"/>
-      <c r="V64" s="654"/>
-      <c r="W64" s="625"/>
-      <c r="X64" s="626"/>
-      <c r="Y64" s="621"/>
+      <c r="U64" s="632"/>
+      <c r="V64" s="635"/>
+      <c r="W64" s="662"/>
+      <c r="X64" s="663"/>
+      <c r="Y64" s="658"/>
     </row>
     <row r="65" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L65" s="674" t="s">
+      <c r="L65" s="617" t="s">
         <v>96</v>
       </c>
-      <c r="M65" s="643"/>
-      <c r="N65" s="667"/>
+      <c r="M65" s="623"/>
+      <c r="N65" s="649"/>
       <c r="O65" s="61"/>
       <c r="P65" s="62"/>
       <c r="Q65" s="63" t="s">
@@ -13323,16 +13518,16 @@
       <c r="T65" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U65" s="651"/>
-      <c r="V65" s="654"/>
-      <c r="W65" s="625"/>
-      <c r="X65" s="626"/>
-      <c r="Y65" s="621"/>
+      <c r="U65" s="632"/>
+      <c r="V65" s="635"/>
+      <c r="W65" s="662"/>
+      <c r="X65" s="663"/>
+      <c r="Y65" s="658"/>
     </row>
     <row r="66" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L66" s="675"/>
-      <c r="M66" s="643"/>
-      <c r="N66" s="667"/>
+      <c r="L66" s="618"/>
+      <c r="M66" s="623"/>
+      <c r="N66" s="649"/>
       <c r="O66" s="64"/>
       <c r="P66" s="65"/>
       <c r="Q66" s="66" t="s">
@@ -13345,16 +13540,16 @@
       <c r="T66" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U66" s="651"/>
-      <c r="V66" s="654"/>
-      <c r="W66" s="625"/>
-      <c r="X66" s="626"/>
-      <c r="Y66" s="621"/>
+      <c r="U66" s="632"/>
+      <c r="V66" s="635"/>
+      <c r="W66" s="662"/>
+      <c r="X66" s="663"/>
+      <c r="Y66" s="658"/>
     </row>
     <row r="67" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L67" s="675"/>
-      <c r="M67" s="643"/>
-      <c r="N67" s="667"/>
+      <c r="L67" s="618"/>
+      <c r="M67" s="623"/>
+      <c r="N67" s="649"/>
       <c r="O67" s="64"/>
       <c r="P67" s="65"/>
       <c r="Q67" s="66" t="s">
@@ -13367,16 +13562,16 @@
       <c r="T67" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U67" s="651"/>
-      <c r="V67" s="654"/>
-      <c r="W67" s="625"/>
-      <c r="X67" s="626"/>
-      <c r="Y67" s="621"/>
+      <c r="U67" s="632"/>
+      <c r="V67" s="635"/>
+      <c r="W67" s="662"/>
+      <c r="X67" s="663"/>
+      <c r="Y67" s="658"/>
     </row>
     <row r="68" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L68" s="676"/>
-      <c r="M68" s="644"/>
-      <c r="N68" s="668"/>
+      <c r="L68" s="619"/>
+      <c r="M68" s="624"/>
+      <c r="N68" s="650"/>
       <c r="O68" s="67" t="s">
         <v>25</v>
       </c>
@@ -13393,11 +13588,11 @@
       <c r="T68" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U68" s="652"/>
-      <c r="V68" s="655"/>
-      <c r="W68" s="627"/>
-      <c r="X68" s="628"/>
-      <c r="Y68" s="622"/>
+      <c r="U68" s="633"/>
+      <c r="V68" s="636"/>
+      <c r="W68" s="664"/>
+      <c r="X68" s="665"/>
+      <c r="Y68" s="659"/>
     </row>
     <row r="69" spans="12:25" x14ac:dyDescent="0.25">
       <c r="N69" s="210"/>
@@ -13405,6 +13600,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Y5:Y68"/>
+    <mergeCell ref="W17:X67"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="W5:W16"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="M5:M68"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="U5:U68"/>
+    <mergeCell ref="V5:V68"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="N37:N68"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="N26:N30"/>
     <mergeCell ref="L65:L68"/>
     <mergeCell ref="L61:L64"/>
     <mergeCell ref="L57:L60"/>
@@ -13421,34 +13644,6 @@
     <mergeCell ref="L49:L52"/>
     <mergeCell ref="L45:L48"/>
     <mergeCell ref="L41:L44"/>
-    <mergeCell ref="M5:M68"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="U5:U68"/>
-    <mergeCell ref="V5:V68"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="N37:N68"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Y5:Y68"/>
-    <mergeCell ref="W17:X67"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="W5:W16"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X15:X16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13472,83 +13667,83 @@
   <sheetData>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="557" t="s">
+      <c r="C4" s="556" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="679" t="s">
+      <c r="D4" s="693" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="680"/>
-      <c r="F4" s="680"/>
-      <c r="G4" s="680"/>
-      <c r="H4" s="680"/>
-      <c r="I4" s="573"/>
+      <c r="E4" s="694"/>
+      <c r="F4" s="694"/>
+      <c r="G4" s="694"/>
+      <c r="H4" s="694"/>
+      <c r="I4" s="572"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="561" t="s">
+      <c r="C5" s="560" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="562" t="s">
+      <c r="D5" s="561" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="563" t="s">
+      <c r="E5" s="562" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="563" t="s">
+      <c r="F5" s="562" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="563" t="s">
+      <c r="G5" s="562" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="572" t="s">
+      <c r="H5" s="571" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="574" t="s">
+      <c r="I5" s="573" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="681" t="s">
+      <c r="C6" s="695" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="564"/>
-      <c r="E6" s="555"/>
-      <c r="F6" s="544"/>
-      <c r="G6" s="544" t="s">
+      <c r="D6" s="563"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="543"/>
+      <c r="G6" s="543" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="571" t="s">
+      <c r="H6" s="570" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="688" t="s">
+      <c r="I6" s="678" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="682"/>
-      <c r="D7" s="524"/>
+      <c r="C7" s="684"/>
+      <c r="D7" s="523"/>
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
       <c r="G7" s="65"/>
-      <c r="H7" s="538" t="s">
+      <c r="H7" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="689"/>
+      <c r="I7" s="679"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="682"/>
-      <c r="D8" s="524"/>
+      <c r="C8" s="684"/>
+      <c r="D8" s="523"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
       <c r="G8" s="65"/>
-      <c r="H8" s="538" t="s">
+      <c r="H8" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="689"/>
+      <c r="I8" s="679"/>
     </row>
     <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="683"/>
-      <c r="D9" s="525" t="s">
+      <c r="C9" s="685"/>
+      <c r="D9" s="524" t="s">
         <v>73</v>
       </c>
       <c r="E9" s="81" t="s">
@@ -13558,65 +13753,65 @@
         <v>82</v>
       </c>
       <c r="G9" s="82"/>
-      <c r="H9" s="559" t="s">
+      <c r="H9" s="558" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="695"/>
+      <c r="I9" s="680"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="684" t="s">
+      <c r="C10" s="683" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="569"/>
-      <c r="E10" s="570"/>
-      <c r="F10" s="531"/>
-      <c r="G10" s="532" t="s">
+      <c r="D10" s="568"/>
+      <c r="E10" s="569"/>
+      <c r="F10" s="530"/>
+      <c r="G10" s="531" t="s">
         <v>263</v>
       </c>
-      <c r="H10" s="584" t="s">
+      <c r="H10" s="583" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="686" t="s">
+      <c r="I10" s="681" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="682"/>
+      <c r="C11" s="684"/>
       <c r="D11" s="72"/>
       <c r="E11" s="73"/>
       <c r="F11" s="65"/>
       <c r="G11" s="65"/>
-      <c r="H11" s="537" t="s">
+      <c r="H11" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="686"/>
+      <c r="I11" s="681"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="682"/>
+      <c r="C12" s="684"/>
       <c r="D12" s="72"/>
       <c r="E12" s="73"/>
       <c r="F12" s="65"/>
       <c r="G12" s="65"/>
-      <c r="H12" s="537" t="s">
+      <c r="H12" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="686"/>
+      <c r="I12" s="681"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="683"/>
+      <c r="C13" s="685"/>
       <c r="D13" s="96"/>
       <c r="E13" s="97"/>
       <c r="F13" s="82" t="s">
         <v>81</v>
       </c>
       <c r="G13" s="82"/>
-      <c r="H13" s="582" t="s">
+      <c r="H13" s="581" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="686"/>
+      <c r="I13" s="681"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="684" t="s">
+      <c r="C14" s="683" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="101"/>
@@ -13625,48 +13820,48 @@
       <c r="G14" s="172" t="s">
         <v>262</v>
       </c>
-      <c r="H14" s="586" t="s">
+      <c r="H14" s="585" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="686"/>
+      <c r="I14" s="681"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="682"/>
+      <c r="C15" s="684"/>
       <c r="D15" s="72"/>
       <c r="E15" s="73"/>
       <c r="F15" s="65"/>
       <c r="G15" s="65"/>
-      <c r="H15" s="537" t="s">
+      <c r="H15" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="686"/>
+      <c r="I15" s="681"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="682"/>
+      <c r="C16" s="684"/>
       <c r="D16" s="96"/>
       <c r="E16" s="97"/>
       <c r="F16" s="65"/>
       <c r="G16" s="65"/>
-      <c r="H16" s="537" t="s">
+      <c r="H16" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="686"/>
+      <c r="I16" s="681"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="683"/>
+      <c r="C17" s="685"/>
       <c r="D17" s="104"/>
       <c r="E17" s="105"/>
       <c r="F17" s="113" t="s">
         <v>80</v>
       </c>
       <c r="G17" s="113"/>
-      <c r="H17" s="582" t="s">
+      <c r="H17" s="581" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="686"/>
+      <c r="I17" s="681"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="684" t="s">
+      <c r="C18" s="683" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="98"/>
@@ -13675,48 +13870,48 @@
       <c r="G18" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="H18" s="586" t="s">
+      <c r="H18" s="585" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="686"/>
+      <c r="I18" s="681"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="682"/>
+      <c r="C19" s="684"/>
       <c r="D19" s="72"/>
       <c r="E19" s="73"/>
       <c r="F19" s="65"/>
       <c r="G19" s="65"/>
-      <c r="H19" s="537" t="s">
+      <c r="H19" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="686"/>
+      <c r="I19" s="681"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="682"/>
+      <c r="C20" s="684"/>
       <c r="D20" s="96"/>
       <c r="E20" s="97"/>
       <c r="F20" s="65"/>
       <c r="G20" s="65"/>
-      <c r="H20" s="537" t="s">
+      <c r="H20" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="686"/>
+      <c r="I20" s="681"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="683"/>
+      <c r="C21" s="685"/>
       <c r="D21" s="104"/>
       <c r="E21" s="105"/>
       <c r="F21" s="82" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="587" t="s">
+      <c r="H21" s="586" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="686"/>
+      <c r="I21" s="681"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="684" t="s">
+      <c r="C22" s="683" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="98"/>
@@ -13725,35 +13920,35 @@
       <c r="G22" s="172" t="s">
         <v>260</v>
       </c>
-      <c r="H22" s="585" t="s">
+      <c r="H22" s="584" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="686"/>
+      <c r="I22" s="681"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="682"/>
+      <c r="C23" s="684"/>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
       <c r="F23" s="65"/>
       <c r="G23" s="65"/>
-      <c r="H23" s="537" t="s">
+      <c r="H23" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="686"/>
+      <c r="I23" s="681"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="682"/>
+      <c r="C24" s="684"/>
       <c r="D24" s="72"/>
       <c r="E24" s="73"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
-      <c r="H24" s="537" t="s">
+      <c r="H24" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="686"/>
+      <c r="I24" s="681"/>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="683"/>
+      <c r="C25" s="685"/>
       <c r="D25" s="96" t="s">
         <v>64</v>
       </c>
@@ -13764,129 +13959,129 @@
         <v>78</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="582" t="s">
+      <c r="H25" s="581" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="687"/>
+      <c r="I25" s="682"/>
     </row>
     <row r="26" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="684" t="s">
+      <c r="C26" s="683" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="565" t="s">
+      <c r="D26" s="564" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="566" t="s">
+      <c r="E26" s="565" t="s">
         <v>882</v>
       </c>
-      <c r="F26" s="567" t="s">
+      <c r="F26" s="566" t="s">
         <v>883</v>
       </c>
-      <c r="G26" s="568" t="s">
+      <c r="G26" s="567" t="s">
         <v>259</v>
       </c>
-      <c r="H26" s="583" t="s">
+      <c r="H26" s="582" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="579" t="s">
+      <c r="I26" s="578" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="682"/>
-      <c r="D27" s="528"/>
-      <c r="E27" s="529"/>
+      <c r="C27" s="684"/>
+      <c r="D27" s="527"/>
+      <c r="E27" s="528"/>
       <c r="F27" s="62"/>
       <c r="G27" s="63" t="s">
         <v>895</v>
       </c>
-      <c r="H27" s="558" t="s">
+      <c r="H27" s="557" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="696" t="s">
+      <c r="I27" s="686" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="28" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="682"/>
-      <c r="D28" s="526"/>
-      <c r="E28" s="527"/>
+      <c r="C28" s="684"/>
+      <c r="D28" s="525"/>
+      <c r="E28" s="526"/>
       <c r="F28" s="81"/>
       <c r="G28" s="81"/>
-      <c r="H28" s="538" t="s">
+      <c r="H28" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="689"/>
+      <c r="I28" s="679"/>
     </row>
     <row r="29" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="683"/>
-      <c r="D29" s="526"/>
-      <c r="E29" s="527"/>
+      <c r="C29" s="685"/>
+      <c r="D29" s="525"/>
+      <c r="E29" s="526"/>
       <c r="F29" s="82" t="s">
         <v>77</v>
       </c>
       <c r="G29" s="82"/>
-      <c r="H29" s="559" t="s">
+      <c r="H29" s="558" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="690"/>
-      <c r="J29" s="578" t="s">
+      <c r="I29" s="687"/>
+      <c r="J29" s="577" t="s">
         <v>84</v>
       </c>
-      <c r="K29" s="541" t="s">
+      <c r="K29" s="540" t="s">
         <v>85</v>
       </c>
-      <c r="L29" s="541" t="s">
+      <c r="L29" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M29" s="541" t="s">
+      <c r="M29" s="540" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="542" t="s">
+      <c r="N29" s="541" t="s">
         <v>88</v>
       </c>
-      <c r="O29" s="577" t="s">
+      <c r="O29" s="576" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="30" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="684" t="s">
+      <c r="C30" s="683" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="530"/>
-      <c r="E30" s="531"/>
-      <c r="F30" s="531"/>
-      <c r="G30" s="532" t="s">
+      <c r="D30" s="529"/>
+      <c r="E30" s="530"/>
+      <c r="F30" s="530"/>
+      <c r="G30" s="531" t="s">
         <v>258</v>
       </c>
-      <c r="H30" s="580" t="s">
+      <c r="H30" s="579" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="549"/>
-      <c r="K30" s="550"/>
-      <c r="L30" s="544" t="s">
+      <c r="J30" s="548"/>
+      <c r="K30" s="549"/>
+      <c r="L30" s="543" t="s">
         <v>888</v>
       </c>
-      <c r="M30" s="544" t="s">
+      <c r="M30" s="543" t="s">
         <v>258</v>
       </c>
-      <c r="N30" s="543" t="s">
+      <c r="N30" s="542" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="688" t="s">
+      <c r="O30" s="678" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="682"/>
+      <c r="C31" s="684"/>
       <c r="D31" s="64"/>
       <c r="E31" s="65"/>
       <c r="F31" s="65"/>
       <c r="G31" s="65"/>
-      <c r="H31" s="538" t="s">
+      <c r="H31" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="551"/>
+      <c r="J31" s="550"/>
       <c r="K31" s="73"/>
       <c r="L31" s="66" t="s">
         <v>887</v>
@@ -13894,21 +14089,21 @@
       <c r="M31" s="66" t="s">
         <v>890</v>
       </c>
-      <c r="N31" s="537" t="s">
+      <c r="N31" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="689"/>
+      <c r="O31" s="679"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="682"/>
+      <c r="C32" s="684"/>
       <c r="D32" s="64"/>
       <c r="E32" s="65"/>
       <c r="F32" s="65"/>
       <c r="G32" s="65"/>
-      <c r="H32" s="538" t="s">
+      <c r="H32" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="J32" s="551"/>
+      <c r="J32" s="550"/>
       <c r="K32" s="73"/>
       <c r="L32" s="66" t="s">
         <v>886</v>
@@ -13916,27 +14111,27 @@
       <c r="M32" s="66" t="s">
         <v>889</v>
       </c>
-      <c r="N32" s="537" t="s">
+      <c r="N32" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="689"/>
+      <c r="O32" s="679"/>
     </row>
     <row r="33" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="683"/>
-      <c r="D33" s="533" t="s">
+      <c r="C33" s="685"/>
+      <c r="D33" s="532" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="534" t="s">
+      <c r="E33" s="533" t="s">
         <v>877</v>
       </c>
-      <c r="F33" s="536" t="s">
+      <c r="F33" s="535" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="536"/>
-      <c r="H33" s="581" t="s">
+      <c r="G33" s="535"/>
+      <c r="H33" s="580" t="s">
         <v>33</v>
       </c>
-      <c r="J33" s="551"/>
+      <c r="J33" s="550"/>
       <c r="K33" s="73"/>
       <c r="L33" s="66" t="s">
         <v>76</v>
@@ -13944,13 +14139,13 @@
       <c r="M33" s="66" t="s">
         <v>891</v>
       </c>
-      <c r="N33" s="537" t="s">
+      <c r="N33" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="689"/>
+      <c r="O33" s="679"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="684" t="s">
+      <c r="C34" s="683" t="s">
         <v>104</v>
       </c>
       <c r="D34" s="61"/>
@@ -13959,10 +14154,10 @@
       <c r="G34" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="H34" s="558" t="s">
+      <c r="H34" s="557" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="551"/>
+      <c r="J34" s="550"/>
       <c r="K34" s="73"/>
       <c r="L34" s="66" t="s">
         <v>885</v>
@@ -13970,21 +14165,21 @@
       <c r="M34" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="N34" s="537" t="s">
+      <c r="N34" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="689"/>
+      <c r="O34" s="679"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="682"/>
+      <c r="C35" s="684"/>
       <c r="D35" s="64"/>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
       <c r="G35" s="65"/>
-      <c r="H35" s="538" t="s">
+      <c r="H35" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="551"/>
+      <c r="J35" s="550"/>
       <c r="K35" s="73"/>
       <c r="L35" s="66" t="s">
         <v>307</v>
@@ -13992,21 +14187,21 @@
       <c r="M35" s="66" t="s">
         <v>892</v>
       </c>
-      <c r="N35" s="537" t="s">
+      <c r="N35" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="689"/>
+      <c r="O35" s="679"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="682"/>
+      <c r="C36" s="684"/>
       <c r="D36" s="64"/>
       <c r="E36" s="65"/>
       <c r="F36" s="65"/>
       <c r="G36" s="65"/>
-      <c r="H36" s="538" t="s">
+      <c r="H36" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="546"/>
+      <c r="J36" s="545"/>
       <c r="K36" s="65"/>
       <c r="L36" s="66" t="s">
         <v>884</v>
@@ -14014,13 +14209,13 @@
       <c r="M36" s="66" t="s">
         <v>893</v>
       </c>
-      <c r="N36" s="538" t="s">
+      <c r="N36" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="689"/>
+      <c r="O36" s="679"/>
     </row>
     <row r="37" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="683"/>
+      <c r="C37" s="685"/>
       <c r="D37" s="80" t="s">
         <v>73</v>
       </c>
@@ -14031,44 +14226,44 @@
         <v>75</v>
       </c>
       <c r="G37" s="82"/>
-      <c r="H37" s="559" t="s">
+      <c r="H37" s="558" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="547" t="s">
+      <c r="J37" s="546" t="s">
         <v>36</v>
       </c>
-      <c r="K37" s="548" t="s">
+      <c r="K37" s="547" t="s">
         <v>37</v>
       </c>
-      <c r="L37" s="545" t="s">
+      <c r="L37" s="544" t="s">
         <v>75</v>
       </c>
-      <c r="M37" s="545" t="s">
+      <c r="M37" s="544" t="s">
         <v>894</v>
       </c>
-      <c r="N37" s="539" t="s">
+      <c r="N37" s="538" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="690"/>
+      <c r="O37" s="687"/>
     </row>
     <row r="38" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="684" t="s">
+      <c r="C38" s="683" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="530"/>
-      <c r="E38" s="531"/>
-      <c r="F38" s="532" t="s">
+      <c r="D38" s="529"/>
+      <c r="E38" s="530"/>
+      <c r="F38" s="531" t="s">
         <v>255</v>
       </c>
-      <c r="G38" s="532" t="s">
+      <c r="G38" s="531" t="s">
         <v>256</v>
       </c>
-      <c r="H38" s="580" t="s">
+      <c r="H38" s="579" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="682"/>
+      <c r="C39" s="684"/>
       <c r="D39" s="64"/>
       <c r="E39" s="65"/>
       <c r="F39" s="66" t="s">
@@ -14077,12 +14272,12 @@
       <c r="G39" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="H39" s="538" t="s">
+      <c r="H39" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="682"/>
+      <c r="C40" s="684"/>
       <c r="D40" s="64"/>
       <c r="E40" s="65"/>
       <c r="F40" s="66" t="s">
@@ -14091,12 +14286,12 @@
       <c r="G40" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="H40" s="538" t="s">
+      <c r="H40" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="683"/>
+      <c r="C41" s="685"/>
       <c r="D41" s="108"/>
       <c r="E41" s="109"/>
       <c r="F41" s="82" t="s">
@@ -14105,12 +14300,12 @@
       <c r="G41" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="559" t="s">
+      <c r="H41" s="558" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="684" t="s">
+      <c r="C42" s="683" t="s">
         <v>102</v>
       </c>
       <c r="D42" s="61"/>
@@ -14121,12 +14316,12 @@
       <c r="G42" s="172" t="s">
         <v>250</v>
       </c>
-      <c r="H42" s="588" t="s">
+      <c r="H42" s="587" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="682"/>
+      <c r="C43" s="684"/>
       <c r="D43" s="64"/>
       <c r="E43" s="65"/>
       <c r="F43" s="66" t="s">
@@ -14135,12 +14330,12 @@
       <c r="G43" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="H43" s="538" t="s">
+      <c r="H43" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="682"/>
+      <c r="C44" s="684"/>
       <c r="D44" s="64"/>
       <c r="E44" s="65"/>
       <c r="F44" s="82" t="s">
@@ -14149,12 +14344,12 @@
       <c r="G44" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="H44" s="538" t="s">
+      <c r="H44" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="683"/>
+      <c r="C45" s="685"/>
       <c r="D45" s="80"/>
       <c r="E45" s="81"/>
       <c r="F45" s="113" t="s">
@@ -14163,12 +14358,12 @@
       <c r="G45" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="589" t="s">
+      <c r="H45" s="588" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="684" t="s">
+      <c r="C46" s="683" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="106"/>
@@ -14179,12 +14374,12 @@
       <c r="G46" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="H46" s="558" t="s">
+      <c r="H46" s="557" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="691"/>
+      <c r="C47" s="689"/>
       <c r="D47" s="64"/>
       <c r="E47" s="65"/>
       <c r="F47" s="66" t="s">
@@ -14193,12 +14388,12 @@
       <c r="G47" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="H47" s="538" t="s">
+      <c r="H47" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="691"/>
+      <c r="C48" s="689"/>
       <c r="D48" s="64"/>
       <c r="E48" s="65"/>
       <c r="F48" s="82" t="s">
@@ -14207,12 +14402,12 @@
       <c r="G48" s="82" t="s">
         <v>240</v>
       </c>
-      <c r="H48" s="538" t="s">
+      <c r="H48" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="692"/>
+      <c r="C49" s="690"/>
       <c r="D49" s="108"/>
       <c r="E49" s="109"/>
       <c r="F49" s="113" t="s">
@@ -14221,12 +14416,12 @@
       <c r="G49" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="559" t="s">
+      <c r="H49" s="558" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="684" t="s">
+      <c r="C50" s="683" t="s">
         <v>100</v>
       </c>
       <c r="D50" s="61"/>
@@ -14237,12 +14432,12 @@
       <c r="G50" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="H50" s="588" t="s">
+      <c r="H50" s="587" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="682"/>
+      <c r="C51" s="684"/>
       <c r="D51" s="64"/>
       <c r="E51" s="65"/>
       <c r="F51" s="66" t="s">
@@ -14251,12 +14446,12 @@
       <c r="G51" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="H51" s="538" t="s">
+      <c r="H51" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="682"/>
+      <c r="C52" s="684"/>
       <c r="D52" s="64"/>
       <c r="E52" s="65"/>
       <c r="F52" s="66" t="s">
@@ -14265,30 +14460,30 @@
       <c r="G52" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="538" t="s">
+      <c r="H52" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="683"/>
-      <c r="D53" s="533" t="s">
+      <c r="C53" s="685"/>
+      <c r="D53" s="532" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="534" t="s">
+      <c r="E53" s="533" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="535" t="s">
+      <c r="F53" s="534" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="535" t="s">
+      <c r="G53" s="534" t="s">
         <v>66</v>
       </c>
-      <c r="H53" s="559" t="s">
+      <c r="H53" s="558" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="684" t="s">
+      <c r="C54" s="683" t="s">
         <v>99</v>
       </c>
       <c r="D54" s="61"/>
@@ -14299,12 +14494,12 @@
       <c r="G54" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="580" t="s">
+      <c r="H54" s="579" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="682"/>
+      <c r="C55" s="684"/>
       <c r="D55" s="64"/>
       <c r="E55" s="65"/>
       <c r="F55" s="66" t="s">
@@ -14313,12 +14508,12 @@
       <c r="G55" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="538" t="s">
+      <c r="H55" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="682"/>
+      <c r="C56" s="684"/>
       <c r="D56" s="80"/>
       <c r="E56" s="81"/>
       <c r="F56" s="66" t="s">
@@ -14327,12 +14522,12 @@
       <c r="G56" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="H56" s="538" t="s">
+      <c r="H56" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="683"/>
+      <c r="C57" s="685"/>
       <c r="D57" s="108"/>
       <c r="E57" s="109"/>
       <c r="F57" s="82" t="s">
@@ -14341,12 +14536,12 @@
       <c r="G57" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="559" t="s">
+      <c r="H57" s="558" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="684" t="s">
+      <c r="C58" s="683" t="s">
         <v>98</v>
       </c>
       <c r="D58" s="61"/>
@@ -14357,12 +14552,12 @@
       <c r="G58" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="H58" s="588" t="s">
+      <c r="H58" s="587" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="682"/>
+      <c r="C59" s="684"/>
       <c r="D59" s="64"/>
       <c r="E59" s="65"/>
       <c r="F59" s="66" t="s">
@@ -14371,12 +14566,12 @@
       <c r="G59" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="H59" s="538" t="s">
+      <c r="H59" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="682"/>
+      <c r="C60" s="684"/>
       <c r="D60" s="80"/>
       <c r="E60" s="81"/>
       <c r="F60" s="66" t="s">
@@ -14385,12 +14580,12 @@
       <c r="G60" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="H60" s="538" t="s">
+      <c r="H60" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="683"/>
+      <c r="C61" s="685"/>
       <c r="D61" s="80"/>
       <c r="E61" s="81"/>
       <c r="F61" s="82" t="s">
@@ -14399,12 +14594,12 @@
       <c r="G61" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="H61" s="589" t="s">
+      <c r="H61" s="588" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="684" t="s">
+      <c r="C62" s="683" t="s">
         <v>97</v>
       </c>
       <c r="D62" s="106"/>
@@ -14415,12 +14610,12 @@
       <c r="G62" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="558" t="s">
+      <c r="H62" s="557" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="682"/>
+      <c r="C63" s="684"/>
       <c r="D63" s="64"/>
       <c r="E63" s="65"/>
       <c r="F63" s="66" t="s">
@@ -14429,12 +14624,12 @@
       <c r="G63" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H63" s="538" t="s">
+      <c r="H63" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="682"/>
+      <c r="C64" s="684"/>
       <c r="D64" s="64"/>
       <c r="E64" s="65"/>
       <c r="F64" s="66" t="s">
@@ -14443,12 +14638,12 @@
       <c r="G64" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="H64" s="538" t="s">
+      <c r="H64" s="537" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="65" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="683"/>
+      <c r="C65" s="685"/>
       <c r="D65" s="110"/>
       <c r="E65" s="109"/>
       <c r="F65" s="113" t="s">
@@ -14457,30 +14652,30 @@
       <c r="G65" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="H65" s="589" t="s">
+      <c r="H65" s="588" t="s">
         <v>33</v>
       </c>
-      <c r="J65" s="540" t="s">
+      <c r="J65" s="539" t="s">
         <v>84</v>
       </c>
-      <c r="K65" s="541" t="s">
+      <c r="K65" s="540" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="541" t="s">
+      <c r="L65" s="540" t="s">
         <v>86</v>
       </c>
-      <c r="M65" s="541" t="s">
+      <c r="M65" s="540" t="s">
         <v>87</v>
       </c>
-      <c r="N65" s="575" t="s">
+      <c r="N65" s="574" t="s">
         <v>88</v>
       </c>
-      <c r="O65" s="576" t="s">
+      <c r="O65" s="575" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="66" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="684" t="s">
+      <c r="C66" s="683" t="s">
         <v>96</v>
       </c>
       <c r="D66" s="61"/>
@@ -14491,27 +14686,27 @@
       <c r="G66" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="H66" s="558" t="s">
+      <c r="H66" s="557" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="694"/>
-      <c r="J66" s="554"/>
-      <c r="K66" s="555"/>
-      <c r="L66" s="544" t="s">
+      <c r="I66" s="692"/>
+      <c r="J66" s="553"/>
+      <c r="K66" s="554"/>
+      <c r="L66" s="543" t="s">
         <v>34</v>
       </c>
-      <c r="M66" s="544" t="s">
+      <c r="M66" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="N66" s="556" t="s">
+      <c r="N66" s="555" t="s">
         <v>33</v>
       </c>
-      <c r="O66" s="685" t="s">
+      <c r="O66" s="688" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C67" s="682"/>
+      <c r="C67" s="684"/>
       <c r="D67" s="64"/>
       <c r="E67" s="65"/>
       <c r="F67" s="66" t="s">
@@ -14520,11 +14715,11 @@
       <c r="G67" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="H67" s="538" t="s">
+      <c r="H67" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="694"/>
-      <c r="J67" s="546"/>
+      <c r="I67" s="692"/>
+      <c r="J67" s="545"/>
       <c r="K67" s="65"/>
       <c r="L67" s="66" t="s">
         <v>30</v>
@@ -14532,13 +14727,13 @@
       <c r="M67" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="552" t="s">
+      <c r="N67" s="551" t="s">
         <v>32</v>
       </c>
-      <c r="O67" s="686"/>
+      <c r="O67" s="681"/>
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C68" s="682"/>
+      <c r="C68" s="684"/>
       <c r="D68" s="64"/>
       <c r="E68" s="65"/>
       <c r="F68" s="66" t="s">
@@ -14547,11 +14742,11 @@
       <c r="G68" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="H68" s="538" t="s">
+      <c r="H68" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="694"/>
-      <c r="J68" s="546"/>
+      <c r="I68" s="692"/>
+      <c r="J68" s="545"/>
       <c r="K68" s="65"/>
       <c r="L68" s="66" t="s">
         <v>28</v>
@@ -14559,54 +14754,54 @@
       <c r="M68" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="N68" s="552" t="s">
+      <c r="N68" s="551" t="s">
         <v>32</v>
       </c>
-      <c r="O68" s="686"/>
+      <c r="O68" s="681"/>
     </row>
     <row r="69" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="693"/>
-      <c r="D69" s="560" t="s">
+      <c r="C69" s="691"/>
+      <c r="D69" s="559" t="s">
         <v>73</v>
       </c>
-      <c r="E69" s="548" t="s">
+      <c r="E69" s="547" t="s">
         <v>74</v>
       </c>
-      <c r="F69" s="545" t="s">
+      <c r="F69" s="544" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="545" t="s">
+      <c r="G69" s="544" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="539" t="s">
+      <c r="H69" s="538" t="s">
         <v>33</v>
       </c>
-      <c r="I69" s="694"/>
-      <c r="J69" s="547" t="s">
+      <c r="I69" s="692"/>
+      <c r="J69" s="546" t="s">
         <v>25</v>
       </c>
-      <c r="K69" s="548" t="s">
+      <c r="K69" s="547" t="s">
         <v>24</v>
       </c>
-      <c r="L69" s="545" t="s">
+      <c r="L69" s="544" t="s">
         <v>26</v>
       </c>
-      <c r="M69" s="545" t="s">
+      <c r="M69" s="544" t="s">
         <v>27</v>
       </c>
-      <c r="N69" s="553" t="s">
+      <c r="N69" s="552" t="s">
         <v>32</v>
       </c>
-      <c r="O69" s="687"/>
+      <c r="O69" s="682"/>
     </row>
     <row r="70" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
     <mergeCell ref="O66:O69"/>
     <mergeCell ref="O30:O37"/>
     <mergeCell ref="C38:C41"/>
@@ -14620,11 +14815,11 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="I66:I69"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="I27:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16077,366 +16272,366 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="697" t="s">
+      <c r="B2" s="594"/>
+      <c r="C2" s="595"/>
+      <c r="D2" s="696" t="s">
         <v>902</v>
       </c>
-      <c r="E2" s="698"/>
+      <c r="E2" s="697"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="699" t="s">
+      <c r="B3" s="698" t="s">
         <v>899</v>
       </c>
-      <c r="C3" s="700"/>
-      <c r="D3" s="597" t="s">
+      <c r="C3" s="699"/>
+      <c r="D3" s="596" t="s">
         <v>904</v>
       </c>
-      <c r="E3" s="598" t="s">
+      <c r="E3" s="597" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="599" t="s">
+      <c r="B4" s="598" t="s">
         <v>907</v>
       </c>
       <c r="C4" s="155" t="s">
         <v>900</v>
       </c>
-      <c r="D4" s="600" t="s">
+      <c r="D4" s="599" t="s">
         <v>905</v>
       </c>
-      <c r="E4" s="601"/>
+      <c r="E4" s="600"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="598" t="s">
         <v>907</v>
       </c>
       <c r="C5" s="155" t="s">
         <v>901</v>
       </c>
-      <c r="D5" s="600" t="s">
+      <c r="D5" s="599" t="s">
         <v>906</v>
       </c>
-      <c r="E5" s="601"/>
+      <c r="E5" s="600"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="602"/>
+      <c r="B6" s="601"/>
       <c r="C6" s="155"/>
-      <c r="D6" s="600"/>
-      <c r="E6" s="601"/>
+      <c r="D6" s="599"/>
+      <c r="E6" s="600"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="598" t="s">
         <v>907</v>
       </c>
       <c r="C7" s="155" t="s">
         <v>918</v>
       </c>
-      <c r="D7" s="600" t="s">
+      <c r="D7" s="599" t="s">
         <v>911</v>
       </c>
-      <c r="E7" s="601"/>
+      <c r="E7" s="600"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="599" t="s">
+      <c r="B8" s="598" t="s">
         <v>907</v>
       </c>
       <c r="C8" s="155" t="s">
         <v>917</v>
       </c>
-      <c r="D8" s="600" t="s">
+      <c r="D8" s="599" t="s">
         <v>914</v>
       </c>
-      <c r="E8" s="601"/>
+      <c r="E8" s="600"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="602"/>
+      <c r="B9" s="601"/>
       <c r="C9" s="155"/>
-      <c r="D9" s="600"/>
-      <c r="E9" s="601"/>
+      <c r="D9" s="599"/>
+      <c r="E9" s="600"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="599" t="s">
+      <c r="B10" s="598" t="s">
         <v>907</v>
       </c>
       <c r="C10" s="155" t="s">
         <v>919</v>
       </c>
-      <c r="D10" s="600"/>
-      <c r="E10" s="601"/>
+      <c r="D10" s="599"/>
+      <c r="E10" s="600"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="599" t="s">
+      <c r="B11" s="598" t="s">
         <v>907</v>
       </c>
       <c r="C11" s="155" t="s">
         <v>920</v>
       </c>
-      <c r="D11" s="600"/>
-      <c r="E11" s="601"/>
+      <c r="D11" s="599"/>
+      <c r="E11" s="600"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="602"/>
+      <c r="B12" s="601"/>
       <c r="C12" s="155"/>
-      <c r="D12" s="600"/>
-      <c r="E12" s="601"/>
+      <c r="D12" s="599"/>
+      <c r="E12" s="600"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="602"/>
+      <c r="B13" s="601"/>
       <c r="C13" s="155"/>
-      <c r="D13" s="600"/>
-      <c r="E13" s="601"/>
+      <c r="D13" s="599"/>
+      <c r="E13" s="600"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="602"/>
+      <c r="B14" s="601"/>
       <c r="C14" s="155"/>
-      <c r="D14" s="600"/>
-      <c r="E14" s="601"/>
+      <c r="D14" s="599"/>
+      <c r="E14" s="600"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="602"/>
+      <c r="B15" s="601"/>
       <c r="C15" s="155"/>
-      <c r="D15" s="600"/>
-      <c r="E15" s="601"/>
+      <c r="D15" s="599"/>
+      <c r="E15" s="600"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="602"/>
+      <c r="B16" s="601"/>
       <c r="C16" s="155"/>
-      <c r="D16" s="600"/>
-      <c r="E16" s="601"/>
+      <c r="D16" s="599"/>
+      <c r="E16" s="600"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="602"/>
+      <c r="B17" s="601"/>
       <c r="C17" s="155"/>
-      <c r="D17" s="600"/>
-      <c r="E17" s="601"/>
+      <c r="D17" s="599"/>
+      <c r="E17" s="600"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="602"/>
+      <c r="B18" s="601"/>
       <c r="C18" s="155"/>
-      <c r="D18" s="600"/>
-      <c r="E18" s="601"/>
+      <c r="D18" s="599"/>
+      <c r="E18" s="600"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="602"/>
+      <c r="B19" s="601"/>
       <c r="C19" s="155"/>
-      <c r="D19" s="600"/>
-      <c r="E19" s="601"/>
+      <c r="D19" s="599"/>
+      <c r="E19" s="600"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="602"/>
+      <c r="B20" s="601"/>
       <c r="C20" s="155"/>
-      <c r="D20" s="600"/>
-      <c r="E20" s="601"/>
+      <c r="D20" s="599"/>
+      <c r="E20" s="600"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="602"/>
+      <c r="B21" s="601"/>
       <c r="C21" s="155"/>
-      <c r="D21" s="600"/>
-      <c r="E21" s="601"/>
+      <c r="D21" s="599"/>
+      <c r="E21" s="600"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="602"/>
+      <c r="B22" s="601"/>
       <c r="C22" s="155"/>
-      <c r="D22" s="600"/>
-      <c r="E22" s="601"/>
+      <c r="D22" s="599"/>
+      <c r="E22" s="600"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="602"/>
+      <c r="B23" s="601"/>
       <c r="C23" s="155"/>
-      <c r="D23" s="600"/>
-      <c r="E23" s="601"/>
+      <c r="D23" s="599"/>
+      <c r="E23" s="600"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="602"/>
+      <c r="B24" s="601"/>
       <c r="C24" s="155"/>
-      <c r="D24" s="600"/>
-      <c r="E24" s="601"/>
+      <c r="D24" s="599"/>
+      <c r="E24" s="600"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="602" t="s">
+      <c r="B25" s="601" t="s">
         <v>530</v>
       </c>
       <c r="C25" s="155" t="s">
         <v>910</v>
       </c>
-      <c r="D25" s="600" t="s">
+      <c r="D25" s="599" t="s">
         <v>900</v>
       </c>
-      <c r="E25" s="601" t="s">
+      <c r="E25" s="600" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="602"/>
+      <c r="B26" s="601"/>
       <c r="C26" s="155"/>
-      <c r="D26" s="600" t="s">
+      <c r="D26" s="599" t="s">
         <v>918</v>
       </c>
-      <c r="E26" s="601"/>
+      <c r="E26" s="600"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="602"/>
+      <c r="B27" s="601"/>
       <c r="C27" s="155"/>
-      <c r="D27" s="600"/>
-      <c r="E27" s="601"/>
+      <c r="D27" s="599"/>
+      <c r="E27" s="600"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="602" t="s">
+      <c r="B28" s="601" t="s">
         <v>532</v>
       </c>
       <c r="C28" s="155" t="s">
         <v>910</v>
       </c>
-      <c r="D28" s="600" t="s">
+      <c r="D28" s="599" t="s">
         <v>901</v>
       </c>
-      <c r="E28" s="601" t="s">
+      <c r="E28" s="600" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="602"/>
+      <c r="B29" s="601"/>
       <c r="C29" s="155"/>
-      <c r="D29" s="600" t="s">
+      <c r="D29" s="599" t="s">
         <v>918</v>
       </c>
-      <c r="E29" s="601"/>
+      <c r="E29" s="600"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="602"/>
+      <c r="B30" s="601"/>
       <c r="C30" s="155"/>
-      <c r="D30" s="600"/>
-      <c r="E30" s="601"/>
+      <c r="D30" s="599"/>
+      <c r="E30" s="600"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="602" t="s">
+      <c r="B31" s="601" t="s">
         <v>909</v>
       </c>
       <c r="C31" s="155" t="s">
         <v>912</v>
       </c>
-      <c r="D31" s="600" t="s">
+      <c r="D31" s="599" t="s">
         <v>901</v>
       </c>
-      <c r="E31" s="601" t="s">
+      <c r="E31" s="600" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="602"/>
+      <c r="B32" s="601"/>
       <c r="C32" s="155"/>
-      <c r="D32" s="600" t="s">
+      <c r="D32" s="599" t="s">
         <v>917</v>
       </c>
-      <c r="E32" s="601"/>
+      <c r="E32" s="600"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="602"/>
+      <c r="B33" s="601"/>
       <c r="C33" s="155" t="s">
         <v>913</v>
       </c>
-      <c r="D33" s="600" t="s">
+      <c r="D33" s="599" t="s">
         <v>900</v>
       </c>
-      <c r="E33" s="601" t="s">
+      <c r="E33" s="600" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="602"/>
+      <c r="B34" s="601"/>
       <c r="C34" s="155"/>
-      <c r="D34" s="600" t="s">
+      <c r="D34" s="599" t="s">
         <v>918</v>
       </c>
-      <c r="E34" s="601"/>
+      <c r="E34" s="600"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="602"/>
+      <c r="B35" s="601"/>
       <c r="C35" s="155"/>
-      <c r="D35" s="600"/>
-      <c r="E35" s="601"/>
+      <c r="D35" s="599"/>
+      <c r="E35" s="600"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="602"/>
+      <c r="B36" s="601"/>
       <c r="C36" s="155" t="s">
         <v>915</v>
       </c>
-      <c r="D36" s="600" t="s">
+      <c r="D36" s="599" t="s">
         <v>900</v>
       </c>
-      <c r="E36" s="601" t="s">
+      <c r="E36" s="600" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="602"/>
+      <c r="B37" s="601"/>
       <c r="C37" s="155"/>
-      <c r="D37" s="600" t="s">
+      <c r="D37" s="599" t="s">
         <v>917</v>
       </c>
-      <c r="E37" s="601"/>
+      <c r="E37" s="600"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="602"/>
+      <c r="B38" s="601"/>
       <c r="C38" s="155" t="s">
         <v>916</v>
       </c>
-      <c r="D38" s="600" t="s">
+      <c r="D38" s="599" t="s">
         <v>901</v>
       </c>
-      <c r="E38" s="601" t="s">
+      <c r="E38" s="600" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="602"/>
+      <c r="B39" s="601"/>
       <c r="C39" s="155"/>
-      <c r="D39" s="600" t="s">
+      <c r="D39" s="599" t="s">
         <v>918</v>
       </c>
-      <c r="E39" s="601"/>
+      <c r="E39" s="600"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="602"/>
+      <c r="B40" s="601"/>
       <c r="C40" s="155"/>
-      <c r="D40" s="600"/>
-      <c r="E40" s="601"/>
+      <c r="D40" s="599"/>
+      <c r="E40" s="600"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="602" t="s">
+      <c r="B41" s="601" t="s">
         <v>908</v>
       </c>
       <c r="C41" s="155" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="600"/>
-      <c r="E41" s="601"/>
+      <c r="D41" s="599"/>
+      <c r="E41" s="600"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="602"/>
+      <c r="B42" s="601"/>
       <c r="C42" s="155"/>
-      <c r="D42" s="600"/>
-      <c r="E42" s="601"/>
+      <c r="D42" s="599"/>
+      <c r="E42" s="600"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="602"/>
+      <c r="B43" s="601"/>
       <c r="C43" s="155"/>
-      <c r="D43" s="600"/>
-      <c r="E43" s="601"/>
+      <c r="D43" s="599"/>
+      <c r="E43" s="600"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="602"/>
+      <c r="B44" s="601"/>
       <c r="C44" s="155"/>
-      <c r="D44" s="600"/>
-      <c r="E44" s="601"/>
+      <c r="D44" s="599"/>
+      <c r="E44" s="600"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="603"/>
-      <c r="C45" s="604"/>
-      <c r="D45" s="605"/>
-      <c r="E45" s="606"/>
+      <c r="B45" s="602"/>
+      <c r="C45" s="603"/>
+      <c r="D45" s="604"/>
+      <c r="E45" s="605"/>
     </row>
     <row r="46" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -16466,486 +16661,486 @@
   <sheetData>
     <row r="2" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="592" t="s">
+      <c r="B3" s="591" t="s">
         <v>921</v>
       </c>
-      <c r="C3" s="701" t="s">
+      <c r="C3" s="700" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="593" t="s">
+      <c r="B4" s="592" t="s">
         <v>922</v>
       </c>
-      <c r="C4" s="702"/>
+      <c r="C4" s="701"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="593" t="s">
+      <c r="B5" s="592" t="s">
         <v>923</v>
       </c>
-      <c r="C5" s="702"/>
-      <c r="F5" s="608" t="s">
+      <c r="C5" s="701"/>
+      <c r="F5" s="607" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="607"/>
-      <c r="H5" s="608" t="s">
+      <c r="G5" s="606"/>
+      <c r="H5" s="607" t="s">
         <v>207</v>
       </c>
-      <c r="I5" s="607"/>
-      <c r="J5" s="608" t="s">
+      <c r="I5" s="606"/>
+      <c r="J5" s="607" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="607"/>
-      <c r="L5" s="608" t="s">
+      <c r="K5" s="606"/>
+      <c r="L5" s="607" t="s">
         <v>208</v>
       </c>
-      <c r="M5" s="607"/>
-      <c r="N5" s="608" t="s">
+      <c r="M5" s="606"/>
+      <c r="N5" s="607" t="s">
         <v>210</v>
       </c>
-      <c r="O5" s="607"/>
-      <c r="P5" s="608" t="s">
+      <c r="O5" s="606"/>
+      <c r="P5" s="607" t="s">
         <v>209</v>
       </c>
-      <c r="Q5" s="607"/>
-      <c r="R5" s="608" t="s">
+      <c r="Q5" s="606"/>
+      <c r="R5" s="607" t="s">
         <v>213</v>
       </c>
-      <c r="S5" s="607"/>
-      <c r="T5" s="608" t="s">
+      <c r="S5" s="606"/>
+      <c r="T5" s="607" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="607"/>
-      <c r="V5" s="608" t="s">
+      <c r="U5" s="606"/>
+      <c r="V5" s="607" t="s">
         <v>212</v>
       </c>
-      <c r="W5" s="607"/>
-      <c r="X5" s="611" t="s">
+      <c r="W5" s="606"/>
+      <c r="X5" s="610" t="s">
         <v>194</v>
       </c>
-      <c r="Y5" s="607"/>
-      <c r="Z5" s="611" t="s">
+      <c r="Y5" s="606"/>
+      <c r="Z5" s="610" t="s">
         <v>218</v>
       </c>
-      <c r="AA5" s="607"/>
-      <c r="AB5" s="611" t="s">
+      <c r="AA5" s="606"/>
+      <c r="AB5" s="610" t="s">
         <v>963</v>
       </c>
-      <c r="AC5" s="607"/>
-      <c r="AD5" s="607"/>
+      <c r="AC5" s="606"/>
+      <c r="AD5" s="606"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="593" t="s">
+      <c r="B6" s="592" t="s">
         <v>924</v>
       </c>
-      <c r="C6" s="702"/>
-      <c r="F6" s="607"/>
-      <c r="G6" s="609" t="s">
+      <c r="C6" s="701"/>
+      <c r="F6" s="606"/>
+      <c r="G6" s="608" t="s">
         <v>964</v>
       </c>
-      <c r="H6" s="607"/>
-      <c r="I6" s="609" t="s">
+      <c r="H6" s="606"/>
+      <c r="I6" s="608" t="s">
         <v>965</v>
       </c>
-      <c r="J6" s="607"/>
-      <c r="K6" s="609" t="s">
+      <c r="J6" s="606"/>
+      <c r="K6" s="608" t="s">
         <v>319</v>
       </c>
-      <c r="L6" s="607"/>
-      <c r="M6" s="609" t="s">
+      <c r="L6" s="606"/>
+      <c r="M6" s="608" t="s">
         <v>966</v>
       </c>
-      <c r="N6" s="607" t="s">
+      <c r="N6" s="606" t="s">
         <v>961</v>
       </c>
-      <c r="O6" s="609" t="s">
+      <c r="O6" s="608" t="s">
         <v>967</v>
       </c>
-      <c r="P6" s="607"/>
-      <c r="Q6" s="609" t="s">
+      <c r="P6" s="606"/>
+      <c r="Q6" s="608" t="s">
         <v>968</v>
       </c>
-      <c r="R6" s="607"/>
-      <c r="S6" s="609" t="s">
+      <c r="R6" s="606"/>
+      <c r="S6" s="608" t="s">
         <v>969</v>
       </c>
-      <c r="T6" s="607"/>
-      <c r="U6" s="609" t="s">
+      <c r="T6" s="606"/>
+      <c r="U6" s="608" t="s">
         <v>970</v>
       </c>
-      <c r="V6" s="607"/>
-      <c r="W6" s="609" t="s">
+      <c r="V6" s="606"/>
+      <c r="W6" s="608" t="s">
         <v>971</v>
       </c>
-      <c r="X6" s="607"/>
-      <c r="Y6" s="609" t="s">
+      <c r="X6" s="606"/>
+      <c r="Y6" s="608" t="s">
         <v>972</v>
       </c>
-      <c r="Z6" s="607"/>
-      <c r="AA6" s="611" t="s">
+      <c r="Z6" s="606"/>
+      <c r="AA6" s="610" t="s">
         <v>222</v>
       </c>
-      <c r="AB6" s="607"/>
-      <c r="AC6" s="608" t="s">
+      <c r="AB6" s="606"/>
+      <c r="AC6" s="607" t="s">
         <v>225</v>
       </c>
-      <c r="AD6" s="607"/>
+      <c r="AD6" s="606"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="592" t="s">
         <v>925</v>
       </c>
-      <c r="C7" s="702"/>
-      <c r="F7" s="607"/>
-      <c r="G7" s="607"/>
-      <c r="H7" s="609" t="s">
+      <c r="C7" s="701"/>
+      <c r="F7" s="606"/>
+      <c r="G7" s="606"/>
+      <c r="H7" s="608" t="s">
         <v>973</v>
       </c>
-      <c r="I7" s="607"/>
-      <c r="J7" s="609" t="s">
+      <c r="I7" s="606"/>
+      <c r="J7" s="608" t="s">
         <v>974</v>
       </c>
-      <c r="K7" s="607"/>
-      <c r="L7" s="609" t="s">
+      <c r="K7" s="606"/>
+      <c r="L7" s="608" t="s">
         <v>318</v>
       </c>
-      <c r="M7" s="607"/>
-      <c r="N7" s="609" t="s">
+      <c r="M7" s="606"/>
+      <c r="N7" s="608" t="s">
         <v>320</v>
       </c>
-      <c r="O7" s="607"/>
-      <c r="P7" s="609" t="s">
+      <c r="O7" s="606"/>
+      <c r="P7" s="608" t="s">
         <v>315</v>
       </c>
-      <c r="Q7" s="607"/>
-      <c r="R7" s="609" t="s">
+      <c r="Q7" s="606"/>
+      <c r="R7" s="608" t="s">
         <v>975</v>
       </c>
-      <c r="S7" s="607"/>
-      <c r="T7" s="609" t="s">
+      <c r="S7" s="606"/>
+      <c r="T7" s="608" t="s">
         <v>976</v>
       </c>
-      <c r="U7" s="607"/>
-      <c r="V7" s="609" t="s">
+      <c r="U7" s="606"/>
+      <c r="V7" s="608" t="s">
         <v>977</v>
       </c>
-      <c r="W7" s="607" t="s">
+      <c r="W7" s="606" t="s">
         <v>961</v>
       </c>
-      <c r="X7" s="609" t="s">
+      <c r="X7" s="608" t="s">
         <v>978</v>
       </c>
-      <c r="Y7" s="607"/>
-      <c r="Z7" s="611" t="s">
+      <c r="Y7" s="606"/>
+      <c r="Z7" s="610" t="s">
         <v>139</v>
       </c>
-      <c r="AA7" s="607"/>
-      <c r="AB7" s="611" t="s">
+      <c r="AA7" s="606"/>
+      <c r="AB7" s="610" t="s">
         <v>187</v>
       </c>
-      <c r="AC7" s="607"/>
-      <c r="AD7" s="608" t="s">
+      <c r="AC7" s="606"/>
+      <c r="AD7" s="607" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="593" t="s">
+      <c r="B8" s="592" t="s">
         <v>935</v>
       </c>
-      <c r="C8" s="702"/>
-      <c r="F8" s="607"/>
-      <c r="G8" s="608" t="s">
+      <c r="C8" s="701"/>
+      <c r="F8" s="606"/>
+      <c r="G8" s="607" t="s">
         <v>216</v>
       </c>
-      <c r="H8" s="607"/>
-      <c r="I8" s="609" t="s">
+      <c r="H8" s="606"/>
+      <c r="I8" s="608" t="s">
         <v>979</v>
       </c>
-      <c r="J8" s="607"/>
-      <c r="K8" s="609" t="s">
+      <c r="J8" s="606"/>
+      <c r="K8" s="608" t="s">
         <v>593</v>
       </c>
-      <c r="L8" s="607" t="s">
+      <c r="L8" s="606" t="s">
         <v>961</v>
       </c>
-      <c r="M8" s="609" t="s">
+      <c r="M8" s="608" t="s">
         <v>317</v>
       </c>
-      <c r="N8" s="607"/>
-      <c r="O8" s="609" t="s">
+      <c r="N8" s="606"/>
+      <c r="O8" s="608" t="s">
         <v>980</v>
       </c>
-      <c r="P8" s="607"/>
-      <c r="Q8" s="609" t="s">
+      <c r="P8" s="606"/>
+      <c r="Q8" s="608" t="s">
         <v>316</v>
       </c>
-      <c r="R8" s="607"/>
-      <c r="S8" s="609" t="s">
+      <c r="R8" s="606"/>
+      <c r="S8" s="608" t="s">
         <v>981</v>
       </c>
-      <c r="T8" s="607"/>
-      <c r="U8" s="609" t="s">
+      <c r="T8" s="606"/>
+      <c r="U8" s="608" t="s">
         <v>526</v>
       </c>
-      <c r="V8" s="607"/>
-      <c r="W8" s="612" t="s">
+      <c r="V8" s="606"/>
+      <c r="W8" s="611" t="s">
         <v>132</v>
       </c>
-      <c r="X8" s="607"/>
-      <c r="Y8" s="612" t="s">
+      <c r="X8" s="606"/>
+      <c r="Y8" s="611" t="s">
         <v>235</v>
       </c>
-      <c r="Z8" s="607"/>
+      <c r="Z8" s="606"/>
       <c r="AA8" s="181" t="s">
         <v>238</v>
       </c>
-      <c r="AB8" s="607"/>
-      <c r="AC8" s="607"/>
-      <c r="AD8" s="607"/>
+      <c r="AB8" s="606"/>
+      <c r="AC8" s="606"/>
+      <c r="AD8" s="606"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="593" t="s">
+      <c r="B9" s="592" t="s">
         <v>926</v>
       </c>
-      <c r="C9" s="702"/>
+      <c r="C9" s="701"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="593" t="s">
+      <c r="B10" s="592" t="s">
         <v>927</v>
       </c>
-      <c r="C10" s="702"/>
-      <c r="F10" s="611" t="s">
+      <c r="C10" s="701"/>
+      <c r="F10" s="610" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="607"/>
-      <c r="H10" s="611" t="s">
+      <c r="G10" s="606"/>
+      <c r="H10" s="610" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="607"/>
-      <c r="J10" s="611" t="s">
+      <c r="I10" s="606"/>
+      <c r="J10" s="610" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="607"/>
-      <c r="L10" s="611" t="s">
+      <c r="K10" s="606"/>
+      <c r="L10" s="610" t="s">
         <v>100</v>
       </c>
-      <c r="M10" s="607"/>
-      <c r="N10" s="611" t="s">
+      <c r="M10" s="606"/>
+      <c r="N10" s="610" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="607"/>
-      <c r="P10" s="611" t="s">
+      <c r="O10" s="606"/>
+      <c r="P10" s="610" t="s">
         <v>102</v>
       </c>
-      <c r="Q10" s="607"/>
-      <c r="R10" s="611" t="s">
+      <c r="Q10" s="606"/>
+      <c r="R10" s="610" t="s">
         <v>103</v>
       </c>
-      <c r="S10" s="607"/>
-      <c r="T10" s="611" t="s">
+      <c r="S10" s="606"/>
+      <c r="T10" s="610" t="s">
         <v>104</v>
       </c>
-      <c r="U10" s="607"/>
-      <c r="V10" s="611" t="s">
+      <c r="U10" s="606"/>
+      <c r="V10" s="610" t="s">
         <v>105</v>
       </c>
-      <c r="W10" s="607"/>
-      <c r="X10" s="611" t="s">
+      <c r="W10" s="606"/>
+      <c r="X10" s="610" t="s">
         <v>96</v>
       </c>
-      <c r="Y10" s="607"/>
-      <c r="Z10" s="611" t="s">
+      <c r="Y10" s="606"/>
+      <c r="Z10" s="610" t="s">
         <v>137</v>
       </c>
-      <c r="AA10" s="607"/>
-      <c r="AB10" s="611" t="s">
+      <c r="AA10" s="606"/>
+      <c r="AB10" s="610" t="s">
         <v>130</v>
       </c>
-      <c r="AC10" s="607"/>
-      <c r="AD10" s="607"/>
+      <c r="AC10" s="606"/>
+      <c r="AD10" s="606"/>
     </row>
     <row r="11" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="593" t="s">
+      <c r="B11" s="592" t="s">
         <v>928</v>
       </c>
-      <c r="C11" s="702"/>
-      <c r="F11" s="607"/>
-      <c r="G11" s="609" t="s">
+      <c r="C11" s="701"/>
+      <c r="F11" s="606"/>
+      <c r="G11" s="608" t="s">
         <v>945</v>
       </c>
-      <c r="H11" s="607"/>
-      <c r="I11" s="609" t="s">
+      <c r="H11" s="606"/>
+      <c r="I11" s="608" t="s">
         <v>946</v>
       </c>
-      <c r="J11" s="607"/>
-      <c r="K11" s="609" t="s">
+      <c r="J11" s="606"/>
+      <c r="K11" s="608" t="s">
         <v>947</v>
       </c>
-      <c r="L11" s="607"/>
-      <c r="M11" s="609" t="s">
+      <c r="L11" s="606"/>
+      <c r="M11" s="608" t="s">
         <v>948</v>
       </c>
-      <c r="N11" s="607"/>
-      <c r="O11" s="609" t="s">
+      <c r="N11" s="606"/>
+      <c r="O11" s="608" t="s">
         <v>949</v>
       </c>
-      <c r="P11" s="607"/>
-      <c r="Q11" s="609" t="s">
+      <c r="P11" s="606"/>
+      <c r="Q11" s="608" t="s">
         <v>950</v>
       </c>
-      <c r="R11" s="607"/>
-      <c r="S11" s="609" t="s">
+      <c r="R11" s="606"/>
+      <c r="S11" s="608" t="s">
         <v>951</v>
       </c>
-      <c r="T11" s="607"/>
-      <c r="U11" s="609" t="s">
+      <c r="T11" s="606"/>
+      <c r="U11" s="608" t="s">
         <v>952</v>
       </c>
-      <c r="V11" s="607"/>
-      <c r="W11" s="609" t="s">
+      <c r="V11" s="606"/>
+      <c r="W11" s="608" t="s">
         <v>953</v>
       </c>
-      <c r="X11" s="607"/>
-      <c r="Y11" s="609" t="s">
+      <c r="X11" s="606"/>
+      <c r="Y11" s="608" t="s">
         <v>954</v>
       </c>
-      <c r="Z11" s="607"/>
-      <c r="AA11" s="612" t="s">
+      <c r="Z11" s="606"/>
+      <c r="AA11" s="611" t="s">
         <v>221</v>
       </c>
-      <c r="AB11" s="607"/>
-      <c r="AC11" s="609" t="s">
+      <c r="AB11" s="606"/>
+      <c r="AC11" s="608" t="s">
         <v>224</v>
       </c>
-      <c r="AD11" s="607"/>
+      <c r="AD11" s="606"/>
     </row>
     <row r="12" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="591"/>
-      <c r="C12" s="590"/>
-      <c r="F12" s="607"/>
-      <c r="G12" s="607"/>
-      <c r="H12" s="609" t="s">
+      <c r="B12" s="590"/>
+      <c r="C12" s="589"/>
+      <c r="F12" s="606"/>
+      <c r="G12" s="606"/>
+      <c r="H12" s="608" t="s">
         <v>936</v>
       </c>
-      <c r="I12" s="607"/>
-      <c r="J12" s="609" t="s">
+      <c r="I12" s="606"/>
+      <c r="J12" s="608" t="s">
         <v>937</v>
       </c>
-      <c r="K12" s="607"/>
-      <c r="L12" s="609" t="s">
+      <c r="K12" s="606"/>
+      <c r="L12" s="608" t="s">
         <v>938</v>
       </c>
-      <c r="M12" s="607"/>
-      <c r="N12" s="609" t="s">
+      <c r="M12" s="606"/>
+      <c r="N12" s="608" t="s">
         <v>939</v>
       </c>
-      <c r="O12" s="607"/>
-      <c r="P12" s="609" t="s">
+      <c r="O12" s="606"/>
+      <c r="P12" s="608" t="s">
         <v>940</v>
       </c>
-      <c r="Q12" s="607"/>
-      <c r="R12" s="609" t="s">
+      <c r="Q12" s="606"/>
+      <c r="R12" s="608" t="s">
         <v>941</v>
       </c>
-      <c r="S12" s="607"/>
-      <c r="T12" s="609" t="s">
+      <c r="S12" s="606"/>
+      <c r="T12" s="608" t="s">
         <v>942</v>
       </c>
-      <c r="U12" s="607"/>
-      <c r="V12" s="609" t="s">
+      <c r="U12" s="606"/>
+      <c r="V12" s="608" t="s">
         <v>943</v>
       </c>
-      <c r="W12" s="607"/>
-      <c r="X12" s="609" t="s">
+      <c r="W12" s="606"/>
+      <c r="X12" s="608" t="s">
         <v>944</v>
       </c>
-      <c r="Y12" s="607"/>
-      <c r="Z12" s="612" t="s">
+      <c r="Y12" s="606"/>
+      <c r="Z12" s="611" t="s">
         <v>227</v>
       </c>
-      <c r="AA12" s="607"/>
-      <c r="AB12" s="612" t="s">
+      <c r="AA12" s="606"/>
+      <c r="AB12" s="611" t="s">
         <v>229</v>
       </c>
-      <c r="AC12" s="607"/>
-      <c r="AD12" s="609" t="s">
+      <c r="AC12" s="606"/>
+      <c r="AD12" s="608" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="593" t="s">
+      <c r="B13" s="592" t="s">
         <v>929</v>
       </c>
-      <c r="C13" s="703" t="s">
+      <c r="C13" s="702" t="s">
         <v>933</v>
       </c>
-      <c r="F13" s="607"/>
-      <c r="G13" s="608" t="s">
+      <c r="F13" s="606"/>
+      <c r="G13" s="607" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="607"/>
-      <c r="I13" s="609" t="s">
+      <c r="H13" s="606"/>
+      <c r="I13" s="608" t="s">
         <v>955</v>
       </c>
-      <c r="J13" s="607"/>
-      <c r="K13" s="609" t="s">
+      <c r="J13" s="606"/>
+      <c r="K13" s="608" t="s">
         <v>956</v>
       </c>
-      <c r="L13" s="607"/>
-      <c r="M13" s="609" t="s">
+      <c r="L13" s="606"/>
+      <c r="M13" s="608" t="s">
         <v>957</v>
       </c>
-      <c r="N13" s="607"/>
-      <c r="O13" s="609" t="s">
+      <c r="N13" s="606"/>
+      <c r="O13" s="608" t="s">
         <v>958</v>
       </c>
-      <c r="P13" s="610"/>
-      <c r="Q13" s="609" t="s">
+      <c r="P13" s="609"/>
+      <c r="Q13" s="608" t="s">
         <v>959</v>
       </c>
-      <c r="R13" s="610" t="s">
+      <c r="R13" s="609" t="s">
         <v>961</v>
       </c>
-      <c r="S13" s="609" t="s">
+      <c r="S13" s="608" t="s">
         <v>960</v>
       </c>
-      <c r="T13" s="607"/>
-      <c r="U13" s="609" t="s">
+      <c r="T13" s="606"/>
+      <c r="U13" s="608" t="s">
         <v>962</v>
       </c>
-      <c r="V13" s="607"/>
-      <c r="W13" s="612" t="s">
+      <c r="V13" s="606"/>
+      <c r="W13" s="611" t="s">
         <v>134</v>
       </c>
-      <c r="X13" s="607"/>
-      <c r="Y13" s="612" t="s">
+      <c r="X13" s="606"/>
+      <c r="Y13" s="611" t="s">
         <v>124</v>
       </c>
-      <c r="Z13" s="607"/>
-      <c r="AA13" s="611" t="s">
+      <c r="Z13" s="606"/>
+      <c r="AA13" s="610" t="s">
         <v>237</v>
       </c>
-      <c r="AB13" s="607"/>
-      <c r="AC13" s="607"/>
-      <c r="AD13" s="607"/>
+      <c r="AB13" s="606"/>
+      <c r="AC13" s="606"/>
+      <c r="AD13" s="606"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="593" t="s">
+      <c r="B14" s="592" t="s">
         <v>930</v>
       </c>
-      <c r="C14" s="704"/>
+      <c r="C14" s="703"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="593" t="s">
+      <c r="B15" s="592" t="s">
         <v>931</v>
       </c>
-      <c r="C15" s="704"/>
+      <c r="C15" s="703"/>
     </row>
     <row r="16" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="594" t="s">
+      <c r="B16" s="593" t="s">
         <v>932</v>
       </c>
-      <c r="C16" s="705"/>
+      <c r="C16" s="704"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16959,17 +17154,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3341CA24-FB90-4043-B78E-A547E1AF13CD}">
-  <dimension ref="B1:G53"/>
+  <dimension ref="B1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="2" style="212" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="212" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="212"/>
+    <col min="3" max="4" width="4.140625" style="212" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="117.28515625" style="405" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="76.28515625" style="406" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="117.28515625" style="405" bestFit="1" customWidth="1"/>
@@ -17210,70 +17404,82 @@
         <v>793</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="415">
+    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="746">
         <v>0</v>
       </c>
-      <c r="C14" s="416" t="s">
+      <c r="C14" s="747" t="s">
         <v>708</v>
       </c>
-      <c r="D14" s="417" t="s">
+      <c r="D14" s="741" t="s">
         <v>708</v>
       </c>
-      <c r="E14" s="423" t="s">
+      <c r="E14" s="742" t="s">
         <v>806</v>
       </c>
-      <c r="F14" s="424" t="s">
+      <c r="F14" s="743" t="s">
         <v>756</v>
       </c>
-      <c r="G14" s="431" t="s">
+      <c r="G14" s="744" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="415"/>
-      <c r="C15" s="416"/>
-      <c r="D15" s="417"/>
-      <c r="E15" s="425"/>
-      <c r="F15" s="426"/>
-      <c r="G15" s="435"/>
+      <c r="B15" s="413">
+        <v>1</v>
+      </c>
+      <c r="C15" s="366" t="s">
+        <v>697</v>
+      </c>
+      <c r="D15" s="414" t="s">
+        <v>709</v>
+      </c>
+      <c r="E15" s="421" t="s">
+        <v>807</v>
+      </c>
+      <c r="F15" s="422" t="s">
+        <v>757</v>
+      </c>
+      <c r="G15" s="745"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="415">
         <v>1</v>
       </c>
       <c r="C16" s="416" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D16" s="417" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E16" s="423" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F16" s="424" t="s">
-        <v>757</v>
-      </c>
-      <c r="G16" s="435"/>
+        <v>758</v>
+      </c>
+      <c r="G16" s="431" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="415">
         <v>1</v>
       </c>
       <c r="C17" s="416" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D17" s="417" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E17" s="423" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F17" s="424" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G17" s="431" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17281,19 +17487,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="416" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D18" s="417" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E18" s="423" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F18" s="424" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G18" s="431" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17301,19 +17507,19 @@
         <v>1</v>
       </c>
       <c r="C19" s="416" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D19" s="417" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E19" s="423" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F19" s="424" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G19" s="431" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17321,19 +17527,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="416" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D20" s="417" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E20" s="423" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F20" s="424" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G20" s="431" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17341,19 +17547,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="416" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D21" s="417" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E21" s="423" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F21" s="424" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G21" s="431" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17361,19 +17567,19 @@
         <v>1</v>
       </c>
       <c r="C22" s="416" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D22" s="417" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E22" s="423" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F22" s="424" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G22" s="431" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17381,19 +17587,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="416" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D23" s="417" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E23" s="423" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F23" s="424" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G23" s="431" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17401,19 +17607,19 @@
         <v>1</v>
       </c>
       <c r="C24" s="416" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D24" s="417" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E24" s="423" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F24" s="424" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G24" s="431" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17421,134 +17627,142 @@
         <v>1</v>
       </c>
       <c r="C25" s="416" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D25" s="417" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E25" s="423" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F25" s="424" t="s">
-        <v>766</v>
-      </c>
-      <c r="G25" s="431" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="415">
+        <v>767</v>
+      </c>
+      <c r="G25" s="434"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="418">
         <v>1</v>
       </c>
-      <c r="C26" s="416" t="s">
-        <v>707</v>
-      </c>
-      <c r="D26" s="417" t="s">
-        <v>719</v>
-      </c>
-      <c r="E26" s="423" t="s">
-        <v>817</v>
-      </c>
-      <c r="F26" s="424" t="s">
-        <v>767</v>
-      </c>
-      <c r="G26" s="435"/>
+      <c r="C26" s="419" t="s">
+        <v>708</v>
+      </c>
+      <c r="D26" s="420" t="s">
+        <v>720</v>
+      </c>
+      <c r="E26" s="748" t="s">
+        <v>818</v>
+      </c>
+      <c r="F26" s="749" t="s">
+        <v>768</v>
+      </c>
+      <c r="G26" s="429"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="415">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="416" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="D27" s="417" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E27" s="423" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F27" s="424" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G27" s="427"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="415"/>
-      <c r="C28" s="416"/>
-      <c r="D28" s="417"/>
-      <c r="E28" s="425"/>
-      <c r="F28" s="426"/>
+    <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="415">
+        <v>2</v>
+      </c>
+      <c r="C28" s="416" t="s">
+        <v>698</v>
+      </c>
+      <c r="D28" s="417" t="s">
+        <v>722</v>
+      </c>
+      <c r="E28" s="431" t="s">
+        <v>779</v>
+      </c>
+      <c r="F28" s="424" t="s">
+        <v>770</v>
+      </c>
       <c r="G28" s="427"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="415">
         <v>2</v>
       </c>
       <c r="C29" s="416" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D29" s="417" t="s">
-        <v>721</v>
-      </c>
-      <c r="E29" s="423" t="s">
-        <v>819</v>
+        <v>723</v>
+      </c>
+      <c r="E29" s="431" t="s">
+        <v>774</v>
       </c>
       <c r="F29" s="424" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G29" s="427"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="415">
+      <c r="B30" s="735">
         <v>2</v>
       </c>
-      <c r="C30" s="416" t="s">
-        <v>698</v>
-      </c>
-      <c r="D30" s="417" t="s">
-        <v>722</v>
-      </c>
-      <c r="E30" s="431" t="s">
-        <v>779</v>
-      </c>
-      <c r="F30" s="424" t="s">
-        <v>770</v>
-      </c>
-      <c r="G30" s="427"/>
+      <c r="C30" s="736" t="s">
+        <v>700</v>
+      </c>
+      <c r="D30" s="737" t="s">
+        <v>724</v>
+      </c>
+      <c r="E30" s="738" t="s">
+        <v>775</v>
+      </c>
+      <c r="F30" s="739" t="s">
+        <v>772</v>
+      </c>
+      <c r="G30" s="740"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="415">
+      <c r="B31" s="729">
         <v>2</v>
       </c>
-      <c r="C31" s="416" t="s">
-        <v>699</v>
-      </c>
-      <c r="D31" s="417" t="s">
-        <v>723</v>
-      </c>
-      <c r="E31" s="431" t="s">
-        <v>774</v>
-      </c>
-      <c r="F31" s="424" t="s">
-        <v>771</v>
-      </c>
-      <c r="G31" s="427"/>
+      <c r="C31" s="730" t="s">
+        <v>701</v>
+      </c>
+      <c r="D31" s="731" t="s">
+        <v>725</v>
+      </c>
+      <c r="E31" s="732" t="s">
+        <v>780</v>
+      </c>
+      <c r="F31" s="733" t="s">
+        <v>773</v>
+      </c>
+      <c r="G31" s="734"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="415">
         <v>2</v>
       </c>
       <c r="C32" s="416" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D32" s="417" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E32" s="431" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="F32" s="424" t="s">
-        <v>772</v>
+        <v>820</v>
       </c>
       <c r="G32" s="427"/>
     </row>
@@ -17557,134 +17771,138 @@
         <v>2</v>
       </c>
       <c r="C33" s="416" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D33" s="417" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E33" s="431" t="s">
-        <v>780</v>
-      </c>
-      <c r="F33" s="424" t="s">
-        <v>773</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="F33" s="426"/>
       <c r="G33" s="427"/>
     </row>
-    <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="415">
         <v>2</v>
       </c>
       <c r="C34" s="416" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D34" s="417" t="s">
-        <v>726</v>
-      </c>
-      <c r="E34" s="431" t="s">
-        <v>781</v>
-      </c>
-      <c r="F34" s="424" t="s">
-        <v>820</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="E34" s="425"/>
+      <c r="F34" s="426"/>
       <c r="G34" s="427"/>
     </row>
-    <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="415">
         <v>2</v>
       </c>
       <c r="C35" s="416" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D35" s="417" t="s">
-        <v>727</v>
-      </c>
-      <c r="E35" s="431" t="s">
-        <v>782</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="E35" s="425"/>
       <c r="F35" s="426"/>
       <c r="G35" s="427"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="415">
         <v>2</v>
       </c>
       <c r="C36" s="416" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D36" s="417" t="s">
-        <v>728</v>
-      </c>
-      <c r="E36" s="425"/>
+        <v>730</v>
+      </c>
+      <c r="E36" s="431" t="s">
+        <v>777</v>
+      </c>
       <c r="F36" s="426"/>
       <c r="G36" s="427"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="415">
         <v>2</v>
       </c>
       <c r="C37" s="416" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D37" s="417" t="s">
-        <v>729</v>
-      </c>
-      <c r="E37" s="425"/>
+        <v>731</v>
+      </c>
+      <c r="E37" s="431" t="s">
+        <v>778</v>
+      </c>
       <c r="F37" s="426"/>
       <c r="G37" s="427"/>
     </row>
-    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="415">
+    <row r="38" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="418">
         <v>2</v>
       </c>
-      <c r="C38" s="416" t="s">
-        <v>706</v>
-      </c>
-      <c r="D38" s="417" t="s">
-        <v>730</v>
-      </c>
-      <c r="E38" s="431" t="s">
-        <v>777</v>
-      </c>
-      <c r="F38" s="426"/>
-      <c r="G38" s="427"/>
+      <c r="C38" s="419" t="s">
+        <v>708</v>
+      </c>
+      <c r="D38" s="420" t="s">
+        <v>732</v>
+      </c>
+      <c r="E38" s="750" t="s">
+        <v>776</v>
+      </c>
+      <c r="F38" s="428"/>
+      <c r="G38" s="429"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="415">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="416" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D39" s="417" t="s">
-        <v>731</v>
-      </c>
-      <c r="E39" s="431" t="s">
-        <v>778</v>
+        <v>733</v>
+      </c>
+      <c r="E39" s="432" t="s">
+        <v>783</v>
       </c>
       <c r="F39" s="426"/>
       <c r="G39" s="427"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="415">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="416" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="D40" s="417" t="s">
-        <v>732</v>
-      </c>
-      <c r="E40" s="431" t="s">
-        <v>776</v>
+        <v>734</v>
+      </c>
+      <c r="E40" s="432" t="s">
+        <v>784</v>
       </c>
       <c r="F40" s="426"/>
       <c r="G40" s="427"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="415"/>
-      <c r="C41" s="416"/>
-      <c r="D41" s="417"/>
-      <c r="E41" s="432"/>
+    <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="415">
+        <v>3</v>
+      </c>
+      <c r="C41" s="416" t="s">
+        <v>699</v>
+      </c>
+      <c r="D41" s="417" t="s">
+        <v>735</v>
+      </c>
+      <c r="E41" s="432" t="s">
+        <v>785</v>
+      </c>
       <c r="F41" s="426"/>
       <c r="G41" s="427"/>
     </row>
@@ -17693,13 +17911,13 @@
         <v>3</v>
       </c>
       <c r="C42" s="416" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D42" s="417" t="s">
-        <v>733</v>
-      </c>
-      <c r="E42" s="433" t="s">
-        <v>783</v>
+        <v>736</v>
+      </c>
+      <c r="E42" s="432" t="s">
+        <v>786</v>
       </c>
       <c r="F42" s="426"/>
       <c r="G42" s="427"/>
@@ -17709,13 +17927,13 @@
         <v>3</v>
       </c>
       <c r="C43" s="416" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D43" s="417" t="s">
-        <v>734</v>
-      </c>
-      <c r="E43" s="433" t="s">
-        <v>784</v>
+        <v>737</v>
+      </c>
+      <c r="E43" s="432" t="s">
+        <v>787</v>
       </c>
       <c r="F43" s="426"/>
       <c r="G43" s="427"/>
@@ -17725,13 +17943,13 @@
         <v>3</v>
       </c>
       <c r="C44" s="416" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D44" s="417" t="s">
-        <v>735</v>
-      </c>
-      <c r="E44" s="433" t="s">
-        <v>785</v>
+        <v>738</v>
+      </c>
+      <c r="E44" s="432" t="s">
+        <v>788</v>
       </c>
       <c r="F44" s="426"/>
       <c r="G44" s="427"/>
@@ -17741,13 +17959,13 @@
         <v>3</v>
       </c>
       <c r="C45" s="416" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D45" s="417" t="s">
-        <v>736</v>
-      </c>
-      <c r="E45" s="433" t="s">
-        <v>786</v>
+        <v>739</v>
+      </c>
+      <c r="E45" s="432" t="s">
+        <v>789</v>
       </c>
       <c r="F45" s="426"/>
       <c r="G45" s="427"/>
@@ -17757,13 +17975,13 @@
         <v>3</v>
       </c>
       <c r="C46" s="416" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D46" s="417" t="s">
-        <v>737</v>
-      </c>
-      <c r="E46" s="433" t="s">
-        <v>787</v>
+        <v>740</v>
+      </c>
+      <c r="E46" s="432" t="s">
+        <v>790</v>
       </c>
       <c r="F46" s="426"/>
       <c r="G46" s="427"/>
@@ -17773,13 +17991,13 @@
         <v>3</v>
       </c>
       <c r="C47" s="416" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D47" s="417" t="s">
-        <v>738</v>
-      </c>
-      <c r="E47" s="433" t="s">
-        <v>788</v>
+        <v>741</v>
+      </c>
+      <c r="E47" s="432" t="s">
+        <v>791</v>
       </c>
       <c r="F47" s="426"/>
       <c r="G47" s="427"/>
@@ -17789,13 +18007,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="416" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D48" s="417" t="s">
-        <v>739</v>
-      </c>
-      <c r="E48" s="433" t="s">
-        <v>789</v>
+        <v>742</v>
+      </c>
+      <c r="E48" s="432" t="s">
+        <v>792</v>
       </c>
       <c r="F48" s="426"/>
       <c r="G48" s="427"/>
@@ -17805,80 +18023,32 @@
         <v>3</v>
       </c>
       <c r="C49" s="416" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D49" s="417" t="s">
-        <v>740</v>
-      </c>
-      <c r="E49" s="433" t="s">
-        <v>790</v>
+        <v>743</v>
+      </c>
+      <c r="E49" s="432" t="s">
+        <v>793</v>
       </c>
       <c r="F49" s="426"/>
       <c r="G49" s="427"/>
     </row>
-    <row r="50" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="415">
+    <row r="50" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="418">
         <v>3</v>
       </c>
-      <c r="C50" s="416" t="s">
-        <v>705</v>
-      </c>
-      <c r="D50" s="417" t="s">
-        <v>741</v>
+      <c r="C50" s="419" t="s">
+        <v>708</v>
+      </c>
+      <c r="D50" s="420" t="s">
+        <v>744</v>
       </c>
       <c r="E50" s="433" t="s">
-        <v>791</v>
-      </c>
-      <c r="F50" s="426"/>
-      <c r="G50" s="427"/>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="415">
-        <v>3</v>
-      </c>
-      <c r="C51" s="416" t="s">
-        <v>706</v>
-      </c>
-      <c r="D51" s="417" t="s">
-        <v>742</v>
-      </c>
-      <c r="E51" s="433" t="s">
-        <v>792</v>
-      </c>
-      <c r="F51" s="426"/>
-      <c r="G51" s="427"/>
-    </row>
-    <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="415">
-        <v>3</v>
-      </c>
-      <c r="C52" s="416" t="s">
-        <v>707</v>
-      </c>
-      <c r="D52" s="417" t="s">
-        <v>743</v>
-      </c>
-      <c r="E52" s="433" t="s">
-        <v>793</v>
-      </c>
-      <c r="F52" s="426"/>
-      <c r="G52" s="427"/>
-    </row>
-    <row r="53" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="418">
-        <v>3</v>
-      </c>
-      <c r="C53" s="419" t="s">
-        <v>708</v>
-      </c>
-      <c r="D53" s="420" t="s">
-        <v>744</v>
-      </c>
-      <c r="E53" s="434" t="s">
         <v>794</v>
       </c>
-      <c r="F53" s="428"/>
-      <c r="G53" s="429"/>
+      <c r="F50" s="428"/>
+      <c r="G50" s="429"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -17904,10 +18074,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="706" t="s">
+      <c r="B1" s="705" t="s">
         <v>650</v>
       </c>
-      <c r="C1" s="707"/>
+      <c r="C1" s="706"/>
       <c r="D1" s="390" t="s">
         <v>659</v>
       </c>
@@ -19265,15 +19435,15 @@
       <c r="D5" s="179" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="708" t="s">
+      <c r="E5" s="707" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="709"/>
-      <c r="G5" s="710" t="s">
+      <c r="F5" s="708"/>
+      <c r="G5" s="709" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="710"/>
-      <c r="I5" s="709"/>
+      <c r="H5" s="709"/>
+      <c r="I5" s="708"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -19375,58 +19545,58 @@
       <c r="M9" s="181"/>
       <c r="N9" s="181"/>
       <c r="O9" s="181"/>
-      <c r="P9" s="708" t="s">
+      <c r="P9" s="707" t="s">
         <v>285</v>
       </c>
-      <c r="Q9" s="711"/>
-      <c r="R9" s="708" t="s">
+      <c r="Q9" s="710"/>
+      <c r="R9" s="707" t="s">
         <v>270</v>
       </c>
-      <c r="S9" s="711"/>
+      <c r="S9" s="710"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C10" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="712" t="s">
+      <c r="D10" s="711" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="713"/>
-      <c r="F10" s="713"/>
-      <c r="G10" s="713"/>
-      <c r="H10" s="713"/>
-      <c r="I10" s="713"/>
-      <c r="J10" s="713"/>
-      <c r="K10" s="713"/>
-      <c r="L10" s="713"/>
-      <c r="M10" s="713"/>
-      <c r="N10" s="713"/>
-      <c r="O10" s="713"/>
-      <c r="P10" s="713"/>
-      <c r="Q10" s="713"/>
-      <c r="R10" s="713"/>
-      <c r="S10" s="636"/>
+      <c r="E10" s="712"/>
+      <c r="F10" s="712"/>
+      <c r="G10" s="712"/>
+      <c r="H10" s="712"/>
+      <c r="I10" s="712"/>
+      <c r="J10" s="712"/>
+      <c r="K10" s="712"/>
+      <c r="L10" s="712"/>
+      <c r="M10" s="712"/>
+      <c r="N10" s="712"/>
+      <c r="O10" s="712"/>
+      <c r="P10" s="712"/>
+      <c r="Q10" s="712"/>
+      <c r="R10" s="712"/>
+      <c r="S10" s="672"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="714"/>
-      <c r="E11" s="715"/>
-      <c r="F11" s="715"/>
-      <c r="G11" s="715"/>
-      <c r="H11" s="715"/>
-      <c r="I11" s="715"/>
-      <c r="J11" s="715"/>
-      <c r="K11" s="715"/>
-      <c r="L11" s="715"/>
-      <c r="M11" s="715"/>
-      <c r="N11" s="715"/>
-      <c r="O11" s="715"/>
-      <c r="P11" s="715"/>
-      <c r="Q11" s="715"/>
-      <c r="R11" s="715"/>
-      <c r="S11" s="638"/>
+      <c r="D11" s="713"/>
+      <c r="E11" s="714"/>
+      <c r="F11" s="714"/>
+      <c r="G11" s="714"/>
+      <c r="H11" s="714"/>
+      <c r="I11" s="714"/>
+      <c r="J11" s="714"/>
+      <c r="K11" s="714"/>
+      <c r="L11" s="714"/>
+      <c r="M11" s="714"/>
+      <c r="N11" s="714"/>
+      <c r="O11" s="714"/>
+      <c r="P11" s="714"/>
+      <c r="Q11" s="714"/>
+      <c r="R11" s="714"/>
+      <c r="S11" s="674"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -19529,94 +19699,94 @@
       <c r="D19" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="E19" s="719" t="s">
+      <c r="E19" s="718" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="720"/>
-      <c r="G19" s="720"/>
-      <c r="H19" s="720"/>
-      <c r="I19" s="720"/>
-      <c r="J19" s="720"/>
-      <c r="K19" s="720"/>
-      <c r="L19" s="720"/>
-      <c r="M19" s="720"/>
-      <c r="N19" s="720"/>
-      <c r="O19" s="720"/>
-      <c r="P19" s="720"/>
-      <c r="Q19" s="720"/>
-      <c r="R19" s="720"/>
-      <c r="S19" s="657"/>
+      <c r="F19" s="719"/>
+      <c r="G19" s="719"/>
+      <c r="H19" s="719"/>
+      <c r="I19" s="719"/>
+      <c r="J19" s="719"/>
+      <c r="K19" s="719"/>
+      <c r="L19" s="719"/>
+      <c r="M19" s="719"/>
+      <c r="N19" s="719"/>
+      <c r="O19" s="719"/>
+      <c r="P19" s="719"/>
+      <c r="Q19" s="719"/>
+      <c r="R19" s="719"/>
+      <c r="S19" s="639"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="716" t="s">
+      <c r="D20" s="715" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="717"/>
-      <c r="F20" s="717"/>
-      <c r="G20" s="717"/>
-      <c r="H20" s="717"/>
-      <c r="I20" s="717"/>
-      <c r="J20" s="717"/>
-      <c r="K20" s="717"/>
-      <c r="L20" s="717"/>
-      <c r="M20" s="717"/>
-      <c r="N20" s="717"/>
-      <c r="O20" s="717"/>
-      <c r="P20" s="718"/>
+      <c r="E20" s="716"/>
+      <c r="F20" s="716"/>
+      <c r="G20" s="716"/>
+      <c r="H20" s="716"/>
+      <c r="I20" s="716"/>
+      <c r="J20" s="716"/>
+      <c r="K20" s="716"/>
+      <c r="L20" s="716"/>
+      <c r="M20" s="716"/>
+      <c r="N20" s="716"/>
+      <c r="O20" s="716"/>
+      <c r="P20" s="717"/>
       <c r="Q20" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="R20" s="708" t="s">
+      <c r="R20" s="707" t="s">
         <v>270</v>
       </c>
-      <c r="S20" s="711"/>
+      <c r="S20" s="710"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C21" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="712" t="s">
+      <c r="D21" s="711" t="s">
         <v>271</v>
       </c>
-      <c r="E21" s="713"/>
-      <c r="F21" s="713"/>
-      <c r="G21" s="713"/>
-      <c r="H21" s="713"/>
-      <c r="I21" s="713"/>
-      <c r="J21" s="713"/>
-      <c r="K21" s="713"/>
-      <c r="L21" s="713"/>
-      <c r="M21" s="713"/>
-      <c r="N21" s="713"/>
-      <c r="O21" s="713"/>
-      <c r="P21" s="713"/>
-      <c r="Q21" s="713"/>
-      <c r="R21" s="713"/>
-      <c r="S21" s="636"/>
+      <c r="E21" s="712"/>
+      <c r="F21" s="712"/>
+      <c r="G21" s="712"/>
+      <c r="H21" s="712"/>
+      <c r="I21" s="712"/>
+      <c r="J21" s="712"/>
+      <c r="K21" s="712"/>
+      <c r="L21" s="712"/>
+      <c r="M21" s="712"/>
+      <c r="N21" s="712"/>
+      <c r="O21" s="712"/>
+      <c r="P21" s="712"/>
+      <c r="Q21" s="712"/>
+      <c r="R21" s="712"/>
+      <c r="S21" s="672"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="714"/>
-      <c r="E22" s="715"/>
-      <c r="F22" s="715"/>
-      <c r="G22" s="715"/>
-      <c r="H22" s="715"/>
-      <c r="I22" s="715"/>
-      <c r="J22" s="715"/>
-      <c r="K22" s="715"/>
-      <c r="L22" s="715"/>
-      <c r="M22" s="715"/>
-      <c r="N22" s="715"/>
-      <c r="O22" s="715"/>
-      <c r="P22" s="715"/>
-      <c r="Q22" s="715"/>
-      <c r="R22" s="715"/>
-      <c r="S22" s="638"/>
+      <c r="D22" s="713"/>
+      <c r="E22" s="714"/>
+      <c r="F22" s="714"/>
+      <c r="G22" s="714"/>
+      <c r="H22" s="714"/>
+      <c r="I22" s="714"/>
+      <c r="J22" s="714"/>
+      <c r="K22" s="714"/>
+      <c r="L22" s="714"/>
+      <c r="M22" s="714"/>
+      <c r="N22" s="714"/>
+      <c r="O22" s="714"/>
+      <c r="P22" s="714"/>
+      <c r="Q22" s="714"/>
+      <c r="R22" s="714"/>
+      <c r="S22" s="674"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K24" t="s">

--- a/DOC/DEG2000.xlsx
+++ b/DOC/DEG2000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devel\1 DEG2000\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C614403-063A-4CC7-B661-1ABA8CDFC91B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6CB513-2B29-4628-9CFD-1509D0A2B1DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="11100" activeTab="6" xr2:uid="{F91C61BF-F393-4C13-9000-551DF6FEF055}"/>
   </bookViews>
@@ -7661,6 +7661,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="74" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="238" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="239" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="238" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="240" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="241" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="242" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="243" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="237" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="243" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="138" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="244" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="245" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="246" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="130" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="127" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7676,17 +7742,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -7696,9 +7823,6 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7731,9 +7855,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7787,70 +7908,42 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="199" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="207" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="203" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="201" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="202" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="191" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="195" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="196" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="215" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7859,31 +7952,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="193" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="216" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="195" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="196" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="202" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="203" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="201" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="218" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="194" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="191" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="203" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -7894,13 +7963,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="199" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="216" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="207" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="218" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="231" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7999,72 +8065,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="238" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="239" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="238" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="240" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="241" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="242" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="243" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="237" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="243" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="138" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="244" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="245" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="246" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="130" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="127" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8419,16 +8419,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="612" t="s">
+      <c r="F1" s="634" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="613"/>
-      <c r="H1" s="613"/>
-      <c r="I1" s="614" t="s">
+      <c r="G1" s="635"/>
+      <c r="H1" s="635"/>
+      <c r="I1" s="636" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="615"/>
-      <c r="K1" s="616"/>
+      <c r="J1" s="637"/>
+      <c r="K1" s="638"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -8930,7 +8930,7 @@
       <c r="I10" s="225" t="s">
         <v>355</v>
       </c>
-      <c r="J10" s="720" t="s">
+      <c r="J10" s="742" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8947,7 +8947,7 @@
       <c r="I11" s="225" t="s">
         <v>356</v>
       </c>
-      <c r="J11" s="720"/>
+      <c r="J11" s="742"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="347"/>
@@ -9028,7 +9028,7 @@
       <c r="I16" s="225" t="s">
         <v>361</v>
       </c>
-      <c r="J16" s="720" t="s">
+      <c r="J16" s="742" t="s">
         <v>363</v>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       <c r="I17" s="225" t="s">
         <v>362</v>
       </c>
-      <c r="J17" s="720"/>
+      <c r="J17" s="742"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="347"/>
@@ -11382,22 +11382,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="721"/>
-      <c r="C2" s="721"/>
-      <c r="D2" s="721"/>
-      <c r="E2" s="721"/>
-      <c r="F2" s="721"/>
-      <c r="G2" s="721"/>
+      <c r="B2" s="743"/>
+      <c r="C2" s="743"/>
+      <c r="D2" s="743"/>
+      <c r="E2" s="743"/>
+      <c r="F2" s="743"/>
+      <c r="G2" s="743"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="722" t="s">
+      <c r="B3" s="744" t="s">
         <v>857</v>
       </c>
-      <c r="C3" s="723"/>
-      <c r="D3" s="723"/>
-      <c r="E3" s="723"/>
-      <c r="F3" s="723"/>
-      <c r="G3" s="724"/>
+      <c r="C3" s="745"/>
+      <c r="D3" s="745"/>
+      <c r="E3" s="745"/>
+      <c r="F3" s="745"/>
+      <c r="G3" s="746"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="477" t="s">
@@ -11456,14 +11456,14 @@
       <c r="G7" s="216"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="725" t="s">
+      <c r="B8" s="747" t="s">
         <v>858</v>
       </c>
-      <c r="C8" s="726"/>
-      <c r="D8" s="726"/>
-      <c r="E8" s="726"/>
-      <c r="F8" s="726"/>
-      <c r="G8" s="727"/>
+      <c r="C8" s="748"/>
+      <c r="D8" s="748"/>
+      <c r="E8" s="748"/>
+      <c r="F8" s="748"/>
+      <c r="G8" s="749"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="477" t="s">
@@ -11522,14 +11522,14 @@
       <c r="G12" s="216"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="725" t="s">
+      <c r="B13" s="747" t="s">
         <v>859</v>
       </c>
-      <c r="C13" s="726"/>
-      <c r="D13" s="726"/>
-      <c r="E13" s="726"/>
-      <c r="F13" s="726"/>
-      <c r="G13" s="727"/>
+      <c r="C13" s="748"/>
+      <c r="D13" s="748"/>
+      <c r="E13" s="748"/>
+      <c r="F13" s="748"/>
+      <c r="G13" s="749"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="477" t="s">
@@ -11588,14 +11588,14 @@
       <c r="G17" s="216"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="725" t="s">
+      <c r="B18" s="747" t="s">
         <v>860</v>
       </c>
-      <c r="C18" s="726"/>
-      <c r="D18" s="726"/>
-      <c r="E18" s="726"/>
-      <c r="F18" s="726"/>
-      <c r="G18" s="727"/>
+      <c r="C18" s="748"/>
+      <c r="D18" s="748"/>
+      <c r="E18" s="748"/>
+      <c r="F18" s="748"/>
+      <c r="G18" s="749"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="477" t="s">
@@ -11686,24 +11686,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="721" t="s">
+      <c r="B2" s="743" t="s">
         <v>870</v>
       </c>
-      <c r="C2" s="728"/>
-      <c r="D2" s="728"/>
-      <c r="E2" s="728"/>
-      <c r="F2" s="728"/>
-      <c r="G2" s="728"/>
+      <c r="C2" s="750"/>
+      <c r="D2" s="750"/>
+      <c r="E2" s="750"/>
+      <c r="F2" s="750"/>
+      <c r="G2" s="750"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="722" t="s">
+      <c r="B3" s="744" t="s">
         <v>857</v>
       </c>
-      <c r="C3" s="723"/>
-      <c r="D3" s="723"/>
-      <c r="E3" s="723"/>
-      <c r="F3" s="723"/>
-      <c r="G3" s="724"/>
+      <c r="C3" s="745"/>
+      <c r="D3" s="745"/>
+      <c r="E3" s="745"/>
+      <c r="F3" s="745"/>
+      <c r="G3" s="746"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="505" t="s">
@@ -11782,14 +11782,14 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="725" t="s">
+      <c r="B8" s="747" t="s">
         <v>858</v>
       </c>
-      <c r="C8" s="726"/>
-      <c r="D8" s="726"/>
-      <c r="E8" s="726"/>
-      <c r="F8" s="726"/>
-      <c r="G8" s="727"/>
+      <c r="C8" s="748"/>
+      <c r="D8" s="748"/>
+      <c r="E8" s="748"/>
+      <c r="F8" s="748"/>
+      <c r="G8" s="749"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="487" t="s">
@@ -11848,14 +11848,14 @@
       <c r="G12" s="504"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="725" t="s">
+      <c r="B13" s="747" t="s">
         <v>859</v>
       </c>
-      <c r="C13" s="726"/>
-      <c r="D13" s="726"/>
-      <c r="E13" s="726"/>
-      <c r="F13" s="726"/>
-      <c r="G13" s="727"/>
+      <c r="C13" s="748"/>
+      <c r="D13" s="748"/>
+      <c r="E13" s="748"/>
+      <c r="F13" s="748"/>
+      <c r="G13" s="749"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="487" t="s">
@@ -11914,14 +11914,14 @@
       <c r="G17" s="504"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="725" t="s">
+      <c r="B18" s="747" t="s">
         <v>860</v>
       </c>
-      <c r="C18" s="726"/>
-      <c r="D18" s="726"/>
-      <c r="E18" s="726"/>
-      <c r="F18" s="726"/>
-      <c r="G18" s="727"/>
+      <c r="C18" s="748"/>
+      <c r="D18" s="748"/>
+      <c r="E18" s="748"/>
+      <c r="F18" s="748"/>
+      <c r="G18" s="749"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="487" t="s">
@@ -12026,29 +12026,29 @@
       <c r="L3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="625">
+      <c r="M3" s="656">
         <v>0</v>
       </c>
-      <c r="N3" s="639"/>
-      <c r="O3" s="625" t="s">
+      <c r="N3" s="678"/>
+      <c r="O3" s="656" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="626"/>
-      <c r="Q3" s="626"/>
-      <c r="R3" s="626"/>
-      <c r="S3" s="626"/>
-      <c r="T3" s="627"/>
-      <c r="U3" s="637">
+      <c r="P3" s="666"/>
+      <c r="Q3" s="666"/>
+      <c r="R3" s="666"/>
+      <c r="S3" s="666"/>
+      <c r="T3" s="667"/>
+      <c r="U3" s="639">
         <v>2</v>
       </c>
-      <c r="V3" s="637">
+      <c r="V3" s="639">
         <v>3</v>
       </c>
-      <c r="W3" s="625">
+      <c r="W3" s="656">
         <v>4</v>
       </c>
-      <c r="X3" s="672"/>
-      <c r="Y3" s="637">
+      <c r="X3" s="657"/>
+      <c r="Y3" s="639">
         <v>5</v>
       </c>
     </row>
@@ -12076,22 +12076,22 @@
       <c r="T4" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="638"/>
-      <c r="V4" s="638"/>
-      <c r="W4" s="673" t="s">
+      <c r="U4" s="677"/>
+      <c r="V4" s="677"/>
+      <c r="W4" s="658" t="s">
         <v>323</v>
       </c>
-      <c r="X4" s="674"/>
-      <c r="Y4" s="656"/>
+      <c r="X4" s="659"/>
+      <c r="Y4" s="640"/>
     </row>
     <row r="5" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L5" s="617" t="s">
+      <c r="L5" s="695" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="622" t="s">
+      <c r="M5" s="663" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="640" t="s">
+      <c r="N5" s="679" t="s">
         <v>327</v>
       </c>
       <c r="O5" s="61"/>
@@ -12104,26 +12104,26 @@
       <c r="T5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="631" t="s">
+      <c r="U5" s="671" t="s">
         <v>476</v>
       </c>
-      <c r="V5" s="634" t="s">
+      <c r="V5" s="674" t="s">
         <v>326</v>
       </c>
-      <c r="W5" s="666" t="s">
+      <c r="W5" s="650" t="s">
         <v>314</v>
       </c>
-      <c r="X5" s="670" t="s">
+      <c r="X5" s="654" t="s">
         <v>315</v>
       </c>
-      <c r="Y5" s="657" t="s">
+      <c r="Y5" s="641" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L6" s="618"/>
-      <c r="M6" s="623"/>
-      <c r="N6" s="641"/>
+      <c r="L6" s="696"/>
+      <c r="M6" s="664"/>
+      <c r="N6" s="680"/>
       <c r="O6" s="64"/>
       <c r="P6" s="65"/>
       <c r="Q6" s="65"/>
@@ -12132,16 +12132,16 @@
       <c r="T6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="632"/>
-      <c r="V6" s="635"/>
-      <c r="W6" s="667"/>
-      <c r="X6" s="671"/>
-      <c r="Y6" s="658"/>
+      <c r="U6" s="672"/>
+      <c r="V6" s="675"/>
+      <c r="W6" s="651"/>
+      <c r="X6" s="655"/>
+      <c r="Y6" s="642"/>
     </row>
     <row r="7" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L7" s="618"/>
-      <c r="M7" s="623"/>
-      <c r="N7" s="642"/>
+      <c r="L7" s="696"/>
+      <c r="M7" s="664"/>
+      <c r="N7" s="681"/>
       <c r="O7" s="64"/>
       <c r="P7" s="65"/>
       <c r="Q7" s="65"/>
@@ -12150,18 +12150,18 @@
       <c r="T7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="632"/>
-      <c r="V7" s="635"/>
-      <c r="W7" s="668"/>
-      <c r="X7" s="675" t="s">
+      <c r="U7" s="672"/>
+      <c r="V7" s="675"/>
+      <c r="W7" s="652"/>
+      <c r="X7" s="660" t="s">
         <v>320</v>
       </c>
-      <c r="Y7" s="658"/>
+      <c r="Y7" s="642"/>
     </row>
     <row r="8" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L8" s="619"/>
-      <c r="M8" s="623"/>
-      <c r="N8" s="645" t="s">
+      <c r="L8" s="697"/>
+      <c r="M8" s="664"/>
+      <c r="N8" s="684" t="s">
         <v>312</v>
       </c>
       <c r="O8" s="108"/>
@@ -12174,18 +12174,18 @@
       <c r="T8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="632"/>
-      <c r="V8" s="635"/>
-      <c r="W8" s="668"/>
-      <c r="X8" s="676"/>
-      <c r="Y8" s="658"/>
+      <c r="U8" s="672"/>
+      <c r="V8" s="675"/>
+      <c r="W8" s="652"/>
+      <c r="X8" s="661"/>
+      <c r="Y8" s="642"/>
     </row>
     <row r="9" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L9" s="617" t="s">
+      <c r="L9" s="695" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="623"/>
-      <c r="N9" s="646"/>
+      <c r="M9" s="664"/>
+      <c r="N9" s="685"/>
       <c r="O9" s="61"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
@@ -12196,18 +12196,18 @@
       <c r="T9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="632"/>
-      <c r="V9" s="635"/>
-      <c r="W9" s="668"/>
-      <c r="X9" s="671" t="s">
+      <c r="U9" s="672"/>
+      <c r="V9" s="675"/>
+      <c r="W9" s="652"/>
+      <c r="X9" s="655" t="s">
         <v>319</v>
       </c>
-      <c r="Y9" s="658"/>
+      <c r="Y9" s="642"/>
     </row>
     <row r="10" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L10" s="618"/>
-      <c r="M10" s="623"/>
-      <c r="N10" s="646"/>
+      <c r="L10" s="696"/>
+      <c r="M10" s="664"/>
+      <c r="N10" s="685"/>
       <c r="O10" s="64"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="65"/>
@@ -12216,16 +12216,16 @@
       <c r="T10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="632"/>
-      <c r="V10" s="635"/>
-      <c r="W10" s="668"/>
-      <c r="X10" s="677"/>
-      <c r="Y10" s="658"/>
+      <c r="U10" s="672"/>
+      <c r="V10" s="675"/>
+      <c r="W10" s="652"/>
+      <c r="X10" s="662"/>
+      <c r="Y10" s="642"/>
     </row>
     <row r="11" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L11" s="618"/>
-      <c r="M11" s="623"/>
-      <c r="N11" s="647"/>
+      <c r="L11" s="696"/>
+      <c r="M11" s="664"/>
+      <c r="N11" s="686"/>
       <c r="O11" s="64"/>
       <c r="P11" s="65"/>
       <c r="Q11" s="65"/>
@@ -12234,18 +12234,18 @@
       <c r="T11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="632"/>
-      <c r="V11" s="635"/>
-      <c r="W11" s="668"/>
-      <c r="X11" s="675" t="s">
+      <c r="U11" s="672"/>
+      <c r="V11" s="675"/>
+      <c r="W11" s="652"/>
+      <c r="X11" s="660" t="s">
         <v>318</v>
       </c>
-      <c r="Y11" s="658"/>
+      <c r="Y11" s="642"/>
     </row>
     <row r="12" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L12" s="619"/>
-      <c r="M12" s="623"/>
-      <c r="N12" s="643" t="s">
+      <c r="L12" s="697"/>
+      <c r="M12" s="664"/>
+      <c r="N12" s="682" t="s">
         <v>311</v>
       </c>
       <c r="O12" s="80"/>
@@ -12258,19 +12258,19 @@
       <c r="T12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="632"/>
-      <c r="V12" s="635"/>
-      <c r="W12" s="668"/>
-      <c r="X12" s="676"/>
-      <c r="Y12" s="658"/>
+      <c r="U12" s="672"/>
+      <c r="V12" s="675"/>
+      <c r="W12" s="652"/>
+      <c r="X12" s="661"/>
+      <c r="Y12" s="642"/>
       <c r="Z12" s="203"/>
     </row>
     <row r="13" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L13" s="617" t="s">
+      <c r="L13" s="695" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="623"/>
-      <c r="N13" s="644"/>
+      <c r="M13" s="664"/>
+      <c r="N13" s="683"/>
       <c r="O13" s="106"/>
       <c r="P13" s="107"/>
       <c r="Q13" s="107"/>
@@ -12281,18 +12281,18 @@
       <c r="T13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="632"/>
-      <c r="V13" s="635"/>
-      <c r="W13" s="668"/>
-      <c r="X13" s="671" t="s">
+      <c r="U13" s="672"/>
+      <c r="V13" s="675"/>
+      <c r="W13" s="652"/>
+      <c r="X13" s="655" t="s">
         <v>317</v>
       </c>
-      <c r="Y13" s="658"/>
+      <c r="Y13" s="642"/>
       <c r="Z13" s="204"/>
     </row>
     <row r="14" spans="12:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="618"/>
-      <c r="M14" s="623"/>
+      <c r="L14" s="696"/>
+      <c r="M14" s="664"/>
       <c r="N14" s="208"/>
       <c r="O14" s="64"/>
       <c r="P14" s="65"/>
@@ -12302,16 +12302,16 @@
       <c r="T14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="632"/>
-      <c r="V14" s="635"/>
-      <c r="W14" s="668"/>
-      <c r="X14" s="677"/>
-      <c r="Y14" s="658"/>
+      <c r="U14" s="672"/>
+      <c r="V14" s="675"/>
+      <c r="W14" s="652"/>
+      <c r="X14" s="662"/>
+      <c r="Y14" s="642"/>
       <c r="Z14" s="204"/>
     </row>
     <row r="15" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L15" s="618"/>
-      <c r="M15" s="623"/>
+      <c r="L15" s="696"/>
+      <c r="M15" s="664"/>
       <c r="N15" s="209"/>
       <c r="O15" s="64"/>
       <c r="P15" s="65"/>
@@ -12321,18 +12321,18 @@
       <c r="T15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="632"/>
-      <c r="V15" s="635"/>
-      <c r="W15" s="668"/>
-      <c r="X15" s="675" t="s">
+      <c r="U15" s="672"/>
+      <c r="V15" s="675"/>
+      <c r="W15" s="652"/>
+      <c r="X15" s="660" t="s">
         <v>316</v>
       </c>
-      <c r="Y15" s="658"/>
+      <c r="Y15" s="642"/>
       <c r="Z15" s="204"/>
     </row>
     <row r="16" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L16" s="619"/>
-      <c r="M16" s="623"/>
+      <c r="L16" s="697"/>
+      <c r="M16" s="664"/>
       <c r="N16" s="209"/>
       <c r="O16" s="108"/>
       <c r="P16" s="109"/>
@@ -12344,18 +12344,18 @@
       <c r="T16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="632"/>
-      <c r="V16" s="635"/>
-      <c r="W16" s="669"/>
-      <c r="X16" s="676"/>
-      <c r="Y16" s="658"/>
+      <c r="U16" s="672"/>
+      <c r="V16" s="675"/>
+      <c r="W16" s="653"/>
+      <c r="X16" s="661"/>
+      <c r="Y16" s="642"/>
       <c r="Z16" s="204"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L17" s="617" t="s">
+      <c r="L17" s="695" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="623"/>
+      <c r="M17" s="664"/>
       <c r="N17" s="209"/>
       <c r="O17" s="61"/>
       <c r="P17" s="62"/>
@@ -12367,18 +12367,18 @@
       <c r="T17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="632"/>
-      <c r="V17" s="635"/>
-      <c r="W17" s="660" t="s">
+      <c r="U17" s="672"/>
+      <c r="V17" s="675"/>
+      <c r="W17" s="644" t="s">
         <v>321</v>
       </c>
-      <c r="X17" s="661"/>
-      <c r="Y17" s="658"/>
+      <c r="X17" s="645"/>
+      <c r="Y17" s="642"/>
       <c r="Z17" s="204"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L18" s="618"/>
-      <c r="M18" s="623"/>
+      <c r="L18" s="696"/>
+      <c r="M18" s="664"/>
       <c r="N18" s="209"/>
       <c r="O18" s="64"/>
       <c r="P18" s="65"/>
@@ -12388,16 +12388,16 @@
       <c r="T18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="632"/>
-      <c r="V18" s="635"/>
-      <c r="W18" s="662"/>
-      <c r="X18" s="663"/>
-      <c r="Y18" s="658"/>
+      <c r="U18" s="672"/>
+      <c r="V18" s="675"/>
+      <c r="W18" s="646"/>
+      <c r="X18" s="647"/>
+      <c r="Y18" s="642"/>
       <c r="Z18" s="204"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L19" s="618"/>
-      <c r="M19" s="623"/>
+      <c r="L19" s="696"/>
+      <c r="M19" s="664"/>
       <c r="N19" s="209"/>
       <c r="O19" s="64"/>
       <c r="P19" s="65"/>
@@ -12407,16 +12407,16 @@
       <c r="T19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="632"/>
-      <c r="V19" s="635"/>
-      <c r="W19" s="662"/>
-      <c r="X19" s="663"/>
-      <c r="Y19" s="658"/>
+      <c r="U19" s="672"/>
+      <c r="V19" s="675"/>
+      <c r="W19" s="646"/>
+      <c r="X19" s="647"/>
+      <c r="Y19" s="642"/>
       <c r="Z19" s="204"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L20" s="619"/>
-      <c r="M20" s="623"/>
+      <c r="L20" s="697"/>
+      <c r="M20" s="664"/>
       <c r="N20" s="209"/>
       <c r="O20" s="80" t="s">
         <v>73</v>
@@ -12432,18 +12432,18 @@
       <c r="T20" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="632"/>
-      <c r="V20" s="635"/>
-      <c r="W20" s="662"/>
-      <c r="X20" s="663"/>
-      <c r="Y20" s="658"/>
+      <c r="U20" s="672"/>
+      <c r="V20" s="675"/>
+      <c r="W20" s="646"/>
+      <c r="X20" s="647"/>
+      <c r="Y20" s="642"/>
       <c r="Z20" s="204"/>
     </row>
     <row r="21" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L21" s="617" t="s">
+      <c r="L21" s="695" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="623"/>
+      <c r="M21" s="664"/>
       <c r="N21" s="209"/>
       <c r="O21" s="78"/>
       <c r="P21" s="79"/>
@@ -12455,11 +12455,11 @@
       <c r="T21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="632"/>
-      <c r="V21" s="635"/>
-      <c r="W21" s="662"/>
-      <c r="X21" s="663"/>
-      <c r="Y21" s="658"/>
+      <c r="U21" s="672"/>
+      <c r="V21" s="675"/>
+      <c r="W21" s="646"/>
+      <c r="X21" s="647"/>
+      <c r="Y21" s="642"/>
       <c r="Z21" s="204"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
@@ -12486,8 +12486,8 @@
         <v>7759</v>
       </c>
       <c r="J22" s="206"/>
-      <c r="L22" s="618"/>
-      <c r="M22" s="623"/>
+      <c r="L22" s="696"/>
+      <c r="M22" s="664"/>
       <c r="N22" s="209"/>
       <c r="O22" s="64"/>
       <c r="P22" s="65"/>
@@ -12497,19 +12497,19 @@
       <c r="T22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="632"/>
-      <c r="V22" s="635"/>
-      <c r="W22" s="662"/>
-      <c r="X22" s="663"/>
-      <c r="Y22" s="658"/>
+      <c r="U22" s="672"/>
+      <c r="V22" s="675"/>
+      <c r="W22" s="646"/>
+      <c r="X22" s="647"/>
+      <c r="Y22" s="642"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D23" s="174" t="s">
         <v>60</v>
       </c>
       <c r="J23" s="207"/>
-      <c r="L23" s="618"/>
-      <c r="M23" s="623"/>
+      <c r="L23" s="696"/>
+      <c r="M23" s="664"/>
       <c r="N23" s="209"/>
       <c r="O23" s="80"/>
       <c r="P23" s="81"/>
@@ -12519,11 +12519,11 @@
       <c r="T23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="632"/>
-      <c r="V23" s="635"/>
-      <c r="W23" s="662"/>
-      <c r="X23" s="663"/>
-      <c r="Y23" s="658"/>
+      <c r="U23" s="672"/>
+      <c r="V23" s="675"/>
+      <c r="W23" s="646"/>
+      <c r="X23" s="647"/>
+      <c r="Y23" s="642"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="189" t="s">
@@ -12549,8 +12549,8 @@
         <v>305</v>
       </c>
       <c r="J24" s="199"/>
-      <c r="L24" s="619"/>
-      <c r="M24" s="623"/>
+      <c r="L24" s="697"/>
+      <c r="M24" s="664"/>
       <c r="N24" s="209"/>
       <c r="O24" s="108"/>
       <c r="P24" s="109"/>
@@ -12562,11 +12562,11 @@
       <c r="T24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="632"/>
-      <c r="V24" s="635"/>
-      <c r="W24" s="662"/>
-      <c r="X24" s="663"/>
-      <c r="Y24" s="658"/>
+      <c r="U24" s="672"/>
+      <c r="V24" s="675"/>
+      <c r="W24" s="646"/>
+      <c r="X24" s="647"/>
+      <c r="Y24" s="642"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="186" t="s">
@@ -12592,10 +12592,10 @@
         <v>30</v>
       </c>
       <c r="J25" s="340"/>
-      <c r="L25" s="617" t="s">
+      <c r="L25" s="695" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="623"/>
+      <c r="M25" s="664"/>
       <c r="N25" s="209"/>
       <c r="O25" s="61"/>
       <c r="P25" s="62"/>
@@ -12607,16 +12607,16 @@
       <c r="T25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U25" s="632"/>
-      <c r="V25" s="635"/>
-      <c r="W25" s="662"/>
-      <c r="X25" s="663"/>
-      <c r="Y25" s="658"/>
+      <c r="U25" s="672"/>
+      <c r="V25" s="675"/>
+      <c r="W25" s="646"/>
+      <c r="X25" s="647"/>
+      <c r="Y25" s="642"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L26" s="618"/>
-      <c r="M26" s="623"/>
-      <c r="N26" s="653" t="s">
+      <c r="L26" s="696"/>
+      <c r="M26" s="664"/>
+      <c r="N26" s="692" t="s">
         <v>330</v>
       </c>
       <c r="O26" s="64"/>
@@ -12627,17 +12627,17 @@
       <c r="T26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="632"/>
-      <c r="V26" s="635"/>
-      <c r="W26" s="662"/>
-      <c r="X26" s="663"/>
-      <c r="Y26" s="658"/>
+      <c r="U26" s="672"/>
+      <c r="V26" s="675"/>
+      <c r="W26" s="646"/>
+      <c r="X26" s="647"/>
+      <c r="Y26" s="642"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H27" s="199"/>
-      <c r="L27" s="618"/>
-      <c r="M27" s="623"/>
-      <c r="N27" s="654"/>
+      <c r="L27" s="696"/>
+      <c r="M27" s="664"/>
+      <c r="N27" s="693"/>
       <c r="O27" s="80"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
@@ -12646,17 +12646,17 @@
       <c r="T27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U27" s="632"/>
-      <c r="V27" s="635"/>
-      <c r="W27" s="662"/>
-      <c r="X27" s="663"/>
-      <c r="Y27" s="658"/>
+      <c r="U27" s="672"/>
+      <c r="V27" s="675"/>
+      <c r="W27" s="646"/>
+      <c r="X27" s="647"/>
+      <c r="Y27" s="642"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H28" s="199"/>
-      <c r="L28" s="619"/>
-      <c r="M28" s="623"/>
-      <c r="N28" s="654"/>
+      <c r="L28" s="697"/>
+      <c r="M28" s="664"/>
+      <c r="N28" s="693"/>
       <c r="O28" s="80"/>
       <c r="P28" s="81"/>
       <c r="Q28" s="82" t="s">
@@ -12667,19 +12667,19 @@
       <c r="T28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U28" s="632"/>
-      <c r="V28" s="635"/>
-      <c r="W28" s="662"/>
-      <c r="X28" s="663"/>
-      <c r="Y28" s="658"/>
+      <c r="U28" s="672"/>
+      <c r="V28" s="675"/>
+      <c r="W28" s="646"/>
+      <c r="X28" s="647"/>
+      <c r="Y28" s="642"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H29" s="144"/>
-      <c r="L29" s="617" t="s">
+      <c r="L29" s="695" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="623"/>
-      <c r="N29" s="654"/>
+      <c r="M29" s="664"/>
+      <c r="N29" s="693"/>
       <c r="O29" s="106"/>
       <c r="P29" s="107"/>
       <c r="Q29" s="107"/>
@@ -12690,16 +12690,16 @@
       <c r="T29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="632"/>
-      <c r="V29" s="635"/>
-      <c r="W29" s="662"/>
-      <c r="X29" s="663"/>
-      <c r="Y29" s="658"/>
+      <c r="U29" s="672"/>
+      <c r="V29" s="675"/>
+      <c r="W29" s="646"/>
+      <c r="X29" s="647"/>
+      <c r="Y29" s="642"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L30" s="618"/>
-      <c r="M30" s="623"/>
-      <c r="N30" s="655"/>
+      <c r="L30" s="696"/>
+      <c r="M30" s="664"/>
+      <c r="N30" s="694"/>
       <c r="O30" s="64"/>
       <c r="P30" s="65"/>
       <c r="Q30" s="65"/>
@@ -12708,16 +12708,16 @@
       <c r="T30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U30" s="632"/>
-      <c r="V30" s="635"/>
-      <c r="W30" s="662"/>
-      <c r="X30" s="663"/>
-      <c r="Y30" s="658"/>
+      <c r="U30" s="672"/>
+      <c r="V30" s="675"/>
+      <c r="W30" s="646"/>
+      <c r="X30" s="647"/>
+      <c r="Y30" s="642"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L31" s="618"/>
-      <c r="M31" s="623"/>
-      <c r="N31" s="652" t="s">
+      <c r="L31" s="696"/>
+      <c r="M31" s="664"/>
+      <c r="N31" s="691" t="s">
         <v>329</v>
       </c>
       <c r="O31" s="64"/>
@@ -12728,16 +12728,16 @@
       <c r="T31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="632"/>
-      <c r="V31" s="635"/>
-      <c r="W31" s="662"/>
-      <c r="X31" s="663"/>
-      <c r="Y31" s="658"/>
+      <c r="U31" s="672"/>
+      <c r="V31" s="675"/>
+      <c r="W31" s="646"/>
+      <c r="X31" s="647"/>
+      <c r="Y31" s="642"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L32" s="619"/>
-      <c r="M32" s="623"/>
-      <c r="N32" s="646"/>
+      <c r="L32" s="697"/>
+      <c r="M32" s="664"/>
+      <c r="N32" s="685"/>
       <c r="O32" s="110"/>
       <c r="P32" s="111"/>
       <c r="Q32" s="112" t="s">
@@ -12748,18 +12748,18 @@
       <c r="T32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="632"/>
-      <c r="V32" s="635"/>
-      <c r="W32" s="662"/>
-      <c r="X32" s="663"/>
-      <c r="Y32" s="658"/>
+      <c r="U32" s="672"/>
+      <c r="V32" s="675"/>
+      <c r="W32" s="646"/>
+      <c r="X32" s="647"/>
+      <c r="Y32" s="642"/>
     </row>
     <row r="33" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L33" s="617" t="s">
+      <c r="L33" s="695" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="623"/>
-      <c r="N33" s="646"/>
+      <c r="M33" s="664"/>
+      <c r="N33" s="685"/>
       <c r="O33" s="61"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
@@ -12770,17 +12770,17 @@
       <c r="T33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U33" s="632"/>
-      <c r="V33" s="635"/>
-      <c r="W33" s="662"/>
-      <c r="X33" s="663"/>
-      <c r="Y33" s="658"/>
+      <c r="U33" s="672"/>
+      <c r="V33" s="675"/>
+      <c r="W33" s="646"/>
+      <c r="X33" s="647"/>
+      <c r="Y33" s="642"/>
       <c r="Z33" s="205"/>
     </row>
     <row r="34" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L34" s="618"/>
-      <c r="M34" s="623"/>
-      <c r="N34" s="647"/>
+      <c r="L34" s="696"/>
+      <c r="M34" s="664"/>
+      <c r="N34" s="686"/>
       <c r="O34" s="64"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="65"/>
@@ -12789,17 +12789,17 @@
       <c r="T34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="632"/>
-      <c r="V34" s="635"/>
-      <c r="W34" s="662"/>
-      <c r="X34" s="663"/>
-      <c r="Y34" s="658"/>
+      <c r="U34" s="672"/>
+      <c r="V34" s="675"/>
+      <c r="W34" s="646"/>
+      <c r="X34" s="647"/>
+      <c r="Y34" s="642"/>
       <c r="Z34" s="205"/>
     </row>
     <row r="35" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L35" s="618"/>
-      <c r="M35" s="623"/>
-      <c r="N35" s="651" t="s">
+      <c r="L35" s="696"/>
+      <c r="M35" s="664"/>
+      <c r="N35" s="690" t="s">
         <v>328</v>
       </c>
       <c r="O35" s="64"/>
@@ -12810,17 +12810,17 @@
       <c r="T35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U35" s="632"/>
-      <c r="V35" s="635"/>
-      <c r="W35" s="662"/>
-      <c r="X35" s="663"/>
-      <c r="Y35" s="658"/>
+      <c r="U35" s="672"/>
+      <c r="V35" s="675"/>
+      <c r="W35" s="646"/>
+      <c r="X35" s="647"/>
+      <c r="Y35" s="642"/>
       <c r="Z35" s="203"/>
     </row>
     <row r="36" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L36" s="619"/>
-      <c r="M36" s="623"/>
-      <c r="N36" s="644"/>
+      <c r="L36" s="697"/>
+      <c r="M36" s="664"/>
+      <c r="N36" s="683"/>
       <c r="O36" s="67" t="s">
         <v>73</v>
       </c>
@@ -12835,19 +12835,19 @@
       <c r="T36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U36" s="632"/>
-      <c r="V36" s="635"/>
-      <c r="W36" s="662"/>
-      <c r="X36" s="663"/>
-      <c r="Y36" s="658"/>
+      <c r="U36" s="672"/>
+      <c r="V36" s="675"/>
+      <c r="W36" s="646"/>
+      <c r="X36" s="647"/>
+      <c r="Y36" s="642"/>
       <c r="Z36" s="204"/>
     </row>
     <row r="37" spans="12:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L37" s="617" t="s">
+      <c r="L37" s="695" t="s">
         <v>103</v>
       </c>
-      <c r="M37" s="623"/>
-      <c r="N37" s="648" t="s">
+      <c r="M37" s="664"/>
+      <c r="N37" s="687" t="s">
         <v>313</v>
       </c>
       <c r="O37" s="70"/>
@@ -12864,17 +12864,17 @@
       <c r="T37" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="U37" s="632"/>
-      <c r="V37" s="635"/>
-      <c r="W37" s="662"/>
-      <c r="X37" s="663"/>
-      <c r="Y37" s="658"/>
+      <c r="U37" s="672"/>
+      <c r="V37" s="675"/>
+      <c r="W37" s="646"/>
+      <c r="X37" s="647"/>
+      <c r="Y37" s="642"/>
       <c r="Z37" s="204"/>
     </row>
     <row r="38" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L38" s="618"/>
-      <c r="M38" s="623"/>
-      <c r="N38" s="649"/>
+      <c r="L38" s="696"/>
+      <c r="M38" s="664"/>
+      <c r="N38" s="688"/>
       <c r="O38" s="72"/>
       <c r="P38" s="73"/>
       <c r="Q38" s="74" t="s">
@@ -12887,17 +12887,17 @@
       <c r="T38" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U38" s="632"/>
-      <c r="V38" s="635"/>
-      <c r="W38" s="662"/>
-      <c r="X38" s="663"/>
-      <c r="Y38" s="658"/>
+      <c r="U38" s="672"/>
+      <c r="V38" s="675"/>
+      <c r="W38" s="646"/>
+      <c r="X38" s="647"/>
+      <c r="Y38" s="642"/>
       <c r="Z38" s="204"/>
     </row>
     <row r="39" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L39" s="618"/>
-      <c r="M39" s="623"/>
-      <c r="N39" s="649"/>
+      <c r="L39" s="696"/>
+      <c r="M39" s="664"/>
+      <c r="N39" s="688"/>
       <c r="O39" s="72"/>
       <c r="P39" s="73"/>
       <c r="Q39" s="74" t="s">
@@ -12910,17 +12910,17 @@
       <c r="T39" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U39" s="632"/>
-      <c r="V39" s="635"/>
-      <c r="W39" s="662"/>
-      <c r="X39" s="663"/>
-      <c r="Y39" s="658"/>
+      <c r="U39" s="672"/>
+      <c r="V39" s="675"/>
+      <c r="W39" s="646"/>
+      <c r="X39" s="647"/>
+      <c r="Y39" s="642"/>
       <c r="Z39" s="205"/>
     </row>
     <row r="40" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L40" s="619"/>
-      <c r="M40" s="623"/>
-      <c r="N40" s="649"/>
+      <c r="L40" s="697"/>
+      <c r="M40" s="664"/>
+      <c r="N40" s="688"/>
       <c r="O40" s="96"/>
       <c r="P40" s="97"/>
       <c r="Q40" s="170" t="s">
@@ -12935,19 +12935,19 @@
       <c r="T40" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U40" s="632"/>
-      <c r="V40" s="635"/>
-      <c r="W40" s="662"/>
-      <c r="X40" s="663"/>
-      <c r="Y40" s="658"/>
+      <c r="U40" s="672"/>
+      <c r="V40" s="675"/>
+      <c r="W40" s="646"/>
+      <c r="X40" s="647"/>
+      <c r="Y40" s="642"/>
       <c r="Z40" s="203"/>
     </row>
     <row r="41" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L41" s="617" t="s">
+      <c r="L41" s="695" t="s">
         <v>102</v>
       </c>
-      <c r="M41" s="623"/>
-      <c r="N41" s="649"/>
+      <c r="M41" s="664"/>
+      <c r="N41" s="688"/>
       <c r="O41" s="101"/>
       <c r="P41" s="102"/>
       <c r="Q41" s="103" t="s">
@@ -12962,17 +12962,17 @@
       <c r="T41" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U41" s="632"/>
-      <c r="V41" s="635"/>
-      <c r="W41" s="662"/>
-      <c r="X41" s="663"/>
-      <c r="Y41" s="658"/>
+      <c r="U41" s="672"/>
+      <c r="V41" s="675"/>
+      <c r="W41" s="646"/>
+      <c r="X41" s="647"/>
+      <c r="Y41" s="642"/>
       <c r="Z41" s="204"/>
     </row>
     <row r="42" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L42" s="618"/>
-      <c r="M42" s="623"/>
-      <c r="N42" s="649"/>
+      <c r="L42" s="696"/>
+      <c r="M42" s="664"/>
+      <c r="N42" s="688"/>
       <c r="O42" s="72"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="74" t="s">
@@ -12985,17 +12985,17 @@
       <c r="T42" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="632"/>
-      <c r="V42" s="635"/>
-      <c r="W42" s="662"/>
-      <c r="X42" s="663"/>
-      <c r="Y42" s="658"/>
+      <c r="U42" s="672"/>
+      <c r="V42" s="675"/>
+      <c r="W42" s="646"/>
+      <c r="X42" s="647"/>
+      <c r="Y42" s="642"/>
       <c r="Z42" s="205"/>
     </row>
     <row r="43" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L43" s="618"/>
-      <c r="M43" s="623"/>
-      <c r="N43" s="649"/>
+      <c r="L43" s="696"/>
+      <c r="M43" s="664"/>
+      <c r="N43" s="688"/>
       <c r="O43" s="96"/>
       <c r="P43" s="97"/>
       <c r="Q43" s="170" t="s">
@@ -13008,17 +13008,17 @@
       <c r="T43" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U43" s="632"/>
-      <c r="V43" s="635"/>
-      <c r="W43" s="662"/>
-      <c r="X43" s="663"/>
-      <c r="Y43" s="658"/>
+      <c r="U43" s="672"/>
+      <c r="V43" s="675"/>
+      <c r="W43" s="646"/>
+      <c r="X43" s="647"/>
+      <c r="Y43" s="642"/>
       <c r="Z43" s="205"/>
     </row>
     <row r="44" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L44" s="619"/>
-      <c r="M44" s="623"/>
-      <c r="N44" s="649"/>
+      <c r="L44" s="697"/>
+      <c r="M44" s="664"/>
+      <c r="N44" s="688"/>
       <c r="O44" s="104"/>
       <c r="P44" s="105"/>
       <c r="Q44" s="171" t="s">
@@ -13031,19 +13031,19 @@
       <c r="T44" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U44" s="632"/>
-      <c r="V44" s="635"/>
-      <c r="W44" s="662"/>
-      <c r="X44" s="663"/>
-      <c r="Y44" s="658"/>
+      <c r="U44" s="672"/>
+      <c r="V44" s="675"/>
+      <c r="W44" s="646"/>
+      <c r="X44" s="647"/>
+      <c r="Y44" s="642"/>
       <c r="Z44" s="205"/>
     </row>
     <row r="45" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L45" s="617" t="s">
+      <c r="L45" s="695" t="s">
         <v>101</v>
       </c>
-      <c r="M45" s="623"/>
-      <c r="N45" s="649"/>
+      <c r="M45" s="664"/>
+      <c r="N45" s="688"/>
       <c r="O45" s="98"/>
       <c r="P45" s="99"/>
       <c r="Q45" s="100" t="s">
@@ -13056,16 +13056,16 @@
       <c r="T45" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U45" s="632"/>
-      <c r="V45" s="635"/>
-      <c r="W45" s="662"/>
-      <c r="X45" s="663"/>
-      <c r="Y45" s="658"/>
+      <c r="U45" s="672"/>
+      <c r="V45" s="675"/>
+      <c r="W45" s="646"/>
+      <c r="X45" s="647"/>
+      <c r="Y45" s="642"/>
     </row>
     <row r="46" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L46" s="620"/>
-      <c r="M46" s="623"/>
-      <c r="N46" s="649"/>
+      <c r="L46" s="698"/>
+      <c r="M46" s="664"/>
+      <c r="N46" s="688"/>
       <c r="O46" s="72"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="74" t="s">
@@ -13078,16 +13078,16 @@
       <c r="T46" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U46" s="632"/>
-      <c r="V46" s="635"/>
-      <c r="W46" s="662"/>
-      <c r="X46" s="663"/>
-      <c r="Y46" s="658"/>
+      <c r="U46" s="672"/>
+      <c r="V46" s="675"/>
+      <c r="W46" s="646"/>
+      <c r="X46" s="647"/>
+      <c r="Y46" s="642"/>
     </row>
     <row r="47" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L47" s="620"/>
-      <c r="M47" s="623"/>
-      <c r="N47" s="649"/>
+      <c r="L47" s="698"/>
+      <c r="M47" s="664"/>
+      <c r="N47" s="688"/>
       <c r="O47" s="96"/>
       <c r="P47" s="97"/>
       <c r="Q47" s="170" t="s">
@@ -13100,16 +13100,16 @@
       <c r="T47" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U47" s="632"/>
-      <c r="V47" s="635"/>
-      <c r="W47" s="662"/>
-      <c r="X47" s="663"/>
-      <c r="Y47" s="658"/>
+      <c r="U47" s="672"/>
+      <c r="V47" s="675"/>
+      <c r="W47" s="646"/>
+      <c r="X47" s="647"/>
+      <c r="Y47" s="642"/>
     </row>
     <row r="48" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L48" s="621"/>
-      <c r="M48" s="623"/>
-      <c r="N48" s="649"/>
+      <c r="L48" s="699"/>
+      <c r="M48" s="664"/>
+      <c r="N48" s="688"/>
       <c r="O48" s="104"/>
       <c r="P48" s="105"/>
       <c r="Q48" s="171" t="s">
@@ -13122,18 +13122,18 @@
       <c r="T48" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U48" s="632"/>
-      <c r="V48" s="635"/>
-      <c r="W48" s="662"/>
-      <c r="X48" s="663"/>
-      <c r="Y48" s="658"/>
+      <c r="U48" s="672"/>
+      <c r="V48" s="675"/>
+      <c r="W48" s="646"/>
+      <c r="X48" s="647"/>
+      <c r="Y48" s="642"/>
     </row>
     <row r="49" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L49" s="617" t="s">
+      <c r="L49" s="695" t="s">
         <v>100</v>
       </c>
-      <c r="M49" s="623"/>
-      <c r="N49" s="649"/>
+      <c r="M49" s="664"/>
+      <c r="N49" s="688"/>
       <c r="O49" s="98"/>
       <c r="P49" s="99"/>
       <c r="Q49" s="100" t="s">
@@ -13146,16 +13146,16 @@
       <c r="T49" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U49" s="632"/>
-      <c r="V49" s="635"/>
-      <c r="W49" s="662"/>
-      <c r="X49" s="663"/>
-      <c r="Y49" s="658"/>
+      <c r="U49" s="672"/>
+      <c r="V49" s="675"/>
+      <c r="W49" s="646"/>
+      <c r="X49" s="647"/>
+      <c r="Y49" s="642"/>
     </row>
     <row r="50" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L50" s="618"/>
-      <c r="M50" s="623"/>
-      <c r="N50" s="649"/>
+      <c r="L50" s="696"/>
+      <c r="M50" s="664"/>
+      <c r="N50" s="688"/>
       <c r="O50" s="72"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="74" t="s">
@@ -13164,22 +13164,22 @@
       <c r="R50" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="S50" s="628" t="s">
+      <c r="S50" s="668" t="s">
         <v>115</v>
       </c>
       <c r="T50" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U50" s="632"/>
-      <c r="V50" s="635"/>
-      <c r="W50" s="662"/>
-      <c r="X50" s="663"/>
-      <c r="Y50" s="658"/>
+      <c r="U50" s="672"/>
+      <c r="V50" s="675"/>
+      <c r="W50" s="646"/>
+      <c r="X50" s="647"/>
+      <c r="Y50" s="642"/>
     </row>
     <row r="51" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L51" s="618"/>
-      <c r="M51" s="623"/>
-      <c r="N51" s="649"/>
+      <c r="L51" s="696"/>
+      <c r="M51" s="664"/>
+      <c r="N51" s="688"/>
       <c r="O51" s="72"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="74" t="s">
@@ -13188,20 +13188,20 @@
       <c r="R51" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="S51" s="629"/>
+      <c r="S51" s="669"/>
       <c r="T51" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U51" s="632"/>
-      <c r="V51" s="635"/>
-      <c r="W51" s="662"/>
-      <c r="X51" s="663"/>
-      <c r="Y51" s="658"/>
+      <c r="U51" s="672"/>
+      <c r="V51" s="675"/>
+      <c r="W51" s="646"/>
+      <c r="X51" s="647"/>
+      <c r="Y51" s="642"/>
     </row>
     <row r="52" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L52" s="619"/>
-      <c r="M52" s="623"/>
-      <c r="N52" s="649"/>
+      <c r="L52" s="697"/>
+      <c r="M52" s="664"/>
+      <c r="N52" s="688"/>
       <c r="O52" s="75" t="s">
         <v>64</v>
       </c>
@@ -13212,22 +13212,22 @@
       <c r="R52" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="S52" s="630"/>
+      <c r="S52" s="670"/>
       <c r="T52" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U52" s="632"/>
-      <c r="V52" s="635"/>
-      <c r="W52" s="662"/>
-      <c r="X52" s="663"/>
-      <c r="Y52" s="658"/>
+      <c r="U52" s="672"/>
+      <c r="V52" s="675"/>
+      <c r="W52" s="646"/>
+      <c r="X52" s="647"/>
+      <c r="Y52" s="642"/>
     </row>
     <row r="53" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L53" s="617" t="s">
+      <c r="L53" s="695" t="s">
         <v>99</v>
       </c>
-      <c r="M53" s="623"/>
-      <c r="N53" s="649"/>
+      <c r="M53" s="664"/>
+      <c r="N53" s="688"/>
       <c r="O53" s="83"/>
       <c r="P53" s="84"/>
       <c r="Q53" s="85" t="s">
@@ -13240,16 +13240,16 @@
       <c r="T53" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U53" s="632"/>
-      <c r="V53" s="635"/>
-      <c r="W53" s="662"/>
-      <c r="X53" s="663"/>
-      <c r="Y53" s="658"/>
+      <c r="U53" s="672"/>
+      <c r="V53" s="675"/>
+      <c r="W53" s="646"/>
+      <c r="X53" s="647"/>
+      <c r="Y53" s="642"/>
     </row>
     <row r="54" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L54" s="618"/>
-      <c r="M54" s="623"/>
-      <c r="N54" s="649"/>
+      <c r="L54" s="696"/>
+      <c r="M54" s="664"/>
+      <c r="N54" s="688"/>
       <c r="O54" s="86"/>
       <c r="P54" s="87"/>
       <c r="Q54" s="88" t="s">
@@ -13262,16 +13262,16 @@
       <c r="T54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U54" s="632"/>
-      <c r="V54" s="635"/>
-      <c r="W54" s="662"/>
-      <c r="X54" s="663"/>
-      <c r="Y54" s="658"/>
+      <c r="U54" s="672"/>
+      <c r="V54" s="675"/>
+      <c r="W54" s="646"/>
+      <c r="X54" s="647"/>
+      <c r="Y54" s="642"/>
     </row>
     <row r="55" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L55" s="618"/>
-      <c r="M55" s="623"/>
-      <c r="N55" s="649"/>
+      <c r="L55" s="696"/>
+      <c r="M55" s="664"/>
+      <c r="N55" s="688"/>
       <c r="O55" s="86"/>
       <c r="P55" s="87"/>
       <c r="Q55" s="88" t="s">
@@ -13284,16 +13284,16 @@
       <c r="T55" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U55" s="632"/>
-      <c r="V55" s="635"/>
-      <c r="W55" s="662"/>
-      <c r="X55" s="663"/>
-      <c r="Y55" s="658"/>
+      <c r="U55" s="672"/>
+      <c r="V55" s="675"/>
+      <c r="W55" s="646"/>
+      <c r="X55" s="647"/>
+      <c r="Y55" s="642"/>
     </row>
     <row r="56" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L56" s="619"/>
-      <c r="M56" s="623"/>
-      <c r="N56" s="649"/>
+      <c r="L56" s="697"/>
+      <c r="M56" s="664"/>
+      <c r="N56" s="688"/>
       <c r="O56" s="89" t="s">
         <v>54</v>
       </c>
@@ -13310,18 +13310,18 @@
       <c r="T56" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U56" s="632"/>
-      <c r="V56" s="635"/>
-      <c r="W56" s="662"/>
-      <c r="X56" s="663"/>
-      <c r="Y56" s="658"/>
+      <c r="U56" s="672"/>
+      <c r="V56" s="675"/>
+      <c r="W56" s="646"/>
+      <c r="X56" s="647"/>
+      <c r="Y56" s="642"/>
     </row>
     <row r="57" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L57" s="617" t="s">
+      <c r="L57" s="695" t="s">
         <v>98</v>
       </c>
-      <c r="M57" s="623"/>
-      <c r="N57" s="649"/>
+      <c r="M57" s="664"/>
+      <c r="N57" s="688"/>
       <c r="O57" s="52"/>
       <c r="P57" s="53"/>
       <c r="Q57" s="54" t="s">
@@ -13334,16 +13334,16 @@
       <c r="T57" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U57" s="632"/>
-      <c r="V57" s="635"/>
-      <c r="W57" s="662"/>
-      <c r="X57" s="663"/>
-      <c r="Y57" s="658"/>
+      <c r="U57" s="672"/>
+      <c r="V57" s="675"/>
+      <c r="W57" s="646"/>
+      <c r="X57" s="647"/>
+      <c r="Y57" s="642"/>
     </row>
     <row r="58" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L58" s="618"/>
-      <c r="M58" s="623"/>
-      <c r="N58" s="649"/>
+      <c r="L58" s="696"/>
+      <c r="M58" s="664"/>
+      <c r="N58" s="688"/>
       <c r="O58" s="55"/>
       <c r="P58" s="56"/>
       <c r="Q58" s="57" t="s">
@@ -13356,16 +13356,16 @@
       <c r="T58" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U58" s="632"/>
-      <c r="V58" s="635"/>
-      <c r="W58" s="662"/>
-      <c r="X58" s="663"/>
-      <c r="Y58" s="658"/>
+      <c r="U58" s="672"/>
+      <c r="V58" s="675"/>
+      <c r="W58" s="646"/>
+      <c r="X58" s="647"/>
+      <c r="Y58" s="642"/>
     </row>
     <row r="59" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L59" s="618"/>
-      <c r="M59" s="623"/>
-      <c r="N59" s="649"/>
+      <c r="L59" s="696"/>
+      <c r="M59" s="664"/>
+      <c r="N59" s="688"/>
       <c r="O59" s="55"/>
       <c r="P59" s="56"/>
       <c r="Q59" s="57" t="s">
@@ -13378,16 +13378,16 @@
       <c r="T59" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U59" s="632"/>
-      <c r="V59" s="635"/>
-      <c r="W59" s="662"/>
-      <c r="X59" s="663"/>
-      <c r="Y59" s="658"/>
+      <c r="U59" s="672"/>
+      <c r="V59" s="675"/>
+      <c r="W59" s="646"/>
+      <c r="X59" s="647"/>
+      <c r="Y59" s="642"/>
     </row>
     <row r="60" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L60" s="619"/>
-      <c r="M60" s="623"/>
-      <c r="N60" s="649"/>
+      <c r="L60" s="697"/>
+      <c r="M60" s="664"/>
+      <c r="N60" s="688"/>
       <c r="O60" s="55"/>
       <c r="P60" s="56"/>
       <c r="Q60" s="57" t="s">
@@ -13400,18 +13400,18 @@
       <c r="T60" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U60" s="632"/>
-      <c r="V60" s="635"/>
-      <c r="W60" s="662"/>
-      <c r="X60" s="663"/>
-      <c r="Y60" s="658"/>
+      <c r="U60" s="672"/>
+      <c r="V60" s="675"/>
+      <c r="W60" s="646"/>
+      <c r="X60" s="647"/>
+      <c r="Y60" s="642"/>
     </row>
     <row r="61" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L61" s="617" t="s">
+      <c r="L61" s="695" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="623"/>
-      <c r="N61" s="649"/>
+      <c r="M61" s="664"/>
+      <c r="N61" s="688"/>
       <c r="O61" s="55"/>
       <c r="P61" s="56"/>
       <c r="Q61" s="57" t="s">
@@ -13424,16 +13424,16 @@
       <c r="T61" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U61" s="632"/>
-      <c r="V61" s="635"/>
-      <c r="W61" s="662"/>
-      <c r="X61" s="663"/>
-      <c r="Y61" s="658"/>
+      <c r="U61" s="672"/>
+      <c r="V61" s="675"/>
+      <c r="W61" s="646"/>
+      <c r="X61" s="647"/>
+      <c r="Y61" s="642"/>
     </row>
     <row r="62" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L62" s="618"/>
-      <c r="M62" s="623"/>
-      <c r="N62" s="649"/>
+      <c r="L62" s="696"/>
+      <c r="M62" s="664"/>
+      <c r="N62" s="688"/>
       <c r="O62" s="55"/>
       <c r="P62" s="56"/>
       <c r="Q62" s="57" t="s">
@@ -13446,16 +13446,16 @@
       <c r="T62" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U62" s="632"/>
-      <c r="V62" s="635"/>
-      <c r="W62" s="662"/>
-      <c r="X62" s="663"/>
-      <c r="Y62" s="658"/>
+      <c r="U62" s="672"/>
+      <c r="V62" s="675"/>
+      <c r="W62" s="646"/>
+      <c r="X62" s="647"/>
+      <c r="Y62" s="642"/>
     </row>
     <row r="63" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L63" s="618"/>
-      <c r="M63" s="623"/>
-      <c r="N63" s="649"/>
+      <c r="L63" s="696"/>
+      <c r="M63" s="664"/>
+      <c r="N63" s="688"/>
       <c r="O63" s="55"/>
       <c r="P63" s="56"/>
       <c r="Q63" s="57" t="s">
@@ -13468,16 +13468,16 @@
       <c r="T63" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U63" s="632"/>
-      <c r="V63" s="635"/>
-      <c r="W63" s="662"/>
-      <c r="X63" s="663"/>
-      <c r="Y63" s="658"/>
+      <c r="U63" s="672"/>
+      <c r="V63" s="675"/>
+      <c r="W63" s="646"/>
+      <c r="X63" s="647"/>
+      <c r="Y63" s="642"/>
     </row>
     <row r="64" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L64" s="619"/>
-      <c r="M64" s="623"/>
-      <c r="N64" s="649"/>
+      <c r="L64" s="697"/>
+      <c r="M64" s="664"/>
+      <c r="N64" s="688"/>
       <c r="O64" s="58" t="s">
         <v>36</v>
       </c>
@@ -13494,18 +13494,18 @@
       <c r="T64" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U64" s="632"/>
-      <c r="V64" s="635"/>
-      <c r="W64" s="662"/>
-      <c r="X64" s="663"/>
-      <c r="Y64" s="658"/>
+      <c r="U64" s="672"/>
+      <c r="V64" s="675"/>
+      <c r="W64" s="646"/>
+      <c r="X64" s="647"/>
+      <c r="Y64" s="642"/>
     </row>
     <row r="65" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L65" s="617" t="s">
+      <c r="L65" s="695" t="s">
         <v>96</v>
       </c>
-      <c r="M65" s="623"/>
-      <c r="N65" s="649"/>
+      <c r="M65" s="664"/>
+      <c r="N65" s="688"/>
       <c r="O65" s="61"/>
       <c r="P65" s="62"/>
       <c r="Q65" s="63" t="s">
@@ -13518,16 +13518,16 @@
       <c r="T65" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U65" s="632"/>
-      <c r="V65" s="635"/>
-      <c r="W65" s="662"/>
-      <c r="X65" s="663"/>
-      <c r="Y65" s="658"/>
+      <c r="U65" s="672"/>
+      <c r="V65" s="675"/>
+      <c r="W65" s="646"/>
+      <c r="X65" s="647"/>
+      <c r="Y65" s="642"/>
     </row>
     <row r="66" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L66" s="618"/>
-      <c r="M66" s="623"/>
-      <c r="N66" s="649"/>
+      <c r="L66" s="696"/>
+      <c r="M66" s="664"/>
+      <c r="N66" s="688"/>
       <c r="O66" s="64"/>
       <c r="P66" s="65"/>
       <c r="Q66" s="66" t="s">
@@ -13540,16 +13540,16 @@
       <c r="T66" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U66" s="632"/>
-      <c r="V66" s="635"/>
-      <c r="W66" s="662"/>
-      <c r="X66" s="663"/>
-      <c r="Y66" s="658"/>
+      <c r="U66" s="672"/>
+      <c r="V66" s="675"/>
+      <c r="W66" s="646"/>
+      <c r="X66" s="647"/>
+      <c r="Y66" s="642"/>
     </row>
     <row r="67" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L67" s="618"/>
-      <c r="M67" s="623"/>
-      <c r="N67" s="649"/>
+      <c r="L67" s="696"/>
+      <c r="M67" s="664"/>
+      <c r="N67" s="688"/>
       <c r="O67" s="64"/>
       <c r="P67" s="65"/>
       <c r="Q67" s="66" t="s">
@@ -13562,16 +13562,16 @@
       <c r="T67" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U67" s="632"/>
-      <c r="V67" s="635"/>
-      <c r="W67" s="662"/>
-      <c r="X67" s="663"/>
-      <c r="Y67" s="658"/>
+      <c r="U67" s="672"/>
+      <c r="V67" s="675"/>
+      <c r="W67" s="646"/>
+      <c r="X67" s="647"/>
+      <c r="Y67" s="642"/>
     </row>
     <row r="68" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L68" s="619"/>
-      <c r="M68" s="624"/>
-      <c r="N68" s="650"/>
+      <c r="L68" s="697"/>
+      <c r="M68" s="665"/>
+      <c r="N68" s="689"/>
       <c r="O68" s="67" t="s">
         <v>25</v>
       </c>
@@ -13588,11 +13588,11 @@
       <c r="T68" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U68" s="633"/>
-      <c r="V68" s="636"/>
-      <c r="W68" s="664"/>
-      <c r="X68" s="665"/>
-      <c r="Y68" s="659"/>
+      <c r="U68" s="673"/>
+      <c r="V68" s="676"/>
+      <c r="W68" s="648"/>
+      <c r="X68" s="649"/>
+      <c r="Y68" s="643"/>
     </row>
     <row r="69" spans="12:25" x14ac:dyDescent="0.25">
       <c r="N69" s="210"/>
@@ -13600,34 +13600,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Y5:Y68"/>
-    <mergeCell ref="W17:X67"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="W5:W16"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="M5:M68"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="U5:U68"/>
-    <mergeCell ref="V5:V68"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="N37:N68"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="N26:N30"/>
     <mergeCell ref="L65:L68"/>
     <mergeCell ref="L61:L64"/>
     <mergeCell ref="L57:L60"/>
@@ -13644,6 +13616,34 @@
     <mergeCell ref="L49:L52"/>
     <mergeCell ref="L45:L48"/>
     <mergeCell ref="L41:L44"/>
+    <mergeCell ref="M5:M68"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="U5:U68"/>
+    <mergeCell ref="V5:V68"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="N37:N68"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Y5:Y68"/>
+    <mergeCell ref="W17:X67"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="W5:W16"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X15:X16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13670,13 +13670,13 @@
       <c r="C4" s="556" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="693" t="s">
+      <c r="D4" s="700" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="694"/>
-      <c r="F4" s="694"/>
-      <c r="G4" s="694"/>
-      <c r="H4" s="694"/>
+      <c r="E4" s="701"/>
+      <c r="F4" s="701"/>
+      <c r="G4" s="701"/>
+      <c r="H4" s="701"/>
       <c r="I4" s="572"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13703,7 +13703,7 @@
       </c>
     </row>
     <row r="6" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="695" t="s">
+      <c r="C6" s="702" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="563"/>
@@ -13715,12 +13715,12 @@
       <c r="H6" s="570" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="678" t="s">
+      <c r="I6" s="709" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="684"/>
+      <c r="C7" s="703"/>
       <c r="D7" s="523"/>
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
@@ -13728,10 +13728,10 @@
       <c r="H7" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="679"/>
+      <c r="I7" s="710"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="684"/>
+      <c r="C8" s="703"/>
       <c r="D8" s="523"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
@@ -13739,10 +13739,10 @@
       <c r="H8" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="679"/>
+      <c r="I8" s="710"/>
     </row>
     <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="685"/>
+      <c r="C9" s="704"/>
       <c r="D9" s="524" t="s">
         <v>73</v>
       </c>
@@ -13756,10 +13756,10 @@
       <c r="H9" s="558" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="680"/>
+      <c r="I9" s="716"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="683" t="s">
+      <c r="C10" s="705" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="568"/>
@@ -13771,12 +13771,12 @@
       <c r="H10" s="583" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="681" t="s">
+      <c r="I10" s="707" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="684"/>
+      <c r="C11" s="703"/>
       <c r="D11" s="72"/>
       <c r="E11" s="73"/>
       <c r="F11" s="65"/>
@@ -13784,10 +13784,10 @@
       <c r="H11" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="681"/>
+      <c r="I11" s="707"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="684"/>
+      <c r="C12" s="703"/>
       <c r="D12" s="72"/>
       <c r="E12" s="73"/>
       <c r="F12" s="65"/>
@@ -13795,10 +13795,10 @@
       <c r="H12" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="681"/>
+      <c r="I12" s="707"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="685"/>
+      <c r="C13" s="704"/>
       <c r="D13" s="96"/>
       <c r="E13" s="97"/>
       <c r="F13" s="82" t="s">
@@ -13808,10 +13808,10 @@
       <c r="H13" s="581" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="681"/>
+      <c r="I13" s="707"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="683" t="s">
+      <c r="C14" s="705" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="101"/>
@@ -13823,10 +13823,10 @@
       <c r="H14" s="585" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="681"/>
+      <c r="I14" s="707"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="684"/>
+      <c r="C15" s="703"/>
       <c r="D15" s="72"/>
       <c r="E15" s="73"/>
       <c r="F15" s="65"/>
@@ -13834,10 +13834,10 @@
       <c r="H15" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="681"/>
+      <c r="I15" s="707"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="684"/>
+      <c r="C16" s="703"/>
       <c r="D16" s="96"/>
       <c r="E16" s="97"/>
       <c r="F16" s="65"/>
@@ -13845,10 +13845,10 @@
       <c r="H16" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="681"/>
+      <c r="I16" s="707"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="685"/>
+      <c r="C17" s="704"/>
       <c r="D17" s="104"/>
       <c r="E17" s="105"/>
       <c r="F17" s="113" t="s">
@@ -13858,10 +13858,10 @@
       <c r="H17" s="581" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="681"/>
+      <c r="I17" s="707"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="683" t="s">
+      <c r="C18" s="705" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="98"/>
@@ -13873,10 +13873,10 @@
       <c r="H18" s="585" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="681"/>
+      <c r="I18" s="707"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="684"/>
+      <c r="C19" s="703"/>
       <c r="D19" s="72"/>
       <c r="E19" s="73"/>
       <c r="F19" s="65"/>
@@ -13884,10 +13884,10 @@
       <c r="H19" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="681"/>
+      <c r="I19" s="707"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="684"/>
+      <c r="C20" s="703"/>
       <c r="D20" s="96"/>
       <c r="E20" s="97"/>
       <c r="F20" s="65"/>
@@ -13895,10 +13895,10 @@
       <c r="H20" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="681"/>
+      <c r="I20" s="707"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="685"/>
+      <c r="C21" s="704"/>
       <c r="D21" s="104"/>
       <c r="E21" s="105"/>
       <c r="F21" s="82" t="s">
@@ -13908,10 +13908,10 @@
       <c r="H21" s="586" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="681"/>
+      <c r="I21" s="707"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="683" t="s">
+      <c r="C22" s="705" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="98"/>
@@ -13923,10 +13923,10 @@
       <c r="H22" s="584" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="681"/>
+      <c r="I22" s="707"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="684"/>
+      <c r="C23" s="703"/>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
       <c r="F23" s="65"/>
@@ -13934,10 +13934,10 @@
       <c r="H23" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="681"/>
+      <c r="I23" s="707"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="684"/>
+      <c r="C24" s="703"/>
       <c r="D24" s="72"/>
       <c r="E24" s="73"/>
       <c r="F24" s="81"/>
@@ -13945,10 +13945,10 @@
       <c r="H24" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="681"/>
+      <c r="I24" s="707"/>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="685"/>
+      <c r="C25" s="704"/>
       <c r="D25" s="96" t="s">
         <v>64</v>
       </c>
@@ -13962,10 +13962,10 @@
       <c r="H25" s="581" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="682"/>
+      <c r="I25" s="708"/>
     </row>
     <row r="26" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="683" t="s">
+      <c r="C26" s="705" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="564" t="s">
@@ -13988,7 +13988,7 @@
       </c>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="684"/>
+      <c r="C27" s="703"/>
       <c r="D27" s="527"/>
       <c r="E27" s="528"/>
       <c r="F27" s="62"/>
@@ -13998,12 +13998,12 @@
       <c r="H27" s="557" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="686" t="s">
+      <c r="I27" s="717" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="28" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="684"/>
+      <c r="C28" s="703"/>
       <c r="D28" s="525"/>
       <c r="E28" s="526"/>
       <c r="F28" s="81"/>
@@ -14011,10 +14011,10 @@
       <c r="H28" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="679"/>
+      <c r="I28" s="710"/>
     </row>
     <row r="29" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="685"/>
+      <c r="C29" s="704"/>
       <c r="D29" s="525"/>
       <c r="E29" s="526"/>
       <c r="F29" s="82" t="s">
@@ -14024,7 +14024,7 @@
       <c r="H29" s="558" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="687"/>
+      <c r="I29" s="711"/>
       <c r="J29" s="577" t="s">
         <v>84</v>
       </c>
@@ -14045,7 +14045,7 @@
       </c>
     </row>
     <row r="30" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="683" t="s">
+      <c r="C30" s="705" t="s">
         <v>105</v>
       </c>
       <c r="D30" s="529"/>
@@ -14068,12 +14068,12 @@
       <c r="N30" s="542" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="678" t="s">
+      <c r="O30" s="709" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="684"/>
+      <c r="C31" s="703"/>
       <c r="D31" s="64"/>
       <c r="E31" s="65"/>
       <c r="F31" s="65"/>
@@ -14092,10 +14092,10 @@
       <c r="N31" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="679"/>
+      <c r="O31" s="710"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="684"/>
+      <c r="C32" s="703"/>
       <c r="D32" s="64"/>
       <c r="E32" s="65"/>
       <c r="F32" s="65"/>
@@ -14114,10 +14114,10 @@
       <c r="N32" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="679"/>
+      <c r="O32" s="710"/>
     </row>
     <row r="33" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="685"/>
+      <c r="C33" s="704"/>
       <c r="D33" s="532" t="s">
         <v>73</v>
       </c>
@@ -14142,10 +14142,10 @@
       <c r="N33" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="679"/>
+      <c r="O33" s="710"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="683" t="s">
+      <c r="C34" s="705" t="s">
         <v>104</v>
       </c>
       <c r="D34" s="61"/>
@@ -14168,10 +14168,10 @@
       <c r="N34" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="679"/>
+      <c r="O34" s="710"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="684"/>
+      <c r="C35" s="703"/>
       <c r="D35" s="64"/>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
@@ -14190,10 +14190,10 @@
       <c r="N35" s="536" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="679"/>
+      <c r="O35" s="710"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="684"/>
+      <c r="C36" s="703"/>
       <c r="D36" s="64"/>
       <c r="E36" s="65"/>
       <c r="F36" s="65"/>
@@ -14212,10 +14212,10 @@
       <c r="N36" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="679"/>
+      <c r="O36" s="710"/>
     </row>
     <row r="37" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="685"/>
+      <c r="C37" s="704"/>
       <c r="D37" s="80" t="s">
         <v>73</v>
       </c>
@@ -14244,10 +14244,10 @@
       <c r="N37" s="538" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="687"/>
+      <c r="O37" s="711"/>
     </row>
     <row r="38" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="683" t="s">
+      <c r="C38" s="705" t="s">
         <v>103</v>
       </c>
       <c r="D38" s="529"/>
@@ -14263,7 +14263,7 @@
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="684"/>
+      <c r="C39" s="703"/>
       <c r="D39" s="64"/>
       <c r="E39" s="65"/>
       <c r="F39" s="66" t="s">
@@ -14277,7 +14277,7 @@
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="684"/>
+      <c r="C40" s="703"/>
       <c r="D40" s="64"/>
       <c r="E40" s="65"/>
       <c r="F40" s="66" t="s">
@@ -14291,7 +14291,7 @@
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="685"/>
+      <c r="C41" s="704"/>
       <c r="D41" s="108"/>
       <c r="E41" s="109"/>
       <c r="F41" s="82" t="s">
@@ -14305,7 +14305,7 @@
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="683" t="s">
+      <c r="C42" s="705" t="s">
         <v>102</v>
       </c>
       <c r="D42" s="61"/>
@@ -14321,7 +14321,7 @@
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="684"/>
+      <c r="C43" s="703"/>
       <c r="D43" s="64"/>
       <c r="E43" s="65"/>
       <c r="F43" s="66" t="s">
@@ -14335,7 +14335,7 @@
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="684"/>
+      <c r="C44" s="703"/>
       <c r="D44" s="64"/>
       <c r="E44" s="65"/>
       <c r="F44" s="82" t="s">
@@ -14349,7 +14349,7 @@
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="685"/>
+      <c r="C45" s="704"/>
       <c r="D45" s="80"/>
       <c r="E45" s="81"/>
       <c r="F45" s="113" t="s">
@@ -14363,7 +14363,7 @@
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="683" t="s">
+      <c r="C46" s="705" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="106"/>
@@ -14379,7 +14379,7 @@
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="689"/>
+      <c r="C47" s="712"/>
       <c r="D47" s="64"/>
       <c r="E47" s="65"/>
       <c r="F47" s="66" t="s">
@@ -14393,7 +14393,7 @@
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="689"/>
+      <c r="C48" s="712"/>
       <c r="D48" s="64"/>
       <c r="E48" s="65"/>
       <c r="F48" s="82" t="s">
@@ -14407,7 +14407,7 @@
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="690"/>
+      <c r="C49" s="713"/>
       <c r="D49" s="108"/>
       <c r="E49" s="109"/>
       <c r="F49" s="113" t="s">
@@ -14421,7 +14421,7 @@
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="683" t="s">
+      <c r="C50" s="705" t="s">
         <v>100</v>
       </c>
       <c r="D50" s="61"/>
@@ -14437,7 +14437,7 @@
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="684"/>
+      <c r="C51" s="703"/>
       <c r="D51" s="64"/>
       <c r="E51" s="65"/>
       <c r="F51" s="66" t="s">
@@ -14451,7 +14451,7 @@
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="684"/>
+      <c r="C52" s="703"/>
       <c r="D52" s="64"/>
       <c r="E52" s="65"/>
       <c r="F52" s="66" t="s">
@@ -14465,7 +14465,7 @@
       </c>
     </row>
     <row r="53" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="685"/>
+      <c r="C53" s="704"/>
       <c r="D53" s="532" t="s">
         <v>73</v>
       </c>
@@ -14483,7 +14483,7 @@
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="683" t="s">
+      <c r="C54" s="705" t="s">
         <v>99</v>
       </c>
       <c r="D54" s="61"/>
@@ -14499,7 +14499,7 @@
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="684"/>
+      <c r="C55" s="703"/>
       <c r="D55" s="64"/>
       <c r="E55" s="65"/>
       <c r="F55" s="66" t="s">
@@ -14513,7 +14513,7 @@
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="684"/>
+      <c r="C56" s="703"/>
       <c r="D56" s="80"/>
       <c r="E56" s="81"/>
       <c r="F56" s="66" t="s">
@@ -14527,7 +14527,7 @@
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="685"/>
+      <c r="C57" s="704"/>
       <c r="D57" s="108"/>
       <c r="E57" s="109"/>
       <c r="F57" s="82" t="s">
@@ -14541,7 +14541,7 @@
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="683" t="s">
+      <c r="C58" s="705" t="s">
         <v>98</v>
       </c>
       <c r="D58" s="61"/>
@@ -14557,7 +14557,7 @@
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="684"/>
+      <c r="C59" s="703"/>
       <c r="D59" s="64"/>
       <c r="E59" s="65"/>
       <c r="F59" s="66" t="s">
@@ -14571,7 +14571,7 @@
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="684"/>
+      <c r="C60" s="703"/>
       <c r="D60" s="80"/>
       <c r="E60" s="81"/>
       <c r="F60" s="66" t="s">
@@ -14585,7 +14585,7 @@
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="685"/>
+      <c r="C61" s="704"/>
       <c r="D61" s="80"/>
       <c r="E61" s="81"/>
       <c r="F61" s="82" t="s">
@@ -14599,7 +14599,7 @@
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="683" t="s">
+      <c r="C62" s="705" t="s">
         <v>97</v>
       </c>
       <c r="D62" s="106"/>
@@ -14615,7 +14615,7 @@
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="684"/>
+      <c r="C63" s="703"/>
       <c r="D63" s="64"/>
       <c r="E63" s="65"/>
       <c r="F63" s="66" t="s">
@@ -14629,7 +14629,7 @@
       </c>
     </row>
     <row r="64" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="684"/>
+      <c r="C64" s="703"/>
       <c r="D64" s="64"/>
       <c r="E64" s="65"/>
       <c r="F64" s="66" t="s">
@@ -14643,7 +14643,7 @@
       </c>
     </row>
     <row r="65" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="685"/>
+      <c r="C65" s="704"/>
       <c r="D65" s="110"/>
       <c r="E65" s="109"/>
       <c r="F65" s="113" t="s">
@@ -14675,7 +14675,7 @@
       </c>
     </row>
     <row r="66" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="683" t="s">
+      <c r="C66" s="705" t="s">
         <v>96</v>
       </c>
       <c r="D66" s="61"/>
@@ -14689,7 +14689,7 @@
       <c r="H66" s="557" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="692"/>
+      <c r="I66" s="715"/>
       <c r="J66" s="553"/>
       <c r="K66" s="554"/>
       <c r="L66" s="543" t="s">
@@ -14701,12 +14701,12 @@
       <c r="N66" s="555" t="s">
         <v>33</v>
       </c>
-      <c r="O66" s="688" t="s">
+      <c r="O66" s="706" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C67" s="684"/>
+      <c r="C67" s="703"/>
       <c r="D67" s="64"/>
       <c r="E67" s="65"/>
       <c r="F67" s="66" t="s">
@@ -14718,7 +14718,7 @@
       <c r="H67" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="692"/>
+      <c r="I67" s="715"/>
       <c r="J67" s="545"/>
       <c r="K67" s="65"/>
       <c r="L67" s="66" t="s">
@@ -14730,10 +14730,10 @@
       <c r="N67" s="551" t="s">
         <v>32</v>
       </c>
-      <c r="O67" s="681"/>
+      <c r="O67" s="707"/>
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C68" s="684"/>
+      <c r="C68" s="703"/>
       <c r="D68" s="64"/>
       <c r="E68" s="65"/>
       <c r="F68" s="66" t="s">
@@ -14745,7 +14745,7 @@
       <c r="H68" s="537" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="692"/>
+      <c r="I68" s="715"/>
       <c r="J68" s="545"/>
       <c r="K68" s="65"/>
       <c r="L68" s="66" t="s">
@@ -14757,10 +14757,10 @@
       <c r="N68" s="551" t="s">
         <v>32</v>
       </c>
-      <c r="O68" s="681"/>
+      <c r="O68" s="707"/>
     </row>
     <row r="69" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="691"/>
+      <c r="C69" s="714"/>
       <c r="D69" s="559" t="s">
         <v>73</v>
       </c>
@@ -14776,7 +14776,7 @@
       <c r="H69" s="538" t="s">
         <v>33</v>
       </c>
-      <c r="I69" s="692"/>
+      <c r="I69" s="715"/>
       <c r="J69" s="546" t="s">
         <v>25</v>
       </c>
@@ -14792,16 +14792,16 @@
       <c r="N69" s="552" t="s">
         <v>32</v>
       </c>
-      <c r="O69" s="682"/>
+      <c r="O69" s="708"/>
     </row>
     <row r="70" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="I27:I29"/>
     <mergeCell ref="O66:O69"/>
     <mergeCell ref="O30:O37"/>
     <mergeCell ref="C38:C41"/>
@@ -14815,11 +14815,11 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16274,16 +16274,16 @@
     <row r="2" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="594"/>
       <c r="C2" s="595"/>
-      <c r="D2" s="696" t="s">
+      <c r="D2" s="718" t="s">
         <v>902</v>
       </c>
-      <c r="E2" s="697"/>
+      <c r="E2" s="719"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="698" t="s">
+      <c r="B3" s="720" t="s">
         <v>899</v>
       </c>
-      <c r="C3" s="699"/>
+      <c r="C3" s="721"/>
       <c r="D3" s="596" t="s">
         <v>904</v>
       </c>
@@ -16664,7 +16664,7 @@
       <c r="B3" s="591" t="s">
         <v>921</v>
       </c>
-      <c r="C3" s="700" t="s">
+      <c r="C3" s="722" t="s">
         <v>934</v>
       </c>
     </row>
@@ -16672,13 +16672,13 @@
       <c r="B4" s="592" t="s">
         <v>922</v>
       </c>
-      <c r="C4" s="701"/>
+      <c r="C4" s="723"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="592" t="s">
         <v>923</v>
       </c>
-      <c r="C5" s="701"/>
+      <c r="C5" s="723"/>
       <c r="F5" s="607" t="s">
         <v>196</v>
       </c>
@@ -16733,7 +16733,7 @@
       <c r="B6" s="592" t="s">
         <v>924</v>
       </c>
-      <c r="C6" s="701"/>
+      <c r="C6" s="723"/>
       <c r="F6" s="606"/>
       <c r="G6" s="608" t="s">
         <v>964</v>
@@ -16790,7 +16790,7 @@
       <c r="B7" s="592" t="s">
         <v>925</v>
       </c>
-      <c r="C7" s="701"/>
+      <c r="C7" s="723"/>
       <c r="F7" s="606"/>
       <c r="G7" s="606"/>
       <c r="H7" s="608" t="s">
@@ -16847,7 +16847,7 @@
       <c r="B8" s="592" t="s">
         <v>935</v>
       </c>
-      <c r="C8" s="701"/>
+      <c r="C8" s="723"/>
       <c r="F8" s="606"/>
       <c r="G8" s="607" t="s">
         <v>216</v>
@@ -16902,13 +16902,13 @@
       <c r="B9" s="592" t="s">
         <v>926</v>
       </c>
-      <c r="C9" s="701"/>
+      <c r="C9" s="723"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="592" t="s">
         <v>927</v>
       </c>
-      <c r="C10" s="701"/>
+      <c r="C10" s="723"/>
       <c r="F10" s="610" t="s">
         <v>97</v>
       </c>
@@ -16963,7 +16963,7 @@
       <c r="B11" s="592" t="s">
         <v>928</v>
       </c>
-      <c r="C11" s="701"/>
+      <c r="C11" s="723"/>
       <c r="F11" s="606"/>
       <c r="G11" s="608" t="s">
         <v>945</v>
@@ -17071,7 +17071,7 @@
       <c r="B13" s="592" t="s">
         <v>929</v>
       </c>
-      <c r="C13" s="702" t="s">
+      <c r="C13" s="724" t="s">
         <v>933</v>
       </c>
       <c r="F13" s="606"/>
@@ -17128,19 +17128,19 @@
       <c r="B14" s="592" t="s">
         <v>930</v>
       </c>
-      <c r="C14" s="703"/>
+      <c r="C14" s="725"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="592" t="s">
         <v>931</v>
       </c>
-      <c r="C15" s="703"/>
+      <c r="C15" s="725"/>
     </row>
     <row r="16" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="593" t="s">
         <v>932</v>
       </c>
-      <c r="C16" s="704"/>
+      <c r="C16" s="726"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17405,22 +17405,22 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="746">
+      <c r="B14" s="629">
         <v>0</v>
       </c>
-      <c r="C14" s="747" t="s">
+      <c r="C14" s="630" t="s">
         <v>708</v>
       </c>
-      <c r="D14" s="741" t="s">
+      <c r="D14" s="624" t="s">
         <v>708</v>
       </c>
-      <c r="E14" s="742" t="s">
+      <c r="E14" s="625" t="s">
         <v>806</v>
       </c>
-      <c r="F14" s="743" t="s">
+      <c r="F14" s="626" t="s">
         <v>756</v>
       </c>
-      <c r="G14" s="744" t="s">
+      <c r="G14" s="627" t="s">
         <v>794</v>
       </c>
     </row>
@@ -17440,7 +17440,7 @@
       <c r="F15" s="422" t="s">
         <v>757</v>
       </c>
-      <c r="G15" s="745"/>
+      <c r="G15" s="628"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="415">
@@ -17650,10 +17650,10 @@
       <c r="D26" s="420" t="s">
         <v>720</v>
       </c>
-      <c r="E26" s="748" t="s">
+      <c r="E26" s="631" t="s">
         <v>818</v>
       </c>
-      <c r="F26" s="749" t="s">
+      <c r="F26" s="632" t="s">
         <v>768</v>
       </c>
       <c r="G26" s="429"/>
@@ -17713,40 +17713,40 @@
       <c r="G29" s="427"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="735">
+      <c r="B30" s="618">
         <v>2</v>
       </c>
-      <c r="C30" s="736" t="s">
+      <c r="C30" s="619" t="s">
         <v>700</v>
       </c>
-      <c r="D30" s="737" t="s">
+      <c r="D30" s="620" t="s">
         <v>724</v>
       </c>
-      <c r="E30" s="738" t="s">
+      <c r="E30" s="621" t="s">
         <v>775</v>
       </c>
-      <c r="F30" s="739" t="s">
+      <c r="F30" s="622" t="s">
         <v>772</v>
       </c>
-      <c r="G30" s="740"/>
+      <c r="G30" s="623"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="729">
+      <c r="B31" s="612">
         <v>2</v>
       </c>
-      <c r="C31" s="730" t="s">
+      <c r="C31" s="613" t="s">
         <v>701</v>
       </c>
-      <c r="D31" s="731" t="s">
+      <c r="D31" s="614" t="s">
         <v>725</v>
       </c>
-      <c r="E31" s="732" t="s">
+      <c r="E31" s="615" t="s">
         <v>780</v>
       </c>
-      <c r="F31" s="733" t="s">
+      <c r="F31" s="616" t="s">
         <v>773</v>
       </c>
-      <c r="G31" s="734"/>
+      <c r="G31" s="617"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="415">
@@ -17852,7 +17852,7 @@
       <c r="D38" s="420" t="s">
         <v>732</v>
       </c>
-      <c r="E38" s="750" t="s">
+      <c r="E38" s="633" t="s">
         <v>776</v>
       </c>
       <c r="F38" s="428"/>
@@ -18074,10 +18074,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="705" t="s">
+      <c r="B1" s="727" t="s">
         <v>650</v>
       </c>
-      <c r="C1" s="706"/>
+      <c r="C1" s="728"/>
       <c r="D1" s="390" t="s">
         <v>659</v>
       </c>
@@ -19435,15 +19435,15 @@
       <c r="D5" s="179" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="707" t="s">
+      <c r="E5" s="729" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="708"/>
-      <c r="G5" s="709" t="s">
+      <c r="F5" s="730"/>
+      <c r="G5" s="731" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="709"/>
-      <c r="I5" s="708"/>
+      <c r="H5" s="731"/>
+      <c r="I5" s="730"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -19545,58 +19545,58 @@
       <c r="M9" s="181"/>
       <c r="N9" s="181"/>
       <c r="O9" s="181"/>
-      <c r="P9" s="707" t="s">
+      <c r="P9" s="729" t="s">
         <v>285</v>
       </c>
-      <c r="Q9" s="710"/>
-      <c r="R9" s="707" t="s">
+      <c r="Q9" s="732"/>
+      <c r="R9" s="729" t="s">
         <v>270</v>
       </c>
-      <c r="S9" s="710"/>
+      <c r="S9" s="732"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C10" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="711" t="s">
+      <c r="D10" s="733" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="712"/>
-      <c r="F10" s="712"/>
-      <c r="G10" s="712"/>
-      <c r="H10" s="712"/>
-      <c r="I10" s="712"/>
-      <c r="J10" s="712"/>
-      <c r="K10" s="712"/>
-      <c r="L10" s="712"/>
-      <c r="M10" s="712"/>
-      <c r="N10" s="712"/>
-      <c r="O10" s="712"/>
-      <c r="P10" s="712"/>
-      <c r="Q10" s="712"/>
-      <c r="R10" s="712"/>
-      <c r="S10" s="672"/>
+      <c r="E10" s="734"/>
+      <c r="F10" s="734"/>
+      <c r="G10" s="734"/>
+      <c r="H10" s="734"/>
+      <c r="I10" s="734"/>
+      <c r="J10" s="734"/>
+      <c r="K10" s="734"/>
+      <c r="L10" s="734"/>
+      <c r="M10" s="734"/>
+      <c r="N10" s="734"/>
+      <c r="O10" s="734"/>
+      <c r="P10" s="734"/>
+      <c r="Q10" s="734"/>
+      <c r="R10" s="734"/>
+      <c r="S10" s="657"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="713"/>
-      <c r="E11" s="714"/>
-      <c r="F11" s="714"/>
-      <c r="G11" s="714"/>
-      <c r="H11" s="714"/>
-      <c r="I11" s="714"/>
-      <c r="J11" s="714"/>
-      <c r="K11" s="714"/>
-      <c r="L11" s="714"/>
-      <c r="M11" s="714"/>
-      <c r="N11" s="714"/>
-      <c r="O11" s="714"/>
-      <c r="P11" s="714"/>
-      <c r="Q11" s="714"/>
-      <c r="R11" s="714"/>
-      <c r="S11" s="674"/>
+      <c r="D11" s="735"/>
+      <c r="E11" s="736"/>
+      <c r="F11" s="736"/>
+      <c r="G11" s="736"/>
+      <c r="H11" s="736"/>
+      <c r="I11" s="736"/>
+      <c r="J11" s="736"/>
+      <c r="K11" s="736"/>
+      <c r="L11" s="736"/>
+      <c r="M11" s="736"/>
+      <c r="N11" s="736"/>
+      <c r="O11" s="736"/>
+      <c r="P11" s="736"/>
+      <c r="Q11" s="736"/>
+      <c r="R11" s="736"/>
+      <c r="S11" s="659"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -19699,94 +19699,94 @@
       <c r="D19" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="E19" s="718" t="s">
+      <c r="E19" s="740" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="719"/>
-      <c r="G19" s="719"/>
-      <c r="H19" s="719"/>
-      <c r="I19" s="719"/>
-      <c r="J19" s="719"/>
-      <c r="K19" s="719"/>
-      <c r="L19" s="719"/>
-      <c r="M19" s="719"/>
-      <c r="N19" s="719"/>
-      <c r="O19" s="719"/>
-      <c r="P19" s="719"/>
-      <c r="Q19" s="719"/>
-      <c r="R19" s="719"/>
-      <c r="S19" s="639"/>
+      <c r="F19" s="741"/>
+      <c r="G19" s="741"/>
+      <c r="H19" s="741"/>
+      <c r="I19" s="741"/>
+      <c r="J19" s="741"/>
+      <c r="K19" s="741"/>
+      <c r="L19" s="741"/>
+      <c r="M19" s="741"/>
+      <c r="N19" s="741"/>
+      <c r="O19" s="741"/>
+      <c r="P19" s="741"/>
+      <c r="Q19" s="741"/>
+      <c r="R19" s="741"/>
+      <c r="S19" s="678"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="715" t="s">
+      <c r="D20" s="737" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="716"/>
-      <c r="F20" s="716"/>
-      <c r="G20" s="716"/>
-      <c r="H20" s="716"/>
-      <c r="I20" s="716"/>
-      <c r="J20" s="716"/>
-      <c r="K20" s="716"/>
-      <c r="L20" s="716"/>
-      <c r="M20" s="716"/>
-      <c r="N20" s="716"/>
-      <c r="O20" s="716"/>
-      <c r="P20" s="717"/>
+      <c r="E20" s="738"/>
+      <c r="F20" s="738"/>
+      <c r="G20" s="738"/>
+      <c r="H20" s="738"/>
+      <c r="I20" s="738"/>
+      <c r="J20" s="738"/>
+      <c r="K20" s="738"/>
+      <c r="L20" s="738"/>
+      <c r="M20" s="738"/>
+      <c r="N20" s="738"/>
+      <c r="O20" s="738"/>
+      <c r="P20" s="739"/>
       <c r="Q20" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="R20" s="707" t="s">
+      <c r="R20" s="729" t="s">
         <v>270</v>
       </c>
-      <c r="S20" s="710"/>
+      <c r="S20" s="732"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C21" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="711" t="s">
+      <c r="D21" s="733" t="s">
         <v>271</v>
       </c>
-      <c r="E21" s="712"/>
-      <c r="F21" s="712"/>
-      <c r="G21" s="712"/>
-      <c r="H21" s="712"/>
-      <c r="I21" s="712"/>
-      <c r="J21" s="712"/>
-      <c r="K21" s="712"/>
-      <c r="L21" s="712"/>
-      <c r="M21" s="712"/>
-      <c r="N21" s="712"/>
-      <c r="O21" s="712"/>
-      <c r="P21" s="712"/>
-      <c r="Q21" s="712"/>
-      <c r="R21" s="712"/>
-      <c r="S21" s="672"/>
+      <c r="E21" s="734"/>
+      <c r="F21" s="734"/>
+      <c r="G21" s="734"/>
+      <c r="H21" s="734"/>
+      <c r="I21" s="734"/>
+      <c r="J21" s="734"/>
+      <c r="K21" s="734"/>
+      <c r="L21" s="734"/>
+      <c r="M21" s="734"/>
+      <c r="N21" s="734"/>
+      <c r="O21" s="734"/>
+      <c r="P21" s="734"/>
+      <c r="Q21" s="734"/>
+      <c r="R21" s="734"/>
+      <c r="S21" s="657"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="713"/>
-      <c r="E22" s="714"/>
-      <c r="F22" s="714"/>
-      <c r="G22" s="714"/>
-      <c r="H22" s="714"/>
-      <c r="I22" s="714"/>
-      <c r="J22" s="714"/>
-      <c r="K22" s="714"/>
-      <c r="L22" s="714"/>
-      <c r="M22" s="714"/>
-      <c r="N22" s="714"/>
-      <c r="O22" s="714"/>
-      <c r="P22" s="714"/>
-      <c r="Q22" s="714"/>
-      <c r="R22" s="714"/>
-      <c r="S22" s="674"/>
+      <c r="D22" s="735"/>
+      <c r="E22" s="736"/>
+      <c r="F22" s="736"/>
+      <c r="G22" s="736"/>
+      <c r="H22" s="736"/>
+      <c r="I22" s="736"/>
+      <c r="J22" s="736"/>
+      <c r="K22" s="736"/>
+      <c r="L22" s="736"/>
+      <c r="M22" s="736"/>
+      <c r="N22" s="736"/>
+      <c r="O22" s="736"/>
+      <c r="P22" s="736"/>
+      <c r="Q22" s="736"/>
+      <c r="R22" s="736"/>
+      <c r="S22" s="659"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K24" t="s">

--- a/DOC/DEG2000.xlsx
+++ b/DOC/DEG2000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devel\1 DEG2000\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6CB513-2B29-4628-9CFD-1509D0A2B1DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4821B5E9-55A7-4CA8-AA67-BB10D3F3ED14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="11100" activeTab="6" xr2:uid="{F91C61BF-F393-4C13-9000-551DF6FEF055}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="11100" activeTab="11" xr2:uid="{F91C61BF-F393-4C13-9000-551DF6FEF055}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGridView" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="981">
   <si>
     <t>cpuStatus</t>
   </si>
@@ -1658,9 +1658,6 @@
   </si>
   <si>
     <t>099D</t>
-  </si>
-  <si>
-    <t>DEG2</t>
   </si>
   <si>
     <t>DATE</t>
@@ -8800,7 +8797,7 @@
         <v>342</v>
       </c>
       <c r="F3" s="219" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G3" s="220" t="s">
         <v>348</v>
@@ -9647,7 +9644,7 @@
         <v>342</v>
       </c>
       <c r="F54" s="437" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G54" s="438" t="s">
         <v>348</v>
@@ -9660,7 +9657,7 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E55" s="472" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F55" s="473" t="s">
         <v>490</v>
@@ -9674,7 +9671,7 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E56" s="475" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F56" s="296" t="s">
         <v>334</v>
@@ -9686,7 +9683,7 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E57" s="476" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F57" s="298" t="s">
         <v>333</v>
@@ -9700,31 +9697,31 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E58" s="467" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F58" s="468" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G58" s="469"/>
       <c r="H58" s="470" t="s">
+        <v>841</v>
+      </c>
+      <c r="I58" s="470" t="s">
         <v>842</v>
-      </c>
-      <c r="I58" s="470" t="s">
-        <v>843</v>
       </c>
       <c r="J58" s="471"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E59" s="466" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F59" s="441" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G59" s="442"/>
       <c r="H59" s="443"/>
       <c r="I59" s="443" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J59" s="444"/>
     </row>
@@ -9733,12 +9730,12 @@
         <v>268</v>
       </c>
       <c r="F60" s="455" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G60" s="447"/>
       <c r="H60" s="448"/>
       <c r="I60" s="448" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J60" s="449"/>
     </row>
@@ -9747,34 +9744,34 @@
         <v>268</v>
       </c>
       <c r="F61" s="455" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G61" s="447"/>
       <c r="H61" s="448"/>
       <c r="I61" s="448" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J61" s="449"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E62" s="456" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F62" s="457" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G62" s="458"/>
       <c r="H62" s="459" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I62" s="459" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J62" s="460"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E63" s="461" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F63" s="462" t="s">
         <v>112</v>
@@ -9782,71 +9779,71 @@
       <c r="G63" s="463"/>
       <c r="H63" s="464"/>
       <c r="I63" s="464" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J63" s="465"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E64" s="466" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F64" s="441" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G64" s="442"/>
       <c r="H64" s="443"/>
       <c r="I64" s="443" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J64" s="444"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E65" s="445" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F65" s="446" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G65" s="447"/>
       <c r="H65" s="448"/>
       <c r="I65" s="448" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J65" s="444"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E66" s="456" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F66" s="457" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G66" s="458"/>
       <c r="H66" s="459" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I66" s="459" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J66" s="460"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E67" s="461" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F67" s="462" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G67" s="463"/>
       <c r="H67" s="464"/>
       <c r="I67" s="464" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J67" s="465"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E68" s="445" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F68" s="446" t="s">
         <v>112</v>
@@ -9854,51 +9851,51 @@
       <c r="G68" s="447"/>
       <c r="H68" s="448"/>
       <c r="I68" s="448" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J68" s="449"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E69" s="445" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F69" s="446" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G69" s="447"/>
       <c r="H69" s="448"/>
       <c r="I69" s="448" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J69" s="449"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E70" s="445" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F70" s="446" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G70" s="447"/>
       <c r="H70" s="448"/>
       <c r="I70" s="448" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J70" s="449"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71" s="450" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F71" s="451" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G71" s="452"/>
       <c r="H71" s="453" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I71" s="453" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J71" s="454"/>
     </row>
@@ -10453,8 +10450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A67EE2-2541-4C21-B409-F79E37C3B854}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10478,15 +10475,15 @@
       </c>
       <c r="D2" s="375"/>
       <c r="E2" s="371" t="s">
+        <v>590</v>
+      </c>
+      <c r="F2" s="365" t="s">
         <v>591</v>
-      </c>
-      <c r="F2" s="365" t="s">
-        <v>592</v>
       </c>
       <c r="G2" s="365"/>
       <c r="H2" s="365"/>
       <c r="I2" s="366" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J2" s="367"/>
     </row>
@@ -10495,10 +10492,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F3" s="368" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -10516,14 +10513,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F4" s="368" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="225"/>
+      <c r="I4" s="225" t="s">
+        <v>592</v>
+      </c>
       <c r="J4" s="226"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -10534,14 +10533,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F5" s="368" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="225"/>
+      <c r="I5" s="225" t="s">
+        <v>592</v>
+      </c>
       <c r="J5" s="226"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10552,10 +10553,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F6" s="368" t="s">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -10567,16 +10568,14 @@
         <v>5</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F7" s="368" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="225" t="s">
-        <v>593</v>
-      </c>
+      <c r="I7" s="225"/>
       <c r="J7" s="226"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -10584,10 +10583,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F8" s="368" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -10599,12 +10598,14 @@
         <v>7</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F9" s="368" t="s">
-        <v>513</v>
-      </c>
-      <c r="G9" s="17"/>
+        <v>516</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>500</v>
+      </c>
       <c r="H9" s="17"/>
       <c r="I9" s="225"/>
       <c r="J9" s="226"/>
@@ -10614,12 +10615,14 @@
         <v>8</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F10" s="368" t="s">
-        <v>515</v>
-      </c>
-      <c r="G10" s="17"/>
+        <v>518</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>500</v>
+      </c>
       <c r="H10" s="17"/>
       <c r="I10" s="225"/>
       <c r="J10" s="226"/>
@@ -10629,14 +10632,12 @@
         <v>9</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F11" s="368" t="s">
-        <v>517</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>500</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="225"/>
       <c r="J11" s="226"/>
@@ -10646,14 +10647,12 @@
         <v>10</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="F12" s="368" t="s">
-        <v>519</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>500</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="225"/>
       <c r="J12" s="226"/>
@@ -10663,10 +10662,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F13" s="368" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -10678,14 +10677,16 @@
         <v>12</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F14" s="368" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="225"/>
+      <c r="I14" s="225" t="s">
+        <v>592</v>
+      </c>
       <c r="J14" s="226"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10693,14 +10694,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F15" s="368" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="225"/>
+      <c r="I15" s="225" t="s">
+        <v>952</v>
+      </c>
       <c r="J15" s="226"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10708,14 +10711,20 @@
         <v>14</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F16" s="368" t="s">
-        <v>527</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="225"/>
+        <v>530</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="I16" s="225" t="s">
+        <v>592</v>
+      </c>
       <c r="J16" s="226"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
@@ -10723,14 +10732,20 @@
         <v>15</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F17" s="368" t="s">
-        <v>529</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="225"/>
+        <v>532</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="I17" s="225" t="s">
+        <v>592</v>
+      </c>
       <c r="J17" s="226"/>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
@@ -10738,20 +10753,16 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F18" s="368" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="I18" s="225" t="s">
-        <v>593</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="225"/>
       <c r="J18" s="226"/>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
@@ -10759,20 +10770,16 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F19" s="368" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="I19" s="225" t="s">
-        <v>593</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="225"/>
       <c r="J19" s="226"/>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
@@ -10780,13 +10787,13 @@
         <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F20" s="368" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="225"/>
@@ -10797,13 +10804,13 @@
         <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="F21" s="368" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="225"/>
@@ -10814,14 +10821,12 @@
         <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="F22" s="368" t="s">
-        <v>543</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>544</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="225"/>
       <c r="J22" s="226"/>
@@ -10831,14 +10836,12 @@
         <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F23" s="368" t="s">
-        <v>547</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>548</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="225"/>
       <c r="J23" s="226"/>
@@ -10848,10 +10851,10 @@
         <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>549</v>
+        <v>695</v>
       </c>
       <c r="F24" s="368" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -10863,13 +10866,13 @@
         <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F25" s="368" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="225"/>
@@ -10880,13 +10883,13 @@
         <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F26" s="368" t="s">
+        <v>553</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>554</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>555</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="225"/>
@@ -10897,13 +10900,13 @@
         <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="F27" s="368" t="s">
         <v>557</v>
       </c>
-      <c r="F27" s="368" t="s">
+      <c r="G27" s="17" t="s">
         <v>558</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>559</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="225"/>
@@ -10914,10 +10917,10 @@
         <v>26</v>
       </c>
       <c r="E28" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="F28" s="368" t="s">
         <v>560</v>
-      </c>
-      <c r="F28" s="368" t="s">
-        <v>561</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
@@ -10938,13 +10941,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="373" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F30" s="369"/>
       <c r="G30" s="369"/>
       <c r="H30" s="369"/>
       <c r="I30" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J30" s="255"/>
     </row>
@@ -10953,13 +10956,13 @@
         <v>2</v>
       </c>
       <c r="E31" s="373" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F31" s="369"/>
       <c r="G31" s="369"/>
       <c r="H31" s="369"/>
       <c r="I31" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J31" s="255"/>
     </row>
@@ -10968,13 +10971,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="373" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F32" s="369"/>
       <c r="G32" s="369"/>
       <c r="H32" s="369"/>
       <c r="I32" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J32" s="255"/>
     </row>
@@ -10983,13 +10986,13 @@
         <v>4</v>
       </c>
       <c r="E33" s="373" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F33" s="369"/>
       <c r="G33" s="369"/>
       <c r="H33" s="369"/>
       <c r="I33" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J33" s="255"/>
     </row>
@@ -10998,13 +11001,13 @@
         <v>5</v>
       </c>
       <c r="E34" s="373" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F34" s="369"/>
       <c r="G34" s="369"/>
       <c r="H34" s="369"/>
       <c r="I34" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J34" s="255"/>
     </row>
@@ -11013,13 +11016,13 @@
         <v>6</v>
       </c>
       <c r="E35" s="373" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F35" s="369"/>
       <c r="G35" s="369"/>
       <c r="H35" s="369"/>
       <c r="I35" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J35" s="255"/>
     </row>
@@ -11028,13 +11031,13 @@
         <v>7</v>
       </c>
       <c r="E36" s="373" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F36" s="369"/>
       <c r="G36" s="369"/>
       <c r="H36" s="369"/>
       <c r="I36" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J36" s="255"/>
     </row>
@@ -11043,13 +11046,13 @@
         <v>8</v>
       </c>
       <c r="E37" s="373" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F37" s="369"/>
       <c r="G37" s="369"/>
       <c r="H37" s="369"/>
       <c r="I37" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J37" s="255"/>
     </row>
@@ -11058,13 +11061,13 @@
         <v>9</v>
       </c>
       <c r="E38" s="373" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F38" s="369"/>
       <c r="G38" s="369"/>
       <c r="H38" s="369"/>
       <c r="I38" s="380" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J38" s="255"/>
     </row>
@@ -11073,13 +11076,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="373" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F39" s="369"/>
       <c r="G39" s="369"/>
       <c r="H39" s="369"/>
       <c r="I39" s="380" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J39" s="255"/>
     </row>
@@ -11088,13 +11091,13 @@
         <v>11</v>
       </c>
       <c r="E40" s="373" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F40" s="369"/>
       <c r="G40" s="369"/>
       <c r="H40" s="369"/>
       <c r="I40" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J40" s="255"/>
     </row>
@@ -11103,13 +11106,13 @@
         <v>12</v>
       </c>
       <c r="E41" s="373" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F41" s="369"/>
       <c r="G41" s="369"/>
       <c r="H41" s="369"/>
       <c r="I41" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J41" s="255"/>
     </row>
@@ -11118,13 +11121,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="373" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F42" s="369"/>
       <c r="G42" s="369"/>
       <c r="H42" s="369"/>
       <c r="I42" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J42" s="255"/>
     </row>
@@ -11133,13 +11136,13 @@
         <v>14</v>
       </c>
       <c r="E43" s="373" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F43" s="369"/>
       <c r="G43" s="369"/>
       <c r="H43" s="369"/>
       <c r="I43" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J43" s="255"/>
     </row>
@@ -11148,7 +11151,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="373" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F44" s="369"/>
       <c r="G44" s="369"/>
@@ -11161,7 +11164,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="373" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F45" s="369"/>
       <c r="G45" s="369"/>
@@ -11174,7 +11177,7 @@
         <v>17</v>
       </c>
       <c r="E46" s="373" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F46" s="369"/>
       <c r="G46" s="369"/>
@@ -11187,7 +11190,7 @@
         <v>18</v>
       </c>
       <c r="E47" s="373" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F47" s="369"/>
       <c r="G47" s="369"/>
@@ -11200,7 +11203,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="373" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F48" s="369"/>
       <c r="G48" s="369"/>
@@ -11213,7 +11216,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="373" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F49" s="369"/>
       <c r="G49" s="369"/>
@@ -11226,13 +11229,13 @@
         <v>21</v>
       </c>
       <c r="E50" s="373" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F50" s="369"/>
       <c r="G50" s="369"/>
       <c r="H50" s="369"/>
       <c r="I50" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J50" s="255"/>
     </row>
@@ -11241,13 +11244,13 @@
         <v>22</v>
       </c>
       <c r="E51" s="373" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F51" s="369"/>
       <c r="G51" s="369"/>
       <c r="H51" s="369"/>
       <c r="I51" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J51" s="255"/>
     </row>
@@ -11256,13 +11259,13 @@
         <v>23</v>
       </c>
       <c r="E52" s="373" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F52" s="369"/>
       <c r="G52" s="369"/>
       <c r="H52" s="369"/>
       <c r="I52" s="254" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J52" s="255"/>
     </row>
@@ -11271,7 +11274,7 @@
         <v>24</v>
       </c>
       <c r="E53" s="373" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F53" s="369"/>
       <c r="G53" s="369"/>
@@ -11284,7 +11287,7 @@
         <v>25</v>
       </c>
       <c r="E54" s="373" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F54" s="369"/>
       <c r="G54" s="369"/>
@@ -11297,7 +11300,7 @@
         <v>26</v>
       </c>
       <c r="E55" s="373" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F55" s="369"/>
       <c r="G55" s="369"/>
@@ -11310,7 +11313,7 @@
         <v>27</v>
       </c>
       <c r="E56" s="373" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F56" s="369"/>
       <c r="G56" s="369"/>
@@ -11323,7 +11326,7 @@
         <v>28</v>
       </c>
       <c r="E57" s="373" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F57" s="369"/>
       <c r="G57" s="369"/>
@@ -11336,7 +11339,7 @@
         <v>29</v>
       </c>
       <c r="E58" s="373" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F58" s="369"/>
       <c r="G58" s="369"/>
@@ -11349,7 +11352,7 @@
         <v>30</v>
       </c>
       <c r="E59" s="374" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F59" s="370"/>
       <c r="G59" s="370"/>
@@ -11391,7 +11394,7 @@
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="744" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C3" s="745"/>
       <c r="D3" s="745"/>
@@ -11401,63 +11404,63 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="477" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C4" s="481"/>
       <c r="D4" s="484" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E4" s="338"/>
       <c r="F4" s="482" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G4" s="478"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="479" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C5" s="335"/>
       <c r="D5" s="319" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E5" s="322"/>
       <c r="F5" s="372" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G5" s="213"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="479" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C6" s="335"/>
       <c r="D6" s="319" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E6" s="322"/>
       <c r="F6" s="372" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G6" s="213"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="480" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C7" s="337"/>
       <c r="D7" s="321" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E7" s="323"/>
       <c r="F7" s="483" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G7" s="216"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="747" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C8" s="748"/>
       <c r="D8" s="748"/>
@@ -11467,63 +11470,63 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="477" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C9" s="481"/>
       <c r="D9" s="484" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E9" s="338"/>
       <c r="F9" s="482" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G9" s="478"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="479" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C10" s="335"/>
       <c r="D10" s="319" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E10" s="322"/>
       <c r="F10" s="372" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G10" s="213"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="479" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C11" s="335"/>
       <c r="D11" s="319" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E11" s="322"/>
       <c r="F11" s="372" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G11" s="213"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="480" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C12" s="337"/>
       <c r="D12" s="321" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E12" s="323"/>
       <c r="F12" s="483" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G12" s="216"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="747" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C13" s="748"/>
       <c r="D13" s="748"/>
@@ -11533,63 +11536,63 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="477" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C14" s="481"/>
       <c r="D14" s="484" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E14" s="338"/>
       <c r="F14" s="482" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G14" s="478"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="479" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C15" s="335"/>
       <c r="D15" s="319" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E15" s="322"/>
       <c r="F15" s="372" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G15" s="213"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="479" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C16" s="335"/>
       <c r="D16" s="319" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E16" s="322"/>
       <c r="F16" s="372" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G16" s="213"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="480" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C17" s="337"/>
       <c r="D17" s="321" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E17" s="323"/>
       <c r="F17" s="483" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G17" s="216"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="747" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C18" s="748"/>
       <c r="D18" s="748"/>
@@ -11599,57 +11602,57 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="477" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C19" s="481"/>
       <c r="D19" s="484" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E19" s="338"/>
       <c r="F19" s="482" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G19" s="478"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="479" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C20" s="335"/>
       <c r="D20" s="319" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E20" s="322"/>
       <c r="F20" s="372" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G20" s="213"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="479" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C21" s="335"/>
       <c r="D21" s="319" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E21" s="322"/>
       <c r="F21" s="372" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G21" s="213"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="480" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C22" s="337"/>
       <c r="D22" s="321" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E22" s="323"/>
       <c r="F22" s="483" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G22" s="216"/>
     </row>
@@ -11687,7 +11690,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="743" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C2" s="750"/>
       <c r="D2" s="750"/>
@@ -11697,7 +11700,7 @@
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="744" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C3" s="745"/>
       <c r="D3" s="745"/>
@@ -11707,83 +11710,83 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="505" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C4" s="506" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D4" s="507" t="s">
+        <v>850</v>
+      </c>
+      <c r="E4" s="508" t="s">
+        <v>862</v>
+      </c>
+      <c r="F4" s="509" t="s">
         <v>851</v>
       </c>
-      <c r="E4" s="508" t="s">
-        <v>863</v>
-      </c>
-      <c r="F4" s="509" t="s">
-        <v>852</v>
-      </c>
       <c r="G4" s="510" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="511" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C5" s="512" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D5" s="513" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E5" s="514"/>
       <c r="F5" s="515" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G5" s="516" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="511" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C6" s="512" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D6" s="513" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E6" s="514"/>
       <c r="F6" s="515" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G6" s="516" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="517" t="s">
+        <v>705</v>
+      </c>
+      <c r="C7" s="520" t="s">
+        <v>872</v>
+      </c>
+      <c r="D7" s="518" t="s">
         <v>706</v>
       </c>
-      <c r="C7" s="520" t="s">
-        <v>873</v>
-      </c>
-      <c r="D7" s="518" t="s">
+      <c r="E7" s="521" t="s">
+        <v>870</v>
+      </c>
+      <c r="F7" s="519" t="s">
         <v>707</v>
       </c>
-      <c r="E7" s="521" t="s">
+      <c r="G7" s="522" t="s">
         <v>871</v>
-      </c>
-      <c r="F7" s="519" t="s">
-        <v>708</v>
-      </c>
-      <c r="G7" s="522" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="747" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C8" s="748"/>
       <c r="D8" s="748"/>
@@ -11793,63 +11796,63 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="487" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C9" s="488"/>
       <c r="D9" s="489" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E9" s="490"/>
       <c r="F9" s="491" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G9" s="492"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="493" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C10" s="494"/>
       <c r="D10" s="495" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E10" s="496"/>
       <c r="F10" s="497" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G10" s="498"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="493" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C11" s="494"/>
       <c r="D11" s="495" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E11" s="496"/>
       <c r="F11" s="497" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G11" s="498"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="499" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C12" s="500"/>
       <c r="D12" s="501" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E12" s="502"/>
       <c r="F12" s="503" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G12" s="504"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="747" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C13" s="748"/>
       <c r="D13" s="748"/>
@@ -11859,63 +11862,63 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="487" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C14" s="488"/>
       <c r="D14" s="489" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E14" s="490"/>
       <c r="F14" s="491" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G14" s="492"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="493" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C15" s="494"/>
       <c r="D15" s="495" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E15" s="496"/>
       <c r="F15" s="497" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G15" s="498"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="493" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C16" s="494"/>
       <c r="D16" s="495" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E16" s="496"/>
       <c r="F16" s="497" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G16" s="498"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="499" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C17" s="500"/>
       <c r="D17" s="501" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E17" s="502"/>
       <c r="F17" s="503" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G17" s="504"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="747" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C18" s="748"/>
       <c r="D18" s="748"/>
@@ -11925,66 +11928,66 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="487" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C19" s="488"/>
       <c r="D19" s="489" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E19" s="490"/>
       <c r="F19" s="491" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G19" s="492"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="493" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C20" s="494"/>
       <c r="D20" s="495" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E20" s="496"/>
       <c r="F20" s="497" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G20" s="498"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="493" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C21" s="494"/>
       <c r="D21" s="495" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E21" s="496"/>
       <c r="F21" s="497" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G21" s="498"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="499" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C22" s="500"/>
       <c r="D22" s="501" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E22" s="502"/>
       <c r="F22" s="503" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G22" s="504"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>863</v>
+      </c>
+      <c r="C24" t="s">
         <v>864</v>
-      </c>
-      <c r="C24" t="s">
-        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -13699,7 +13702,7 @@
         <v>88</v>
       </c>
       <c r="I5" s="573" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -13716,7 +13719,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="709" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
@@ -13747,7 +13750,7 @@
         <v>73</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F9" s="82" t="s">
         <v>82</v>
@@ -13772,7 +13775,7 @@
         <v>32</v>
       </c>
       <c r="I10" s="707" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
@@ -13953,7 +13956,7 @@
         <v>64</v>
       </c>
       <c r="E25" s="97" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F25" s="82" t="s">
         <v>78</v>
@@ -13972,10 +13975,10 @@
         <v>54</v>
       </c>
       <c r="E26" s="565" t="s">
+        <v>881</v>
+      </c>
+      <c r="F26" s="566" t="s">
         <v>882</v>
-      </c>
-      <c r="F26" s="566" t="s">
-        <v>883</v>
       </c>
       <c r="G26" s="567" t="s">
         <v>259</v>
@@ -13984,7 +13987,7 @@
         <v>33</v>
       </c>
       <c r="I26" s="578" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -13993,13 +13996,13 @@
       <c r="E27" s="528"/>
       <c r="F27" s="62"/>
       <c r="G27" s="63" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H27" s="557" t="s">
         <v>33</v>
       </c>
       <c r="I27" s="717" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="28" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14041,7 +14044,7 @@
         <v>88</v>
       </c>
       <c r="O29" s="576" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="30" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -14060,7 +14063,7 @@
       <c r="J30" s="548"/>
       <c r="K30" s="549"/>
       <c r="L30" s="543" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M30" s="543" t="s">
         <v>258</v>
@@ -14069,7 +14072,7 @@
         <v>32</v>
       </c>
       <c r="O30" s="709" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
@@ -14084,10 +14087,10 @@
       <c r="J31" s="550"/>
       <c r="K31" s="73"/>
       <c r="L31" s="66" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M31" s="66" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="N31" s="536" t="s">
         <v>32</v>
@@ -14106,10 +14109,10 @@
       <c r="J32" s="550"/>
       <c r="K32" s="73"/>
       <c r="L32" s="66" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M32" s="66" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="N32" s="536" t="s">
         <v>32</v>
@@ -14122,7 +14125,7 @@
         <v>73</v>
       </c>
       <c r="E33" s="533" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F33" s="535" t="s">
         <v>76</v>
@@ -14137,7 +14140,7 @@
         <v>76</v>
       </c>
       <c r="M33" s="66" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="N33" s="536" t="s">
         <v>32</v>
@@ -14160,7 +14163,7 @@
       <c r="J34" s="550"/>
       <c r="K34" s="73"/>
       <c r="L34" s="66" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M34" s="66" t="s">
         <v>257</v>
@@ -14185,7 +14188,7 @@
         <v>307</v>
       </c>
       <c r="M35" s="66" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="N35" s="536" t="s">
         <v>32</v>
@@ -14204,10 +14207,10 @@
       <c r="J36" s="545"/>
       <c r="K36" s="65"/>
       <c r="L36" s="66" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M36" s="66" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="N36" s="537" t="s">
         <v>33</v>
@@ -14220,7 +14223,7 @@
         <v>73</v>
       </c>
       <c r="E37" s="81" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F37" s="82" t="s">
         <v>75</v>
@@ -14239,7 +14242,7 @@
         <v>75</v>
       </c>
       <c r="M37" s="544" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="N37" s="538" t="s">
         <v>33</v>
@@ -14671,7 +14674,7 @@
         <v>88</v>
       </c>
       <c r="O65" s="575" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="66" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -14702,7 +14705,7 @@
         <v>33</v>
       </c>
       <c r="O66" s="706" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
@@ -16275,43 +16278,43 @@
       <c r="B2" s="594"/>
       <c r="C2" s="595"/>
       <c r="D2" s="718" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E2" s="719"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="720" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C3" s="721"/>
       <c r="D3" s="596" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E3" s="597" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="598" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C4" s="155" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D4" s="599" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E4" s="600"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="598" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C5" s="155" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D5" s="599" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E5" s="600"/>
     </row>
@@ -16323,25 +16326,25 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="598" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C7" s="155" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D7" s="599" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E7" s="600"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="598" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C8" s="155" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D8" s="599" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E8" s="600"/>
     </row>
@@ -16353,20 +16356,20 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="598" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C10" s="155" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D10" s="599"/>
       <c r="E10" s="600"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="598" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C11" s="155" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D11" s="599"/>
       <c r="E11" s="600"/>
@@ -16451,23 +16454,23 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="601" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C25" s="155" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D25" s="599" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E25" s="600" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="601"/>
       <c r="C26" s="155"/>
       <c r="D26" s="599" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E26" s="600"/>
     </row>
@@ -16479,23 +16482,23 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="601" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C28" s="155" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D28" s="599" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E28" s="600" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="601"/>
       <c r="C29" s="155"/>
       <c r="D29" s="599" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E29" s="600"/>
     </row>
@@ -16507,43 +16510,43 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="601" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C31" s="155" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D31" s="599" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E31" s="600" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="601"/>
       <c r="C32" s="155"/>
       <c r="D32" s="599" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E32" s="600"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="601"/>
       <c r="C33" s="155" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D33" s="599" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E33" s="600" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="601"/>
       <c r="C34" s="155"/>
       <c r="D34" s="599" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E34" s="600"/>
     </row>
@@ -16556,40 +16559,40 @@
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="601"/>
       <c r="C36" s="155" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D36" s="599" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E36" s="600" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="601"/>
       <c r="C37" s="155"/>
       <c r="D37" s="599" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E37" s="600"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="601"/>
       <c r="C38" s="155" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D38" s="599" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E38" s="600" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="601"/>
       <c r="C39" s="155"/>
       <c r="D39" s="599" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E39" s="600"/>
     </row>
@@ -16601,10 +16604,10 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="601" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C41" s="155" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D41" s="599"/>
       <c r="E41" s="600"/>
@@ -16662,21 +16665,21 @@
     <row r="2" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="591" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C3" s="722" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="592" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C4" s="723"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="592" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C5" s="723"/>
       <c r="F5" s="607" t="s">
@@ -16724,23 +16727,23 @@
       </c>
       <c r="AA5" s="606"/>
       <c r="AB5" s="610" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AC5" s="606"/>
       <c r="AD5" s="606"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="592" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C6" s="723"/>
       <c r="F6" s="606"/>
       <c r="G6" s="608" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H6" s="606"/>
       <c r="I6" s="608" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J6" s="606"/>
       <c r="K6" s="608" t="s">
@@ -16748,33 +16751,33 @@
       </c>
       <c r="L6" s="606"/>
       <c r="M6" s="608" t="s">
+        <v>965</v>
+      </c>
+      <c r="N6" s="606" t="s">
+        <v>960</v>
+      </c>
+      <c r="O6" s="608" t="s">
         <v>966</v>
-      </c>
-      <c r="N6" s="606" t="s">
-        <v>961</v>
-      </c>
-      <c r="O6" s="608" t="s">
-        <v>967</v>
       </c>
       <c r="P6" s="606"/>
       <c r="Q6" s="608" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="R6" s="606"/>
       <c r="S6" s="608" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="T6" s="606"/>
       <c r="U6" s="608" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="V6" s="606"/>
       <c r="W6" s="608" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="X6" s="606"/>
       <c r="Y6" s="608" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Z6" s="606"/>
       <c r="AA6" s="610" t="s">
@@ -16788,17 +16791,17 @@
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="592" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C7" s="723"/>
       <c r="F7" s="606"/>
       <c r="G7" s="606"/>
       <c r="H7" s="608" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I7" s="606"/>
       <c r="J7" s="608" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="K7" s="606"/>
       <c r="L7" s="608" t="s">
@@ -16814,21 +16817,21 @@
       </c>
       <c r="Q7" s="606"/>
       <c r="R7" s="608" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="S7" s="606"/>
       <c r="T7" s="608" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="U7" s="606"/>
       <c r="V7" s="608" t="s">
+        <v>976</v>
+      </c>
+      <c r="W7" s="606" t="s">
+        <v>960</v>
+      </c>
+      <c r="X7" s="608" t="s">
         <v>977</v>
-      </c>
-      <c r="W7" s="606" t="s">
-        <v>961</v>
-      </c>
-      <c r="X7" s="608" t="s">
-        <v>978</v>
       </c>
       <c r="Y7" s="606"/>
       <c r="Z7" s="610" t="s">
@@ -16845,7 +16848,7 @@
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="592" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C8" s="723"/>
       <c r="F8" s="606"/>
@@ -16854,21 +16857,21 @@
       </c>
       <c r="H8" s="606"/>
       <c r="I8" s="608" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J8" s="606"/>
       <c r="K8" s="608" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L8" s="606" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M8" s="608" t="s">
         <v>317</v>
       </c>
       <c r="N8" s="606"/>
       <c r="O8" s="608" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="P8" s="606"/>
       <c r="Q8" s="608" t="s">
@@ -16876,11 +16879,11 @@
       </c>
       <c r="R8" s="606"/>
       <c r="S8" s="608" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="T8" s="606"/>
       <c r="U8" s="608" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V8" s="606"/>
       <c r="W8" s="611" t="s">
@@ -16900,13 +16903,13 @@
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="592" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C9" s="723"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="592" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C10" s="723"/>
       <c r="F10" s="610" t="s">
@@ -16961,48 +16964,48 @@
     </row>
     <row r="11" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="592" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C11" s="723"/>
       <c r="F11" s="606"/>
       <c r="G11" s="608" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H11" s="606"/>
       <c r="I11" s="608" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J11" s="606"/>
       <c r="K11" s="608" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L11" s="606"/>
       <c r="M11" s="608" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="N11" s="606"/>
       <c r="O11" s="608" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="P11" s="606"/>
       <c r="Q11" s="608" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="R11" s="606"/>
       <c r="S11" s="608" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="T11" s="606"/>
       <c r="U11" s="608" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="V11" s="606"/>
       <c r="W11" s="608" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="X11" s="606"/>
       <c r="Y11" s="608" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="Z11" s="606"/>
       <c r="AA11" s="611" t="s">
@@ -17020,39 +17023,39 @@
       <c r="F12" s="606"/>
       <c r="G12" s="606"/>
       <c r="H12" s="608" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I12" s="606"/>
       <c r="J12" s="608" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K12" s="606"/>
       <c r="L12" s="608" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M12" s="606"/>
       <c r="N12" s="608" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O12" s="606"/>
       <c r="P12" s="608" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="Q12" s="606"/>
       <c r="R12" s="608" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="S12" s="606"/>
       <c r="T12" s="608" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="U12" s="606"/>
       <c r="V12" s="608" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="W12" s="606"/>
       <c r="X12" s="608" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="Y12" s="606"/>
       <c r="Z12" s="611" t="s">
@@ -17069,10 +17072,10 @@
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="592" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C13" s="724" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F13" s="606"/>
       <c r="G13" s="607" t="s">
@@ -17080,33 +17083,33 @@
       </c>
       <c r="H13" s="606"/>
       <c r="I13" s="608" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J13" s="606"/>
       <c r="K13" s="608" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L13" s="606"/>
       <c r="M13" s="608" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="N13" s="606"/>
       <c r="O13" s="608" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="P13" s="609"/>
       <c r="Q13" s="608" t="s">
+        <v>958</v>
+      </c>
+      <c r="R13" s="609" t="s">
+        <v>960</v>
+      </c>
+      <c r="S13" s="608" t="s">
         <v>959</v>
-      </c>
-      <c r="R13" s="609" t="s">
-        <v>961</v>
-      </c>
-      <c r="S13" s="608" t="s">
-        <v>960</v>
       </c>
       <c r="T13" s="606"/>
       <c r="U13" s="608" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="V13" s="606"/>
       <c r="W13" s="611" t="s">
@@ -17126,19 +17129,19 @@
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="592" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C14" s="725"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="592" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C15" s="725"/>
     </row>
     <row r="16" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="593" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C16" s="726"/>
     </row>
@@ -17156,7 +17159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3341CA24-FB90-4043-B78E-A547E1AF13CD}">
   <dimension ref="B1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -17189,19 +17192,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="366" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D3" s="414" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E3" s="421" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F3" s="422" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G3" s="430" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17209,19 +17212,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="416" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D4" s="417" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E4" s="423" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F4" s="424" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G4" s="431" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17229,19 +17232,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="416" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D5" s="417" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E5" s="423" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F5" s="424" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G5" s="431" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17249,19 +17252,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="416" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D6" s="417" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E6" s="423" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F6" s="424" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G6" s="431" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17269,19 +17272,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="416" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D7" s="417" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E7" s="423" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F7" s="424" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G7" s="431" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17289,19 +17292,19 @@
         <v>0</v>
       </c>
       <c r="C8" s="416" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D8" s="417" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E8" s="423" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F8" s="424" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G8" s="431" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17309,19 +17312,19 @@
         <v>0</v>
       </c>
       <c r="C9" s="416" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D9" s="417" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E9" s="423" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F9" s="424" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G9" s="431" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17329,19 +17332,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="416" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D10" s="417" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E10" s="423" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F10" s="424" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G10" s="431" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17349,19 +17352,19 @@
         <v>0</v>
       </c>
       <c r="C11" s="416" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D11" s="417" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E11" s="423" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F11" s="424" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G11" s="431" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17369,19 +17372,19 @@
         <v>0</v>
       </c>
       <c r="C12" s="416" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D12" s="417" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E12" s="423" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F12" s="424" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G12" s="431" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17389,19 +17392,19 @@
         <v>0</v>
       </c>
       <c r="C13" s="416" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D13" s="417" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E13" s="423" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F13" s="424" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G13" s="431" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17409,19 +17412,19 @@
         <v>0</v>
       </c>
       <c r="C14" s="630" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D14" s="624" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E14" s="625" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F14" s="626" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G14" s="627" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17429,16 +17432,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="366" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D15" s="414" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E15" s="421" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F15" s="422" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G15" s="628"/>
     </row>
@@ -17447,19 +17450,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="416" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D16" s="417" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E16" s="423" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F16" s="424" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G16" s="431" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17467,19 +17470,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="416" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D17" s="417" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E17" s="423" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F17" s="424" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G17" s="431" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17487,19 +17490,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="416" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D18" s="417" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E18" s="423" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F18" s="424" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G18" s="431" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17507,19 +17510,19 @@
         <v>1</v>
       </c>
       <c r="C19" s="416" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D19" s="417" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E19" s="423" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F19" s="424" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G19" s="431" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17527,19 +17530,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="416" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D20" s="417" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E20" s="423" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F20" s="424" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G20" s="431" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17547,19 +17550,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="416" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D21" s="417" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E21" s="423" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F21" s="424" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G21" s="431" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17567,19 +17570,19 @@
         <v>1</v>
       </c>
       <c r="C22" s="416" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D22" s="417" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E22" s="423" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F22" s="424" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G22" s="431" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17587,19 +17590,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="416" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D23" s="417" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E23" s="423" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F23" s="424" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G23" s="431" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17607,19 +17610,19 @@
         <v>1</v>
       </c>
       <c r="C24" s="416" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D24" s="417" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E24" s="423" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F24" s="424" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G24" s="431" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17627,16 +17630,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="416" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D25" s="417" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E25" s="423" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F25" s="424" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G25" s="434"/>
     </row>
@@ -17645,16 +17648,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="419" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D26" s="420" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E26" s="631" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F26" s="632" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G26" s="429"/>
     </row>
@@ -17663,16 +17666,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="416" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D27" s="417" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E27" s="423" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F27" s="424" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G27" s="427"/>
     </row>
@@ -17681,16 +17684,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="416" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D28" s="417" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E28" s="431" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F28" s="424" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G28" s="427"/>
     </row>
@@ -17699,16 +17702,16 @@
         <v>2</v>
       </c>
       <c r="C29" s="416" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D29" s="417" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E29" s="431" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F29" s="424" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G29" s="427"/>
     </row>
@@ -17717,16 +17720,16 @@
         <v>2</v>
       </c>
       <c r="C30" s="619" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D30" s="620" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E30" s="621" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F30" s="622" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G30" s="623"/>
     </row>
@@ -17735,16 +17738,16 @@
         <v>2</v>
       </c>
       <c r="C31" s="613" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D31" s="614" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E31" s="615" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F31" s="616" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G31" s="617"/>
     </row>
@@ -17753,16 +17756,16 @@
         <v>2</v>
       </c>
       <c r="C32" s="416" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D32" s="417" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E32" s="431" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F32" s="424" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G32" s="427"/>
     </row>
@@ -17771,13 +17774,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="416" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D33" s="417" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E33" s="431" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F33" s="426"/>
       <c r="G33" s="427"/>
@@ -17787,10 +17790,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="416" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D34" s="417" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E34" s="425"/>
       <c r="F34" s="426"/>
@@ -17801,10 +17804,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="416" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D35" s="417" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E35" s="425"/>
       <c r="F35" s="426"/>
@@ -17815,13 +17818,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="416" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D36" s="417" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E36" s="431" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F36" s="426"/>
       <c r="G36" s="427"/>
@@ -17831,13 +17834,13 @@
         <v>2</v>
       </c>
       <c r="C37" s="416" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D37" s="417" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E37" s="431" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F37" s="426"/>
       <c r="G37" s="427"/>
@@ -17847,13 +17850,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="419" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D38" s="420" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E38" s="633" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F38" s="428"/>
       <c r="G38" s="429"/>
@@ -17863,13 +17866,13 @@
         <v>3</v>
       </c>
       <c r="C39" s="416" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D39" s="417" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E39" s="432" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F39" s="426"/>
       <c r="G39" s="427"/>
@@ -17879,13 +17882,13 @@
         <v>3</v>
       </c>
       <c r="C40" s="416" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D40" s="417" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E40" s="432" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F40" s="426"/>
       <c r="G40" s="427"/>
@@ -17895,13 +17898,13 @@
         <v>3</v>
       </c>
       <c r="C41" s="416" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D41" s="417" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E41" s="432" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F41" s="426"/>
       <c r="G41" s="427"/>
@@ -17911,13 +17914,13 @@
         <v>3</v>
       </c>
       <c r="C42" s="416" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D42" s="417" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E42" s="432" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F42" s="426"/>
       <c r="G42" s="427"/>
@@ -17927,13 +17930,13 @@
         <v>3</v>
       </c>
       <c r="C43" s="416" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D43" s="417" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E43" s="432" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F43" s="426"/>
       <c r="G43" s="427"/>
@@ -17943,13 +17946,13 @@
         <v>3</v>
       </c>
       <c r="C44" s="416" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D44" s="417" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E44" s="432" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F44" s="426"/>
       <c r="G44" s="427"/>
@@ -17959,13 +17962,13 @@
         <v>3</v>
       </c>
       <c r="C45" s="416" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D45" s="417" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E45" s="432" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F45" s="426"/>
       <c r="G45" s="427"/>
@@ -17975,13 +17978,13 @@
         <v>3</v>
       </c>
       <c r="C46" s="416" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D46" s="417" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E46" s="432" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F46" s="426"/>
       <c r="G46" s="427"/>
@@ -17991,13 +17994,13 @@
         <v>3</v>
       </c>
       <c r="C47" s="416" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D47" s="417" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E47" s="432" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F47" s="426"/>
       <c r="G47" s="427"/>
@@ -18007,13 +18010,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="416" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D48" s="417" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E48" s="432" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F48" s="426"/>
       <c r="G48" s="427"/>
@@ -18023,13 +18026,13 @@
         <v>3</v>
       </c>
       <c r="C49" s="416" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D49" s="417" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E49" s="432" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F49" s="426"/>
       <c r="G49" s="427"/>
@@ -18039,13 +18042,13 @@
         <v>3</v>
       </c>
       <c r="C50" s="419" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D50" s="420" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E50" s="433" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F50" s="428"/>
       <c r="G50" s="429"/>
@@ -18075,11 +18078,11 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="727" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C1" s="728"/>
       <c r="D1" s="390" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E1" s="339"/>
       <c r="F1" s="339"/>
@@ -18093,51 +18096,51 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="140" t="s">
+        <v>650</v>
+      </c>
+      <c r="C2" s="141" t="s">
         <v>651</v>
-      </c>
-      <c r="C2" s="141" t="s">
-        <v>652</v>
       </c>
       <c r="D2" s="139"/>
       <c r="E2" s="403" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F2" s="403" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G2" s="403" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2" s="382" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I2" s="382" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J2" s="382" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="400" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="383" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B3" s="384">
         <v>0</v>
       </c>
       <c r="C3" s="387" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D3" s="391" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E3" s="401"/>
       <c r="F3" s="401" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G3" s="401"/>
       <c r="H3" s="27"/>
@@ -18145,7 +18148,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="45"/>
       <c r="L3" s="396" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -18172,7 +18175,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="388" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="16"/>
@@ -18190,20 +18193,20 @@
         <v>6</v>
       </c>
       <c r="C6" s="388" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D6" s="392" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E6" s="402" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F6" s="402"/>
       <c r="G6" s="402"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="368" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K6" s="43"/>
       <c r="L6" s="397"/>
@@ -18217,17 +18220,17 @@
         <v>389</v>
       </c>
       <c r="D7" s="392" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E7" s="402" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F7" s="402"/>
       <c r="G7" s="402"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="368" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K7" s="43"/>
       <c r="L7" s="397"/>
@@ -18238,7 +18241,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="388" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="16"/>
@@ -18256,7 +18259,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="388" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="16"/>
@@ -18274,7 +18277,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="388" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D10" s="48"/>
       <c r="E10" s="16"/>
@@ -18295,11 +18298,11 @@
         <v>367</v>
       </c>
       <c r="D11" s="392" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E11" s="402"/>
       <c r="F11" s="402" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G11" s="402"/>
       <c r="H11" s="17"/>
@@ -18307,7 +18310,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="43"/>
       <c r="L11" s="398" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -18355,17 +18358,17 @@
         <v>379</v>
       </c>
       <c r="D14" s="392" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E14" s="402" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F14" s="402"/>
       <c r="G14" s="402"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="368" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K14" s="43"/>
       <c r="L14" s="397"/>
@@ -18379,17 +18382,17 @@
         <v>129</v>
       </c>
       <c r="D15" s="392" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E15" s="402" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F15" s="402"/>
       <c r="G15" s="402"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="368" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K15" s="43"/>
       <c r="L15" s="397"/>
@@ -18400,7 +18403,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="388" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="16"/>
@@ -18418,7 +18421,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="388" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="16"/>
@@ -18436,7 +18439,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="388" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="16"/>
@@ -18454,7 +18457,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="388" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="16"/>
@@ -18465,7 +18468,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="43"/>
       <c r="L19" s="398" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -18474,7 +18477,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="388" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="16"/>
@@ -18492,14 +18495,14 @@
         <v>36</v>
       </c>
       <c r="C21" s="388" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D21" s="392" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="402"/>
       <c r="F21" s="404" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G21" s="402"/>
       <c r="H21" s="17"/>
@@ -18516,7 +18519,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="388" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="16"/>
@@ -18525,7 +18528,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="368" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K22" s="43"/>
       <c r="L22" s="397"/>
@@ -18536,17 +18539,17 @@
         <v>40</v>
       </c>
       <c r="C23" s="388" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D23" s="392"/>
       <c r="E23" s="402"/>
       <c r="F23" s="402"/>
       <c r="G23" s="402"/>
       <c r="H23" s="368" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I23" s="368" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="43"/>
@@ -18558,7 +18561,7 @@
         <v>42</v>
       </c>
       <c r="C24" s="388" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="16"/>
@@ -18576,7 +18579,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="388" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="16"/>
@@ -18594,7 +18597,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="388" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="16"/>
@@ -18612,7 +18615,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="388" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D27" s="48"/>
       <c r="E27" s="16"/>
@@ -18623,7 +18626,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="43"/>
       <c r="L27" s="398" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -18632,7 +18635,7 @@
         <v>50</v>
       </c>
       <c r="C28" s="388" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="16"/>
@@ -18650,7 +18653,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="388" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="16"/>
@@ -18668,7 +18671,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="388" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="16"/>
@@ -18677,7 +18680,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="368" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K30" s="43"/>
       <c r="L30" s="397"/>
@@ -18688,7 +18691,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="388" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="16"/>
@@ -18696,7 +18699,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="368"/>
       <c r="I31" s="368" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="43"/>
@@ -18708,7 +18711,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="388" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="16"/>
@@ -18726,7 +18729,7 @@
         <v>60</v>
       </c>
       <c r="C33" s="388" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="16"/>
@@ -18744,7 +18747,7 @@
         <v>62</v>
       </c>
       <c r="C34" s="388" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="16"/>
@@ -18762,7 +18765,7 @@
         <v>64</v>
       </c>
       <c r="C35" s="388" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="16"/>
@@ -18773,7 +18776,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="43"/>
       <c r="L35" s="398" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -18782,7 +18785,7 @@
         <v>66</v>
       </c>
       <c r="C36" s="388" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D36" s="48"/>
       <c r="E36" s="16"/>
@@ -18800,7 +18803,7 @@
         <v>68</v>
       </c>
       <c r="C37" s="388" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="16"/>
@@ -18818,7 +18821,7 @@
         <v>70</v>
       </c>
       <c r="C38" s="388" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="16"/>
@@ -18836,13 +18839,13 @@
         <v>72</v>
       </c>
       <c r="C39" s="388" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D39" s="392" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E39" s="402" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F39" s="402"/>
       <c r="G39" s="402"/>
@@ -18858,7 +18861,7 @@
         <v>74</v>
       </c>
       <c r="C40" s="388" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D40" s="48"/>
       <c r="E40" s="16"/>
@@ -18876,13 +18879,13 @@
         <v>76</v>
       </c>
       <c r="C41" s="388" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D41" s="392" t="s">
         <v>485</v>
       </c>
       <c r="E41" s="402" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F41" s="402"/>
       <c r="G41" s="402"/>
@@ -18898,7 +18901,7 @@
         <v>78</v>
       </c>
       <c r="C42" s="388" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D42" s="48"/>
       <c r="E42" s="16"/>
@@ -18916,7 +18919,7 @@
         <v>80</v>
       </c>
       <c r="C43" s="388" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D43" s="48"/>
       <c r="E43" s="16"/>
@@ -18927,7 +18930,7 @@
       <c r="J43" s="17"/>
       <c r="K43" s="43"/>
       <c r="L43" s="398" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -18936,7 +18939,7 @@
         <v>82</v>
       </c>
       <c r="C44" s="388" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D44" s="48"/>
       <c r="E44" s="16"/>
@@ -18954,7 +18957,7 @@
         <v>84</v>
       </c>
       <c r="C45" s="388" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D45" s="48"/>
       <c r="E45" s="16"/>
@@ -18972,7 +18975,7 @@
         <v>86</v>
       </c>
       <c r="C46" s="388" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="16"/>
@@ -18990,20 +18993,20 @@
         <v>88</v>
       </c>
       <c r="C47" s="388" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D47" s="392" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E47" s="402"/>
       <c r="F47" s="402"/>
       <c r="G47" s="404" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="368" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K47" s="43"/>
       <c r="L47" s="397"/>
@@ -19014,7 +19017,7 @@
         <v>90</v>
       </c>
       <c r="C48" s="388" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D48" s="48"/>
       <c r="E48" s="16"/>
@@ -19032,7 +19035,7 @@
         <v>92</v>
       </c>
       <c r="C49" s="388" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D49" s="48"/>
       <c r="E49" s="16"/>
@@ -19050,7 +19053,7 @@
         <v>94</v>
       </c>
       <c r="C50" s="388" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D50" s="48"/>
       <c r="E50" s="16"/>
@@ -19068,7 +19071,7 @@
         <v>96</v>
       </c>
       <c r="C51" s="388" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D51" s="48"/>
       <c r="E51" s="16"/>
@@ -19079,7 +19082,7 @@
       <c r="J51" s="17"/>
       <c r="K51" s="43"/>
       <c r="L51" s="398" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -19088,7 +19091,7 @@
         <v>98</v>
       </c>
       <c r="C52" s="388" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D52" s="48"/>
       <c r="E52" s="16"/>
@@ -19106,7 +19109,7 @@
         <v>100</v>
       </c>
       <c r="C53" s="388" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D53" s="48"/>
       <c r="E53" s="16"/>
@@ -19124,7 +19127,7 @@
         <v>102</v>
       </c>
       <c r="C54" s="388" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D54" s="48"/>
       <c r="E54" s="16"/>
@@ -19142,21 +19145,21 @@
         <v>104</v>
       </c>
       <c r="C55" s="388" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D55" s="392"/>
       <c r="E55" s="402" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F55" s="402"/>
       <c r="G55" s="402"/>
       <c r="H55" s="368" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I55" s="368"/>
       <c r="J55" s="17"/>
       <c r="K55" s="394" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L55" s="397"/>
     </row>
@@ -19166,7 +19169,7 @@
         <v>106</v>
       </c>
       <c r="C56" s="388" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D56" s="48"/>
       <c r="E56" s="16"/>
@@ -19184,7 +19187,7 @@
         <v>108</v>
       </c>
       <c r="C57" s="388" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D57" s="48"/>
       <c r="E57" s="16"/>
@@ -19202,7 +19205,7 @@
         <v>110</v>
       </c>
       <c r="C58" s="388" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D58" s="48"/>
       <c r="E58" s="16"/>
@@ -19231,7 +19234,7 @@
       <c r="J59" s="17"/>
       <c r="K59" s="43"/>
       <c r="L59" s="398" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -19240,7 +19243,7 @@
         <v>114</v>
       </c>
       <c r="C60" s="388" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D60" s="48"/>
       <c r="E60" s="16"/>
@@ -19258,20 +19261,20 @@
         <v>116</v>
       </c>
       <c r="C61" s="388" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D61" s="392" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E61" s="402" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F61" s="402"/>
       <c r="G61" s="402"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="368" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K61" s="43"/>
       <c r="L61" s="397"/>
@@ -19282,20 +19285,20 @@
         <v>118</v>
       </c>
       <c r="C62" s="388" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D62" s="392" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E62" s="402" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F62" s="402"/>
       <c r="G62" s="402"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="368" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K62" s="43"/>
       <c r="L62" s="397"/>
@@ -19306,7 +19309,7 @@
         <v>120</v>
       </c>
       <c r="C63" s="388" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D63" s="48"/>
       <c r="E63" s="16"/>
@@ -19324,7 +19327,7 @@
         <v>122</v>
       </c>
       <c r="C64" s="388" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D64" s="48"/>
       <c r="E64" s="16"/>
@@ -19342,7 +19345,7 @@
         <v>124</v>
       </c>
       <c r="C65" s="388" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D65" s="48"/>
       <c r="E65" s="16"/>
@@ -19360,7 +19363,7 @@
         <v>126</v>
       </c>
       <c r="C66" s="389" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D66" s="49"/>
       <c r="E66" s="20"/>

--- a/DOC/DEG2000.xlsx
+++ b/DOC/DEG2000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devel\1 DEG2000\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E86DE6C-E08A-4AD2-A288-40073CB82B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2426431E-4C8F-4056-AF0C-5BCAC653128A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="11100" firstSheet="4" activeTab="9" xr2:uid="{F91C61BF-F393-4C13-9000-551DF6FEF055}"/>
   </bookViews>
@@ -3093,9 +3093,6 @@
     <t>Pufferadresse ?</t>
   </si>
   <si>
-    <t>HS-Bereich !!!!</t>
-  </si>
-  <si>
     <t>K0.LPD</t>
   </si>
   <si>
@@ -3103,6 +3100,9 @@
   </si>
   <si>
     <t>Länge der Daten  im Puffer  10</t>
+  </si>
+  <si>
+    <t>Zähler für "Kmbg"</t>
   </si>
 </sst>
 </file>
@@ -8264,24 +8264,6 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="235" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="115" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="129" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="115" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="129" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="15" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8349,9 +8331,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="252" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="270" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="246" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8385,16 +8364,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="243" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="277" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="278" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="279" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8410,119 +8413,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -8576,24 +8524,88 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="184" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="192" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="200" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="178" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="201" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="180" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="181" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="188" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8602,25 +8614,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="203" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="179" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="176" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="180" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="181" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="200" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="178" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="179" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="188" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -8631,10 +8631,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="201" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="184" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="203" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="192" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="216" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8752,35 +8755,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="277" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="278" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="279" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="270" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="15" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="115" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="129" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="241" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="240" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9135,16 +9135,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="704" t="s">
+      <c r="F1" s="705" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="705"/>
-      <c r="H1" s="705"/>
-      <c r="I1" s="706" t="s">
+      <c r="G1" s="706"/>
+      <c r="H1" s="706"/>
+      <c r="I1" s="707" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="707"/>
-      <c r="K1" s="708"/>
+      <c r="J1" s="708"/>
+      <c r="K1" s="709"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -9486,7 +9486,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9532,46 +9532,46 @@
       <c r="K3" s="565"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="687"/>
-      <c r="C4" s="696"/>
-      <c r="D4" s="828" t="s">
+      <c r="B4" s="681"/>
+      <c r="C4" s="689"/>
+      <c r="D4" s="696" t="s">
+        <v>985</v>
+      </c>
+      <c r="E4" s="698">
+        <v>6</v>
+      </c>
+      <c r="F4" s="828">
+        <v>1</v>
+      </c>
+      <c r="G4" s="691" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="692"/>
+      <c r="I4" s="683"/>
+      <c r="J4" s="684"/>
+      <c r="K4" s="685"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="682"/>
+      <c r="C5" s="690"/>
+      <c r="D5" s="697" t="s">
+        <v>984</v>
+      </c>
+      <c r="E5" s="699">
+        <v>2</v>
+      </c>
+      <c r="F5" s="829">
+        <v>2</v>
+      </c>
+      <c r="G5" s="688" t="s">
         <v>986</v>
       </c>
-      <c r="E4" s="830">
-        <v>6</v>
-      </c>
-      <c r="F4" s="700">
-        <v>1</v>
-      </c>
-      <c r="G4" s="698" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="699"/>
-      <c r="I4" s="690"/>
-      <c r="J4" s="691"/>
-      <c r="K4" s="692"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="689"/>
-      <c r="C5" s="697"/>
-      <c r="D5" s="829" t="s">
-        <v>985</v>
-      </c>
-      <c r="E5" s="831">
-        <v>2</v>
-      </c>
-      <c r="F5" s="701">
-        <v>2</v>
-      </c>
-      <c r="G5" s="695" t="s">
-        <v>987</v>
-      </c>
-      <c r="H5" s="693"/>
-      <c r="I5" s="693"/>
-      <c r="J5" s="694" t="s">
+      <c r="H5" s="686"/>
+      <c r="I5" s="686"/>
+      <c r="J5" s="687" t="s">
         <v>407</v>
       </c>
-      <c r="K5" s="827" t="s">
+      <c r="K5" s="695" t="s">
         <v>408</v>
       </c>
     </row>
@@ -9585,10 +9585,10 @@
       <c r="D6" s="302" t="s">
         <v>343</v>
       </c>
-      <c r="E6" s="832">
+      <c r="E6" s="700">
         <v>0</v>
       </c>
-      <c r="F6" s="688">
+      <c r="F6" s="830">
         <v>3</v>
       </c>
       <c r="G6" s="397" t="s">
@@ -9609,8 +9609,8 @@
       <c r="B7" s="568"/>
       <c r="C7" s="298"/>
       <c r="D7" s="303"/>
-      <c r="E7" s="833"/>
-      <c r="F7" s="659"/>
+      <c r="E7" s="701"/>
+      <c r="F7" s="831"/>
       <c r="G7" s="259"/>
       <c r="H7" s="247"/>
       <c r="I7" s="220">
@@ -9625,8 +9625,8 @@
       <c r="B8" s="568"/>
       <c r="C8" s="298"/>
       <c r="D8" s="303"/>
-      <c r="E8" s="833"/>
-      <c r="F8" s="659"/>
+      <c r="E8" s="701"/>
+      <c r="F8" s="831"/>
       <c r="G8" s="259"/>
       <c r="H8" s="247">
         <v>1</v>
@@ -9641,8 +9641,8 @@
       <c r="B9" s="568"/>
       <c r="C9" s="298"/>
       <c r="D9" s="303"/>
-      <c r="E9" s="833"/>
-      <c r="F9" s="659"/>
+      <c r="E9" s="701"/>
+      <c r="F9" s="831"/>
       <c r="G9" s="259"/>
       <c r="H9" s="247"/>
       <c r="I9" s="220">
@@ -9657,8 +9657,8 @@
       <c r="B10" s="568"/>
       <c r="C10" s="298"/>
       <c r="D10" s="303"/>
-      <c r="E10" s="833"/>
-      <c r="F10" s="659"/>
+      <c r="E10" s="701"/>
+      <c r="F10" s="831"/>
       <c r="G10" s="259"/>
       <c r="H10" s="247">
         <v>2</v>
@@ -9675,8 +9675,8 @@
       <c r="B11" s="568"/>
       <c r="C11" s="298"/>
       <c r="D11" s="303"/>
-      <c r="E11" s="833"/>
-      <c r="F11" s="659"/>
+      <c r="E11" s="701"/>
+      <c r="F11" s="831"/>
       <c r="G11" s="259"/>
       <c r="H11" s="247"/>
       <c r="I11" s="220">
@@ -9691,8 +9691,8 @@
       <c r="B12" s="568"/>
       <c r="C12" s="298"/>
       <c r="D12" s="303"/>
-      <c r="E12" s="833"/>
-      <c r="F12" s="659"/>
+      <c r="E12" s="701"/>
+      <c r="F12" s="831"/>
       <c r="G12" s="259"/>
       <c r="H12" s="247">
         <v>3</v>
@@ -9703,7 +9703,7 @@
       <c r="J12" s="220" t="s">
         <v>354</v>
       </c>
-      <c r="K12" s="812" t="s">
+      <c r="K12" s="813" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9711,8 +9711,8 @@
       <c r="B13" s="568"/>
       <c r="C13" s="298"/>
       <c r="D13" s="303"/>
-      <c r="E13" s="833"/>
-      <c r="F13" s="659"/>
+      <c r="E13" s="701"/>
+      <c r="F13" s="831"/>
       <c r="G13" s="259"/>
       <c r="H13" s="247"/>
       <c r="I13" s="220">
@@ -9721,14 +9721,14 @@
       <c r="J13" s="220" t="s">
         <v>355</v>
       </c>
-      <c r="K13" s="812"/>
+      <c r="K13" s="813"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="570"/>
       <c r="C14" s="299"/>
       <c r="D14" s="35"/>
-      <c r="E14" s="834"/>
-      <c r="F14" s="660"/>
+      <c r="E14" s="702"/>
+      <c r="F14" s="832"/>
       <c r="G14" s="260"/>
       <c r="H14" s="248">
         <v>4</v>
@@ -9745,8 +9745,8 @@
       <c r="B15" s="570"/>
       <c r="C15" s="300"/>
       <c r="D15" s="304"/>
-      <c r="E15" s="834"/>
-      <c r="F15" s="660"/>
+      <c r="E15" s="702"/>
+      <c r="F15" s="832"/>
       <c r="G15" s="260"/>
       <c r="H15" s="248"/>
       <c r="I15" s="220">
@@ -9761,8 +9761,8 @@
       <c r="B16" s="570"/>
       <c r="C16" s="300"/>
       <c r="D16" s="304"/>
-      <c r="E16" s="834"/>
-      <c r="F16" s="660"/>
+      <c r="E16" s="702"/>
+      <c r="F16" s="832"/>
       <c r="G16" s="260"/>
       <c r="H16" s="248">
         <v>5</v>
@@ -9779,8 +9779,8 @@
       <c r="B17" s="570"/>
       <c r="C17" s="300"/>
       <c r="D17" s="304"/>
-      <c r="E17" s="834"/>
-      <c r="F17" s="660"/>
+      <c r="E17" s="702"/>
+      <c r="F17" s="832"/>
       <c r="G17" s="260"/>
       <c r="H17" s="248"/>
       <c r="I17" s="220">
@@ -9795,8 +9795,8 @@
       <c r="B18" s="570"/>
       <c r="C18" s="300"/>
       <c r="D18" s="304"/>
-      <c r="E18" s="834"/>
-      <c r="F18" s="660"/>
+      <c r="E18" s="702"/>
+      <c r="F18" s="832"/>
       <c r="G18" s="260"/>
       <c r="H18" s="248">
         <v>6</v>
@@ -9807,7 +9807,7 @@
       <c r="J18" s="220" t="s">
         <v>360</v>
       </c>
-      <c r="K18" s="812" t="s">
+      <c r="K18" s="813" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9815,8 +9815,8 @@
       <c r="B19" s="570"/>
       <c r="C19" s="300"/>
       <c r="D19" s="304"/>
-      <c r="E19" s="834"/>
-      <c r="F19" s="660"/>
+      <c r="E19" s="702"/>
+      <c r="F19" s="832"/>
       <c r="G19" s="260"/>
       <c r="H19" s="248"/>
       <c r="I19" s="220">
@@ -9825,14 +9825,14 @@
       <c r="J19" s="220" t="s">
         <v>361</v>
       </c>
-      <c r="K19" s="812"/>
+      <c r="K19" s="813"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="570"/>
       <c r="C20" s="300"/>
       <c r="D20" s="304"/>
-      <c r="E20" s="834"/>
-      <c r="F20" s="660"/>
+      <c r="E20" s="702"/>
+      <c r="F20" s="832"/>
       <c r="G20" s="260"/>
       <c r="H20" s="248">
         <v>7</v>
@@ -9849,8 +9849,8 @@
       <c r="B21" s="571"/>
       <c r="C21" s="301"/>
       <c r="D21" s="305"/>
-      <c r="E21" s="835"/>
-      <c r="F21" s="661"/>
+      <c r="E21" s="703"/>
+      <c r="F21" s="833"/>
       <c r="G21" s="261"/>
       <c r="H21" s="249"/>
       <c r="I21" s="222">
@@ -9871,10 +9871,10 @@
       <c r="D22" s="306" t="s">
         <v>343</v>
       </c>
-      <c r="E22" s="836">
+      <c r="E22" s="704">
         <v>1</v>
       </c>
-      <c r="F22" s="662">
+      <c r="F22" s="834">
         <v>4</v>
       </c>
       <c r="G22" s="262" t="s">
@@ -9889,8 +9889,8 @@
       <c r="B23" s="575"/>
       <c r="C23" s="237"/>
       <c r="D23" s="304"/>
-      <c r="E23" s="834"/>
-      <c r="F23" s="663"/>
+      <c r="E23" s="702"/>
+      <c r="F23" s="832"/>
       <c r="G23" s="263"/>
       <c r="H23" s="251"/>
       <c r="I23" s="224" t="s">
@@ -9905,8 +9905,8 @@
       <c r="B24" s="575"/>
       <c r="C24" s="237"/>
       <c r="D24" s="304"/>
-      <c r="E24" s="834"/>
-      <c r="F24" s="663"/>
+      <c r="E24" s="702"/>
+      <c r="F24" s="832"/>
       <c r="G24" s="263"/>
       <c r="H24" s="251"/>
       <c r="I24" s="224" t="s">
@@ -9921,8 +9921,8 @@
       <c r="B25" s="575"/>
       <c r="C25" s="237"/>
       <c r="D25" s="304"/>
-      <c r="E25" s="834"/>
-      <c r="F25" s="663"/>
+      <c r="E25" s="702"/>
+      <c r="F25" s="832"/>
       <c r="G25" s="263"/>
       <c r="H25" s="251"/>
       <c r="I25" s="224" t="s">
@@ -9937,8 +9937,8 @@
       <c r="B26" s="575"/>
       <c r="C26" s="237"/>
       <c r="D26" s="304"/>
-      <c r="E26" s="834"/>
-      <c r="F26" s="663"/>
+      <c r="E26" s="702"/>
+      <c r="F26" s="832"/>
       <c r="G26" s="263"/>
       <c r="H26" s="251"/>
       <c r="I26" s="224" t="s">
@@ -9953,8 +9953,8 @@
       <c r="B27" s="575"/>
       <c r="C27" s="237"/>
       <c r="D27" s="304"/>
-      <c r="E27" s="834"/>
-      <c r="F27" s="663"/>
+      <c r="E27" s="702"/>
+      <c r="F27" s="832"/>
       <c r="G27" s="263"/>
       <c r="H27" s="251"/>
       <c r="I27" s="224" t="s">
@@ -9969,8 +9969,8 @@
       <c r="B28" s="575"/>
       <c r="C28" s="237"/>
       <c r="D28" s="304"/>
-      <c r="E28" s="834"/>
-      <c r="F28" s="663"/>
+      <c r="E28" s="702"/>
+      <c r="F28" s="832"/>
       <c r="G28" s="263"/>
       <c r="H28" s="251"/>
       <c r="I28" s="224" t="s">
@@ -9985,8 +9985,8 @@
       <c r="B29" s="575"/>
       <c r="C29" s="237"/>
       <c r="D29" s="304"/>
-      <c r="E29" s="834"/>
-      <c r="F29" s="663"/>
+      <c r="E29" s="702"/>
+      <c r="F29" s="832"/>
       <c r="G29" s="263"/>
       <c r="H29" s="251"/>
       <c r="I29" s="224" t="s">
@@ -10001,8 +10001,8 @@
       <c r="B30" s="575"/>
       <c r="C30" s="237"/>
       <c r="D30" s="304"/>
-      <c r="E30" s="834"/>
-      <c r="F30" s="663"/>
+      <c r="E30" s="702"/>
+      <c r="F30" s="832"/>
       <c r="G30" s="263"/>
       <c r="H30" s="251"/>
       <c r="I30" s="224" t="s">
@@ -10017,8 +10017,8 @@
       <c r="B31" s="575"/>
       <c r="C31" s="237"/>
       <c r="D31" s="304"/>
-      <c r="E31" s="834"/>
-      <c r="F31" s="663"/>
+      <c r="E31" s="702"/>
+      <c r="F31" s="832"/>
       <c r="G31" s="263"/>
       <c r="H31" s="251"/>
       <c r="I31" s="224" t="s">
@@ -10033,8 +10033,8 @@
       <c r="B32" s="577"/>
       <c r="C32" s="238"/>
       <c r="D32" s="305"/>
-      <c r="E32" s="835"/>
-      <c r="F32" s="664"/>
+      <c r="E32" s="703"/>
+      <c r="F32" s="833"/>
       <c r="G32" s="264"/>
       <c r="H32" s="252"/>
       <c r="I32" s="225" t="s">
@@ -10049,16 +10049,14 @@
       <c r="B33" s="579" t="s">
         <v>332</v>
       </c>
-      <c r="C33" s="702">
+      <c r="C33" s="693">
         <v>2</v>
       </c>
       <c r="D33" s="306" t="s">
         <v>343</v>
       </c>
-      <c r="E33" s="601">
-        <v>3</v>
-      </c>
-      <c r="F33" s="665"/>
+      <c r="E33" s="601"/>
+      <c r="F33" s="659"/>
       <c r="G33" s="265" t="s">
         <v>332</v>
       </c>
@@ -10067,7 +10065,7 @@
       <c r="J33" s="228" t="s">
         <v>385</v>
       </c>
-      <c r="K33" s="703"/>
+      <c r="K33" s="694"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="582" t="s">
@@ -10079,10 +10077,8 @@
       <c r="D34" s="305" t="s">
         <v>343</v>
       </c>
-      <c r="E34" s="603">
-        <v>4</v>
-      </c>
-      <c r="F34" s="667"/>
+      <c r="E34" s="603"/>
+      <c r="F34" s="661"/>
       <c r="G34" s="266" t="s">
         <v>333</v>
       </c>
@@ -10103,10 +10099,8 @@
       <c r="D35" s="306" t="s">
         <v>343</v>
       </c>
-      <c r="E35" s="604">
-        <v>5</v>
-      </c>
-      <c r="F35" s="668"/>
+      <c r="E35" s="604"/>
+      <c r="F35" s="662"/>
       <c r="G35" s="267" t="s">
         <v>334</v>
       </c>
@@ -10120,7 +10114,7 @@
       <c r="C36" s="235"/>
       <c r="D36" s="304"/>
       <c r="E36" s="605"/>
-      <c r="F36" s="669"/>
+      <c r="F36" s="663"/>
       <c r="G36" s="260"/>
       <c r="H36" s="248"/>
       <c r="I36" s="220" t="s">
@@ -10136,7 +10130,7 @@
       <c r="C37" s="235"/>
       <c r="D37" s="304"/>
       <c r="E37" s="605"/>
-      <c r="F37" s="669"/>
+      <c r="F37" s="663"/>
       <c r="G37" s="260"/>
       <c r="H37" s="248"/>
       <c r="I37" s="220" t="s">
@@ -10154,7 +10148,7 @@
       <c r="C38" s="235"/>
       <c r="D38" s="304"/>
       <c r="E38" s="605"/>
-      <c r="F38" s="669"/>
+      <c r="F38" s="663"/>
       <c r="G38" s="260"/>
       <c r="H38" s="248"/>
       <c r="I38" s="220" t="s">
@@ -10170,7 +10164,7 @@
       <c r="C39" s="235"/>
       <c r="D39" s="304"/>
       <c r="E39" s="605"/>
-      <c r="F39" s="669"/>
+      <c r="F39" s="663"/>
       <c r="G39" s="260"/>
       <c r="H39" s="248"/>
       <c r="I39" s="220" t="s">
@@ -10186,7 +10180,7 @@
       <c r="C40" s="235"/>
       <c r="D40" s="304"/>
       <c r="E40" s="605"/>
-      <c r="F40" s="669"/>
+      <c r="F40" s="663"/>
       <c r="G40" s="260"/>
       <c r="H40" s="248"/>
       <c r="I40" s="220" t="s">
@@ -10202,7 +10196,7 @@
       <c r="C41" s="235"/>
       <c r="D41" s="304"/>
       <c r="E41" s="605"/>
-      <c r="F41" s="669"/>
+      <c r="F41" s="663"/>
       <c r="G41" s="260"/>
       <c r="H41" s="248"/>
       <c r="I41" s="220" t="s">
@@ -10218,7 +10212,7 @@
       <c r="C42" s="235"/>
       <c r="D42" s="304"/>
       <c r="E42" s="605"/>
-      <c r="F42" s="669"/>
+      <c r="F42" s="663"/>
       <c r="G42" s="260"/>
       <c r="H42" s="248"/>
       <c r="I42" s="220" t="s">
@@ -10234,7 +10228,7 @@
       <c r="C43" s="235"/>
       <c r="D43" s="304"/>
       <c r="E43" s="605"/>
-      <c r="F43" s="669"/>
+      <c r="F43" s="663"/>
       <c r="G43" s="260"/>
       <c r="H43" s="248"/>
       <c r="I43" s="220" t="s">
@@ -10250,7 +10244,7 @@
       <c r="C44" s="235"/>
       <c r="D44" s="304"/>
       <c r="E44" s="605"/>
-      <c r="F44" s="669"/>
+      <c r="F44" s="663"/>
       <c r="G44" s="260"/>
       <c r="H44" s="248"/>
       <c r="I44" s="220" t="s">
@@ -10266,7 +10260,7 @@
       <c r="C45" s="235"/>
       <c r="D45" s="304"/>
       <c r="E45" s="605"/>
-      <c r="F45" s="669"/>
+      <c r="F45" s="663"/>
       <c r="G45" s="260"/>
       <c r="H45" s="248"/>
       <c r="I45" s="220" t="s">
@@ -10282,7 +10276,7 @@
       <c r="C46" s="242"/>
       <c r="D46" s="307"/>
       <c r="E46" s="606"/>
-      <c r="F46" s="670"/>
+      <c r="F46" s="664"/>
       <c r="G46" s="268"/>
       <c r="H46" s="257"/>
       <c r="I46" s="227" t="s">
@@ -10301,13 +10295,9 @@
         <v>5</v>
       </c>
       <c r="D47" s="308"/>
-      <c r="E47" s="602">
-        <v>6</v>
-      </c>
-      <c r="F47" s="666"/>
-      <c r="G47" s="686" t="s">
-        <v>984</v>
-      </c>
+      <c r="E47" s="602"/>
+      <c r="F47" s="660"/>
+      <c r="G47" s="680"/>
       <c r="H47" s="254"/>
       <c r="I47" s="229"/>
       <c r="J47" s="229"/>
@@ -10322,7 +10312,7 @@
       </c>
       <c r="D48" s="304"/>
       <c r="E48" s="607"/>
-      <c r="F48" s="671"/>
+      <c r="F48" s="665"/>
       <c r="G48" s="269"/>
       <c r="H48" s="258"/>
       <c r="I48" s="231"/>
@@ -10342,7 +10332,7 @@
       <c r="E49" s="607">
         <v>7</v>
       </c>
-      <c r="F49" s="671"/>
+      <c r="F49" s="665"/>
       <c r="G49" s="269" t="s">
         <v>338</v>
       </c>
@@ -10364,7 +10354,7 @@
       <c r="E50" s="608">
         <v>8</v>
       </c>
-      <c r="F50" s="672"/>
+      <c r="F50" s="666"/>
       <c r="G50" s="270" t="s">
         <v>344</v>
       </c>
@@ -10382,7 +10372,7 @@
       </c>
       <c r="D51" s="310"/>
       <c r="E51" s="245"/>
-      <c r="F51" s="673"/>
+      <c r="F51" s="667"/>
       <c r="G51" s="269"/>
       <c r="H51" s="258"/>
       <c r="I51" s="231"/>
@@ -10398,7 +10388,7 @@
       </c>
       <c r="D52" s="310"/>
       <c r="E52" s="245"/>
-      <c r="F52" s="673"/>
+      <c r="F52" s="667"/>
       <c r="G52" s="269"/>
       <c r="H52" s="258"/>
       <c r="I52" s="231"/>
@@ -10414,7 +10404,7 @@
       </c>
       <c r="D53" s="310"/>
       <c r="E53" s="245"/>
-      <c r="F53" s="673"/>
+      <c r="F53" s="667"/>
       <c r="G53" s="269"/>
       <c r="H53" s="258"/>
       <c r="I53" s="231"/>
@@ -10430,7 +10420,7 @@
       </c>
       <c r="D54" s="310"/>
       <c r="E54" s="245"/>
-      <c r="F54" s="673"/>
+      <c r="F54" s="667"/>
       <c r="G54" s="269"/>
       <c r="H54" s="258"/>
       <c r="I54" s="231"/>
@@ -10438,13 +10428,15 @@
       <c r="K54" s="590"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="592"/>
+      <c r="B55" s="835" t="s">
+        <v>987</v>
+      </c>
       <c r="C55" s="244">
         <v>13</v>
       </c>
       <c r="D55" s="310"/>
       <c r="E55" s="245"/>
-      <c r="F55" s="673"/>
+      <c r="F55" s="667"/>
       <c r="G55" s="269"/>
       <c r="H55" s="258"/>
       <c r="I55" s="231"/>
@@ -10452,13 +10444,13 @@
       <c r="K55" s="590"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="592"/>
+      <c r="B56" s="836"/>
       <c r="C56" s="244">
         <v>14</v>
       </c>
       <c r="D56" s="310"/>
       <c r="E56" s="245"/>
-      <c r="F56" s="673"/>
+      <c r="F56" s="667"/>
       <c r="G56" s="269"/>
       <c r="H56" s="258"/>
       <c r="I56" s="231"/>
@@ -10472,7 +10464,7 @@
       </c>
       <c r="D57" s="310"/>
       <c r="E57" s="245"/>
-      <c r="F57" s="673"/>
+      <c r="F57" s="667"/>
       <c r="G57" s="269"/>
       <c r="H57" s="258"/>
       <c r="I57" s="231"/>
@@ -10486,7 +10478,7 @@
       </c>
       <c r="D58" s="310"/>
       <c r="E58" s="245"/>
-      <c r="F58" s="673"/>
+      <c r="F58" s="667"/>
       <c r="G58" s="269"/>
       <c r="H58" s="258"/>
       <c r="I58" s="231"/>
@@ -10502,7 +10494,7 @@
       </c>
       <c r="D59" s="310"/>
       <c r="E59" s="245"/>
-      <c r="F59" s="673"/>
+      <c r="F59" s="667"/>
       <c r="G59" s="269"/>
       <c r="H59" s="258"/>
       <c r="I59" s="231"/>
@@ -10516,7 +10508,7 @@
       </c>
       <c r="D60" s="310"/>
       <c r="E60" s="245"/>
-      <c r="F60" s="673"/>
+      <c r="F60" s="667"/>
       <c r="G60" s="269"/>
       <c r="H60" s="258"/>
       <c r="I60" s="231"/>
@@ -10530,7 +10522,7 @@
       </c>
       <c r="D61" s="310"/>
       <c r="E61" s="245"/>
-      <c r="F61" s="673"/>
+      <c r="F61" s="667"/>
       <c r="G61" s="269"/>
       <c r="H61" s="258"/>
       <c r="I61" s="231"/>
@@ -10544,7 +10536,7 @@
       </c>
       <c r="D62" s="310"/>
       <c r="E62" s="245"/>
-      <c r="F62" s="673"/>
+      <c r="F62" s="667"/>
       <c r="G62" s="269"/>
       <c r="H62" s="258"/>
       <c r="I62" s="231"/>
@@ -10560,7 +10552,7 @@
       </c>
       <c r="D63" s="310"/>
       <c r="E63" s="245"/>
-      <c r="F63" s="673"/>
+      <c r="F63" s="667"/>
       <c r="G63" s="269"/>
       <c r="H63" s="258"/>
       <c r="I63" s="231"/>
@@ -10574,7 +10566,7 @@
       </c>
       <c r="D64" s="310"/>
       <c r="E64" s="245"/>
-      <c r="F64" s="673"/>
+      <c r="F64" s="667"/>
       <c r="G64" s="269"/>
       <c r="H64" s="258"/>
       <c r="I64" s="231"/>
@@ -10590,7 +10582,7 @@
       </c>
       <c r="D65" s="310"/>
       <c r="E65" s="245"/>
-      <c r="F65" s="673"/>
+      <c r="F65" s="667"/>
       <c r="G65" s="269"/>
       <c r="H65" s="258"/>
       <c r="I65" s="231"/>
@@ -10604,7 +10596,7 @@
       </c>
       <c r="D66" s="310"/>
       <c r="E66" s="245"/>
-      <c r="F66" s="673"/>
+      <c r="F66" s="667"/>
       <c r="G66" s="269"/>
       <c r="H66" s="258"/>
       <c r="I66" s="231"/>
@@ -10620,7 +10612,7 @@
       </c>
       <c r="D67" s="310"/>
       <c r="E67" s="245"/>
-      <c r="F67" s="673"/>
+      <c r="F67" s="667"/>
       <c r="G67" s="269"/>
       <c r="H67" s="258"/>
       <c r="I67" s="231"/>
@@ -10636,7 +10628,7 @@
       </c>
       <c r="D68" s="310"/>
       <c r="E68" s="245"/>
-      <c r="F68" s="673"/>
+      <c r="F68" s="667"/>
       <c r="G68" s="269"/>
       <c r="H68" s="258"/>
       <c r="I68" s="231"/>
@@ -10650,7 +10642,7 @@
       </c>
       <c r="D69" s="310"/>
       <c r="E69" s="245"/>
-      <c r="F69" s="673"/>
+      <c r="F69" s="667"/>
       <c r="G69" s="269"/>
       <c r="H69" s="258"/>
       <c r="I69" s="231"/>
@@ -10664,7 +10656,7 @@
       <c r="E70" s="609" t="s">
         <v>342</v>
       </c>
-      <c r="F70" s="674"/>
+      <c r="F70" s="668"/>
       <c r="G70" s="555" t="s">
         <v>827</v>
       </c>
@@ -10686,7 +10678,7 @@
       <c r="E71" s="610" t="s">
         <v>819</v>
       </c>
-      <c r="F71" s="675">
+      <c r="F71" s="669">
         <v>1</v>
       </c>
       <c r="G71" s="260" t="s">
@@ -10708,7 +10700,7 @@
       <c r="E72" s="611" t="s">
         <v>820</v>
       </c>
-      <c r="F72" s="675">
+      <c r="F72" s="669">
         <v>2</v>
       </c>
       <c r="G72" s="260" t="s">
@@ -10728,7 +10720,7 @@
       <c r="E73" s="612" t="s">
         <v>821</v>
       </c>
-      <c r="F73" s="676">
+      <c r="F73" s="670">
         <v>3</v>
       </c>
       <c r="G73" s="261" t="s">
@@ -10750,7 +10742,7 @@
       <c r="E74" s="613" t="s">
         <v>822</v>
       </c>
-      <c r="F74" s="677">
+      <c r="F74" s="671">
         <v>4</v>
       </c>
       <c r="G74" s="394" t="s">
@@ -10767,14 +10759,14 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="580"/>
-      <c r="C75" s="813">
+      <c r="C75" s="814">
         <v>31</v>
       </c>
       <c r="D75" s="621"/>
       <c r="E75" s="631" t="s">
         <v>845</v>
       </c>
-      <c r="F75" s="816">
+      <c r="F75" s="817">
         <v>4</v>
       </c>
       <c r="G75" s="632" t="s">
@@ -10789,12 +10781,12 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="589"/>
-      <c r="C76" s="814"/>
+      <c r="C76" s="815"/>
       <c r="D76" s="39"/>
       <c r="E76" s="636" t="s">
         <v>268</v>
       </c>
-      <c r="F76" s="817"/>
+      <c r="F76" s="818"/>
       <c r="G76" s="637" t="s">
         <v>832</v>
       </c>
@@ -10807,12 +10799,12 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="589"/>
-      <c r="C77" s="815"/>
+      <c r="C77" s="816"/>
       <c r="D77" s="39"/>
       <c r="E77" s="636" t="s">
         <v>268</v>
       </c>
-      <c r="F77" s="818"/>
+      <c r="F77" s="819"/>
       <c r="G77" s="637" t="s">
         <v>834</v>
       </c>
@@ -10832,7 +10824,7 @@
       <c r="E78" s="641" t="s">
         <v>823</v>
       </c>
-      <c r="F78" s="679">
+      <c r="F78" s="673">
         <v>5</v>
       </c>
       <c r="G78" s="642" t="s">
@@ -10856,7 +10848,7 @@
       <c r="E79" s="617" t="s">
         <v>829</v>
       </c>
-      <c r="F79" s="680">
+      <c r="F79" s="674">
         <v>4</v>
       </c>
       <c r="G79" s="391" t="s">
@@ -10878,7 +10870,7 @@
       <c r="E80" s="614" t="s">
         <v>823</v>
       </c>
-      <c r="F80" s="681">
+      <c r="F80" s="675">
         <v>5</v>
       </c>
       <c r="G80" s="382" t="s">
@@ -10900,7 +10892,7 @@
       <c r="E81" s="615" t="s">
         <v>824</v>
       </c>
-      <c r="F81" s="682">
+      <c r="F81" s="676">
         <v>6</v>
       </c>
       <c r="G81" s="385" t="s">
@@ -10922,7 +10914,7 @@
       <c r="E82" s="616" t="s">
         <v>825</v>
       </c>
-      <c r="F82" s="683">
+      <c r="F82" s="677">
         <v>7</v>
       </c>
       <c r="G82" s="388" t="s">
@@ -10946,7 +10938,7 @@
       <c r="E83" s="646" t="s">
         <v>822</v>
       </c>
-      <c r="F83" s="684">
+      <c r="F83" s="678">
         <v>4</v>
       </c>
       <c r="G83" s="647" t="s">
@@ -10968,7 +10960,7 @@
       <c r="E84" s="636" t="s">
         <v>823</v>
       </c>
-      <c r="F84" s="678">
+      <c r="F84" s="672">
         <v>5</v>
       </c>
       <c r="G84" s="651" t="s">
@@ -10990,7 +10982,7 @@
       <c r="E85" s="636" t="s">
         <v>824</v>
       </c>
-      <c r="F85" s="678">
+      <c r="F85" s="672">
         <v>6</v>
       </c>
       <c r="G85" s="651" t="s">
@@ -11012,7 +11004,7 @@
       <c r="E86" s="636" t="s">
         <v>825</v>
       </c>
-      <c r="F86" s="678">
+      <c r="F86" s="672">
         <v>7</v>
       </c>
       <c r="G86" s="651" t="s">
@@ -11034,7 +11026,7 @@
       <c r="E87" s="652" t="s">
         <v>826</v>
       </c>
-      <c r="F87" s="685">
+      <c r="F87" s="679">
         <v>8</v>
       </c>
       <c r="G87" s="653" t="s">
@@ -11062,11 +11054,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="F75:F77"/>
+    <mergeCell ref="B55:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12556,22 +12549,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="819"/>
-      <c r="C2" s="819"/>
-      <c r="D2" s="819"/>
-      <c r="E2" s="819"/>
-      <c r="F2" s="819"/>
-      <c r="G2" s="819"/>
+      <c r="B2" s="820"/>
+      <c r="C2" s="820"/>
+      <c r="D2" s="820"/>
+      <c r="E2" s="820"/>
+      <c r="F2" s="820"/>
+      <c r="G2" s="820"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="820" t="s">
+      <c r="B3" s="821" t="s">
         <v>855</v>
       </c>
-      <c r="C3" s="821"/>
-      <c r="D3" s="821"/>
-      <c r="E3" s="821"/>
-      <c r="F3" s="821"/>
-      <c r="G3" s="822"/>
+      <c r="C3" s="822"/>
+      <c r="D3" s="822"/>
+      <c r="E3" s="822"/>
+      <c r="F3" s="822"/>
+      <c r="G3" s="823"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="398" t="s">
@@ -12630,14 +12623,14 @@
       <c r="G7" s="216"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="823" t="s">
+      <c r="B8" s="824" t="s">
         <v>856</v>
       </c>
-      <c r="C8" s="824"/>
-      <c r="D8" s="824"/>
-      <c r="E8" s="824"/>
-      <c r="F8" s="824"/>
-      <c r="G8" s="825"/>
+      <c r="C8" s="825"/>
+      <c r="D8" s="825"/>
+      <c r="E8" s="825"/>
+      <c r="F8" s="825"/>
+      <c r="G8" s="826"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="398" t="s">
@@ -12696,14 +12689,14 @@
       <c r="G12" s="216"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="823" t="s">
+      <c r="B13" s="824" t="s">
         <v>857</v>
       </c>
-      <c r="C13" s="824"/>
-      <c r="D13" s="824"/>
-      <c r="E13" s="824"/>
-      <c r="F13" s="824"/>
-      <c r="G13" s="825"/>
+      <c r="C13" s="825"/>
+      <c r="D13" s="825"/>
+      <c r="E13" s="825"/>
+      <c r="F13" s="825"/>
+      <c r="G13" s="826"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="398" t="s">
@@ -12762,14 +12755,14 @@
       <c r="G17" s="216"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="823" t="s">
+      <c r="B18" s="824" t="s">
         <v>858</v>
       </c>
-      <c r="C18" s="824"/>
-      <c r="D18" s="824"/>
-      <c r="E18" s="824"/>
-      <c r="F18" s="824"/>
-      <c r="G18" s="825"/>
+      <c r="C18" s="825"/>
+      <c r="D18" s="825"/>
+      <c r="E18" s="825"/>
+      <c r="F18" s="825"/>
+      <c r="G18" s="826"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="398" t="s">
@@ -12860,24 +12853,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="819" t="s">
+      <c r="B2" s="820" t="s">
         <v>868</v>
       </c>
-      <c r="C2" s="826"/>
-      <c r="D2" s="826"/>
-      <c r="E2" s="826"/>
-      <c r="F2" s="826"/>
-      <c r="G2" s="826"/>
+      <c r="C2" s="827"/>
+      <c r="D2" s="827"/>
+      <c r="E2" s="827"/>
+      <c r="F2" s="827"/>
+      <c r="G2" s="827"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="820" t="s">
+      <c r="B3" s="821" t="s">
         <v>855</v>
       </c>
-      <c r="C3" s="821"/>
-      <c r="D3" s="821"/>
-      <c r="E3" s="821"/>
-      <c r="F3" s="821"/>
-      <c r="G3" s="822"/>
+      <c r="C3" s="822"/>
+      <c r="D3" s="822"/>
+      <c r="E3" s="822"/>
+      <c r="F3" s="822"/>
+      <c r="G3" s="823"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="425" t="s">
@@ -12956,14 +12949,14 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="823" t="s">
+      <c r="B8" s="824" t="s">
         <v>856</v>
       </c>
-      <c r="C8" s="824"/>
-      <c r="D8" s="824"/>
-      <c r="E8" s="824"/>
-      <c r="F8" s="824"/>
-      <c r="G8" s="825"/>
+      <c r="C8" s="825"/>
+      <c r="D8" s="825"/>
+      <c r="E8" s="825"/>
+      <c r="F8" s="825"/>
+      <c r="G8" s="826"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="407" t="s">
@@ -13022,14 +13015,14 @@
       <c r="G12" s="424"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="823" t="s">
+      <c r="B13" s="824" t="s">
         <v>857</v>
       </c>
-      <c r="C13" s="824"/>
-      <c r="D13" s="824"/>
-      <c r="E13" s="824"/>
-      <c r="F13" s="824"/>
-      <c r="G13" s="825"/>
+      <c r="C13" s="825"/>
+      <c r="D13" s="825"/>
+      <c r="E13" s="825"/>
+      <c r="F13" s="825"/>
+      <c r="G13" s="826"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="407" t="s">
@@ -13088,14 +13081,14 @@
       <c r="G17" s="424"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="823" t="s">
+      <c r="B18" s="824" t="s">
         <v>858</v>
       </c>
-      <c r="C18" s="824"/>
-      <c r="D18" s="824"/>
-      <c r="E18" s="824"/>
-      <c r="F18" s="824"/>
-      <c r="G18" s="825"/>
+      <c r="C18" s="825"/>
+      <c r="D18" s="825"/>
+      <c r="E18" s="825"/>
+      <c r="F18" s="825"/>
+      <c r="G18" s="826"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="407" t="s">
@@ -13200,29 +13193,29 @@
       <c r="L3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="726">
+      <c r="M3" s="718">
         <v>0</v>
       </c>
-      <c r="N3" s="748"/>
-      <c r="O3" s="726" t="s">
+      <c r="N3" s="732"/>
+      <c r="O3" s="718" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="736"/>
-      <c r="Q3" s="736"/>
-      <c r="R3" s="736"/>
-      <c r="S3" s="736"/>
-      <c r="T3" s="737"/>
-      <c r="U3" s="709">
+      <c r="P3" s="719"/>
+      <c r="Q3" s="719"/>
+      <c r="R3" s="719"/>
+      <c r="S3" s="719"/>
+      <c r="T3" s="720"/>
+      <c r="U3" s="730">
         <v>2</v>
       </c>
-      <c r="V3" s="709">
+      <c r="V3" s="730">
         <v>3</v>
       </c>
-      <c r="W3" s="726">
+      <c r="W3" s="718">
         <v>4</v>
       </c>
-      <c r="X3" s="727"/>
-      <c r="Y3" s="709">
+      <c r="X3" s="765"/>
+      <c r="Y3" s="730">
         <v>5</v>
       </c>
     </row>
@@ -13250,22 +13243,22 @@
       <c r="T4" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="747"/>
-      <c r="V4" s="747"/>
-      <c r="W4" s="728" t="s">
+      <c r="U4" s="731"/>
+      <c r="V4" s="731"/>
+      <c r="W4" s="766" t="s">
         <v>323</v>
       </c>
-      <c r="X4" s="729"/>
-      <c r="Y4" s="710"/>
+      <c r="X4" s="767"/>
+      <c r="Y4" s="749"/>
     </row>
     <row r="5" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L5" s="765" t="s">
+      <c r="L5" s="710" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="733" t="s">
+      <c r="M5" s="715" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="749" t="s">
+      <c r="N5" s="733" t="s">
         <v>327</v>
       </c>
       <c r="O5" s="61"/>
@@ -13278,26 +13271,26 @@
       <c r="T5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="741" t="s">
+      <c r="U5" s="724" t="s">
         <v>475</v>
       </c>
-      <c r="V5" s="744" t="s">
+      <c r="V5" s="727" t="s">
         <v>326</v>
       </c>
-      <c r="W5" s="720" t="s">
+      <c r="W5" s="759" t="s">
         <v>314</v>
       </c>
-      <c r="X5" s="724" t="s">
+      <c r="X5" s="763" t="s">
         <v>315</v>
       </c>
-      <c r="Y5" s="711" t="s">
+      <c r="Y5" s="750" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L6" s="766"/>
-      <c r="M6" s="734"/>
-      <c r="N6" s="750"/>
+      <c r="L6" s="711"/>
+      <c r="M6" s="716"/>
+      <c r="N6" s="734"/>
       <c r="O6" s="64"/>
       <c r="P6" s="65"/>
       <c r="Q6" s="65"/>
@@ -13306,16 +13299,16 @@
       <c r="T6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="742"/>
-      <c r="V6" s="745"/>
-      <c r="W6" s="721"/>
-      <c r="X6" s="725"/>
-      <c r="Y6" s="712"/>
+      <c r="U6" s="725"/>
+      <c r="V6" s="728"/>
+      <c r="W6" s="760"/>
+      <c r="X6" s="764"/>
+      <c r="Y6" s="751"/>
     </row>
     <row r="7" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L7" s="766"/>
-      <c r="M7" s="734"/>
-      <c r="N7" s="751"/>
+      <c r="L7" s="711"/>
+      <c r="M7" s="716"/>
+      <c r="N7" s="735"/>
       <c r="O7" s="64"/>
       <c r="P7" s="65"/>
       <c r="Q7" s="65"/>
@@ -13324,18 +13317,18 @@
       <c r="T7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="742"/>
-      <c r="V7" s="745"/>
-      <c r="W7" s="722"/>
-      <c r="X7" s="730" t="s">
+      <c r="U7" s="725"/>
+      <c r="V7" s="728"/>
+      <c r="W7" s="761"/>
+      <c r="X7" s="768" t="s">
         <v>320</v>
       </c>
-      <c r="Y7" s="712"/>
+      <c r="Y7" s="751"/>
     </row>
     <row r="8" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L8" s="767"/>
-      <c r="M8" s="734"/>
-      <c r="N8" s="754" t="s">
+      <c r="L8" s="712"/>
+      <c r="M8" s="716"/>
+      <c r="N8" s="738" t="s">
         <v>312</v>
       </c>
       <c r="O8" s="108"/>
@@ -13348,18 +13341,18 @@
       <c r="T8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="742"/>
-      <c r="V8" s="745"/>
-      <c r="W8" s="722"/>
-      <c r="X8" s="731"/>
-      <c r="Y8" s="712"/>
+      <c r="U8" s="725"/>
+      <c r="V8" s="728"/>
+      <c r="W8" s="761"/>
+      <c r="X8" s="769"/>
+      <c r="Y8" s="751"/>
     </row>
     <row r="9" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L9" s="765" t="s">
+      <c r="L9" s="710" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="734"/>
-      <c r="N9" s="755"/>
+      <c r="M9" s="716"/>
+      <c r="N9" s="739"/>
       <c r="O9" s="61"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
@@ -13370,18 +13363,18 @@
       <c r="T9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="742"/>
-      <c r="V9" s="745"/>
-      <c r="W9" s="722"/>
-      <c r="X9" s="725" t="s">
+      <c r="U9" s="725"/>
+      <c r="V9" s="728"/>
+      <c r="W9" s="761"/>
+      <c r="X9" s="764" t="s">
         <v>319</v>
       </c>
-      <c r="Y9" s="712"/>
+      <c r="Y9" s="751"/>
     </row>
     <row r="10" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L10" s="766"/>
-      <c r="M10" s="734"/>
-      <c r="N10" s="755"/>
+      <c r="L10" s="711"/>
+      <c r="M10" s="716"/>
+      <c r="N10" s="739"/>
       <c r="O10" s="64"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="65"/>
@@ -13390,16 +13383,16 @@
       <c r="T10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="742"/>
-      <c r="V10" s="745"/>
-      <c r="W10" s="722"/>
-      <c r="X10" s="732"/>
-      <c r="Y10" s="712"/>
+      <c r="U10" s="725"/>
+      <c r="V10" s="728"/>
+      <c r="W10" s="761"/>
+      <c r="X10" s="770"/>
+      <c r="Y10" s="751"/>
     </row>
     <row r="11" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L11" s="766"/>
-      <c r="M11" s="734"/>
-      <c r="N11" s="756"/>
+      <c r="L11" s="711"/>
+      <c r="M11" s="716"/>
+      <c r="N11" s="740"/>
       <c r="O11" s="64"/>
       <c r="P11" s="65"/>
       <c r="Q11" s="65"/>
@@ -13408,18 +13401,18 @@
       <c r="T11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="742"/>
-      <c r="V11" s="745"/>
-      <c r="W11" s="722"/>
-      <c r="X11" s="730" t="s">
+      <c r="U11" s="725"/>
+      <c r="V11" s="728"/>
+      <c r="W11" s="761"/>
+      <c r="X11" s="768" t="s">
         <v>318</v>
       </c>
-      <c r="Y11" s="712"/>
+      <c r="Y11" s="751"/>
     </row>
     <row r="12" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L12" s="767"/>
-      <c r="M12" s="734"/>
-      <c r="N12" s="752" t="s">
+      <c r="L12" s="712"/>
+      <c r="M12" s="716"/>
+      <c r="N12" s="736" t="s">
         <v>311</v>
       </c>
       <c r="O12" s="80"/>
@@ -13432,19 +13425,19 @@
       <c r="T12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="742"/>
-      <c r="V12" s="745"/>
-      <c r="W12" s="722"/>
-      <c r="X12" s="731"/>
-      <c r="Y12" s="712"/>
+      <c r="U12" s="725"/>
+      <c r="V12" s="728"/>
+      <c r="W12" s="761"/>
+      <c r="X12" s="769"/>
+      <c r="Y12" s="751"/>
       <c r="Z12" s="203"/>
     </row>
     <row r="13" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L13" s="765" t="s">
+      <c r="L13" s="710" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="734"/>
-      <c r="N13" s="753"/>
+      <c r="M13" s="716"/>
+      <c r="N13" s="737"/>
       <c r="O13" s="106"/>
       <c r="P13" s="107"/>
       <c r="Q13" s="107"/>
@@ -13455,18 +13448,18 @@
       <c r="T13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="742"/>
-      <c r="V13" s="745"/>
-      <c r="W13" s="722"/>
-      <c r="X13" s="725" t="s">
+      <c r="U13" s="725"/>
+      <c r="V13" s="728"/>
+      <c r="W13" s="761"/>
+      <c r="X13" s="764" t="s">
         <v>317</v>
       </c>
-      <c r="Y13" s="712"/>
+      <c r="Y13" s="751"/>
       <c r="Z13" s="204"/>
     </row>
     <row r="14" spans="12:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="766"/>
-      <c r="M14" s="734"/>
+      <c r="L14" s="711"/>
+      <c r="M14" s="716"/>
       <c r="N14" s="208"/>
       <c r="O14" s="64"/>
       <c r="P14" s="65"/>
@@ -13476,16 +13469,16 @@
       <c r="T14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="742"/>
-      <c r="V14" s="745"/>
-      <c r="W14" s="722"/>
-      <c r="X14" s="732"/>
-      <c r="Y14" s="712"/>
+      <c r="U14" s="725"/>
+      <c r="V14" s="728"/>
+      <c r="W14" s="761"/>
+      <c r="X14" s="770"/>
+      <c r="Y14" s="751"/>
       <c r="Z14" s="204"/>
     </row>
     <row r="15" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L15" s="766"/>
-      <c r="M15" s="734"/>
+      <c r="L15" s="711"/>
+      <c r="M15" s="716"/>
       <c r="N15" s="209"/>
       <c r="O15" s="64"/>
       <c r="P15" s="65"/>
@@ -13495,18 +13488,18 @@
       <c r="T15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="742"/>
-      <c r="V15" s="745"/>
-      <c r="W15" s="722"/>
-      <c r="X15" s="730" t="s">
+      <c r="U15" s="725"/>
+      <c r="V15" s="728"/>
+      <c r="W15" s="761"/>
+      <c r="X15" s="768" t="s">
         <v>316</v>
       </c>
-      <c r="Y15" s="712"/>
+      <c r="Y15" s="751"/>
       <c r="Z15" s="204"/>
     </row>
     <row r="16" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L16" s="767"/>
-      <c r="M16" s="734"/>
+      <c r="L16" s="712"/>
+      <c r="M16" s="716"/>
       <c r="N16" s="209"/>
       <c r="O16" s="108"/>
       <c r="P16" s="109"/>
@@ -13518,18 +13511,18 @@
       <c r="T16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="742"/>
-      <c r="V16" s="745"/>
-      <c r="W16" s="723"/>
-      <c r="X16" s="731"/>
-      <c r="Y16" s="712"/>
+      <c r="U16" s="725"/>
+      <c r="V16" s="728"/>
+      <c r="W16" s="762"/>
+      <c r="X16" s="769"/>
+      <c r="Y16" s="751"/>
       <c r="Z16" s="204"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L17" s="765" t="s">
+      <c r="L17" s="710" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="734"/>
+      <c r="M17" s="716"/>
       <c r="N17" s="209"/>
       <c r="O17" s="61"/>
       <c r="P17" s="62"/>
@@ -13541,18 +13534,18 @@
       <c r="T17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="742"/>
-      <c r="V17" s="745"/>
-      <c r="W17" s="714" t="s">
+      <c r="U17" s="725"/>
+      <c r="V17" s="728"/>
+      <c r="W17" s="753" t="s">
         <v>321</v>
       </c>
-      <c r="X17" s="715"/>
-      <c r="Y17" s="712"/>
+      <c r="X17" s="754"/>
+      <c r="Y17" s="751"/>
       <c r="Z17" s="204"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L18" s="766"/>
-      <c r="M18" s="734"/>
+      <c r="L18" s="711"/>
+      <c r="M18" s="716"/>
       <c r="N18" s="209"/>
       <c r="O18" s="64"/>
       <c r="P18" s="65"/>
@@ -13562,16 +13555,16 @@
       <c r="T18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="742"/>
-      <c r="V18" s="745"/>
-      <c r="W18" s="716"/>
-      <c r="X18" s="717"/>
-      <c r="Y18" s="712"/>
+      <c r="U18" s="725"/>
+      <c r="V18" s="728"/>
+      <c r="W18" s="755"/>
+      <c r="X18" s="756"/>
+      <c r="Y18" s="751"/>
       <c r="Z18" s="204"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L19" s="766"/>
-      <c r="M19" s="734"/>
+      <c r="L19" s="711"/>
+      <c r="M19" s="716"/>
       <c r="N19" s="209"/>
       <c r="O19" s="64"/>
       <c r="P19" s="65"/>
@@ -13581,16 +13574,16 @@
       <c r="T19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="742"/>
-      <c r="V19" s="745"/>
-      <c r="W19" s="716"/>
-      <c r="X19" s="717"/>
-      <c r="Y19" s="712"/>
+      <c r="U19" s="725"/>
+      <c r="V19" s="728"/>
+      <c r="W19" s="755"/>
+      <c r="X19" s="756"/>
+      <c r="Y19" s="751"/>
       <c r="Z19" s="204"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L20" s="767"/>
-      <c r="M20" s="734"/>
+      <c r="L20" s="712"/>
+      <c r="M20" s="716"/>
       <c r="N20" s="209"/>
       <c r="O20" s="80" t="s">
         <v>73</v>
@@ -13606,18 +13599,18 @@
       <c r="T20" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="742"/>
-      <c r="V20" s="745"/>
-      <c r="W20" s="716"/>
-      <c r="X20" s="717"/>
-      <c r="Y20" s="712"/>
+      <c r="U20" s="725"/>
+      <c r="V20" s="728"/>
+      <c r="W20" s="755"/>
+      <c r="X20" s="756"/>
+      <c r="Y20" s="751"/>
       <c r="Z20" s="204"/>
     </row>
     <row r="21" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L21" s="765" t="s">
+      <c r="L21" s="710" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="734"/>
+      <c r="M21" s="716"/>
       <c r="N21" s="209"/>
       <c r="O21" s="78"/>
       <c r="P21" s="79"/>
@@ -13629,11 +13622,11 @@
       <c r="T21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="742"/>
-      <c r="V21" s="745"/>
-      <c r="W21" s="716"/>
-      <c r="X21" s="717"/>
-      <c r="Y21" s="712"/>
+      <c r="U21" s="725"/>
+      <c r="V21" s="728"/>
+      <c r="W21" s="755"/>
+      <c r="X21" s="756"/>
+      <c r="Y21" s="751"/>
       <c r="Z21" s="204"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
@@ -13660,8 +13653,8 @@
         <v>7759</v>
       </c>
       <c r="J22" s="206"/>
-      <c r="L22" s="766"/>
-      <c r="M22" s="734"/>
+      <c r="L22" s="711"/>
+      <c r="M22" s="716"/>
       <c r="N22" s="209"/>
       <c r="O22" s="64"/>
       <c r="P22" s="65"/>
@@ -13671,19 +13664,19 @@
       <c r="T22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="742"/>
-      <c r="V22" s="745"/>
-      <c r="W22" s="716"/>
-      <c r="X22" s="717"/>
-      <c r="Y22" s="712"/>
+      <c r="U22" s="725"/>
+      <c r="V22" s="728"/>
+      <c r="W22" s="755"/>
+      <c r="X22" s="756"/>
+      <c r="Y22" s="751"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D23" s="174" t="s">
         <v>60</v>
       </c>
       <c r="J23" s="207"/>
-      <c r="L23" s="766"/>
-      <c r="M23" s="734"/>
+      <c r="L23" s="711"/>
+      <c r="M23" s="716"/>
       <c r="N23" s="209"/>
       <c r="O23" s="80"/>
       <c r="P23" s="81"/>
@@ -13693,11 +13686,11 @@
       <c r="T23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="742"/>
-      <c r="V23" s="745"/>
-      <c r="W23" s="716"/>
-      <c r="X23" s="717"/>
-      <c r="Y23" s="712"/>
+      <c r="U23" s="725"/>
+      <c r="V23" s="728"/>
+      <c r="W23" s="755"/>
+      <c r="X23" s="756"/>
+      <c r="Y23" s="751"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="189" t="s">
@@ -13723,8 +13716,8 @@
         <v>305</v>
       </c>
       <c r="J24" s="199"/>
-      <c r="L24" s="767"/>
-      <c r="M24" s="734"/>
+      <c r="L24" s="712"/>
+      <c r="M24" s="716"/>
       <c r="N24" s="209"/>
       <c r="O24" s="108"/>
       <c r="P24" s="109"/>
@@ -13736,11 +13729,11 @@
       <c r="T24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="742"/>
-      <c r="V24" s="745"/>
-      <c r="W24" s="716"/>
-      <c r="X24" s="717"/>
-      <c r="Y24" s="712"/>
+      <c r="U24" s="725"/>
+      <c r="V24" s="728"/>
+      <c r="W24" s="755"/>
+      <c r="X24" s="756"/>
+      <c r="Y24" s="751"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="186" t="s">
@@ -13766,10 +13759,10 @@
         <v>30</v>
       </c>
       <c r="J25" s="294"/>
-      <c r="L25" s="765" t="s">
+      <c r="L25" s="710" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="734"/>
+      <c r="M25" s="716"/>
       <c r="N25" s="209"/>
       <c r="O25" s="61"/>
       <c r="P25" s="62"/>
@@ -13781,16 +13774,16 @@
       <c r="T25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U25" s="742"/>
-      <c r="V25" s="745"/>
-      <c r="W25" s="716"/>
-      <c r="X25" s="717"/>
-      <c r="Y25" s="712"/>
+      <c r="U25" s="725"/>
+      <c r="V25" s="728"/>
+      <c r="W25" s="755"/>
+      <c r="X25" s="756"/>
+      <c r="Y25" s="751"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L26" s="766"/>
-      <c r="M26" s="734"/>
-      <c r="N26" s="762" t="s">
+      <c r="L26" s="711"/>
+      <c r="M26" s="716"/>
+      <c r="N26" s="746" t="s">
         <v>330</v>
       </c>
       <c r="O26" s="64"/>
@@ -13801,17 +13794,17 @@
       <c r="T26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="742"/>
-      <c r="V26" s="745"/>
-      <c r="W26" s="716"/>
-      <c r="X26" s="717"/>
-      <c r="Y26" s="712"/>
+      <c r="U26" s="725"/>
+      <c r="V26" s="728"/>
+      <c r="W26" s="755"/>
+      <c r="X26" s="756"/>
+      <c r="Y26" s="751"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H27" s="199"/>
-      <c r="L27" s="766"/>
-      <c r="M27" s="734"/>
-      <c r="N27" s="763"/>
+      <c r="L27" s="711"/>
+      <c r="M27" s="716"/>
+      <c r="N27" s="747"/>
       <c r="O27" s="80"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
@@ -13820,17 +13813,17 @@
       <c r="T27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U27" s="742"/>
-      <c r="V27" s="745"/>
-      <c r="W27" s="716"/>
-      <c r="X27" s="717"/>
-      <c r="Y27" s="712"/>
+      <c r="U27" s="725"/>
+      <c r="V27" s="728"/>
+      <c r="W27" s="755"/>
+      <c r="X27" s="756"/>
+      <c r="Y27" s="751"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H28" s="199"/>
-      <c r="L28" s="767"/>
-      <c r="M28" s="734"/>
-      <c r="N28" s="763"/>
+      <c r="L28" s="712"/>
+      <c r="M28" s="716"/>
+      <c r="N28" s="747"/>
       <c r="O28" s="80"/>
       <c r="P28" s="81"/>
       <c r="Q28" s="82" t="s">
@@ -13841,19 +13834,19 @@
       <c r="T28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U28" s="742"/>
-      <c r="V28" s="745"/>
-      <c r="W28" s="716"/>
-      <c r="X28" s="717"/>
-      <c r="Y28" s="712"/>
+      <c r="U28" s="725"/>
+      <c r="V28" s="728"/>
+      <c r="W28" s="755"/>
+      <c r="X28" s="756"/>
+      <c r="Y28" s="751"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H29" s="144"/>
-      <c r="L29" s="765" t="s">
+      <c r="L29" s="710" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="734"/>
-      <c r="N29" s="763"/>
+      <c r="M29" s="716"/>
+      <c r="N29" s="747"/>
       <c r="O29" s="106"/>
       <c r="P29" s="107"/>
       <c r="Q29" s="107"/>
@@ -13864,16 +13857,16 @@
       <c r="T29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="742"/>
-      <c r="V29" s="745"/>
-      <c r="W29" s="716"/>
-      <c r="X29" s="717"/>
-      <c r="Y29" s="712"/>
+      <c r="U29" s="725"/>
+      <c r="V29" s="728"/>
+      <c r="W29" s="755"/>
+      <c r="X29" s="756"/>
+      <c r="Y29" s="751"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L30" s="766"/>
-      <c r="M30" s="734"/>
-      <c r="N30" s="764"/>
+      <c r="L30" s="711"/>
+      <c r="M30" s="716"/>
+      <c r="N30" s="748"/>
       <c r="O30" s="64"/>
       <c r="P30" s="65"/>
       <c r="Q30" s="65"/>
@@ -13882,16 +13875,16 @@
       <c r="T30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U30" s="742"/>
-      <c r="V30" s="745"/>
-      <c r="W30" s="716"/>
-      <c r="X30" s="717"/>
-      <c r="Y30" s="712"/>
+      <c r="U30" s="725"/>
+      <c r="V30" s="728"/>
+      <c r="W30" s="755"/>
+      <c r="X30" s="756"/>
+      <c r="Y30" s="751"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L31" s="766"/>
-      <c r="M31" s="734"/>
-      <c r="N31" s="761" t="s">
+      <c r="L31" s="711"/>
+      <c r="M31" s="716"/>
+      <c r="N31" s="745" t="s">
         <v>329</v>
       </c>
       <c r="O31" s="64"/>
@@ -13902,16 +13895,16 @@
       <c r="T31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="742"/>
-      <c r="V31" s="745"/>
-      <c r="W31" s="716"/>
-      <c r="X31" s="717"/>
-      <c r="Y31" s="712"/>
+      <c r="U31" s="725"/>
+      <c r="V31" s="728"/>
+      <c r="W31" s="755"/>
+      <c r="X31" s="756"/>
+      <c r="Y31" s="751"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L32" s="767"/>
-      <c r="M32" s="734"/>
-      <c r="N32" s="755"/>
+      <c r="L32" s="712"/>
+      <c r="M32" s="716"/>
+      <c r="N32" s="739"/>
       <c r="O32" s="110"/>
       <c r="P32" s="111"/>
       <c r="Q32" s="112" t="s">
@@ -13922,18 +13915,18 @@
       <c r="T32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="742"/>
-      <c r="V32" s="745"/>
-      <c r="W32" s="716"/>
-      <c r="X32" s="717"/>
-      <c r="Y32" s="712"/>
+      <c r="U32" s="725"/>
+      <c r="V32" s="728"/>
+      <c r="W32" s="755"/>
+      <c r="X32" s="756"/>
+      <c r="Y32" s="751"/>
     </row>
     <row r="33" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L33" s="765" t="s">
+      <c r="L33" s="710" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="734"/>
-      <c r="N33" s="755"/>
+      <c r="M33" s="716"/>
+      <c r="N33" s="739"/>
       <c r="O33" s="61"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
@@ -13944,17 +13937,17 @@
       <c r="T33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U33" s="742"/>
-      <c r="V33" s="745"/>
-      <c r="W33" s="716"/>
-      <c r="X33" s="717"/>
-      <c r="Y33" s="712"/>
+      <c r="U33" s="725"/>
+      <c r="V33" s="728"/>
+      <c r="W33" s="755"/>
+      <c r="X33" s="756"/>
+      <c r="Y33" s="751"/>
       <c r="Z33" s="205"/>
     </row>
     <row r="34" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L34" s="766"/>
-      <c r="M34" s="734"/>
-      <c r="N34" s="756"/>
+      <c r="L34" s="711"/>
+      <c r="M34" s="716"/>
+      <c r="N34" s="740"/>
       <c r="O34" s="64"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="65"/>
@@ -13963,17 +13956,17 @@
       <c r="T34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="742"/>
-      <c r="V34" s="745"/>
-      <c r="W34" s="716"/>
-      <c r="X34" s="717"/>
-      <c r="Y34" s="712"/>
+      <c r="U34" s="725"/>
+      <c r="V34" s="728"/>
+      <c r="W34" s="755"/>
+      <c r="X34" s="756"/>
+      <c r="Y34" s="751"/>
       <c r="Z34" s="205"/>
     </row>
     <row r="35" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L35" s="766"/>
-      <c r="M35" s="734"/>
-      <c r="N35" s="760" t="s">
+      <c r="L35" s="711"/>
+      <c r="M35" s="716"/>
+      <c r="N35" s="744" t="s">
         <v>328</v>
       </c>
       <c r="O35" s="64"/>
@@ -13984,17 +13977,17 @@
       <c r="T35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U35" s="742"/>
-      <c r="V35" s="745"/>
-      <c r="W35" s="716"/>
-      <c r="X35" s="717"/>
-      <c r="Y35" s="712"/>
+      <c r="U35" s="725"/>
+      <c r="V35" s="728"/>
+      <c r="W35" s="755"/>
+      <c r="X35" s="756"/>
+      <c r="Y35" s="751"/>
       <c r="Z35" s="203"/>
     </row>
     <row r="36" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L36" s="767"/>
-      <c r="M36" s="734"/>
-      <c r="N36" s="753"/>
+      <c r="L36" s="712"/>
+      <c r="M36" s="716"/>
+      <c r="N36" s="737"/>
       <c r="O36" s="67" t="s">
         <v>73</v>
       </c>
@@ -14009,19 +14002,19 @@
       <c r="T36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U36" s="742"/>
-      <c r="V36" s="745"/>
-      <c r="W36" s="716"/>
-      <c r="X36" s="717"/>
-      <c r="Y36" s="712"/>
+      <c r="U36" s="725"/>
+      <c r="V36" s="728"/>
+      <c r="W36" s="755"/>
+      <c r="X36" s="756"/>
+      <c r="Y36" s="751"/>
       <c r="Z36" s="204"/>
     </row>
     <row r="37" spans="12:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L37" s="765" t="s">
+      <c r="L37" s="710" t="s">
         <v>103</v>
       </c>
-      <c r="M37" s="734"/>
-      <c r="N37" s="757" t="s">
+      <c r="M37" s="716"/>
+      <c r="N37" s="741" t="s">
         <v>313</v>
       </c>
       <c r="O37" s="70"/>
@@ -14038,17 +14031,17 @@
       <c r="T37" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="U37" s="742"/>
-      <c r="V37" s="745"/>
-      <c r="W37" s="716"/>
-      <c r="X37" s="717"/>
-      <c r="Y37" s="712"/>
+      <c r="U37" s="725"/>
+      <c r="V37" s="728"/>
+      <c r="W37" s="755"/>
+      <c r="X37" s="756"/>
+      <c r="Y37" s="751"/>
       <c r="Z37" s="204"/>
     </row>
     <row r="38" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L38" s="766"/>
-      <c r="M38" s="734"/>
-      <c r="N38" s="758"/>
+      <c r="L38" s="711"/>
+      <c r="M38" s="716"/>
+      <c r="N38" s="742"/>
       <c r="O38" s="72"/>
       <c r="P38" s="73"/>
       <c r="Q38" s="74" t="s">
@@ -14061,17 +14054,17 @@
       <c r="T38" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U38" s="742"/>
-      <c r="V38" s="745"/>
-      <c r="W38" s="716"/>
-      <c r="X38" s="717"/>
-      <c r="Y38" s="712"/>
+      <c r="U38" s="725"/>
+      <c r="V38" s="728"/>
+      <c r="W38" s="755"/>
+      <c r="X38" s="756"/>
+      <c r="Y38" s="751"/>
       <c r="Z38" s="204"/>
     </row>
     <row r="39" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L39" s="766"/>
-      <c r="M39" s="734"/>
-      <c r="N39" s="758"/>
+      <c r="L39" s="711"/>
+      <c r="M39" s="716"/>
+      <c r="N39" s="742"/>
       <c r="O39" s="72"/>
       <c r="P39" s="73"/>
       <c r="Q39" s="74" t="s">
@@ -14084,17 +14077,17 @@
       <c r="T39" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U39" s="742"/>
-      <c r="V39" s="745"/>
-      <c r="W39" s="716"/>
-      <c r="X39" s="717"/>
-      <c r="Y39" s="712"/>
+      <c r="U39" s="725"/>
+      <c r="V39" s="728"/>
+      <c r="W39" s="755"/>
+      <c r="X39" s="756"/>
+      <c r="Y39" s="751"/>
       <c r="Z39" s="205"/>
     </row>
     <row r="40" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L40" s="767"/>
-      <c r="M40" s="734"/>
-      <c r="N40" s="758"/>
+      <c r="L40" s="712"/>
+      <c r="M40" s="716"/>
+      <c r="N40" s="742"/>
       <c r="O40" s="96"/>
       <c r="P40" s="97"/>
       <c r="Q40" s="170" t="s">
@@ -14109,19 +14102,19 @@
       <c r="T40" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U40" s="742"/>
-      <c r="V40" s="745"/>
-      <c r="W40" s="716"/>
-      <c r="X40" s="717"/>
-      <c r="Y40" s="712"/>
+      <c r="U40" s="725"/>
+      <c r="V40" s="728"/>
+      <c r="W40" s="755"/>
+      <c r="X40" s="756"/>
+      <c r="Y40" s="751"/>
       <c r="Z40" s="203"/>
     </row>
     <row r="41" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L41" s="765" t="s">
+      <c r="L41" s="710" t="s">
         <v>102</v>
       </c>
-      <c r="M41" s="734"/>
-      <c r="N41" s="758"/>
+      <c r="M41" s="716"/>
+      <c r="N41" s="742"/>
       <c r="O41" s="101"/>
       <c r="P41" s="102"/>
       <c r="Q41" s="103" t="s">
@@ -14136,17 +14129,17 @@
       <c r="T41" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U41" s="742"/>
-      <c r="V41" s="745"/>
-      <c r="W41" s="716"/>
-      <c r="X41" s="717"/>
-      <c r="Y41" s="712"/>
+      <c r="U41" s="725"/>
+      <c r="V41" s="728"/>
+      <c r="W41" s="755"/>
+      <c r="X41" s="756"/>
+      <c r="Y41" s="751"/>
       <c r="Z41" s="204"/>
     </row>
     <row r="42" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L42" s="766"/>
-      <c r="M42" s="734"/>
-      <c r="N42" s="758"/>
+      <c r="L42" s="711"/>
+      <c r="M42" s="716"/>
+      <c r="N42" s="742"/>
       <c r="O42" s="72"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="74" t="s">
@@ -14159,17 +14152,17 @@
       <c r="T42" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="742"/>
-      <c r="V42" s="745"/>
-      <c r="W42" s="716"/>
-      <c r="X42" s="717"/>
-      <c r="Y42" s="712"/>
+      <c r="U42" s="725"/>
+      <c r="V42" s="728"/>
+      <c r="W42" s="755"/>
+      <c r="X42" s="756"/>
+      <c r="Y42" s="751"/>
       <c r="Z42" s="205"/>
     </row>
     <row r="43" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L43" s="766"/>
-      <c r="M43" s="734"/>
-      <c r="N43" s="758"/>
+      <c r="L43" s="711"/>
+      <c r="M43" s="716"/>
+      <c r="N43" s="742"/>
       <c r="O43" s="96"/>
       <c r="P43" s="97"/>
       <c r="Q43" s="170" t="s">
@@ -14182,17 +14175,17 @@
       <c r="T43" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U43" s="742"/>
-      <c r="V43" s="745"/>
-      <c r="W43" s="716"/>
-      <c r="X43" s="717"/>
-      <c r="Y43" s="712"/>
+      <c r="U43" s="725"/>
+      <c r="V43" s="728"/>
+      <c r="W43" s="755"/>
+      <c r="X43" s="756"/>
+      <c r="Y43" s="751"/>
       <c r="Z43" s="205"/>
     </row>
     <row r="44" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L44" s="767"/>
-      <c r="M44" s="734"/>
-      <c r="N44" s="758"/>
+      <c r="L44" s="712"/>
+      <c r="M44" s="716"/>
+      <c r="N44" s="742"/>
       <c r="O44" s="104"/>
       <c r="P44" s="105"/>
       <c r="Q44" s="171" t="s">
@@ -14205,19 +14198,19 @@
       <c r="T44" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U44" s="742"/>
-      <c r="V44" s="745"/>
-      <c r="W44" s="716"/>
-      <c r="X44" s="717"/>
-      <c r="Y44" s="712"/>
+      <c r="U44" s="725"/>
+      <c r="V44" s="728"/>
+      <c r="W44" s="755"/>
+      <c r="X44" s="756"/>
+      <c r="Y44" s="751"/>
       <c r="Z44" s="205"/>
     </row>
     <row r="45" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L45" s="765" t="s">
+      <c r="L45" s="710" t="s">
         <v>101</v>
       </c>
-      <c r="M45" s="734"/>
-      <c r="N45" s="758"/>
+      <c r="M45" s="716"/>
+      <c r="N45" s="742"/>
       <c r="O45" s="98"/>
       <c r="P45" s="99"/>
       <c r="Q45" s="100" t="s">
@@ -14230,16 +14223,16 @@
       <c r="T45" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U45" s="742"/>
-      <c r="V45" s="745"/>
-      <c r="W45" s="716"/>
-      <c r="X45" s="717"/>
-      <c r="Y45" s="712"/>
+      <c r="U45" s="725"/>
+      <c r="V45" s="728"/>
+      <c r="W45" s="755"/>
+      <c r="X45" s="756"/>
+      <c r="Y45" s="751"/>
     </row>
     <row r="46" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L46" s="768"/>
-      <c r="M46" s="734"/>
-      <c r="N46" s="758"/>
+      <c r="L46" s="713"/>
+      <c r="M46" s="716"/>
+      <c r="N46" s="742"/>
       <c r="O46" s="72"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="74" t="s">
@@ -14252,16 +14245,16 @@
       <c r="T46" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U46" s="742"/>
-      <c r="V46" s="745"/>
-      <c r="W46" s="716"/>
-      <c r="X46" s="717"/>
-      <c r="Y46" s="712"/>
+      <c r="U46" s="725"/>
+      <c r="V46" s="728"/>
+      <c r="W46" s="755"/>
+      <c r="X46" s="756"/>
+      <c r="Y46" s="751"/>
     </row>
     <row r="47" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L47" s="768"/>
-      <c r="M47" s="734"/>
-      <c r="N47" s="758"/>
+      <c r="L47" s="713"/>
+      <c r="M47" s="716"/>
+      <c r="N47" s="742"/>
       <c r="O47" s="96"/>
       <c r="P47" s="97"/>
       <c r="Q47" s="170" t="s">
@@ -14274,16 +14267,16 @@
       <c r="T47" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U47" s="742"/>
-      <c r="V47" s="745"/>
-      <c r="W47" s="716"/>
-      <c r="X47" s="717"/>
-      <c r="Y47" s="712"/>
+      <c r="U47" s="725"/>
+      <c r="V47" s="728"/>
+      <c r="W47" s="755"/>
+      <c r="X47" s="756"/>
+      <c r="Y47" s="751"/>
     </row>
     <row r="48" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L48" s="769"/>
-      <c r="M48" s="734"/>
-      <c r="N48" s="758"/>
+      <c r="L48" s="714"/>
+      <c r="M48" s="716"/>
+      <c r="N48" s="742"/>
       <c r="O48" s="104"/>
       <c r="P48" s="105"/>
       <c r="Q48" s="171" t="s">
@@ -14296,18 +14289,18 @@
       <c r="T48" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U48" s="742"/>
-      <c r="V48" s="745"/>
-      <c r="W48" s="716"/>
-      <c r="X48" s="717"/>
-      <c r="Y48" s="712"/>
+      <c r="U48" s="725"/>
+      <c r="V48" s="728"/>
+      <c r="W48" s="755"/>
+      <c r="X48" s="756"/>
+      <c r="Y48" s="751"/>
     </row>
     <row r="49" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L49" s="765" t="s">
+      <c r="L49" s="710" t="s">
         <v>100</v>
       </c>
-      <c r="M49" s="734"/>
-      <c r="N49" s="758"/>
+      <c r="M49" s="716"/>
+      <c r="N49" s="742"/>
       <c r="O49" s="98"/>
       <c r="P49" s="99"/>
       <c r="Q49" s="100" t="s">
@@ -14320,16 +14313,16 @@
       <c r="T49" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U49" s="742"/>
-      <c r="V49" s="745"/>
-      <c r="W49" s="716"/>
-      <c r="X49" s="717"/>
-      <c r="Y49" s="712"/>
+      <c r="U49" s="725"/>
+      <c r="V49" s="728"/>
+      <c r="W49" s="755"/>
+      <c r="X49" s="756"/>
+      <c r="Y49" s="751"/>
     </row>
     <row r="50" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L50" s="766"/>
-      <c r="M50" s="734"/>
-      <c r="N50" s="758"/>
+      <c r="L50" s="711"/>
+      <c r="M50" s="716"/>
+      <c r="N50" s="742"/>
       <c r="O50" s="72"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="74" t="s">
@@ -14338,22 +14331,22 @@
       <c r="R50" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="S50" s="738" t="s">
+      <c r="S50" s="721" t="s">
         <v>115</v>
       </c>
       <c r="T50" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U50" s="742"/>
-      <c r="V50" s="745"/>
-      <c r="W50" s="716"/>
-      <c r="X50" s="717"/>
-      <c r="Y50" s="712"/>
+      <c r="U50" s="725"/>
+      <c r="V50" s="728"/>
+      <c r="W50" s="755"/>
+      <c r="X50" s="756"/>
+      <c r="Y50" s="751"/>
     </row>
     <row r="51" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L51" s="766"/>
-      <c r="M51" s="734"/>
-      <c r="N51" s="758"/>
+      <c r="L51" s="711"/>
+      <c r="M51" s="716"/>
+      <c r="N51" s="742"/>
       <c r="O51" s="72"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="74" t="s">
@@ -14362,20 +14355,20 @@
       <c r="R51" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="S51" s="739"/>
+      <c r="S51" s="722"/>
       <c r="T51" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U51" s="742"/>
-      <c r="V51" s="745"/>
-      <c r="W51" s="716"/>
-      <c r="X51" s="717"/>
-      <c r="Y51" s="712"/>
+      <c r="U51" s="725"/>
+      <c r="V51" s="728"/>
+      <c r="W51" s="755"/>
+      <c r="X51" s="756"/>
+      <c r="Y51" s="751"/>
     </row>
     <row r="52" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L52" s="767"/>
-      <c r="M52" s="734"/>
-      <c r="N52" s="758"/>
+      <c r="L52" s="712"/>
+      <c r="M52" s="716"/>
+      <c r="N52" s="742"/>
       <c r="O52" s="75" t="s">
         <v>64</v>
       </c>
@@ -14386,22 +14379,22 @@
       <c r="R52" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="S52" s="740"/>
+      <c r="S52" s="723"/>
       <c r="T52" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U52" s="742"/>
-      <c r="V52" s="745"/>
-      <c r="W52" s="716"/>
-      <c r="X52" s="717"/>
-      <c r="Y52" s="712"/>
+      <c r="U52" s="725"/>
+      <c r="V52" s="728"/>
+      <c r="W52" s="755"/>
+      <c r="X52" s="756"/>
+      <c r="Y52" s="751"/>
     </row>
     <row r="53" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L53" s="765" t="s">
+      <c r="L53" s="710" t="s">
         <v>99</v>
       </c>
-      <c r="M53" s="734"/>
-      <c r="N53" s="758"/>
+      <c r="M53" s="716"/>
+      <c r="N53" s="742"/>
       <c r="O53" s="83"/>
       <c r="P53" s="84"/>
       <c r="Q53" s="85" t="s">
@@ -14414,16 +14407,16 @@
       <c r="T53" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U53" s="742"/>
-      <c r="V53" s="745"/>
-      <c r="W53" s="716"/>
-      <c r="X53" s="717"/>
-      <c r="Y53" s="712"/>
+      <c r="U53" s="725"/>
+      <c r="V53" s="728"/>
+      <c r="W53" s="755"/>
+      <c r="X53" s="756"/>
+      <c r="Y53" s="751"/>
     </row>
     <row r="54" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L54" s="766"/>
-      <c r="M54" s="734"/>
-      <c r="N54" s="758"/>
+      <c r="L54" s="711"/>
+      <c r="M54" s="716"/>
+      <c r="N54" s="742"/>
       <c r="O54" s="86"/>
       <c r="P54" s="87"/>
       <c r="Q54" s="88" t="s">
@@ -14436,16 +14429,16 @@
       <c r="T54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U54" s="742"/>
-      <c r="V54" s="745"/>
-      <c r="W54" s="716"/>
-      <c r="X54" s="717"/>
-      <c r="Y54" s="712"/>
+      <c r="U54" s="725"/>
+      <c r="V54" s="728"/>
+      <c r="W54" s="755"/>
+      <c r="X54" s="756"/>
+      <c r="Y54" s="751"/>
     </row>
     <row r="55" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L55" s="766"/>
-      <c r="M55" s="734"/>
-      <c r="N55" s="758"/>
+      <c r="L55" s="711"/>
+      <c r="M55" s="716"/>
+      <c r="N55" s="742"/>
       <c r="O55" s="86"/>
       <c r="P55" s="87"/>
       <c r="Q55" s="88" t="s">
@@ -14458,16 +14451,16 @@
       <c r="T55" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U55" s="742"/>
-      <c r="V55" s="745"/>
-      <c r="W55" s="716"/>
-      <c r="X55" s="717"/>
-      <c r="Y55" s="712"/>
+      <c r="U55" s="725"/>
+      <c r="V55" s="728"/>
+      <c r="W55" s="755"/>
+      <c r="X55" s="756"/>
+      <c r="Y55" s="751"/>
     </row>
     <row r="56" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L56" s="767"/>
-      <c r="M56" s="734"/>
-      <c r="N56" s="758"/>
+      <c r="L56" s="712"/>
+      <c r="M56" s="716"/>
+      <c r="N56" s="742"/>
       <c r="O56" s="89" t="s">
         <v>54</v>
       </c>
@@ -14484,18 +14477,18 @@
       <c r="T56" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U56" s="742"/>
-      <c r="V56" s="745"/>
-      <c r="W56" s="716"/>
-      <c r="X56" s="717"/>
-      <c r="Y56" s="712"/>
+      <c r="U56" s="725"/>
+      <c r="V56" s="728"/>
+      <c r="W56" s="755"/>
+      <c r="X56" s="756"/>
+      <c r="Y56" s="751"/>
     </row>
     <row r="57" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L57" s="765" t="s">
+      <c r="L57" s="710" t="s">
         <v>98</v>
       </c>
-      <c r="M57" s="734"/>
-      <c r="N57" s="758"/>
+      <c r="M57" s="716"/>
+      <c r="N57" s="742"/>
       <c r="O57" s="52"/>
       <c r="P57" s="53"/>
       <c r="Q57" s="54" t="s">
@@ -14508,16 +14501,16 @@
       <c r="T57" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U57" s="742"/>
-      <c r="V57" s="745"/>
-      <c r="W57" s="716"/>
-      <c r="X57" s="717"/>
-      <c r="Y57" s="712"/>
+      <c r="U57" s="725"/>
+      <c r="V57" s="728"/>
+      <c r="W57" s="755"/>
+      <c r="X57" s="756"/>
+      <c r="Y57" s="751"/>
     </row>
     <row r="58" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L58" s="766"/>
-      <c r="M58" s="734"/>
-      <c r="N58" s="758"/>
+      <c r="L58" s="711"/>
+      <c r="M58" s="716"/>
+      <c r="N58" s="742"/>
       <c r="O58" s="55"/>
       <c r="P58" s="56"/>
       <c r="Q58" s="57" t="s">
@@ -14530,16 +14523,16 @@
       <c r="T58" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U58" s="742"/>
-      <c r="V58" s="745"/>
-      <c r="W58" s="716"/>
-      <c r="X58" s="717"/>
-      <c r="Y58" s="712"/>
+      <c r="U58" s="725"/>
+      <c r="V58" s="728"/>
+      <c r="W58" s="755"/>
+      <c r="X58" s="756"/>
+      <c r="Y58" s="751"/>
     </row>
     <row r="59" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L59" s="766"/>
-      <c r="M59" s="734"/>
-      <c r="N59" s="758"/>
+      <c r="L59" s="711"/>
+      <c r="M59" s="716"/>
+      <c r="N59" s="742"/>
       <c r="O59" s="55"/>
       <c r="P59" s="56"/>
       <c r="Q59" s="57" t="s">
@@ -14552,16 +14545,16 @@
       <c r="T59" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U59" s="742"/>
-      <c r="V59" s="745"/>
-      <c r="W59" s="716"/>
-      <c r="X59" s="717"/>
-      <c r="Y59" s="712"/>
+      <c r="U59" s="725"/>
+      <c r="V59" s="728"/>
+      <c r="W59" s="755"/>
+      <c r="X59" s="756"/>
+      <c r="Y59" s="751"/>
     </row>
     <row r="60" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L60" s="767"/>
-      <c r="M60" s="734"/>
-      <c r="N60" s="758"/>
+      <c r="L60" s="712"/>
+      <c r="M60" s="716"/>
+      <c r="N60" s="742"/>
       <c r="O60" s="55"/>
       <c r="P60" s="56"/>
       <c r="Q60" s="57" t="s">
@@ -14574,18 +14567,18 @@
       <c r="T60" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U60" s="742"/>
-      <c r="V60" s="745"/>
-      <c r="W60" s="716"/>
-      <c r="X60" s="717"/>
-      <c r="Y60" s="712"/>
+      <c r="U60" s="725"/>
+      <c r="V60" s="728"/>
+      <c r="W60" s="755"/>
+      <c r="X60" s="756"/>
+      <c r="Y60" s="751"/>
     </row>
     <row r="61" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L61" s="765" t="s">
+      <c r="L61" s="710" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="734"/>
-      <c r="N61" s="758"/>
+      <c r="M61" s="716"/>
+      <c r="N61" s="742"/>
       <c r="O61" s="55"/>
       <c r="P61" s="56"/>
       <c r="Q61" s="57" t="s">
@@ -14598,16 +14591,16 @@
       <c r="T61" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U61" s="742"/>
-      <c r="V61" s="745"/>
-      <c r="W61" s="716"/>
-      <c r="X61" s="717"/>
-      <c r="Y61" s="712"/>
+      <c r="U61" s="725"/>
+      <c r="V61" s="728"/>
+      <c r="W61" s="755"/>
+      <c r="X61" s="756"/>
+      <c r="Y61" s="751"/>
     </row>
     <row r="62" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L62" s="766"/>
-      <c r="M62" s="734"/>
-      <c r="N62" s="758"/>
+      <c r="L62" s="711"/>
+      <c r="M62" s="716"/>
+      <c r="N62" s="742"/>
       <c r="O62" s="55"/>
       <c r="P62" s="56"/>
       <c r="Q62" s="57" t="s">
@@ -14620,16 +14613,16 @@
       <c r="T62" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U62" s="742"/>
-      <c r="V62" s="745"/>
-      <c r="W62" s="716"/>
-      <c r="X62" s="717"/>
-      <c r="Y62" s="712"/>
+      <c r="U62" s="725"/>
+      <c r="V62" s="728"/>
+      <c r="W62" s="755"/>
+      <c r="X62" s="756"/>
+      <c r="Y62" s="751"/>
     </row>
     <row r="63" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L63" s="766"/>
-      <c r="M63" s="734"/>
-      <c r="N63" s="758"/>
+      <c r="L63" s="711"/>
+      <c r="M63" s="716"/>
+      <c r="N63" s="742"/>
       <c r="O63" s="55"/>
       <c r="P63" s="56"/>
       <c r="Q63" s="57" t="s">
@@ -14642,16 +14635,16 @@
       <c r="T63" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U63" s="742"/>
-      <c r="V63" s="745"/>
-      <c r="W63" s="716"/>
-      <c r="X63" s="717"/>
-      <c r="Y63" s="712"/>
+      <c r="U63" s="725"/>
+      <c r="V63" s="728"/>
+      <c r="W63" s="755"/>
+      <c r="X63" s="756"/>
+      <c r="Y63" s="751"/>
     </row>
     <row r="64" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L64" s="767"/>
-      <c r="M64" s="734"/>
-      <c r="N64" s="758"/>
+      <c r="L64" s="712"/>
+      <c r="M64" s="716"/>
+      <c r="N64" s="742"/>
       <c r="O64" s="58" t="s">
         <v>36</v>
       </c>
@@ -14668,18 +14661,18 @@
       <c r="T64" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U64" s="742"/>
-      <c r="V64" s="745"/>
-      <c r="W64" s="716"/>
-      <c r="X64" s="717"/>
-      <c r="Y64" s="712"/>
+      <c r="U64" s="725"/>
+      <c r="V64" s="728"/>
+      <c r="W64" s="755"/>
+      <c r="X64" s="756"/>
+      <c r="Y64" s="751"/>
     </row>
     <row r="65" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L65" s="765" t="s">
+      <c r="L65" s="710" t="s">
         <v>96</v>
       </c>
-      <c r="M65" s="734"/>
-      <c r="N65" s="758"/>
+      <c r="M65" s="716"/>
+      <c r="N65" s="742"/>
       <c r="O65" s="61"/>
       <c r="P65" s="62"/>
       <c r="Q65" s="63" t="s">
@@ -14692,16 +14685,16 @@
       <c r="T65" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U65" s="742"/>
-      <c r="V65" s="745"/>
-      <c r="W65" s="716"/>
-      <c r="X65" s="717"/>
-      <c r="Y65" s="712"/>
+      <c r="U65" s="725"/>
+      <c r="V65" s="728"/>
+      <c r="W65" s="755"/>
+      <c r="X65" s="756"/>
+      <c r="Y65" s="751"/>
     </row>
     <row r="66" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L66" s="766"/>
-      <c r="M66" s="734"/>
-      <c r="N66" s="758"/>
+      <c r="L66" s="711"/>
+      <c r="M66" s="716"/>
+      <c r="N66" s="742"/>
       <c r="O66" s="64"/>
       <c r="P66" s="65"/>
       <c r="Q66" s="66" t="s">
@@ -14714,16 +14707,16 @@
       <c r="T66" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U66" s="742"/>
-      <c r="V66" s="745"/>
-      <c r="W66" s="716"/>
-      <c r="X66" s="717"/>
-      <c r="Y66" s="712"/>
+      <c r="U66" s="725"/>
+      <c r="V66" s="728"/>
+      <c r="W66" s="755"/>
+      <c r="X66" s="756"/>
+      <c r="Y66" s="751"/>
     </row>
     <row r="67" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L67" s="766"/>
-      <c r="M67" s="734"/>
-      <c r="N67" s="758"/>
+      <c r="L67" s="711"/>
+      <c r="M67" s="716"/>
+      <c r="N67" s="742"/>
       <c r="O67" s="64"/>
       <c r="P67" s="65"/>
       <c r="Q67" s="66" t="s">
@@ -14736,16 +14729,16 @@
       <c r="T67" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U67" s="742"/>
-      <c r="V67" s="745"/>
-      <c r="W67" s="716"/>
-      <c r="X67" s="717"/>
-      <c r="Y67" s="712"/>
+      <c r="U67" s="725"/>
+      <c r="V67" s="728"/>
+      <c r="W67" s="755"/>
+      <c r="X67" s="756"/>
+      <c r="Y67" s="751"/>
     </row>
     <row r="68" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L68" s="767"/>
-      <c r="M68" s="735"/>
-      <c r="N68" s="759"/>
+      <c r="L68" s="712"/>
+      <c r="M68" s="717"/>
+      <c r="N68" s="743"/>
       <c r="O68" s="67" t="s">
         <v>25</v>
       </c>
@@ -14762,11 +14755,11 @@
       <c r="T68" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U68" s="743"/>
-      <c r="V68" s="746"/>
-      <c r="W68" s="718"/>
-      <c r="X68" s="719"/>
-      <c r="Y68" s="713"/>
+      <c r="U68" s="726"/>
+      <c r="V68" s="729"/>
+      <c r="W68" s="757"/>
+      <c r="X68" s="758"/>
+      <c r="Y68" s="752"/>
     </row>
     <row r="69" spans="12:25" x14ac:dyDescent="0.25">
       <c r="N69" s="210"/>
@@ -14774,6 +14767,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Y5:Y68"/>
+    <mergeCell ref="W17:X67"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="W5:W16"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="M5:M68"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="U5:U68"/>
+    <mergeCell ref="V5:V68"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="N37:N68"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="N26:N30"/>
     <mergeCell ref="L65:L68"/>
     <mergeCell ref="L61:L64"/>
     <mergeCell ref="L57:L60"/>
@@ -14790,34 +14811,6 @@
     <mergeCell ref="L49:L52"/>
     <mergeCell ref="L45:L48"/>
     <mergeCell ref="L41:L44"/>
-    <mergeCell ref="M5:M68"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="U5:U68"/>
-    <mergeCell ref="V5:V68"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="N37:N68"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Y5:Y68"/>
-    <mergeCell ref="W17:X67"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="W5:W16"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X15:X16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14844,13 +14837,13 @@
       <c r="C4" s="476" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="770" t="s">
+      <c r="D4" s="786" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="771"/>
-      <c r="F4" s="771"/>
-      <c r="G4" s="771"/>
-      <c r="H4" s="771"/>
+      <c r="E4" s="787"/>
+      <c r="F4" s="787"/>
+      <c r="G4" s="787"/>
+      <c r="H4" s="787"/>
       <c r="I4" s="492"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14877,7 +14870,7 @@
       </c>
     </row>
     <row r="6" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="772" t="s">
+      <c r="C6" s="788" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="483"/>
@@ -14889,12 +14882,12 @@
       <c r="H6" s="490" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="779" t="s">
+      <c r="I6" s="771" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="773"/>
+      <c r="C7" s="777"/>
       <c r="D7" s="443"/>
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
@@ -14902,10 +14895,10 @@
       <c r="H7" s="457" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="780"/>
+      <c r="I7" s="772"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="773"/>
+      <c r="C8" s="777"/>
       <c r="D8" s="443"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
@@ -14913,10 +14906,10 @@
       <c r="H8" s="457" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="780"/>
+      <c r="I8" s="772"/>
     </row>
     <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="774"/>
+      <c r="C9" s="778"/>
       <c r="D9" s="444" t="s">
         <v>73</v>
       </c>
@@ -14930,10 +14923,10 @@
       <c r="H9" s="478" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="786"/>
+      <c r="I9" s="773"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="775" t="s">
+      <c r="C10" s="776" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="488"/>
@@ -14945,12 +14938,12 @@
       <c r="H10" s="503" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="777" t="s">
+      <c r="I10" s="774" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="773"/>
+      <c r="C11" s="777"/>
       <c r="D11" s="72"/>
       <c r="E11" s="73"/>
       <c r="F11" s="65"/>
@@ -14958,10 +14951,10 @@
       <c r="H11" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="777"/>
+      <c r="I11" s="774"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="773"/>
+      <c r="C12" s="777"/>
       <c r="D12" s="72"/>
       <c r="E12" s="73"/>
       <c r="F12" s="65"/>
@@ -14969,10 +14962,10 @@
       <c r="H12" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="777"/>
+      <c r="I12" s="774"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="774"/>
+      <c r="C13" s="778"/>
       <c r="D13" s="96"/>
       <c r="E13" s="97"/>
       <c r="F13" s="82" t="s">
@@ -14982,10 +14975,10 @@
       <c r="H13" s="501" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="777"/>
+      <c r="I13" s="774"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="775" t="s">
+      <c r="C14" s="776" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="101"/>
@@ -14997,10 +14990,10 @@
       <c r="H14" s="505" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="777"/>
+      <c r="I14" s="774"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="773"/>
+      <c r="C15" s="777"/>
       <c r="D15" s="72"/>
       <c r="E15" s="73"/>
       <c r="F15" s="65"/>
@@ -15008,10 +15001,10 @@
       <c r="H15" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="777"/>
+      <c r="I15" s="774"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="773"/>
+      <c r="C16" s="777"/>
       <c r="D16" s="96"/>
       <c r="E16" s="97"/>
       <c r="F16" s="65"/>
@@ -15019,10 +15012,10 @@
       <c r="H16" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="777"/>
+      <c r="I16" s="774"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="774"/>
+      <c r="C17" s="778"/>
       <c r="D17" s="104"/>
       <c r="E17" s="105"/>
       <c r="F17" s="113" t="s">
@@ -15032,10 +15025,10 @@
       <c r="H17" s="501" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="777"/>
+      <c r="I17" s="774"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="775" t="s">
+      <c r="C18" s="776" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="98"/>
@@ -15047,10 +15040,10 @@
       <c r="H18" s="505" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="777"/>
+      <c r="I18" s="774"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="773"/>
+      <c r="C19" s="777"/>
       <c r="D19" s="72"/>
       <c r="E19" s="73"/>
       <c r="F19" s="65"/>
@@ -15058,10 +15051,10 @@
       <c r="H19" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="777"/>
+      <c r="I19" s="774"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="773"/>
+      <c r="C20" s="777"/>
       <c r="D20" s="96"/>
       <c r="E20" s="97"/>
       <c r="F20" s="65"/>
@@ -15069,10 +15062,10 @@
       <c r="H20" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="777"/>
+      <c r="I20" s="774"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="774"/>
+      <c r="C21" s="778"/>
       <c r="D21" s="104"/>
       <c r="E21" s="105"/>
       <c r="F21" s="82" t="s">
@@ -15082,10 +15075,10 @@
       <c r="H21" s="506" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="777"/>
+      <c r="I21" s="774"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="775" t="s">
+      <c r="C22" s="776" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="98"/>
@@ -15097,10 +15090,10 @@
       <c r="H22" s="504" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="777"/>
+      <c r="I22" s="774"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="773"/>
+      <c r="C23" s="777"/>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
       <c r="F23" s="65"/>
@@ -15108,10 +15101,10 @@
       <c r="H23" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="777"/>
+      <c r="I23" s="774"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="773"/>
+      <c r="C24" s="777"/>
       <c r="D24" s="72"/>
       <c r="E24" s="73"/>
       <c r="F24" s="81"/>
@@ -15119,10 +15112,10 @@
       <c r="H24" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="777"/>
+      <c r="I24" s="774"/>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="774"/>
+      <c r="C25" s="778"/>
       <c r="D25" s="96" t="s">
         <v>64</v>
       </c>
@@ -15136,10 +15129,10 @@
       <c r="H25" s="501" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="778"/>
+      <c r="I25" s="775"/>
     </row>
     <row r="26" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="775" t="s">
+      <c r="C26" s="776" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="484" t="s">
@@ -15162,7 +15155,7 @@
       </c>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="773"/>
+      <c r="C27" s="777"/>
       <c r="D27" s="447"/>
       <c r="E27" s="448"/>
       <c r="F27" s="62"/>
@@ -15172,12 +15165,12 @@
       <c r="H27" s="477" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="787" t="s">
+      <c r="I27" s="779" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="28" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="773"/>
+      <c r="C28" s="777"/>
       <c r="D28" s="445"/>
       <c r="E28" s="446"/>
       <c r="F28" s="81"/>
@@ -15185,10 +15178,10 @@
       <c r="H28" s="457" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="780"/>
+      <c r="I28" s="772"/>
     </row>
     <row r="29" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="774"/>
+      <c r="C29" s="778"/>
       <c r="D29" s="445"/>
       <c r="E29" s="446"/>
       <c r="F29" s="82" t="s">
@@ -15198,7 +15191,7 @@
       <c r="H29" s="478" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="781"/>
+      <c r="I29" s="780"/>
       <c r="J29" s="497" t="s">
         <v>84</v>
       </c>
@@ -15219,7 +15212,7 @@
       </c>
     </row>
     <row r="30" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="775" t="s">
+      <c r="C30" s="776" t="s">
         <v>105</v>
       </c>
       <c r="D30" s="449"/>
@@ -15242,12 +15235,12 @@
       <c r="N30" s="462" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="779" t="s">
+      <c r="O30" s="771" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="773"/>
+      <c r="C31" s="777"/>
       <c r="D31" s="64"/>
       <c r="E31" s="65"/>
       <c r="F31" s="65"/>
@@ -15266,10 +15259,10 @@
       <c r="N31" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="780"/>
+      <c r="O31" s="772"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="773"/>
+      <c r="C32" s="777"/>
       <c r="D32" s="64"/>
       <c r="E32" s="65"/>
       <c r="F32" s="65"/>
@@ -15288,10 +15281,10 @@
       <c r="N32" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="780"/>
+      <c r="O32" s="772"/>
     </row>
     <row r="33" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="774"/>
+      <c r="C33" s="778"/>
       <c r="D33" s="452" t="s">
         <v>73</v>
       </c>
@@ -15316,10 +15309,10 @@
       <c r="N33" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="780"/>
+      <c r="O33" s="772"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="775" t="s">
+      <c r="C34" s="776" t="s">
         <v>104</v>
       </c>
       <c r="D34" s="61"/>
@@ -15342,10 +15335,10 @@
       <c r="N34" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="780"/>
+      <c r="O34" s="772"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="773"/>
+      <c r="C35" s="777"/>
       <c r="D35" s="64"/>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
@@ -15364,10 +15357,10 @@
       <c r="N35" s="456" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="780"/>
+      <c r="O35" s="772"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="773"/>
+      <c r="C36" s="777"/>
       <c r="D36" s="64"/>
       <c r="E36" s="65"/>
       <c r="F36" s="65"/>
@@ -15386,10 +15379,10 @@
       <c r="N36" s="457" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="780"/>
+      <c r="O36" s="772"/>
     </row>
     <row r="37" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="774"/>
+      <c r="C37" s="778"/>
       <c r="D37" s="80" t="s">
         <v>73</v>
       </c>
@@ -15418,10 +15411,10 @@
       <c r="N37" s="458" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="781"/>
+      <c r="O37" s="780"/>
     </row>
     <row r="38" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="775" t="s">
+      <c r="C38" s="776" t="s">
         <v>103</v>
       </c>
       <c r="D38" s="449"/>
@@ -15437,7 +15430,7 @@
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="773"/>
+      <c r="C39" s="777"/>
       <c r="D39" s="64"/>
       <c r="E39" s="65"/>
       <c r="F39" s="66" t="s">
@@ -15451,7 +15444,7 @@
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="773"/>
+      <c r="C40" s="777"/>
       <c r="D40" s="64"/>
       <c r="E40" s="65"/>
       <c r="F40" s="66" t="s">
@@ -15465,7 +15458,7 @@
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="774"/>
+      <c r="C41" s="778"/>
       <c r="D41" s="108"/>
       <c r="E41" s="109"/>
       <c r="F41" s="82" t="s">
@@ -15479,7 +15472,7 @@
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="775" t="s">
+      <c r="C42" s="776" t="s">
         <v>102</v>
       </c>
       <c r="D42" s="61"/>
@@ -15495,7 +15488,7 @@
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="773"/>
+      <c r="C43" s="777"/>
       <c r="D43" s="64"/>
       <c r="E43" s="65"/>
       <c r="F43" s="66" t="s">
@@ -15509,7 +15502,7 @@
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="773"/>
+      <c r="C44" s="777"/>
       <c r="D44" s="64"/>
       <c r="E44" s="65"/>
       <c r="F44" s="82" t="s">
@@ -15523,7 +15516,7 @@
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="774"/>
+      <c r="C45" s="778"/>
       <c r="D45" s="80"/>
       <c r="E45" s="81"/>
       <c r="F45" s="113" t="s">
@@ -15537,7 +15530,7 @@
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="775" t="s">
+      <c r="C46" s="776" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="106"/>
@@ -15595,7 +15588,7 @@
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="775" t="s">
+      <c r="C50" s="776" t="s">
         <v>100</v>
       </c>
       <c r="D50" s="61"/>
@@ -15611,7 +15604,7 @@
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="773"/>
+      <c r="C51" s="777"/>
       <c r="D51" s="64"/>
       <c r="E51" s="65"/>
       <c r="F51" s="66" t="s">
@@ -15625,7 +15618,7 @@
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="773"/>
+      <c r="C52" s="777"/>
       <c r="D52" s="64"/>
       <c r="E52" s="65"/>
       <c r="F52" s="66" t="s">
@@ -15639,7 +15632,7 @@
       </c>
     </row>
     <row r="53" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="774"/>
+      <c r="C53" s="778"/>
       <c r="D53" s="452" t="s">
         <v>73</v>
       </c>
@@ -15657,7 +15650,7 @@
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="775" t="s">
+      <c r="C54" s="776" t="s">
         <v>99</v>
       </c>
       <c r="D54" s="61"/>
@@ -15673,7 +15666,7 @@
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="773"/>
+      <c r="C55" s="777"/>
       <c r="D55" s="64"/>
       <c r="E55" s="65"/>
       <c r="F55" s="66" t="s">
@@ -15687,7 +15680,7 @@
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="773"/>
+      <c r="C56" s="777"/>
       <c r="D56" s="80"/>
       <c r="E56" s="81"/>
       <c r="F56" s="66" t="s">
@@ -15701,7 +15694,7 @@
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="774"/>
+      <c r="C57" s="778"/>
       <c r="D57" s="108"/>
       <c r="E57" s="109"/>
       <c r="F57" s="82" t="s">
@@ -15715,7 +15708,7 @@
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="775" t="s">
+      <c r="C58" s="776" t="s">
         <v>98</v>
       </c>
       <c r="D58" s="61"/>
@@ -15731,7 +15724,7 @@
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="773"/>
+      <c r="C59" s="777"/>
       <c r="D59" s="64"/>
       <c r="E59" s="65"/>
       <c r="F59" s="66" t="s">
@@ -15745,7 +15738,7 @@
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="773"/>
+      <c r="C60" s="777"/>
       <c r="D60" s="80"/>
       <c r="E60" s="81"/>
       <c r="F60" s="66" t="s">
@@ -15759,7 +15752,7 @@
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="774"/>
+      <c r="C61" s="778"/>
       <c r="D61" s="80"/>
       <c r="E61" s="81"/>
       <c r="F61" s="82" t="s">
@@ -15773,7 +15766,7 @@
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="775" t="s">
+      <c r="C62" s="776" t="s">
         <v>97</v>
       </c>
       <c r="D62" s="106"/>
@@ -15789,7 +15782,7 @@
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="773"/>
+      <c r="C63" s="777"/>
       <c r="D63" s="64"/>
       <c r="E63" s="65"/>
       <c r="F63" s="66" t="s">
@@ -15803,7 +15796,7 @@
       </c>
     </row>
     <row r="64" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="773"/>
+      <c r="C64" s="777"/>
       <c r="D64" s="64"/>
       <c r="E64" s="65"/>
       <c r="F64" s="66" t="s">
@@ -15817,7 +15810,7 @@
       </c>
     </row>
     <row r="65" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="774"/>
+      <c r="C65" s="778"/>
       <c r="D65" s="110"/>
       <c r="E65" s="109"/>
       <c r="F65" s="113" t="s">
@@ -15849,7 +15842,7 @@
       </c>
     </row>
     <row r="66" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="775" t="s">
+      <c r="C66" s="776" t="s">
         <v>96</v>
       </c>
       <c r="D66" s="61"/>
@@ -15875,12 +15868,12 @@
       <c r="N66" s="475" t="s">
         <v>33</v>
       </c>
-      <c r="O66" s="776" t="s">
+      <c r="O66" s="781" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C67" s="773"/>
+      <c r="C67" s="777"/>
       <c r="D67" s="64"/>
       <c r="E67" s="65"/>
       <c r="F67" s="66" t="s">
@@ -15904,10 +15897,10 @@
       <c r="N67" s="471" t="s">
         <v>32</v>
       </c>
-      <c r="O67" s="777"/>
+      <c r="O67" s="774"/>
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C68" s="773"/>
+      <c r="C68" s="777"/>
       <c r="D68" s="64"/>
       <c r="E68" s="65"/>
       <c r="F68" s="66" t="s">
@@ -15931,7 +15924,7 @@
       <c r="N68" s="471" t="s">
         <v>32</v>
       </c>
-      <c r="O68" s="777"/>
+      <c r="O68" s="774"/>
     </row>
     <row r="69" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="784"/>
@@ -15966,16 +15959,16 @@
       <c r="N69" s="472" t="s">
         <v>32</v>
       </c>
-      <c r="O69" s="778"/>
+      <c r="O69" s="775"/>
     </row>
     <row r="70" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
     <mergeCell ref="O66:O69"/>
     <mergeCell ref="O30:O37"/>
     <mergeCell ref="C38:C41"/>
@@ -15989,11 +15982,11 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="I66:I69"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="I27:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17448,16 +17441,16 @@
     <row r="2" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="514"/>
       <c r="C2" s="515"/>
-      <c r="D2" s="788" t="s">
+      <c r="D2" s="789" t="s">
         <v>900</v>
       </c>
-      <c r="E2" s="789"/>
+      <c r="E2" s="790"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="790" t="s">
+      <c r="B3" s="791" t="s">
         <v>897</v>
       </c>
-      <c r="C3" s="791"/>
+      <c r="C3" s="792"/>
       <c r="D3" s="516" t="s">
         <v>902</v>
       </c>
@@ -17838,7 +17831,7 @@
       <c r="B3" s="511" t="s">
         <v>919</v>
       </c>
-      <c r="C3" s="792" t="s">
+      <c r="C3" s="793" t="s">
         <v>932</v>
       </c>
     </row>
@@ -17846,13 +17839,13 @@
       <c r="B4" s="512" t="s">
         <v>920</v>
       </c>
-      <c r="C4" s="793"/>
+      <c r="C4" s="794"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="512" t="s">
         <v>921</v>
       </c>
-      <c r="C5" s="793"/>
+      <c r="C5" s="794"/>
       <c r="F5" s="527" t="s">
         <v>196</v>
       </c>
@@ -17907,7 +17900,7 @@
       <c r="B6" s="512" t="s">
         <v>922</v>
       </c>
-      <c r="C6" s="793"/>
+      <c r="C6" s="794"/>
       <c r="F6" s="526"/>
       <c r="G6" s="528" t="s">
         <v>962</v>
@@ -17964,7 +17957,7 @@
       <c r="B7" s="512" t="s">
         <v>923</v>
       </c>
-      <c r="C7" s="793"/>
+      <c r="C7" s="794"/>
       <c r="F7" s="526"/>
       <c r="G7" s="526"/>
       <c r="H7" s="528" t="s">
@@ -18021,7 +18014,7 @@
       <c r="B8" s="512" t="s">
         <v>933</v>
       </c>
-      <c r="C8" s="793"/>
+      <c r="C8" s="794"/>
       <c r="F8" s="526"/>
       <c r="G8" s="527" t="s">
         <v>216</v>
@@ -18076,13 +18069,13 @@
       <c r="B9" s="512" t="s">
         <v>924</v>
       </c>
-      <c r="C9" s="793"/>
+      <c r="C9" s="794"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="512" t="s">
         <v>925</v>
       </c>
-      <c r="C10" s="793"/>
+      <c r="C10" s="794"/>
       <c r="F10" s="530" t="s">
         <v>97</v>
       </c>
@@ -18137,7 +18130,7 @@
       <c r="B11" s="512" t="s">
         <v>926</v>
       </c>
-      <c r="C11" s="793"/>
+      <c r="C11" s="794"/>
       <c r="F11" s="526"/>
       <c r="G11" s="528" t="s">
         <v>943</v>
@@ -18245,7 +18238,7 @@
       <c r="B13" s="512" t="s">
         <v>927</v>
       </c>
-      <c r="C13" s="794" t="s">
+      <c r="C13" s="795" t="s">
         <v>931</v>
       </c>
       <c r="F13" s="526"/>
@@ -18302,19 +18295,19 @@
       <c r="B14" s="512" t="s">
         <v>928</v>
       </c>
-      <c r="C14" s="795"/>
+      <c r="C14" s="796"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="512" t="s">
         <v>929</v>
       </c>
-      <c r="C15" s="795"/>
+      <c r="C15" s="796"/>
     </row>
     <row r="16" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="513" t="s">
         <v>930</v>
       </c>
-      <c r="C16" s="796"/>
+      <c r="C16" s="797"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19248,10 +19241,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="797" t="s">
+      <c r="B1" s="798" t="s">
         <v>648</v>
       </c>
-      <c r="C1" s="798"/>
+      <c r="C1" s="799"/>
       <c r="D1" s="337" t="s">
         <v>657</v>
       </c>
@@ -20609,15 +20602,15 @@
       <c r="D5" s="179" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="799" t="s">
+      <c r="E5" s="800" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="800"/>
-      <c r="G5" s="801" t="s">
+      <c r="F5" s="801"/>
+      <c r="G5" s="802" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="801"/>
-      <c r="I5" s="800"/>
+      <c r="H5" s="802"/>
+      <c r="I5" s="801"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -20719,58 +20712,58 @@
       <c r="M9" s="181"/>
       <c r="N9" s="181"/>
       <c r="O9" s="181"/>
-      <c r="P9" s="799" t="s">
+      <c r="P9" s="800" t="s">
         <v>285</v>
       </c>
-      <c r="Q9" s="802"/>
-      <c r="R9" s="799" t="s">
+      <c r="Q9" s="803"/>
+      <c r="R9" s="800" t="s">
         <v>270</v>
       </c>
-      <c r="S9" s="802"/>
+      <c r="S9" s="803"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C10" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="803" t="s">
+      <c r="D10" s="804" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="804"/>
-      <c r="F10" s="804"/>
-      <c r="G10" s="804"/>
-      <c r="H10" s="804"/>
-      <c r="I10" s="804"/>
-      <c r="J10" s="804"/>
-      <c r="K10" s="804"/>
-      <c r="L10" s="804"/>
-      <c r="M10" s="804"/>
-      <c r="N10" s="804"/>
-      <c r="O10" s="804"/>
-      <c r="P10" s="804"/>
-      <c r="Q10" s="804"/>
-      <c r="R10" s="804"/>
-      <c r="S10" s="727"/>
+      <c r="E10" s="805"/>
+      <c r="F10" s="805"/>
+      <c r="G10" s="805"/>
+      <c r="H10" s="805"/>
+      <c r="I10" s="805"/>
+      <c r="J10" s="805"/>
+      <c r="K10" s="805"/>
+      <c r="L10" s="805"/>
+      <c r="M10" s="805"/>
+      <c r="N10" s="805"/>
+      <c r="O10" s="805"/>
+      <c r="P10" s="805"/>
+      <c r="Q10" s="805"/>
+      <c r="R10" s="805"/>
+      <c r="S10" s="765"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="805"/>
-      <c r="E11" s="806"/>
-      <c r="F11" s="806"/>
-      <c r="G11" s="806"/>
-      <c r="H11" s="806"/>
-      <c r="I11" s="806"/>
-      <c r="J11" s="806"/>
-      <c r="K11" s="806"/>
-      <c r="L11" s="806"/>
-      <c r="M11" s="806"/>
-      <c r="N11" s="806"/>
-      <c r="O11" s="806"/>
-      <c r="P11" s="806"/>
-      <c r="Q11" s="806"/>
-      <c r="R11" s="806"/>
-      <c r="S11" s="729"/>
+      <c r="D11" s="806"/>
+      <c r="E11" s="807"/>
+      <c r="F11" s="807"/>
+      <c r="G11" s="807"/>
+      <c r="H11" s="807"/>
+      <c r="I11" s="807"/>
+      <c r="J11" s="807"/>
+      <c r="K11" s="807"/>
+      <c r="L11" s="807"/>
+      <c r="M11" s="807"/>
+      <c r="N11" s="807"/>
+      <c r="O11" s="807"/>
+      <c r="P11" s="807"/>
+      <c r="Q11" s="807"/>
+      <c r="R11" s="807"/>
+      <c r="S11" s="767"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -20873,94 +20866,94 @@
       <c r="D19" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="E19" s="810" t="s">
+      <c r="E19" s="811" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="811"/>
-      <c r="G19" s="811"/>
-      <c r="H19" s="811"/>
-      <c r="I19" s="811"/>
-      <c r="J19" s="811"/>
-      <c r="K19" s="811"/>
-      <c r="L19" s="811"/>
-      <c r="M19" s="811"/>
-      <c r="N19" s="811"/>
-      <c r="O19" s="811"/>
-      <c r="P19" s="811"/>
-      <c r="Q19" s="811"/>
-      <c r="R19" s="811"/>
-      <c r="S19" s="748"/>
+      <c r="F19" s="812"/>
+      <c r="G19" s="812"/>
+      <c r="H19" s="812"/>
+      <c r="I19" s="812"/>
+      <c r="J19" s="812"/>
+      <c r="K19" s="812"/>
+      <c r="L19" s="812"/>
+      <c r="M19" s="812"/>
+      <c r="N19" s="812"/>
+      <c r="O19" s="812"/>
+      <c r="P19" s="812"/>
+      <c r="Q19" s="812"/>
+      <c r="R19" s="812"/>
+      <c r="S19" s="732"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="807" t="s">
+      <c r="D20" s="808" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="808"/>
-      <c r="F20" s="808"/>
-      <c r="G20" s="808"/>
-      <c r="H20" s="808"/>
-      <c r="I20" s="808"/>
-      <c r="J20" s="808"/>
-      <c r="K20" s="808"/>
-      <c r="L20" s="808"/>
-      <c r="M20" s="808"/>
-      <c r="N20" s="808"/>
-      <c r="O20" s="808"/>
-      <c r="P20" s="809"/>
+      <c r="E20" s="809"/>
+      <c r="F20" s="809"/>
+      <c r="G20" s="809"/>
+      <c r="H20" s="809"/>
+      <c r="I20" s="809"/>
+      <c r="J20" s="809"/>
+      <c r="K20" s="809"/>
+      <c r="L20" s="809"/>
+      <c r="M20" s="809"/>
+      <c r="N20" s="809"/>
+      <c r="O20" s="809"/>
+      <c r="P20" s="810"/>
       <c r="Q20" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="R20" s="799" t="s">
+      <c r="R20" s="800" t="s">
         <v>270</v>
       </c>
-      <c r="S20" s="802"/>
+      <c r="S20" s="803"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C21" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="803" t="s">
+      <c r="D21" s="804" t="s">
         <v>271</v>
       </c>
-      <c r="E21" s="804"/>
-      <c r="F21" s="804"/>
-      <c r="G21" s="804"/>
-      <c r="H21" s="804"/>
-      <c r="I21" s="804"/>
-      <c r="J21" s="804"/>
-      <c r="K21" s="804"/>
-      <c r="L21" s="804"/>
-      <c r="M21" s="804"/>
-      <c r="N21" s="804"/>
-      <c r="O21" s="804"/>
-      <c r="P21" s="804"/>
-      <c r="Q21" s="804"/>
-      <c r="R21" s="804"/>
-      <c r="S21" s="727"/>
+      <c r="E21" s="805"/>
+      <c r="F21" s="805"/>
+      <c r="G21" s="805"/>
+      <c r="H21" s="805"/>
+      <c r="I21" s="805"/>
+      <c r="J21" s="805"/>
+      <c r="K21" s="805"/>
+      <c r="L21" s="805"/>
+      <c r="M21" s="805"/>
+      <c r="N21" s="805"/>
+      <c r="O21" s="805"/>
+      <c r="P21" s="805"/>
+      <c r="Q21" s="805"/>
+      <c r="R21" s="805"/>
+      <c r="S21" s="765"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="805"/>
-      <c r="E22" s="806"/>
-      <c r="F22" s="806"/>
-      <c r="G22" s="806"/>
-      <c r="H22" s="806"/>
-      <c r="I22" s="806"/>
-      <c r="J22" s="806"/>
-      <c r="K22" s="806"/>
-      <c r="L22" s="806"/>
-      <c r="M22" s="806"/>
-      <c r="N22" s="806"/>
-      <c r="O22" s="806"/>
-      <c r="P22" s="806"/>
-      <c r="Q22" s="806"/>
-      <c r="R22" s="806"/>
-      <c r="S22" s="729"/>
+      <c r="D22" s="806"/>
+      <c r="E22" s="807"/>
+      <c r="F22" s="807"/>
+      <c r="G22" s="807"/>
+      <c r="H22" s="807"/>
+      <c r="I22" s="807"/>
+      <c r="J22" s="807"/>
+      <c r="K22" s="807"/>
+      <c r="L22" s="807"/>
+      <c r="M22" s="807"/>
+      <c r="N22" s="807"/>
+      <c r="O22" s="807"/>
+      <c r="P22" s="807"/>
+      <c r="Q22" s="807"/>
+      <c r="R22" s="807"/>
+      <c r="S22" s="767"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K24" t="s">

--- a/DOC/DEG2000.xlsx
+++ b/DOC/DEG2000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devel\1 DEG2000\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D8BB55-3F62-4B9C-BABD-14E6E96D9003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE533840-5895-4694-8FB8-0570E8D49A15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22020" windowHeight="11100" activeTab="5" xr2:uid="{F91C61BF-F393-4C13-9000-551DF6FEF055}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="1347">
   <si>
     <t>cpuStatus</t>
   </si>
@@ -4071,12 +4071,126 @@
   <si>
     <t>ETB</t>
   </si>
+  <si>
+    <t>PF3</t>
+  </si>
+  <si>
+    <t>PF4</t>
+  </si>
+  <si>
+    <t>PF5</t>
+  </si>
+  <si>
+    <t>PF6</t>
+  </si>
+  <si>
+    <t>PF7</t>
+  </si>
+  <si>
+    <t>PF8</t>
+  </si>
+  <si>
+    <t>PF9</t>
+  </si>
+  <si>
+    <t>PF10</t>
+  </si>
+  <si>
+    <t>PF11</t>
+  </si>
+  <si>
+    <t>PF25</t>
+  </si>
+  <si>
+    <t>PF18</t>
+  </si>
+  <si>
+    <t>PF12</t>
+  </si>
+  <si>
+    <t>PF26</t>
+  </si>
+  <si>
+    <t>PF19</t>
+  </si>
+  <si>
+    <t>PF13</t>
+  </si>
+  <si>
+    <t>PF20</t>
+  </si>
+  <si>
+    <t>PF14</t>
+  </si>
+  <si>
+    <t>PF21</t>
+  </si>
+  <si>
+    <t>PF27</t>
+  </si>
+  <si>
+    <t>PF22</t>
+  </si>
+  <si>
+    <t>PF28</t>
+  </si>
+  <si>
+    <t>PF15</t>
+  </si>
+  <si>
+    <t>PF23</t>
+  </si>
+  <si>
+    <t>PF16</t>
+  </si>
+  <si>
+    <t>PF17</t>
+  </si>
+  <si>
+    <t>PF24</t>
+  </si>
+  <si>
+    <t>PF29</t>
+  </si>
+  <si>
+    <t>PF30</t>
+  </si>
+  <si>
+    <t>PF31</t>
+  </si>
+  <si>
+    <t>PF32</t>
+  </si>
+  <si>
+    <t>PF33</t>
+  </si>
+  <si>
+    <t>PF34</t>
+  </si>
+  <si>
+    <t>PF35</t>
+  </si>
+  <si>
+    <t>PF36</t>
+  </si>
+  <si>
+    <t>NegQuit</t>
+  </si>
+  <si>
+    <t>PosQuit</t>
+  </si>
+  <si>
+    <t>LTAB</t>
+  </si>
+  <si>
+    <t>RTAB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4206,6 +4320,44 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="26">
@@ -8229,7 +8381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="957">
+  <cellXfs count="989">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9569,7 +9721,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="226" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="285" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="286" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="287" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="226" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="285" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9659,7 +9810,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="218" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="125" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="127" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="291" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="290" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="127" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -9669,12 +9819,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="210" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="217" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="138" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="290" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="283" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9929,6 +10080,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="138" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10038,15 +10195,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="286" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="286" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="289" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="125" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="127" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="218" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="209" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="291" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="209" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="217" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="210" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="138" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="290" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="210" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="210" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="291" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="209" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="209" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -10682,13 +10866,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11055,16 +11239,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="829" t="s">
+      <c r="F1" s="826" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="830"/>
-      <c r="H1" s="830"/>
-      <c r="I1" s="831" t="s">
+      <c r="G1" s="827"/>
+      <c r="H1" s="827"/>
+      <c r="I1" s="828" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="832"/>
-      <c r="K1" s="833"/>
+      <c r="J1" s="829"/>
+      <c r="K1" s="830"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -11451,15 +11635,15 @@
       <c r="D5" s="179" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="924" t="s">
+      <c r="E5" s="923" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="925"/>
-      <c r="G5" s="926" t="s">
+      <c r="F5" s="924"/>
+      <c r="G5" s="925" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="926"/>
-      <c r="I5" s="925"/>
+      <c r="H5" s="925"/>
+      <c r="I5" s="924"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -11561,58 +11745,58 @@
       <c r="M9" s="181"/>
       <c r="N9" s="181"/>
       <c r="O9" s="181"/>
-      <c r="P9" s="924" t="s">
+      <c r="P9" s="923" t="s">
         <v>285</v>
       </c>
-      <c r="Q9" s="927"/>
-      <c r="R9" s="924" t="s">
+      <c r="Q9" s="926"/>
+      <c r="R9" s="923" t="s">
         <v>270</v>
       </c>
-      <c r="S9" s="927"/>
+      <c r="S9" s="926"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C10" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="928" t="s">
+      <c r="D10" s="927" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="929"/>
-      <c r="F10" s="929"/>
-      <c r="G10" s="929"/>
-      <c r="H10" s="929"/>
-      <c r="I10" s="929"/>
-      <c r="J10" s="929"/>
-      <c r="K10" s="929"/>
-      <c r="L10" s="929"/>
-      <c r="M10" s="929"/>
-      <c r="N10" s="929"/>
-      <c r="O10" s="929"/>
-      <c r="P10" s="929"/>
-      <c r="Q10" s="929"/>
-      <c r="R10" s="929"/>
-      <c r="S10" s="852"/>
+      <c r="E10" s="928"/>
+      <c r="F10" s="928"/>
+      <c r="G10" s="928"/>
+      <c r="H10" s="928"/>
+      <c r="I10" s="928"/>
+      <c r="J10" s="928"/>
+      <c r="K10" s="928"/>
+      <c r="L10" s="928"/>
+      <c r="M10" s="928"/>
+      <c r="N10" s="928"/>
+      <c r="O10" s="928"/>
+      <c r="P10" s="928"/>
+      <c r="Q10" s="928"/>
+      <c r="R10" s="928"/>
+      <c r="S10" s="849"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="930"/>
-      <c r="E11" s="931"/>
-      <c r="F11" s="931"/>
-      <c r="G11" s="931"/>
-      <c r="H11" s="931"/>
-      <c r="I11" s="931"/>
-      <c r="J11" s="931"/>
-      <c r="K11" s="931"/>
-      <c r="L11" s="931"/>
-      <c r="M11" s="931"/>
-      <c r="N11" s="931"/>
-      <c r="O11" s="931"/>
-      <c r="P11" s="931"/>
-      <c r="Q11" s="931"/>
-      <c r="R11" s="931"/>
-      <c r="S11" s="854"/>
+      <c r="D11" s="929"/>
+      <c r="E11" s="930"/>
+      <c r="F11" s="930"/>
+      <c r="G11" s="930"/>
+      <c r="H11" s="930"/>
+      <c r="I11" s="930"/>
+      <c r="J11" s="930"/>
+      <c r="K11" s="930"/>
+      <c r="L11" s="930"/>
+      <c r="M11" s="930"/>
+      <c r="N11" s="930"/>
+      <c r="O11" s="930"/>
+      <c r="P11" s="930"/>
+      <c r="Q11" s="930"/>
+      <c r="R11" s="930"/>
+      <c r="S11" s="851"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -11715,94 +11899,94 @@
       <c r="D19" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="E19" s="935" t="s">
+      <c r="E19" s="934" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="936"/>
-      <c r="G19" s="936"/>
-      <c r="H19" s="936"/>
-      <c r="I19" s="936"/>
-      <c r="J19" s="936"/>
-      <c r="K19" s="936"/>
-      <c r="L19" s="936"/>
-      <c r="M19" s="936"/>
-      <c r="N19" s="936"/>
-      <c r="O19" s="936"/>
-      <c r="P19" s="936"/>
-      <c r="Q19" s="936"/>
-      <c r="R19" s="936"/>
-      <c r="S19" s="873"/>
+      <c r="F19" s="935"/>
+      <c r="G19" s="935"/>
+      <c r="H19" s="935"/>
+      <c r="I19" s="935"/>
+      <c r="J19" s="935"/>
+      <c r="K19" s="935"/>
+      <c r="L19" s="935"/>
+      <c r="M19" s="935"/>
+      <c r="N19" s="935"/>
+      <c r="O19" s="935"/>
+      <c r="P19" s="935"/>
+      <c r="Q19" s="935"/>
+      <c r="R19" s="935"/>
+      <c r="S19" s="870"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="932" t="s">
+      <c r="D20" s="931" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="933"/>
-      <c r="F20" s="933"/>
-      <c r="G20" s="933"/>
-      <c r="H20" s="933"/>
-      <c r="I20" s="933"/>
-      <c r="J20" s="933"/>
-      <c r="K20" s="933"/>
-      <c r="L20" s="933"/>
-      <c r="M20" s="933"/>
-      <c r="N20" s="933"/>
-      <c r="O20" s="933"/>
-      <c r="P20" s="934"/>
+      <c r="E20" s="932"/>
+      <c r="F20" s="932"/>
+      <c r="G20" s="932"/>
+      <c r="H20" s="932"/>
+      <c r="I20" s="932"/>
+      <c r="J20" s="932"/>
+      <c r="K20" s="932"/>
+      <c r="L20" s="932"/>
+      <c r="M20" s="932"/>
+      <c r="N20" s="932"/>
+      <c r="O20" s="932"/>
+      <c r="P20" s="933"/>
       <c r="Q20" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="R20" s="924" t="s">
+      <c r="R20" s="923" t="s">
         <v>270</v>
       </c>
-      <c r="S20" s="927"/>
+      <c r="S20" s="926"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C21" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="928" t="s">
+      <c r="D21" s="927" t="s">
         <v>271</v>
       </c>
-      <c r="E21" s="929"/>
-      <c r="F21" s="929"/>
-      <c r="G21" s="929"/>
-      <c r="H21" s="929"/>
-      <c r="I21" s="929"/>
-      <c r="J21" s="929"/>
-      <c r="K21" s="929"/>
-      <c r="L21" s="929"/>
-      <c r="M21" s="929"/>
-      <c r="N21" s="929"/>
-      <c r="O21" s="929"/>
-      <c r="P21" s="929"/>
-      <c r="Q21" s="929"/>
-      <c r="R21" s="929"/>
-      <c r="S21" s="852"/>
+      <c r="E21" s="928"/>
+      <c r="F21" s="928"/>
+      <c r="G21" s="928"/>
+      <c r="H21" s="928"/>
+      <c r="I21" s="928"/>
+      <c r="J21" s="928"/>
+      <c r="K21" s="928"/>
+      <c r="L21" s="928"/>
+      <c r="M21" s="928"/>
+      <c r="N21" s="928"/>
+      <c r="O21" s="928"/>
+      <c r="P21" s="928"/>
+      <c r="Q21" s="928"/>
+      <c r="R21" s="928"/>
+      <c r="S21" s="849"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="930"/>
-      <c r="E22" s="931"/>
-      <c r="F22" s="931"/>
-      <c r="G22" s="931"/>
-      <c r="H22" s="931"/>
-      <c r="I22" s="931"/>
-      <c r="J22" s="931"/>
-      <c r="K22" s="931"/>
-      <c r="L22" s="931"/>
-      <c r="M22" s="931"/>
-      <c r="N22" s="931"/>
-      <c r="O22" s="931"/>
-      <c r="P22" s="931"/>
-      <c r="Q22" s="931"/>
-      <c r="R22" s="931"/>
-      <c r="S22" s="854"/>
+      <c r="D22" s="929"/>
+      <c r="E22" s="930"/>
+      <c r="F22" s="930"/>
+      <c r="G22" s="930"/>
+      <c r="H22" s="930"/>
+      <c r="I22" s="930"/>
+      <c r="J22" s="930"/>
+      <c r="K22" s="930"/>
+      <c r="L22" s="930"/>
+      <c r="M22" s="930"/>
+      <c r="N22" s="930"/>
+      <c r="O22" s="930"/>
+      <c r="P22" s="930"/>
+      <c r="Q22" s="930"/>
+      <c r="R22" s="930"/>
+      <c r="S22" s="851"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
@@ -12054,7 +12238,7 @@
       <c r="J12" s="220" t="s">
         <v>354</v>
       </c>
-      <c r="K12" s="937" t="s">
+      <c r="K12" s="936" t="s">
         <v>362</v>
       </c>
     </row>
@@ -12072,7 +12256,7 @@
       <c r="J13" s="220" t="s">
         <v>355</v>
       </c>
-      <c r="K13" s="937"/>
+      <c r="K13" s="936"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="569"/>
@@ -12158,7 +12342,7 @@
       <c r="J18" s="220" t="s">
         <v>360</v>
       </c>
-      <c r="K18" s="937" t="s">
+      <c r="K18" s="936" t="s">
         <v>362</v>
       </c>
     </row>
@@ -12176,7 +12360,7 @@
       <c r="J19" s="220" t="s">
         <v>361</v>
       </c>
-      <c r="K19" s="937"/>
+      <c r="K19" s="936"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="569"/>
@@ -12779,7 +12963,7 @@
       <c r="K54" s="589"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="944" t="s">
+      <c r="B55" s="943" t="s">
         <v>986</v>
       </c>
       <c r="C55" s="244">
@@ -12795,7 +12979,7 @@
       <c r="K55" s="589"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="945"/>
+      <c r="B56" s="944"/>
       <c r="C56" s="244">
         <v>14</v>
       </c>
@@ -13110,14 +13294,14 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="579"/>
-      <c r="C75" s="938">
+      <c r="C75" s="937">
         <v>31</v>
       </c>
       <c r="D75" s="620"/>
       <c r="E75" s="630" t="s">
         <v>844</v>
       </c>
-      <c r="F75" s="941">
+      <c r="F75" s="940">
         <v>4</v>
       </c>
       <c r="G75" s="631" t="s">
@@ -13132,12 +13316,12 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="588"/>
-      <c r="C76" s="939"/>
+      <c r="C76" s="938"/>
       <c r="D76" s="39"/>
       <c r="E76" s="635" t="s">
         <v>268</v>
       </c>
-      <c r="F76" s="942"/>
+      <c r="F76" s="941"/>
       <c r="G76" s="636" t="s">
         <v>831</v>
       </c>
@@ -13150,12 +13334,12 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="588"/>
-      <c r="C77" s="940"/>
+      <c r="C77" s="939"/>
       <c r="D77" s="39"/>
       <c r="E77" s="635" t="s">
         <v>268</v>
       </c>
-      <c r="F77" s="943"/>
+      <c r="F77" s="942"/>
       <c r="G77" s="636" t="s">
         <v>833</v>
       </c>
@@ -13948,7 +14132,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13988,7 +14172,7 @@
       <c r="D3" s="323">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="823" t="s">
         <v>502</v>
       </c>
       <c r="F3" s="315" t="s">
@@ -14049,7 +14233,7 @@
       <c r="D6" s="323">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="823" t="s">
         <v>508</v>
       </c>
       <c r="F6" s="315" t="s">
@@ -14064,7 +14248,7 @@
       <c r="D7" s="323">
         <v>5</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="823" t="s">
         <v>510</v>
       </c>
       <c r="F7" s="315" t="s">
@@ -14079,7 +14263,7 @@
       <c r="D8" s="323">
         <v>6</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="823" t="s">
         <v>512</v>
       </c>
       <c r="F8" s="315" t="s">
@@ -14332,7 +14516,7 @@
       <c r="D23" s="323">
         <v>21</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="823" t="s">
         <v>547</v>
       </c>
       <c r="F23" s="315" t="s">
@@ -14372,7 +14556,9 @@
         <v>554</v>
       </c>
       <c r="H25" s="17"/>
-      <c r="I25" s="220"/>
+      <c r="I25" s="220" t="s">
+        <v>591</v>
+      </c>
       <c r="J25" s="221"/>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.25">
@@ -14389,7 +14575,9 @@
         <v>553</v>
       </c>
       <c r="H26" s="17"/>
-      <c r="I26" s="220"/>
+      <c r="I26" s="220" t="s">
+        <v>591</v>
+      </c>
       <c r="J26" s="221"/>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
@@ -14406,7 +14594,9 @@
         <v>557</v>
       </c>
       <c r="H27" s="17"/>
-      <c r="I27" s="220"/>
+      <c r="I27" s="220" t="s">
+        <v>591</v>
+      </c>
       <c r="J27" s="221"/>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.25">
@@ -14900,22 +15090,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="946"/>
-      <c r="C2" s="946"/>
-      <c r="D2" s="946"/>
-      <c r="E2" s="946"/>
-      <c r="F2" s="946"/>
-      <c r="G2" s="946"/>
+      <c r="B2" s="945"/>
+      <c r="C2" s="945"/>
+      <c r="D2" s="945"/>
+      <c r="E2" s="945"/>
+      <c r="F2" s="945"/>
+      <c r="G2" s="945"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="947" t="s">
+      <c r="B3" s="946" t="s">
         <v>854</v>
       </c>
-      <c r="C3" s="948"/>
-      <c r="D3" s="948"/>
-      <c r="E3" s="948"/>
-      <c r="F3" s="948"/>
-      <c r="G3" s="949"/>
+      <c r="C3" s="947"/>
+      <c r="D3" s="947"/>
+      <c r="E3" s="947"/>
+      <c r="F3" s="947"/>
+      <c r="G3" s="948"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="397" t="s">
@@ -14974,14 +15164,14 @@
       <c r="G7" s="216"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="950" t="s">
+      <c r="B8" s="949" t="s">
         <v>855</v>
       </c>
-      <c r="C8" s="951"/>
-      <c r="D8" s="951"/>
-      <c r="E8" s="951"/>
-      <c r="F8" s="951"/>
-      <c r="G8" s="952"/>
+      <c r="C8" s="950"/>
+      <c r="D8" s="950"/>
+      <c r="E8" s="950"/>
+      <c r="F8" s="950"/>
+      <c r="G8" s="951"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="397" t="s">
@@ -15040,14 +15230,14 @@
       <c r="G12" s="216"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="950" t="s">
+      <c r="B13" s="949" t="s">
         <v>856</v>
       </c>
-      <c r="C13" s="951"/>
-      <c r="D13" s="951"/>
-      <c r="E13" s="951"/>
-      <c r="F13" s="951"/>
-      <c r="G13" s="952"/>
+      <c r="C13" s="950"/>
+      <c r="D13" s="950"/>
+      <c r="E13" s="950"/>
+      <c r="F13" s="950"/>
+      <c r="G13" s="951"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="397" t="s">
@@ -15106,14 +15296,14 @@
       <c r="G17" s="216"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="950" t="s">
+      <c r="B18" s="949" t="s">
         <v>857</v>
       </c>
-      <c r="C18" s="951"/>
-      <c r="D18" s="951"/>
-      <c r="E18" s="951"/>
-      <c r="F18" s="951"/>
-      <c r="G18" s="952"/>
+      <c r="C18" s="950"/>
+      <c r="D18" s="950"/>
+      <c r="E18" s="950"/>
+      <c r="F18" s="950"/>
+      <c r="G18" s="951"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="397" t="s">
@@ -15204,24 +15394,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="946" t="s">
+      <c r="B2" s="945" t="s">
         <v>867</v>
       </c>
-      <c r="C2" s="953"/>
-      <c r="D2" s="953"/>
-      <c r="E2" s="953"/>
-      <c r="F2" s="953"/>
-      <c r="G2" s="953"/>
+      <c r="C2" s="952"/>
+      <c r="D2" s="952"/>
+      <c r="E2" s="952"/>
+      <c r="F2" s="952"/>
+      <c r="G2" s="952"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="947" t="s">
+      <c r="B3" s="946" t="s">
         <v>854</v>
       </c>
-      <c r="C3" s="948"/>
-      <c r="D3" s="948"/>
-      <c r="E3" s="948"/>
-      <c r="F3" s="948"/>
-      <c r="G3" s="949"/>
+      <c r="C3" s="947"/>
+      <c r="D3" s="947"/>
+      <c r="E3" s="947"/>
+      <c r="F3" s="947"/>
+      <c r="G3" s="948"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="424" t="s">
@@ -15300,14 +15490,14 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="950" t="s">
+      <c r="B8" s="949" t="s">
         <v>855</v>
       </c>
-      <c r="C8" s="951"/>
-      <c r="D8" s="951"/>
-      <c r="E8" s="951"/>
-      <c r="F8" s="951"/>
-      <c r="G8" s="952"/>
+      <c r="C8" s="950"/>
+      <c r="D8" s="950"/>
+      <c r="E8" s="950"/>
+      <c r="F8" s="950"/>
+      <c r="G8" s="951"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="406" t="s">
@@ -15366,14 +15556,14 @@
       <c r="G12" s="423"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="950" t="s">
+      <c r="B13" s="949" t="s">
         <v>856</v>
       </c>
-      <c r="C13" s="951"/>
-      <c r="D13" s="951"/>
-      <c r="E13" s="951"/>
-      <c r="F13" s="951"/>
-      <c r="G13" s="952"/>
+      <c r="C13" s="950"/>
+      <c r="D13" s="950"/>
+      <c r="E13" s="950"/>
+      <c r="F13" s="950"/>
+      <c r="G13" s="951"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="406" t="s">
@@ -15432,14 +15622,14 @@
       <c r="G17" s="423"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="950" t="s">
+      <c r="B18" s="949" t="s">
         <v>857</v>
       </c>
-      <c r="C18" s="951"/>
-      <c r="D18" s="951"/>
-      <c r="E18" s="951"/>
-      <c r="F18" s="951"/>
-      <c r="G18" s="952"/>
+      <c r="C18" s="950"/>
+      <c r="D18" s="950"/>
+      <c r="E18" s="950"/>
+      <c r="F18" s="950"/>
+      <c r="G18" s="951"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="406" t="s">
@@ -15544,29 +15734,29 @@
       <c r="L3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="851">
+      <c r="M3" s="848">
         <v>0</v>
       </c>
-      <c r="N3" s="873"/>
-      <c r="O3" s="851" t="s">
+      <c r="N3" s="870"/>
+      <c r="O3" s="848" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="861"/>
-      <c r="Q3" s="861"/>
-      <c r="R3" s="861"/>
-      <c r="S3" s="861"/>
-      <c r="T3" s="862"/>
-      <c r="U3" s="834">
+      <c r="P3" s="858"/>
+      <c r="Q3" s="858"/>
+      <c r="R3" s="858"/>
+      <c r="S3" s="858"/>
+      <c r="T3" s="859"/>
+      <c r="U3" s="831">
         <v>2</v>
       </c>
-      <c r="V3" s="834">
+      <c r="V3" s="831">
         <v>3</v>
       </c>
-      <c r="W3" s="851">
+      <c r="W3" s="848">
         <v>4</v>
       </c>
-      <c r="X3" s="852"/>
-      <c r="Y3" s="834">
+      <c r="X3" s="849"/>
+      <c r="Y3" s="831">
         <v>5</v>
       </c>
     </row>
@@ -15594,22 +15784,22 @@
       <c r="T4" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="872"/>
-      <c r="V4" s="872"/>
-      <c r="W4" s="853" t="s">
+      <c r="U4" s="869"/>
+      <c r="V4" s="869"/>
+      <c r="W4" s="850" t="s">
         <v>323</v>
       </c>
-      <c r="X4" s="854"/>
-      <c r="Y4" s="835"/>
+      <c r="X4" s="851"/>
+      <c r="Y4" s="832"/>
     </row>
     <row r="5" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L5" s="890" t="s">
+      <c r="L5" s="887" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="858" t="s">
+      <c r="M5" s="855" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="874" t="s">
+      <c r="N5" s="871" t="s">
         <v>327</v>
       </c>
       <c r="O5" s="61"/>
@@ -15622,26 +15812,26 @@
       <c r="T5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="866" t="s">
+      <c r="U5" s="863" t="s">
         <v>475</v>
       </c>
-      <c r="V5" s="869" t="s">
+      <c r="V5" s="866" t="s">
         <v>326</v>
       </c>
-      <c r="W5" s="845" t="s">
+      <c r="W5" s="842" t="s">
         <v>314</v>
       </c>
-      <c r="X5" s="849" t="s">
+      <c r="X5" s="846" t="s">
         <v>315</v>
       </c>
-      <c r="Y5" s="836" t="s">
+      <c r="Y5" s="833" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L6" s="891"/>
-      <c r="M6" s="859"/>
-      <c r="N6" s="875"/>
+      <c r="L6" s="888"/>
+      <c r="M6" s="856"/>
+      <c r="N6" s="872"/>
       <c r="O6" s="64"/>
       <c r="P6" s="65"/>
       <c r="Q6" s="65"/>
@@ -15650,16 +15840,16 @@
       <c r="T6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="867"/>
-      <c r="V6" s="870"/>
-      <c r="W6" s="846"/>
-      <c r="X6" s="850"/>
-      <c r="Y6" s="837"/>
+      <c r="U6" s="864"/>
+      <c r="V6" s="867"/>
+      <c r="W6" s="843"/>
+      <c r="X6" s="847"/>
+      <c r="Y6" s="834"/>
     </row>
     <row r="7" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L7" s="891"/>
-      <c r="M7" s="859"/>
-      <c r="N7" s="876"/>
+      <c r="L7" s="888"/>
+      <c r="M7" s="856"/>
+      <c r="N7" s="873"/>
       <c r="O7" s="64"/>
       <c r="P7" s="65"/>
       <c r="Q7" s="65"/>
@@ -15668,18 +15858,18 @@
       <c r="T7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="867"/>
-      <c r="V7" s="870"/>
-      <c r="W7" s="847"/>
-      <c r="X7" s="855" t="s">
+      <c r="U7" s="864"/>
+      <c r="V7" s="867"/>
+      <c r="W7" s="844"/>
+      <c r="X7" s="852" t="s">
         <v>320</v>
       </c>
-      <c r="Y7" s="837"/>
+      <c r="Y7" s="834"/>
     </row>
     <row r="8" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L8" s="892"/>
-      <c r="M8" s="859"/>
-      <c r="N8" s="879" t="s">
+      <c r="L8" s="889"/>
+      <c r="M8" s="856"/>
+      <c r="N8" s="876" t="s">
         <v>312</v>
       </c>
       <c r="O8" s="108"/>
@@ -15692,18 +15882,18 @@
       <c r="T8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="867"/>
-      <c r="V8" s="870"/>
-      <c r="W8" s="847"/>
-      <c r="X8" s="856"/>
-      <c r="Y8" s="837"/>
+      <c r="U8" s="864"/>
+      <c r="V8" s="867"/>
+      <c r="W8" s="844"/>
+      <c r="X8" s="853"/>
+      <c r="Y8" s="834"/>
     </row>
     <row r="9" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L9" s="890" t="s">
+      <c r="L9" s="887" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="859"/>
-      <c r="N9" s="880"/>
+      <c r="M9" s="856"/>
+      <c r="N9" s="877"/>
       <c r="O9" s="61"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
@@ -15714,18 +15904,18 @@
       <c r="T9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="867"/>
-      <c r="V9" s="870"/>
-      <c r="W9" s="847"/>
-      <c r="X9" s="850" t="s">
+      <c r="U9" s="864"/>
+      <c r="V9" s="867"/>
+      <c r="W9" s="844"/>
+      <c r="X9" s="847" t="s">
         <v>319</v>
       </c>
-      <c r="Y9" s="837"/>
+      <c r="Y9" s="834"/>
     </row>
     <row r="10" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L10" s="891"/>
-      <c r="M10" s="859"/>
-      <c r="N10" s="880"/>
+      <c r="L10" s="888"/>
+      <c r="M10" s="856"/>
+      <c r="N10" s="877"/>
       <c r="O10" s="64"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="65"/>
@@ -15734,16 +15924,16 @@
       <c r="T10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="867"/>
-      <c r="V10" s="870"/>
-      <c r="W10" s="847"/>
-      <c r="X10" s="857"/>
-      <c r="Y10" s="837"/>
+      <c r="U10" s="864"/>
+      <c r="V10" s="867"/>
+      <c r="W10" s="844"/>
+      <c r="X10" s="854"/>
+      <c r="Y10" s="834"/>
     </row>
     <row r="11" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L11" s="891"/>
-      <c r="M11" s="859"/>
-      <c r="N11" s="881"/>
+      <c r="L11" s="888"/>
+      <c r="M11" s="856"/>
+      <c r="N11" s="878"/>
       <c r="O11" s="64"/>
       <c r="P11" s="65"/>
       <c r="Q11" s="65"/>
@@ -15752,18 +15942,18 @@
       <c r="T11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="867"/>
-      <c r="V11" s="870"/>
-      <c r="W11" s="847"/>
-      <c r="X11" s="855" t="s">
+      <c r="U11" s="864"/>
+      <c r="V11" s="867"/>
+      <c r="W11" s="844"/>
+      <c r="X11" s="852" t="s">
         <v>318</v>
       </c>
-      <c r="Y11" s="837"/>
+      <c r="Y11" s="834"/>
     </row>
     <row r="12" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L12" s="892"/>
-      <c r="M12" s="859"/>
-      <c r="N12" s="877" t="s">
+      <c r="L12" s="889"/>
+      <c r="M12" s="856"/>
+      <c r="N12" s="874" t="s">
         <v>311</v>
       </c>
       <c r="O12" s="80"/>
@@ -15776,19 +15966,19 @@
       <c r="T12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="867"/>
-      <c r="V12" s="870"/>
-      <c r="W12" s="847"/>
-      <c r="X12" s="856"/>
-      <c r="Y12" s="837"/>
+      <c r="U12" s="864"/>
+      <c r="V12" s="867"/>
+      <c r="W12" s="844"/>
+      <c r="X12" s="853"/>
+      <c r="Y12" s="834"/>
       <c r="Z12" s="203"/>
     </row>
     <row r="13" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L13" s="890" t="s">
+      <c r="L13" s="887" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="859"/>
-      <c r="N13" s="878"/>
+      <c r="M13" s="856"/>
+      <c r="N13" s="875"/>
       <c r="O13" s="106"/>
       <c r="P13" s="107"/>
       <c r="Q13" s="107"/>
@@ -15799,18 +15989,18 @@
       <c r="T13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="867"/>
-      <c r="V13" s="870"/>
-      <c r="W13" s="847"/>
-      <c r="X13" s="850" t="s">
+      <c r="U13" s="864"/>
+      <c r="V13" s="867"/>
+      <c r="W13" s="844"/>
+      <c r="X13" s="847" t="s">
         <v>317</v>
       </c>
-      <c r="Y13" s="837"/>
+      <c r="Y13" s="834"/>
       <c r="Z13" s="204"/>
     </row>
     <row r="14" spans="12:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="891"/>
-      <c r="M14" s="859"/>
+      <c r="L14" s="888"/>
+      <c r="M14" s="856"/>
       <c r="N14" s="208"/>
       <c r="O14" s="64"/>
       <c r="P14" s="65"/>
@@ -15820,16 +16010,16 @@
       <c r="T14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="867"/>
-      <c r="V14" s="870"/>
-      <c r="W14" s="847"/>
-      <c r="X14" s="857"/>
-      <c r="Y14" s="837"/>
+      <c r="U14" s="864"/>
+      <c r="V14" s="867"/>
+      <c r="W14" s="844"/>
+      <c r="X14" s="854"/>
+      <c r="Y14" s="834"/>
       <c r="Z14" s="204"/>
     </row>
     <row r="15" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L15" s="891"/>
-      <c r="M15" s="859"/>
+      <c r="L15" s="888"/>
+      <c r="M15" s="856"/>
       <c r="N15" s="209"/>
       <c r="O15" s="64"/>
       <c r="P15" s="65"/>
@@ -15839,18 +16029,18 @@
       <c r="T15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="867"/>
-      <c r="V15" s="870"/>
-      <c r="W15" s="847"/>
-      <c r="X15" s="855" t="s">
+      <c r="U15" s="864"/>
+      <c r="V15" s="867"/>
+      <c r="W15" s="844"/>
+      <c r="X15" s="852" t="s">
         <v>316</v>
       </c>
-      <c r="Y15" s="837"/>
+      <c r="Y15" s="834"/>
       <c r="Z15" s="204"/>
     </row>
     <row r="16" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L16" s="892"/>
-      <c r="M16" s="859"/>
+      <c r="L16" s="889"/>
+      <c r="M16" s="856"/>
       <c r="N16" s="209"/>
       <c r="O16" s="108"/>
       <c r="P16" s="109"/>
@@ -15862,18 +16052,18 @@
       <c r="T16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="867"/>
-      <c r="V16" s="870"/>
-      <c r="W16" s="848"/>
-      <c r="X16" s="856"/>
-      <c r="Y16" s="837"/>
+      <c r="U16" s="864"/>
+      <c r="V16" s="867"/>
+      <c r="W16" s="845"/>
+      <c r="X16" s="853"/>
+      <c r="Y16" s="834"/>
       <c r="Z16" s="204"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L17" s="890" t="s">
+      <c r="L17" s="887" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="859"/>
+      <c r="M17" s="856"/>
       <c r="N17" s="209"/>
       <c r="O17" s="61"/>
       <c r="P17" s="62"/>
@@ -15885,18 +16075,18 @@
       <c r="T17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="867"/>
-      <c r="V17" s="870"/>
-      <c r="W17" s="839" t="s">
+      <c r="U17" s="864"/>
+      <c r="V17" s="867"/>
+      <c r="W17" s="836" t="s">
         <v>321</v>
       </c>
-      <c r="X17" s="840"/>
-      <c r="Y17" s="837"/>
+      <c r="X17" s="837"/>
+      <c r="Y17" s="834"/>
       <c r="Z17" s="204"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L18" s="891"/>
-      <c r="M18" s="859"/>
+      <c r="L18" s="888"/>
+      <c r="M18" s="856"/>
       <c r="N18" s="209"/>
       <c r="O18" s="64"/>
       <c r="P18" s="65"/>
@@ -15906,16 +16096,16 @@
       <c r="T18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="867"/>
-      <c r="V18" s="870"/>
-      <c r="W18" s="841"/>
-      <c r="X18" s="842"/>
-      <c r="Y18" s="837"/>
+      <c r="U18" s="864"/>
+      <c r="V18" s="867"/>
+      <c r="W18" s="838"/>
+      <c r="X18" s="839"/>
+      <c r="Y18" s="834"/>
       <c r="Z18" s="204"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L19" s="891"/>
-      <c r="M19" s="859"/>
+      <c r="L19" s="888"/>
+      <c r="M19" s="856"/>
       <c r="N19" s="209"/>
       <c r="O19" s="64"/>
       <c r="P19" s="65"/>
@@ -15925,16 +16115,16 @@
       <c r="T19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="867"/>
-      <c r="V19" s="870"/>
-      <c r="W19" s="841"/>
-      <c r="X19" s="842"/>
-      <c r="Y19" s="837"/>
+      <c r="U19" s="864"/>
+      <c r="V19" s="867"/>
+      <c r="W19" s="838"/>
+      <c r="X19" s="839"/>
+      <c r="Y19" s="834"/>
       <c r="Z19" s="204"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L20" s="892"/>
-      <c r="M20" s="859"/>
+      <c r="L20" s="889"/>
+      <c r="M20" s="856"/>
       <c r="N20" s="209"/>
       <c r="O20" s="80" t="s">
         <v>73</v>
@@ -15950,18 +16140,18 @@
       <c r="T20" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="867"/>
-      <c r="V20" s="870"/>
-      <c r="W20" s="841"/>
-      <c r="X20" s="842"/>
-      <c r="Y20" s="837"/>
+      <c r="U20" s="864"/>
+      <c r="V20" s="867"/>
+      <c r="W20" s="838"/>
+      <c r="X20" s="839"/>
+      <c r="Y20" s="834"/>
       <c r="Z20" s="204"/>
     </row>
     <row r="21" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L21" s="890" t="s">
+      <c r="L21" s="887" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="859"/>
+      <c r="M21" s="856"/>
       <c r="N21" s="209"/>
       <c r="O21" s="78"/>
       <c r="P21" s="79"/>
@@ -15973,11 +16163,11 @@
       <c r="T21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="867"/>
-      <c r="V21" s="870"/>
-      <c r="W21" s="841"/>
-      <c r="X21" s="842"/>
-      <c r="Y21" s="837"/>
+      <c r="U21" s="864"/>
+      <c r="V21" s="867"/>
+      <c r="W21" s="838"/>
+      <c r="X21" s="839"/>
+      <c r="Y21" s="834"/>
       <c r="Z21" s="204"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
@@ -16004,8 +16194,8 @@
         <v>7759</v>
       </c>
       <c r="J22" s="206"/>
-      <c r="L22" s="891"/>
-      <c r="M22" s="859"/>
+      <c r="L22" s="888"/>
+      <c r="M22" s="856"/>
       <c r="N22" s="209"/>
       <c r="O22" s="64"/>
       <c r="P22" s="65"/>
@@ -16015,19 +16205,19 @@
       <c r="T22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="867"/>
-      <c r="V22" s="870"/>
-      <c r="W22" s="841"/>
-      <c r="X22" s="842"/>
-      <c r="Y22" s="837"/>
+      <c r="U22" s="864"/>
+      <c r="V22" s="867"/>
+      <c r="W22" s="838"/>
+      <c r="X22" s="839"/>
+      <c r="Y22" s="834"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D23" s="174" t="s">
         <v>60</v>
       </c>
       <c r="J23" s="207"/>
-      <c r="L23" s="891"/>
-      <c r="M23" s="859"/>
+      <c r="L23" s="888"/>
+      <c r="M23" s="856"/>
       <c r="N23" s="209"/>
       <c r="O23" s="80"/>
       <c r="P23" s="81"/>
@@ -16037,11 +16227,11 @@
       <c r="T23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="867"/>
-      <c r="V23" s="870"/>
-      <c r="W23" s="841"/>
-      <c r="X23" s="842"/>
-      <c r="Y23" s="837"/>
+      <c r="U23" s="864"/>
+      <c r="V23" s="867"/>
+      <c r="W23" s="838"/>
+      <c r="X23" s="839"/>
+      <c r="Y23" s="834"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="189" t="s">
@@ -16067,8 +16257,8 @@
         <v>305</v>
       </c>
       <c r="J24" s="199"/>
-      <c r="L24" s="892"/>
-      <c r="M24" s="859"/>
+      <c r="L24" s="889"/>
+      <c r="M24" s="856"/>
       <c r="N24" s="209"/>
       <c r="O24" s="108"/>
       <c r="P24" s="109"/>
@@ -16080,11 +16270,11 @@
       <c r="T24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="867"/>
-      <c r="V24" s="870"/>
-      <c r="W24" s="841"/>
-      <c r="X24" s="842"/>
-      <c r="Y24" s="837"/>
+      <c r="U24" s="864"/>
+      <c r="V24" s="867"/>
+      <c r="W24" s="838"/>
+      <c r="X24" s="839"/>
+      <c r="Y24" s="834"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="186" t="s">
@@ -16110,10 +16300,10 @@
         <v>30</v>
       </c>
       <c r="J25" s="294"/>
-      <c r="L25" s="890" t="s">
+      <c r="L25" s="887" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="859"/>
+      <c r="M25" s="856"/>
       <c r="N25" s="209"/>
       <c r="O25" s="61"/>
       <c r="P25" s="62"/>
@@ -16125,16 +16315,16 @@
       <c r="T25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U25" s="867"/>
-      <c r="V25" s="870"/>
-      <c r="W25" s="841"/>
-      <c r="X25" s="842"/>
-      <c r="Y25" s="837"/>
+      <c r="U25" s="864"/>
+      <c r="V25" s="867"/>
+      <c r="W25" s="838"/>
+      <c r="X25" s="839"/>
+      <c r="Y25" s="834"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L26" s="891"/>
-      <c r="M26" s="859"/>
-      <c r="N26" s="887" t="s">
+      <c r="L26" s="888"/>
+      <c r="M26" s="856"/>
+      <c r="N26" s="884" t="s">
         <v>330</v>
       </c>
       <c r="O26" s="64"/>
@@ -16145,17 +16335,17 @@
       <c r="T26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="867"/>
-      <c r="V26" s="870"/>
-      <c r="W26" s="841"/>
-      <c r="X26" s="842"/>
-      <c r="Y26" s="837"/>
+      <c r="U26" s="864"/>
+      <c r="V26" s="867"/>
+      <c r="W26" s="838"/>
+      <c r="X26" s="839"/>
+      <c r="Y26" s="834"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H27" s="199"/>
-      <c r="L27" s="891"/>
-      <c r="M27" s="859"/>
-      <c r="N27" s="888"/>
+      <c r="L27" s="888"/>
+      <c r="M27" s="856"/>
+      <c r="N27" s="885"/>
       <c r="O27" s="80"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
@@ -16164,17 +16354,17 @@
       <c r="T27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U27" s="867"/>
-      <c r="V27" s="870"/>
-      <c r="W27" s="841"/>
-      <c r="X27" s="842"/>
-      <c r="Y27" s="837"/>
+      <c r="U27" s="864"/>
+      <c r="V27" s="867"/>
+      <c r="W27" s="838"/>
+      <c r="X27" s="839"/>
+      <c r="Y27" s="834"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H28" s="199"/>
-      <c r="L28" s="892"/>
-      <c r="M28" s="859"/>
-      <c r="N28" s="888"/>
+      <c r="L28" s="889"/>
+      <c r="M28" s="856"/>
+      <c r="N28" s="885"/>
       <c r="O28" s="80"/>
       <c r="P28" s="81"/>
       <c r="Q28" s="82" t="s">
@@ -16185,19 +16375,19 @@
       <c r="T28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U28" s="867"/>
-      <c r="V28" s="870"/>
-      <c r="W28" s="841"/>
-      <c r="X28" s="842"/>
-      <c r="Y28" s="837"/>
+      <c r="U28" s="864"/>
+      <c r="V28" s="867"/>
+      <c r="W28" s="838"/>
+      <c r="X28" s="839"/>
+      <c r="Y28" s="834"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H29" s="144"/>
-      <c r="L29" s="890" t="s">
+      <c r="L29" s="887" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="859"/>
-      <c r="N29" s="888"/>
+      <c r="M29" s="856"/>
+      <c r="N29" s="885"/>
       <c r="O29" s="106"/>
       <c r="P29" s="107"/>
       <c r="Q29" s="107"/>
@@ -16208,16 +16398,16 @@
       <c r="T29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="867"/>
-      <c r="V29" s="870"/>
-      <c r="W29" s="841"/>
-      <c r="X29" s="842"/>
-      <c r="Y29" s="837"/>
+      <c r="U29" s="864"/>
+      <c r="V29" s="867"/>
+      <c r="W29" s="838"/>
+      <c r="X29" s="839"/>
+      <c r="Y29" s="834"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L30" s="891"/>
-      <c r="M30" s="859"/>
-      <c r="N30" s="889"/>
+      <c r="L30" s="888"/>
+      <c r="M30" s="856"/>
+      <c r="N30" s="886"/>
       <c r="O30" s="64"/>
       <c r="P30" s="65"/>
       <c r="Q30" s="65"/>
@@ -16226,16 +16416,16 @@
       <c r="T30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U30" s="867"/>
-      <c r="V30" s="870"/>
-      <c r="W30" s="841"/>
-      <c r="X30" s="842"/>
-      <c r="Y30" s="837"/>
+      <c r="U30" s="864"/>
+      <c r="V30" s="867"/>
+      <c r="W30" s="838"/>
+      <c r="X30" s="839"/>
+      <c r="Y30" s="834"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L31" s="891"/>
-      <c r="M31" s="859"/>
-      <c r="N31" s="886" t="s">
+      <c r="L31" s="888"/>
+      <c r="M31" s="856"/>
+      <c r="N31" s="883" t="s">
         <v>329</v>
       </c>
       <c r="O31" s="64"/>
@@ -16246,16 +16436,16 @@
       <c r="T31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="867"/>
-      <c r="V31" s="870"/>
-      <c r="W31" s="841"/>
-      <c r="X31" s="842"/>
-      <c r="Y31" s="837"/>
+      <c r="U31" s="864"/>
+      <c r="V31" s="867"/>
+      <c r="W31" s="838"/>
+      <c r="X31" s="839"/>
+      <c r="Y31" s="834"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L32" s="892"/>
-      <c r="M32" s="859"/>
-      <c r="N32" s="880"/>
+      <c r="L32" s="889"/>
+      <c r="M32" s="856"/>
+      <c r="N32" s="877"/>
       <c r="O32" s="110"/>
       <c r="P32" s="111"/>
       <c r="Q32" s="112" t="s">
@@ -16266,18 +16456,18 @@
       <c r="T32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="867"/>
-      <c r="V32" s="870"/>
-      <c r="W32" s="841"/>
-      <c r="X32" s="842"/>
-      <c r="Y32" s="837"/>
+      <c r="U32" s="864"/>
+      <c r="V32" s="867"/>
+      <c r="W32" s="838"/>
+      <c r="X32" s="839"/>
+      <c r="Y32" s="834"/>
     </row>
     <row r="33" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L33" s="890" t="s">
+      <c r="L33" s="887" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="859"/>
-      <c r="N33" s="880"/>
+      <c r="M33" s="856"/>
+      <c r="N33" s="877"/>
       <c r="O33" s="61"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
@@ -16288,17 +16478,17 @@
       <c r="T33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U33" s="867"/>
-      <c r="V33" s="870"/>
-      <c r="W33" s="841"/>
-      <c r="X33" s="842"/>
-      <c r="Y33" s="837"/>
+      <c r="U33" s="864"/>
+      <c r="V33" s="867"/>
+      <c r="W33" s="838"/>
+      <c r="X33" s="839"/>
+      <c r="Y33" s="834"/>
       <c r="Z33" s="205"/>
     </row>
     <row r="34" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L34" s="891"/>
-      <c r="M34" s="859"/>
-      <c r="N34" s="881"/>
+      <c r="L34" s="888"/>
+      <c r="M34" s="856"/>
+      <c r="N34" s="878"/>
       <c r="O34" s="64"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="65"/>
@@ -16307,17 +16497,17 @@
       <c r="T34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="867"/>
-      <c r="V34" s="870"/>
-      <c r="W34" s="841"/>
-      <c r="X34" s="842"/>
-      <c r="Y34" s="837"/>
+      <c r="U34" s="864"/>
+      <c r="V34" s="867"/>
+      <c r="W34" s="838"/>
+      <c r="X34" s="839"/>
+      <c r="Y34" s="834"/>
       <c r="Z34" s="205"/>
     </row>
     <row r="35" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L35" s="891"/>
-      <c r="M35" s="859"/>
-      <c r="N35" s="885" t="s">
+      <c r="L35" s="888"/>
+      <c r="M35" s="856"/>
+      <c r="N35" s="882" t="s">
         <v>328</v>
       </c>
       <c r="O35" s="64"/>
@@ -16328,17 +16518,17 @@
       <c r="T35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U35" s="867"/>
-      <c r="V35" s="870"/>
-      <c r="W35" s="841"/>
-      <c r="X35" s="842"/>
-      <c r="Y35" s="837"/>
+      <c r="U35" s="864"/>
+      <c r="V35" s="867"/>
+      <c r="W35" s="838"/>
+      <c r="X35" s="839"/>
+      <c r="Y35" s="834"/>
       <c r="Z35" s="203"/>
     </row>
     <row r="36" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L36" s="892"/>
-      <c r="M36" s="859"/>
-      <c r="N36" s="878"/>
+      <c r="L36" s="889"/>
+      <c r="M36" s="856"/>
+      <c r="N36" s="875"/>
       <c r="O36" s="67" t="s">
         <v>73</v>
       </c>
@@ -16353,19 +16543,19 @@
       <c r="T36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U36" s="867"/>
-      <c r="V36" s="870"/>
-      <c r="W36" s="841"/>
-      <c r="X36" s="842"/>
-      <c r="Y36" s="837"/>
+      <c r="U36" s="864"/>
+      <c r="V36" s="867"/>
+      <c r="W36" s="838"/>
+      <c r="X36" s="839"/>
+      <c r="Y36" s="834"/>
       <c r="Z36" s="204"/>
     </row>
     <row r="37" spans="12:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L37" s="890" t="s">
+      <c r="L37" s="887" t="s">
         <v>103</v>
       </c>
-      <c r="M37" s="859"/>
-      <c r="N37" s="882" t="s">
+      <c r="M37" s="856"/>
+      <c r="N37" s="879" t="s">
         <v>313</v>
       </c>
       <c r="O37" s="70"/>
@@ -16382,17 +16572,17 @@
       <c r="T37" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="U37" s="867"/>
-      <c r="V37" s="870"/>
-      <c r="W37" s="841"/>
-      <c r="X37" s="842"/>
-      <c r="Y37" s="837"/>
+      <c r="U37" s="864"/>
+      <c r="V37" s="867"/>
+      <c r="W37" s="838"/>
+      <c r="X37" s="839"/>
+      <c r="Y37" s="834"/>
       <c r="Z37" s="204"/>
     </row>
     <row r="38" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L38" s="891"/>
-      <c r="M38" s="859"/>
-      <c r="N38" s="883"/>
+      <c r="L38" s="888"/>
+      <c r="M38" s="856"/>
+      <c r="N38" s="880"/>
       <c r="O38" s="72"/>
       <c r="P38" s="73"/>
       <c r="Q38" s="74" t="s">
@@ -16405,17 +16595,17 @@
       <c r="T38" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U38" s="867"/>
-      <c r="V38" s="870"/>
-      <c r="W38" s="841"/>
-      <c r="X38" s="842"/>
-      <c r="Y38" s="837"/>
+      <c r="U38" s="864"/>
+      <c r="V38" s="867"/>
+      <c r="W38" s="838"/>
+      <c r="X38" s="839"/>
+      <c r="Y38" s="834"/>
       <c r="Z38" s="204"/>
     </row>
     <row r="39" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L39" s="891"/>
-      <c r="M39" s="859"/>
-      <c r="N39" s="883"/>
+      <c r="L39" s="888"/>
+      <c r="M39" s="856"/>
+      <c r="N39" s="880"/>
       <c r="O39" s="72"/>
       <c r="P39" s="73"/>
       <c r="Q39" s="74" t="s">
@@ -16428,17 +16618,17 @@
       <c r="T39" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U39" s="867"/>
-      <c r="V39" s="870"/>
-      <c r="W39" s="841"/>
-      <c r="X39" s="842"/>
-      <c r="Y39" s="837"/>
+      <c r="U39" s="864"/>
+      <c r="V39" s="867"/>
+      <c r="W39" s="838"/>
+      <c r="X39" s="839"/>
+      <c r="Y39" s="834"/>
       <c r="Z39" s="205"/>
     </row>
     <row r="40" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L40" s="892"/>
-      <c r="M40" s="859"/>
-      <c r="N40" s="883"/>
+      <c r="L40" s="889"/>
+      <c r="M40" s="856"/>
+      <c r="N40" s="880"/>
       <c r="O40" s="96"/>
       <c r="P40" s="97"/>
       <c r="Q40" s="170" t="s">
@@ -16453,19 +16643,19 @@
       <c r="T40" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U40" s="867"/>
-      <c r="V40" s="870"/>
-      <c r="W40" s="841"/>
-      <c r="X40" s="842"/>
-      <c r="Y40" s="837"/>
+      <c r="U40" s="864"/>
+      <c r="V40" s="867"/>
+      <c r="W40" s="838"/>
+      <c r="X40" s="839"/>
+      <c r="Y40" s="834"/>
       <c r="Z40" s="203"/>
     </row>
     <row r="41" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L41" s="890" t="s">
+      <c r="L41" s="887" t="s">
         <v>102</v>
       </c>
-      <c r="M41" s="859"/>
-      <c r="N41" s="883"/>
+      <c r="M41" s="856"/>
+      <c r="N41" s="880"/>
       <c r="O41" s="101"/>
       <c r="P41" s="102"/>
       <c r="Q41" s="103" t="s">
@@ -16480,17 +16670,17 @@
       <c r="T41" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U41" s="867"/>
-      <c r="V41" s="870"/>
-      <c r="W41" s="841"/>
-      <c r="X41" s="842"/>
-      <c r="Y41" s="837"/>
+      <c r="U41" s="864"/>
+      <c r="V41" s="867"/>
+      <c r="W41" s="838"/>
+      <c r="X41" s="839"/>
+      <c r="Y41" s="834"/>
       <c r="Z41" s="204"/>
     </row>
     <row r="42" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L42" s="891"/>
-      <c r="M42" s="859"/>
-      <c r="N42" s="883"/>
+      <c r="L42" s="888"/>
+      <c r="M42" s="856"/>
+      <c r="N42" s="880"/>
       <c r="O42" s="72"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="74" t="s">
@@ -16503,17 +16693,17 @@
       <c r="T42" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="867"/>
-      <c r="V42" s="870"/>
-      <c r="W42" s="841"/>
-      <c r="X42" s="842"/>
-      <c r="Y42" s="837"/>
+      <c r="U42" s="864"/>
+      <c r="V42" s="867"/>
+      <c r="W42" s="838"/>
+      <c r="X42" s="839"/>
+      <c r="Y42" s="834"/>
       <c r="Z42" s="205"/>
     </row>
     <row r="43" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L43" s="891"/>
-      <c r="M43" s="859"/>
-      <c r="N43" s="883"/>
+      <c r="L43" s="888"/>
+      <c r="M43" s="856"/>
+      <c r="N43" s="880"/>
       <c r="O43" s="96"/>
       <c r="P43" s="97"/>
       <c r="Q43" s="170" t="s">
@@ -16526,17 +16716,17 @@
       <c r="T43" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U43" s="867"/>
-      <c r="V43" s="870"/>
-      <c r="W43" s="841"/>
-      <c r="X43" s="842"/>
-      <c r="Y43" s="837"/>
+      <c r="U43" s="864"/>
+      <c r="V43" s="867"/>
+      <c r="W43" s="838"/>
+      <c r="X43" s="839"/>
+      <c r="Y43" s="834"/>
       <c r="Z43" s="205"/>
     </row>
     <row r="44" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L44" s="892"/>
-      <c r="M44" s="859"/>
-      <c r="N44" s="883"/>
+      <c r="L44" s="889"/>
+      <c r="M44" s="856"/>
+      <c r="N44" s="880"/>
       <c r="O44" s="104"/>
       <c r="P44" s="105"/>
       <c r="Q44" s="171" t="s">
@@ -16549,19 +16739,19 @@
       <c r="T44" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U44" s="867"/>
-      <c r="V44" s="870"/>
-      <c r="W44" s="841"/>
-      <c r="X44" s="842"/>
-      <c r="Y44" s="837"/>
+      <c r="U44" s="864"/>
+      <c r="V44" s="867"/>
+      <c r="W44" s="838"/>
+      <c r="X44" s="839"/>
+      <c r="Y44" s="834"/>
       <c r="Z44" s="205"/>
     </row>
     <row r="45" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L45" s="890" t="s">
+      <c r="L45" s="887" t="s">
         <v>101</v>
       </c>
-      <c r="M45" s="859"/>
-      <c r="N45" s="883"/>
+      <c r="M45" s="856"/>
+      <c r="N45" s="880"/>
       <c r="O45" s="98"/>
       <c r="P45" s="99"/>
       <c r="Q45" s="100" t="s">
@@ -16574,16 +16764,16 @@
       <c r="T45" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U45" s="867"/>
-      <c r="V45" s="870"/>
-      <c r="W45" s="841"/>
-      <c r="X45" s="842"/>
-      <c r="Y45" s="837"/>
+      <c r="U45" s="864"/>
+      <c r="V45" s="867"/>
+      <c r="W45" s="838"/>
+      <c r="X45" s="839"/>
+      <c r="Y45" s="834"/>
     </row>
     <row r="46" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L46" s="893"/>
-      <c r="M46" s="859"/>
-      <c r="N46" s="883"/>
+      <c r="L46" s="890"/>
+      <c r="M46" s="856"/>
+      <c r="N46" s="880"/>
       <c r="O46" s="72"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="74" t="s">
@@ -16596,16 +16786,16 @@
       <c r="T46" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U46" s="867"/>
-      <c r="V46" s="870"/>
-      <c r="W46" s="841"/>
-      <c r="X46" s="842"/>
-      <c r="Y46" s="837"/>
+      <c r="U46" s="864"/>
+      <c r="V46" s="867"/>
+      <c r="W46" s="838"/>
+      <c r="X46" s="839"/>
+      <c r="Y46" s="834"/>
     </row>
     <row r="47" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L47" s="893"/>
-      <c r="M47" s="859"/>
-      <c r="N47" s="883"/>
+      <c r="L47" s="890"/>
+      <c r="M47" s="856"/>
+      <c r="N47" s="880"/>
       <c r="O47" s="96"/>
       <c r="P47" s="97"/>
       <c r="Q47" s="170" t="s">
@@ -16618,16 +16808,16 @@
       <c r="T47" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U47" s="867"/>
-      <c r="V47" s="870"/>
-      <c r="W47" s="841"/>
-      <c r="X47" s="842"/>
-      <c r="Y47" s="837"/>
+      <c r="U47" s="864"/>
+      <c r="V47" s="867"/>
+      <c r="W47" s="838"/>
+      <c r="X47" s="839"/>
+      <c r="Y47" s="834"/>
     </row>
     <row r="48" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L48" s="894"/>
-      <c r="M48" s="859"/>
-      <c r="N48" s="883"/>
+      <c r="L48" s="891"/>
+      <c r="M48" s="856"/>
+      <c r="N48" s="880"/>
       <c r="O48" s="104"/>
       <c r="P48" s="105"/>
       <c r="Q48" s="171" t="s">
@@ -16640,18 +16830,18 @@
       <c r="T48" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U48" s="867"/>
-      <c r="V48" s="870"/>
-      <c r="W48" s="841"/>
-      <c r="X48" s="842"/>
-      <c r="Y48" s="837"/>
+      <c r="U48" s="864"/>
+      <c r="V48" s="867"/>
+      <c r="W48" s="838"/>
+      <c r="X48" s="839"/>
+      <c r="Y48" s="834"/>
     </row>
     <row r="49" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L49" s="890" t="s">
+      <c r="L49" s="887" t="s">
         <v>100</v>
       </c>
-      <c r="M49" s="859"/>
-      <c r="N49" s="883"/>
+      <c r="M49" s="856"/>
+      <c r="N49" s="880"/>
       <c r="O49" s="98"/>
       <c r="P49" s="99"/>
       <c r="Q49" s="100" t="s">
@@ -16664,16 +16854,16 @@
       <c r="T49" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U49" s="867"/>
-      <c r="V49" s="870"/>
-      <c r="W49" s="841"/>
-      <c r="X49" s="842"/>
-      <c r="Y49" s="837"/>
+      <c r="U49" s="864"/>
+      <c r="V49" s="867"/>
+      <c r="W49" s="838"/>
+      <c r="X49" s="839"/>
+      <c r="Y49" s="834"/>
     </row>
     <row r="50" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L50" s="891"/>
-      <c r="M50" s="859"/>
-      <c r="N50" s="883"/>
+      <c r="L50" s="888"/>
+      <c r="M50" s="856"/>
+      <c r="N50" s="880"/>
       <c r="O50" s="72"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="74" t="s">
@@ -16682,22 +16872,22 @@
       <c r="R50" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="S50" s="863" t="s">
+      <c r="S50" s="860" t="s">
         <v>115</v>
       </c>
       <c r="T50" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U50" s="867"/>
-      <c r="V50" s="870"/>
-      <c r="W50" s="841"/>
-      <c r="X50" s="842"/>
-      <c r="Y50" s="837"/>
+      <c r="U50" s="864"/>
+      <c r="V50" s="867"/>
+      <c r="W50" s="838"/>
+      <c r="X50" s="839"/>
+      <c r="Y50" s="834"/>
     </row>
     <row r="51" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L51" s="891"/>
-      <c r="M51" s="859"/>
-      <c r="N51" s="883"/>
+      <c r="L51" s="888"/>
+      <c r="M51" s="856"/>
+      <c r="N51" s="880"/>
       <c r="O51" s="72"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="74" t="s">
@@ -16706,20 +16896,20 @@
       <c r="R51" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="S51" s="864"/>
+      <c r="S51" s="861"/>
       <c r="T51" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U51" s="867"/>
-      <c r="V51" s="870"/>
-      <c r="W51" s="841"/>
-      <c r="X51" s="842"/>
-      <c r="Y51" s="837"/>
+      <c r="U51" s="864"/>
+      <c r="V51" s="867"/>
+      <c r="W51" s="838"/>
+      <c r="X51" s="839"/>
+      <c r="Y51" s="834"/>
     </row>
     <row r="52" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L52" s="892"/>
-      <c r="M52" s="859"/>
-      <c r="N52" s="883"/>
+      <c r="L52" s="889"/>
+      <c r="M52" s="856"/>
+      <c r="N52" s="880"/>
       <c r="O52" s="75" t="s">
         <v>64</v>
       </c>
@@ -16730,22 +16920,22 @@
       <c r="R52" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="S52" s="865"/>
+      <c r="S52" s="862"/>
       <c r="T52" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U52" s="867"/>
-      <c r="V52" s="870"/>
-      <c r="W52" s="841"/>
-      <c r="X52" s="842"/>
-      <c r="Y52" s="837"/>
+      <c r="U52" s="864"/>
+      <c r="V52" s="867"/>
+      <c r="W52" s="838"/>
+      <c r="X52" s="839"/>
+      <c r="Y52" s="834"/>
     </row>
     <row r="53" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L53" s="890" t="s">
+      <c r="L53" s="887" t="s">
         <v>99</v>
       </c>
-      <c r="M53" s="859"/>
-      <c r="N53" s="883"/>
+      <c r="M53" s="856"/>
+      <c r="N53" s="880"/>
       <c r="O53" s="83"/>
       <c r="P53" s="84"/>
       <c r="Q53" s="85" t="s">
@@ -16758,16 +16948,16 @@
       <c r="T53" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U53" s="867"/>
-      <c r="V53" s="870"/>
-      <c r="W53" s="841"/>
-      <c r="X53" s="842"/>
-      <c r="Y53" s="837"/>
+      <c r="U53" s="864"/>
+      <c r="V53" s="867"/>
+      <c r="W53" s="838"/>
+      <c r="X53" s="839"/>
+      <c r="Y53" s="834"/>
     </row>
     <row r="54" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L54" s="891"/>
-      <c r="M54" s="859"/>
-      <c r="N54" s="883"/>
+      <c r="L54" s="888"/>
+      <c r="M54" s="856"/>
+      <c r="N54" s="880"/>
       <c r="O54" s="86"/>
       <c r="P54" s="87"/>
       <c r="Q54" s="88" t="s">
@@ -16780,16 +16970,16 @@
       <c r="T54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U54" s="867"/>
-      <c r="V54" s="870"/>
-      <c r="W54" s="841"/>
-      <c r="X54" s="842"/>
-      <c r="Y54" s="837"/>
+      <c r="U54" s="864"/>
+      <c r="V54" s="867"/>
+      <c r="W54" s="838"/>
+      <c r="X54" s="839"/>
+      <c r="Y54" s="834"/>
     </row>
     <row r="55" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L55" s="891"/>
-      <c r="M55" s="859"/>
-      <c r="N55" s="883"/>
+      <c r="L55" s="888"/>
+      <c r="M55" s="856"/>
+      <c r="N55" s="880"/>
       <c r="O55" s="86"/>
       <c r="P55" s="87"/>
       <c r="Q55" s="88" t="s">
@@ -16802,16 +16992,16 @@
       <c r="T55" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U55" s="867"/>
-      <c r="V55" s="870"/>
-      <c r="W55" s="841"/>
-      <c r="X55" s="842"/>
-      <c r="Y55" s="837"/>
+      <c r="U55" s="864"/>
+      <c r="V55" s="867"/>
+      <c r="W55" s="838"/>
+      <c r="X55" s="839"/>
+      <c r="Y55" s="834"/>
     </row>
     <row r="56" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L56" s="892"/>
-      <c r="M56" s="859"/>
-      <c r="N56" s="883"/>
+      <c r="L56" s="889"/>
+      <c r="M56" s="856"/>
+      <c r="N56" s="880"/>
       <c r="O56" s="89" t="s">
         <v>54</v>
       </c>
@@ -16828,18 +17018,18 @@
       <c r="T56" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U56" s="867"/>
-      <c r="V56" s="870"/>
-      <c r="W56" s="841"/>
-      <c r="X56" s="842"/>
-      <c r="Y56" s="837"/>
+      <c r="U56" s="864"/>
+      <c r="V56" s="867"/>
+      <c r="W56" s="838"/>
+      <c r="X56" s="839"/>
+      <c r="Y56" s="834"/>
     </row>
     <row r="57" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L57" s="890" t="s">
+      <c r="L57" s="887" t="s">
         <v>98</v>
       </c>
-      <c r="M57" s="859"/>
-      <c r="N57" s="883"/>
+      <c r="M57" s="856"/>
+      <c r="N57" s="880"/>
       <c r="O57" s="52"/>
       <c r="P57" s="53"/>
       <c r="Q57" s="54" t="s">
@@ -16852,16 +17042,16 @@
       <c r="T57" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U57" s="867"/>
-      <c r="V57" s="870"/>
-      <c r="W57" s="841"/>
-      <c r="X57" s="842"/>
-      <c r="Y57" s="837"/>
+      <c r="U57" s="864"/>
+      <c r="V57" s="867"/>
+      <c r="W57" s="838"/>
+      <c r="X57" s="839"/>
+      <c r="Y57" s="834"/>
     </row>
     <row r="58" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L58" s="891"/>
-      <c r="M58" s="859"/>
-      <c r="N58" s="883"/>
+      <c r="L58" s="888"/>
+      <c r="M58" s="856"/>
+      <c r="N58" s="880"/>
       <c r="O58" s="55"/>
       <c r="P58" s="56"/>
       <c r="Q58" s="57" t="s">
@@ -16874,16 +17064,16 @@
       <c r="T58" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U58" s="867"/>
-      <c r="V58" s="870"/>
-      <c r="W58" s="841"/>
-      <c r="X58" s="842"/>
-      <c r="Y58" s="837"/>
+      <c r="U58" s="864"/>
+      <c r="V58" s="867"/>
+      <c r="W58" s="838"/>
+      <c r="X58" s="839"/>
+      <c r="Y58" s="834"/>
     </row>
     <row r="59" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L59" s="891"/>
-      <c r="M59" s="859"/>
-      <c r="N59" s="883"/>
+      <c r="L59" s="888"/>
+      <c r="M59" s="856"/>
+      <c r="N59" s="880"/>
       <c r="O59" s="55"/>
       <c r="P59" s="56"/>
       <c r="Q59" s="57" t="s">
@@ -16896,16 +17086,16 @@
       <c r="T59" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U59" s="867"/>
-      <c r="V59" s="870"/>
-      <c r="W59" s="841"/>
-      <c r="X59" s="842"/>
-      <c r="Y59" s="837"/>
+      <c r="U59" s="864"/>
+      <c r="V59" s="867"/>
+      <c r="W59" s="838"/>
+      <c r="X59" s="839"/>
+      <c r="Y59" s="834"/>
     </row>
     <row r="60" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L60" s="892"/>
-      <c r="M60" s="859"/>
-      <c r="N60" s="883"/>
+      <c r="L60" s="889"/>
+      <c r="M60" s="856"/>
+      <c r="N60" s="880"/>
       <c r="O60" s="55"/>
       <c r="P60" s="56"/>
       <c r="Q60" s="57" t="s">
@@ -16918,18 +17108,18 @@
       <c r="T60" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U60" s="867"/>
-      <c r="V60" s="870"/>
-      <c r="W60" s="841"/>
-      <c r="X60" s="842"/>
-      <c r="Y60" s="837"/>
+      <c r="U60" s="864"/>
+      <c r="V60" s="867"/>
+      <c r="W60" s="838"/>
+      <c r="X60" s="839"/>
+      <c r="Y60" s="834"/>
     </row>
     <row r="61" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L61" s="890" t="s">
+      <c r="L61" s="887" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="859"/>
-      <c r="N61" s="883"/>
+      <c r="M61" s="856"/>
+      <c r="N61" s="880"/>
       <c r="O61" s="55"/>
       <c r="P61" s="56"/>
       <c r="Q61" s="57" t="s">
@@ -16942,16 +17132,16 @@
       <c r="T61" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U61" s="867"/>
-      <c r="V61" s="870"/>
-      <c r="W61" s="841"/>
-      <c r="X61" s="842"/>
-      <c r="Y61" s="837"/>
+      <c r="U61" s="864"/>
+      <c r="V61" s="867"/>
+      <c r="W61" s="838"/>
+      <c r="X61" s="839"/>
+      <c r="Y61" s="834"/>
     </row>
     <row r="62" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L62" s="891"/>
-      <c r="M62" s="859"/>
-      <c r="N62" s="883"/>
+      <c r="L62" s="888"/>
+      <c r="M62" s="856"/>
+      <c r="N62" s="880"/>
       <c r="O62" s="55"/>
       <c r="P62" s="56"/>
       <c r="Q62" s="57" t="s">
@@ -16964,16 +17154,16 @@
       <c r="T62" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U62" s="867"/>
-      <c r="V62" s="870"/>
-      <c r="W62" s="841"/>
-      <c r="X62" s="842"/>
-      <c r="Y62" s="837"/>
+      <c r="U62" s="864"/>
+      <c r="V62" s="867"/>
+      <c r="W62" s="838"/>
+      <c r="X62" s="839"/>
+      <c r="Y62" s="834"/>
     </row>
     <row r="63" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L63" s="891"/>
-      <c r="M63" s="859"/>
-      <c r="N63" s="883"/>
+      <c r="L63" s="888"/>
+      <c r="M63" s="856"/>
+      <c r="N63" s="880"/>
       <c r="O63" s="55"/>
       <c r="P63" s="56"/>
       <c r="Q63" s="57" t="s">
@@ -16986,16 +17176,16 @@
       <c r="T63" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U63" s="867"/>
-      <c r="V63" s="870"/>
-      <c r="W63" s="841"/>
-      <c r="X63" s="842"/>
-      <c r="Y63" s="837"/>
+      <c r="U63" s="864"/>
+      <c r="V63" s="867"/>
+      <c r="W63" s="838"/>
+      <c r="X63" s="839"/>
+      <c r="Y63" s="834"/>
     </row>
     <row r="64" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L64" s="892"/>
-      <c r="M64" s="859"/>
-      <c r="N64" s="883"/>
+      <c r="L64" s="889"/>
+      <c r="M64" s="856"/>
+      <c r="N64" s="880"/>
       <c r="O64" s="58" t="s">
         <v>36</v>
       </c>
@@ -17012,18 +17202,18 @@
       <c r="T64" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U64" s="867"/>
-      <c r="V64" s="870"/>
-      <c r="W64" s="841"/>
-      <c r="X64" s="842"/>
-      <c r="Y64" s="837"/>
+      <c r="U64" s="864"/>
+      <c r="V64" s="867"/>
+      <c r="W64" s="838"/>
+      <c r="X64" s="839"/>
+      <c r="Y64" s="834"/>
     </row>
     <row r="65" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L65" s="890" t="s">
+      <c r="L65" s="887" t="s">
         <v>96</v>
       </c>
-      <c r="M65" s="859"/>
-      <c r="N65" s="883"/>
+      <c r="M65" s="856"/>
+      <c r="N65" s="880"/>
       <c r="O65" s="61"/>
       <c r="P65" s="62"/>
       <c r="Q65" s="63" t="s">
@@ -17036,16 +17226,16 @@
       <c r="T65" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U65" s="867"/>
-      <c r="V65" s="870"/>
-      <c r="W65" s="841"/>
-      <c r="X65" s="842"/>
-      <c r="Y65" s="837"/>
+      <c r="U65" s="864"/>
+      <c r="V65" s="867"/>
+      <c r="W65" s="838"/>
+      <c r="X65" s="839"/>
+      <c r="Y65" s="834"/>
     </row>
     <row r="66" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L66" s="891"/>
-      <c r="M66" s="859"/>
-      <c r="N66" s="883"/>
+      <c r="L66" s="888"/>
+      <c r="M66" s="856"/>
+      <c r="N66" s="880"/>
       <c r="O66" s="64"/>
       <c r="P66" s="65"/>
       <c r="Q66" s="66" t="s">
@@ -17058,16 +17248,16 @@
       <c r="T66" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U66" s="867"/>
-      <c r="V66" s="870"/>
-      <c r="W66" s="841"/>
-      <c r="X66" s="842"/>
-      <c r="Y66" s="837"/>
+      <c r="U66" s="864"/>
+      <c r="V66" s="867"/>
+      <c r="W66" s="838"/>
+      <c r="X66" s="839"/>
+      <c r="Y66" s="834"/>
     </row>
     <row r="67" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L67" s="891"/>
-      <c r="M67" s="859"/>
-      <c r="N67" s="883"/>
+      <c r="L67" s="888"/>
+      <c r="M67" s="856"/>
+      <c r="N67" s="880"/>
       <c r="O67" s="64"/>
       <c r="P67" s="65"/>
       <c r="Q67" s="66" t="s">
@@ -17080,16 +17270,16 @@
       <c r="T67" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U67" s="867"/>
-      <c r="V67" s="870"/>
-      <c r="W67" s="841"/>
-      <c r="X67" s="842"/>
-      <c r="Y67" s="837"/>
+      <c r="U67" s="864"/>
+      <c r="V67" s="867"/>
+      <c r="W67" s="838"/>
+      <c r="X67" s="839"/>
+      <c r="Y67" s="834"/>
     </row>
     <row r="68" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L68" s="892"/>
-      <c r="M68" s="860"/>
-      <c r="N68" s="884"/>
+      <c r="L68" s="889"/>
+      <c r="M68" s="857"/>
+      <c r="N68" s="881"/>
       <c r="O68" s="67" t="s">
         <v>25</v>
       </c>
@@ -17106,11 +17296,11 @@
       <c r="T68" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U68" s="868"/>
-      <c r="V68" s="871"/>
-      <c r="W68" s="843"/>
-      <c r="X68" s="844"/>
-      <c r="Y68" s="838"/>
+      <c r="U68" s="865"/>
+      <c r="V68" s="868"/>
+      <c r="W68" s="840"/>
+      <c r="X68" s="841"/>
+      <c r="Y68" s="835"/>
     </row>
     <row r="69" spans="12:25" x14ac:dyDescent="0.25">
       <c r="N69" s="210"/>
@@ -17188,13 +17378,13 @@
       <c r="C4" s="475" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="895" t="s">
+      <c r="D4" s="892" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="896"/>
-      <c r="F4" s="896"/>
-      <c r="G4" s="896"/>
-      <c r="H4" s="896"/>
+      <c r="E4" s="893"/>
+      <c r="F4" s="893"/>
+      <c r="G4" s="893"/>
+      <c r="H4" s="893"/>
       <c r="I4" s="491"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17221,7 +17411,7 @@
       </c>
     </row>
     <row r="6" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="897" t="s">
+      <c r="C6" s="894" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="482"/>
@@ -17233,12 +17423,12 @@
       <c r="H6" s="489" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="904" t="s">
+      <c r="I6" s="901" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="898"/>
+      <c r="C7" s="895"/>
       <c r="D7" s="442"/>
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
@@ -17246,10 +17436,10 @@
       <c r="H7" s="456" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="905"/>
+      <c r="I7" s="902"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="898"/>
+      <c r="C8" s="895"/>
       <c r="D8" s="442"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
@@ -17257,10 +17447,10 @@
       <c r="H8" s="456" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="905"/>
+      <c r="I8" s="902"/>
     </row>
     <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="899"/>
+      <c r="C9" s="896"/>
       <c r="D9" s="443" t="s">
         <v>73</v>
       </c>
@@ -17274,10 +17464,10 @@
       <c r="H9" s="477" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="911"/>
+      <c r="I9" s="908"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="900" t="s">
+      <c r="C10" s="897" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="487"/>
@@ -17289,12 +17479,12 @@
       <c r="H10" s="502" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="902" t="s">
+      <c r="I10" s="899" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="898"/>
+      <c r="C11" s="895"/>
       <c r="D11" s="72"/>
       <c r="E11" s="73"/>
       <c r="F11" s="65"/>
@@ -17302,10 +17492,10 @@
       <c r="H11" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="902"/>
+      <c r="I11" s="899"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="898"/>
+      <c r="C12" s="895"/>
       <c r="D12" s="72"/>
       <c r="E12" s="73"/>
       <c r="F12" s="65"/>
@@ -17313,10 +17503,10 @@
       <c r="H12" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="902"/>
+      <c r="I12" s="899"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="899"/>
+      <c r="C13" s="896"/>
       <c r="D13" s="96"/>
       <c r="E13" s="97"/>
       <c r="F13" s="82" t="s">
@@ -17326,10 +17516,10 @@
       <c r="H13" s="500" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="902"/>
+      <c r="I13" s="899"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="900" t="s">
+      <c r="C14" s="897" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="101"/>
@@ -17341,10 +17531,10 @@
       <c r="H14" s="504" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="902"/>
+      <c r="I14" s="899"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="898"/>
+      <c r="C15" s="895"/>
       <c r="D15" s="72"/>
       <c r="E15" s="73"/>
       <c r="F15" s="65"/>
@@ -17352,10 +17542,10 @@
       <c r="H15" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="902"/>
+      <c r="I15" s="899"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="898"/>
+      <c r="C16" s="895"/>
       <c r="D16" s="96"/>
       <c r="E16" s="97"/>
       <c r="F16" s="65"/>
@@ -17363,10 +17553,10 @@
       <c r="H16" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="902"/>
+      <c r="I16" s="899"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="899"/>
+      <c r="C17" s="896"/>
       <c r="D17" s="104"/>
       <c r="E17" s="105"/>
       <c r="F17" s="113" t="s">
@@ -17376,10 +17566,10 @@
       <c r="H17" s="500" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="902"/>
+      <c r="I17" s="899"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="900" t="s">
+      <c r="C18" s="897" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="98"/>
@@ -17391,10 +17581,10 @@
       <c r="H18" s="504" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="902"/>
+      <c r="I18" s="899"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="898"/>
+      <c r="C19" s="895"/>
       <c r="D19" s="72"/>
       <c r="E19" s="73"/>
       <c r="F19" s="65"/>
@@ -17402,10 +17592,10 @@
       <c r="H19" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="902"/>
+      <c r="I19" s="899"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="898"/>
+      <c r="C20" s="895"/>
       <c r="D20" s="96"/>
       <c r="E20" s="97"/>
       <c r="F20" s="65"/>
@@ -17413,10 +17603,10 @@
       <c r="H20" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="902"/>
+      <c r="I20" s="899"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="899"/>
+      <c r="C21" s="896"/>
       <c r="D21" s="104"/>
       <c r="E21" s="105"/>
       <c r="F21" s="82" t="s">
@@ -17426,10 +17616,10 @@
       <c r="H21" s="505" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="902"/>
+      <c r="I21" s="899"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="900" t="s">
+      <c r="C22" s="897" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="98"/>
@@ -17441,10 +17631,10 @@
       <c r="H22" s="503" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="902"/>
+      <c r="I22" s="899"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="898"/>
+      <c r="C23" s="895"/>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
       <c r="F23" s="65"/>
@@ -17452,10 +17642,10 @@
       <c r="H23" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="902"/>
+      <c r="I23" s="899"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="898"/>
+      <c r="C24" s="895"/>
       <c r="D24" s="72"/>
       <c r="E24" s="73"/>
       <c r="F24" s="81"/>
@@ -17463,10 +17653,10 @@
       <c r="H24" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="902"/>
+      <c r="I24" s="899"/>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="899"/>
+      <c r="C25" s="896"/>
       <c r="D25" s="96" t="s">
         <v>64</v>
       </c>
@@ -17480,10 +17670,10 @@
       <c r="H25" s="500" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="903"/>
+      <c r="I25" s="900"/>
     </row>
     <row r="26" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="900" t="s">
+      <c r="C26" s="897" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="483" t="s">
@@ -17506,7 +17696,7 @@
       </c>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="898"/>
+      <c r="C27" s="895"/>
       <c r="D27" s="446"/>
       <c r="E27" s="447"/>
       <c r="F27" s="62"/>
@@ -17516,12 +17706,12 @@
       <c r="H27" s="476" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="912" t="s">
+      <c r="I27" s="909" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="28" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="898"/>
+      <c r="C28" s="895"/>
       <c r="D28" s="444"/>
       <c r="E28" s="445"/>
       <c r="F28" s="81"/>
@@ -17529,10 +17719,10 @@
       <c r="H28" s="456" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="905"/>
+      <c r="I28" s="902"/>
     </row>
     <row r="29" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="899"/>
+      <c r="C29" s="896"/>
       <c r="D29" s="444"/>
       <c r="E29" s="445"/>
       <c r="F29" s="82" t="s">
@@ -17542,7 +17732,7 @@
       <c r="H29" s="477" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="906"/>
+      <c r="I29" s="903"/>
       <c r="J29" s="496" t="s">
         <v>84</v>
       </c>
@@ -17563,7 +17753,7 @@
       </c>
     </row>
     <row r="30" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="900" t="s">
+      <c r="C30" s="897" t="s">
         <v>105</v>
       </c>
       <c r="D30" s="448"/>
@@ -17586,12 +17776,12 @@
       <c r="N30" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="904" t="s">
+      <c r="O30" s="901" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="898"/>
+      <c r="C31" s="895"/>
       <c r="D31" s="64"/>
       <c r="E31" s="65"/>
       <c r="F31" s="65"/>
@@ -17610,10 +17800,10 @@
       <c r="N31" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="905"/>
+      <c r="O31" s="902"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="898"/>
+      <c r="C32" s="895"/>
       <c r="D32" s="64"/>
       <c r="E32" s="65"/>
       <c r="F32" s="65"/>
@@ -17632,10 +17822,10 @@
       <c r="N32" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="905"/>
+      <c r="O32" s="902"/>
     </row>
     <row r="33" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="899"/>
+      <c r="C33" s="896"/>
       <c r="D33" s="451" t="s">
         <v>73</v>
       </c>
@@ -17660,10 +17850,10 @@
       <c r="N33" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="905"/>
+      <c r="O33" s="902"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="900" t="s">
+      <c r="C34" s="897" t="s">
         <v>104</v>
       </c>
       <c r="D34" s="61"/>
@@ -17686,10 +17876,10 @@
       <c r="N34" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="905"/>
+      <c r="O34" s="902"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="898"/>
+      <c r="C35" s="895"/>
       <c r="D35" s="64"/>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
@@ -17708,10 +17898,10 @@
       <c r="N35" s="455" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="905"/>
+      <c r="O35" s="902"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="898"/>
+      <c r="C36" s="895"/>
       <c r="D36" s="64"/>
       <c r="E36" s="65"/>
       <c r="F36" s="65"/>
@@ -17730,10 +17920,10 @@
       <c r="N36" s="456" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="905"/>
+      <c r="O36" s="902"/>
     </row>
     <row r="37" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="899"/>
+      <c r="C37" s="896"/>
       <c r="D37" s="80" t="s">
         <v>73</v>
       </c>
@@ -17762,10 +17952,10 @@
       <c r="N37" s="457" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="906"/>
+      <c r="O37" s="903"/>
     </row>
     <row r="38" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="900" t="s">
+      <c r="C38" s="897" t="s">
         <v>103</v>
       </c>
       <c r="D38" s="448"/>
@@ -17781,7 +17971,7 @@
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="898"/>
+      <c r="C39" s="895"/>
       <c r="D39" s="64"/>
       <c r="E39" s="65"/>
       <c r="F39" s="66" t="s">
@@ -17795,7 +17985,7 @@
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="898"/>
+      <c r="C40" s="895"/>
       <c r="D40" s="64"/>
       <c r="E40" s="65"/>
       <c r="F40" s="66" t="s">
@@ -17809,7 +17999,7 @@
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="899"/>
+      <c r="C41" s="896"/>
       <c r="D41" s="108"/>
       <c r="E41" s="109"/>
       <c r="F41" s="82" t="s">
@@ -17823,7 +18013,7 @@
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="900" t="s">
+      <c r="C42" s="897" t="s">
         <v>102</v>
       </c>
       <c r="D42" s="61"/>
@@ -17839,7 +18029,7 @@
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="898"/>
+      <c r="C43" s="895"/>
       <c r="D43" s="64"/>
       <c r="E43" s="65"/>
       <c r="F43" s="66" t="s">
@@ -17853,7 +18043,7 @@
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="898"/>
+      <c r="C44" s="895"/>
       <c r="D44" s="64"/>
       <c r="E44" s="65"/>
       <c r="F44" s="82" t="s">
@@ -17867,7 +18057,7 @@
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="899"/>
+      <c r="C45" s="896"/>
       <c r="D45" s="80"/>
       <c r="E45" s="81"/>
       <c r="F45" s="113" t="s">
@@ -17881,7 +18071,7 @@
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="900" t="s">
+      <c r="C46" s="897" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="106"/>
@@ -17897,7 +18087,7 @@
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="907"/>
+      <c r="C47" s="904"/>
       <c r="D47" s="64"/>
       <c r="E47" s="65"/>
       <c r="F47" s="66" t="s">
@@ -17911,7 +18101,7 @@
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="907"/>
+      <c r="C48" s="904"/>
       <c r="D48" s="64"/>
       <c r="E48" s="65"/>
       <c r="F48" s="82" t="s">
@@ -17925,7 +18115,7 @@
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="908"/>
+      <c r="C49" s="905"/>
       <c r="D49" s="108"/>
       <c r="E49" s="109"/>
       <c r="F49" s="113" t="s">
@@ -17939,7 +18129,7 @@
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="900" t="s">
+      <c r="C50" s="897" t="s">
         <v>100</v>
       </c>
       <c r="D50" s="61"/>
@@ -17955,7 +18145,7 @@
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="898"/>
+      <c r="C51" s="895"/>
       <c r="D51" s="64"/>
       <c r="E51" s="65"/>
       <c r="F51" s="66" t="s">
@@ -17969,7 +18159,7 @@
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="898"/>
+      <c r="C52" s="895"/>
       <c r="D52" s="64"/>
       <c r="E52" s="65"/>
       <c r="F52" s="66" t="s">
@@ -17983,7 +18173,7 @@
       </c>
     </row>
     <row r="53" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="899"/>
+      <c r="C53" s="896"/>
       <c r="D53" s="451" t="s">
         <v>73</v>
       </c>
@@ -18001,7 +18191,7 @@
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="900" t="s">
+      <c r="C54" s="897" t="s">
         <v>99</v>
       </c>
       <c r="D54" s="61"/>
@@ -18017,7 +18207,7 @@
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="898"/>
+      <c r="C55" s="895"/>
       <c r="D55" s="64"/>
       <c r="E55" s="65"/>
       <c r="F55" s="66" t="s">
@@ -18031,7 +18221,7 @@
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="898"/>
+      <c r="C56" s="895"/>
       <c r="D56" s="80"/>
       <c r="E56" s="81"/>
       <c r="F56" s="66" t="s">
@@ -18045,7 +18235,7 @@
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="899"/>
+      <c r="C57" s="896"/>
       <c r="D57" s="108"/>
       <c r="E57" s="109"/>
       <c r="F57" s="82" t="s">
@@ -18059,7 +18249,7 @@
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="900" t="s">
+      <c r="C58" s="897" t="s">
         <v>98</v>
       </c>
       <c r="D58" s="61"/>
@@ -18075,7 +18265,7 @@
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="898"/>
+      <c r="C59" s="895"/>
       <c r="D59" s="64"/>
       <c r="E59" s="65"/>
       <c r="F59" s="66" t="s">
@@ -18089,7 +18279,7 @@
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="898"/>
+      <c r="C60" s="895"/>
       <c r="D60" s="80"/>
       <c r="E60" s="81"/>
       <c r="F60" s="66" t="s">
@@ -18103,7 +18293,7 @@
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="899"/>
+      <c r="C61" s="896"/>
       <c r="D61" s="80"/>
       <c r="E61" s="81"/>
       <c r="F61" s="82" t="s">
@@ -18117,7 +18307,7 @@
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="900" t="s">
+      <c r="C62" s="897" t="s">
         <v>97</v>
       </c>
       <c r="D62" s="106"/>
@@ -18133,7 +18323,7 @@
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="898"/>
+      <c r="C63" s="895"/>
       <c r="D63" s="64"/>
       <c r="E63" s="65"/>
       <c r="F63" s="66" t="s">
@@ -18147,7 +18337,7 @@
       </c>
     </row>
     <row r="64" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="898"/>
+      <c r="C64" s="895"/>
       <c r="D64" s="64"/>
       <c r="E64" s="65"/>
       <c r="F64" s="66" t="s">
@@ -18161,7 +18351,7 @@
       </c>
     </row>
     <row r="65" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="899"/>
+      <c r="C65" s="896"/>
       <c r="D65" s="110"/>
       <c r="E65" s="109"/>
       <c r="F65" s="113" t="s">
@@ -18193,7 +18383,7 @@
       </c>
     </row>
     <row r="66" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="900" t="s">
+      <c r="C66" s="897" t="s">
         <v>96</v>
       </c>
       <c r="D66" s="61"/>
@@ -18207,7 +18397,7 @@
       <c r="H66" s="476" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="910"/>
+      <c r="I66" s="907"/>
       <c r="J66" s="472"/>
       <c r="K66" s="473"/>
       <c r="L66" s="462" t="s">
@@ -18219,12 +18409,12 @@
       <c r="N66" s="474" t="s">
         <v>33</v>
       </c>
-      <c r="O66" s="901" t="s">
+      <c r="O66" s="898" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C67" s="898"/>
+      <c r="C67" s="895"/>
       <c r="D67" s="64"/>
       <c r="E67" s="65"/>
       <c r="F67" s="66" t="s">
@@ -18236,7 +18426,7 @@
       <c r="H67" s="456" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="910"/>
+      <c r="I67" s="907"/>
       <c r="J67" s="464"/>
       <c r="K67" s="65"/>
       <c r="L67" s="66" t="s">
@@ -18248,10 +18438,10 @@
       <c r="N67" s="470" t="s">
         <v>32</v>
       </c>
-      <c r="O67" s="902"/>
+      <c r="O67" s="899"/>
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C68" s="898"/>
+      <c r="C68" s="895"/>
       <c r="D68" s="64"/>
       <c r="E68" s="65"/>
       <c r="F68" s="66" t="s">
@@ -18263,7 +18453,7 @@
       <c r="H68" s="456" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="910"/>
+      <c r="I68" s="907"/>
       <c r="J68" s="464"/>
       <c r="K68" s="65"/>
       <c r="L68" s="66" t="s">
@@ -18275,10 +18465,10 @@
       <c r="N68" s="470" t="s">
         <v>32</v>
       </c>
-      <c r="O68" s="902"/>
+      <c r="O68" s="899"/>
     </row>
     <row r="69" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="909"/>
+      <c r="C69" s="906"/>
       <c r="D69" s="478" t="s">
         <v>73</v>
       </c>
@@ -18294,7 +18484,7 @@
       <c r="H69" s="457" t="s">
         <v>33</v>
       </c>
-      <c r="I69" s="910"/>
+      <c r="I69" s="907"/>
       <c r="J69" s="465" t="s">
         <v>25</v>
       </c>
@@ -18310,7 +18500,7 @@
       <c r="N69" s="471" t="s">
         <v>32</v>
       </c>
-      <c r="O69" s="903"/>
+      <c r="O69" s="900"/>
     </row>
     <row r="70" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -19792,16 +19982,16 @@
     <row r="2" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="513"/>
       <c r="C2" s="514"/>
-      <c r="D2" s="913" t="s">
+      <c r="D2" s="910" t="s">
         <v>899</v>
       </c>
-      <c r="E2" s="914"/>
+      <c r="E2" s="911"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="915" t="s">
+      <c r="B3" s="912" t="s">
         <v>896</v>
       </c>
-      <c r="C3" s="916"/>
+      <c r="C3" s="913"/>
       <c r="D3" s="515" t="s">
         <v>901</v>
       </c>
@@ -20169,8 +20359,8 @@
   </sheetPr>
   <dimension ref="B2:BJ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" topLeftCell="I15" workbookViewId="0">
+      <selection activeCell="AG59" sqref="AG59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20186,7 +20376,7 @@
       <c r="B3" s="510" t="s">
         <v>918</v>
       </c>
-      <c r="C3" s="917" t="s">
+      <c r="C3" s="916" t="s">
         <v>931</v>
       </c>
     </row>
@@ -20194,13 +20384,13 @@
       <c r="B4" s="511" t="s">
         <v>919</v>
       </c>
-      <c r="C4" s="918"/>
+      <c r="C4" s="917"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" s="511" t="s">
         <v>920</v>
       </c>
-      <c r="C5" s="918"/>
+      <c r="C5" s="917"/>
       <c r="H5" s="526" t="s">
         <v>196</v>
       </c>
@@ -20255,7 +20445,7 @@
       <c r="B6" s="511" t="s">
         <v>921</v>
       </c>
-      <c r="C6" s="918"/>
+      <c r="C6" s="917"/>
       <c r="H6" s="525"/>
       <c r="I6" s="527" t="s">
         <v>961</v>
@@ -20312,7 +20502,7 @@
       <c r="B7" s="511" t="s">
         <v>922</v>
       </c>
-      <c r="C7" s="918"/>
+      <c r="C7" s="917"/>
       <c r="H7" s="525"/>
       <c r="I7" s="525"/>
       <c r="J7" s="527" t="s">
@@ -20369,7 +20559,7 @@
       <c r="B8" s="511" t="s">
         <v>932</v>
       </c>
-      <c r="C8" s="918"/>
+      <c r="C8" s="917"/>
       <c r="H8" s="525"/>
       <c r="I8" s="526" t="s">
         <v>216</v>
@@ -20424,13 +20614,13 @@
       <c r="B9" s="511" t="s">
         <v>923</v>
       </c>
-      <c r="C9" s="918"/>
+      <c r="C9" s="917"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" s="511" t="s">
         <v>924</v>
       </c>
-      <c r="C10" s="918"/>
+      <c r="C10" s="917"/>
       <c r="H10" s="529" t="s">
         <v>97</v>
       </c>
@@ -20485,7 +20675,7 @@
       <c r="B11" s="511" t="s">
         <v>925</v>
       </c>
-      <c r="C11" s="918"/>
+      <c r="C11" s="917"/>
       <c r="H11" s="525"/>
       <c r="I11" s="527" t="s">
         <v>942</v>
@@ -20593,7 +20783,7 @@
       <c r="B13" s="511" t="s">
         <v>926</v>
       </c>
-      <c r="C13" s="919" t="s">
+      <c r="C13" s="918" t="s">
         <v>930</v>
       </c>
       <c r="H13" s="525"/>
@@ -20650,85 +20840,85 @@
       <c r="B14" s="511" t="s">
         <v>927</v>
       </c>
-      <c r="C14" s="920"/>
+      <c r="C14" s="919"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" s="511" t="s">
         <v>928</v>
       </c>
-      <c r="C15" s="920"/>
+      <c r="C15" s="919"/>
     </row>
     <row r="16" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="512" t="s">
         <v>929</v>
       </c>
-      <c r="C16" s="921"/>
+      <c r="C16" s="920"/>
     </row>
     <row r="17" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="774"/>
-      <c r="C17" s="822"/>
+      <c r="B17" s="773"/>
+      <c r="C17" s="820"/>
     </row>
     <row r="18" spans="2:61" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="759"/>
-      <c r="F18" s="760"/>
-      <c r="G18" s="760"/>
-      <c r="H18" s="760"/>
-      <c r="I18" s="760"/>
-      <c r="J18" s="760"/>
-      <c r="K18" s="760"/>
-      <c r="L18" s="760"/>
-      <c r="M18" s="760"/>
-      <c r="N18" s="760"/>
-      <c r="O18" s="760"/>
-      <c r="P18" s="760"/>
-      <c r="Q18" s="760"/>
-      <c r="R18" s="760"/>
-      <c r="S18" s="760"/>
-      <c r="T18" s="760"/>
-      <c r="U18" s="760"/>
-      <c r="V18" s="760"/>
-      <c r="W18" s="760"/>
-      <c r="X18" s="760"/>
-      <c r="Y18" s="760"/>
-      <c r="Z18" s="760"/>
-      <c r="AA18" s="760"/>
-      <c r="AB18" s="760"/>
-      <c r="AC18" s="760"/>
-      <c r="AD18" s="760"/>
-      <c r="AE18" s="760"/>
-      <c r="AF18" s="760"/>
-      <c r="AG18" s="760"/>
-      <c r="AH18" s="760"/>
-      <c r="AI18" s="760"/>
-      <c r="AJ18" s="760"/>
-      <c r="AK18" s="760"/>
-      <c r="AL18" s="760"/>
-      <c r="AM18" s="760"/>
-      <c r="AN18" s="760"/>
-      <c r="AO18" s="760"/>
-      <c r="AP18" s="760"/>
-      <c r="AQ18" s="760"/>
-      <c r="AR18" s="760"/>
-      <c r="AS18" s="760"/>
-      <c r="AT18" s="760"/>
-      <c r="AU18" s="760"/>
-      <c r="AV18" s="760"/>
-      <c r="AW18" s="760"/>
-      <c r="AX18" s="760"/>
-      <c r="AY18" s="760"/>
-      <c r="AZ18" s="760"/>
-      <c r="BA18" s="760"/>
-      <c r="BB18" s="760"/>
-      <c r="BC18" s="760"/>
-      <c r="BD18" s="760"/>
-      <c r="BE18" s="760"/>
-      <c r="BF18" s="760"/>
-      <c r="BG18" s="760"/>
-      <c r="BH18" s="760"/>
-      <c r="BI18" s="761"/>
+      <c r="E18" s="758"/>
+      <c r="F18" s="759"/>
+      <c r="G18" s="759"/>
+      <c r="H18" s="759"/>
+      <c r="I18" s="759"/>
+      <c r="J18" s="759"/>
+      <c r="K18" s="759"/>
+      <c r="L18" s="759"/>
+      <c r="M18" s="759"/>
+      <c r="N18" s="759"/>
+      <c r="O18" s="759"/>
+      <c r="P18" s="759"/>
+      <c r="Q18" s="759"/>
+      <c r="R18" s="759"/>
+      <c r="S18" s="759"/>
+      <c r="T18" s="759"/>
+      <c r="U18" s="759"/>
+      <c r="V18" s="759"/>
+      <c r="W18" s="759"/>
+      <c r="X18" s="759"/>
+      <c r="Y18" s="759"/>
+      <c r="Z18" s="759"/>
+      <c r="AA18" s="759"/>
+      <c r="AB18" s="759"/>
+      <c r="AC18" s="759"/>
+      <c r="AD18" s="759"/>
+      <c r="AE18" s="759"/>
+      <c r="AF18" s="759"/>
+      <c r="AG18" s="759"/>
+      <c r="AH18" s="759"/>
+      <c r="AI18" s="759"/>
+      <c r="AJ18" s="759"/>
+      <c r="AK18" s="759"/>
+      <c r="AL18" s="759"/>
+      <c r="AM18" s="759"/>
+      <c r="AN18" s="759"/>
+      <c r="AO18" s="759"/>
+      <c r="AP18" s="759"/>
+      <c r="AQ18" s="759"/>
+      <c r="AR18" s="759"/>
+      <c r="AS18" s="759"/>
+      <c r="AT18" s="759"/>
+      <c r="AU18" s="759"/>
+      <c r="AV18" s="759"/>
+      <c r="AW18" s="759"/>
+      <c r="AX18" s="759"/>
+      <c r="AY18" s="759"/>
+      <c r="AZ18" s="759"/>
+      <c r="BA18" s="759"/>
+      <c r="BB18" s="759"/>
+      <c r="BC18" s="759"/>
+      <c r="BD18" s="759"/>
+      <c r="BE18" s="759"/>
+      <c r="BF18" s="759"/>
+      <c r="BG18" s="759"/>
+      <c r="BH18" s="759"/>
+      <c r="BI18" s="760"/>
     </row>
     <row r="19" spans="2:61" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="762"/>
+      <c r="E19" s="761"/>
       <c r="F19" s="144"/>
       <c r="G19" s="144"/>
       <c r="H19" s="144"/>
@@ -20767,37 +20957,37 @@
       <c r="AO19" s="144"/>
       <c r="AP19" s="144"/>
       <c r="AQ19" s="144"/>
-      <c r="AR19" s="775"/>
-      <c r="AS19" s="776"/>
-      <c r="AT19" s="775"/>
-      <c r="AU19" s="777"/>
-      <c r="AV19" s="776"/>
-      <c r="AW19" s="777"/>
+      <c r="AR19" s="774"/>
+      <c r="AS19" s="775"/>
+      <c r="AT19" s="774"/>
+      <c r="AU19" s="776"/>
+      <c r="AV19" s="775"/>
+      <c r="AW19" s="776"/>
       <c r="AX19" s="144"/>
-      <c r="AY19" s="734" t="s">
+      <c r="AY19" s="733" t="s">
         <v>1046</v>
       </c>
-      <c r="AZ19" s="735" t="s">
+      <c r="AZ19" s="734" t="s">
         <v>1134</v>
       </c>
-      <c r="BA19" s="752"/>
-      <c r="BB19" s="735" t="s">
+      <c r="BA19" s="751"/>
+      <c r="BB19" s="734" t="s">
         <v>524</v>
       </c>
-      <c r="BC19" s="735" t="s">
+      <c r="BC19" s="734" t="s">
         <v>1135</v>
       </c>
-      <c r="BD19" s="734" t="s">
+      <c r="BD19" s="733" t="s">
         <v>1047</v>
       </c>
-      <c r="BE19" s="736"/>
-      <c r="BF19" s="776"/>
-      <c r="BG19" s="755"/>
-      <c r="BH19" s="756"/>
-      <c r="BI19" s="763"/>
+      <c r="BE19" s="735"/>
+      <c r="BF19" s="775"/>
+      <c r="BG19" s="754"/>
+      <c r="BH19" s="755"/>
+      <c r="BI19" s="762"/>
     </row>
     <row r="20" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="762"/>
+      <c r="E20" s="761"/>
       <c r="F20" s="144"/>
       <c r="G20" s="144"/>
       <c r="H20" s="144"/>
@@ -20836,29 +21026,29 @@
       <c r="AO20" s="144"/>
       <c r="AP20" s="144"/>
       <c r="AQ20" s="144"/>
-      <c r="AR20" s="778"/>
-      <c r="AS20" s="779"/>
-      <c r="AT20" s="778"/>
-      <c r="AU20" s="780"/>
-      <c r="AV20" s="779"/>
-      <c r="AW20" s="780"/>
+      <c r="AR20" s="777"/>
+      <c r="AS20" s="778"/>
+      <c r="AT20" s="777"/>
+      <c r="AU20" s="779"/>
+      <c r="AV20" s="778"/>
+      <c r="AW20" s="779"/>
       <c r="AX20" s="144"/>
-      <c r="AY20" s="737"/>
-      <c r="AZ20" s="738"/>
-      <c r="BA20" s="754"/>
-      <c r="BB20" s="738"/>
-      <c r="BC20" s="738"/>
-      <c r="BD20" s="737"/>
-      <c r="BE20" s="828" t="s">
+      <c r="AY20" s="736"/>
+      <c r="AZ20" s="737"/>
+      <c r="BA20" s="753"/>
+      <c r="BB20" s="737"/>
+      <c r="BC20" s="737"/>
+      <c r="BD20" s="736"/>
+      <c r="BE20" s="821" t="s">
         <v>1226</v>
       </c>
-      <c r="BF20" s="779"/>
-      <c r="BG20" s="757"/>
-      <c r="BH20" s="758"/>
-      <c r="BI20" s="763"/>
+      <c r="BF20" s="778"/>
+      <c r="BG20" s="756"/>
+      <c r="BH20" s="757"/>
+      <c r="BI20" s="762"/>
     </row>
     <row r="21" spans="2:61" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="762"/>
+      <c r="E21" s="761"/>
       <c r="F21" s="144"/>
       <c r="G21" s="144"/>
       <c r="H21" s="144"/>
@@ -20911,15 +21101,15 @@
       <c r="BC21" s="144"/>
       <c r="BD21" s="144"/>
       <c r="BE21" s="144"/>
-      <c r="BF21" s="954" t="s">
+      <c r="BF21" s="822" t="s">
         <v>1039</v>
       </c>
       <c r="BG21" s="144"/>
       <c r="BH21" s="144"/>
-      <c r="BI21" s="763"/>
+      <c r="BI21" s="762"/>
     </row>
     <row r="22" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="762"/>
+      <c r="E22" s="761"/>
       <c r="F22" s="144"/>
       <c r="G22" s="144"/>
       <c r="H22" s="144"/>
@@ -20955,2408 +21145,2414 @@
       <c r="AL22" s="144"/>
       <c r="AM22" s="144"/>
       <c r="AN22" s="144"/>
-      <c r="AO22" s="144"/>
-      <c r="AP22" s="144"/>
-      <c r="AQ22" s="144"/>
-      <c r="AR22" s="144"/>
-      <c r="AS22" s="144"/>
-      <c r="AT22" s="144"/>
-      <c r="AU22" s="144"/>
-      <c r="AV22" s="144"/>
-      <c r="AW22" s="144"/>
-      <c r="AX22" s="144"/>
-      <c r="AY22" s="144"/>
-      <c r="AZ22" s="144"/>
-      <c r="BA22" s="144"/>
-      <c r="BB22" s="144"/>
-      <c r="BC22" s="144"/>
-      <c r="BD22" s="144"/>
-      <c r="BE22" s="144"/>
-      <c r="BF22" s="144"/>
-      <c r="BG22" s="144"/>
-      <c r="BH22" s="144"/>
-      <c r="BI22" s="763"/>
+      <c r="BI22" s="762"/>
     </row>
     <row r="23" spans="2:61" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="764"/>
-      <c r="F23" s="741"/>
-      <c r="G23" s="742"/>
-      <c r="H23" s="781" t="s">
+      <c r="E23" s="763"/>
+      <c r="F23" s="740"/>
+      <c r="G23" s="741"/>
+      <c r="H23" s="780" t="s">
         <v>196</v>
       </c>
-      <c r="I23" s="782" t="s">
+      <c r="I23" s="781" t="s">
         <v>1049</v>
       </c>
-      <c r="J23" s="781" t="s">
+      <c r="J23" s="780" t="s">
         <v>207</v>
       </c>
-      <c r="K23" s="783" t="s">
+      <c r="K23" s="782" t="s">
         <v>1052</v>
       </c>
-      <c r="L23" s="781" t="s">
+      <c r="L23" s="780" t="s">
         <v>151</v>
       </c>
-      <c r="M23" s="782" t="s">
+      <c r="M23" s="781" t="s">
         <v>1054</v>
       </c>
-      <c r="N23" s="781" t="s">
+      <c r="N23" s="780" t="s">
         <v>208</v>
       </c>
-      <c r="O23" s="783" t="s">
+      <c r="O23" s="782" t="s">
         <v>1055</v>
       </c>
-      <c r="P23" s="782" t="s">
+      <c r="P23" s="781" t="s">
         <v>210</v>
       </c>
-      <c r="Q23" s="782" t="s">
+      <c r="Q23" s="781" t="s">
         <v>1057</v>
       </c>
-      <c r="R23" s="781" t="s">
+      <c r="R23" s="780" t="s">
         <v>209</v>
       </c>
-      <c r="S23" s="783" t="s">
+      <c r="S23" s="782" t="s">
         <v>1059</v>
       </c>
-      <c r="T23" s="782" t="s">
+      <c r="T23" s="781" t="s">
         <v>213</v>
       </c>
-      <c r="U23" s="782" t="s">
+      <c r="U23" s="781" t="s">
         <v>1061</v>
       </c>
-      <c r="V23" s="781" t="s">
+      <c r="V23" s="780" t="s">
         <v>211</v>
       </c>
-      <c r="W23" s="783" t="s">
+      <c r="W23" s="782" t="s">
         <v>1063</v>
       </c>
-      <c r="X23" s="782" t="s">
+      <c r="X23" s="781" t="s">
         <v>212</v>
       </c>
-      <c r="Y23" s="782" t="s">
+      <c r="Y23" s="781" t="s">
         <v>1065</v>
       </c>
-      <c r="Z23" s="781" t="s">
+      <c r="Z23" s="780" t="s">
         <v>194</v>
       </c>
-      <c r="AA23" s="783" t="s">
+      <c r="AA23" s="782" t="s">
         <v>1048</v>
       </c>
-      <c r="AB23" s="782" t="s">
+      <c r="AB23" s="781" t="s">
         <v>218</v>
       </c>
-      <c r="AC23" s="782" t="s">
+      <c r="AC23" s="781" t="s">
         <v>1152</v>
       </c>
-      <c r="AD23" s="781" t="s">
+      <c r="AD23" s="780" t="s">
         <v>1119</v>
       </c>
-      <c r="AE23" s="782" t="s">
+      <c r="AE23" s="781" t="s">
         <v>1154</v>
       </c>
-      <c r="AF23" s="781" t="s">
+      <c r="AF23" s="780" t="s">
         <v>996</v>
       </c>
-      <c r="AG23" s="784"/>
-      <c r="AH23" s="769"/>
-      <c r="AI23" s="790" t="s">
+      <c r="AG23" s="783"/>
+      <c r="AH23" s="768"/>
+      <c r="AI23" s="789" t="s">
         <v>1035</v>
       </c>
-      <c r="AJ23" s="783" t="s">
+      <c r="AJ23" s="782" t="s">
         <v>1130</v>
       </c>
-      <c r="AK23" s="790" t="s">
+      <c r="AK23" s="789" t="s">
         <v>654</v>
       </c>
-      <c r="AL23" s="783" t="s">
+      <c r="AL23" s="782" t="s">
         <v>1132</v>
       </c>
-      <c r="AM23" s="740"/>
+      <c r="AM23" s="739"/>
       <c r="AN23" s="144"/>
-      <c r="AO23" s="739"/>
-      <c r="AP23" s="798" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ23" s="800" t="s">
-        <v>1245</v>
-      </c>
-      <c r="AR23" s="799" t="s">
+      <c r="BI23" s="762"/>
+    </row>
+    <row r="24" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="763"/>
+      <c r="F24" s="742"/>
+      <c r="G24" s="743"/>
+      <c r="H24" s="784" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="785" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J24" s="784" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="786" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L24" s="785" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="785" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N24" s="784" t="s">
+        <v>100</v>
+      </c>
+      <c r="O24" s="786" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P24" s="785" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q24" s="785" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R24" s="784" t="s">
+        <v>102</v>
+      </c>
+      <c r="S24" s="786" t="s">
+        <v>1060</v>
+      </c>
+      <c r="T24" s="785" t="s">
         <v>103</v>
       </c>
-      <c r="AS23" s="818" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AT23" s="800" t="s">
+      <c r="U24" s="785" t="s">
+        <v>1062</v>
+      </c>
+      <c r="V24" s="784" t="s">
         <v>104</v>
       </c>
-      <c r="AU23" s="818" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AV23" s="800" t="s">
+      <c r="W24" s="786" t="s">
+        <v>1064</v>
+      </c>
+      <c r="X24" s="785" t="s">
         <v>105</v>
       </c>
-      <c r="AW23" s="818" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AX23" s="144"/>
-      <c r="AY23" s="809" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ23" s="814" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BA23" s="752"/>
-      <c r="BB23" s="814" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC23" s="814" t="s">
-        <v>1137</v>
-      </c>
-      <c r="BD23" s="809" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE23" s="819" t="s">
-        <v>1138</v>
-      </c>
-      <c r="BF23" s="750"/>
-      <c r="BG23" s="810" t="s">
-        <v>1042</v>
-      </c>
-      <c r="BH23" s="819" t="s">
-        <v>1227</v>
-      </c>
-      <c r="BI23" s="763"/>
-    </row>
-    <row r="24" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="764"/>
-      <c r="F24" s="743"/>
-      <c r="G24" s="744"/>
-      <c r="H24" s="785" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="786" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J24" s="785" t="s">
-        <v>98</v>
-      </c>
-      <c r="K24" s="787" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L24" s="786" t="s">
-        <v>99</v>
-      </c>
-      <c r="M24" s="786" t="s">
-        <v>1053</v>
-      </c>
-      <c r="N24" s="785" t="s">
-        <v>100</v>
-      </c>
-      <c r="O24" s="787" t="s">
-        <v>1056</v>
-      </c>
-      <c r="P24" s="786" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q24" s="786" t="s">
-        <v>1058</v>
-      </c>
-      <c r="R24" s="785" t="s">
-        <v>102</v>
-      </c>
-      <c r="S24" s="787" t="s">
-        <v>1060</v>
-      </c>
-      <c r="T24" s="786" t="s">
-        <v>103</v>
-      </c>
-      <c r="U24" s="786" t="s">
-        <v>1062</v>
-      </c>
-      <c r="V24" s="785" t="s">
-        <v>104</v>
-      </c>
-      <c r="W24" s="787" t="s">
-        <v>1064</v>
-      </c>
-      <c r="X24" s="786" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y24" s="786" t="s">
+      <c r="Y24" s="785" t="s">
         <v>1066</v>
       </c>
-      <c r="Z24" s="785" t="s">
+      <c r="Z24" s="784" t="s">
         <v>96</v>
       </c>
-      <c r="AA24" s="787" t="s">
+      <c r="AA24" s="786" t="s">
         <v>1067</v>
       </c>
-      <c r="AB24" s="786" t="s">
+      <c r="AB24" s="785" t="s">
         <v>137</v>
       </c>
-      <c r="AC24" s="786" t="s">
+      <c r="AC24" s="785" t="s">
         <v>1153</v>
       </c>
-      <c r="AD24" s="785" t="s">
+      <c r="AD24" s="784" t="s">
         <v>130</v>
       </c>
-      <c r="AE24" s="786" t="s">
+      <c r="AE24" s="785" t="s">
         <v>1155</v>
       </c>
-      <c r="AF24" s="788"/>
-      <c r="AG24" s="787" t="s">
+      <c r="AF24" s="787"/>
+      <c r="AG24" s="786" t="s">
         <v>1128</v>
       </c>
-      <c r="AH24" s="770"/>
-      <c r="AI24" s="788" t="s">
+      <c r="AH24" s="769"/>
+      <c r="AI24" s="787" t="s">
         <v>1036</v>
       </c>
-      <c r="AJ24" s="789"/>
-      <c r="AK24" s="788"/>
-      <c r="AL24" s="789"/>
-      <c r="AM24" s="740"/>
+      <c r="AJ24" s="788"/>
+      <c r="AK24" s="787"/>
+      <c r="AL24" s="788"/>
+      <c r="AM24" s="739"/>
       <c r="AN24" s="144"/>
       <c r="AO24" s="144"/>
-      <c r="AP24" s="801" t="s">
-        <v>320</v>
-      </c>
-      <c r="AQ24" s="802"/>
-      <c r="AR24" s="801"/>
-      <c r="AS24" s="803"/>
-      <c r="AT24" s="802"/>
-      <c r="AU24" s="803"/>
-      <c r="AV24" s="802"/>
-      <c r="AW24" s="803"/>
+      <c r="AP24" s="144"/>
+      <c r="AQ24" s="144"/>
+      <c r="AR24" s="144"/>
+      <c r="AS24" s="144"/>
+      <c r="AT24" s="144"/>
+      <c r="AU24" s="144"/>
+      <c r="AV24" s="144"/>
+      <c r="AW24" s="144"/>
       <c r="AX24" s="144"/>
-      <c r="AY24" s="518"/>
-      <c r="AZ24" s="155"/>
-      <c r="BA24" s="753"/>
-      <c r="BB24" s="155"/>
-      <c r="BC24" s="155"/>
-      <c r="BD24" s="518"/>
-      <c r="BE24" s="816"/>
-      <c r="BF24" s="751"/>
-      <c r="BG24" s="155"/>
-      <c r="BH24" s="816"/>
-      <c r="BI24" s="763"/>
+      <c r="AY24" s="144"/>
+      <c r="AZ24" s="144"/>
+      <c r="BA24" s="144"/>
+      <c r="BB24" s="144"/>
+      <c r="BC24" s="144"/>
+      <c r="BD24" s="144"/>
+      <c r="BE24" s="144"/>
+      <c r="BF24" s="144"/>
+      <c r="BG24" s="144"/>
+      <c r="BH24" s="144"/>
+      <c r="BI24" s="762"/>
     </row>
     <row r="25" spans="2:61" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="764"/>
-      <c r="F25" s="741"/>
-      <c r="G25" s="745"/>
-      <c r="H25" s="742"/>
-      <c r="I25" s="790" t="s">
+      <c r="E25" s="763"/>
+      <c r="F25" s="740"/>
+      <c r="G25" s="744"/>
+      <c r="H25" s="741"/>
+      <c r="I25" s="789" t="s">
         <v>942</v>
       </c>
-      <c r="J25" s="782" t="s">
+      <c r="J25" s="781" t="s">
         <v>1069</v>
       </c>
-      <c r="K25" s="790" t="s">
+      <c r="K25" s="789" t="s">
         <v>943</v>
       </c>
-      <c r="L25" s="783" t="s">
+      <c r="L25" s="782" t="s">
         <v>1070</v>
       </c>
-      <c r="M25" s="791" t="s">
+      <c r="M25" s="790" t="s">
         <v>944</v>
       </c>
-      <c r="N25" s="782" t="s">
+      <c r="N25" s="781" t="s">
         <v>1073</v>
       </c>
-      <c r="O25" s="790" t="s">
+      <c r="O25" s="789" t="s">
         <v>945</v>
       </c>
-      <c r="P25" s="783" t="s">
+      <c r="P25" s="782" t="s">
         <v>1105</v>
       </c>
-      <c r="Q25" s="791" t="s">
+      <c r="Q25" s="790" t="s">
         <v>946</v>
       </c>
-      <c r="R25" s="782" t="s">
+      <c r="R25" s="781" t="s">
         <v>1107</v>
       </c>
-      <c r="S25" s="790" t="s">
+      <c r="S25" s="789" t="s">
         <v>947</v>
       </c>
-      <c r="T25" s="783" t="s">
+      <c r="T25" s="782" t="s">
         <v>1109</v>
       </c>
-      <c r="U25" s="791" t="s">
+      <c r="U25" s="790" t="s">
         <v>948</v>
       </c>
-      <c r="V25" s="782" t="s">
+      <c r="V25" s="781" t="s">
         <v>1111</v>
       </c>
-      <c r="W25" s="790" t="s">
+      <c r="W25" s="789" t="s">
         <v>949</v>
       </c>
-      <c r="X25" s="783" t="s">
+      <c r="X25" s="782" t="s">
         <v>1113</v>
       </c>
-      <c r="Y25" s="791" t="s">
+      <c r="Y25" s="790" t="s">
         <v>950</v>
       </c>
-      <c r="Z25" s="782" t="s">
+      <c r="Z25" s="781" t="s">
         <v>1115</v>
       </c>
-      <c r="AA25" s="790" t="s">
+      <c r="AA25" s="789" t="s">
         <v>951</v>
       </c>
-      <c r="AB25" s="783" t="s">
+      <c r="AB25" s="782" t="s">
         <v>1117</v>
       </c>
-      <c r="AC25" s="782" t="s">
+      <c r="AC25" s="781" t="s">
         <v>222</v>
       </c>
-      <c r="AD25" s="782" t="s">
+      <c r="AD25" s="781" t="s">
         <v>1156</v>
       </c>
-      <c r="AE25" s="790" t="s">
+      <c r="AE25" s="789" t="s">
         <v>225</v>
       </c>
-      <c r="AF25" s="783" t="s">
+      <c r="AF25" s="782" t="s">
         <v>1158</v>
       </c>
-      <c r="AG25" s="791" t="s">
+      <c r="AG25" s="790" t="s">
         <v>1002</v>
       </c>
-      <c r="AH25" s="791"/>
-      <c r="AI25" s="790" t="s">
+      <c r="AH25" s="790"/>
+      <c r="AI25" s="789" t="s">
         <v>1035</v>
       </c>
-      <c r="AJ25" s="783" t="s">
+      <c r="AJ25" s="782" t="s">
         <v>1131</v>
       </c>
-      <c r="AK25" s="792" t="s">
+      <c r="AK25" s="791" t="s">
         <v>654</v>
       </c>
-      <c r="AL25" s="794" t="s">
+      <c r="AL25" s="793" t="s">
         <v>1133</v>
       </c>
-      <c r="AM25" s="740"/>
+      <c r="AM25" s="739"/>
       <c r="AN25" s="144"/>
-      <c r="AO25" s="144"/>
-      <c r="AP25" s="798" t="s">
-        <v>1038</v>
-      </c>
-      <c r="AQ25" s="800" t="s">
-        <v>1244</v>
-      </c>
-      <c r="AR25" s="799" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS25" s="818" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AT25" s="800" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU25" s="818" t="s">
-        <v>1177</v>
-      </c>
-      <c r="AV25" s="800" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW25" s="818" t="s">
-        <v>1176</v>
+      <c r="AO25" s="738"/>
+      <c r="AP25" s="797" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ25" s="799" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AR25" s="798" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS25" s="816" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AT25" s="799" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU25" s="816" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AV25" s="799" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW25" s="816" t="s">
+        <v>1181</v>
       </c>
       <c r="AX25" s="144"/>
-      <c r="AY25" s="809" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ25" s="814" t="s">
-        <v>1139</v>
-      </c>
-      <c r="BA25" s="752"/>
-      <c r="BB25" s="814" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC25" s="814" t="s">
-        <v>1140</v>
-      </c>
-      <c r="BD25" s="809" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE25" s="819" t="s">
-        <v>1141</v>
-      </c>
-      <c r="BF25" s="747"/>
-      <c r="BG25" s="810" t="s">
-        <v>1043</v>
-      </c>
-      <c r="BH25" s="819" t="s">
-        <v>1223</v>
-      </c>
-      <c r="BI25" s="763"/>
+      <c r="AY25" s="808" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ25" s="813" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BA25" s="751"/>
+      <c r="BB25" s="813" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC25" s="813" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BD25" s="808" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE25" s="817" t="s">
+        <v>1138</v>
+      </c>
+      <c r="BF25" s="749"/>
+      <c r="BG25" s="809" t="s">
+        <v>1042</v>
+      </c>
+      <c r="BH25" s="817" t="s">
+        <v>1227</v>
+      </c>
+      <c r="BI25" s="762"/>
     </row>
     <row r="26" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="764"/>
-      <c r="F26" s="743"/>
-      <c r="G26" s="746"/>
-      <c r="H26" s="744"/>
-      <c r="I26" s="792" t="s">
+      <c r="E26" s="763"/>
+      <c r="F26" s="742"/>
+      <c r="G26" s="745"/>
+      <c r="H26" s="743"/>
+      <c r="I26" s="791" t="s">
         <v>961</v>
       </c>
-      <c r="J26" s="793" t="s">
+      <c r="J26" s="792" t="s">
         <v>1068</v>
       </c>
-      <c r="K26" s="792" t="s">
+      <c r="K26" s="791" t="s">
         <v>962</v>
       </c>
-      <c r="L26" s="794" t="s">
+      <c r="L26" s="793" t="s">
         <v>1072</v>
       </c>
-      <c r="M26" s="795" t="s">
+      <c r="M26" s="794" t="s">
         <v>319</v>
       </c>
-      <c r="N26" s="793" t="s">
+      <c r="N26" s="792" t="s">
         <v>1074</v>
       </c>
-      <c r="O26" s="792" t="s">
+      <c r="O26" s="791" t="s">
         <v>963</v>
       </c>
-      <c r="P26" s="794" t="s">
+      <c r="P26" s="793" t="s">
         <v>1106</v>
       </c>
-      <c r="Q26" s="795" t="s">
+      <c r="Q26" s="794" t="s">
         <v>964</v>
       </c>
-      <c r="R26" s="793" t="s">
+      <c r="R26" s="792" t="s">
         <v>1108</v>
       </c>
-      <c r="S26" s="792" t="s">
+      <c r="S26" s="791" t="s">
         <v>965</v>
       </c>
-      <c r="T26" s="794" t="s">
+      <c r="T26" s="793" t="s">
         <v>1110</v>
       </c>
-      <c r="U26" s="795" t="s">
+      <c r="U26" s="794" t="s">
         <v>966</v>
       </c>
-      <c r="V26" s="793" t="s">
+      <c r="V26" s="792" t="s">
         <v>1112</v>
       </c>
-      <c r="W26" s="792" t="s">
+      <c r="W26" s="791" t="s">
         <v>967</v>
       </c>
-      <c r="X26" s="794" t="s">
+      <c r="X26" s="793" t="s">
         <v>1114</v>
       </c>
-      <c r="Y26" s="795" t="s">
+      <c r="Y26" s="794" t="s">
         <v>968</v>
       </c>
-      <c r="Z26" s="793" t="s">
+      <c r="Z26" s="792" t="s">
         <v>1116</v>
       </c>
-      <c r="AA26" s="792" t="s">
+      <c r="AA26" s="791" t="s">
         <v>969</v>
       </c>
-      <c r="AB26" s="794" t="s">
+      <c r="AB26" s="793" t="s">
         <v>1118</v>
       </c>
-      <c r="AC26" s="795" t="s">
+      <c r="AC26" s="794" t="s">
         <v>221</v>
       </c>
-      <c r="AD26" s="793" t="s">
+      <c r="AD26" s="792" t="s">
         <v>1157</v>
       </c>
-      <c r="AE26" s="792" t="s">
+      <c r="AE26" s="791" t="s">
         <v>224</v>
       </c>
-      <c r="AF26" s="794" t="s">
+      <c r="AF26" s="793" t="s">
         <v>1159</v>
       </c>
-      <c r="AG26" s="795"/>
-      <c r="AH26" s="793" t="s">
+      <c r="AG26" s="794"/>
+      <c r="AH26" s="792" t="s">
         <v>1129</v>
       </c>
-      <c r="AI26" s="792" t="s">
+      <c r="AI26" s="791" t="s">
         <v>1037</v>
       </c>
-      <c r="AJ26" s="796"/>
-      <c r="AK26" s="792" t="s">
+      <c r="AJ26" s="795"/>
+      <c r="AK26" s="791" t="s">
         <v>1037</v>
       </c>
-      <c r="AL26" s="796"/>
-      <c r="AM26" s="740"/>
+      <c r="AL26" s="795"/>
+      <c r="AM26" s="739"/>
       <c r="AN26" s="144"/>
       <c r="AO26" s="144"/>
-      <c r="AP26" s="804" t="s">
-        <v>319</v>
-      </c>
-      <c r="AQ26" s="805"/>
-      <c r="AR26" s="804"/>
-      <c r="AS26" s="806"/>
-      <c r="AT26" s="805"/>
-      <c r="AU26" s="806"/>
-      <c r="AV26" s="805"/>
-      <c r="AW26" s="806"/>
+      <c r="AP26" s="800" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ26" s="801"/>
+      <c r="AR26" s="800"/>
+      <c r="AS26" s="802"/>
+      <c r="AT26" s="801"/>
+      <c r="AU26" s="802"/>
+      <c r="AV26" s="801"/>
+      <c r="AW26" s="802"/>
       <c r="AX26" s="144"/>
-      <c r="AY26" s="811"/>
-      <c r="AZ26" s="812"/>
-      <c r="BA26" s="754"/>
-      <c r="BB26" s="812"/>
-      <c r="BC26" s="812"/>
-      <c r="BD26" s="811"/>
-      <c r="BE26" s="817"/>
-      <c r="BF26" s="749"/>
-      <c r="BG26" s="812"/>
-      <c r="BH26" s="817"/>
-      <c r="BI26" s="763"/>
+      <c r="AY26" s="518"/>
+      <c r="AZ26" s="155"/>
+      <c r="BA26" s="752"/>
+      <c r="BB26" s="155"/>
+      <c r="BC26" s="155"/>
+      <c r="BD26" s="518"/>
+      <c r="BE26" s="814"/>
+      <c r="BF26" s="750"/>
+      <c r="BG26" s="155"/>
+      <c r="BH26" s="814"/>
+      <c r="BI26" s="762"/>
     </row>
     <row r="27" spans="2:61" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="764"/>
-      <c r="F27" s="740"/>
-      <c r="G27" s="771"/>
-      <c r="H27" s="792"/>
-      <c r="I27" s="784"/>
-      <c r="J27" s="790" t="s">
+      <c r="E27" s="763"/>
+      <c r="F27" s="739"/>
+      <c r="G27" s="770"/>
+      <c r="H27" s="791"/>
+      <c r="I27" s="783"/>
+      <c r="J27" s="789" t="s">
         <v>933</v>
       </c>
-      <c r="K27" s="782" t="s">
+      <c r="K27" s="781" t="s">
         <v>1075</v>
       </c>
-      <c r="L27" s="790" t="s">
+      <c r="L27" s="789" t="s">
         <v>934</v>
       </c>
-      <c r="M27" s="783" t="s">
+      <c r="M27" s="782" t="s">
         <v>1078</v>
       </c>
-      <c r="N27" s="791" t="s">
+      <c r="N27" s="790" t="s">
         <v>935</v>
       </c>
-      <c r="O27" s="782" t="s">
+      <c r="O27" s="781" t="s">
         <v>1079</v>
       </c>
-      <c r="P27" s="790" t="s">
+      <c r="P27" s="789" t="s">
         <v>936</v>
       </c>
-      <c r="Q27" s="783" t="s">
+      <c r="Q27" s="782" t="s">
         <v>1082</v>
       </c>
-      <c r="R27" s="791" t="s">
+      <c r="R27" s="790" t="s">
         <v>937</v>
       </c>
-      <c r="S27" s="782" t="s">
+      <c r="S27" s="781" t="s">
         <v>1083</v>
       </c>
-      <c r="T27" s="790" t="s">
+      <c r="T27" s="789" t="s">
         <v>938</v>
       </c>
-      <c r="U27" s="783" t="s">
+      <c r="U27" s="782" t="s">
         <v>1084</v>
       </c>
-      <c r="V27" s="791" t="s">
+      <c r="V27" s="790" t="s">
         <v>939</v>
       </c>
-      <c r="W27" s="782" t="s">
+      <c r="W27" s="781" t="s">
         <v>1086</v>
       </c>
-      <c r="X27" s="790" t="s">
+      <c r="X27" s="789" t="s">
         <v>940</v>
       </c>
-      <c r="Y27" s="783" t="s">
+      <c r="Y27" s="782" t="s">
         <v>1088</v>
       </c>
-      <c r="Z27" s="791" t="s">
+      <c r="Z27" s="790" t="s">
         <v>941</v>
       </c>
-      <c r="AA27" s="782" t="s">
+      <c r="AA27" s="781" t="s">
         <v>1090</v>
       </c>
-      <c r="AB27" s="781" t="s">
+      <c r="AB27" s="780" t="s">
         <v>139</v>
       </c>
-      <c r="AC27" s="783" t="s">
+      <c r="AC27" s="782" t="s">
         <v>1162</v>
       </c>
-      <c r="AD27" s="782" t="s">
+      <c r="AD27" s="781" t="s">
         <v>187</v>
       </c>
-      <c r="AE27" s="782" t="s">
+      <c r="AE27" s="781" t="s">
         <v>1164</v>
       </c>
-      <c r="AF27" s="790" t="s">
+      <c r="AF27" s="789" t="s">
         <v>232</v>
       </c>
-      <c r="AG27" s="783" t="s">
+      <c r="AG27" s="782" t="s">
         <v>1160</v>
       </c>
-      <c r="AH27" s="791"/>
-      <c r="AI27" s="782" t="s">
+      <c r="AH27" s="790"/>
+      <c r="AI27" s="781" t="s">
         <v>1123</v>
       </c>
-      <c r="AJ27" s="790"/>
-      <c r="AK27" s="783" t="s">
+      <c r="AJ27" s="789"/>
+      <c r="AK27" s="782" t="s">
         <v>1121</v>
       </c>
-      <c r="AL27" s="791"/>
-      <c r="AM27" s="783" t="s">
+      <c r="AL27" s="790"/>
+      <c r="AM27" s="782" t="s">
         <v>1122</v>
       </c>
       <c r="AN27" s="144"/>
       <c r="AO27" s="144"/>
-      <c r="AP27" s="801" t="s">
-        <v>861</v>
-      </c>
-      <c r="AQ27" s="808" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AR27" s="807" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS27" s="821" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AT27" s="808" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU27" s="821" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AV27" s="808" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW27" s="821" t="s">
-        <v>1175</v>
+      <c r="AP27" s="797" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AQ27" s="799" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AR27" s="798" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS27" s="816" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AT27" s="799" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU27" s="816" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AV27" s="799" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW27" s="816" t="s">
+        <v>1176</v>
       </c>
       <c r="AX27" s="144"/>
-      <c r="AY27" s="813" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ27" s="169" t="s">
-        <v>1142</v>
-      </c>
-      <c r="BA27" s="753"/>
-      <c r="BB27" s="169" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC27" s="169" t="s">
-        <v>1143</v>
-      </c>
-      <c r="BD27" s="813" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE27" s="820" t="s">
-        <v>1144</v>
-      </c>
-      <c r="BF27" s="748"/>
-      <c r="BG27" s="155" t="s">
-        <v>1044</v>
-      </c>
-      <c r="BH27" s="820" t="s">
-        <v>1228</v>
-      </c>
-      <c r="BI27" s="763"/>
+      <c r="AY27" s="808" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ27" s="813" t="s">
+        <v>1139</v>
+      </c>
+      <c r="BA27" s="751"/>
+      <c r="BB27" s="813" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC27" s="813" t="s">
+        <v>1140</v>
+      </c>
+      <c r="BD27" s="808" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE27" s="817" t="s">
+        <v>1141</v>
+      </c>
+      <c r="BF27" s="746"/>
+      <c r="BG27" s="809" t="s">
+        <v>1043</v>
+      </c>
+      <c r="BH27" s="817" t="s">
+        <v>1223</v>
+      </c>
+      <c r="BI27" s="762"/>
     </row>
     <row r="28" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="764"/>
-      <c r="F28" s="740"/>
-      <c r="G28" s="772"/>
-      <c r="H28" s="788"/>
-      <c r="I28" s="789"/>
-      <c r="J28" s="792" t="s">
+      <c r="E28" s="763"/>
+      <c r="F28" s="739"/>
+      <c r="G28" s="771"/>
+      <c r="H28" s="787"/>
+      <c r="I28" s="788"/>
+      <c r="J28" s="791" t="s">
         <v>970</v>
       </c>
-      <c r="K28" s="793" t="s">
+      <c r="K28" s="792" t="s">
         <v>1076</v>
       </c>
-      <c r="L28" s="792" t="s">
+      <c r="L28" s="791" t="s">
         <v>971</v>
       </c>
-      <c r="M28" s="794" t="s">
+      <c r="M28" s="793" t="s">
         <v>1077</v>
       </c>
-      <c r="N28" s="795" t="s">
+      <c r="N28" s="794" t="s">
         <v>318</v>
       </c>
-      <c r="O28" s="793" t="s">
+      <c r="O28" s="792" t="s">
         <v>1080</v>
       </c>
-      <c r="P28" s="792" t="s">
+      <c r="P28" s="791" t="s">
         <v>320</v>
       </c>
-      <c r="Q28" s="794" t="s">
+      <c r="Q28" s="793" t="s">
         <v>1081</v>
       </c>
-      <c r="R28" s="795" t="s">
+      <c r="R28" s="794" t="s">
         <v>315</v>
       </c>
-      <c r="S28" s="793" t="s">
+      <c r="S28" s="792" t="s">
         <v>1071</v>
       </c>
-      <c r="T28" s="792" t="s">
+      <c r="T28" s="791" t="s">
         <v>972</v>
       </c>
-      <c r="U28" s="794" t="s">
+      <c r="U28" s="793" t="s">
         <v>1085</v>
       </c>
-      <c r="V28" s="795" t="s">
+      <c r="V28" s="794" t="s">
         <v>973</v>
       </c>
-      <c r="W28" s="793" t="s">
+      <c r="W28" s="792" t="s">
         <v>1087</v>
       </c>
-      <c r="X28" s="792" t="s">
+      <c r="X28" s="791" t="s">
         <v>974</v>
       </c>
-      <c r="Y28" s="794" t="s">
+      <c r="Y28" s="793" t="s">
         <v>1089</v>
       </c>
-      <c r="Z28" s="795" t="s">
+      <c r="Z28" s="794" t="s">
         <v>975</v>
       </c>
-      <c r="AA28" s="793" t="s">
+      <c r="AA28" s="792" t="s">
         <v>1091</v>
       </c>
-      <c r="AB28" s="792" t="s">
+      <c r="AB28" s="791" t="s">
         <v>227</v>
       </c>
-      <c r="AC28" s="794" t="s">
+      <c r="AC28" s="793" t="s">
         <v>1163</v>
       </c>
-      <c r="AD28" s="795" t="s">
+      <c r="AD28" s="794" t="s">
         <v>229</v>
       </c>
-      <c r="AE28" s="793" t="s">
+      <c r="AE28" s="792" t="s">
         <v>1165</v>
       </c>
-      <c r="AF28" s="792" t="s">
+      <c r="AF28" s="791" t="s">
         <v>231</v>
       </c>
-      <c r="AG28" s="794" t="s">
+      <c r="AG28" s="793" t="s">
         <v>1161</v>
       </c>
-      <c r="AH28" s="795"/>
-      <c r="AI28" s="795"/>
-      <c r="AJ28" s="792"/>
-      <c r="AK28" s="796"/>
-      <c r="AL28" s="795"/>
-      <c r="AM28" s="796"/>
+      <c r="AH28" s="794"/>
+      <c r="AI28" s="794"/>
+      <c r="AJ28" s="791"/>
+      <c r="AK28" s="795"/>
+      <c r="AL28" s="794"/>
+      <c r="AM28" s="795"/>
       <c r="AN28" s="144"/>
       <c r="AO28" s="144"/>
-      <c r="AP28" s="801" t="s">
-        <v>318</v>
-      </c>
-      <c r="AQ28" s="802"/>
-      <c r="AR28" s="801"/>
-      <c r="AS28" s="803"/>
-      <c r="AT28" s="802"/>
-      <c r="AU28" s="803"/>
-      <c r="AV28" s="802"/>
-      <c r="AW28" s="803"/>
+      <c r="AP28" s="803" t="s">
+        <v>319</v>
+      </c>
+      <c r="AQ28" s="804"/>
+      <c r="AR28" s="803"/>
+      <c r="AS28" s="805"/>
+      <c r="AT28" s="804"/>
+      <c r="AU28" s="805"/>
+      <c r="AV28" s="804"/>
+      <c r="AW28" s="805"/>
       <c r="AX28" s="144"/>
-      <c r="AY28" s="518"/>
-      <c r="AZ28" s="155"/>
+      <c r="AY28" s="810"/>
+      <c r="AZ28" s="811"/>
       <c r="BA28" s="753"/>
-      <c r="BB28" s="155"/>
-      <c r="BC28" s="155"/>
-      <c r="BD28" s="518"/>
-      <c r="BE28" s="816"/>
+      <c r="BB28" s="811"/>
+      <c r="BC28" s="811"/>
+      <c r="BD28" s="810"/>
+      <c r="BE28" s="815"/>
       <c r="BF28" s="748"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="816"/>
-      <c r="BI28" s="763"/>
+      <c r="BG28" s="811"/>
+      <c r="BH28" s="815"/>
+      <c r="BI28" s="762"/>
     </row>
     <row r="29" spans="2:61" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="764"/>
-      <c r="F29" s="790"/>
-      <c r="G29" s="791"/>
-      <c r="H29" s="784"/>
-      <c r="I29" s="781" t="s">
+      <c r="E29" s="763"/>
+      <c r="F29" s="789"/>
+      <c r="G29" s="790"/>
+      <c r="H29" s="783"/>
+      <c r="I29" s="780" t="s">
         <v>215</v>
       </c>
-      <c r="J29" s="782" t="s">
+      <c r="J29" s="781" t="s">
         <v>1150</v>
       </c>
-      <c r="K29" s="790" t="s">
+      <c r="K29" s="789" t="s">
         <v>952</v>
       </c>
-      <c r="L29" s="783" t="s">
+      <c r="L29" s="782" t="s">
         <v>1092</v>
       </c>
-      <c r="M29" s="791" t="s">
+      <c r="M29" s="790" t="s">
         <v>953</v>
       </c>
-      <c r="N29" s="782" t="s">
+      <c r="N29" s="781" t="s">
         <v>1094</v>
       </c>
-      <c r="O29" s="790" t="s">
+      <c r="O29" s="789" t="s">
         <v>954</v>
       </c>
-      <c r="P29" s="783" t="s">
+      <c r="P29" s="782" t="s">
         <v>1096</v>
       </c>
-      <c r="Q29" s="791" t="s">
+      <c r="Q29" s="790" t="s">
         <v>955</v>
       </c>
-      <c r="R29" s="782" t="s">
+      <c r="R29" s="781" t="s">
         <v>1098</v>
       </c>
-      <c r="S29" s="790" t="s">
+      <c r="S29" s="789" t="s">
         <v>956</v>
       </c>
-      <c r="T29" s="783" t="s">
+      <c r="T29" s="782" t="s">
         <v>1099</v>
       </c>
-      <c r="U29" s="791" t="s">
+      <c r="U29" s="790" t="s">
         <v>957</v>
       </c>
-      <c r="V29" s="782" t="s">
+      <c r="V29" s="781" t="s">
         <v>1101</v>
       </c>
-      <c r="W29" s="790" t="s">
+      <c r="W29" s="789" t="s">
         <v>959</v>
       </c>
-      <c r="X29" s="783" t="s">
+      <c r="X29" s="782" t="s">
         <v>1103</v>
       </c>
-      <c r="Y29" s="782" t="s">
+      <c r="Y29" s="781" t="s">
         <v>132</v>
       </c>
-      <c r="Z29" s="782" t="s">
+      <c r="Z29" s="781" t="s">
         <v>1166</v>
       </c>
-      <c r="AA29" s="781" t="s">
+      <c r="AA29" s="780" t="s">
         <v>235</v>
       </c>
-      <c r="AB29" s="783" t="s">
+      <c r="AB29" s="782" t="s">
         <v>1168</v>
       </c>
-      <c r="AC29" s="782" t="s">
+      <c r="AC29" s="781" t="s">
         <v>238</v>
       </c>
-      <c r="AD29" s="782" t="s">
+      <c r="AD29" s="781" t="s">
         <v>1170</v>
       </c>
-      <c r="AE29" s="781"/>
-      <c r="AF29" s="791"/>
-      <c r="AG29" s="783"/>
-      <c r="AH29" s="791"/>
-      <c r="AI29" s="782" t="s">
+      <c r="AE29" s="780"/>
+      <c r="AF29" s="790"/>
+      <c r="AG29" s="782"/>
+      <c r="AH29" s="790"/>
+      <c r="AI29" s="781" t="s">
         <v>1120</v>
       </c>
-      <c r="AJ29" s="781"/>
-      <c r="AK29" s="783" t="s">
+      <c r="AJ29" s="780"/>
+      <c r="AK29" s="782" t="s">
         <v>1124</v>
       </c>
-      <c r="AL29" s="791"/>
-      <c r="AM29" s="783" t="s">
+      <c r="AL29" s="790"/>
+      <c r="AM29" s="782" t="s">
         <v>1125</v>
       </c>
       <c r="AN29" s="144"/>
       <c r="AO29" s="144"/>
-      <c r="AP29" s="798"/>
-      <c r="AQ29" s="800" t="s">
-        <v>1242</v>
-      </c>
-      <c r="AR29" s="799" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS29" s="818" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AT29" s="800" t="s">
-        <v>484</v>
-      </c>
-      <c r="AU29" s="818" t="s">
-        <v>1240</v>
-      </c>
-      <c r="AV29" s="800" t="s">
-        <v>653</v>
-      </c>
-      <c r="AW29" s="818" t="s">
-        <v>1241</v>
+      <c r="AP29" s="800" t="s">
+        <v>861</v>
+      </c>
+      <c r="AQ29" s="807" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AR29" s="806" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS29" s="819" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AT29" s="807" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU29" s="819" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AV29" s="807" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW29" s="819" t="s">
+        <v>1175</v>
       </c>
       <c r="AX29" s="144"/>
-      <c r="AY29" s="809" t="s">
-        <v>272</v>
-      </c>
-      <c r="AZ29" s="814" t="s">
-        <v>1145</v>
+      <c r="AY29" s="812" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ29" s="169" t="s">
+        <v>1142</v>
       </c>
       <c r="BA29" s="752"/>
-      <c r="BB29" s="814" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC29" s="814" t="s">
-        <v>1146</v>
-      </c>
-      <c r="BD29" s="809" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE29" s="819" t="s">
-        <v>1147</v>
+      <c r="BB29" s="169" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC29" s="169" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BD29" s="812" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE29" s="818" t="s">
+        <v>1144</v>
       </c>
       <c r="BF29" s="747"/>
-      <c r="BG29" s="810" t="s">
-        <v>1045</v>
-      </c>
-      <c r="BH29" s="819" t="s">
-        <v>1229</v>
-      </c>
-      <c r="BI29" s="763"/>
+      <c r="BG29" s="155" t="s">
+        <v>1044</v>
+      </c>
+      <c r="BH29" s="818" t="s">
+        <v>1228</v>
+      </c>
+      <c r="BI29" s="762"/>
     </row>
     <row r="30" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="764"/>
-      <c r="F30" s="788"/>
-      <c r="G30" s="797"/>
-      <c r="H30" s="789"/>
-      <c r="I30" s="785" t="s">
+      <c r="E30" s="763"/>
+      <c r="F30" s="787"/>
+      <c r="G30" s="796"/>
+      <c r="H30" s="788"/>
+      <c r="I30" s="784" t="s">
         <v>216</v>
       </c>
-      <c r="J30" s="786" t="s">
+      <c r="J30" s="785" t="s">
         <v>1151</v>
       </c>
-      <c r="K30" s="788" t="s">
+      <c r="K30" s="787" t="s">
         <v>976</v>
       </c>
-      <c r="L30" s="787" t="s">
+      <c r="L30" s="786" t="s">
         <v>1093</v>
       </c>
-      <c r="M30" s="797" t="s">
+      <c r="M30" s="796" t="s">
         <v>591</v>
       </c>
-      <c r="N30" s="786" t="s">
+      <c r="N30" s="785" t="s">
         <v>1095</v>
       </c>
-      <c r="O30" s="788" t="s">
+      <c r="O30" s="787" t="s">
         <v>317</v>
       </c>
-      <c r="P30" s="787" t="s">
+      <c r="P30" s="786" t="s">
         <v>1097</v>
       </c>
-      <c r="Q30" s="797" t="s">
+      <c r="Q30" s="796" t="s">
         <v>977</v>
       </c>
-      <c r="R30" s="786" t="s">
+      <c r="R30" s="785" t="s">
         <v>1072</v>
       </c>
-      <c r="S30" s="788" t="s">
+      <c r="S30" s="787" t="s">
         <v>316</v>
       </c>
-      <c r="T30" s="787" t="s">
+      <c r="T30" s="786" t="s">
         <v>1100</v>
       </c>
-      <c r="U30" s="797" t="s">
+      <c r="U30" s="796" t="s">
         <v>978</v>
       </c>
-      <c r="V30" s="786" t="s">
+      <c r="V30" s="785" t="s">
         <v>1102</v>
       </c>
-      <c r="W30" s="788" t="s">
+      <c r="W30" s="787" t="s">
         <v>524</v>
       </c>
-      <c r="X30" s="787" t="s">
+      <c r="X30" s="786" t="s">
         <v>1104</v>
       </c>
-      <c r="Y30" s="797" t="s">
+      <c r="Y30" s="796" t="s">
         <v>134</v>
       </c>
-      <c r="Z30" s="786" t="s">
+      <c r="Z30" s="785" t="s">
         <v>1167</v>
       </c>
-      <c r="AA30" s="785" t="s">
+      <c r="AA30" s="784" t="s">
         <v>124</v>
       </c>
-      <c r="AB30" s="787" t="s">
+      <c r="AB30" s="786" t="s">
         <v>1169</v>
       </c>
-      <c r="AC30" s="786" t="s">
+      <c r="AC30" s="785" t="s">
         <v>237</v>
       </c>
-      <c r="AD30" s="786" t="s">
+      <c r="AD30" s="785" t="s">
         <v>1171</v>
       </c>
-      <c r="AE30" s="785"/>
-      <c r="AF30" s="797"/>
-      <c r="AG30" s="787"/>
-      <c r="AH30" s="797"/>
-      <c r="AI30" s="797"/>
-      <c r="AJ30" s="788"/>
-      <c r="AK30" s="789"/>
-      <c r="AL30" s="797"/>
-      <c r="AM30" s="789"/>
+      <c r="AE30" s="784"/>
+      <c r="AF30" s="796"/>
+      <c r="AG30" s="786"/>
+      <c r="AH30" s="796"/>
+      <c r="AI30" s="796"/>
+      <c r="AJ30" s="787"/>
+      <c r="AK30" s="788"/>
+      <c r="AL30" s="796"/>
+      <c r="AM30" s="788"/>
       <c r="AN30" s="144"/>
       <c r="AO30" s="144"/>
-      <c r="AP30" s="804"/>
-      <c r="AQ30" s="805"/>
-      <c r="AR30" s="804"/>
-      <c r="AS30" s="806"/>
-      <c r="AT30" s="805" t="s">
-        <v>970</v>
-      </c>
-      <c r="AU30" s="806"/>
-      <c r="AV30" s="805" t="s">
-        <v>316</v>
-      </c>
-      <c r="AW30" s="806"/>
+      <c r="AP30" s="800" t="s">
+        <v>318</v>
+      </c>
+      <c r="AQ30" s="801"/>
+      <c r="AR30" s="800"/>
+      <c r="AS30" s="802"/>
+      <c r="AT30" s="801"/>
+      <c r="AU30" s="802"/>
+      <c r="AV30" s="801"/>
+      <c r="AW30" s="802"/>
       <c r="AX30" s="144"/>
-      <c r="AY30" s="811"/>
-      <c r="AZ30" s="812"/>
-      <c r="BA30" s="754"/>
-      <c r="BB30" s="812"/>
-      <c r="BC30" s="812"/>
-      <c r="BD30" s="811"/>
-      <c r="BE30" s="817"/>
-      <c r="BF30" s="749"/>
-      <c r="BG30" s="812"/>
-      <c r="BH30" s="817"/>
-      <c r="BI30" s="763"/>
+      <c r="AY30" s="518"/>
+      <c r="AZ30" s="155"/>
+      <c r="BA30" s="752"/>
+      <c r="BB30" s="155"/>
+      <c r="BC30" s="155"/>
+      <c r="BD30" s="518"/>
+      <c r="BE30" s="814"/>
+      <c r="BF30" s="747"/>
+      <c r="BG30" s="155"/>
+      <c r="BH30" s="814"/>
+      <c r="BI30" s="762"/>
     </row>
     <row r="31" spans="2:61" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="764"/>
-      <c r="F31" s="740"/>
-      <c r="G31" s="790" t="s">
+      <c r="E31" s="763"/>
+      <c r="F31" s="739"/>
+      <c r="G31" s="789" t="s">
         <v>1039</v>
       </c>
-      <c r="H31" s="783" t="s">
+      <c r="H31" s="782" t="s">
         <v>1225</v>
       </c>
-      <c r="I31" s="790" t="s">
+      <c r="I31" s="789" t="s">
         <v>1040</v>
       </c>
-      <c r="J31" s="791"/>
-      <c r="K31" s="783" t="s">
+      <c r="J31" s="790"/>
+      <c r="K31" s="782" t="s">
         <v>1148</v>
       </c>
-      <c r="L31" s="740"/>
-      <c r="M31" s="790"/>
-      <c r="N31" s="791"/>
-      <c r="O31" s="791"/>
-      <c r="P31" s="791"/>
-      <c r="Q31" s="791"/>
-      <c r="R31" s="791"/>
-      <c r="S31" s="791"/>
-      <c r="T31" s="791"/>
-      <c r="U31" s="791"/>
-      <c r="V31" s="791"/>
-      <c r="W31" s="791"/>
-      <c r="X31" s="791"/>
-      <c r="Y31" s="791"/>
-      <c r="Z31" s="791"/>
-      <c r="AA31" s="791"/>
-      <c r="AB31" s="783" t="s">
+      <c r="L31" s="739"/>
+      <c r="M31" s="789"/>
+      <c r="N31" s="790"/>
+      <c r="O31" s="790"/>
+      <c r="P31" s="790"/>
+      <c r="Q31" s="790"/>
+      <c r="R31" s="790"/>
+      <c r="S31" s="790"/>
+      <c r="T31" s="790"/>
+      <c r="U31" s="790"/>
+      <c r="V31" s="790"/>
+      <c r="W31" s="790"/>
+      <c r="X31" s="790"/>
+      <c r="Y31" s="790"/>
+      <c r="Z31" s="790"/>
+      <c r="AA31" s="790"/>
+      <c r="AB31" s="782" t="s">
         <v>286</v>
       </c>
-      <c r="AC31" s="740"/>
-      <c r="AD31" s="790" t="s">
+      <c r="AC31" s="739"/>
+      <c r="AD31" s="789" t="s">
         <v>1041</v>
       </c>
-      <c r="AE31" s="791"/>
-      <c r="AF31" s="783" t="s">
+      <c r="AE31" s="790"/>
+      <c r="AF31" s="782" t="s">
         <v>1149</v>
       </c>
-      <c r="AG31" s="740"/>
-      <c r="AH31" s="790"/>
-      <c r="AI31" s="782" t="s">
+      <c r="AG31" s="739"/>
+      <c r="AH31" s="789"/>
+      <c r="AI31" s="781" t="s">
         <v>1224</v>
       </c>
-      <c r="AJ31" s="790"/>
-      <c r="AK31" s="783" t="s">
+      <c r="AJ31" s="789"/>
+      <c r="AK31" s="782" t="s">
         <v>1126</v>
       </c>
-      <c r="AL31" s="791"/>
-      <c r="AM31" s="783" t="s">
+      <c r="AL31" s="790"/>
+      <c r="AM31" s="782" t="s">
         <v>1127</v>
       </c>
       <c r="AN31" s="144"/>
       <c r="AO31" s="144"/>
-      <c r="AP31" s="144"/>
-      <c r="AQ31" s="144"/>
-      <c r="AR31" s="144"/>
-      <c r="AS31" s="144"/>
-      <c r="AT31" s="144"/>
-      <c r="AU31" s="144"/>
-      <c r="AV31" s="144"/>
-      <c r="AW31" s="144"/>
+      <c r="AP31" s="797"/>
+      <c r="AQ31" s="799" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AR31" s="798" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS31" s="816" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AT31" s="799" t="s">
+        <v>484</v>
+      </c>
+      <c r="AU31" s="816" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AV31" s="799" t="s">
+        <v>653</v>
+      </c>
+      <c r="AW31" s="816" t="s">
+        <v>1241</v>
+      </c>
       <c r="AX31" s="144"/>
-      <c r="AY31" s="144"/>
-      <c r="AZ31" s="144"/>
-      <c r="BA31" s="144"/>
-      <c r="BB31" s="144"/>
-      <c r="BC31" s="144"/>
-      <c r="BD31" s="144"/>
-      <c r="BE31" s="144"/>
-      <c r="BF31" s="144"/>
-      <c r="BG31" s="144"/>
-      <c r="BH31" s="144"/>
-      <c r="BI31" s="763"/>
+      <c r="AY31" s="808" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ31" s="813" t="s">
+        <v>1145</v>
+      </c>
+      <c r="BA31" s="751"/>
+      <c r="BB31" s="813" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC31" s="813" t="s">
+        <v>1146</v>
+      </c>
+      <c r="BD31" s="808" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE31" s="817" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BF31" s="746"/>
+      <c r="BG31" s="809" t="s">
+        <v>1045</v>
+      </c>
+      <c r="BH31" s="817" t="s">
+        <v>1229</v>
+      </c>
+      <c r="BI31" s="762"/>
     </row>
     <row r="32" spans="2:61" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="764"/>
-      <c r="F32" s="740"/>
-      <c r="G32" s="788"/>
-      <c r="H32" s="789"/>
-      <c r="I32" s="788"/>
-      <c r="J32" s="797"/>
-      <c r="K32" s="789"/>
-      <c r="L32" s="740"/>
-      <c r="M32" s="788"/>
-      <c r="N32" s="797"/>
-      <c r="O32" s="797"/>
-      <c r="P32" s="797"/>
-      <c r="Q32" s="797"/>
-      <c r="R32" s="797"/>
-      <c r="S32" s="797"/>
-      <c r="T32" s="797"/>
-      <c r="U32" s="797"/>
-      <c r="V32" s="797"/>
-      <c r="W32" s="797"/>
-      <c r="X32" s="797"/>
-      <c r="Y32" s="797"/>
-      <c r="Z32" s="797"/>
-      <c r="AA32" s="797"/>
-      <c r="AB32" s="789"/>
-      <c r="AC32" s="740"/>
-      <c r="AD32" s="788"/>
-      <c r="AE32" s="797"/>
-      <c r="AF32" s="789"/>
-      <c r="AG32" s="740"/>
-      <c r="AH32" s="788"/>
-      <c r="AI32" s="797"/>
-      <c r="AJ32" s="788"/>
-      <c r="AK32" s="789"/>
-      <c r="AL32" s="797"/>
-      <c r="AM32" s="789"/>
+      <c r="E32" s="763"/>
+      <c r="F32" s="739"/>
+      <c r="G32" s="787"/>
+      <c r="H32" s="788"/>
+      <c r="I32" s="787"/>
+      <c r="J32" s="796"/>
+      <c r="K32" s="788"/>
+      <c r="L32" s="739"/>
+      <c r="M32" s="787"/>
+      <c r="N32" s="796"/>
+      <c r="O32" s="796"/>
+      <c r="P32" s="796"/>
+      <c r="Q32" s="796"/>
+      <c r="R32" s="796"/>
+      <c r="S32" s="796"/>
+      <c r="T32" s="796"/>
+      <c r="U32" s="796"/>
+      <c r="V32" s="796"/>
+      <c r="W32" s="796"/>
+      <c r="X32" s="796"/>
+      <c r="Y32" s="796"/>
+      <c r="Z32" s="796"/>
+      <c r="AA32" s="796"/>
+      <c r="AB32" s="788"/>
+      <c r="AC32" s="739"/>
+      <c r="AD32" s="787"/>
+      <c r="AE32" s="796"/>
+      <c r="AF32" s="788"/>
+      <c r="AG32" s="739"/>
+      <c r="AH32" s="787"/>
+      <c r="AI32" s="796"/>
+      <c r="AJ32" s="787"/>
+      <c r="AK32" s="788"/>
+      <c r="AL32" s="796"/>
+      <c r="AM32" s="788"/>
       <c r="AN32" s="144"/>
       <c r="AO32" s="144"/>
-      <c r="AP32" s="144"/>
-      <c r="AQ32" s="144"/>
-      <c r="AR32" s="144"/>
-      <c r="AS32" s="144"/>
-      <c r="AT32" s="144"/>
-      <c r="AU32" s="144"/>
-      <c r="AV32" s="144"/>
-      <c r="AW32" s="144"/>
+      <c r="AP32" s="803"/>
+      <c r="AQ32" s="804"/>
+      <c r="AR32" s="803"/>
+      <c r="AS32" s="805"/>
+      <c r="AT32" s="804" t="s">
+        <v>970</v>
+      </c>
+      <c r="AU32" s="805"/>
+      <c r="AV32" s="804" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW32" s="805"/>
       <c r="AX32" s="144"/>
-      <c r="AY32" s="144"/>
-      <c r="AZ32" s="144"/>
-      <c r="BA32" s="144"/>
-      <c r="BB32" s="144"/>
-      <c r="BC32" s="144"/>
-      <c r="BD32" s="144"/>
-      <c r="BE32" s="144"/>
-      <c r="BF32" s="144"/>
-      <c r="BG32" s="144"/>
-      <c r="BH32" s="144"/>
-      <c r="BI32" s="763"/>
+      <c r="AY32" s="810"/>
+      <c r="AZ32" s="811"/>
+      <c r="BA32" s="753"/>
+      <c r="BB32" s="811"/>
+      <c r="BC32" s="811"/>
+      <c r="BD32" s="810"/>
+      <c r="BE32" s="815"/>
+      <c r="BF32" s="748"/>
+      <c r="BG32" s="811"/>
+      <c r="BH32" s="815"/>
+      <c r="BI32" s="762"/>
     </row>
     <row r="33" spans="5:62" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="765"/>
-      <c r="F33" s="766"/>
-      <c r="G33" s="766"/>
-      <c r="H33" s="766"/>
-      <c r="I33" s="766"/>
-      <c r="J33" s="766"/>
-      <c r="K33" s="766"/>
-      <c r="L33" s="766"/>
-      <c r="M33" s="766"/>
-      <c r="N33" s="766"/>
-      <c r="O33" s="766"/>
-      <c r="P33" s="766"/>
-      <c r="Q33" s="766"/>
-      <c r="R33" s="766"/>
-      <c r="S33" s="766"/>
-      <c r="T33" s="766"/>
-      <c r="U33" s="766"/>
-      <c r="V33" s="766"/>
-      <c r="W33" s="766"/>
-      <c r="X33" s="766"/>
-      <c r="Y33" s="766"/>
-      <c r="Z33" s="766"/>
-      <c r="AA33" s="766"/>
-      <c r="AB33" s="766"/>
-      <c r="AC33" s="766"/>
-      <c r="AD33" s="766"/>
-      <c r="AE33" s="766"/>
-      <c r="AF33" s="766"/>
-      <c r="AG33" s="766"/>
-      <c r="AH33" s="766"/>
-      <c r="AI33" s="766"/>
-      <c r="AJ33" s="766"/>
-      <c r="AK33" s="766"/>
-      <c r="AL33" s="766"/>
-      <c r="AM33" s="766"/>
-      <c r="AN33" s="767"/>
-      <c r="AO33" s="767"/>
-      <c r="AP33" s="767"/>
-      <c r="AQ33" s="767"/>
-      <c r="AR33" s="767"/>
-      <c r="AS33" s="767"/>
-      <c r="AT33" s="767"/>
-      <c r="AU33" s="767"/>
-      <c r="AV33" s="767"/>
-      <c r="AW33" s="767"/>
-      <c r="AX33" s="767"/>
-      <c r="AY33" s="767"/>
-      <c r="AZ33" s="767"/>
-      <c r="BA33" s="767"/>
-      <c r="BB33" s="767"/>
-      <c r="BC33" s="767"/>
-      <c r="BD33" s="767"/>
-      <c r="BE33" s="767"/>
-      <c r="BF33" s="767"/>
-      <c r="BG33" s="767"/>
-      <c r="BH33" s="767"/>
-      <c r="BI33" s="768"/>
-    </row>
-    <row r="34" spans="5:62" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="E33" s="764"/>
+      <c r="F33" s="765"/>
+      <c r="G33" s="765"/>
+      <c r="H33" s="765"/>
+      <c r="I33" s="765"/>
+      <c r="J33" s="765"/>
+      <c r="K33" s="765"/>
+      <c r="L33" s="765"/>
+      <c r="M33" s="765"/>
+      <c r="N33" s="765"/>
+      <c r="O33" s="765"/>
+      <c r="P33" s="765"/>
+      <c r="Q33" s="765"/>
+      <c r="R33" s="765"/>
+      <c r="S33" s="765"/>
+      <c r="T33" s="765"/>
+      <c r="U33" s="765"/>
+      <c r="V33" s="765"/>
+      <c r="W33" s="765"/>
+      <c r="X33" s="765"/>
+      <c r="Y33" s="765"/>
+      <c r="Z33" s="765"/>
+      <c r="AA33" s="765"/>
+      <c r="AB33" s="765"/>
+      <c r="AC33" s="765"/>
+      <c r="AD33" s="765"/>
+      <c r="AE33" s="765"/>
+      <c r="AF33" s="765"/>
+      <c r="AG33" s="765"/>
+      <c r="AH33" s="765"/>
+      <c r="AI33" s="765"/>
+      <c r="AJ33" s="765"/>
+      <c r="AK33" s="765"/>
+      <c r="AL33" s="765"/>
+      <c r="AM33" s="765"/>
+      <c r="AN33" s="766"/>
+      <c r="AO33" s="766"/>
+      <c r="AP33" s="766"/>
+      <c r="AQ33" s="766"/>
+      <c r="AR33" s="766"/>
+      <c r="AS33" s="766"/>
+      <c r="AT33" s="766"/>
+      <c r="AU33" s="766"/>
+      <c r="AV33" s="766"/>
+      <c r="AW33" s="766"/>
+      <c r="AX33" s="766"/>
+      <c r="AY33" s="766"/>
+      <c r="AZ33" s="766"/>
+      <c r="BA33" s="766"/>
+      <c r="BB33" s="766"/>
+      <c r="BC33" s="766"/>
+      <c r="BD33" s="766"/>
+      <c r="BE33" s="766"/>
+      <c r="BF33" s="766"/>
+      <c r="BG33" s="766"/>
+      <c r="BH33" s="766"/>
+      <c r="BI33" s="767"/>
+    </row>
+    <row r="34" spans="5:62" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z34" s="959"/>
+      <c r="AA34" s="959"/>
+      <c r="AB34" s="959"/>
+      <c r="AC34" s="959"/>
+      <c r="AD34" s="959"/>
+      <c r="AE34" s="959"/>
+      <c r="AF34" s="959"/>
+      <c r="AG34" s="959"/>
+      <c r="AH34" s="959"/>
+      <c r="AI34" s="959"/>
+      <c r="AJ34" s="959"/>
+      <c r="AK34" s="959"/>
+      <c r="AL34" s="959"/>
+      <c r="AM34" s="959"/>
+      <c r="AN34" s="959"/>
+      <c r="AO34" s="959"/>
+      <c r="AP34" s="959"/>
+      <c r="AQ34" s="959"/>
+      <c r="AR34" s="959"/>
+      <c r="AS34" s="959"/>
+      <c r="AT34" s="959"/>
+      <c r="AU34" s="959"/>
+      <c r="AV34" s="959"/>
+      <c r="AW34" s="959"/>
+      <c r="AX34" s="959"/>
+      <c r="AY34" s="959"/>
+      <c r="AZ34" s="959"/>
+      <c r="BA34" s="959"/>
+      <c r="BB34" s="959"/>
+      <c r="BC34" s="959"/>
+      <c r="BD34" s="959"/>
+      <c r="BE34" s="959"/>
+      <c r="BF34" s="959"/>
+      <c r="BG34" s="959"/>
+      <c r="BH34" s="959"/>
+      <c r="BI34" s="959"/>
+      <c r="BJ34" s="959"/>
+    </row>
     <row r="35" spans="5:62" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="799" t="s">
+      <c r="E35" s="798" t="s">
         <v>320</v>
       </c>
-      <c r="F35" s="800" t="s">
+      <c r="F35" s="799" t="s">
         <v>1258</v>
       </c>
-      <c r="G35" s="799" t="s">
+      <c r="G35" s="798" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="818" t="s">
+      <c r="H35" s="816" t="s">
         <v>1255</v>
       </c>
-      <c r="I35" s="800" t="s">
+      <c r="I35" s="799" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="818" t="s">
+      <c r="J35" s="816" t="s">
         <v>1256</v>
       </c>
-      <c r="K35" s="800" t="s">
+      <c r="K35" s="799" t="s">
         <v>105</v>
       </c>
-      <c r="L35" s="818" t="s">
+      <c r="L35" s="816" t="s">
         <v>1257</v>
       </c>
       <c r="M35" s="206"/>
       <c r="N35" s="206"/>
-      <c r="O35" s="798" t="s">
+      <c r="O35" s="797" t="s">
         <v>320</v>
       </c>
-      <c r="P35" s="800" t="s">
+      <c r="P35" s="799" t="s">
         <v>1279</v>
       </c>
-      <c r="Q35" s="799" t="s">
+      <c r="Q35" s="798" t="s">
         <v>103</v>
       </c>
-      <c r="R35" s="818" t="s">
+      <c r="R35" s="816" t="s">
         <v>1271</v>
       </c>
-      <c r="S35" s="800" t="s">
+      <c r="S35" s="799" t="s">
         <v>104</v>
       </c>
-      <c r="T35" s="818" t="s">
+      <c r="T35" s="816" t="s">
         <v>1272</v>
       </c>
-      <c r="U35" s="800" t="s">
+      <c r="U35" s="799" t="s">
         <v>105</v>
       </c>
-      <c r="V35" s="818" t="s">
+      <c r="V35" s="816" t="s">
         <v>1273</v>
       </c>
-      <c r="AA35" s="809" t="s">
+      <c r="Z35" s="959"/>
+      <c r="AA35" s="960" t="s">
         <v>97</v>
       </c>
-      <c r="AB35" s="814" t="s">
+      <c r="AB35" s="961" t="s">
         <v>1187</v>
       </c>
-      <c r="AC35" s="752"/>
-      <c r="AD35" s="814" t="s">
+      <c r="AC35" s="962"/>
+      <c r="AD35" s="961" t="s">
         <v>98</v>
       </c>
-      <c r="AE35" s="814" t="s">
+      <c r="AE35" s="961" t="s">
         <v>1188</v>
       </c>
-      <c r="AF35" s="809" t="s">
+      <c r="AF35" s="960" t="s">
         <v>99</v>
       </c>
-      <c r="AG35" s="819" t="s">
+      <c r="AG35" s="963" t="s">
         <v>1189</v>
       </c>
-      <c r="AH35" s="823"/>
-      <c r="AI35" s="810" t="s">
+      <c r="AH35" s="964"/>
+      <c r="AI35" s="965" t="s">
         <v>1042</v>
       </c>
-      <c r="AJ35" s="815"/>
-      <c r="AK35" s="206"/>
-      <c r="AL35" s="206"/>
-      <c r="AM35" s="809" t="s">
+      <c r="AJ35" s="966"/>
+      <c r="AK35" s="967"/>
+      <c r="AL35" s="967"/>
+      <c r="AM35" s="960" t="s">
         <v>97</v>
       </c>
-      <c r="AN35" s="814" t="s">
+      <c r="AN35" s="961" t="s">
         <v>1199</v>
       </c>
-      <c r="AO35" s="752"/>
-      <c r="AP35" s="814" t="s">
+      <c r="AO35" s="962"/>
+      <c r="AP35" s="961" t="s">
         <v>98</v>
       </c>
-      <c r="AQ35" s="814" t="s">
+      <c r="AQ35" s="961" t="s">
         <v>1200</v>
       </c>
-      <c r="AR35" s="809" t="s">
+      <c r="AR35" s="960" t="s">
         <v>99</v>
       </c>
-      <c r="AS35" s="819" t="s">
+      <c r="AS35" s="963" t="s">
         <v>1201</v>
       </c>
-      <c r="AT35" s="823"/>
-      <c r="AU35" s="810" t="s">
+      <c r="AT35" s="964"/>
+      <c r="AU35" s="965" t="s">
         <v>1042</v>
       </c>
-      <c r="AV35" s="815"/>
-      <c r="AW35" s="206"/>
-      <c r="AX35" s="206"/>
-      <c r="AY35" s="809" t="s">
+      <c r="AV35" s="966"/>
+      <c r="AW35" s="967"/>
+      <c r="AX35" s="967"/>
+      <c r="AY35" s="960" t="s">
         <v>97</v>
       </c>
-      <c r="AZ35" s="814" t="s">
+      <c r="AZ35" s="961" t="s">
         <v>1211</v>
       </c>
-      <c r="BA35" s="752"/>
-      <c r="BB35" s="814" t="s">
+      <c r="BA35" s="962"/>
+      <c r="BB35" s="961" t="s">
         <v>98</v>
       </c>
-      <c r="BC35" s="814" t="s">
+      <c r="BC35" s="961" t="s">
         <v>1212</v>
       </c>
-      <c r="BD35" s="809" t="s">
+      <c r="BD35" s="960" t="s">
         <v>99</v>
       </c>
-      <c r="BE35" s="819" t="s">
+      <c r="BE35" s="963" t="s">
         <v>1213</v>
       </c>
-      <c r="BF35" s="823"/>
-      <c r="BG35" s="810" t="s">
+      <c r="BF35" s="964"/>
+      <c r="BG35" s="965" t="s">
         <v>1042</v>
       </c>
-      <c r="BH35" s="815"/>
-      <c r="BI35" s="206"/>
-      <c r="BJ35" s="206"/>
+      <c r="BH35" s="966"/>
+      <c r="BI35" s="967"/>
+      <c r="BJ35" s="967"/>
     </row>
     <row r="36" spans="5:62" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="801" t="s">
+      <c r="E36" s="800" t="s">
         <v>1293</v>
       </c>
-      <c r="F36" s="802"/>
-      <c r="G36" s="801" t="s">
+      <c r="F36" s="801"/>
+      <c r="G36" s="800" t="s">
         <v>1287</v>
       </c>
-      <c r="H36" s="803"/>
-      <c r="I36" s="802" t="s">
+      <c r="H36" s="802"/>
+      <c r="I36" s="801" t="s">
         <v>1288</v>
       </c>
-      <c r="J36" s="803"/>
-      <c r="K36" s="802" t="s">
+      <c r="J36" s="802"/>
+      <c r="K36" s="801" t="s">
         <v>1307</v>
       </c>
-      <c r="L36" s="803"/>
+      <c r="L36" s="802"/>
       <c r="M36" s="206"/>
       <c r="N36" s="206"/>
-      <c r="O36" s="801" t="s">
+      <c r="O36" s="800" t="s">
         <v>1306</v>
       </c>
-      <c r="P36" s="802"/>
-      <c r="Q36" s="801" t="s">
+      <c r="P36" s="801"/>
+      <c r="Q36" s="800" t="s">
         <v>1308</v>
       </c>
-      <c r="R36" s="803"/>
-      <c r="S36" s="802" t="s">
+      <c r="R36" s="802"/>
+      <c r="S36" s="801" t="s">
         <v>1302</v>
       </c>
-      <c r="T36" s="803"/>
-      <c r="U36" s="802" t="s">
+      <c r="T36" s="802"/>
+      <c r="U36" s="801" t="s">
         <v>1301</v>
       </c>
-      <c r="V36" s="803"/>
-      <c r="AA36" s="813" t="s">
+      <c r="V36" s="802"/>
+      <c r="Z36" s="959"/>
+      <c r="AA36" s="968" t="s">
         <v>275</v>
       </c>
-      <c r="AB36" s="155"/>
-      <c r="AC36" s="753"/>
-      <c r="AD36" s="169" t="s">
+      <c r="AB36" s="969"/>
+      <c r="AC36" s="970"/>
+      <c r="AD36" s="971" t="s">
         <v>276</v>
       </c>
-      <c r="AE36" s="155"/>
-      <c r="AF36" s="813" t="s">
+      <c r="AE36" s="969"/>
+      <c r="AF36" s="968" t="s">
         <v>277</v>
       </c>
-      <c r="AG36" s="816"/>
-      <c r="AH36" s="824"/>
-      <c r="AI36" s="155"/>
-      <c r="AJ36" s="816"/>
-      <c r="AK36" s="206"/>
-      <c r="AL36" s="206"/>
-      <c r="AM36" s="813" t="s">
+      <c r="AG36" s="972"/>
+      <c r="AH36" s="973"/>
+      <c r="AI36" s="969"/>
+      <c r="AJ36" s="972"/>
+      <c r="AK36" s="967"/>
+      <c r="AL36" s="967"/>
+      <c r="AM36" s="968" t="s">
         <v>1057</v>
       </c>
-      <c r="AN36" s="155"/>
-      <c r="AO36" s="753"/>
-      <c r="AP36" s="169" t="s">
+      <c r="AN36" s="969"/>
+      <c r="AO36" s="970"/>
+      <c r="AP36" s="971" t="s">
         <v>1059</v>
       </c>
-      <c r="AQ36" s="155"/>
-      <c r="AR36" s="813" t="s">
+      <c r="AQ36" s="969"/>
+      <c r="AR36" s="968" t="s">
         <v>1061</v>
       </c>
-      <c r="AS36" s="816"/>
-      <c r="AT36" s="824"/>
-      <c r="AU36" s="155"/>
-      <c r="AV36" s="816"/>
-      <c r="AW36" s="206"/>
-      <c r="AX36" s="206"/>
-      <c r="AY36" s="813" t="s">
+      <c r="AS36" s="972"/>
+      <c r="AT36" s="973"/>
+      <c r="AU36" s="969"/>
+      <c r="AV36" s="972"/>
+      <c r="AW36" s="967"/>
+      <c r="AX36" s="967"/>
+      <c r="AY36" s="968" t="s">
         <v>1062</v>
       </c>
-      <c r="AZ36" s="155"/>
-      <c r="BA36" s="753"/>
-      <c r="BB36" s="169" t="s">
+      <c r="AZ36" s="969"/>
+      <c r="BA36" s="970"/>
+      <c r="BB36" s="971" t="s">
         <v>1064</v>
       </c>
-      <c r="BC36" s="155"/>
-      <c r="BD36" s="813" t="s">
+      <c r="BC36" s="969"/>
+      <c r="BD36" s="968" t="s">
         <v>1066</v>
       </c>
-      <c r="BE36" s="816"/>
-      <c r="BF36" s="824"/>
-      <c r="BG36" s="155"/>
-      <c r="BH36" s="816"/>
-      <c r="BI36" s="206"/>
-      <c r="BJ36" s="206"/>
+      <c r="BE36" s="972"/>
+      <c r="BF36" s="973"/>
+      <c r="BG36" s="969"/>
+      <c r="BH36" s="972"/>
+      <c r="BI36" s="967"/>
+      <c r="BJ36" s="967"/>
     </row>
     <row r="37" spans="5:62" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="799" t="s">
+      <c r="E37" s="798" t="s">
         <v>319</v>
       </c>
-      <c r="F37" s="800" t="s">
+      <c r="F37" s="799" t="s">
         <v>1259</v>
       </c>
-      <c r="G37" s="799" t="s">
+      <c r="G37" s="798" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="818" t="s">
+      <c r="H37" s="816" t="s">
         <v>1254</v>
       </c>
-      <c r="I37" s="800" t="s">
+      <c r="I37" s="799" t="s">
         <v>101</v>
       </c>
-      <c r="J37" s="818" t="s">
+      <c r="J37" s="816" t="s">
         <v>1253</v>
       </c>
-      <c r="K37" s="800" t="s">
+      <c r="K37" s="799" t="s">
         <v>102</v>
       </c>
-      <c r="L37" s="818" t="s">
+      <c r="L37" s="816" t="s">
         <v>1252</v>
       </c>
       <c r="M37" s="206"/>
       <c r="N37" s="206"/>
-      <c r="O37" s="798" t="s">
+      <c r="O37" s="797" t="s">
         <v>319</v>
       </c>
-      <c r="P37" s="800" t="s">
+      <c r="P37" s="799" t="s">
         <v>1278</v>
       </c>
-      <c r="Q37" s="799" t="s">
+      <c r="Q37" s="798" t="s">
         <v>100</v>
       </c>
-      <c r="R37" s="818" t="s">
+      <c r="R37" s="816" t="s">
         <v>1270</v>
       </c>
-      <c r="S37" s="800" t="s">
+      <c r="S37" s="799" t="s">
         <v>101</v>
       </c>
-      <c r="T37" s="818" t="s">
+      <c r="T37" s="816" t="s">
         <v>1269</v>
       </c>
-      <c r="U37" s="800" t="s">
+      <c r="U37" s="799" t="s">
         <v>102</v>
       </c>
-      <c r="V37" s="818" t="s">
+      <c r="V37" s="816" t="s">
         <v>1268</v>
       </c>
-      <c r="AA37" s="809" t="s">
+      <c r="Z37" s="959"/>
+      <c r="AA37" s="960" t="s">
         <v>100</v>
       </c>
-      <c r="AB37" s="814" t="s">
+      <c r="AB37" s="961" t="s">
         <v>1190</v>
       </c>
-      <c r="AC37" s="752"/>
-      <c r="AD37" s="814" t="s">
+      <c r="AC37" s="962"/>
+      <c r="AD37" s="961" t="s">
         <v>101</v>
       </c>
-      <c r="AE37" s="814" t="s">
+      <c r="AE37" s="961" t="s">
         <v>1191</v>
       </c>
-      <c r="AF37" s="809" t="s">
+      <c r="AF37" s="960" t="s">
         <v>102</v>
       </c>
-      <c r="AG37" s="819" t="s">
+      <c r="AG37" s="963" t="s">
         <v>1192</v>
       </c>
-      <c r="AH37" s="750"/>
-      <c r="AI37" s="810" t="s">
+      <c r="AH37" s="974"/>
+      <c r="AI37" s="965" t="s">
         <v>1043</v>
       </c>
-      <c r="AJ37" s="815"/>
-      <c r="AK37" s="206"/>
-      <c r="AL37" s="206"/>
-      <c r="AM37" s="809" t="s">
+      <c r="AJ37" s="966"/>
+      <c r="AK37" s="967"/>
+      <c r="AL37" s="967"/>
+      <c r="AM37" s="960" t="s">
         <v>100</v>
       </c>
-      <c r="AN37" s="814" t="s">
+      <c r="AN37" s="961" t="s">
         <v>1202</v>
       </c>
-      <c r="AO37" s="752"/>
-      <c r="AP37" s="814" t="s">
+      <c r="AO37" s="962"/>
+      <c r="AP37" s="961" t="s">
         <v>101</v>
       </c>
-      <c r="AQ37" s="814" t="s">
+      <c r="AQ37" s="961" t="s">
         <v>1203</v>
       </c>
-      <c r="AR37" s="809" t="s">
+      <c r="AR37" s="960" t="s">
         <v>102</v>
       </c>
-      <c r="AS37" s="819" t="s">
+      <c r="AS37" s="963" t="s">
         <v>1204</v>
       </c>
-      <c r="AT37" s="747"/>
-      <c r="AU37" s="810" t="s">
+      <c r="AT37" s="975"/>
+      <c r="AU37" s="965" t="s">
         <v>1043</v>
       </c>
-      <c r="AV37" s="815"/>
-      <c r="AW37" s="206"/>
-      <c r="AX37" s="206"/>
-      <c r="AY37" s="809" t="s">
+      <c r="AV37" s="966"/>
+      <c r="AW37" s="967"/>
+      <c r="AX37" s="967"/>
+      <c r="AY37" s="960" t="s">
         <v>100</v>
       </c>
-      <c r="AZ37" s="814" t="s">
+      <c r="AZ37" s="961" t="s">
         <v>1214</v>
       </c>
-      <c r="BA37" s="752"/>
-      <c r="BB37" s="814" t="s">
+      <c r="BA37" s="962"/>
+      <c r="BB37" s="961" t="s">
         <v>101</v>
       </c>
-      <c r="BC37" s="814" t="s">
+      <c r="BC37" s="961" t="s">
         <v>1215</v>
       </c>
-      <c r="BD37" s="809" t="s">
+      <c r="BD37" s="960" t="s">
         <v>102</v>
       </c>
-      <c r="BE37" s="819" t="s">
+      <c r="BE37" s="963" t="s">
         <v>1216</v>
       </c>
-      <c r="BF37" s="747"/>
-      <c r="BG37" s="810" t="s">
+      <c r="BF37" s="975"/>
+      <c r="BG37" s="965" t="s">
         <v>1043</v>
       </c>
-      <c r="BH37" s="815"/>
-      <c r="BI37" s="206"/>
-      <c r="BJ37" s="206"/>
+      <c r="BH37" s="966"/>
+      <c r="BI37" s="967"/>
+      <c r="BJ37" s="967"/>
     </row>
     <row r="38" spans="5:62" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="804" t="s">
+      <c r="E38" s="803" t="s">
         <v>1292</v>
       </c>
-      <c r="F38" s="805"/>
-      <c r="G38" s="804" t="s">
+      <c r="F38" s="804"/>
+      <c r="G38" s="803" t="s">
         <v>1284</v>
       </c>
-      <c r="H38" s="806"/>
-      <c r="I38" s="805" t="s">
+      <c r="H38" s="805"/>
+      <c r="I38" s="804" t="s">
         <v>1285</v>
       </c>
-      <c r="J38" s="806"/>
-      <c r="K38" s="805" t="s">
+      <c r="J38" s="805"/>
+      <c r="K38" s="804" t="s">
         <v>1286</v>
       </c>
-      <c r="L38" s="806"/>
+      <c r="L38" s="805"/>
       <c r="M38" s="206"/>
       <c r="N38" s="206"/>
-      <c r="O38" s="804" t="s">
+      <c r="O38" s="803" t="s">
         <v>1305</v>
       </c>
-      <c r="P38" s="805"/>
-      <c r="Q38" s="804" t="s">
+      <c r="P38" s="804"/>
+      <c r="Q38" s="803" t="s">
         <v>1298</v>
       </c>
-      <c r="R38" s="806"/>
-      <c r="S38" s="805" t="s">
+      <c r="R38" s="805"/>
+      <c r="S38" s="804" t="s">
         <v>1299</v>
       </c>
-      <c r="T38" s="806"/>
-      <c r="U38" s="805" t="s">
+      <c r="T38" s="805"/>
+      <c r="U38" s="804" t="s">
         <v>1300</v>
       </c>
-      <c r="V38" s="806"/>
-      <c r="AA38" s="826" t="s">
+      <c r="V38" s="805"/>
+      <c r="Z38" s="959"/>
+      <c r="AA38" s="976" t="s">
         <v>1182</v>
       </c>
-      <c r="AB38" s="812"/>
-      <c r="AC38" s="754"/>
-      <c r="AD38" s="827" t="s">
+      <c r="AB38" s="977"/>
+      <c r="AC38" s="978"/>
+      <c r="AD38" s="979" t="s">
         <v>1184</v>
       </c>
-      <c r="AE38" s="812"/>
-      <c r="AF38" s="826" t="s">
+      <c r="AE38" s="977"/>
+      <c r="AF38" s="976" t="s">
         <v>1185</v>
       </c>
-      <c r="AG38" s="817"/>
-      <c r="AH38" s="825"/>
-      <c r="AI38" s="812"/>
-      <c r="AJ38" s="817"/>
-      <c r="AK38" s="206"/>
-      <c r="AL38" s="206"/>
-      <c r="AM38" s="826" t="s">
+      <c r="AG38" s="980"/>
+      <c r="AH38" s="981"/>
+      <c r="AI38" s="977"/>
+      <c r="AJ38" s="980"/>
+      <c r="AK38" s="967"/>
+      <c r="AL38" s="967"/>
+      <c r="AM38" s="976" t="s">
         <v>1063</v>
       </c>
-      <c r="AN38" s="812"/>
-      <c r="AO38" s="754"/>
-      <c r="AP38" s="827" t="s">
+      <c r="AN38" s="977"/>
+      <c r="AO38" s="978"/>
+      <c r="AP38" s="979" t="s">
         <v>1065</v>
       </c>
-      <c r="AQ38" s="812"/>
-      <c r="AR38" s="826" t="s">
+      <c r="AQ38" s="977"/>
+      <c r="AR38" s="976" t="s">
         <v>1067</v>
       </c>
-      <c r="AS38" s="817"/>
-      <c r="AT38" s="749"/>
-      <c r="AU38" s="812"/>
-      <c r="AV38" s="817"/>
-      <c r="AW38" s="206"/>
-      <c r="AX38" s="206"/>
-      <c r="AY38" s="826" t="s">
+      <c r="AS38" s="980"/>
+      <c r="AT38" s="982"/>
+      <c r="AU38" s="977"/>
+      <c r="AV38" s="980"/>
+      <c r="AW38" s="967"/>
+      <c r="AX38" s="967"/>
+      <c r="AY38" s="976" t="s">
         <v>1186</v>
       </c>
-      <c r="AZ38" s="812"/>
-      <c r="BA38" s="754"/>
-      <c r="BB38" s="827" t="s">
+      <c r="AZ38" s="977"/>
+      <c r="BA38" s="978"/>
+      <c r="BB38" s="979" t="s">
         <v>1076</v>
       </c>
-      <c r="BC38" s="812"/>
-      <c r="BD38" s="826" t="s">
+      <c r="BC38" s="977"/>
+      <c r="BD38" s="976" t="s">
         <v>1100</v>
       </c>
-      <c r="BE38" s="817"/>
-      <c r="BF38" s="749"/>
-      <c r="BG38" s="812"/>
-      <c r="BH38" s="817"/>
-      <c r="BI38" s="206"/>
-      <c r="BJ38" s="206"/>
+      <c r="BE38" s="980"/>
+      <c r="BF38" s="982"/>
+      <c r="BG38" s="977"/>
+      <c r="BH38" s="980"/>
+      <c r="BI38" s="967"/>
+      <c r="BJ38" s="967"/>
     </row>
     <row r="39" spans="5:62" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="807" t="s">
+      <c r="E39" s="806" t="s">
         <v>318</v>
       </c>
-      <c r="F39" s="808" t="s">
+      <c r="F39" s="807" t="s">
         <v>1260</v>
       </c>
-      <c r="G39" s="807" t="s">
+      <c r="G39" s="806" t="s">
         <v>97</v>
       </c>
-      <c r="H39" s="821" t="s">
+      <c r="H39" s="819" t="s">
         <v>1249</v>
       </c>
-      <c r="I39" s="808" t="s">
+      <c r="I39" s="807" t="s">
         <v>98</v>
       </c>
-      <c r="J39" s="821" t="s">
+      <c r="J39" s="819" t="s">
         <v>1250</v>
       </c>
-      <c r="K39" s="808" t="s">
+      <c r="K39" s="807" t="s">
         <v>99</v>
       </c>
-      <c r="L39" s="821" t="s">
+      <c r="L39" s="819" t="s">
         <v>1251</v>
       </c>
       <c r="M39" s="206"/>
       <c r="N39" s="206"/>
-      <c r="O39" s="801" t="s">
+      <c r="O39" s="800" t="s">
         <v>318</v>
       </c>
-      <c r="P39" s="808" t="s">
+      <c r="P39" s="807" t="s">
         <v>1277</v>
       </c>
-      <c r="Q39" s="807" t="s">
+      <c r="Q39" s="806" t="s">
         <v>97</v>
       </c>
-      <c r="R39" s="821" t="s">
+      <c r="R39" s="819" t="s">
         <v>1265</v>
       </c>
-      <c r="S39" s="808" t="s">
+      <c r="S39" s="807" t="s">
         <v>98</v>
       </c>
-      <c r="T39" s="821" t="s">
+      <c r="T39" s="819" t="s">
         <v>1266</v>
       </c>
-      <c r="U39" s="808" t="s">
+      <c r="U39" s="807" t="s">
         <v>99</v>
       </c>
-      <c r="V39" s="821" t="s">
+      <c r="V39" s="819" t="s">
         <v>1267</v>
       </c>
-      <c r="AA39" s="813" t="s">
+      <c r="Z39" s="959"/>
+      <c r="AA39" s="968" t="s">
         <v>103</v>
       </c>
-      <c r="AB39" s="169" t="s">
+      <c r="AB39" s="971" t="s">
         <v>1193</v>
       </c>
-      <c r="AC39" s="753"/>
-      <c r="AD39" s="169" t="s">
+      <c r="AC39" s="970"/>
+      <c r="AD39" s="971" t="s">
         <v>104</v>
       </c>
-      <c r="AE39" s="169" t="s">
+      <c r="AE39" s="971" t="s">
         <v>1194</v>
       </c>
-      <c r="AF39" s="813" t="s">
+      <c r="AF39" s="968" t="s">
         <v>105</v>
       </c>
-      <c r="AG39" s="820" t="s">
+      <c r="AG39" s="983" t="s">
         <v>1195</v>
       </c>
-      <c r="AH39" s="748"/>
-      <c r="AI39" s="155" t="s">
+      <c r="AH39" s="984"/>
+      <c r="AI39" s="969" t="s">
         <v>1044</v>
       </c>
-      <c r="AJ39" s="816"/>
-      <c r="AK39" s="206"/>
-      <c r="AL39" s="206"/>
-      <c r="AM39" s="813" t="s">
+      <c r="AJ39" s="972"/>
+      <c r="AK39" s="967"/>
+      <c r="AL39" s="967"/>
+      <c r="AM39" s="968" t="s">
         <v>103</v>
       </c>
-      <c r="AN39" s="169" t="s">
+      <c r="AN39" s="971" t="s">
         <v>1205</v>
       </c>
-      <c r="AO39" s="753"/>
-      <c r="AP39" s="169" t="s">
+      <c r="AO39" s="970"/>
+      <c r="AP39" s="971" t="s">
         <v>104</v>
       </c>
-      <c r="AQ39" s="169" t="s">
+      <c r="AQ39" s="971" t="s">
         <v>1206</v>
       </c>
-      <c r="AR39" s="813" t="s">
+      <c r="AR39" s="968" t="s">
         <v>105</v>
       </c>
-      <c r="AS39" s="820" t="s">
+      <c r="AS39" s="983" t="s">
         <v>1207</v>
       </c>
-      <c r="AT39" s="751"/>
-      <c r="AU39" s="155" t="s">
+      <c r="AT39" s="985"/>
+      <c r="AU39" s="969" t="s">
         <v>1044</v>
       </c>
-      <c r="AV39" s="816"/>
-      <c r="AW39" s="206"/>
-      <c r="AX39" s="206"/>
-      <c r="AY39" s="813" t="s">
+      <c r="AV39" s="972"/>
+      <c r="AW39" s="967"/>
+      <c r="AX39" s="967"/>
+      <c r="AY39" s="968" t="s">
         <v>103</v>
       </c>
-      <c r="AZ39" s="169" t="s">
+      <c r="AZ39" s="971" t="s">
         <v>1217</v>
       </c>
-      <c r="BA39" s="753"/>
-      <c r="BB39" s="169" t="s">
+      <c r="BA39" s="970"/>
+      <c r="BB39" s="971" t="s">
         <v>104</v>
       </c>
-      <c r="BC39" s="169" t="s">
+      <c r="BC39" s="971" t="s">
         <v>1218</v>
       </c>
-      <c r="BD39" s="813" t="s">
+      <c r="BD39" s="968" t="s">
         <v>105</v>
       </c>
-      <c r="BE39" s="820" t="s">
+      <c r="BE39" s="983" t="s">
         <v>1219</v>
       </c>
-      <c r="BF39" s="748"/>
-      <c r="BG39" s="155" t="s">
+      <c r="BF39" s="984"/>
+      <c r="BG39" s="969" t="s">
         <v>1044</v>
       </c>
-      <c r="BH39" s="816"/>
-      <c r="BI39" s="206"/>
-      <c r="BJ39" s="206"/>
+      <c r="BH39" s="972"/>
+      <c r="BI39" s="967"/>
+      <c r="BJ39" s="967"/>
     </row>
     <row r="40" spans="5:62" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="801" t="s">
+      <c r="E40" s="800" t="s">
         <v>1291</v>
       </c>
-      <c r="F40" s="802"/>
-      <c r="G40" s="801" t="s">
+      <c r="F40" s="801"/>
+      <c r="G40" s="800" t="s">
         <v>1281</v>
       </c>
-      <c r="H40" s="803"/>
-      <c r="I40" s="802" t="s">
+      <c r="H40" s="802"/>
+      <c r="I40" s="801" t="s">
         <v>1282</v>
       </c>
-      <c r="J40" s="803"/>
-      <c r="K40" s="802" t="s">
+      <c r="J40" s="802"/>
+      <c r="K40" s="801" t="s">
         <v>1283</v>
       </c>
-      <c r="L40" s="803"/>
+      <c r="L40" s="802"/>
       <c r="M40" s="206"/>
       <c r="N40" s="206"/>
-      <c r="O40" s="801" t="s">
+      <c r="O40" s="800" t="s">
         <v>1019</v>
       </c>
-      <c r="P40" s="802"/>
-      <c r="Q40" s="801" t="s">
+      <c r="P40" s="801"/>
+      <c r="Q40" s="800" t="s">
         <v>1295</v>
       </c>
-      <c r="R40" s="803"/>
-      <c r="S40" s="802" t="s">
+      <c r="R40" s="802"/>
+      <c r="S40" s="801" t="s">
         <v>1296</v>
       </c>
-      <c r="T40" s="803"/>
-      <c r="U40" s="802" t="s">
+      <c r="T40" s="802"/>
+      <c r="U40" s="801" t="s">
         <v>1297</v>
       </c>
-      <c r="V40" s="803"/>
-      <c r="AA40" s="813" t="s">
+      <c r="V40" s="802"/>
+      <c r="Z40" s="959"/>
+      <c r="AA40" s="968" t="s">
         <v>1183</v>
       </c>
-      <c r="AB40" s="155"/>
-      <c r="AC40" s="753"/>
-      <c r="AD40" s="169" t="s">
+      <c r="AB40" s="969"/>
+      <c r="AC40" s="970"/>
+      <c r="AD40" s="971" t="s">
         <v>286</v>
       </c>
-      <c r="AE40" s="155"/>
-      <c r="AF40" s="813" t="s">
+      <c r="AE40" s="969"/>
+      <c r="AF40" s="968" t="s">
         <v>1049</v>
       </c>
-      <c r="AG40" s="816"/>
-      <c r="AH40" s="748"/>
-      <c r="AI40" s="155"/>
-      <c r="AJ40" s="816"/>
-      <c r="AK40" s="206"/>
-      <c r="AL40" s="206"/>
-      <c r="AM40" s="813" t="s">
+      <c r="AG40" s="972"/>
+      <c r="AH40" s="984"/>
+      <c r="AI40" s="969"/>
+      <c r="AJ40" s="972"/>
+      <c r="AK40" s="967"/>
+      <c r="AL40" s="967"/>
+      <c r="AM40" s="968" t="s">
         <v>1050</v>
       </c>
-      <c r="AN40" s="155"/>
-      <c r="AO40" s="753"/>
-      <c r="AP40" s="169" t="s">
+      <c r="AN40" s="969"/>
+      <c r="AO40" s="970"/>
+      <c r="AP40" s="971" t="s">
         <v>1051</v>
       </c>
-      <c r="AQ40" s="155"/>
-      <c r="AR40" s="813" t="s">
+      <c r="AQ40" s="969"/>
+      <c r="AR40" s="968" t="s">
         <v>1053</v>
       </c>
-      <c r="AS40" s="816"/>
-      <c r="AT40" s="751"/>
-      <c r="AU40" s="155"/>
-      <c r="AV40" s="816"/>
-      <c r="AW40" s="206"/>
-      <c r="AX40" s="206"/>
-      <c r="AY40" s="813" t="s">
+      <c r="AS40" s="972"/>
+      <c r="AT40" s="985"/>
+      <c r="AU40" s="969"/>
+      <c r="AV40" s="972"/>
+      <c r="AW40" s="967"/>
+      <c r="AX40" s="967"/>
+      <c r="AY40" s="968" t="s">
         <v>1097</v>
       </c>
-      <c r="AZ40" s="155"/>
-      <c r="BA40" s="753"/>
-      <c r="BB40" s="169" t="s">
+      <c r="AZ40" s="969"/>
+      <c r="BA40" s="970"/>
+      <c r="BB40" s="971" t="s">
         <v>1080</v>
       </c>
-      <c r="BC40" s="155"/>
-      <c r="BD40" s="813" t="s">
+      <c r="BC40" s="969"/>
+      <c r="BD40" s="968" t="s">
         <v>1074</v>
       </c>
-      <c r="BE40" s="816"/>
-      <c r="BF40" s="748"/>
-      <c r="BG40" s="155"/>
-      <c r="BH40" s="816"/>
-      <c r="BI40" s="206"/>
-      <c r="BJ40" s="206"/>
+      <c r="BE40" s="972"/>
+      <c r="BF40" s="984"/>
+      <c r="BG40" s="969"/>
+      <c r="BH40" s="972"/>
+      <c r="BI40" s="967"/>
+      <c r="BJ40" s="967"/>
     </row>
     <row r="41" spans="5:62" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="799" t="s">
+      <c r="E41" s="798" t="s">
         <v>317</v>
       </c>
-      <c r="F41" s="800" t="s">
+      <c r="F41" s="799" t="s">
         <v>1261</v>
       </c>
-      <c r="G41" s="799" t="s">
+      <c r="G41" s="798" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="818" t="s">
+      <c r="H41" s="816" t="s">
         <v>1248</v>
       </c>
-      <c r="I41" s="800" t="s">
+      <c r="I41" s="799" t="s">
         <v>970</v>
       </c>
-      <c r="J41" s="818" t="s">
+      <c r="J41" s="816" t="s">
         <v>1262</v>
       </c>
-      <c r="K41" s="800" t="s">
+      <c r="K41" s="799" t="s">
         <v>316</v>
       </c>
-      <c r="L41" s="818" t="s">
+      <c r="L41" s="816" t="s">
         <v>1263</v>
       </c>
-      <c r="M41" s="774"/>
-      <c r="N41" s="774"/>
-      <c r="O41" s="798" t="s">
+      <c r="M41" s="773"/>
+      <c r="N41" s="773"/>
+      <c r="O41" s="797" t="s">
         <v>317</v>
       </c>
-      <c r="P41" s="800" t="s">
+      <c r="P41" s="799" t="s">
         <v>1276</v>
       </c>
-      <c r="Q41" s="799" t="s">
+      <c r="Q41" s="798" t="s">
         <v>96</v>
       </c>
-      <c r="R41" s="818" t="s">
+      <c r="R41" s="816" t="s">
         <v>1264</v>
       </c>
-      <c r="S41" s="800" t="s">
+      <c r="S41" s="799" t="s">
         <v>970</v>
       </c>
-      <c r="T41" s="818" t="s">
+      <c r="T41" s="816" t="s">
         <v>1275</v>
       </c>
-      <c r="U41" s="800" t="s">
+      <c r="U41" s="799" t="s">
         <v>316</v>
       </c>
-      <c r="V41" s="818" t="s">
+      <c r="V41" s="816" t="s">
         <v>1274</v>
       </c>
-      <c r="AA41" s="809" t="s">
+      <c r="Z41" s="959"/>
+      <c r="AA41" s="960" t="s">
         <v>272</v>
       </c>
-      <c r="AB41" s="814" t="s">
+      <c r="AB41" s="961" t="s">
         <v>1196</v>
       </c>
-      <c r="AC41" s="752"/>
-      <c r="AD41" s="814" t="s">
+      <c r="AC41" s="962"/>
+      <c r="AD41" s="961" t="s">
         <v>273</v>
       </c>
-      <c r="AE41" s="814" t="s">
+      <c r="AE41" s="961" t="s">
         <v>1197</v>
       </c>
-      <c r="AF41" s="809" t="s">
+      <c r="AF41" s="960" t="s">
         <v>274</v>
       </c>
-      <c r="AG41" s="819" t="s">
+      <c r="AG41" s="963" t="s">
         <v>1198</v>
       </c>
-      <c r="AH41" s="747"/>
-      <c r="AI41" s="810" t="s">
+      <c r="AH41" s="975"/>
+      <c r="AI41" s="965" t="s">
         <v>1045</v>
       </c>
-      <c r="AJ41" s="815"/>
-      <c r="AK41" s="773"/>
-      <c r="AL41" s="774"/>
-      <c r="AM41" s="809" t="s">
+      <c r="AJ41" s="966"/>
+      <c r="AK41" s="986"/>
+      <c r="AL41" s="987"/>
+      <c r="AM41" s="960" t="s">
         <v>272</v>
       </c>
-      <c r="AN41" s="814" t="s">
+      <c r="AN41" s="961" t="s">
         <v>1208</v>
       </c>
-      <c r="AO41" s="752"/>
-      <c r="AP41" s="814" t="s">
+      <c r="AO41" s="962"/>
+      <c r="AP41" s="961" t="s">
         <v>273</v>
       </c>
-      <c r="AQ41" s="814" t="s">
+      <c r="AQ41" s="961" t="s">
         <v>1209</v>
       </c>
-      <c r="AR41" s="809" t="s">
+      <c r="AR41" s="960" t="s">
         <v>274</v>
       </c>
-      <c r="AS41" s="819" t="s">
+      <c r="AS41" s="963" t="s">
         <v>1210</v>
       </c>
-      <c r="AT41" s="747"/>
-      <c r="AU41" s="810" t="s">
+      <c r="AT41" s="975"/>
+      <c r="AU41" s="965" t="s">
         <v>1045</v>
       </c>
-      <c r="AV41" s="815"/>
-      <c r="AW41" s="206"/>
-      <c r="AX41" s="206"/>
-      <c r="AY41" s="809" t="s">
+      <c r="AV41" s="966"/>
+      <c r="AW41" s="967"/>
+      <c r="AX41" s="967"/>
+      <c r="AY41" s="960" t="s">
         <v>272</v>
       </c>
-      <c r="AZ41" s="814" t="s">
+      <c r="AZ41" s="961" t="s">
         <v>1220</v>
       </c>
-      <c r="BA41" s="752"/>
-      <c r="BB41" s="814" t="s">
+      <c r="BA41" s="962"/>
+      <c r="BB41" s="961" t="s">
         <v>273</v>
       </c>
-      <c r="BC41" s="814" t="s">
+      <c r="BC41" s="961" t="s">
         <v>1221</v>
       </c>
-      <c r="BD41" s="809" t="s">
+      <c r="BD41" s="960" t="s">
         <v>274</v>
       </c>
-      <c r="BE41" s="819" t="s">
+      <c r="BE41" s="963" t="s">
         <v>1222</v>
       </c>
-      <c r="BF41" s="750"/>
-      <c r="BG41" s="810" t="s">
+      <c r="BF41" s="974"/>
+      <c r="BG41" s="965" t="s">
         <v>1045</v>
       </c>
-      <c r="BH41" s="815"/>
-      <c r="BI41" s="206"/>
-      <c r="BJ41" s="206"/>
+      <c r="BH41" s="966"/>
+      <c r="BI41" s="967"/>
+      <c r="BJ41" s="967"/>
     </row>
     <row r="42" spans="5:62" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="804" t="s">
+      <c r="E42" s="803" t="s">
         <v>266</v>
       </c>
-      <c r="F42" s="805"/>
-      <c r="G42" s="804" t="s">
+      <c r="F42" s="804"/>
+      <c r="G42" s="803" t="s">
         <v>1280</v>
       </c>
-      <c r="H42" s="806"/>
-      <c r="I42" s="805" t="s">
+      <c r="H42" s="805"/>
+      <c r="I42" s="804" t="s">
         <v>1289</v>
       </c>
-      <c r="J42" s="806"/>
-      <c r="K42" s="805" t="s">
+      <c r="J42" s="805"/>
+      <c r="K42" s="804" t="s">
         <v>1290</v>
       </c>
-      <c r="L42" s="806"/>
-      <c r="M42" s="773"/>
-      <c r="N42" s="774"/>
-      <c r="O42" s="804" t="s">
+      <c r="L42" s="805"/>
+      <c r="M42" s="772"/>
+      <c r="N42" s="773"/>
+      <c r="O42" s="803" t="s">
         <v>1304</v>
       </c>
-      <c r="P42" s="805"/>
-      <c r="Q42" s="804" t="s">
+      <c r="P42" s="804"/>
+      <c r="Q42" s="803" t="s">
         <v>1294</v>
       </c>
-      <c r="R42" s="806"/>
-      <c r="S42" s="805" t="s">
+      <c r="R42" s="805"/>
+      <c r="S42" s="804" t="s">
         <v>1303</v>
       </c>
-      <c r="T42" s="806"/>
-      <c r="U42" s="805" t="s">
+      <c r="T42" s="805"/>
+      <c r="U42" s="804" t="s">
         <v>127</v>
       </c>
-      <c r="V42" s="806"/>
-      <c r="AA42" s="826" t="s">
+      <c r="V42" s="805"/>
+      <c r="Z42" s="959"/>
+      <c r="AA42" s="976" t="s">
         <v>1052</v>
       </c>
-      <c r="AB42" s="812"/>
-      <c r="AC42" s="754"/>
-      <c r="AD42" s="827" t="s">
+      <c r="AB42" s="977"/>
+      <c r="AC42" s="978"/>
+      <c r="AD42" s="979" t="s">
         <v>1054</v>
       </c>
-      <c r="AE42" s="812"/>
-      <c r="AF42" s="826" t="s">
+      <c r="AE42" s="977"/>
+      <c r="AF42" s="976" t="s">
         <v>1055</v>
       </c>
-      <c r="AG42" s="817"/>
-      <c r="AH42" s="749"/>
-      <c r="AI42" s="812"/>
-      <c r="AJ42" s="817"/>
-      <c r="AK42" s="773"/>
-      <c r="AL42" s="773"/>
-      <c r="AM42" s="826" t="s">
+      <c r="AG42" s="980"/>
+      <c r="AH42" s="982"/>
+      <c r="AI42" s="977"/>
+      <c r="AJ42" s="980"/>
+      <c r="AK42" s="986"/>
+      <c r="AL42" s="986"/>
+      <c r="AM42" s="976" t="s">
         <v>1056</v>
       </c>
-      <c r="AN42" s="812"/>
-      <c r="AO42" s="754"/>
-      <c r="AP42" s="827" t="s">
+      <c r="AN42" s="977"/>
+      <c r="AO42" s="978"/>
+      <c r="AP42" s="979" t="s">
         <v>1058</v>
       </c>
-      <c r="AQ42" s="812"/>
-      <c r="AR42" s="826" t="s">
+      <c r="AQ42" s="977"/>
+      <c r="AR42" s="976" t="s">
         <v>1060</v>
       </c>
-      <c r="AS42" s="817"/>
-      <c r="AT42" s="749"/>
-      <c r="AU42" s="812"/>
-      <c r="AV42" s="817"/>
-      <c r="AW42" s="206"/>
-      <c r="AX42" s="206"/>
-      <c r="AY42" s="826" t="s">
+      <c r="AS42" s="980"/>
+      <c r="AT42" s="982"/>
+      <c r="AU42" s="977"/>
+      <c r="AV42" s="980"/>
+      <c r="AW42" s="967"/>
+      <c r="AX42" s="967"/>
+      <c r="AY42" s="976" t="s">
         <v>1081</v>
       </c>
-      <c r="AZ42" s="812"/>
-      <c r="BA42" s="754"/>
-      <c r="BB42" s="827" t="s">
+      <c r="AZ42" s="977"/>
+      <c r="BA42" s="978"/>
+      <c r="BB42" s="979" t="s">
         <v>1071</v>
       </c>
-      <c r="BC42" s="812"/>
-      <c r="BD42" s="826" t="s">
+      <c r="BC42" s="977"/>
+      <c r="BD42" s="976" t="s">
         <v>1085</v>
       </c>
-      <c r="BE42" s="817"/>
-      <c r="BF42" s="825"/>
-      <c r="BG42" s="812"/>
-      <c r="BH42" s="817"/>
-      <c r="BI42" s="206"/>
-      <c r="BJ42" s="206"/>
+      <c r="BE42" s="980"/>
+      <c r="BF42" s="981"/>
+      <c r="BG42" s="977"/>
+      <c r="BH42" s="980"/>
+      <c r="BI42" s="967"/>
+      <c r="BJ42" s="967"/>
     </row>
     <row r="43" spans="5:62" x14ac:dyDescent="0.25">
-      <c r="E43" s="773"/>
-      <c r="F43" s="773"/>
-      <c r="G43" s="773"/>
-      <c r="H43" s="773"/>
-      <c r="I43" s="773"/>
-      <c r="J43" s="773"/>
-      <c r="K43" s="773"/>
-      <c r="L43" s="773"/>
-      <c r="M43" s="773"/>
-      <c r="N43" s="773"/>
-      <c r="O43" s="773"/>
-      <c r="P43" s="773"/>
-      <c r="Q43" s="773"/>
-      <c r="R43" s="773"/>
-      <c r="S43" s="773"/>
-      <c r="T43" s="773"/>
-      <c r="U43" s="773"/>
-      <c r="V43" s="773"/>
-      <c r="Y43" s="773"/>
-      <c r="Z43" s="773"/>
-      <c r="AA43" s="773"/>
-      <c r="AB43" s="773"/>
-      <c r="AC43" s="773"/>
-      <c r="AD43" s="773"/>
-      <c r="AE43" s="773"/>
-      <c r="AF43" s="773"/>
-      <c r="AG43" s="773"/>
-      <c r="AH43" s="773"/>
-      <c r="AI43" s="773"/>
-      <c r="AJ43" s="773"/>
-      <c r="AK43" s="773"/>
-      <c r="AL43" s="773"/>
-      <c r="AM43" s="773"/>
-      <c r="AN43" s="206"/>
-      <c r="AO43" s="206"/>
-      <c r="AP43" s="206"/>
-      <c r="AQ43" s="206"/>
-      <c r="AR43" s="199"/>
-      <c r="AS43" s="206"/>
-      <c r="AT43" s="199"/>
-      <c r="AU43" s="206"/>
-      <c r="AV43" s="199"/>
-      <c r="AW43" s="206"/>
-      <c r="AX43" s="206"/>
-      <c r="AY43" s="199"/>
-      <c r="AZ43" s="206"/>
-      <c r="BA43" s="206"/>
-      <c r="BB43" s="199"/>
-      <c r="BC43" s="206"/>
-      <c r="BD43" s="199"/>
-      <c r="BE43" s="206"/>
-      <c r="BF43" s="206"/>
-      <c r="BG43" s="206"/>
-      <c r="BH43" s="206"/>
-      <c r="BI43" s="206"/>
-      <c r="BJ43" s="206"/>
+      <c r="E43" s="772"/>
+      <c r="F43" s="772"/>
+      <c r="G43" s="772"/>
+      <c r="H43" s="772"/>
+      <c r="I43" s="772"/>
+      <c r="J43" s="772"/>
+      <c r="K43" s="772"/>
+      <c r="L43" s="772"/>
+      <c r="M43" s="772"/>
+      <c r="N43" s="772"/>
+      <c r="O43" s="772"/>
+      <c r="P43" s="772"/>
+      <c r="Q43" s="772"/>
+      <c r="R43" s="772"/>
+      <c r="S43" s="772"/>
+      <c r="T43" s="772"/>
+      <c r="U43" s="772"/>
+      <c r="V43" s="772"/>
+      <c r="Y43" s="772"/>
+      <c r="Z43" s="986"/>
+      <c r="AA43" s="986"/>
+      <c r="AB43" s="986"/>
+      <c r="AC43" s="986"/>
+      <c r="AD43" s="986"/>
+      <c r="AE43" s="986"/>
+      <c r="AF43" s="986"/>
+      <c r="AG43" s="986"/>
+      <c r="AH43" s="986"/>
+      <c r="AI43" s="986"/>
+      <c r="AJ43" s="986"/>
+      <c r="AK43" s="986"/>
+      <c r="AL43" s="986"/>
+      <c r="AM43" s="986"/>
+      <c r="AN43" s="967"/>
+      <c r="AO43" s="967"/>
+      <c r="AP43" s="967"/>
+      <c r="AQ43" s="967"/>
+      <c r="AR43" s="988"/>
+      <c r="AS43" s="967"/>
+      <c r="AT43" s="988"/>
+      <c r="AU43" s="967"/>
+      <c r="AV43" s="988"/>
+      <c r="AW43" s="967"/>
+      <c r="AX43" s="967"/>
+      <c r="AY43" s="988"/>
+      <c r="AZ43" s="967"/>
+      <c r="BA43" s="967"/>
+      <c r="BB43" s="988"/>
+      <c r="BC43" s="967"/>
+      <c r="BD43" s="988"/>
+      <c r="BE43" s="967"/>
+      <c r="BF43" s="967"/>
+      <c r="BG43" s="967"/>
+      <c r="BH43" s="967"/>
+      <c r="BI43" s="967"/>
+      <c r="BJ43" s="967"/>
     </row>
     <row r="44" spans="5:62" x14ac:dyDescent="0.25">
-      <c r="E44" s="955" t="s">
+      <c r="E44" s="914" t="s">
         <v>1246</v>
       </c>
-      <c r="F44" s="956"/>
-      <c r="G44" s="956"/>
-      <c r="H44" s="956"/>
-      <c r="I44" s="956"/>
-      <c r="J44" s="956"/>
-      <c r="K44" s="956"/>
-      <c r="L44" s="956"/>
-      <c r="M44" s="773"/>
-      <c r="N44" s="773"/>
-      <c r="O44" s="955" t="s">
+      <c r="F44" s="915"/>
+      <c r="G44" s="915"/>
+      <c r="H44" s="915"/>
+      <c r="I44" s="915"/>
+      <c r="J44" s="915"/>
+      <c r="K44" s="915"/>
+      <c r="L44" s="915"/>
+      <c r="M44" s="772"/>
+      <c r="N44" s="772"/>
+      <c r="O44" s="914" t="s">
         <v>1247</v>
       </c>
-      <c r="P44" s="956"/>
-      <c r="Q44" s="956"/>
-      <c r="R44" s="956"/>
-      <c r="S44" s="956"/>
-      <c r="T44" s="956"/>
-      <c r="U44" s="956"/>
-      <c r="V44" s="956"/>
-      <c r="Y44" s="773"/>
-      <c r="Z44" s="773"/>
-      <c r="AA44" s="773"/>
-      <c r="AB44" s="773"/>
-      <c r="AC44" s="773"/>
-      <c r="AD44" s="773"/>
-      <c r="AE44" s="773"/>
-      <c r="AF44" s="773"/>
-      <c r="AG44" s="773"/>
-      <c r="AH44" s="773"/>
-      <c r="AI44" s="773"/>
-      <c r="AJ44" s="773"/>
-      <c r="AK44" s="773"/>
-      <c r="AL44" s="773"/>
-      <c r="AM44" s="773"/>
-      <c r="AN44" s="206"/>
-      <c r="AO44" s="206"/>
-      <c r="AP44" s="206"/>
-      <c r="AQ44" s="206"/>
-      <c r="AR44" s="206"/>
-      <c r="AS44" s="206"/>
-      <c r="AT44" s="206"/>
-      <c r="AU44" s="206"/>
-      <c r="AV44" s="206"/>
-      <c r="AW44" s="206"/>
-      <c r="AX44" s="206"/>
-      <c r="AY44" s="206"/>
-      <c r="AZ44" s="206"/>
-      <c r="BA44" s="206"/>
-      <c r="BB44" s="206"/>
-      <c r="BC44" s="206"/>
-      <c r="BD44" s="206"/>
-      <c r="BE44" s="206"/>
-      <c r="BF44" s="206"/>
-      <c r="BG44" s="206"/>
-      <c r="BH44" s="206"/>
-      <c r="BI44" s="206"/>
-      <c r="BJ44" s="206"/>
+      <c r="P44" s="915"/>
+      <c r="Q44" s="915"/>
+      <c r="R44" s="915"/>
+      <c r="S44" s="915"/>
+      <c r="T44" s="915"/>
+      <c r="U44" s="915"/>
+      <c r="V44" s="915"/>
+      <c r="Y44" s="772"/>
+      <c r="Z44" s="986"/>
+      <c r="AA44" s="986"/>
+      <c r="AB44" s="986"/>
+      <c r="AC44" s="986"/>
+      <c r="AD44" s="986"/>
+      <c r="AE44" s="986"/>
+      <c r="AF44" s="986"/>
+      <c r="AG44" s="986"/>
+      <c r="AH44" s="986"/>
+      <c r="AI44" s="986"/>
+      <c r="AJ44" s="986"/>
+      <c r="AK44" s="986"/>
+      <c r="AL44" s="986"/>
+      <c r="AM44" s="986"/>
+      <c r="AN44" s="967"/>
+      <c r="AO44" s="967"/>
+      <c r="AP44" s="967"/>
+      <c r="AQ44" s="967"/>
+      <c r="AR44" s="967"/>
+      <c r="AS44" s="967"/>
+      <c r="AT44" s="967"/>
+      <c r="AU44" s="967"/>
+      <c r="AV44" s="967"/>
+      <c r="AW44" s="967"/>
+      <c r="AX44" s="967"/>
+      <c r="AY44" s="967"/>
+      <c r="AZ44" s="967"/>
+      <c r="BA44" s="967"/>
+      <c r="BB44" s="967"/>
+      <c r="BC44" s="967"/>
+      <c r="BD44" s="967"/>
+      <c r="BE44" s="967"/>
+      <c r="BF44" s="967"/>
+      <c r="BG44" s="967"/>
+      <c r="BH44" s="967"/>
+      <c r="BI44" s="967"/>
+      <c r="BJ44" s="967"/>
     </row>
     <row r="45" spans="5:62" x14ac:dyDescent="0.25">
-      <c r="E45" s="773"/>
-      <c r="F45" s="773"/>
-      <c r="G45" s="773"/>
-      <c r="H45" s="773"/>
-      <c r="I45" s="773"/>
-      <c r="J45" s="773"/>
-      <c r="K45" s="773"/>
-      <c r="L45" s="773"/>
-      <c r="M45" s="773"/>
-      <c r="N45" s="773"/>
-      <c r="O45" s="773"/>
-      <c r="P45" s="773"/>
-      <c r="Q45" s="773"/>
-      <c r="R45" s="773"/>
-      <c r="S45" s="773"/>
-      <c r="T45" s="773"/>
-      <c r="U45" s="773"/>
-      <c r="V45" s="773"/>
-      <c r="W45" s="773"/>
-      <c r="X45" s="773"/>
-      <c r="Y45" s="773"/>
-      <c r="Z45" s="773"/>
-      <c r="AA45" s="773"/>
-      <c r="AB45" s="773"/>
-      <c r="AC45" s="773"/>
-      <c r="AD45" s="773"/>
-      <c r="AE45" s="773"/>
-      <c r="AF45" s="773"/>
-      <c r="AG45" s="773"/>
-      <c r="AH45" s="773"/>
-      <c r="AI45" s="773"/>
-      <c r="AJ45" s="773"/>
-      <c r="AK45" s="773"/>
-      <c r="AL45" s="773"/>
-      <c r="AM45" s="773"/>
-      <c r="AN45" s="206"/>
-      <c r="AO45" s="206"/>
-      <c r="AP45" s="206"/>
-      <c r="AQ45" s="206"/>
-      <c r="AR45" s="199"/>
-      <c r="AS45" s="206"/>
-      <c r="AT45" s="199"/>
-      <c r="AU45" s="206"/>
-      <c r="AV45" s="199"/>
-      <c r="AW45" s="206"/>
-      <c r="AX45" s="206"/>
-      <c r="AY45" s="199"/>
-      <c r="AZ45" s="206"/>
-      <c r="BA45" s="206"/>
-      <c r="BB45" s="199"/>
-      <c r="BC45" s="206"/>
-      <c r="BD45" s="199"/>
-      <c r="BE45" s="206"/>
-      <c r="BF45" s="206"/>
-      <c r="BG45" s="206"/>
-      <c r="BH45" s="206"/>
-      <c r="BI45" s="206"/>
-      <c r="BJ45" s="206"/>
+      <c r="E45" s="772"/>
+      <c r="F45" s="772"/>
+      <c r="G45" s="772"/>
+      <c r="H45" s="772"/>
+      <c r="I45" s="772"/>
+      <c r="J45" s="772"/>
+      <c r="K45" s="772"/>
+      <c r="L45" s="772"/>
+      <c r="M45" s="772"/>
+      <c r="N45" s="772"/>
+      <c r="O45" s="772"/>
+      <c r="P45" s="772"/>
+      <c r="Q45" s="772"/>
+      <c r="R45" s="772"/>
+      <c r="S45" s="772"/>
+      <c r="T45" s="772"/>
+      <c r="U45" s="772"/>
+      <c r="V45" s="772"/>
+      <c r="W45" s="772"/>
+      <c r="X45" s="772"/>
+      <c r="Y45" s="772"/>
+      <c r="Z45" s="986"/>
+      <c r="AA45" s="986"/>
+      <c r="AB45" s="986"/>
+      <c r="AC45" s="986"/>
+      <c r="AD45" s="986"/>
+      <c r="AE45" s="986"/>
+      <c r="AF45" s="986"/>
+      <c r="AG45" s="986"/>
+      <c r="AH45" s="986"/>
+      <c r="AI45" s="986"/>
+      <c r="AJ45" s="986"/>
+      <c r="AK45" s="986"/>
+      <c r="AL45" s="986"/>
+      <c r="AM45" s="986"/>
+      <c r="AN45" s="967"/>
+      <c r="AO45" s="967"/>
+      <c r="AP45" s="967"/>
+      <c r="AQ45" s="967"/>
+      <c r="AR45" s="988"/>
+      <c r="AS45" s="967"/>
+      <c r="AT45" s="988"/>
+      <c r="AU45" s="967"/>
+      <c r="AV45" s="988"/>
+      <c r="AW45" s="967"/>
+      <c r="AX45" s="967"/>
+      <c r="AY45" s="988"/>
+      <c r="AZ45" s="967"/>
+      <c r="BA45" s="967"/>
+      <c r="BB45" s="988"/>
+      <c r="BC45" s="967"/>
+      <c r="BD45" s="988"/>
+      <c r="BE45" s="967"/>
+      <c r="BF45" s="967"/>
+      <c r="BG45" s="967"/>
+      <c r="BH45" s="967"/>
+      <c r="BI45" s="967"/>
+      <c r="BJ45" s="967"/>
     </row>
     <row r="46" spans="5:62" x14ac:dyDescent="0.25">
-      <c r="E46" s="773"/>
-      <c r="F46" s="773"/>
-      <c r="G46" s="773"/>
-      <c r="H46" s="773"/>
-      <c r="I46" s="773"/>
-      <c r="J46" s="773"/>
-      <c r="K46" s="773"/>
-      <c r="L46" s="773"/>
-      <c r="M46" s="773"/>
-      <c r="N46" s="773"/>
-      <c r="O46" s="773"/>
-      <c r="P46" s="773"/>
-      <c r="Q46" s="773"/>
-      <c r="R46" s="773"/>
-      <c r="S46" s="773"/>
-      <c r="T46" s="773"/>
-      <c r="U46" s="773"/>
-      <c r="V46" s="773"/>
-      <c r="W46" s="773"/>
-      <c r="X46" s="773"/>
-      <c r="Y46" s="773"/>
-      <c r="Z46" s="773"/>
-      <c r="AA46" s="773"/>
-      <c r="AB46" s="773"/>
-      <c r="AC46" s="773"/>
-      <c r="AD46" s="773"/>
-      <c r="AE46" s="773"/>
-      <c r="AF46" s="773"/>
-      <c r="AG46" s="773"/>
-      <c r="AH46" s="773"/>
-      <c r="AI46" s="773"/>
-      <c r="AJ46" s="773"/>
-      <c r="AK46" s="773"/>
-      <c r="AL46" s="773"/>
-      <c r="AM46" s="773"/>
-      <c r="AN46" s="206"/>
-      <c r="AO46" s="206"/>
-      <c r="AP46" s="206"/>
-      <c r="AQ46" s="206"/>
-      <c r="AR46" s="206"/>
-      <c r="AS46" s="206"/>
-      <c r="AT46" s="206"/>
-      <c r="AU46" s="206"/>
-      <c r="AV46" s="206"/>
-      <c r="AW46" s="206"/>
-      <c r="AX46" s="206"/>
-      <c r="AY46" s="206"/>
-      <c r="AZ46" s="206"/>
-      <c r="BA46" s="206"/>
-      <c r="BB46" s="206"/>
-      <c r="BC46" s="206"/>
-      <c r="BD46" s="206"/>
-      <c r="BE46" s="206"/>
-      <c r="BF46" s="206"/>
-      <c r="BG46" s="206"/>
-      <c r="BH46" s="206"/>
-      <c r="BI46" s="206"/>
-      <c r="BJ46" s="206"/>
+      <c r="E46" s="772"/>
+      <c r="F46" s="772"/>
+      <c r="G46" s="772"/>
+      <c r="H46" s="772"/>
+      <c r="I46" s="772"/>
+      <c r="J46" s="772"/>
+      <c r="K46" s="772"/>
+      <c r="L46" s="772"/>
+      <c r="M46" s="772"/>
+      <c r="N46" s="772"/>
+      <c r="O46" s="772"/>
+      <c r="P46" s="772"/>
+      <c r="Q46" s="772"/>
+      <c r="R46" s="772"/>
+      <c r="S46" s="772"/>
+      <c r="T46" s="772"/>
+      <c r="U46" s="772"/>
+      <c r="V46" s="772"/>
+      <c r="W46" s="772"/>
+      <c r="X46" s="772"/>
+      <c r="Y46" s="772"/>
+      <c r="Z46" s="986"/>
+      <c r="AA46" s="986"/>
+      <c r="AB46" s="986"/>
+      <c r="AC46" s="986"/>
+      <c r="AD46" s="986"/>
+      <c r="AE46" s="986"/>
+      <c r="AF46" s="986"/>
+      <c r="AG46" s="986"/>
+      <c r="AH46" s="986"/>
+      <c r="AI46" s="986"/>
+      <c r="AJ46" s="986"/>
+      <c r="AK46" s="986"/>
+      <c r="AL46" s="986"/>
+      <c r="AM46" s="986"/>
+      <c r="AN46" s="967"/>
+      <c r="AO46" s="967"/>
+      <c r="AP46" s="967"/>
+      <c r="AQ46" s="967"/>
+      <c r="AR46" s="967"/>
+      <c r="AS46" s="967"/>
+      <c r="AT46" s="967"/>
+      <c r="AU46" s="967"/>
+      <c r="AV46" s="967"/>
+      <c r="AW46" s="967"/>
+      <c r="AX46" s="967"/>
+      <c r="AY46" s="967"/>
+      <c r="AZ46" s="967"/>
+      <c r="BA46" s="967"/>
+      <c r="BB46" s="967"/>
+      <c r="BC46" s="967"/>
+      <c r="BD46" s="967"/>
+      <c r="BE46" s="967"/>
+      <c r="BF46" s="967"/>
+      <c r="BG46" s="967"/>
+      <c r="BH46" s="967"/>
+      <c r="BI46" s="967"/>
+      <c r="BJ46" s="967"/>
     </row>
     <row r="47" spans="5:62" x14ac:dyDescent="0.25">
-      <c r="E47" s="773"/>
-      <c r="F47" s="773"/>
-      <c r="G47" s="773"/>
-      <c r="H47" s="773"/>
-      <c r="I47" s="774"/>
-      <c r="J47" s="773"/>
-      <c r="K47" s="773"/>
-      <c r="L47" s="773"/>
-      <c r="M47" s="773"/>
-      <c r="N47" s="773"/>
-      <c r="O47" s="773"/>
-      <c r="P47" s="773"/>
-      <c r="Q47" s="773"/>
-      <c r="R47" s="773"/>
-      <c r="S47" s="773"/>
-      <c r="T47" s="773"/>
-      <c r="U47" s="773"/>
-      <c r="V47" s="773"/>
-      <c r="W47" s="773"/>
-      <c r="X47" s="773"/>
-      <c r="Y47" s="774"/>
-      <c r="Z47" s="773"/>
-      <c r="AA47" s="774"/>
-      <c r="AB47" s="773"/>
-      <c r="AC47" s="774"/>
-      <c r="AD47" s="773"/>
-      <c r="AE47" s="773"/>
-      <c r="AF47" s="773"/>
-      <c r="AG47" s="773"/>
-      <c r="AH47" s="773"/>
-      <c r="AI47" s="773"/>
-      <c r="AJ47" s="774"/>
-      <c r="AK47" s="773"/>
-      <c r="AL47" s="773"/>
-      <c r="AM47" s="774"/>
+      <c r="E47" s="772"/>
+      <c r="F47" s="772"/>
+      <c r="G47" s="772"/>
+      <c r="H47" s="772"/>
+      <c r="I47" s="773"/>
+      <c r="J47" s="772"/>
+      <c r="K47" s="772"/>
+      <c r="L47" s="772"/>
+      <c r="M47" s="772"/>
+      <c r="N47" s="772"/>
+      <c r="O47" s="772"/>
+      <c r="P47" s="772"/>
+      <c r="Q47" s="772"/>
+      <c r="R47" s="772"/>
+      <c r="S47" s="772"/>
+      <c r="T47" s="772"/>
+      <c r="U47" s="772"/>
+      <c r="V47" s="772"/>
+      <c r="W47" s="772"/>
+      <c r="X47" s="772"/>
+      <c r="Y47" s="773"/>
+      <c r="Z47" s="772"/>
+      <c r="AA47" s="773"/>
+      <c r="AB47" s="772"/>
+      <c r="AC47" s="773"/>
+      <c r="AD47" s="772"/>
+      <c r="AE47" s="772"/>
+      <c r="AF47" s="772"/>
+      <c r="AG47" s="772"/>
+      <c r="AH47" s="772"/>
+      <c r="AI47" s="772"/>
+      <c r="AJ47" s="773"/>
+      <c r="AK47" s="772"/>
+      <c r="AL47" s="772"/>
+      <c r="AM47" s="773"/>
       <c r="AN47" s="206"/>
       <c r="AO47" s="206"/>
       <c r="AP47" s="206"/>
@@ -23382,41 +23578,41 @@
       <c r="BJ47" s="206"/>
     </row>
     <row r="48" spans="5:62" x14ac:dyDescent="0.25">
-      <c r="E48" s="773"/>
-      <c r="F48" s="773"/>
-      <c r="G48" s="773"/>
-      <c r="H48" s="773"/>
-      <c r="I48" s="773"/>
-      <c r="J48" s="773"/>
-      <c r="K48" s="773"/>
-      <c r="L48" s="773"/>
-      <c r="M48" s="773"/>
-      <c r="N48" s="773"/>
-      <c r="O48" s="773"/>
-      <c r="P48" s="773"/>
-      <c r="Q48" s="773"/>
-      <c r="R48" s="773"/>
-      <c r="S48" s="773"/>
-      <c r="T48" s="773"/>
-      <c r="U48" s="773"/>
-      <c r="V48" s="773"/>
-      <c r="W48" s="773"/>
-      <c r="X48" s="773"/>
-      <c r="Y48" s="773"/>
-      <c r="Z48" s="773"/>
-      <c r="AA48" s="773"/>
-      <c r="AB48" s="773"/>
-      <c r="AC48" s="773"/>
-      <c r="AD48" s="773"/>
-      <c r="AE48" s="773"/>
-      <c r="AF48" s="773"/>
-      <c r="AG48" s="773"/>
-      <c r="AH48" s="773"/>
-      <c r="AI48" s="773"/>
-      <c r="AJ48" s="773"/>
-      <c r="AK48" s="773"/>
-      <c r="AL48" s="773"/>
-      <c r="AM48" s="773"/>
+      <c r="E48" s="772"/>
+      <c r="F48" s="772"/>
+      <c r="G48" s="772"/>
+      <c r="H48" s="772"/>
+      <c r="I48" s="772"/>
+      <c r="J48" s="772"/>
+      <c r="K48" s="772"/>
+      <c r="L48" s="772"/>
+      <c r="M48" s="772"/>
+      <c r="N48" s="772"/>
+      <c r="O48" s="772"/>
+      <c r="P48" s="772"/>
+      <c r="Q48" s="772"/>
+      <c r="R48" s="772"/>
+      <c r="S48" s="772"/>
+      <c r="T48" s="772"/>
+      <c r="U48" s="772"/>
+      <c r="V48" s="772"/>
+      <c r="W48" s="772"/>
+      <c r="X48" s="772"/>
+      <c r="Y48" s="772"/>
+      <c r="Z48" s="772"/>
+      <c r="AA48" s="772"/>
+      <c r="AB48" s="772"/>
+      <c r="AC48" s="772"/>
+      <c r="AD48" s="772"/>
+      <c r="AE48" s="772"/>
+      <c r="AF48" s="772"/>
+      <c r="AG48" s="772"/>
+      <c r="AH48" s="772"/>
+      <c r="AI48" s="772"/>
+      <c r="AJ48" s="772"/>
+      <c r="AK48" s="772"/>
+      <c r="AL48" s="772"/>
+      <c r="AM48" s="772"/>
       <c r="AN48" s="206"/>
       <c r="AO48" s="206"/>
       <c r="AP48" s="206"/>
@@ -23442,41 +23638,52 @@
       <c r="BJ48" s="206"/>
     </row>
     <row r="49" spans="5:62" x14ac:dyDescent="0.25">
-      <c r="E49" s="773"/>
-      <c r="F49" s="773"/>
-      <c r="G49" s="773"/>
-      <c r="H49" s="773"/>
-      <c r="I49" s="773"/>
-      <c r="J49" s="773"/>
-      <c r="K49" s="773"/>
-      <c r="L49" s="773"/>
-      <c r="M49" s="773"/>
-      <c r="N49" s="773"/>
-      <c r="O49" s="773"/>
-      <c r="P49" s="773"/>
-      <c r="Q49" s="773"/>
-      <c r="R49" s="773"/>
-      <c r="S49" s="773"/>
-      <c r="T49" s="773"/>
-      <c r="U49" s="773"/>
-      <c r="V49" s="773"/>
-      <c r="W49" s="773"/>
-      <c r="X49" s="773"/>
-      <c r="Y49" s="773"/>
-      <c r="Z49" s="773"/>
-      <c r="AA49" s="773"/>
-      <c r="AB49" s="773"/>
-      <c r="AC49" s="773"/>
-      <c r="AD49" s="773"/>
-      <c r="AE49" s="773"/>
-      <c r="AF49" s="773"/>
-      <c r="AG49" s="773"/>
-      <c r="AH49" s="773"/>
-      <c r="AI49" s="773"/>
-      <c r="AJ49" s="773"/>
-      <c r="AK49" s="773"/>
-      <c r="AL49" s="773"/>
-      <c r="AM49" s="773"/>
+      <c r="E49" s="772"/>
+      <c r="F49" s="772"/>
+      <c r="G49" s="772"/>
+      <c r="H49" s="772">
+        <v>44</v>
+      </c>
+      <c r="I49" s="772">
+        <v>12</v>
+      </c>
+      <c r="J49" s="772">
+        <v>12</v>
+      </c>
+      <c r="K49" s="772">
+        <v>12</v>
+      </c>
+      <c r="L49" s="772">
+        <f>SUM(H49:K49)</f>
+        <v>80</v>
+      </c>
+      <c r="M49" s="772"/>
+      <c r="N49" s="772"/>
+      <c r="O49" s="772"/>
+      <c r="P49" s="772"/>
+      <c r="Q49" s="772"/>
+      <c r="R49" s="772"/>
+      <c r="S49" s="772"/>
+      <c r="T49" s="772"/>
+      <c r="U49" s="772"/>
+      <c r="V49" s="772"/>
+      <c r="W49" s="772"/>
+      <c r="X49" s="772"/>
+      <c r="Y49" s="772"/>
+      <c r="Z49" s="772"/>
+      <c r="AA49" s="772"/>
+      <c r="AB49" s="772"/>
+      <c r="AC49" s="772"/>
+      <c r="AD49" s="772"/>
+      <c r="AE49" s="772"/>
+      <c r="AF49" s="772"/>
+      <c r="AG49" s="772"/>
+      <c r="AH49" s="772"/>
+      <c r="AI49" s="772"/>
+      <c r="AJ49" s="772"/>
+      <c r="AK49" s="772"/>
+      <c r="AL49" s="772"/>
+      <c r="AM49" s="772"/>
       <c r="AN49" s="206"/>
       <c r="AO49" s="206"/>
       <c r="AP49" s="206"/>
@@ -23502,41 +23709,41 @@
       <c r="BJ49" s="206"/>
     </row>
     <row r="50" spans="5:62" x14ac:dyDescent="0.25">
-      <c r="E50" s="773"/>
-      <c r="F50" s="773"/>
-      <c r="G50" s="773"/>
-      <c r="H50" s="773"/>
-      <c r="I50" s="773"/>
-      <c r="J50" s="773"/>
-      <c r="K50" s="773"/>
-      <c r="L50" s="773"/>
-      <c r="M50" s="773"/>
-      <c r="N50" s="773"/>
-      <c r="O50" s="773"/>
-      <c r="P50" s="773"/>
-      <c r="Q50" s="773"/>
-      <c r="R50" s="773"/>
-      <c r="S50" s="773"/>
-      <c r="T50" s="773"/>
-      <c r="U50" s="773"/>
-      <c r="V50" s="773"/>
-      <c r="W50" s="773"/>
-      <c r="X50" s="773"/>
-      <c r="Y50" s="773"/>
-      <c r="Z50" s="773"/>
-      <c r="AA50" s="773"/>
-      <c r="AB50" s="773"/>
-      <c r="AC50" s="773"/>
-      <c r="AD50" s="773"/>
-      <c r="AE50" s="773"/>
-      <c r="AF50" s="773"/>
-      <c r="AG50" s="773"/>
-      <c r="AH50" s="773"/>
-      <c r="AI50" s="773"/>
-      <c r="AJ50" s="773"/>
-      <c r="AK50" s="773"/>
-      <c r="AL50" s="773"/>
-      <c r="AM50" s="773"/>
+      <c r="E50" s="772"/>
+      <c r="F50" s="772"/>
+      <c r="G50" s="772"/>
+      <c r="H50" s="772"/>
+      <c r="I50" s="772"/>
+      <c r="J50" s="772"/>
+      <c r="K50" s="772"/>
+      <c r="L50" s="772"/>
+      <c r="M50" s="772"/>
+      <c r="N50" s="772"/>
+      <c r="O50" s="772"/>
+      <c r="P50" s="772"/>
+      <c r="Q50" s="772"/>
+      <c r="R50" s="772"/>
+      <c r="S50" s="772"/>
+      <c r="T50" s="772"/>
+      <c r="U50" s="772"/>
+      <c r="V50" s="772"/>
+      <c r="W50" s="772"/>
+      <c r="X50" s="772"/>
+      <c r="Y50" s="772"/>
+      <c r="Z50" s="772"/>
+      <c r="AA50" s="772"/>
+      <c r="AB50" s="772"/>
+      <c r="AC50" s="772"/>
+      <c r="AD50" s="772"/>
+      <c r="AE50" s="772"/>
+      <c r="AF50" s="772"/>
+      <c r="AG50" s="772"/>
+      <c r="AH50" s="772"/>
+      <c r="AI50" s="772"/>
+      <c r="AJ50" s="772"/>
+      <c r="AK50" s="772"/>
+      <c r="AL50" s="772"/>
+      <c r="AM50" s="772"/>
       <c r="AN50" s="206"/>
       <c r="AO50" s="206"/>
       <c r="AP50" s="206"/>
@@ -23562,41 +23769,41 @@
       <c r="BJ50" s="206"/>
     </row>
     <row r="51" spans="5:62" x14ac:dyDescent="0.25">
-      <c r="E51" s="773"/>
-      <c r="F51" s="773"/>
-      <c r="G51" s="773"/>
-      <c r="H51" s="773"/>
-      <c r="I51" s="773"/>
-      <c r="J51" s="773"/>
-      <c r="K51" s="773"/>
-      <c r="L51" s="773"/>
-      <c r="M51" s="773"/>
-      <c r="N51" s="773"/>
-      <c r="O51" s="773"/>
-      <c r="P51" s="773"/>
-      <c r="Q51" s="773"/>
-      <c r="R51" s="773"/>
-      <c r="S51" s="773"/>
-      <c r="T51" s="773"/>
-      <c r="U51" s="773"/>
-      <c r="V51" s="773"/>
-      <c r="W51" s="773"/>
-      <c r="X51" s="773"/>
-      <c r="Y51" s="773"/>
-      <c r="Z51" s="773"/>
-      <c r="AA51" s="773"/>
-      <c r="AB51" s="773"/>
-      <c r="AC51" s="773"/>
-      <c r="AD51" s="773"/>
-      <c r="AE51" s="773"/>
-      <c r="AF51" s="773"/>
-      <c r="AG51" s="773"/>
-      <c r="AH51" s="773"/>
-      <c r="AI51" s="773"/>
-      <c r="AJ51" s="773"/>
-      <c r="AK51" s="773"/>
-      <c r="AL51" s="773"/>
-      <c r="AM51" s="773"/>
+      <c r="E51" s="772"/>
+      <c r="F51" s="772"/>
+      <c r="G51" s="772"/>
+      <c r="H51" s="772"/>
+      <c r="I51" s="772"/>
+      <c r="J51" s="772"/>
+      <c r="K51" s="772"/>
+      <c r="L51" s="772"/>
+      <c r="M51" s="772"/>
+      <c r="N51" s="772"/>
+      <c r="O51" s="772"/>
+      <c r="P51" s="772"/>
+      <c r="Q51" s="772"/>
+      <c r="R51" s="772"/>
+      <c r="S51" s="772"/>
+      <c r="T51" s="772"/>
+      <c r="U51" s="772"/>
+      <c r="V51" s="772"/>
+      <c r="W51" s="772"/>
+      <c r="X51" s="772"/>
+      <c r="Y51" s="772"/>
+      <c r="Z51" s="772"/>
+      <c r="AA51" s="772"/>
+      <c r="AB51" s="772"/>
+      <c r="AC51" s="772"/>
+      <c r="AD51" s="772"/>
+      <c r="AE51" s="772"/>
+      <c r="AF51" s="772"/>
+      <c r="AG51" s="772"/>
+      <c r="AH51" s="772"/>
+      <c r="AI51" s="772"/>
+      <c r="AJ51" s="772"/>
+      <c r="AK51" s="772"/>
+      <c r="AL51" s="772"/>
+      <c r="AM51" s="772"/>
       <c r="AN51" s="206"/>
       <c r="AO51" s="206"/>
       <c r="AP51" s="206"/>
@@ -24103,7 +24310,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24117,10 +24324,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="922" t="s">
+      <c r="B1" s="921" t="s">
         <v>648</v>
       </c>
-      <c r="C1" s="923"/>
+      <c r="C1" s="922"/>
       <c r="D1" s="337" t="s">
         <v>657</v>
       </c>
@@ -24179,9 +24386,7 @@
         <v>655</v>
       </c>
       <c r="E3" s="347"/>
-      <c r="F3" s="347" t="s">
-        <v>690</v>
-      </c>
+      <c r="F3" s="347"/>
       <c r="G3" s="347"/>
       <c r="H3" s="27" t="s">
         <v>987</v>
@@ -24201,7 +24406,9 @@
       <c r="C4" s="335" t="s">
         <v>387</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="48" t="s">
+        <v>1330</v>
+      </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -24221,7 +24428,9 @@
       <c r="C5" s="335" t="s">
         <v>596</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="956" t="s">
+        <v>996</v>
+      </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -24293,7 +24502,9 @@
       <c r="C8" s="335" t="s">
         <v>597</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="48" t="s">
+        <v>1315</v>
+      </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -24313,7 +24524,9 @@
       <c r="C9" s="335" t="s">
         <v>598</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="48" t="s">
+        <v>1331</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -24333,7 +24546,9 @@
       <c r="C10" s="711" t="s">
         <v>599</v>
       </c>
-      <c r="D10" s="712"/>
+      <c r="D10" s="953" t="s">
+        <v>1335</v>
+      </c>
       <c r="E10" s="713"/>
       <c r="F10" s="713"/>
       <c r="G10" s="713"/>
@@ -24355,8 +24570,8 @@
         <v>656</v>
       </c>
       <c r="E11" s="721"/>
-      <c r="F11" s="721" t="s">
-        <v>555</v>
+      <c r="F11" s="824" t="s">
+        <v>693</v>
       </c>
       <c r="G11" s="721"/>
       <c r="H11" s="722" t="s">
@@ -24377,7 +24592,9 @@
       <c r="C12" s="335" t="s">
         <v>370</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="48" t="s">
+        <v>1332</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -24397,7 +24614,9 @@
       <c r="C13" s="335" t="s">
         <v>374</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="956" t="s">
+        <v>1002</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -24469,7 +24688,9 @@
       <c r="C16" s="335" t="s">
         <v>600</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="48" t="s">
+        <v>1316</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -24489,7 +24710,9 @@
       <c r="C17" s="335" t="s">
         <v>602</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="48" t="s">
+        <v>1334</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -24509,15 +24732,17 @@
       <c r="C18" s="726" t="s">
         <v>601</v>
       </c>
-      <c r="D18" s="727"/>
-      <c r="E18" s="728"/>
-      <c r="F18" s="728"/>
-      <c r="G18" s="728"/>
-      <c r="H18" s="729"/>
-      <c r="I18" s="729"/>
-      <c r="J18" s="729"/>
-      <c r="K18" s="730"/>
-      <c r="L18" s="731"/>
+      <c r="D18" s="955" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E18" s="727"/>
+      <c r="F18" s="727"/>
+      <c r="G18" s="727"/>
+      <c r="H18" s="728"/>
+      <c r="I18" s="728"/>
+      <c r="J18" s="728"/>
+      <c r="K18" s="729"/>
+      <c r="L18" s="730"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -24527,9 +24752,13 @@
       <c r="C19" s="334" t="s">
         <v>603</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="50" t="s">
+        <v>1309</v>
+      </c>
       <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>690</v>
+      </c>
       <c r="G19" s="26"/>
       <c r="H19" s="27" t="s">
         <v>990</v>
@@ -24549,7 +24778,9 @@
       <c r="C20" s="335" t="s">
         <v>604</v>
       </c>
-      <c r="D20" s="48"/>
+      <c r="D20" s="48" t="s">
+        <v>1333</v>
+      </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -24573,9 +24804,7 @@
         <v>54</v>
       </c>
       <c r="E21" s="348"/>
-      <c r="F21" s="350" t="s">
-        <v>693</v>
-      </c>
+      <c r="F21" s="350"/>
       <c r="G21" s="348"/>
       <c r="H21" s="17" t="s">
         <v>54</v>
@@ -24595,7 +24824,9 @@
       <c r="C22" s="335" t="s">
         <v>606</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="956" t="s">
+        <v>1345</v>
+      </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -24617,11 +24848,13 @@
       <c r="C23" s="335" t="s">
         <v>607</v>
       </c>
-      <c r="D23" s="339"/>
+      <c r="D23" s="958" t="s">
+        <v>1344</v>
+      </c>
       <c r="E23" s="348"/>
       <c r="F23" s="348"/>
       <c r="G23" s="348"/>
-      <c r="H23" s="315" t="s">
+      <c r="H23" s="825" t="s">
         <v>662</v>
       </c>
       <c r="I23" s="315" t="s">
@@ -24639,7 +24872,9 @@
       <c r="C24" s="335" t="s">
         <v>608</v>
       </c>
-      <c r="D24" s="48"/>
+      <c r="D24" s="48" t="s">
+        <v>1317</v>
+      </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -24659,7 +24894,9 @@
       <c r="C25" s="335" t="s">
         <v>609</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="48" t="s">
+        <v>1318</v>
+      </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -24679,7 +24916,9 @@
       <c r="C26" s="711" t="s">
         <v>610</v>
       </c>
-      <c r="D26" s="712"/>
+      <c r="D26" s="953" t="s">
+        <v>1339</v>
+      </c>
       <c r="E26" s="713"/>
       <c r="F26" s="713"/>
       <c r="G26" s="713"/>
@@ -24697,10 +24936,14 @@
       <c r="C27" s="719" t="s">
         <v>611</v>
       </c>
-      <c r="D27" s="732"/>
-      <c r="E27" s="733"/>
-      <c r="F27" s="733"/>
-      <c r="G27" s="733"/>
+      <c r="D27" s="731" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E27" s="732"/>
+      <c r="F27" s="732" t="s">
+        <v>555</v>
+      </c>
+      <c r="G27" s="732"/>
       <c r="H27" s="722" t="s">
         <v>991</v>
       </c>
@@ -24719,7 +24962,9 @@
       <c r="C28" s="335" t="s">
         <v>612</v>
       </c>
-      <c r="D28" s="48"/>
+      <c r="D28" s="48" t="s">
+        <v>1319</v>
+      </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -24739,7 +24984,9 @@
       <c r="C29" s="335" t="s">
         <v>613</v>
       </c>
-      <c r="D29" s="48"/>
+      <c r="D29" s="956" t="s">
+        <v>1046</v>
+      </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -24759,7 +25006,9 @@
       <c r="C30" s="335" t="s">
         <v>614</v>
       </c>
-      <c r="D30" s="48"/>
+      <c r="D30" s="956" t="s">
+        <v>1346</v>
+      </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -24781,11 +25030,13 @@
       <c r="C31" s="335" t="s">
         <v>615</v>
       </c>
-      <c r="D31" s="48"/>
+      <c r="D31" s="956" t="s">
+        <v>1343</v>
+      </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="315" t="s">
+      <c r="H31" s="825" t="s">
         <v>1015</v>
       </c>
       <c r="I31" s="315" t="s">
@@ -24803,7 +25054,9 @@
       <c r="C32" s="335" t="s">
         <v>616</v>
       </c>
-      <c r="D32" s="48"/>
+      <c r="D32" s="48" t="s">
+        <v>1320</v>
+      </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -24823,7 +25076,9 @@
       <c r="C33" s="335" t="s">
         <v>617</v>
       </c>
-      <c r="D33" s="48"/>
+      <c r="D33" s="48" t="s">
+        <v>1321</v>
+      </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -24843,15 +25098,17 @@
       <c r="C34" s="726" t="s">
         <v>618</v>
       </c>
-      <c r="D34" s="727"/>
-      <c r="E34" s="728"/>
-      <c r="F34" s="728"/>
-      <c r="G34" s="728"/>
-      <c r="H34" s="729"/>
-      <c r="I34" s="729"/>
-      <c r="J34" s="729"/>
-      <c r="K34" s="730"/>
-      <c r="L34" s="731"/>
+      <c r="D34" s="954" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E34" s="727"/>
+      <c r="F34" s="727"/>
+      <c r="G34" s="727"/>
+      <c r="H34" s="728"/>
+      <c r="I34" s="728"/>
+      <c r="J34" s="728"/>
+      <c r="K34" s="729"/>
+      <c r="L34" s="730"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -24861,7 +25118,9 @@
       <c r="C35" s="334" t="s">
         <v>619</v>
       </c>
-      <c r="D35" s="50"/>
+      <c r="D35" s="50" t="s">
+        <v>1311</v>
+      </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
@@ -24883,7 +25142,9 @@
       <c r="C36" s="335" t="s">
         <v>620</v>
       </c>
-      <c r="D36" s="48"/>
+      <c r="D36" s="48" t="s">
+        <v>1322</v>
+      </c>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -24967,7 +25228,9 @@
       <c r="C40" s="335" t="s">
         <v>623</v>
       </c>
-      <c r="D40" s="48"/>
+      <c r="D40" s="48" t="s">
+        <v>1323</v>
+      </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -25011,7 +25274,9 @@
       <c r="C42" s="711" t="s">
         <v>625</v>
       </c>
-      <c r="D42" s="712"/>
+      <c r="D42" s="953" t="s">
+        <v>1340</v>
+      </c>
       <c r="E42" s="713"/>
       <c r="F42" s="713"/>
       <c r="G42" s="713"/>
@@ -25029,10 +25294,12 @@
       <c r="C43" s="719" t="s">
         <v>626</v>
       </c>
-      <c r="D43" s="732"/>
-      <c r="E43" s="733"/>
-      <c r="F43" s="733"/>
-      <c r="G43" s="733"/>
+      <c r="D43" s="731" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E43" s="732"/>
+      <c r="F43" s="732"/>
+      <c r="G43" s="732"/>
       <c r="H43" s="722" t="s">
         <v>993</v>
       </c>
@@ -25051,7 +25318,9 @@
       <c r="C44" s="335" t="s">
         <v>629</v>
       </c>
-      <c r="D44" s="48"/>
+      <c r="D44" s="48" t="s">
+        <v>1324</v>
+      </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -25135,7 +25404,9 @@
       <c r="C48" s="335" t="s">
         <v>633</v>
       </c>
-      <c r="D48" s="48"/>
+      <c r="D48" s="48" t="s">
+        <v>1325</v>
+      </c>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
@@ -25173,15 +25444,17 @@
       <c r="C50" s="726" t="s">
         <v>636</v>
       </c>
-      <c r="D50" s="727"/>
-      <c r="E50" s="728"/>
-      <c r="F50" s="728"/>
-      <c r="G50" s="728"/>
-      <c r="H50" s="729"/>
-      <c r="I50" s="729"/>
-      <c r="J50" s="729"/>
-      <c r="K50" s="730"/>
-      <c r="L50" s="731"/>
+      <c r="D50" s="955" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E50" s="727"/>
+      <c r="F50" s="727"/>
+      <c r="G50" s="727"/>
+      <c r="H50" s="728"/>
+      <c r="I50" s="728"/>
+      <c r="J50" s="728"/>
+      <c r="K50" s="729"/>
+      <c r="L50" s="730"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -25191,7 +25464,9 @@
       <c r="C51" s="334" t="s">
         <v>637</v>
       </c>
-      <c r="D51" s="50"/>
+      <c r="D51" s="50" t="s">
+        <v>1313</v>
+      </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -25213,7 +25488,9 @@
       <c r="C52" s="335" t="s">
         <v>627</v>
       </c>
-      <c r="D52" s="48"/>
+      <c r="D52" s="48" t="s">
+        <v>1326</v>
+      </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -25273,7 +25550,9 @@
       <c r="C55" s="335" t="s">
         <v>638</v>
       </c>
-      <c r="D55" s="339"/>
+      <c r="D55" s="339" t="s">
+        <v>861</v>
+      </c>
       <c r="E55" s="348" t="s">
         <v>684</v>
       </c>
@@ -25299,7 +25578,9 @@
       <c r="C56" s="335" t="s">
         <v>639</v>
       </c>
-      <c r="D56" s="48"/>
+      <c r="D56" s="48" t="s">
+        <v>1327</v>
+      </c>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
@@ -25355,10 +25636,12 @@
       <c r="C59" s="719" t="s">
         <v>123</v>
       </c>
-      <c r="D59" s="732"/>
-      <c r="E59" s="733"/>
-      <c r="F59" s="733"/>
-      <c r="G59" s="733"/>
+      <c r="D59" s="731" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E59" s="732"/>
+      <c r="F59" s="732"/>
+      <c r="G59" s="732"/>
       <c r="H59" s="722" t="s">
         <v>995</v>
       </c>
@@ -25377,7 +25660,9 @@
       <c r="C60" s="335" t="s">
         <v>641</v>
       </c>
-      <c r="D60" s="48"/>
+      <c r="D60" s="48" t="s">
+        <v>1328</v>
+      </c>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -25449,7 +25734,9 @@
       <c r="C63" s="335" t="s">
         <v>644</v>
       </c>
-      <c r="D63" s="48"/>
+      <c r="D63" s="956" t="s">
+        <v>524</v>
+      </c>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
@@ -25469,7 +25756,9 @@
       <c r="C64" s="335" t="s">
         <v>645</v>
       </c>
-      <c r="D64" s="48"/>
+      <c r="D64" s="48" t="s">
+        <v>1329</v>
+      </c>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -25489,7 +25778,9 @@
       <c r="C65" s="335" t="s">
         <v>646</v>
       </c>
-      <c r="D65" s="48"/>
+      <c r="D65" s="956" t="s">
+        <v>1337</v>
+      </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
@@ -25507,7 +25798,9 @@
       <c r="C66" s="336" t="s">
         <v>647</v>
       </c>
-      <c r="D66" s="49"/>
+      <c r="D66" s="957" t="s">
+        <v>1338</v>
+      </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>

--- a/DOC/DEG2000.xlsx
+++ b/DOC/DEG2000.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devel\1 DEG2000\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144226AD-DC8E-4B21-BBBC-E0AA3C4E4C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2F0F48-EC52-43AB-8077-5ADA2BA63B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="5235" windowWidth="46635" windowHeight="25845" activeTab="2" xr2:uid="{F91C61BF-F393-4C13-9000-551DF6FEF055}"/>
+    <workbookView xWindow="-28920" yWindow="7125" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{F91C61BF-F393-4C13-9000-551DF6FEF055}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGridView" sheetId="1" r:id="rId1"/>
     <sheet name="Speicher" sheetId="2" r:id="rId2"/>
     <sheet name="Speicher S2" sheetId="16" r:id="rId3"/>
     <sheet name="Speicher S3 orig" sheetId="12" r:id="rId4"/>
-    <sheet name="Key" sheetId="3" r:id="rId5"/>
-    <sheet name="STAS - PTAS" sheetId="13" r:id="rId6"/>
-    <sheet name="ShiftEbene" sheetId="14" r:id="rId7"/>
-    <sheet name="Tabelle1" sheetId="15" r:id="rId8"/>
-    <sheet name="SM.FKTAB" sheetId="8" r:id="rId9"/>
-    <sheet name="Funktionstasten" sheetId="9" r:id="rId10"/>
-    <sheet name="BIN-Dateien" sheetId="4" r:id="rId11"/>
-    <sheet name="Kassette" sheetId="5" r:id="rId12"/>
-    <sheet name="Z80 - Stati" sheetId="6" r:id="rId13"/>
-    <sheet name="to do" sheetId="7" r:id="rId14"/>
-    <sheet name="template F-Tasten" sheetId="10" r:id="rId15"/>
-    <sheet name="KRDi - KWRi" sheetId="11" r:id="rId16"/>
+    <sheet name="S4 DiskAufbau" sheetId="17" r:id="rId5"/>
+    <sheet name="Key" sheetId="3" r:id="rId6"/>
+    <sheet name="STAS - PTAS" sheetId="13" r:id="rId7"/>
+    <sheet name="ShiftEbene" sheetId="14" r:id="rId8"/>
+    <sheet name="Tabelle1" sheetId="15" r:id="rId9"/>
+    <sheet name="SM.FKTAB" sheetId="8" r:id="rId10"/>
+    <sheet name="Funktionstasten" sheetId="9" r:id="rId11"/>
+    <sheet name="BIN-Dateien" sheetId="4" r:id="rId12"/>
+    <sheet name="Kassette" sheetId="5" r:id="rId13"/>
+    <sheet name="Z80 - Stati" sheetId="6" r:id="rId14"/>
+    <sheet name="to do" sheetId="7" r:id="rId15"/>
+    <sheet name="template F-Tasten" sheetId="10" r:id="rId16"/>
+    <sheet name="KRDi - KWRi" sheetId="11" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">ShiftEbene!$D$17:$BJ$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">ShiftEbene!$D$17:$BJ$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="1520">
   <si>
     <t>cpuStatus</t>
   </si>
@@ -4523,6 +4524,198 @@
   </si>
   <si>
     <t>A7FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPB  …   Disk Parameter Block </t>
+  </si>
+  <si>
+    <t>a-1</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>Dateien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a = OFF Systemspuren 0…OFF-1</t>
+  </si>
+  <si>
+    <t>n Blöcke</t>
+  </si>
+  <si>
+    <t>DRM+1 Einträge a 32 Byte</t>
+  </si>
+  <si>
+    <t>==&gt; b = (DRM+1)/4/SPT + a (aufrunden)</t>
+  </si>
+  <si>
+    <t>==&gt; n = (DRM+1)*32/BLS     (aufrunden)</t>
+  </si>
+  <si>
+    <t>m-n Blöcke</t>
+  </si>
+  <si>
+    <t>Blockgröße 1K … 16KByte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (s. BSH und BLM)</t>
+  </si>
+  <si>
+    <t>BLS = 128 * 2^BSH = 128 * (BLM+1)</t>
+  </si>
+  <si>
+    <t>Block n muss nicht auf Spuranfang</t>
+  </si>
+  <si>
+    <t>liegen, ist aber fast immer so!</t>
+  </si>
+  <si>
+    <t>m = DSM-1</t>
+  </si>
+  <si>
+    <t>Block m ist nicht immer vollst.</t>
+  </si>
+  <si>
+    <t>auf der Disk enthalten,</t>
+  </si>
+  <si>
+    <t>da max.  DSM+1 Records möglich</t>
+  </si>
+  <si>
+    <t>'trk-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ Block m-1 / Block m   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Block n / Block n+1 / . . . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ Block n-1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Block 0 / Block 1 / . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Systemspur a-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Systemspur 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 . . .  </t>
+  </si>
+  <si>
+    <t>dpblkm:</t>
+  </si>
+  <si>
+    <t>;sektoren pro spur</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>; 1k blocking</t>
+  </si>
+  <si>
+    <t>; ____/</t>
+  </si>
+  <si>
+    <t>;------\</t>
+  </si>
+  <si>
+    <t>sizem:</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>; 32k kapazität</t>
+  </si>
+  <si>
+    <t>; 32 dir. entries</t>
+  </si>
+  <si>
+    <t>; 1 belegter Block durch dir.</t>
+  </si>
+  <si>
+    <t>; 0 dir.entries  pruefen</t>
+  </si>
+  <si>
+    <t>; 0 spuren durch system belegt</t>
+  </si>
+  <si>
+    <t>SPT</t>
+  </si>
+  <si>
+    <t>BSH</t>
+  </si>
+  <si>
+    <t>Sector per Track</t>
+  </si>
+  <si>
+    <t>Block shift factor</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>EXM</t>
+  </si>
+  <si>
+    <t>Block mask</t>
+  </si>
+  <si>
+    <t>Extent mask</t>
+  </si>
+  <si>
+    <t>DSM</t>
+  </si>
+  <si>
+    <t>DRM</t>
+  </si>
+  <si>
+    <t>Disk storage maximum</t>
+  </si>
+  <si>
+    <t>Dirctory         maximum</t>
+  </si>
+  <si>
+    <t>80H</t>
+  </si>
+  <si>
+    <t>AL0</t>
+  </si>
+  <si>
+    <t>AL1</t>
+  </si>
+  <si>
+    <t>CKS</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Check size</t>
+  </si>
+  <si>
+    <t>Zweites Byte des ALV</t>
+  </si>
+  <si>
+    <t>Erstes     Byte des ALV</t>
+  </si>
+  <si>
+    <t>ALV… Allocation Vector</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>128</t>
   </si>
 </sst>
 </file>
@@ -4891,7 +5084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="335">
+  <borders count="336">
     <border>
       <left/>
       <right/>
@@ -9331,11 +9524,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1115">
+  <cellXfs count="1131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10993,6 +11199,49 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="329" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="333" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="220" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="242" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="242" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="334" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="219" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="335" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11209,6 +11458,86 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="327" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="329" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="327" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="329" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="328" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="327" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="329" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="328" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="333" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="220" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="332" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="330" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="328" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="331" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="332" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="329" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="328" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="327" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="329" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="328" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="183" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="184" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="189" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="199" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11224,15 +11553,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="180" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="202" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11242,18 +11562,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="175" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="189" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="183" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="184" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="191" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11387,85 +11696,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="328" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="327" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="329" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="327" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="329" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="328" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="329" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="328" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="327" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="329" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="328" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="327" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="329" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="328" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="329" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="330" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="331" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="332" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="333" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="220" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="333" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="220" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="332" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="242" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="242" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="334" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="219" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12475,16 +12705,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="949" t="s">
+      <c r="F1" s="974" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="950"/>
-      <c r="H1" s="950"/>
-      <c r="I1" s="951" t="s">
+      <c r="G1" s="975"/>
+      <c r="H1" s="975"/>
+      <c r="I1" s="976" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="952"/>
-      <c r="K1" s="953"/>
+      <c r="J1" s="977"/>
+      <c r="K1" s="978"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -12821,6 +13051,1524 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B65578-EE9C-4070-ADA1-057A5CA694AC}">
+  <dimension ref="A1:L67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="202"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1097" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1" s="1098"/>
+      <c r="D1" s="330" t="s">
+        <v>627</v>
+      </c>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="335"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="140" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" s="141" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" s="139"/>
+      <c r="E2" s="342" t="s">
+        <v>653</v>
+      </c>
+      <c r="F2" s="342" t="s">
+        <v>659</v>
+      </c>
+      <c r="G2" s="342" t="s">
+        <v>661</v>
+      </c>
+      <c r="H2" s="322" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2" s="322" t="s">
+        <v>498</v>
+      </c>
+      <c r="J2" s="322" t="s">
+        <v>638</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="339" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="323" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" s="324">
+        <v>0</v>
+      </c>
+      <c r="C3" s="327" t="s">
+        <v>562</v>
+      </c>
+      <c r="D3" s="331" t="s">
+        <v>625</v>
+      </c>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="27" t="s">
+        <v>907</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="336" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="325">
+        <v>2</v>
+      </c>
+      <c r="C4" s="328" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="337"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="325">
+        <v>4</v>
+      </c>
+      <c r="C5" s="328" t="s">
+        <v>566</v>
+      </c>
+      <c r="D5" s="791" t="s">
+        <v>916</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="337"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="325">
+        <v>6</v>
+      </c>
+      <c r="C6" s="328" t="s">
+        <v>565</v>
+      </c>
+      <c r="D6" s="332" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" s="341" t="s">
+        <v>628</v>
+      </c>
+      <c r="F6" s="341"/>
+      <c r="G6" s="341"/>
+      <c r="H6" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="309" t="s">
+        <v>641</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="337"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="325">
+        <v>8</v>
+      </c>
+      <c r="C7" s="328" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="332" t="s">
+        <v>630</v>
+      </c>
+      <c r="E7" s="341" t="s">
+        <v>630</v>
+      </c>
+      <c r="F7" s="341"/>
+      <c r="G7" s="341"/>
+      <c r="H7" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="309" t="s">
+        <v>644</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="337"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="325">
+        <v>10</v>
+      </c>
+      <c r="C8" s="328" t="s">
+        <v>567</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="337"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="325">
+        <v>12</v>
+      </c>
+      <c r="C9" s="328" t="s">
+        <v>568</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="337"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="12">
+        <v>14</v>
+      </c>
+      <c r="C10" s="684" t="s">
+        <v>569</v>
+      </c>
+      <c r="D10" s="788" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E10" s="686"/>
+      <c r="F10" s="686"/>
+      <c r="G10" s="686"/>
+      <c r="H10" s="687"/>
+      <c r="I10" s="687"/>
+      <c r="J10" s="687"/>
+      <c r="K10" s="688"/>
+      <c r="L10" s="689"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="691">
+        <v>16</v>
+      </c>
+      <c r="C11" s="692" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" s="693" t="s">
+        <v>626</v>
+      </c>
+      <c r="E11" s="694"/>
+      <c r="F11" s="786" t="s">
+        <v>663</v>
+      </c>
+      <c r="G11" s="694"/>
+      <c r="H11" s="695" t="s">
+        <v>909</v>
+      </c>
+      <c r="I11" s="695"/>
+      <c r="J11" s="695"/>
+      <c r="K11" s="696"/>
+      <c r="L11" s="697" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="325">
+        <v>18</v>
+      </c>
+      <c r="C12" s="328" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="337"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="325">
+        <v>20</v>
+      </c>
+      <c r="C13" s="328" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" s="791" t="s">
+        <v>922</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="337"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="325">
+        <v>22</v>
+      </c>
+      <c r="C14" s="328" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="332" t="s">
+        <v>629</v>
+      </c>
+      <c r="E14" s="341" t="s">
+        <v>629</v>
+      </c>
+      <c r="F14" s="341"/>
+      <c r="G14" s="341"/>
+      <c r="H14" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="309" t="s">
+        <v>642</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="337"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="325">
+        <v>24</v>
+      </c>
+      <c r="C15" s="328" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="332" t="s">
+        <v>631</v>
+      </c>
+      <c r="E15" s="341" t="s">
+        <v>631</v>
+      </c>
+      <c r="F15" s="341"/>
+      <c r="G15" s="341"/>
+      <c r="H15" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="309" t="s">
+        <v>643</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="337"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="325">
+        <v>26</v>
+      </c>
+      <c r="C16" s="328" t="s">
+        <v>570</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="337"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="325">
+        <v>28</v>
+      </c>
+      <c r="C17" s="328" t="s">
+        <v>572</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
+        <v>926</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="337"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="698">
+        <v>30</v>
+      </c>
+      <c r="C18" s="699" t="s">
+        <v>571</v>
+      </c>
+      <c r="D18" s="790" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E18" s="700"/>
+      <c r="F18" s="700"/>
+      <c r="G18" s="700"/>
+      <c r="H18" s="701"/>
+      <c r="I18" s="701"/>
+      <c r="J18" s="701"/>
+      <c r="K18" s="702"/>
+      <c r="L18" s="703"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="324">
+        <v>32</v>
+      </c>
+      <c r="C19" s="327" t="s">
+        <v>573</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27" t="s">
+        <v>910</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="690" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="325">
+        <v>34</v>
+      </c>
+      <c r="C20" s="328" t="s">
+        <v>574</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="337"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="325">
+        <v>36</v>
+      </c>
+      <c r="C21" s="328" t="s">
+        <v>575</v>
+      </c>
+      <c r="D21" s="332" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="341"/>
+      <c r="F21" s="343"/>
+      <c r="G21" s="341"/>
+      <c r="H21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="309" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="43"/>
+      <c r="L21" s="337"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="325">
+        <v>38</v>
+      </c>
+      <c r="C22" s="328" t="s">
+        <v>576</v>
+      </c>
+      <c r="D22" s="791" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="309" t="s">
+        <v>639</v>
+      </c>
+      <c r="K22" s="43"/>
+      <c r="L22" s="337"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="325">
+        <v>40</v>
+      </c>
+      <c r="C23" s="328" t="s">
+        <v>577</v>
+      </c>
+      <c r="D23" s="793" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E23" s="341"/>
+      <c r="F23" s="341"/>
+      <c r="G23" s="341"/>
+      <c r="H23" s="787" t="s">
+        <v>632</v>
+      </c>
+      <c r="I23" s="309" t="s">
+        <v>931</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="337"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="325">
+        <v>42</v>
+      </c>
+      <c r="C24" s="328" t="s">
+        <v>578</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17" t="s">
+        <v>929</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="337"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="325">
+        <v>44</v>
+      </c>
+      <c r="C25" s="328" t="s">
+        <v>579</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="337"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="12">
+        <v>46</v>
+      </c>
+      <c r="C26" s="684" t="s">
+        <v>580</v>
+      </c>
+      <c r="D26" s="788" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E26" s="686"/>
+      <c r="F26" s="686"/>
+      <c r="G26" s="686"/>
+      <c r="H26" s="687"/>
+      <c r="I26" s="687"/>
+      <c r="J26" s="687"/>
+      <c r="K26" s="688"/>
+      <c r="L26" s="689"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="691">
+        <v>48</v>
+      </c>
+      <c r="C27" s="692" t="s">
+        <v>581</v>
+      </c>
+      <c r="D27" s="704" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E27" s="705"/>
+      <c r="F27" s="705" t="s">
+        <v>526</v>
+      </c>
+      <c r="G27" s="705"/>
+      <c r="H27" s="695" t="s">
+        <v>911</v>
+      </c>
+      <c r="I27" s="695"/>
+      <c r="J27" s="695"/>
+      <c r="K27" s="696"/>
+      <c r="L27" s="697" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="325">
+        <v>50</v>
+      </c>
+      <c r="C28" s="328" t="s">
+        <v>582</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="337"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="325">
+        <v>52</v>
+      </c>
+      <c r="C29" s="328" t="s">
+        <v>583</v>
+      </c>
+      <c r="D29" s="791" t="s">
+        <v>966</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="337"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="325">
+        <v>54</v>
+      </c>
+      <c r="C30" s="328" t="s">
+        <v>584</v>
+      </c>
+      <c r="D30" s="791" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="309" t="s">
+        <v>640</v>
+      </c>
+      <c r="K30" s="43"/>
+      <c r="L30" s="337"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="325">
+        <v>56</v>
+      </c>
+      <c r="C31" s="328" t="s">
+        <v>585</v>
+      </c>
+      <c r="D31" s="791" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="787" t="s">
+        <v>935</v>
+      </c>
+      <c r="I31" s="309" t="s">
+        <v>635</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="337"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="325">
+        <v>58</v>
+      </c>
+      <c r="C32" s="328" t="s">
+        <v>586</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="337"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="325">
+        <v>60</v>
+      </c>
+      <c r="C33" s="328" t="s">
+        <v>587</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="337"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="698">
+        <v>62</v>
+      </c>
+      <c r="C34" s="699" t="s">
+        <v>588</v>
+      </c>
+      <c r="D34" s="789" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E34" s="700"/>
+      <c r="F34" s="700"/>
+      <c r="G34" s="700"/>
+      <c r="H34" s="701"/>
+      <c r="I34" s="701"/>
+      <c r="J34" s="701"/>
+      <c r="K34" s="702"/>
+      <c r="L34" s="703"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="324">
+        <v>64</v>
+      </c>
+      <c r="C35" s="327" t="s">
+        <v>589</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="690" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="325">
+        <v>66</v>
+      </c>
+      <c r="C36" s="328" t="s">
+        <v>590</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="337"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="325">
+        <v>68</v>
+      </c>
+      <c r="C37" s="328" t="s">
+        <v>563</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="337"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="325">
+        <v>70</v>
+      </c>
+      <c r="C38" s="328" t="s">
+        <v>591</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17" t="s">
+        <v>940</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="337"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="325">
+        <v>72</v>
+      </c>
+      <c r="C39" s="328" t="s">
+        <v>592</v>
+      </c>
+      <c r="D39" s="332" t="s">
+        <v>623</v>
+      </c>
+      <c r="E39" s="341" t="s">
+        <v>657</v>
+      </c>
+      <c r="F39" s="341"/>
+      <c r="G39" s="341"/>
+      <c r="H39" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="337"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="325">
+        <v>74</v>
+      </c>
+      <c r="C40" s="328" t="s">
+        <v>593</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="337"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="325">
+        <v>76</v>
+      </c>
+      <c r="C41" s="328" t="s">
+        <v>594</v>
+      </c>
+      <c r="D41" s="332" t="s">
+        <v>479</v>
+      </c>
+      <c r="E41" s="341" t="s">
+        <v>658</v>
+      </c>
+      <c r="F41" s="341"/>
+      <c r="G41" s="341"/>
+      <c r="H41" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="337"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="12">
+        <v>78</v>
+      </c>
+      <c r="C42" s="684" t="s">
+        <v>595</v>
+      </c>
+      <c r="D42" s="788" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E42" s="686"/>
+      <c r="F42" s="686"/>
+      <c r="G42" s="686"/>
+      <c r="H42" s="687"/>
+      <c r="I42" s="687"/>
+      <c r="J42" s="687"/>
+      <c r="K42" s="688"/>
+      <c r="L42" s="689"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="691">
+        <v>80</v>
+      </c>
+      <c r="C43" s="692" t="s">
+        <v>596</v>
+      </c>
+      <c r="D43" s="704" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E43" s="705"/>
+      <c r="F43" s="705"/>
+      <c r="G43" s="705"/>
+      <c r="H43" s="695" t="s">
+        <v>913</v>
+      </c>
+      <c r="I43" s="695"/>
+      <c r="J43" s="695"/>
+      <c r="K43" s="696"/>
+      <c r="L43" s="697" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="325">
+        <v>82</v>
+      </c>
+      <c r="C44" s="328" t="s">
+        <v>599</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17" t="s">
+        <v>942</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="337"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="325">
+        <v>84</v>
+      </c>
+      <c r="C45" s="328" t="s">
+        <v>600</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="337"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="325">
+        <v>86</v>
+      </c>
+      <c r="C46" s="328" t="s">
+        <v>601</v>
+      </c>
+      <c r="D46" s="48"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="337"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="325">
+        <v>88</v>
+      </c>
+      <c r="C47" s="328" t="s">
+        <v>602</v>
+      </c>
+      <c r="D47" s="332" t="s">
+        <v>624</v>
+      </c>
+      <c r="E47" s="341"/>
+      <c r="F47" s="341"/>
+      <c r="G47" s="343" t="s">
+        <v>662</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="309" t="s">
+        <v>624</v>
+      </c>
+      <c r="K47" s="43"/>
+      <c r="L47" s="337"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="325">
+        <v>90</v>
+      </c>
+      <c r="C48" s="328" t="s">
+        <v>603</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="337"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="325">
+        <v>92</v>
+      </c>
+      <c r="C49" s="328" t="s">
+        <v>604</v>
+      </c>
+      <c r="D49" s="48"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="337"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="698">
+        <v>94</v>
+      </c>
+      <c r="C50" s="699" t="s">
+        <v>606</v>
+      </c>
+      <c r="D50" s="790" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E50" s="700"/>
+      <c r="F50" s="700"/>
+      <c r="G50" s="700"/>
+      <c r="H50" s="701"/>
+      <c r="I50" s="701"/>
+      <c r="J50" s="701"/>
+      <c r="K50" s="702"/>
+      <c r="L50" s="703"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="324">
+        <v>96</v>
+      </c>
+      <c r="C51" s="327" t="s">
+        <v>607</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27" t="s">
+        <v>914</v>
+      </c>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="690" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="325">
+        <v>98</v>
+      </c>
+      <c r="C52" s="328" t="s">
+        <v>597</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="337"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="325">
+        <v>100</v>
+      </c>
+      <c r="C53" s="328" t="s">
+        <v>598</v>
+      </c>
+      <c r="D53" s="48"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="337"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="325">
+        <v>102</v>
+      </c>
+      <c r="C54" s="328" t="s">
+        <v>564</v>
+      </c>
+      <c r="D54" s="48"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="337"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="325">
+        <v>104</v>
+      </c>
+      <c r="C55" s="328" t="s">
+        <v>608</v>
+      </c>
+      <c r="D55" s="332" t="s">
+        <v>781</v>
+      </c>
+      <c r="E55" s="341" t="s">
+        <v>654</v>
+      </c>
+      <c r="F55" s="341"/>
+      <c r="G55" s="341"/>
+      <c r="H55" s="309" t="s">
+        <v>949</v>
+      </c>
+      <c r="I55" s="309" t="s">
+        <v>633</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="334" t="s">
+        <v>634</v>
+      </c>
+      <c r="L55" s="337"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="325">
+        <v>106</v>
+      </c>
+      <c r="C56" s="328" t="s">
+        <v>609</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="337"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="325">
+        <v>108</v>
+      </c>
+      <c r="C57" s="328" t="s">
+        <v>610</v>
+      </c>
+      <c r="D57" s="48"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="337"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="12">
+        <v>110</v>
+      </c>
+      <c r="C58" s="684" t="s">
+        <v>605</v>
+      </c>
+      <c r="D58" s="685"/>
+      <c r="E58" s="686"/>
+      <c r="F58" s="686"/>
+      <c r="G58" s="686"/>
+      <c r="H58" s="687"/>
+      <c r="I58" s="687"/>
+      <c r="J58" s="687"/>
+      <c r="K58" s="688"/>
+      <c r="L58" s="689"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="691">
+        <v>112</v>
+      </c>
+      <c r="C59" s="692" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="704" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E59" s="705"/>
+      <c r="F59" s="705"/>
+      <c r="G59" s="705"/>
+      <c r="H59" s="695" t="s">
+        <v>915</v>
+      </c>
+      <c r="I59" s="695"/>
+      <c r="J59" s="695"/>
+      <c r="K59" s="696"/>
+      <c r="L59" s="697" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="325">
+        <v>114</v>
+      </c>
+      <c r="C60" s="328" t="s">
+        <v>611</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="337"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="325">
+        <v>116</v>
+      </c>
+      <c r="C61" s="328" t="s">
+        <v>612</v>
+      </c>
+      <c r="D61" s="332" t="s">
+        <v>621</v>
+      </c>
+      <c r="E61" s="341" t="s">
+        <v>655</v>
+      </c>
+      <c r="F61" s="341"/>
+      <c r="G61" s="341"/>
+      <c r="H61" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="I61" s="17"/>
+      <c r="J61" s="309" t="s">
+        <v>621</v>
+      </c>
+      <c r="K61" s="43"/>
+      <c r="L61" s="337"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="325">
+        <v>118</v>
+      </c>
+      <c r="C62" s="328" t="s">
+        <v>613</v>
+      </c>
+      <c r="D62" s="332" t="s">
+        <v>622</v>
+      </c>
+      <c r="E62" s="341" t="s">
+        <v>656</v>
+      </c>
+      <c r="F62" s="341"/>
+      <c r="G62" s="341"/>
+      <c r="H62" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="I62" s="17"/>
+      <c r="J62" s="309" t="s">
+        <v>622</v>
+      </c>
+      <c r="K62" s="43"/>
+      <c r="L62" s="337"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="325">
+        <v>120</v>
+      </c>
+      <c r="C63" s="328" t="s">
+        <v>614</v>
+      </c>
+      <c r="D63" s="791" t="s">
+        <v>506</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="337"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="325">
+        <v>122</v>
+      </c>
+      <c r="C64" s="328" t="s">
+        <v>615</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="337"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="325">
+        <v>124</v>
+      </c>
+      <c r="C65" s="328" t="s">
+        <v>616</v>
+      </c>
+      <c r="D65" s="791" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="337"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="326">
+        <v>126</v>
+      </c>
+      <c r="C66" s="329" t="s">
+        <v>617</v>
+      </c>
+      <c r="D66" s="792" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="338"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C67" s="173"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3341CA24-FB90-4043-B78E-A547E1AF13CD}">
   <dimension ref="B1:G78"/>
   <sheetViews>
@@ -13747,7 +15495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E3C85C-C7AA-403D-961A-9EBAEBC67EE9}">
   <dimension ref="B2:S30"/>
   <sheetViews>
@@ -13827,69 +15575,69 @@
       <c r="D5" s="179" t="s">
         <v>1442</v>
       </c>
-      <c r="E5" s="1060"/>
-      <c r="F5" s="1061"/>
-      <c r="G5" s="1061"/>
-      <c r="H5" s="1061"/>
-      <c r="I5" s="1061"/>
-      <c r="J5" s="1061"/>
-      <c r="K5" s="1061"/>
-      <c r="L5" s="1061"/>
-      <c r="M5" s="1061"/>
-      <c r="N5" s="1061"/>
-      <c r="O5" s="1061"/>
-      <c r="P5" s="1062"/>
+      <c r="E5" s="1105"/>
+      <c r="F5" s="1106"/>
+      <c r="G5" s="1106"/>
+      <c r="H5" s="1106"/>
+      <c r="I5" s="1106"/>
+      <c r="J5" s="1106"/>
+      <c r="K5" s="1106"/>
+      <c r="L5" s="1106"/>
+      <c r="M5" s="1106"/>
+      <c r="N5" s="1106"/>
+      <c r="O5" s="1106"/>
+      <c r="P5" s="1107"/>
       <c r="Q5" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="R5" s="1054" t="s">
+      <c r="R5" s="1099" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="1055"/>
+      <c r="S5" s="1100"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="1056" t="s">
+      <c r="D6" s="1101" t="s">
         <v>270</v>
       </c>
-      <c r="E6" s="1057"/>
-      <c r="F6" s="1057"/>
-      <c r="G6" s="1057"/>
-      <c r="H6" s="1057"/>
-      <c r="I6" s="1057"/>
-      <c r="J6" s="1057"/>
-      <c r="K6" s="1057"/>
-      <c r="L6" s="1057"/>
-      <c r="M6" s="1057"/>
-      <c r="N6" s="1057"/>
-      <c r="O6" s="1057"/>
-      <c r="P6" s="1057"/>
-      <c r="Q6" s="1057"/>
-      <c r="R6" s="1057"/>
-      <c r="S6" s="1017"/>
+      <c r="E6" s="1102"/>
+      <c r="F6" s="1102"/>
+      <c r="G6" s="1102"/>
+      <c r="H6" s="1102"/>
+      <c r="I6" s="1102"/>
+      <c r="J6" s="1102"/>
+      <c r="K6" s="1102"/>
+      <c r="L6" s="1102"/>
+      <c r="M6" s="1102"/>
+      <c r="N6" s="1102"/>
+      <c r="O6" s="1102"/>
+      <c r="P6" s="1102"/>
+      <c r="Q6" s="1102"/>
+      <c r="R6" s="1102"/>
+      <c r="S6" s="1042"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="1058"/>
-      <c r="E7" s="1059"/>
-      <c r="F7" s="1059"/>
-      <c r="G7" s="1059"/>
-      <c r="H7" s="1059"/>
-      <c r="I7" s="1059"/>
-      <c r="J7" s="1059"/>
-      <c r="K7" s="1059"/>
-      <c r="L7" s="1059"/>
-      <c r="M7" s="1059"/>
-      <c r="N7" s="1059"/>
-      <c r="O7" s="1059"/>
-      <c r="P7" s="1059"/>
-      <c r="Q7" s="1059"/>
-      <c r="R7" s="1059"/>
-      <c r="S7" s="1019"/>
+      <c r="D7" s="1103"/>
+      <c r="E7" s="1104"/>
+      <c r="F7" s="1104"/>
+      <c r="G7" s="1104"/>
+      <c r="H7" s="1104"/>
+      <c r="I7" s="1104"/>
+      <c r="J7" s="1104"/>
+      <c r="K7" s="1104"/>
+      <c r="L7" s="1104"/>
+      <c r="M7" s="1104"/>
+      <c r="N7" s="1104"/>
+      <c r="O7" s="1104"/>
+      <c r="P7" s="1104"/>
+      <c r="Q7" s="1104"/>
+      <c r="R7" s="1104"/>
+      <c r="S7" s="1044"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -13922,15 +15670,15 @@
       <c r="D10" s="178" t="s">
         <v>265</v>
       </c>
-      <c r="E10" s="1054" t="s">
+      <c r="E10" s="1099" t="s">
         <v>269</v>
       </c>
-      <c r="F10" s="1064"/>
-      <c r="G10" s="1065" t="s">
+      <c r="F10" s="1109"/>
+      <c r="G10" s="1110" t="s">
         <v>270</v>
       </c>
-      <c r="H10" s="1065"/>
-      <c r="I10" s="1064"/>
+      <c r="H10" s="1110"/>
+      <c r="I10" s="1109"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -14032,58 +15780,58 @@
       <c r="M14" s="180"/>
       <c r="N14" s="180"/>
       <c r="O14" s="180"/>
-      <c r="P14" s="1054" t="s">
+      <c r="P14" s="1099" t="s">
         <v>284</v>
       </c>
-      <c r="Q14" s="1055"/>
-      <c r="R14" s="1054" t="s">
+      <c r="Q14" s="1100"/>
+      <c r="R14" s="1099" t="s">
         <v>269</v>
       </c>
-      <c r="S14" s="1055"/>
+      <c r="S14" s="1100"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C15" s="173" t="s">
         <v>285</v>
       </c>
-      <c r="D15" s="1056" t="s">
+      <c r="D15" s="1101" t="s">
         <v>270</v>
       </c>
-      <c r="E15" s="1057"/>
-      <c r="F15" s="1057"/>
-      <c r="G15" s="1057"/>
-      <c r="H15" s="1057"/>
-      <c r="I15" s="1057"/>
-      <c r="J15" s="1057"/>
-      <c r="K15" s="1057"/>
-      <c r="L15" s="1057"/>
-      <c r="M15" s="1057"/>
-      <c r="N15" s="1057"/>
-      <c r="O15" s="1057"/>
-      <c r="P15" s="1057"/>
-      <c r="Q15" s="1057"/>
-      <c r="R15" s="1057"/>
-      <c r="S15" s="1017"/>
+      <c r="E15" s="1102"/>
+      <c r="F15" s="1102"/>
+      <c r="G15" s="1102"/>
+      <c r="H15" s="1102"/>
+      <c r="I15" s="1102"/>
+      <c r="J15" s="1102"/>
+      <c r="K15" s="1102"/>
+      <c r="L15" s="1102"/>
+      <c r="M15" s="1102"/>
+      <c r="N15" s="1102"/>
+      <c r="O15" s="1102"/>
+      <c r="P15" s="1102"/>
+      <c r="Q15" s="1102"/>
+      <c r="R15" s="1102"/>
+      <c r="S15" s="1042"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="1058"/>
-      <c r="E16" s="1059"/>
-      <c r="F16" s="1059"/>
-      <c r="G16" s="1059"/>
-      <c r="H16" s="1059"/>
-      <c r="I16" s="1059"/>
-      <c r="J16" s="1059"/>
-      <c r="K16" s="1059"/>
-      <c r="L16" s="1059"/>
-      <c r="M16" s="1059"/>
-      <c r="N16" s="1059"/>
-      <c r="O16" s="1059"/>
-      <c r="P16" s="1059"/>
-      <c r="Q16" s="1059"/>
-      <c r="R16" s="1059"/>
-      <c r="S16" s="1019"/>
+      <c r="D16" s="1103"/>
+      <c r="E16" s="1104"/>
+      <c r="F16" s="1104"/>
+      <c r="G16" s="1104"/>
+      <c r="H16" s="1104"/>
+      <c r="I16" s="1104"/>
+      <c r="J16" s="1104"/>
+      <c r="K16" s="1104"/>
+      <c r="L16" s="1104"/>
+      <c r="M16" s="1104"/>
+      <c r="N16" s="1104"/>
+      <c r="O16" s="1104"/>
+      <c r="P16" s="1104"/>
+      <c r="Q16" s="1104"/>
+      <c r="R16" s="1104"/>
+      <c r="S16" s="1044"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
@@ -14186,94 +15934,94 @@
       <c r="D24" s="179" t="s">
         <v>289</v>
       </c>
-      <c r="E24" s="1069" t="s">
+      <c r="E24" s="1114" t="s">
         <v>291</v>
       </c>
-      <c r="F24" s="1070"/>
-      <c r="G24" s="1070"/>
-      <c r="H24" s="1070"/>
-      <c r="I24" s="1070"/>
-      <c r="J24" s="1070"/>
-      <c r="K24" s="1070"/>
-      <c r="L24" s="1070"/>
-      <c r="M24" s="1070"/>
-      <c r="N24" s="1070"/>
-      <c r="O24" s="1070"/>
-      <c r="P24" s="1070"/>
-      <c r="Q24" s="1070"/>
-      <c r="R24" s="1070"/>
-      <c r="S24" s="984"/>
+      <c r="F24" s="1115"/>
+      <c r="G24" s="1115"/>
+      <c r="H24" s="1115"/>
+      <c r="I24" s="1115"/>
+      <c r="J24" s="1115"/>
+      <c r="K24" s="1115"/>
+      <c r="L24" s="1115"/>
+      <c r="M24" s="1115"/>
+      <c r="N24" s="1115"/>
+      <c r="O24" s="1115"/>
+      <c r="P24" s="1115"/>
+      <c r="Q24" s="1115"/>
+      <c r="R24" s="1115"/>
+      <c r="S24" s="1009"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C25" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="1066" t="s">
+      <c r="D25" s="1111" t="s">
         <v>292</v>
       </c>
-      <c r="E25" s="1067"/>
-      <c r="F25" s="1067"/>
-      <c r="G25" s="1067"/>
-      <c r="H25" s="1067"/>
-      <c r="I25" s="1067"/>
-      <c r="J25" s="1067"/>
-      <c r="K25" s="1067"/>
-      <c r="L25" s="1067"/>
-      <c r="M25" s="1067"/>
-      <c r="N25" s="1067"/>
-      <c r="O25" s="1067"/>
-      <c r="P25" s="1068"/>
+      <c r="E25" s="1112"/>
+      <c r="F25" s="1112"/>
+      <c r="G25" s="1112"/>
+      <c r="H25" s="1112"/>
+      <c r="I25" s="1112"/>
+      <c r="J25" s="1112"/>
+      <c r="K25" s="1112"/>
+      <c r="L25" s="1112"/>
+      <c r="M25" s="1112"/>
+      <c r="N25" s="1112"/>
+      <c r="O25" s="1112"/>
+      <c r="P25" s="1113"/>
       <c r="Q25" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="R25" s="1054" t="s">
+      <c r="R25" s="1099" t="s">
         <v>269</v>
       </c>
-      <c r="S25" s="1055"/>
+      <c r="S25" s="1100"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C26" s="173" t="s">
         <v>285</v>
       </c>
-      <c r="D26" s="1056" t="s">
+      <c r="D26" s="1101" t="s">
         <v>270</v>
       </c>
-      <c r="E26" s="1057"/>
-      <c r="F26" s="1057"/>
-      <c r="G26" s="1057"/>
-      <c r="H26" s="1057"/>
-      <c r="I26" s="1057"/>
-      <c r="J26" s="1057"/>
-      <c r="K26" s="1057"/>
-      <c r="L26" s="1057"/>
-      <c r="M26" s="1057"/>
-      <c r="N26" s="1057"/>
-      <c r="O26" s="1057"/>
-      <c r="P26" s="1057"/>
-      <c r="Q26" s="1057"/>
-      <c r="R26" s="1057"/>
-      <c r="S26" s="1017"/>
+      <c r="E26" s="1102"/>
+      <c r="F26" s="1102"/>
+      <c r="G26" s="1102"/>
+      <c r="H26" s="1102"/>
+      <c r="I26" s="1102"/>
+      <c r="J26" s="1102"/>
+      <c r="K26" s="1102"/>
+      <c r="L26" s="1102"/>
+      <c r="M26" s="1102"/>
+      <c r="N26" s="1102"/>
+      <c r="O26" s="1102"/>
+      <c r="P26" s="1102"/>
+      <c r="Q26" s="1102"/>
+      <c r="R26" s="1102"/>
+      <c r="S26" s="1042"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="1058"/>
-      <c r="E27" s="1059"/>
-      <c r="F27" s="1059"/>
-      <c r="G27" s="1059"/>
-      <c r="H27" s="1059"/>
-      <c r="I27" s="1059"/>
-      <c r="J27" s="1059"/>
-      <c r="K27" s="1059"/>
-      <c r="L27" s="1059"/>
-      <c r="M27" s="1059"/>
-      <c r="N27" s="1059"/>
-      <c r="O27" s="1059"/>
-      <c r="P27" s="1059"/>
-      <c r="Q27" s="1059"/>
-      <c r="R27" s="1059"/>
-      <c r="S27" s="1019"/>
+      <c r="D27" s="1103"/>
+      <c r="E27" s="1104"/>
+      <c r="F27" s="1104"/>
+      <c r="G27" s="1104"/>
+      <c r="H27" s="1104"/>
+      <c r="I27" s="1104"/>
+      <c r="J27" s="1104"/>
+      <c r="K27" s="1104"/>
+      <c r="L27" s="1104"/>
+      <c r="M27" s="1104"/>
+      <c r="N27" s="1104"/>
+      <c r="O27" s="1104"/>
+      <c r="P27" s="1104"/>
+      <c r="Q27" s="1104"/>
+      <c r="R27" s="1104"/>
+      <c r="S27" s="1044"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
@@ -14281,13 +16029,13 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D30" s="1063" t="s">
+      <c r="D30" s="1108" t="s">
         <v>293</v>
       </c>
-      <c r="E30" s="1063"/>
-      <c r="F30" s="1063"/>
-      <c r="G30" s="1063"/>
-      <c r="H30" s="1063"/>
+      <c r="E30" s="1108"/>
+      <c r="F30" s="1108"/>
+      <c r="G30" s="1108"/>
+      <c r="H30" s="1108"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14310,7 +16058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5FB353-E1C4-40BB-8259-71F8E1EEC14D}">
   <dimension ref="A1:K92"/>
   <sheetViews>
@@ -14533,7 +16281,7 @@
       <c r="J12" s="214" t="s">
         <v>350</v>
       </c>
-      <c r="K12" s="1071" t="s">
+      <c r="K12" s="1116" t="s">
         <v>358</v>
       </c>
     </row>
@@ -14551,7 +16299,7 @@
       <c r="J13" s="214" t="s">
         <v>351</v>
       </c>
-      <c r="K13" s="1071"/>
+      <c r="K13" s="1116"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="546"/>
@@ -14637,7 +16385,7 @@
       <c r="J18" s="214" t="s">
         <v>356</v>
       </c>
-      <c r="K18" s="1071" t="s">
+      <c r="K18" s="1116" t="s">
         <v>358</v>
       </c>
     </row>
@@ -14655,7 +16403,7 @@
       <c r="J19" s="214" t="s">
         <v>357</v>
       </c>
-      <c r="K19" s="1071"/>
+      <c r="K19" s="1116"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="546"/>
@@ -15268,7 +17016,7 @@
       <c r="K55" s="566"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="1076" t="s">
+      <c r="B56" s="1121" t="s">
         <v>906</v>
       </c>
       <c r="C56" s="238">
@@ -15284,7 +17032,7 @@
       <c r="K56" s="566"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="1077"/>
+      <c r="B57" s="1122"/>
       <c r="C57" s="238">
         <v>14</v>
       </c>
@@ -15591,14 +17339,14 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="556"/>
-      <c r="C76" s="1072">
+      <c r="C76" s="1117">
         <v>31</v>
       </c>
       <c r="D76" s="596"/>
       <c r="E76" s="606" t="s">
         <v>764</v>
       </c>
-      <c r="F76" s="1074">
+      <c r="F76" s="1119">
         <v>4</v>
       </c>
       <c r="G76" s="607" t="s">
@@ -15613,12 +17361,12 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="565"/>
-      <c r="C77" s="1073"/>
+      <c r="C77" s="1118"/>
       <c r="D77" s="39"/>
       <c r="E77" s="611" t="s">
         <v>267</v>
       </c>
-      <c r="F77" s="1075"/>
+      <c r="F77" s="1120"/>
       <c r="G77" s="612" t="s">
         <v>751</v>
       </c>
@@ -15631,12 +17379,12 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="558"/>
-      <c r="C78" s="1073"/>
+      <c r="C78" s="1118"/>
       <c r="D78" s="595"/>
       <c r="E78" s="616" t="s">
         <v>267</v>
       </c>
-      <c r="F78" s="1075"/>
+      <c r="F78" s="1120"/>
       <c r="G78" s="878" t="s">
         <v>753</v>
       </c>
@@ -15878,7 +17626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A948E0F-DD9D-4444-8086-187832BF5637}">
   <dimension ref="B1:K36"/>
   <sheetViews>
@@ -16404,7 +18152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A67EE2-2541-4C21-B409-F79E37C3B854}">
   <dimension ref="A1:L56"/>
   <sheetViews>
@@ -17427,7 +19175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B2AA9B-D167-4BC9-9F76-38CD655D3C9B}">
   <dimension ref="B2:G56"/>
   <sheetViews>
@@ -17446,22 +19194,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1078"/>
-      <c r="C2" s="1078"/>
-      <c r="D2" s="1078"/>
-      <c r="E2" s="1078"/>
-      <c r="F2" s="1078"/>
-      <c r="G2" s="1078"/>
+      <c r="B2" s="1123"/>
+      <c r="C2" s="1123"/>
+      <c r="D2" s="1123"/>
+      <c r="E2" s="1123"/>
+      <c r="F2" s="1123"/>
+      <c r="G2" s="1123"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1079" t="s">
+      <c r="B3" s="1124" t="s">
         <v>774</v>
       </c>
-      <c r="C3" s="1080"/>
-      <c r="D3" s="1080"/>
-      <c r="E3" s="1080"/>
-      <c r="F3" s="1080"/>
-      <c r="G3" s="1081"/>
+      <c r="C3" s="1125"/>
+      <c r="D3" s="1125"/>
+      <c r="E3" s="1125"/>
+      <c r="F3" s="1125"/>
+      <c r="G3" s="1126"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="389" t="s">
@@ -17520,14 +19268,14 @@
       <c r="G7" s="210"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1082" t="s">
+      <c r="B8" s="1127" t="s">
         <v>775</v>
       </c>
-      <c r="C8" s="1083"/>
-      <c r="D8" s="1083"/>
-      <c r="E8" s="1083"/>
-      <c r="F8" s="1083"/>
-      <c r="G8" s="1084"/>
+      <c r="C8" s="1128"/>
+      <c r="D8" s="1128"/>
+      <c r="E8" s="1128"/>
+      <c r="F8" s="1128"/>
+      <c r="G8" s="1129"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="389" t="s">
@@ -17586,14 +19334,14 @@
       <c r="G12" s="210"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1082" t="s">
+      <c r="B13" s="1127" t="s">
         <v>776</v>
       </c>
-      <c r="C13" s="1083"/>
-      <c r="D13" s="1083"/>
-      <c r="E13" s="1083"/>
-      <c r="F13" s="1083"/>
-      <c r="G13" s="1084"/>
+      <c r="C13" s="1128"/>
+      <c r="D13" s="1128"/>
+      <c r="E13" s="1128"/>
+      <c r="F13" s="1128"/>
+      <c r="G13" s="1129"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="389" t="s">
@@ -17652,14 +19400,14 @@
       <c r="G17" s="210"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1082" t="s">
+      <c r="B18" s="1127" t="s">
         <v>777</v>
       </c>
-      <c r="C18" s="1083"/>
-      <c r="D18" s="1083"/>
-      <c r="E18" s="1083"/>
-      <c r="F18" s="1083"/>
-      <c r="G18" s="1084"/>
+      <c r="C18" s="1128"/>
+      <c r="D18" s="1128"/>
+      <c r="E18" s="1128"/>
+      <c r="F18" s="1128"/>
+      <c r="G18" s="1129"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="389" t="s">
@@ -17733,7 +19481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B15CBDE-C7E2-42D4-AF4D-D92C736AD180}">
   <dimension ref="B2:G24"/>
   <sheetViews>
@@ -17750,24 +19498,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1078" t="s">
+      <c r="B2" s="1123" t="s">
         <v>787</v>
       </c>
-      <c r="C2" s="1085"/>
-      <c r="D2" s="1085"/>
-      <c r="E2" s="1085"/>
-      <c r="F2" s="1085"/>
-      <c r="G2" s="1085"/>
+      <c r="C2" s="1130"/>
+      <c r="D2" s="1130"/>
+      <c r="E2" s="1130"/>
+      <c r="F2" s="1130"/>
+      <c r="G2" s="1130"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1079" t="s">
+      <c r="B3" s="1124" t="s">
         <v>774</v>
       </c>
-      <c r="C3" s="1080"/>
-      <c r="D3" s="1080"/>
-      <c r="E3" s="1080"/>
-      <c r="F3" s="1080"/>
-      <c r="G3" s="1081"/>
+      <c r="C3" s="1125"/>
+      <c r="D3" s="1125"/>
+      <c r="E3" s="1125"/>
+      <c r="F3" s="1125"/>
+      <c r="G3" s="1126"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="416" t="s">
@@ -17846,14 +19594,14 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1082" t="s">
+      <c r="B8" s="1127" t="s">
         <v>775</v>
       </c>
-      <c r="C8" s="1083"/>
-      <c r="D8" s="1083"/>
-      <c r="E8" s="1083"/>
-      <c r="F8" s="1083"/>
-      <c r="G8" s="1084"/>
+      <c r="C8" s="1128"/>
+      <c r="D8" s="1128"/>
+      <c r="E8" s="1128"/>
+      <c r="F8" s="1128"/>
+      <c r="G8" s="1129"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="398" t="s">
@@ -17912,14 +19660,14 @@
       <c r="G12" s="415"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1082" t="s">
+      <c r="B13" s="1127" t="s">
         <v>776</v>
       </c>
-      <c r="C13" s="1083"/>
-      <c r="D13" s="1083"/>
-      <c r="E13" s="1083"/>
-      <c r="F13" s="1083"/>
-      <c r="G13" s="1084"/>
+      <c r="C13" s="1128"/>
+      <c r="D13" s="1128"/>
+      <c r="E13" s="1128"/>
+      <c r="F13" s="1128"/>
+      <c r="G13" s="1129"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="398" t="s">
@@ -17978,14 +19726,14 @@
       <c r="G17" s="415"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1082" t="s">
+      <c r="B18" s="1127" t="s">
         <v>777</v>
       </c>
-      <c r="C18" s="1083"/>
-      <c r="D18" s="1083"/>
-      <c r="E18" s="1083"/>
-      <c r="F18" s="1083"/>
-      <c r="G18" s="1084"/>
+      <c r="C18" s="1128"/>
+      <c r="D18" s="1128"/>
+      <c r="E18" s="1128"/>
+      <c r="F18" s="1128"/>
+      <c r="G18" s="1129"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="398" t="s">
@@ -18067,7 +19815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7213ADEA-A0ED-4772-BDDF-F43C00D4300A}">
   <dimension ref="B3:AK69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="O3" sqref="O3:T68"/>
     </sheetView>
   </sheetViews>
@@ -18090,42 +19838,42 @@
       <c r="L3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="970">
+      <c r="M3" s="995">
         <v>0</v>
       </c>
-      <c r="N3" s="984"/>
-      <c r="O3" s="970" t="s">
+      <c r="N3" s="1009"/>
+      <c r="O3" s="995" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="971"/>
-      <c r="Q3" s="971"/>
-      <c r="R3" s="971"/>
-      <c r="S3" s="971"/>
-      <c r="T3" s="972"/>
-      <c r="U3" s="982">
+      <c r="P3" s="996"/>
+      <c r="Q3" s="996"/>
+      <c r="R3" s="996"/>
+      <c r="S3" s="996"/>
+      <c r="T3" s="997"/>
+      <c r="U3" s="1007">
         <v>2</v>
       </c>
-      <c r="V3" s="982">
+      <c r="V3" s="1007">
         <v>3</v>
       </c>
-      <c r="W3" s="970">
+      <c r="W3" s="995">
         <v>4</v>
       </c>
-      <c r="X3" s="1017"/>
-      <c r="Y3" s="982">
+      <c r="X3" s="1042"/>
+      <c r="Y3" s="1007">
         <v>5</v>
       </c>
-      <c r="AC3" s="961" t="s">
+      <c r="AC3" s="986" t="s">
         <v>1438</v>
       </c>
-      <c r="AD3" s="961"/>
-      <c r="AE3" s="961"/>
-      <c r="AF3" s="961"/>
-      <c r="AG3" s="961"/>
-      <c r="AH3" s="961"/>
-      <c r="AI3" s="961"/>
-      <c r="AJ3" s="961"/>
-      <c r="AK3" s="961"/>
+      <c r="AD3" s="986"/>
+      <c r="AE3" s="986"/>
+      <c r="AF3" s="986"/>
+      <c r="AG3" s="986"/>
+      <c r="AH3" s="986"/>
+      <c r="AI3" s="986"/>
+      <c r="AJ3" s="986"/>
+      <c r="AK3" s="986"/>
     </row>
     <row r="4" spans="12:37" x14ac:dyDescent="0.25">
       <c r="L4" s="114" t="s">
@@ -18151,40 +19899,40 @@
       <c r="T4" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="983"/>
-      <c r="V4" s="983"/>
-      <c r="W4" s="1018" t="s">
+      <c r="U4" s="1008"/>
+      <c r="V4" s="1008"/>
+      <c r="W4" s="1043" t="s">
         <v>320</v>
       </c>
-      <c r="X4" s="1019"/>
-      <c r="Y4" s="1001"/>
+      <c r="X4" s="1044"/>
+      <c r="Y4" s="1026"/>
       <c r="AB4" s="898"/>
-      <c r="AC4" s="954" t="s">
+      <c r="AC4" s="979" t="s">
         <v>1389</v>
       </c>
-      <c r="AD4" s="955"/>
-      <c r="AE4" s="956" t="s">
+      <c r="AD4" s="980"/>
+      <c r="AE4" s="981" t="s">
         <v>1388</v>
       </c>
-      <c r="AF4" s="957"/>
-      <c r="AG4" s="954" t="s">
+      <c r="AF4" s="982"/>
+      <c r="AG4" s="979" t="s">
         <v>1390</v>
       </c>
-      <c r="AH4" s="957"/>
-      <c r="AI4" s="958" t="s">
+      <c r="AH4" s="982"/>
+      <c r="AI4" s="983" t="s">
         <v>1437</v>
       </c>
-      <c r="AJ4" s="959"/>
-      <c r="AK4" s="960"/>
+      <c r="AJ4" s="984"/>
+      <c r="AK4" s="985"/>
     </row>
     <row r="5" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L5" s="962" t="s">
+      <c r="L5" s="987" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="967" t="s">
+      <c r="M5" s="992" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="985" t="s">
+      <c r="N5" s="1010" t="s">
         <v>324</v>
       </c>
       <c r="O5" s="61"/>
@@ -18197,19 +19945,19 @@
       <c r="T5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="976" t="s">
+      <c r="U5" s="1001" t="s">
         <v>470</v>
       </c>
-      <c r="V5" s="979" t="s">
+      <c r="V5" s="1004" t="s">
         <v>323</v>
       </c>
-      <c r="W5" s="1011" t="s">
+      <c r="W5" s="1036" t="s">
         <v>311</v>
       </c>
-      <c r="X5" s="1015" t="s">
+      <c r="X5" s="1040" t="s">
         <v>312</v>
       </c>
-      <c r="Y5" s="1002" t="s">
+      <c r="Y5" s="1027" t="s">
         <v>114</v>
       </c>
       <c r="AB5" s="911">
@@ -18242,9 +19990,9 @@
       <c r="AK5" s="902"/>
     </row>
     <row r="6" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L6" s="963"/>
-      <c r="M6" s="968"/>
-      <c r="N6" s="986"/>
+      <c r="L6" s="988"/>
+      <c r="M6" s="993"/>
+      <c r="N6" s="1011"/>
       <c r="O6" s="64"/>
       <c r="P6" s="65"/>
       <c r="Q6" s="65"/>
@@ -18253,11 +20001,11 @@
       <c r="T6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="977"/>
-      <c r="V6" s="980"/>
-      <c r="W6" s="1012"/>
-      <c r="X6" s="1016"/>
-      <c r="Y6" s="1003"/>
+      <c r="U6" s="1002"/>
+      <c r="V6" s="1005"/>
+      <c r="W6" s="1037"/>
+      <c r="X6" s="1041"/>
+      <c r="Y6" s="1028"/>
       <c r="AB6" s="279">
         <v>2</v>
       </c>
@@ -18288,9 +20036,9 @@
       <c r="AK6" s="215"/>
     </row>
     <row r="7" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L7" s="963"/>
-      <c r="M7" s="968"/>
-      <c r="N7" s="987"/>
+      <c r="L7" s="988"/>
+      <c r="M7" s="993"/>
+      <c r="N7" s="1012"/>
       <c r="O7" s="64"/>
       <c r="P7" s="65"/>
       <c r="Q7" s="65"/>
@@ -18299,13 +20047,13 @@
       <c r="T7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="977"/>
-      <c r="V7" s="980"/>
-      <c r="W7" s="1013"/>
-      <c r="X7" s="1020" t="s">
+      <c r="U7" s="1002"/>
+      <c r="V7" s="1005"/>
+      <c r="W7" s="1038"/>
+      <c r="X7" s="1045" t="s">
         <v>317</v>
       </c>
-      <c r="Y7" s="1003"/>
+      <c r="Y7" s="1028"/>
       <c r="AB7" s="279">
         <v>3</v>
       </c>
@@ -18336,9 +20084,9 @@
       <c r="AK7" s="215"/>
     </row>
     <row r="8" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L8" s="964"/>
-      <c r="M8" s="968"/>
-      <c r="N8" s="990" t="s">
+      <c r="L8" s="989"/>
+      <c r="M8" s="993"/>
+      <c r="N8" s="1015" t="s">
         <v>309</v>
       </c>
       <c r="O8" s="108"/>
@@ -18351,11 +20099,11 @@
       <c r="T8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="977"/>
-      <c r="V8" s="980"/>
-      <c r="W8" s="1013"/>
-      <c r="X8" s="1021"/>
-      <c r="Y8" s="1003"/>
+      <c r="U8" s="1002"/>
+      <c r="V8" s="1005"/>
+      <c r="W8" s="1038"/>
+      <c r="X8" s="1046"/>
+      <c r="Y8" s="1028"/>
       <c r="AB8" s="279">
         <v>4</v>
       </c>
@@ -18386,11 +20134,11 @@
       <c r="AK8" s="215"/>
     </row>
     <row r="9" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L9" s="962" t="s">
+      <c r="L9" s="987" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="968"/>
-      <c r="N9" s="991"/>
+      <c r="M9" s="993"/>
+      <c r="N9" s="1016"/>
       <c r="O9" s="61"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
@@ -18401,13 +20149,13 @@
       <c r="T9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="977"/>
-      <c r="V9" s="980"/>
-      <c r="W9" s="1013"/>
-      <c r="X9" s="1016" t="s">
+      <c r="U9" s="1002"/>
+      <c r="V9" s="1005"/>
+      <c r="W9" s="1038"/>
+      <c r="X9" s="1041" t="s">
         <v>316</v>
       </c>
-      <c r="Y9" s="1003"/>
+      <c r="Y9" s="1028"/>
       <c r="AB9" s="279">
         <v>5</v>
       </c>
@@ -18440,9 +20188,9 @@
       </c>
     </row>
     <row r="10" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L10" s="963"/>
-      <c r="M10" s="968"/>
-      <c r="N10" s="991"/>
+      <c r="L10" s="988"/>
+      <c r="M10" s="993"/>
+      <c r="N10" s="1016"/>
       <c r="O10" s="64"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="65"/>
@@ -18451,11 +20199,11 @@
       <c r="T10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="977"/>
-      <c r="V10" s="980"/>
-      <c r="W10" s="1013"/>
-      <c r="X10" s="1022"/>
-      <c r="Y10" s="1003"/>
+      <c r="U10" s="1002"/>
+      <c r="V10" s="1005"/>
+      <c r="W10" s="1038"/>
+      <c r="X10" s="1047"/>
+      <c r="Y10" s="1028"/>
       <c r="AB10" s="279">
         <v>6</v>
       </c>
@@ -18486,9 +20234,9 @@
       <c r="AK10" s="917"/>
     </row>
     <row r="11" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L11" s="963"/>
-      <c r="M11" s="968"/>
-      <c r="N11" s="992"/>
+      <c r="L11" s="988"/>
+      <c r="M11" s="993"/>
+      <c r="N11" s="1017"/>
       <c r="O11" s="64"/>
       <c r="P11" s="65"/>
       <c r="Q11" s="65"/>
@@ -18497,13 +20245,13 @@
       <c r="T11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="977"/>
-      <c r="V11" s="980"/>
-      <c r="W11" s="1013"/>
-      <c r="X11" s="1020" t="s">
+      <c r="U11" s="1002"/>
+      <c r="V11" s="1005"/>
+      <c r="W11" s="1038"/>
+      <c r="X11" s="1045" t="s">
         <v>315</v>
       </c>
-      <c r="Y11" s="1003"/>
+      <c r="Y11" s="1028"/>
       <c r="AB11" s="279">
         <v>7</v>
       </c>
@@ -18534,9 +20282,9 @@
       <c r="AK11" s="215"/>
     </row>
     <row r="12" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L12" s="964"/>
-      <c r="M12" s="968"/>
-      <c r="N12" s="988" t="s">
+      <c r="L12" s="989"/>
+      <c r="M12" s="993"/>
+      <c r="N12" s="1013" t="s">
         <v>308</v>
       </c>
       <c r="O12" s="80"/>
@@ -18549,11 +20297,11 @@
       <c r="T12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="977"/>
-      <c r="V12" s="980"/>
-      <c r="W12" s="1013"/>
-      <c r="X12" s="1021"/>
-      <c r="Y12" s="1003"/>
+      <c r="U12" s="1002"/>
+      <c r="V12" s="1005"/>
+      <c r="W12" s="1038"/>
+      <c r="X12" s="1046"/>
+      <c r="Y12" s="1028"/>
       <c r="Z12" s="201"/>
       <c r="AB12" s="279">
         <v>8</v>
@@ -18585,11 +20333,11 @@
       <c r="AK12" s="215"/>
     </row>
     <row r="13" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L13" s="962" t="s">
+      <c r="L13" s="987" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="968"/>
-      <c r="N13" s="989"/>
+      <c r="M13" s="993"/>
+      <c r="N13" s="1014"/>
       <c r="O13" s="106"/>
       <c r="P13" s="107"/>
       <c r="Q13" s="107"/>
@@ -18600,13 +20348,13 @@
       <c r="T13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="977"/>
-      <c r="V13" s="980"/>
-      <c r="W13" s="1013"/>
-      <c r="X13" s="1016" t="s">
+      <c r="U13" s="1002"/>
+      <c r="V13" s="1005"/>
+      <c r="W13" s="1038"/>
+      <c r="X13" s="1041" t="s">
         <v>314</v>
       </c>
-      <c r="Y13" s="1003"/>
+      <c r="Y13" s="1028"/>
       <c r="Z13" s="202"/>
       <c r="AB13" s="279">
         <v>9</v>
@@ -18638,8 +20386,8 @@
       <c r="AK13" s="215"/>
     </row>
     <row r="14" spans="12:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="963"/>
-      <c r="M14" s="968"/>
+      <c r="L14" s="988"/>
+      <c r="M14" s="993"/>
       <c r="N14" s="203"/>
       <c r="O14" s="64"/>
       <c r="P14" s="65"/>
@@ -18649,11 +20397,11 @@
       <c r="T14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="977"/>
-      <c r="V14" s="980"/>
-      <c r="W14" s="1013"/>
-      <c r="X14" s="1022"/>
-      <c r="Y14" s="1003"/>
+      <c r="U14" s="1002"/>
+      <c r="V14" s="1005"/>
+      <c r="W14" s="1038"/>
+      <c r="X14" s="1047"/>
+      <c r="Y14" s="1028"/>
       <c r="Z14" s="202"/>
       <c r="AB14" s="279">
         <v>10</v>
@@ -18685,8 +20433,8 @@
       <c r="AK14" s="215"/>
     </row>
     <row r="15" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L15" s="963"/>
-      <c r="M15" s="968"/>
+      <c r="L15" s="988"/>
+      <c r="M15" s="993"/>
       <c r="N15" s="204"/>
       <c r="O15" s="64"/>
       <c r="P15" s="65"/>
@@ -18696,13 +20444,13 @@
       <c r="T15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="977"/>
-      <c r="V15" s="980"/>
-      <c r="W15" s="1013"/>
-      <c r="X15" s="1020" t="s">
+      <c r="U15" s="1002"/>
+      <c r="V15" s="1005"/>
+      <c r="W15" s="1038"/>
+      <c r="X15" s="1045" t="s">
         <v>313</v>
       </c>
-      <c r="Y15" s="1003"/>
+      <c r="Y15" s="1028"/>
       <c r="Z15" s="202"/>
       <c r="AB15" s="279">
         <v>11</v>
@@ -18734,8 +20482,8 @@
       <c r="AK15" s="215"/>
     </row>
     <row r="16" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L16" s="964"/>
-      <c r="M16" s="968"/>
+      <c r="L16" s="989"/>
+      <c r="M16" s="993"/>
       <c r="N16" s="204"/>
       <c r="O16" s="108"/>
       <c r="P16" s="109"/>
@@ -18747,11 +20495,11 @@
       <c r="T16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="977"/>
-      <c r="V16" s="980"/>
-      <c r="W16" s="1014"/>
-      <c r="X16" s="1021"/>
-      <c r="Y16" s="1003"/>
+      <c r="U16" s="1002"/>
+      <c r="V16" s="1005"/>
+      <c r="W16" s="1039"/>
+      <c r="X16" s="1046"/>
+      <c r="Y16" s="1028"/>
       <c r="Z16" s="202"/>
       <c r="AB16" s="279">
         <v>12</v>
@@ -18783,10 +20531,10 @@
       <c r="AK16" s="215"/>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L17" s="962" t="s">
+      <c r="L17" s="987" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="968"/>
+      <c r="M17" s="993"/>
       <c r="N17" s="204"/>
       <c r="O17" s="61"/>
       <c r="P17" s="62"/>
@@ -18798,13 +20546,13 @@
       <c r="T17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="977"/>
-      <c r="V17" s="980"/>
-      <c r="W17" s="1005" t="s">
+      <c r="U17" s="1002"/>
+      <c r="V17" s="1005"/>
+      <c r="W17" s="1030" t="s">
         <v>318</v>
       </c>
-      <c r="X17" s="1006"/>
-      <c r="Y17" s="1003"/>
+      <c r="X17" s="1031"/>
+      <c r="Y17" s="1028"/>
       <c r="Z17" s="202"/>
       <c r="AB17" s="279">
         <v>13</v>
@@ -18836,8 +20584,8 @@
       <c r="AK17" s="215"/>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L18" s="963"/>
-      <c r="M18" s="968"/>
+      <c r="L18" s="988"/>
+      <c r="M18" s="993"/>
       <c r="N18" s="204"/>
       <c r="O18" s="64"/>
       <c r="P18" s="65"/>
@@ -18847,11 +20595,11 @@
       <c r="T18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="977"/>
-      <c r="V18" s="980"/>
-      <c r="W18" s="1007"/>
-      <c r="X18" s="1008"/>
-      <c r="Y18" s="1003"/>
+      <c r="U18" s="1002"/>
+      <c r="V18" s="1005"/>
+      <c r="W18" s="1032"/>
+      <c r="X18" s="1033"/>
+      <c r="Y18" s="1028"/>
       <c r="Z18" s="202"/>
       <c r="AB18" s="279">
         <v>14</v>
@@ -18883,8 +20631,8 @@
       <c r="AK18" s="215"/>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L19" s="963"/>
-      <c r="M19" s="968"/>
+      <c r="L19" s="988"/>
+      <c r="M19" s="993"/>
       <c r="N19" s="204"/>
       <c r="O19" s="64"/>
       <c r="P19" s="65"/>
@@ -18894,11 +20642,11 @@
       <c r="T19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="977"/>
-      <c r="V19" s="980"/>
-      <c r="W19" s="1007"/>
-      <c r="X19" s="1008"/>
-      <c r="Y19" s="1003"/>
+      <c r="U19" s="1002"/>
+      <c r="V19" s="1005"/>
+      <c r="W19" s="1032"/>
+      <c r="X19" s="1033"/>
+      <c r="Y19" s="1028"/>
       <c r="Z19" s="202"/>
       <c r="AB19" s="279">
         <v>15</v>
@@ -18930,8 +20678,8 @@
       <c r="AK19" s="207"/>
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L20" s="964"/>
-      <c r="M20" s="968"/>
+      <c r="L20" s="989"/>
+      <c r="M20" s="993"/>
       <c r="N20" s="204"/>
       <c r="O20" s="80" t="s">
         <v>73</v>
@@ -18947,11 +20695,11 @@
       <c r="T20" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="977"/>
-      <c r="V20" s="980"/>
-      <c r="W20" s="1007"/>
-      <c r="X20" s="1008"/>
-      <c r="Y20" s="1003"/>
+      <c r="U20" s="1002"/>
+      <c r="V20" s="1005"/>
+      <c r="W20" s="1032"/>
+      <c r="X20" s="1033"/>
+      <c r="Y20" s="1028"/>
       <c r="Z20" s="202"/>
       <c r="AB20" s="279">
         <v>16</v>
@@ -18983,10 +20731,10 @@
       <c r="AK20" s="207"/>
     </row>
     <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L21" s="962" t="s">
+      <c r="L21" s="987" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="968"/>
+      <c r="M21" s="993"/>
       <c r="N21" s="204"/>
       <c r="O21" s="78"/>
       <c r="P21" s="79"/>
@@ -18998,11 +20746,11 @@
       <c r="T21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="977"/>
-      <c r="V21" s="980"/>
-      <c r="W21" s="1007"/>
-      <c r="X21" s="1008"/>
-      <c r="Y21" s="1003"/>
+      <c r="U21" s="1002"/>
+      <c r="V21" s="1005"/>
+      <c r="W21" s="1032"/>
+      <c r="X21" s="1033"/>
+      <c r="Y21" s="1028"/>
       <c r="Z21" s="202"/>
       <c r="AB21" s="279">
         <v>17</v>
@@ -19058,8 +20806,8 @@
       <c r="I22" s="193">
         <v>7759</v>
       </c>
-      <c r="L22" s="963"/>
-      <c r="M22" s="968"/>
+      <c r="L22" s="988"/>
+      <c r="M22" s="993"/>
       <c r="N22" s="204"/>
       <c r="O22" s="64"/>
       <c r="P22" s="65"/>
@@ -19069,11 +20817,11 @@
       <c r="T22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="977"/>
-      <c r="V22" s="980"/>
-      <c r="W22" s="1007"/>
-      <c r="X22" s="1008"/>
-      <c r="Y22" s="1003"/>
+      <c r="U22" s="1002"/>
+      <c r="V22" s="1005"/>
+      <c r="W22" s="1032"/>
+      <c r="X22" s="1033"/>
+      <c r="Y22" s="1028"/>
       <c r="AB22" s="279">
         <v>18</v>
       </c>
@@ -19107,8 +20855,8 @@
       <c r="D23" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="963"/>
-      <c r="M23" s="968"/>
+      <c r="L23" s="988"/>
+      <c r="M23" s="993"/>
       <c r="N23" s="204"/>
       <c r="O23" s="80"/>
       <c r="P23" s="81"/>
@@ -19118,11 +20866,11 @@
       <c r="T23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="977"/>
-      <c r="V23" s="980"/>
-      <c r="W23" s="1007"/>
-      <c r="X23" s="1008"/>
-      <c r="Y23" s="1003"/>
+      <c r="U23" s="1002"/>
+      <c r="V23" s="1005"/>
+      <c r="W23" s="1032"/>
+      <c r="X23" s="1033"/>
+      <c r="Y23" s="1028"/>
       <c r="AB23" s="279">
         <v>19</v>
       </c>
@@ -19176,8 +20924,8 @@
         <v>302</v>
       </c>
       <c r="J24" s="173"/>
-      <c r="L24" s="964"/>
-      <c r="M24" s="968"/>
+      <c r="L24" s="989"/>
+      <c r="M24" s="993"/>
       <c r="N24" s="204"/>
       <c r="O24" s="108"/>
       <c r="P24" s="109"/>
@@ -19189,11 +20937,11 @@
       <c r="T24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="977"/>
-      <c r="V24" s="980"/>
-      <c r="W24" s="1007"/>
-      <c r="X24" s="1008"/>
-      <c r="Y24" s="1003"/>
+      <c r="U24" s="1002"/>
+      <c r="V24" s="1005"/>
+      <c r="W24" s="1032"/>
+      <c r="X24" s="1033"/>
+      <c r="Y24" s="1028"/>
       <c r="AB24" s="279">
         <v>20</v>
       </c>
@@ -19247,10 +20995,10 @@
         <v>30</v>
       </c>
       <c r="J25" s="288"/>
-      <c r="L25" s="962" t="s">
+      <c r="L25" s="987" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="968"/>
+      <c r="M25" s="993"/>
       <c r="N25" s="204"/>
       <c r="O25" s="61"/>
       <c r="P25" s="62"/>
@@ -19262,11 +21010,11 @@
       <c r="T25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U25" s="977"/>
-      <c r="V25" s="980"/>
-      <c r="W25" s="1007"/>
-      <c r="X25" s="1008"/>
-      <c r="Y25" s="1003"/>
+      <c r="U25" s="1002"/>
+      <c r="V25" s="1005"/>
+      <c r="W25" s="1032"/>
+      <c r="X25" s="1033"/>
+      <c r="Y25" s="1028"/>
       <c r="AB25" s="912">
         <v>21</v>
       </c>
@@ -19285,9 +21033,9 @@
       <c r="AK25" s="210"/>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L26" s="963"/>
-      <c r="M26" s="968"/>
-      <c r="N26" s="998" t="s">
+      <c r="L26" s="988"/>
+      <c r="M26" s="993"/>
+      <c r="N26" s="1023" t="s">
         <v>327</v>
       </c>
       <c r="O26" s="64"/>
@@ -19298,17 +21046,17 @@
       <c r="T26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="977"/>
-      <c r="V26" s="980"/>
-      <c r="W26" s="1007"/>
-      <c r="X26" s="1008"/>
-      <c r="Y26" s="1003"/>
+      <c r="U26" s="1002"/>
+      <c r="V26" s="1005"/>
+      <c r="W26" s="1032"/>
+      <c r="X26" s="1033"/>
+      <c r="Y26" s="1028"/>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H27" s="173"/>
-      <c r="L27" s="963"/>
-      <c r="M27" s="968"/>
-      <c r="N27" s="999"/>
+      <c r="L27" s="988"/>
+      <c r="M27" s="993"/>
+      <c r="N27" s="1024"/>
       <c r="O27" s="80"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
@@ -19317,17 +21065,17 @@
       <c r="T27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U27" s="977"/>
-      <c r="V27" s="980"/>
-      <c r="W27" s="1007"/>
-      <c r="X27" s="1008"/>
-      <c r="Y27" s="1003"/>
+      <c r="U27" s="1002"/>
+      <c r="V27" s="1005"/>
+      <c r="W27" s="1032"/>
+      <c r="X27" s="1033"/>
+      <c r="Y27" s="1028"/>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H28" s="173"/>
-      <c r="L28" s="964"/>
-      <c r="M28" s="968"/>
-      <c r="N28" s="999"/>
+      <c r="L28" s="989"/>
+      <c r="M28" s="993"/>
+      <c r="N28" s="1024"/>
       <c r="O28" s="80"/>
       <c r="P28" s="81"/>
       <c r="Q28" s="82" t="s">
@@ -19338,18 +21086,18 @@
       <c r="T28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U28" s="977"/>
-      <c r="V28" s="980"/>
-      <c r="W28" s="1007"/>
-      <c r="X28" s="1008"/>
-      <c r="Y28" s="1003"/>
+      <c r="U28" s="1002"/>
+      <c r="V28" s="1005"/>
+      <c r="W28" s="1032"/>
+      <c r="X28" s="1033"/>
+      <c r="Y28" s="1028"/>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L29" s="962" t="s">
+      <c r="L29" s="987" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="968"/>
-      <c r="N29" s="999"/>
+      <c r="M29" s="993"/>
+      <c r="N29" s="1024"/>
       <c r="O29" s="106"/>
       <c r="P29" s="107"/>
       <c r="Q29" s="107"/>
@@ -19360,16 +21108,16 @@
       <c r="T29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="977"/>
-      <c r="V29" s="980"/>
-      <c r="W29" s="1007"/>
-      <c r="X29" s="1008"/>
-      <c r="Y29" s="1003"/>
+      <c r="U29" s="1002"/>
+      <c r="V29" s="1005"/>
+      <c r="W29" s="1032"/>
+      <c r="X29" s="1033"/>
+      <c r="Y29" s="1028"/>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L30" s="963"/>
-      <c r="M30" s="968"/>
-      <c r="N30" s="1000"/>
+      <c r="L30" s="988"/>
+      <c r="M30" s="993"/>
+      <c r="N30" s="1025"/>
       <c r="O30" s="64"/>
       <c r="P30" s="65"/>
       <c r="Q30" s="65"/>
@@ -19378,16 +21126,16 @@
       <c r="T30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U30" s="977"/>
-      <c r="V30" s="980"/>
-      <c r="W30" s="1007"/>
-      <c r="X30" s="1008"/>
-      <c r="Y30" s="1003"/>
+      <c r="U30" s="1002"/>
+      <c r="V30" s="1005"/>
+      <c r="W30" s="1032"/>
+      <c r="X30" s="1033"/>
+      <c r="Y30" s="1028"/>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L31" s="963"/>
-      <c r="M31" s="968"/>
-      <c r="N31" s="997" t="s">
+      <c r="L31" s="988"/>
+      <c r="M31" s="993"/>
+      <c r="N31" s="1022" t="s">
         <v>326</v>
       </c>
       <c r="O31" s="64"/>
@@ -19398,16 +21146,16 @@
       <c r="T31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="977"/>
-      <c r="V31" s="980"/>
-      <c r="W31" s="1007"/>
-      <c r="X31" s="1008"/>
-      <c r="Y31" s="1003"/>
+      <c r="U31" s="1002"/>
+      <c r="V31" s="1005"/>
+      <c r="W31" s="1032"/>
+      <c r="X31" s="1033"/>
+      <c r="Y31" s="1028"/>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L32" s="964"/>
-      <c r="M32" s="968"/>
-      <c r="N32" s="991"/>
+      <c r="L32" s="989"/>
+      <c r="M32" s="993"/>
+      <c r="N32" s="1016"/>
       <c r="O32" s="110"/>
       <c r="P32" s="111"/>
       <c r="Q32" s="112" t="s">
@@ -19418,18 +21166,18 @@
       <c r="T32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="977"/>
-      <c r="V32" s="980"/>
-      <c r="W32" s="1007"/>
-      <c r="X32" s="1008"/>
-      <c r="Y32" s="1003"/>
+      <c r="U32" s="1002"/>
+      <c r="V32" s="1005"/>
+      <c r="W32" s="1032"/>
+      <c r="X32" s="1033"/>
+      <c r="Y32" s="1028"/>
     </row>
     <row r="33" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L33" s="962" t="s">
+      <c r="L33" s="987" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="968"/>
-      <c r="N33" s="991"/>
+      <c r="M33" s="993"/>
+      <c r="N33" s="1016"/>
       <c r="O33" s="61"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
@@ -19440,16 +21188,16 @@
       <c r="T33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U33" s="977"/>
-      <c r="V33" s="980"/>
-      <c r="W33" s="1007"/>
-      <c r="X33" s="1008"/>
-      <c r="Y33" s="1003"/>
+      <c r="U33" s="1002"/>
+      <c r="V33" s="1005"/>
+      <c r="W33" s="1032"/>
+      <c r="X33" s="1033"/>
+      <c r="Y33" s="1028"/>
     </row>
     <row r="34" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L34" s="963"/>
-      <c r="M34" s="968"/>
-      <c r="N34" s="992"/>
+      <c r="L34" s="988"/>
+      <c r="M34" s="993"/>
+      <c r="N34" s="1017"/>
       <c r="O34" s="64"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="65"/>
@@ -19458,16 +21206,16 @@
       <c r="T34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="977"/>
-      <c r="V34" s="980"/>
-      <c r="W34" s="1007"/>
-      <c r="X34" s="1008"/>
-      <c r="Y34" s="1003"/>
+      <c r="U34" s="1002"/>
+      <c r="V34" s="1005"/>
+      <c r="W34" s="1032"/>
+      <c r="X34" s="1033"/>
+      <c r="Y34" s="1028"/>
     </row>
     <row r="35" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L35" s="963"/>
-      <c r="M35" s="968"/>
-      <c r="N35" s="996" t="s">
+      <c r="L35" s="988"/>
+      <c r="M35" s="993"/>
+      <c r="N35" s="1021" t="s">
         <v>325</v>
       </c>
       <c r="O35" s="64"/>
@@ -19478,17 +21226,17 @@
       <c r="T35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U35" s="977"/>
-      <c r="V35" s="980"/>
-      <c r="W35" s="1007"/>
-      <c r="X35" s="1008"/>
-      <c r="Y35" s="1003"/>
+      <c r="U35" s="1002"/>
+      <c r="V35" s="1005"/>
+      <c r="W35" s="1032"/>
+      <c r="X35" s="1033"/>
+      <c r="Y35" s="1028"/>
       <c r="Z35" s="201"/>
     </row>
     <row r="36" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L36" s="964"/>
-      <c r="M36" s="968"/>
-      <c r="N36" s="989"/>
+      <c r="L36" s="989"/>
+      <c r="M36" s="993"/>
+      <c r="N36" s="1014"/>
       <c r="O36" s="67" t="s">
         <v>73</v>
       </c>
@@ -19503,19 +21251,19 @@
       <c r="T36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U36" s="977"/>
-      <c r="V36" s="980"/>
-      <c r="W36" s="1007"/>
-      <c r="X36" s="1008"/>
-      <c r="Y36" s="1003"/>
+      <c r="U36" s="1002"/>
+      <c r="V36" s="1005"/>
+      <c r="W36" s="1032"/>
+      <c r="X36" s="1033"/>
+      <c r="Y36" s="1028"/>
       <c r="Z36" s="202"/>
     </row>
     <row r="37" spans="12:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L37" s="962" t="s">
+      <c r="L37" s="987" t="s">
         <v>103</v>
       </c>
-      <c r="M37" s="968"/>
-      <c r="N37" s="993" t="s">
+      <c r="M37" s="993"/>
+      <c r="N37" s="1018" t="s">
         <v>310</v>
       </c>
       <c r="O37" s="70"/>
@@ -19532,17 +21280,17 @@
       <c r="T37" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="U37" s="977"/>
-      <c r="V37" s="980"/>
-      <c r="W37" s="1007"/>
-      <c r="X37" s="1008"/>
-      <c r="Y37" s="1003"/>
+      <c r="U37" s="1002"/>
+      <c r="V37" s="1005"/>
+      <c r="W37" s="1032"/>
+      <c r="X37" s="1033"/>
+      <c r="Y37" s="1028"/>
       <c r="Z37" s="202"/>
     </row>
     <row r="38" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L38" s="963"/>
-      <c r="M38" s="968"/>
-      <c r="N38" s="994"/>
+      <c r="L38" s="988"/>
+      <c r="M38" s="993"/>
+      <c r="N38" s="1019"/>
       <c r="O38" s="72"/>
       <c r="P38" s="73"/>
       <c r="Q38" s="74" t="s">
@@ -19555,17 +21303,17 @@
       <c r="T38" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U38" s="977"/>
-      <c r="V38" s="980"/>
-      <c r="W38" s="1007"/>
-      <c r="X38" s="1008"/>
-      <c r="Y38" s="1003"/>
+      <c r="U38" s="1002"/>
+      <c r="V38" s="1005"/>
+      <c r="W38" s="1032"/>
+      <c r="X38" s="1033"/>
+      <c r="Y38" s="1028"/>
       <c r="Z38" s="202"/>
     </row>
     <row r="39" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L39" s="963"/>
-      <c r="M39" s="968"/>
-      <c r="N39" s="994"/>
+      <c r="L39" s="988"/>
+      <c r="M39" s="993"/>
+      <c r="N39" s="1019"/>
       <c r="O39" s="72"/>
       <c r="P39" s="73"/>
       <c r="Q39" s="74" t="s">
@@ -19578,16 +21326,16 @@
       <c r="T39" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U39" s="977"/>
-      <c r="V39" s="980"/>
-      <c r="W39" s="1007"/>
-      <c r="X39" s="1008"/>
-      <c r="Y39" s="1003"/>
+      <c r="U39" s="1002"/>
+      <c r="V39" s="1005"/>
+      <c r="W39" s="1032"/>
+      <c r="X39" s="1033"/>
+      <c r="Y39" s="1028"/>
     </row>
     <row r="40" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L40" s="964"/>
-      <c r="M40" s="968"/>
-      <c r="N40" s="994"/>
+      <c r="L40" s="989"/>
+      <c r="M40" s="993"/>
+      <c r="N40" s="1019"/>
       <c r="O40" s="96"/>
       <c r="P40" s="97"/>
       <c r="Q40" s="169" t="s">
@@ -19602,19 +21350,19 @@
       <c r="T40" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U40" s="977"/>
-      <c r="V40" s="980"/>
-      <c r="W40" s="1007"/>
-      <c r="X40" s="1008"/>
-      <c r="Y40" s="1003"/>
+      <c r="U40" s="1002"/>
+      <c r="V40" s="1005"/>
+      <c r="W40" s="1032"/>
+      <c r="X40" s="1033"/>
+      <c r="Y40" s="1028"/>
       <c r="Z40" s="201"/>
     </row>
     <row r="41" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L41" s="962" t="s">
+      <c r="L41" s="987" t="s">
         <v>102</v>
       </c>
-      <c r="M41" s="968"/>
-      <c r="N41" s="994"/>
+      <c r="M41" s="993"/>
+      <c r="N41" s="1019"/>
       <c r="O41" s="101"/>
       <c r="P41" s="102"/>
       <c r="Q41" s="103" t="s">
@@ -19629,17 +21377,17 @@
       <c r="T41" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U41" s="977"/>
-      <c r="V41" s="980"/>
-      <c r="W41" s="1007"/>
-      <c r="X41" s="1008"/>
-      <c r="Y41" s="1003"/>
+      <c r="U41" s="1002"/>
+      <c r="V41" s="1005"/>
+      <c r="W41" s="1032"/>
+      <c r="X41" s="1033"/>
+      <c r="Y41" s="1028"/>
       <c r="Z41" s="202"/>
     </row>
     <row r="42" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L42" s="963"/>
-      <c r="M42" s="968"/>
-      <c r="N42" s="994"/>
+      <c r="L42" s="988"/>
+      <c r="M42" s="993"/>
+      <c r="N42" s="1019"/>
       <c r="O42" s="72"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="74" t="s">
@@ -19652,16 +21400,16 @@
       <c r="T42" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="977"/>
-      <c r="V42" s="980"/>
-      <c r="W42" s="1007"/>
-      <c r="X42" s="1008"/>
-      <c r="Y42" s="1003"/>
+      <c r="U42" s="1002"/>
+      <c r="V42" s="1005"/>
+      <c r="W42" s="1032"/>
+      <c r="X42" s="1033"/>
+      <c r="Y42" s="1028"/>
     </row>
     <row r="43" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L43" s="963"/>
-      <c r="M43" s="968"/>
-      <c r="N43" s="994"/>
+      <c r="L43" s="988"/>
+      <c r="M43" s="993"/>
+      <c r="N43" s="1019"/>
       <c r="O43" s="96"/>
       <c r="P43" s="97"/>
       <c r="Q43" s="169" t="s">
@@ -19674,16 +21422,16 @@
       <c r="T43" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U43" s="977"/>
-      <c r="V43" s="980"/>
-      <c r="W43" s="1007"/>
-      <c r="X43" s="1008"/>
-      <c r="Y43" s="1003"/>
+      <c r="U43" s="1002"/>
+      <c r="V43" s="1005"/>
+      <c r="W43" s="1032"/>
+      <c r="X43" s="1033"/>
+      <c r="Y43" s="1028"/>
     </row>
     <row r="44" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L44" s="964"/>
-      <c r="M44" s="968"/>
-      <c r="N44" s="994"/>
+      <c r="L44" s="989"/>
+      <c r="M44" s="993"/>
+      <c r="N44" s="1019"/>
       <c r="O44" s="104"/>
       <c r="P44" s="105"/>
       <c r="Q44" s="170" t="s">
@@ -19696,18 +21444,18 @@
       <c r="T44" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U44" s="977"/>
-      <c r="V44" s="980"/>
-      <c r="W44" s="1007"/>
-      <c r="X44" s="1008"/>
-      <c r="Y44" s="1003"/>
+      <c r="U44" s="1002"/>
+      <c r="V44" s="1005"/>
+      <c r="W44" s="1032"/>
+      <c r="X44" s="1033"/>
+      <c r="Y44" s="1028"/>
     </row>
     <row r="45" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L45" s="962" t="s">
+      <c r="L45" s="987" t="s">
         <v>101</v>
       </c>
-      <c r="M45" s="968"/>
-      <c r="N45" s="994"/>
+      <c r="M45" s="993"/>
+      <c r="N45" s="1019"/>
       <c r="O45" s="98"/>
       <c r="P45" s="99"/>
       <c r="Q45" s="100" t="s">
@@ -19720,16 +21468,16 @@
       <c r="T45" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U45" s="977"/>
-      <c r="V45" s="980"/>
-      <c r="W45" s="1007"/>
-      <c r="X45" s="1008"/>
-      <c r="Y45" s="1003"/>
+      <c r="U45" s="1002"/>
+      <c r="V45" s="1005"/>
+      <c r="W45" s="1032"/>
+      <c r="X45" s="1033"/>
+      <c r="Y45" s="1028"/>
     </row>
     <row r="46" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L46" s="965"/>
-      <c r="M46" s="968"/>
-      <c r="N46" s="994"/>
+      <c r="L46" s="990"/>
+      <c r="M46" s="993"/>
+      <c r="N46" s="1019"/>
       <c r="O46" s="72"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="74" t="s">
@@ -19742,16 +21490,16 @@
       <c r="T46" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U46" s="977"/>
-      <c r="V46" s="980"/>
-      <c r="W46" s="1007"/>
-      <c r="X46" s="1008"/>
-      <c r="Y46" s="1003"/>
+      <c r="U46" s="1002"/>
+      <c r="V46" s="1005"/>
+      <c r="W46" s="1032"/>
+      <c r="X46" s="1033"/>
+      <c r="Y46" s="1028"/>
     </row>
     <row r="47" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L47" s="965"/>
-      <c r="M47" s="968"/>
-      <c r="N47" s="994"/>
+      <c r="L47" s="990"/>
+      <c r="M47" s="993"/>
+      <c r="N47" s="1019"/>
       <c r="O47" s="96"/>
       <c r="P47" s="97"/>
       <c r="Q47" s="169" t="s">
@@ -19764,16 +21512,16 @@
       <c r="T47" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U47" s="977"/>
-      <c r="V47" s="980"/>
-      <c r="W47" s="1007"/>
-      <c r="X47" s="1008"/>
-      <c r="Y47" s="1003"/>
+      <c r="U47" s="1002"/>
+      <c r="V47" s="1005"/>
+      <c r="W47" s="1032"/>
+      <c r="X47" s="1033"/>
+      <c r="Y47" s="1028"/>
     </row>
     <row r="48" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L48" s="966"/>
-      <c r="M48" s="968"/>
-      <c r="N48" s="994"/>
+      <c r="L48" s="991"/>
+      <c r="M48" s="993"/>
+      <c r="N48" s="1019"/>
       <c r="O48" s="104"/>
       <c r="P48" s="105"/>
       <c r="Q48" s="170" t="s">
@@ -19786,18 +21534,18 @@
       <c r="T48" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U48" s="977"/>
-      <c r="V48" s="980"/>
-      <c r="W48" s="1007"/>
-      <c r="X48" s="1008"/>
-      <c r="Y48" s="1003"/>
+      <c r="U48" s="1002"/>
+      <c r="V48" s="1005"/>
+      <c r="W48" s="1032"/>
+      <c r="X48" s="1033"/>
+      <c r="Y48" s="1028"/>
     </row>
     <row r="49" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L49" s="962" t="s">
+      <c r="L49" s="987" t="s">
         <v>100</v>
       </c>
-      <c r="M49" s="968"/>
-      <c r="N49" s="994"/>
+      <c r="M49" s="993"/>
+      <c r="N49" s="1019"/>
       <c r="O49" s="98"/>
       <c r="P49" s="99"/>
       <c r="Q49" s="100" t="s">
@@ -19810,16 +21558,16 @@
       <c r="T49" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U49" s="977"/>
-      <c r="V49" s="980"/>
-      <c r="W49" s="1007"/>
-      <c r="X49" s="1008"/>
-      <c r="Y49" s="1003"/>
+      <c r="U49" s="1002"/>
+      <c r="V49" s="1005"/>
+      <c r="W49" s="1032"/>
+      <c r="X49" s="1033"/>
+      <c r="Y49" s="1028"/>
     </row>
     <row r="50" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L50" s="963"/>
-      <c r="M50" s="968"/>
-      <c r="N50" s="994"/>
+      <c r="L50" s="988"/>
+      <c r="M50" s="993"/>
+      <c r="N50" s="1019"/>
       <c r="O50" s="72"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="74" t="s">
@@ -19828,22 +21576,22 @@
       <c r="R50" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="S50" s="973" t="s">
+      <c r="S50" s="998" t="s">
         <v>115</v>
       </c>
       <c r="T50" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U50" s="977"/>
-      <c r="V50" s="980"/>
-      <c r="W50" s="1007"/>
-      <c r="X50" s="1008"/>
-      <c r="Y50" s="1003"/>
+      <c r="U50" s="1002"/>
+      <c r="V50" s="1005"/>
+      <c r="W50" s="1032"/>
+      <c r="X50" s="1033"/>
+      <c r="Y50" s="1028"/>
     </row>
     <row r="51" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L51" s="963"/>
-      <c r="M51" s="968"/>
-      <c r="N51" s="994"/>
+      <c r="L51" s="988"/>
+      <c r="M51" s="993"/>
+      <c r="N51" s="1019"/>
       <c r="O51" s="72"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="74" t="s">
@@ -19852,20 +21600,20 @@
       <c r="R51" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="S51" s="974"/>
+      <c r="S51" s="999"/>
       <c r="T51" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U51" s="977"/>
-      <c r="V51" s="980"/>
-      <c r="W51" s="1007"/>
-      <c r="X51" s="1008"/>
-      <c r="Y51" s="1003"/>
+      <c r="U51" s="1002"/>
+      <c r="V51" s="1005"/>
+      <c r="W51" s="1032"/>
+      <c r="X51" s="1033"/>
+      <c r="Y51" s="1028"/>
     </row>
     <row r="52" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L52" s="964"/>
-      <c r="M52" s="968"/>
-      <c r="N52" s="994"/>
+      <c r="L52" s="989"/>
+      <c r="M52" s="993"/>
+      <c r="N52" s="1019"/>
       <c r="O52" s="75" t="s">
         <v>64</v>
       </c>
@@ -19876,22 +21624,22 @@
       <c r="R52" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="S52" s="975"/>
+      <c r="S52" s="1000"/>
       <c r="T52" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U52" s="977"/>
-      <c r="V52" s="980"/>
-      <c r="W52" s="1007"/>
-      <c r="X52" s="1008"/>
-      <c r="Y52" s="1003"/>
+      <c r="U52" s="1002"/>
+      <c r="V52" s="1005"/>
+      <c r="W52" s="1032"/>
+      <c r="X52" s="1033"/>
+      <c r="Y52" s="1028"/>
     </row>
     <row r="53" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L53" s="962" t="s">
+      <c r="L53" s="987" t="s">
         <v>99</v>
       </c>
-      <c r="M53" s="968"/>
-      <c r="N53" s="994"/>
+      <c r="M53" s="993"/>
+      <c r="N53" s="1019"/>
       <c r="O53" s="83"/>
       <c r="P53" s="84"/>
       <c r="Q53" s="85" t="s">
@@ -19904,16 +21652,16 @@
       <c r="T53" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U53" s="977"/>
-      <c r="V53" s="980"/>
-      <c r="W53" s="1007"/>
-      <c r="X53" s="1008"/>
-      <c r="Y53" s="1003"/>
+      <c r="U53" s="1002"/>
+      <c r="V53" s="1005"/>
+      <c r="W53" s="1032"/>
+      <c r="X53" s="1033"/>
+      <c r="Y53" s="1028"/>
     </row>
     <row r="54" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L54" s="963"/>
-      <c r="M54" s="968"/>
-      <c r="N54" s="994"/>
+      <c r="L54" s="988"/>
+      <c r="M54" s="993"/>
+      <c r="N54" s="1019"/>
       <c r="O54" s="86"/>
       <c r="P54" s="87"/>
       <c r="Q54" s="88" t="s">
@@ -19926,16 +21674,16 @@
       <c r="T54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U54" s="977"/>
-      <c r="V54" s="980"/>
-      <c r="W54" s="1007"/>
-      <c r="X54" s="1008"/>
-      <c r="Y54" s="1003"/>
+      <c r="U54" s="1002"/>
+      <c r="V54" s="1005"/>
+      <c r="W54" s="1032"/>
+      <c r="X54" s="1033"/>
+      <c r="Y54" s="1028"/>
     </row>
     <row r="55" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L55" s="963"/>
-      <c r="M55" s="968"/>
-      <c r="N55" s="994"/>
+      <c r="L55" s="988"/>
+      <c r="M55" s="993"/>
+      <c r="N55" s="1019"/>
       <c r="O55" s="86"/>
       <c r="P55" s="87"/>
       <c r="Q55" s="88" t="s">
@@ -19948,16 +21696,16 @@
       <c r="T55" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U55" s="977"/>
-      <c r="V55" s="980"/>
-      <c r="W55" s="1007"/>
-      <c r="X55" s="1008"/>
-      <c r="Y55" s="1003"/>
+      <c r="U55" s="1002"/>
+      <c r="V55" s="1005"/>
+      <c r="W55" s="1032"/>
+      <c r="X55" s="1033"/>
+      <c r="Y55" s="1028"/>
     </row>
     <row r="56" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L56" s="964"/>
-      <c r="M56" s="968"/>
-      <c r="N56" s="994"/>
+      <c r="L56" s="989"/>
+      <c r="M56" s="993"/>
+      <c r="N56" s="1019"/>
       <c r="O56" s="89" t="s">
         <v>54</v>
       </c>
@@ -19974,18 +21722,18 @@
       <c r="T56" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U56" s="977"/>
-      <c r="V56" s="980"/>
-      <c r="W56" s="1007"/>
-      <c r="X56" s="1008"/>
-      <c r="Y56" s="1003"/>
+      <c r="U56" s="1002"/>
+      <c r="V56" s="1005"/>
+      <c r="W56" s="1032"/>
+      <c r="X56" s="1033"/>
+      <c r="Y56" s="1028"/>
     </row>
     <row r="57" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L57" s="962" t="s">
+      <c r="L57" s="987" t="s">
         <v>98</v>
       </c>
-      <c r="M57" s="968"/>
-      <c r="N57" s="994"/>
+      <c r="M57" s="993"/>
+      <c r="N57" s="1019"/>
       <c r="O57" s="52"/>
       <c r="P57" s="53"/>
       <c r="Q57" s="54" t="s">
@@ -19998,16 +21746,16 @@
       <c r="T57" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U57" s="977"/>
-      <c r="V57" s="980"/>
-      <c r="W57" s="1007"/>
-      <c r="X57" s="1008"/>
-      <c r="Y57" s="1003"/>
+      <c r="U57" s="1002"/>
+      <c r="V57" s="1005"/>
+      <c r="W57" s="1032"/>
+      <c r="X57" s="1033"/>
+      <c r="Y57" s="1028"/>
     </row>
     <row r="58" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L58" s="963"/>
-      <c r="M58" s="968"/>
-      <c r="N58" s="994"/>
+      <c r="L58" s="988"/>
+      <c r="M58" s="993"/>
+      <c r="N58" s="1019"/>
       <c r="O58" s="55"/>
       <c r="P58" s="56"/>
       <c r="Q58" s="57" t="s">
@@ -20020,16 +21768,16 @@
       <c r="T58" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U58" s="977"/>
-      <c r="V58" s="980"/>
-      <c r="W58" s="1007"/>
-      <c r="X58" s="1008"/>
-      <c r="Y58" s="1003"/>
+      <c r="U58" s="1002"/>
+      <c r="V58" s="1005"/>
+      <c r="W58" s="1032"/>
+      <c r="X58" s="1033"/>
+      <c r="Y58" s="1028"/>
     </row>
     <row r="59" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L59" s="963"/>
-      <c r="M59" s="968"/>
-      <c r="N59" s="994"/>
+      <c r="L59" s="988"/>
+      <c r="M59" s="993"/>
+      <c r="N59" s="1019"/>
       <c r="O59" s="55"/>
       <c r="P59" s="56"/>
       <c r="Q59" s="57" t="s">
@@ -20042,16 +21790,16 @@
       <c r="T59" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U59" s="977"/>
-      <c r="V59" s="980"/>
-      <c r="W59" s="1007"/>
-      <c r="X59" s="1008"/>
-      <c r="Y59" s="1003"/>
+      <c r="U59" s="1002"/>
+      <c r="V59" s="1005"/>
+      <c r="W59" s="1032"/>
+      <c r="X59" s="1033"/>
+      <c r="Y59" s="1028"/>
     </row>
     <row r="60" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L60" s="964"/>
-      <c r="M60" s="968"/>
-      <c r="N60" s="994"/>
+      <c r="L60" s="989"/>
+      <c r="M60" s="993"/>
+      <c r="N60" s="1019"/>
       <c r="O60" s="55"/>
       <c r="P60" s="56"/>
       <c r="Q60" s="57" t="s">
@@ -20064,18 +21812,18 @@
       <c r="T60" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U60" s="977"/>
-      <c r="V60" s="980"/>
-      <c r="W60" s="1007"/>
-      <c r="X60" s="1008"/>
-      <c r="Y60" s="1003"/>
+      <c r="U60" s="1002"/>
+      <c r="V60" s="1005"/>
+      <c r="W60" s="1032"/>
+      <c r="X60" s="1033"/>
+      <c r="Y60" s="1028"/>
     </row>
     <row r="61" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L61" s="962" t="s">
+      <c r="L61" s="987" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="968"/>
-      <c r="N61" s="994"/>
+      <c r="M61" s="993"/>
+      <c r="N61" s="1019"/>
       <c r="O61" s="55"/>
       <c r="P61" s="56"/>
       <c r="Q61" s="57" t="s">
@@ -20088,16 +21836,16 @@
       <c r="T61" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U61" s="977"/>
-      <c r="V61" s="980"/>
-      <c r="W61" s="1007"/>
-      <c r="X61" s="1008"/>
-      <c r="Y61" s="1003"/>
+      <c r="U61" s="1002"/>
+      <c r="V61" s="1005"/>
+      <c r="W61" s="1032"/>
+      <c r="X61" s="1033"/>
+      <c r="Y61" s="1028"/>
     </row>
     <row r="62" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L62" s="963"/>
-      <c r="M62" s="968"/>
-      <c r="N62" s="994"/>
+      <c r="L62" s="988"/>
+      <c r="M62" s="993"/>
+      <c r="N62" s="1019"/>
       <c r="O62" s="55"/>
       <c r="P62" s="56"/>
       <c r="Q62" s="57" t="s">
@@ -20110,16 +21858,16 @@
       <c r="T62" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U62" s="977"/>
-      <c r="V62" s="980"/>
-      <c r="W62" s="1007"/>
-      <c r="X62" s="1008"/>
-      <c r="Y62" s="1003"/>
+      <c r="U62" s="1002"/>
+      <c r="V62" s="1005"/>
+      <c r="W62" s="1032"/>
+      <c r="X62" s="1033"/>
+      <c r="Y62" s="1028"/>
     </row>
     <row r="63" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L63" s="963"/>
-      <c r="M63" s="968"/>
-      <c r="N63" s="994"/>
+      <c r="L63" s="988"/>
+      <c r="M63" s="993"/>
+      <c r="N63" s="1019"/>
       <c r="O63" s="55"/>
       <c r="P63" s="56"/>
       <c r="Q63" s="57" t="s">
@@ -20132,16 +21880,16 @@
       <c r="T63" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U63" s="977"/>
-      <c r="V63" s="980"/>
-      <c r="W63" s="1007"/>
-      <c r="X63" s="1008"/>
-      <c r="Y63" s="1003"/>
+      <c r="U63" s="1002"/>
+      <c r="V63" s="1005"/>
+      <c r="W63" s="1032"/>
+      <c r="X63" s="1033"/>
+      <c r="Y63" s="1028"/>
     </row>
     <row r="64" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L64" s="964"/>
-      <c r="M64" s="968"/>
-      <c r="N64" s="994"/>
+      <c r="L64" s="989"/>
+      <c r="M64" s="993"/>
+      <c r="N64" s="1019"/>
       <c r="O64" s="58" t="s">
         <v>36</v>
       </c>
@@ -20158,18 +21906,18 @@
       <c r="T64" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U64" s="977"/>
-      <c r="V64" s="980"/>
-      <c r="W64" s="1007"/>
-      <c r="X64" s="1008"/>
-      <c r="Y64" s="1003"/>
+      <c r="U64" s="1002"/>
+      <c r="V64" s="1005"/>
+      <c r="W64" s="1032"/>
+      <c r="X64" s="1033"/>
+      <c r="Y64" s="1028"/>
     </row>
     <row r="65" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L65" s="962" t="s">
+      <c r="L65" s="987" t="s">
         <v>96</v>
       </c>
-      <c r="M65" s="968"/>
-      <c r="N65" s="994"/>
+      <c r="M65" s="993"/>
+      <c r="N65" s="1019"/>
       <c r="O65" s="61"/>
       <c r="P65" s="62"/>
       <c r="Q65" s="63" t="s">
@@ -20182,16 +21930,16 @@
       <c r="T65" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U65" s="977"/>
-      <c r="V65" s="980"/>
-      <c r="W65" s="1007"/>
-      <c r="X65" s="1008"/>
-      <c r="Y65" s="1003"/>
+      <c r="U65" s="1002"/>
+      <c r="V65" s="1005"/>
+      <c r="W65" s="1032"/>
+      <c r="X65" s="1033"/>
+      <c r="Y65" s="1028"/>
     </row>
     <row r="66" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L66" s="963"/>
-      <c r="M66" s="968"/>
-      <c r="N66" s="994"/>
+      <c r="L66" s="988"/>
+      <c r="M66" s="993"/>
+      <c r="N66" s="1019"/>
       <c r="O66" s="64"/>
       <c r="P66" s="65"/>
       <c r="Q66" s="66" t="s">
@@ -20204,16 +21952,16 @@
       <c r="T66" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U66" s="977"/>
-      <c r="V66" s="980"/>
-      <c r="W66" s="1007"/>
-      <c r="X66" s="1008"/>
-      <c r="Y66" s="1003"/>
+      <c r="U66" s="1002"/>
+      <c r="V66" s="1005"/>
+      <c r="W66" s="1032"/>
+      <c r="X66" s="1033"/>
+      <c r="Y66" s="1028"/>
     </row>
     <row r="67" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L67" s="963"/>
-      <c r="M67" s="968"/>
-      <c r="N67" s="994"/>
+      <c r="L67" s="988"/>
+      <c r="M67" s="993"/>
+      <c r="N67" s="1019"/>
       <c r="O67" s="64"/>
       <c r="P67" s="65"/>
       <c r="Q67" s="66" t="s">
@@ -20226,16 +21974,16 @@
       <c r="T67" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U67" s="977"/>
-      <c r="V67" s="980"/>
-      <c r="W67" s="1007"/>
-      <c r="X67" s="1008"/>
-      <c r="Y67" s="1003"/>
+      <c r="U67" s="1002"/>
+      <c r="V67" s="1005"/>
+      <c r="W67" s="1032"/>
+      <c r="X67" s="1033"/>
+      <c r="Y67" s="1028"/>
     </row>
     <row r="68" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L68" s="964"/>
-      <c r="M68" s="969"/>
-      <c r="N68" s="995"/>
+      <c r="L68" s="989"/>
+      <c r="M68" s="994"/>
+      <c r="N68" s="1020"/>
       <c r="O68" s="67" t="s">
         <v>25</v>
       </c>
@@ -20252,11 +22000,11 @@
       <c r="T68" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U68" s="978"/>
-      <c r="V68" s="981"/>
-      <c r="W68" s="1009"/>
-      <c r="X68" s="1010"/>
-      <c r="Y68" s="1004"/>
+      <c r="U68" s="1003"/>
+      <c r="V68" s="1006"/>
+      <c r="W68" s="1034"/>
+      <c r="X68" s="1035"/>
+      <c r="Y68" s="1029"/>
     </row>
     <row r="69" spans="12:25" x14ac:dyDescent="0.25">
       <c r="N69" s="205"/>
@@ -20323,7 +22071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B900A5-ADD4-4E16-80C3-3B655B391770}">
   <dimension ref="E2:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
@@ -20337,23 +22085,23 @@
       <c r="E3" s="466" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="1038" t="s">
+      <c r="F3" s="1071" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="1039"/>
-      <c r="H3" s="1039"/>
-      <c r="I3" s="1039"/>
-      <c r="J3" s="1039"/>
-      <c r="K3" s="1039"/>
-      <c r="L3" s="1102">
+      <c r="G3" s="1072"/>
+      <c r="H3" s="1072"/>
+      <c r="I3" s="1072"/>
+      <c r="J3" s="1072"/>
+      <c r="K3" s="1072"/>
+      <c r="L3" s="1059">
         <v>2</v>
       </c>
-      <c r="M3" s="1103">
+      <c r="M3" s="1061">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="1104" t="s">
+      <c r="E4" s="953" t="s">
         <v>95</v>
       </c>
       <c r="F4" s="139" t="s">
@@ -20372,11 +22120,11 @@
       <c r="K4" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="1087"/>
-      <c r="M4" s="1105"/>
+      <c r="L4" s="1060"/>
+      <c r="M4" s="1062"/>
     </row>
     <row r="5" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="1028" t="s">
+      <c r="E5" s="1063" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="920"/>
@@ -20387,13 +22135,13 @@
       <c r="K5" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="1088" t="s">
+      <c r="L5" s="1048" t="s">
         <v>1447</v>
       </c>
-      <c r="M5" s="1106"/>
+      <c r="M5" s="954"/>
     </row>
     <row r="6" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="1029"/>
+      <c r="E6" s="1064"/>
       <c r="F6" s="406"/>
       <c r="G6" s="924"/>
       <c r="H6" s="924"/>
@@ -20402,11 +22150,11 @@
       <c r="K6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="1089"/>
-      <c r="M6" s="1107"/>
+      <c r="L6" s="1049"/>
+      <c r="M6" s="955"/>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="1029"/>
+      <c r="E7" s="1064"/>
       <c r="F7" s="406"/>
       <c r="G7" s="924"/>
       <c r="H7" s="924"/>
@@ -20415,11 +22163,11 @@
       <c r="K7" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="1089"/>
-      <c r="M7" s="1107"/>
+      <c r="L7" s="1049"/>
+      <c r="M7" s="955"/>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="1030"/>
+      <c r="E8" s="1065"/>
       <c r="F8" s="925"/>
       <c r="G8" s="926"/>
       <c r="H8" s="927"/>
@@ -20428,11 +22176,11 @@
       <c r="K8" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="1089"/>
-      <c r="M8" s="1107"/>
+      <c r="L8" s="1049"/>
+      <c r="M8" s="955"/>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="1028" t="s">
+      <c r="E9" s="1063" t="s">
         <v>110</v>
       </c>
       <c r="F9" s="920"/>
@@ -20443,11 +22191,11 @@
       <c r="K9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="1089"/>
-      <c r="M9" s="1107"/>
+      <c r="L9" s="1049"/>
+      <c r="M9" s="955"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="1029"/>
+      <c r="E10" s="1064"/>
       <c r="F10" s="406"/>
       <c r="G10" s="924"/>
       <c r="H10" s="924"/>
@@ -20456,11 +22204,11 @@
       <c r="K10" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="1089"/>
-      <c r="M10" s="1107"/>
+      <c r="L10" s="1049"/>
+      <c r="M10" s="955"/>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="1029"/>
+      <c r="E11" s="1064"/>
       <c r="F11" s="406"/>
       <c r="G11" s="924"/>
       <c r="H11" s="924"/>
@@ -20469,11 +22217,11 @@
       <c r="K11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="1089"/>
-      <c r="M11" s="1107"/>
+      <c r="L11" s="1049"/>
+      <c r="M11" s="955"/>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="1030"/>
+      <c r="E12" s="1065"/>
       <c r="F12" s="930"/>
       <c r="G12" s="931"/>
       <c r="H12" s="932"/>
@@ -20482,11 +22230,11 @@
       <c r="K12" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="1089"/>
-      <c r="M12" s="1107"/>
+      <c r="L12" s="1049"/>
+      <c r="M12" s="955"/>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="1028" t="s">
+      <c r="E13" s="1063" t="s">
         <v>109</v>
       </c>
       <c r="F13" s="933"/>
@@ -20497,11 +22245,11 @@
       <c r="K13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="1089"/>
-      <c r="M13" s="1107"/>
+      <c r="L13" s="1049"/>
+      <c r="M13" s="955"/>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="1029"/>
+      <c r="E14" s="1064"/>
       <c r="F14" s="406"/>
       <c r="G14" s="924"/>
       <c r="H14" s="924"/>
@@ -20510,11 +22258,11 @@
       <c r="K14" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="1089"/>
-      <c r="M14" s="1107"/>
+      <c r="L14" s="1049"/>
+      <c r="M14" s="955"/>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="1029"/>
+      <c r="E15" s="1064"/>
       <c r="F15" s="406"/>
       <c r="G15" s="924"/>
       <c r="H15" s="924"/>
@@ -20523,11 +22271,11 @@
       <c r="K15" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="1089"/>
-      <c r="M15" s="1107"/>
+      <c r="L15" s="1049"/>
+      <c r="M15" s="955"/>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="1030"/>
+      <c r="E16" s="1065"/>
       <c r="F16" s="925"/>
       <c r="G16" s="926"/>
       <c r="H16" s="927"/>
@@ -20536,11 +22284,11 @@
       <c r="K16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="1089"/>
-      <c r="M16" s="1107"/>
+      <c r="L16" s="1049"/>
+      <c r="M16" s="955"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="1028" t="s">
+      <c r="E17" s="1063" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="920"/>
@@ -20551,11 +22299,11 @@
       <c r="K17" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="1089"/>
-      <c r="M17" s="1107"/>
+      <c r="L17" s="1049"/>
+      <c r="M17" s="955"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="1029"/>
+      <c r="E18" s="1064"/>
       <c r="F18" s="406"/>
       <c r="G18" s="924"/>
       <c r="H18" s="924"/>
@@ -20564,11 +22312,11 @@
       <c r="K18" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="1089"/>
-      <c r="M18" s="1107"/>
+      <c r="L18" s="1049"/>
+      <c r="M18" s="955"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="1029"/>
+      <c r="E19" s="1064"/>
       <c r="F19" s="406"/>
       <c r="G19" s="924"/>
       <c r="H19" s="924"/>
@@ -20577,11 +22325,11 @@
       <c r="K19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="1089"/>
-      <c r="M19" s="1107"/>
+      <c r="L19" s="1049"/>
+      <c r="M19" s="955"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E20" s="1030"/>
+      <c r="E20" s="1065"/>
       <c r="F20" s="930"/>
       <c r="G20" s="931"/>
       <c r="H20" s="932"/>
@@ -20590,11 +22338,11 @@
       <c r="K20" s="688" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="1089"/>
-      <c r="M20" s="1107"/>
+      <c r="L20" s="1049"/>
+      <c r="M20" s="955"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="1028" t="s">
+      <c r="E21" s="1063" t="s">
         <v>107</v>
       </c>
       <c r="F21" s="936"/>
@@ -20605,13 +22353,13 @@
       <c r="K21" s="901" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="1090" t="s">
+      <c r="L21" s="1068" t="s">
         <v>1452</v>
       </c>
-      <c r="M21" s="1107"/>
+      <c r="M21" s="955"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="1029"/>
+      <c r="E22" s="1064"/>
       <c r="F22" s="406"/>
       <c r="G22" s="924"/>
       <c r="H22" s="924"/>
@@ -20620,11 +22368,11 @@
       <c r="K22" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="1091"/>
-      <c r="M22" s="1107"/>
+      <c r="L22" s="1069"/>
+      <c r="M22" s="955"/>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E23" s="1029"/>
+      <c r="E23" s="1064"/>
       <c r="F23" s="930"/>
       <c r="G23" s="931"/>
       <c r="H23" s="931"/>
@@ -20633,11 +22381,11 @@
       <c r="K23" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="1091"/>
-      <c r="M23" s="1107"/>
+      <c r="L23" s="1069"/>
+      <c r="M23" s="955"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="1030"/>
+      <c r="E24" s="1065"/>
       <c r="F24" s="925"/>
       <c r="G24" s="926"/>
       <c r="H24" s="927"/>
@@ -20646,11 +22394,11 @@
       <c r="K24" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="1091"/>
-      <c r="M24" s="1107"/>
+      <c r="L24" s="1069"/>
+      <c r="M24" s="955"/>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="1028" t="s">
+      <c r="E25" s="1063" t="s">
         <v>106</v>
       </c>
       <c r="F25" s="920"/>
@@ -20661,11 +22409,11 @@
       <c r="K25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="1091"/>
-      <c r="M25" s="1107"/>
+      <c r="L25" s="1069"/>
+      <c r="M25" s="955"/>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="1029"/>
+      <c r="E26" s="1064"/>
       <c r="F26" s="406"/>
       <c r="G26" s="924"/>
       <c r="H26" s="924"/>
@@ -20674,11 +22422,11 @@
       <c r="K26" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="1092"/>
-      <c r="M26" s="1107"/>
+      <c r="L26" s="1070"/>
+      <c r="M26" s="955"/>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="1029"/>
+      <c r="E27" s="1064"/>
       <c r="F27" s="930"/>
       <c r="G27" s="931"/>
       <c r="H27" s="932" t="s">
@@ -20691,13 +22439,13 @@
       <c r="K27" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="1093" t="s">
+      <c r="L27" s="1066" t="s">
         <v>1448</v>
       </c>
-      <c r="M27" s="1107"/>
+      <c r="M27" s="955"/>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="1030"/>
+      <c r="E28" s="1065"/>
       <c r="F28" s="930"/>
       <c r="G28" s="931"/>
       <c r="H28" s="932" t="s">
@@ -20710,11 +22458,11 @@
       <c r="K28" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="1094"/>
-      <c r="M28" s="1107"/>
+      <c r="L28" s="1067"/>
+      <c r="M28" s="955"/>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="1028" t="s">
+      <c r="E29" s="1063" t="s">
         <v>105</v>
       </c>
       <c r="F29" s="933"/>
@@ -20725,13 +22473,13 @@
       <c r="K29" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="1095" t="s">
+      <c r="L29" s="1050" t="s">
         <v>1450</v>
       </c>
-      <c r="M29" s="1107"/>
+      <c r="M29" s="955"/>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E30" s="1029"/>
+      <c r="E30" s="1064"/>
       <c r="F30" s="406"/>
       <c r="G30" s="924"/>
       <c r="H30" s="924"/>
@@ -20740,11 +22488,11 @@
       <c r="K30" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="1096"/>
-      <c r="M30" s="1107"/>
+      <c r="L30" s="1051"/>
+      <c r="M30" s="955"/>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E31" s="1029"/>
+      <c r="E31" s="1064"/>
       <c r="F31" s="406"/>
       <c r="G31" s="924"/>
       <c r="H31" s="924"/>
@@ -20753,11 +22501,11 @@
       <c r="K31" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="1096"/>
-      <c r="M31" s="1107"/>
+      <c r="L31" s="1051"/>
+      <c r="M31" s="955"/>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E32" s="1030"/>
+      <c r="E32" s="1065"/>
       <c r="F32" s="941"/>
       <c r="G32" s="942"/>
       <c r="H32" s="943"/>
@@ -20766,11 +22514,11 @@
       <c r="K32" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="1096"/>
-      <c r="M32" s="1107"/>
+      <c r="L32" s="1051"/>
+      <c r="M32" s="955"/>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E33" s="1028" t="s">
+      <c r="E33" s="1063" t="s">
         <v>104</v>
       </c>
       <c r="F33" s="920"/>
@@ -20781,11 +22529,11 @@
       <c r="K33" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="1096"/>
-      <c r="M33" s="1107"/>
+      <c r="L33" s="1051"/>
+      <c r="M33" s="955"/>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E34" s="1029"/>
+      <c r="E34" s="1064"/>
       <c r="F34" s="406"/>
       <c r="G34" s="924"/>
       <c r="H34" s="924"/>
@@ -20794,11 +22542,11 @@
       <c r="K34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="1096"/>
-      <c r="M34" s="1107"/>
+      <c r="L34" s="1051"/>
+      <c r="M34" s="955"/>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E35" s="1029"/>
+      <c r="E35" s="1064"/>
       <c r="F35" s="406"/>
       <c r="G35" s="924"/>
       <c r="H35" s="924"/>
@@ -20807,11 +22555,11 @@
       <c r="K35" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="1096"/>
-      <c r="M35" s="1107"/>
+      <c r="L35" s="1051"/>
+      <c r="M35" s="955"/>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E36" s="1030"/>
+      <c r="E36" s="1065"/>
       <c r="F36" s="945"/>
       <c r="G36" s="946"/>
       <c r="H36" s="947"/>
@@ -20820,11 +22568,11 @@
       <c r="K36" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="1097"/>
-      <c r="M36" s="1107"/>
+      <c r="L36" s="1052"/>
+      <c r="M36" s="955"/>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E37" s="1028" t="s">
+      <c r="E37" s="1063" t="s">
         <v>103</v>
       </c>
       <c r="F37" s="70"/>
@@ -20841,15 +22589,15 @@
       <c r="K37" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="1098" t="s">
+      <c r="L37" s="1053" t="s">
         <v>1451</v>
       </c>
-      <c r="M37" s="1108" t="s">
+      <c r="M37" s="1056" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E38" s="1029"/>
+      <c r="E38" s="1064"/>
       <c r="F38" s="72"/>
       <c r="G38" s="73"/>
       <c r="H38" s="74" t="s">
@@ -20862,11 +22610,11 @@
       <c r="K38" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L38" s="1099"/>
-      <c r="M38" s="1109"/>
+      <c r="L38" s="1054"/>
+      <c r="M38" s="1057"/>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E39" s="1029"/>
+      <c r="E39" s="1064"/>
       <c r="F39" s="72"/>
       <c r="G39" s="73"/>
       <c r="H39" s="74" t="s">
@@ -20879,11 +22627,11 @@
       <c r="K39" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L39" s="1099"/>
-      <c r="M39" s="1109"/>
+      <c r="L39" s="1054"/>
+      <c r="M39" s="1057"/>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E40" s="1030"/>
+      <c r="E40" s="1065"/>
       <c r="F40" s="96"/>
       <c r="G40" s="97"/>
       <c r="H40" s="169" t="s">
@@ -20898,11 +22646,11 @@
       <c r="K40" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L40" s="1099"/>
-      <c r="M40" s="1109"/>
+      <c r="L40" s="1054"/>
+      <c r="M40" s="1057"/>
     </row>
     <row r="41" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E41" s="1028" t="s">
+      <c r="E41" s="1063" t="s">
         <v>102</v>
       </c>
       <c r="F41" s="101"/>
@@ -20919,11 +22667,11 @@
       <c r="K41" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L41" s="1099"/>
-      <c r="M41" s="1109"/>
+      <c r="L41" s="1054"/>
+      <c r="M41" s="1057"/>
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E42" s="1029"/>
+      <c r="E42" s="1064"/>
       <c r="F42" s="72"/>
       <c r="G42" s="73"/>
       <c r="H42" s="74" t="s">
@@ -20936,11 +22684,11 @@
       <c r="K42" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L42" s="1099"/>
-      <c r="M42" s="1109"/>
+      <c r="L42" s="1054"/>
+      <c r="M42" s="1057"/>
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E43" s="1029"/>
+      <c r="E43" s="1064"/>
       <c r="F43" s="96"/>
       <c r="G43" s="97"/>
       <c r="H43" s="169" t="s">
@@ -20953,11 +22701,11 @@
       <c r="K43" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="1099"/>
-      <c r="M43" s="1109"/>
+      <c r="L43" s="1054"/>
+      <c r="M43" s="1057"/>
     </row>
     <row r="44" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E44" s="1030"/>
+      <c r="E44" s="1065"/>
       <c r="F44" s="104"/>
       <c r="G44" s="105"/>
       <c r="H44" s="170" t="s">
@@ -20970,11 +22718,11 @@
       <c r="K44" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L44" s="1099"/>
-      <c r="M44" s="1109"/>
+      <c r="L44" s="1054"/>
+      <c r="M44" s="1057"/>
     </row>
     <row r="45" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E45" s="1028" t="s">
+      <c r="E45" s="1063" t="s">
         <v>101</v>
       </c>
       <c r="F45" s="98"/>
@@ -20989,11 +22737,11 @@
       <c r="K45" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L45" s="1099"/>
-      <c r="M45" s="1109"/>
+      <c r="L45" s="1054"/>
+      <c r="M45" s="1057"/>
     </row>
     <row r="46" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E46" s="1034"/>
+      <c r="E46" s="1074"/>
       <c r="F46" s="72"/>
       <c r="G46" s="73"/>
       <c r="H46" s="74" t="s">
@@ -21006,11 +22754,11 @@
       <c r="K46" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L46" s="1099"/>
-      <c r="M46" s="1109"/>
+      <c r="L46" s="1054"/>
+      <c r="M46" s="1057"/>
     </row>
     <row r="47" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E47" s="1034"/>
+      <c r="E47" s="1074"/>
       <c r="F47" s="96"/>
       <c r="G47" s="97"/>
       <c r="H47" s="169" t="s">
@@ -21023,11 +22771,11 @@
       <c r="K47" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L47" s="1099"/>
-      <c r="M47" s="1109"/>
+      <c r="L47" s="1054"/>
+      <c r="M47" s="1057"/>
     </row>
     <row r="48" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E48" s="1035"/>
+      <c r="E48" s="1075"/>
       <c r="F48" s="104"/>
       <c r="G48" s="105"/>
       <c r="H48" s="170" t="s">
@@ -21040,11 +22788,11 @@
       <c r="K48" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L48" s="1099"/>
-      <c r="M48" s="1109"/>
+      <c r="L48" s="1054"/>
+      <c r="M48" s="1057"/>
     </row>
     <row r="49" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E49" s="1028" t="s">
+      <c r="E49" s="1063" t="s">
         <v>100</v>
       </c>
       <c r="F49" s="98"/>
@@ -21059,11 +22807,11 @@
       <c r="K49" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L49" s="1099"/>
-      <c r="M49" s="1109"/>
+      <c r="L49" s="1054"/>
+      <c r="M49" s="1057"/>
     </row>
     <row r="50" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E50" s="1029"/>
+      <c r="E50" s="1064"/>
       <c r="F50" s="72"/>
       <c r="G50" s="73"/>
       <c r="H50" s="74" t="s">
@@ -21072,17 +22820,17 @@
       <c r="I50" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="J50" s="973" t="s">
+      <c r="J50" s="998" t="s">
         <v>115</v>
       </c>
       <c r="K50" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="1099"/>
-      <c r="M50" s="1109"/>
+      <c r="L50" s="1054"/>
+      <c r="M50" s="1057"/>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E51" s="1029"/>
+      <c r="E51" s="1064"/>
       <c r="F51" s="72"/>
       <c r="G51" s="73"/>
       <c r="H51" s="74" t="s">
@@ -21091,15 +22839,15 @@
       <c r="I51" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="J51" s="974"/>
+      <c r="J51" s="999"/>
       <c r="K51" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L51" s="1099"/>
-      <c r="M51" s="1109"/>
+      <c r="L51" s="1054"/>
+      <c r="M51" s="1057"/>
     </row>
     <row r="52" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E52" s="1030"/>
+      <c r="E52" s="1065"/>
       <c r="F52" s="75" t="s">
         <v>64</v>
       </c>
@@ -21110,15 +22858,15 @@
       <c r="I52" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="J52" s="975"/>
-      <c r="K52" s="1086" t="s">
+      <c r="J52" s="1000"/>
+      <c r="K52" s="951" t="s">
         <v>32</v>
       </c>
-      <c r="L52" s="1099"/>
-      <c r="M52" s="1109"/>
+      <c r="L52" s="1054"/>
+      <c r="M52" s="1057"/>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E53" s="1028" t="s">
+      <c r="E53" s="1063" t="s">
         <v>99</v>
       </c>
       <c r="F53" s="83"/>
@@ -21133,11 +22881,11 @@
       <c r="K53" s="901" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="1099"/>
-      <c r="M53" s="1109"/>
+      <c r="L53" s="1054"/>
+      <c r="M53" s="1057"/>
     </row>
     <row r="54" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E54" s="1029"/>
+      <c r="E54" s="1064"/>
       <c r="F54" s="86"/>
       <c r="G54" s="87"/>
       <c r="H54" s="88" t="s">
@@ -21150,11 +22898,11 @@
       <c r="K54" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L54" s="1099"/>
-      <c r="M54" s="1109"/>
+      <c r="L54" s="1054"/>
+      <c r="M54" s="1057"/>
     </row>
     <row r="55" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E55" s="1029"/>
+      <c r="E55" s="1064"/>
       <c r="F55" s="86"/>
       <c r="G55" s="87"/>
       <c r="H55" s="88" t="s">
@@ -21167,11 +22915,11 @@
       <c r="K55" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L55" s="1099"/>
-      <c r="M55" s="1109"/>
+      <c r="L55" s="1054"/>
+      <c r="M55" s="1057"/>
     </row>
     <row r="56" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E56" s="1030"/>
+      <c r="E56" s="1065"/>
       <c r="F56" s="89" t="s">
         <v>54</v>
       </c>
@@ -21188,11 +22936,11 @@
       <c r="K56" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L56" s="1099"/>
-      <c r="M56" s="1109"/>
+      <c r="L56" s="1054"/>
+      <c r="M56" s="1057"/>
     </row>
     <row r="57" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E57" s="1028" t="s">
+      <c r="E57" s="1063" t="s">
         <v>98</v>
       </c>
       <c r="F57" s="52"/>
@@ -21207,11 +22955,11 @@
       <c r="K57" s="901" t="s">
         <v>33</v>
       </c>
-      <c r="L57" s="1099"/>
-      <c r="M57" s="1109"/>
+      <c r="L57" s="1054"/>
+      <c r="M57" s="1057"/>
     </row>
     <row r="58" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E58" s="1029"/>
+      <c r="E58" s="1064"/>
       <c r="F58" s="55"/>
       <c r="G58" s="56"/>
       <c r="H58" s="57" t="s">
@@ -21224,11 +22972,11 @@
       <c r="K58" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L58" s="1099"/>
-      <c r="M58" s="1109"/>
+      <c r="L58" s="1054"/>
+      <c r="M58" s="1057"/>
     </row>
     <row r="59" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E59" s="1029"/>
+      <c r="E59" s="1064"/>
       <c r="F59" s="55"/>
       <c r="G59" s="56"/>
       <c r="H59" s="57" t="s">
@@ -21241,11 +22989,11 @@
       <c r="K59" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L59" s="1099"/>
-      <c r="M59" s="1109"/>
+      <c r="L59" s="1054"/>
+      <c r="M59" s="1057"/>
     </row>
     <row r="60" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E60" s="1030"/>
+      <c r="E60" s="1065"/>
       <c r="F60" s="55"/>
       <c r="G60" s="56"/>
       <c r="H60" s="57" t="s">
@@ -21258,11 +23006,11 @@
       <c r="K60" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L60" s="1099"/>
-      <c r="M60" s="1109"/>
+      <c r="L60" s="1054"/>
+      <c r="M60" s="1057"/>
     </row>
     <row r="61" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E61" s="1028" t="s">
+      <c r="E61" s="1063" t="s">
         <v>97</v>
       </c>
       <c r="F61" s="55"/>
@@ -21277,11 +23025,11 @@
       <c r="K61" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L61" s="1099"/>
-      <c r="M61" s="1109"/>
+      <c r="L61" s="1054"/>
+      <c r="M61" s="1057"/>
     </row>
     <row r="62" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E62" s="1029"/>
+      <c r="E62" s="1064"/>
       <c r="F62" s="55"/>
       <c r="G62" s="56"/>
       <c r="H62" s="57" t="s">
@@ -21294,11 +23042,11 @@
       <c r="K62" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L62" s="1099"/>
-      <c r="M62" s="1109"/>
+      <c r="L62" s="1054"/>
+      <c r="M62" s="1057"/>
     </row>
     <row r="63" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E63" s="1029"/>
+      <c r="E63" s="1064"/>
       <c r="F63" s="55"/>
       <c r="G63" s="56"/>
       <c r="H63" s="57" t="s">
@@ -21311,11 +23059,11 @@
       <c r="K63" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L63" s="1099"/>
-      <c r="M63" s="1109"/>
+      <c r="L63" s="1054"/>
+      <c r="M63" s="1057"/>
     </row>
     <row r="64" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E64" s="1030"/>
+      <c r="E64" s="1065"/>
       <c r="F64" s="58" t="s">
         <v>36</v>
       </c>
@@ -21329,14 +23077,14 @@
         <v>45</v>
       </c>
       <c r="J64" s="134"/>
-      <c r="K64" s="1086" t="s">
+      <c r="K64" s="951" t="s">
         <v>32</v>
       </c>
-      <c r="L64" s="1100"/>
-      <c r="M64" s="1110"/>
+      <c r="L64" s="1055"/>
+      <c r="M64" s="1058"/>
     </row>
     <row r="65" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E65" s="1028" t="s">
+      <c r="E65" s="1063" t="s">
         <v>96</v>
       </c>
       <c r="F65" s="61"/>
@@ -21351,11 +23099,11 @@
       <c r="K65" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L65" s="1101"/>
-      <c r="M65" s="1107"/>
+      <c r="L65" s="952"/>
+      <c r="M65" s="955"/>
     </row>
     <row r="66" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E66" s="1029"/>
+      <c r="E66" s="1064"/>
       <c r="F66" s="64"/>
       <c r="G66" s="65"/>
       <c r="H66" s="66" t="s">
@@ -21368,11 +23116,11 @@
       <c r="K66" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L66" s="1101"/>
-      <c r="M66" s="1107"/>
+      <c r="L66" s="952"/>
+      <c r="M66" s="955"/>
     </row>
     <row r="67" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E67" s="1029"/>
+      <c r="E67" s="1064"/>
       <c r="F67" s="64"/>
       <c r="G67" s="65"/>
       <c r="H67" s="66" t="s">
@@ -21385,11 +23133,11 @@
       <c r="K67" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L67" s="1101"/>
-      <c r="M67" s="1107"/>
+      <c r="L67" s="952"/>
+      <c r="M67" s="955"/>
     </row>
     <row r="68" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="1036"/>
+      <c r="E68" s="1073"/>
       <c r="F68" s="469" t="s">
         <v>25</v>
       </c>
@@ -21402,16 +23150,18 @@
       <c r="I68" s="454" t="s">
         <v>27</v>
       </c>
-      <c r="J68" s="1111"/>
-      <c r="K68" s="1112" t="s">
+      <c r="J68" s="956"/>
+      <c r="K68" s="957" t="s">
         <v>32</v>
       </c>
-      <c r="L68" s="1113"/>
-      <c r="M68" s="1114"/>
+      <c r="L68" s="958"/>
+      <c r="M68" s="959"/>
     </row>
     <row r="69" spans="5:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="J50:J52"/>
     <mergeCell ref="E65:E68"/>
     <mergeCell ref="E29:E32"/>
     <mergeCell ref="E33:E36"/>
@@ -21419,9 +23169,6 @@
     <mergeCell ref="E41:E44"/>
     <mergeCell ref="E45:E48"/>
     <mergeCell ref="E49:E52"/>
-    <mergeCell ref="M37:M64"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="E53:E56"/>
     <mergeCell ref="E57:E60"/>
     <mergeCell ref="E61:E64"/>
@@ -21431,13 +23178,14 @@
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="E25:E28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="J50:J52"/>
     <mergeCell ref="L5:L20"/>
     <mergeCell ref="L29:L36"/>
     <mergeCell ref="L37:L64"/>
+    <mergeCell ref="M37:M64"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L21:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21464,13 +23212,13 @@
       <c r="C4" s="466" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="1038" t="s">
+      <c r="D4" s="1071" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="1039"/>
-      <c r="F4" s="1039"/>
-      <c r="G4" s="1039"/>
-      <c r="H4" s="1039"/>
+      <c r="E4" s="1072"/>
+      <c r="F4" s="1072"/>
+      <c r="G4" s="1072"/>
+      <c r="H4" s="1072"/>
       <c r="I4" s="482"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21497,7 +23245,7 @@
       </c>
     </row>
     <row r="6" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="1040" t="s">
+      <c r="C6" s="1085" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="473"/>
@@ -21509,12 +23257,12 @@
       <c r="H6" s="480" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1023" t="s">
+      <c r="I6" s="1076" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="1029"/>
+      <c r="C7" s="1064"/>
       <c r="D7" s="434"/>
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
@@ -21522,10 +23270,10 @@
       <c r="H7" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="1024"/>
+      <c r="I7" s="1077"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="1029"/>
+      <c r="C8" s="1064"/>
       <c r="D8" s="434"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
@@ -21533,10 +23281,10 @@
       <c r="H8" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="1024"/>
+      <c r="I8" s="1077"/>
     </row>
     <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="1030"/>
+      <c r="C9" s="1065"/>
       <c r="D9" s="435" t="s">
         <v>73</v>
       </c>
@@ -21550,10 +23298,10 @@
       <c r="H9" s="468" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="1025"/>
+      <c r="I9" s="1078"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="1028" t="s">
+      <c r="C10" s="1063" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="478"/>
@@ -21565,12 +23313,12 @@
       <c r="H10" s="493" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="1026" t="s">
+      <c r="I10" s="1079" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1029"/>
+      <c r="C11" s="1064"/>
       <c r="D11" s="72"/>
       <c r="E11" s="73"/>
       <c r="F11" s="65"/>
@@ -21578,10 +23326,10 @@
       <c r="H11" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="1026"/>
+      <c r="I11" s="1079"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1029"/>
+      <c r="C12" s="1064"/>
       <c r="D12" s="72"/>
       <c r="E12" s="73"/>
       <c r="F12" s="65"/>
@@ -21589,10 +23337,10 @@
       <c r="H12" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="1026"/>
+      <c r="I12" s="1079"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="1030"/>
+      <c r="C13" s="1065"/>
       <c r="D13" s="96"/>
       <c r="E13" s="97"/>
       <c r="F13" s="82" t="s">
@@ -21602,10 +23350,10 @@
       <c r="H13" s="491" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="1026"/>
+      <c r="I13" s="1079"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1028" t="s">
+      <c r="C14" s="1063" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="101"/>
@@ -21617,10 +23365,10 @@
       <c r="H14" s="495" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="1026"/>
+      <c r="I14" s="1079"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1029"/>
+      <c r="C15" s="1064"/>
       <c r="D15" s="72"/>
       <c r="E15" s="73"/>
       <c r="F15" s="65"/>
@@ -21628,10 +23376,10 @@
       <c r="H15" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="1026"/>
+      <c r="I15" s="1079"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1029"/>
+      <c r="C16" s="1064"/>
       <c r="D16" s="96"/>
       <c r="E16" s="97"/>
       <c r="F16" s="65"/>
@@ -21639,10 +23387,10 @@
       <c r="H16" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="1026"/>
+      <c r="I16" s="1079"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="1030"/>
+      <c r="C17" s="1065"/>
       <c r="D17" s="104"/>
       <c r="E17" s="105"/>
       <c r="F17" s="113" t="s">
@@ -21652,10 +23400,10 @@
       <c r="H17" s="491" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="1026"/>
+      <c r="I17" s="1079"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="1028" t="s">
+      <c r="C18" s="1063" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="98"/>
@@ -21667,10 +23415,10 @@
       <c r="H18" s="495" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="1026"/>
+      <c r="I18" s="1079"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="1029"/>
+      <c r="C19" s="1064"/>
       <c r="D19" s="72"/>
       <c r="E19" s="73"/>
       <c r="F19" s="65"/>
@@ -21678,10 +23426,10 @@
       <c r="H19" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="1026"/>
+      <c r="I19" s="1079"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="1029"/>
+      <c r="C20" s="1064"/>
       <c r="D20" s="96"/>
       <c r="E20" s="97"/>
       <c r="F20" s="65"/>
@@ -21689,10 +23437,10 @@
       <c r="H20" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="1026"/>
+      <c r="I20" s="1079"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="1030"/>
+      <c r="C21" s="1065"/>
       <c r="D21" s="104"/>
       <c r="E21" s="105"/>
       <c r="F21" s="82" t="s">
@@ -21702,10 +23450,10 @@
       <c r="H21" s="496" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="1026"/>
+      <c r="I21" s="1079"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="1028" t="s">
+      <c r="C22" s="1063" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="98"/>
@@ -21717,10 +23465,10 @@
       <c r="H22" s="494" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="1026"/>
+      <c r="I22" s="1079"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="1029"/>
+      <c r="C23" s="1064"/>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
       <c r="F23" s="65"/>
@@ -21728,10 +23476,10 @@
       <c r="H23" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="1026"/>
+      <c r="I23" s="1079"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="1029"/>
+      <c r="C24" s="1064"/>
       <c r="D24" s="72"/>
       <c r="E24" s="73"/>
       <c r="F24" s="81"/>
@@ -21739,10 +23487,10 @@
       <c r="H24" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="1026"/>
+      <c r="I24" s="1079"/>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="1030"/>
+      <c r="C25" s="1065"/>
       <c r="D25" s="96" t="s">
         <v>64</v>
       </c>
@@ -21756,10 +23504,10 @@
       <c r="H25" s="491" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="1027"/>
+      <c r="I25" s="1080"/>
     </row>
     <row r="26" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="1028" t="s">
+      <c r="C26" s="1063" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="474" t="s">
@@ -21782,7 +23530,7 @@
       </c>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1029"/>
+      <c r="C27" s="1064"/>
       <c r="D27" s="438"/>
       <c r="E27" s="273"/>
       <c r="F27" s="62"/>
@@ -21792,12 +23540,12 @@
       <c r="H27" s="467" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="1031" t="s">
+      <c r="I27" s="1081" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="28" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="1029"/>
+      <c r="C28" s="1064"/>
       <c r="D28" s="436"/>
       <c r="E28" s="437"/>
       <c r="F28" s="81"/>
@@ -21805,10 +23553,10 @@
       <c r="H28" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="1024"/>
+      <c r="I28" s="1077"/>
     </row>
     <row r="29" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="1030"/>
+      <c r="C29" s="1065"/>
       <c r="D29" s="436"/>
       <c r="E29" s="437"/>
       <c r="F29" s="82" t="s">
@@ -21818,7 +23566,7 @@
       <c r="H29" s="468" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="1032"/>
+      <c r="I29" s="1082"/>
       <c r="J29" s="487" t="s">
         <v>84</v>
       </c>
@@ -21839,7 +23587,7 @@
       </c>
     </row>
     <row r="30" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1028" t="s">
+      <c r="C30" s="1063" t="s">
         <v>105</v>
       </c>
       <c r="D30" s="439"/>
@@ -21862,12 +23610,12 @@
       <c r="N30" s="452" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="1023" t="s">
+      <c r="O30" s="1076" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="1029"/>
+      <c r="C31" s="1064"/>
       <c r="D31" s="64"/>
       <c r="E31" s="65"/>
       <c r="F31" s="65"/>
@@ -21886,10 +23634,10 @@
       <c r="N31" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="1024"/>
+      <c r="O31" s="1077"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="1029"/>
+      <c r="C32" s="1064"/>
       <c r="D32" s="64"/>
       <c r="E32" s="65"/>
       <c r="F32" s="65"/>
@@ -21908,10 +23656,10 @@
       <c r="N32" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="1024"/>
+      <c r="O32" s="1077"/>
     </row>
     <row r="33" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="1030"/>
+      <c r="C33" s="1065"/>
       <c r="D33" s="442" t="s">
         <v>73</v>
       </c>
@@ -21936,10 +23684,10 @@
       <c r="N33" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="1024"/>
+      <c r="O33" s="1077"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="1028" t="s">
+      <c r="C34" s="1063" t="s">
         <v>104</v>
       </c>
       <c r="D34" s="61"/>
@@ -21962,10 +23710,10 @@
       <c r="N34" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="1024"/>
+      <c r="O34" s="1077"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="1029"/>
+      <c r="C35" s="1064"/>
       <c r="D35" s="64"/>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
@@ -21984,10 +23732,10 @@
       <c r="N35" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="1024"/>
+      <c r="O35" s="1077"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="1029"/>
+      <c r="C36" s="1064"/>
       <c r="D36" s="64"/>
       <c r="E36" s="65"/>
       <c r="F36" s="65"/>
@@ -22006,10 +23754,10 @@
       <c r="N36" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="1024"/>
+      <c r="O36" s="1077"/>
     </row>
     <row r="37" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="1030"/>
+      <c r="C37" s="1065"/>
       <c r="D37" s="80" t="s">
         <v>73</v>
       </c>
@@ -22038,10 +23786,10 @@
       <c r="N37" s="448" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="1032"/>
+      <c r="O37" s="1082"/>
     </row>
     <row r="38" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="1028" t="s">
+      <c r="C38" s="1063" t="s">
         <v>103</v>
       </c>
       <c r="D38" s="439"/>
@@ -22057,7 +23805,7 @@
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="1029"/>
+      <c r="C39" s="1064"/>
       <c r="D39" s="64"/>
       <c r="E39" s="65"/>
       <c r="F39" s="66" t="s">
@@ -22071,7 +23819,7 @@
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="1029"/>
+      <c r="C40" s="1064"/>
       <c r="D40" s="64"/>
       <c r="E40" s="65"/>
       <c r="F40" s="66" t="s">
@@ -22085,7 +23833,7 @@
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="1030"/>
+      <c r="C41" s="1065"/>
       <c r="D41" s="108"/>
       <c r="E41" s="109"/>
       <c r="F41" s="82" t="s">
@@ -22099,7 +23847,7 @@
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="1028" t="s">
+      <c r="C42" s="1063" t="s">
         <v>102</v>
       </c>
       <c r="D42" s="61"/>
@@ -22115,7 +23863,7 @@
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="1029"/>
+      <c r="C43" s="1064"/>
       <c r="D43" s="64"/>
       <c r="E43" s="65"/>
       <c r="F43" s="66" t="s">
@@ -22129,7 +23877,7 @@
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="1029"/>
+      <c r="C44" s="1064"/>
       <c r="D44" s="64"/>
       <c r="E44" s="65"/>
       <c r="F44" s="82" t="s">
@@ -22143,7 +23891,7 @@
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="1030"/>
+      <c r="C45" s="1065"/>
       <c r="D45" s="80"/>
       <c r="E45" s="81"/>
       <c r="F45" s="113" t="s">
@@ -22157,7 +23905,7 @@
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="1028" t="s">
+      <c r="C46" s="1063" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="106"/>
@@ -22173,7 +23921,7 @@
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="1034"/>
+      <c r="C47" s="1074"/>
       <c r="D47" s="64"/>
       <c r="E47" s="65"/>
       <c r="F47" s="66" t="s">
@@ -22187,7 +23935,7 @@
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="1034"/>
+      <c r="C48" s="1074"/>
       <c r="D48" s="64"/>
       <c r="E48" s="65"/>
       <c r="F48" s="82" t="s">
@@ -22201,7 +23949,7 @@
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="1035"/>
+      <c r="C49" s="1075"/>
       <c r="D49" s="108"/>
       <c r="E49" s="109"/>
       <c r="F49" s="113" t="s">
@@ -22215,7 +23963,7 @@
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="1028" t="s">
+      <c r="C50" s="1063" t="s">
         <v>100</v>
       </c>
       <c r="D50" s="61"/>
@@ -22231,7 +23979,7 @@
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="1029"/>
+      <c r="C51" s="1064"/>
       <c r="D51" s="64"/>
       <c r="E51" s="65"/>
       <c r="F51" s="66" t="s">
@@ -22245,7 +23993,7 @@
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="1029"/>
+      <c r="C52" s="1064"/>
       <c r="D52" s="64"/>
       <c r="E52" s="65"/>
       <c r="F52" s="66" t="s">
@@ -22259,7 +24007,7 @@
       </c>
     </row>
     <row r="53" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="1030"/>
+      <c r="C53" s="1065"/>
       <c r="D53" s="442" t="s">
         <v>73</v>
       </c>
@@ -22277,7 +24025,7 @@
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="1028" t="s">
+      <c r="C54" s="1063" t="s">
         <v>99</v>
       </c>
       <c r="D54" s="61"/>
@@ -22293,7 +24041,7 @@
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="1029"/>
+      <c r="C55" s="1064"/>
       <c r="D55" s="64"/>
       <c r="E55" s="65"/>
       <c r="F55" s="66" t="s">
@@ -22307,7 +24055,7 @@
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="1029"/>
+      <c r="C56" s="1064"/>
       <c r="D56" s="80"/>
       <c r="E56" s="81"/>
       <c r="F56" s="66" t="s">
@@ -22321,7 +24069,7 @@
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="1030"/>
+      <c r="C57" s="1065"/>
       <c r="D57" s="108"/>
       <c r="E57" s="109"/>
       <c r="F57" s="82" t="s">
@@ -22335,7 +24083,7 @@
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="1028" t="s">
+      <c r="C58" s="1063" t="s">
         <v>98</v>
       </c>
       <c r="D58" s="61"/>
@@ -22351,7 +24099,7 @@
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="1029"/>
+      <c r="C59" s="1064"/>
       <c r="D59" s="64"/>
       <c r="E59" s="65"/>
       <c r="F59" s="66" t="s">
@@ -22365,7 +24113,7 @@
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="1029"/>
+      <c r="C60" s="1064"/>
       <c r="D60" s="80"/>
       <c r="E60" s="81"/>
       <c r="F60" s="66" t="s">
@@ -22379,7 +24127,7 @@
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="1030"/>
+      <c r="C61" s="1065"/>
       <c r="D61" s="80"/>
       <c r="E61" s="81"/>
       <c r="F61" s="82" t="s">
@@ -22393,7 +24141,7 @@
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="1028" t="s">
+      <c r="C62" s="1063" t="s">
         <v>97</v>
       </c>
       <c r="D62" s="106"/>
@@ -22409,7 +24157,7 @@
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="1029"/>
+      <c r="C63" s="1064"/>
       <c r="D63" s="64"/>
       <c r="E63" s="65"/>
       <c r="F63" s="66" t="s">
@@ -22423,7 +24171,7 @@
       </c>
     </row>
     <row r="64" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="1029"/>
+      <c r="C64" s="1064"/>
       <c r="D64" s="64"/>
       <c r="E64" s="65"/>
       <c r="F64" s="66" t="s">
@@ -22437,7 +24185,7 @@
       </c>
     </row>
     <row r="65" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="1030"/>
+      <c r="C65" s="1065"/>
       <c r="D65" s="110"/>
       <c r="E65" s="109"/>
       <c r="F65" s="113" t="s">
@@ -22469,7 +24217,7 @@
       </c>
     </row>
     <row r="66" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="1028" t="s">
+      <c r="C66" s="1063" t="s">
         <v>96</v>
       </c>
       <c r="D66" s="61"/>
@@ -22483,7 +24231,7 @@
       <c r="H66" s="467" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="1037"/>
+      <c r="I66" s="1084"/>
       <c r="J66" s="463"/>
       <c r="K66" s="464"/>
       <c r="L66" s="453" t="s">
@@ -22495,12 +24243,12 @@
       <c r="N66" s="465" t="s">
         <v>33</v>
       </c>
-      <c r="O66" s="1033" t="s">
+      <c r="O66" s="1083" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C67" s="1029"/>
+      <c r="C67" s="1064"/>
       <c r="D67" s="64"/>
       <c r="E67" s="65"/>
       <c r="F67" s="66" t="s">
@@ -22512,7 +24260,7 @@
       <c r="H67" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="1037"/>
+      <c r="I67" s="1084"/>
       <c r="J67" s="455"/>
       <c r="K67" s="65"/>
       <c r="L67" s="66" t="s">
@@ -22524,10 +24272,10 @@
       <c r="N67" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="O67" s="1026"/>
+      <c r="O67" s="1079"/>
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C68" s="1029"/>
+      <c r="C68" s="1064"/>
       <c r="D68" s="64"/>
       <c r="E68" s="65"/>
       <c r="F68" s="66" t="s">
@@ -22539,7 +24287,7 @@
       <c r="H68" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="1037"/>
+      <c r="I68" s="1084"/>
       <c r="J68" s="455"/>
       <c r="K68" s="65"/>
       <c r="L68" s="66" t="s">
@@ -22551,10 +24299,10 @@
       <c r="N68" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="O68" s="1026"/>
+      <c r="O68" s="1079"/>
     </row>
     <row r="69" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="1036"/>
+      <c r="C69" s="1073"/>
       <c r="D69" s="469" t="s">
         <v>73</v>
       </c>
@@ -22570,7 +24318,7 @@
       <c r="H69" s="448" t="s">
         <v>33</v>
       </c>
-      <c r="I69" s="1037"/>
+      <c r="I69" s="1084"/>
       <c r="J69" s="456" t="s">
         <v>25</v>
       </c>
@@ -22586,7 +24334,7 @@
       <c r="N69" s="462" t="s">
         <v>32</v>
       </c>
-      <c r="O69" s="1027"/>
+      <c r="O69" s="1080"/>
     </row>
     <row r="70" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -22621,6 +24369,375 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4667B6-6D90-4883-8449-AF12DF631803}">
+  <dimension ref="B2:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="397" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G2" s="397" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="173" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="960" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E4" s="173" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G4" s="968" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H4" s="950" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I4" s="969" t="s">
+        <v>971</v>
+      </c>
+      <c r="J4" s="949" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="961" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G5" s="144"/>
+      <c r="H5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I5" s="173" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="145" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1497</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="173" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C6" s="962" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G6" s="144"/>
+      <c r="H6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I6" s="173" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="145" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="173" t="s">
+        <v>853</v>
+      </c>
+      <c r="C7" s="965" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E7" s="173" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G7" s="144"/>
+      <c r="H7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I7" s="173" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="145" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="962"/>
+      <c r="E8" s="173" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G8" s="144" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J8" s="145"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="963" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G9" s="144"/>
+      <c r="H9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I9" s="173" t="s">
+        <v>970</v>
+      </c>
+      <c r="J9" s="145" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="962"/>
+      <c r="E10" s="173" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G10" s="144"/>
+      <c r="H10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I10" s="173" t="s">
+        <v>970</v>
+      </c>
+      <c r="J10" s="145" t="s">
+        <v>1492</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1505</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="966" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E11" s="173" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G11" s="144"/>
+      <c r="H11" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I11" s="173" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J11" s="145" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1509</v>
+      </c>
+      <c r="L11" s="173" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="173" t="s">
+        <v>876</v>
+      </c>
+      <c r="C12" s="962" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G12" s="144"/>
+      <c r="H12" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I12" s="173" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="145"/>
+      <c r="K12" t="s">
+        <v>1510</v>
+      </c>
+      <c r="L12" s="173" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="962"/>
+      <c r="E13" s="173" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G13" s="144"/>
+      <c r="H13" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I13" s="173" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="145" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="963"/>
+      <c r="G14" s="970"/>
+      <c r="H14" s="971" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I14" s="972" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="973" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1512</v>
+      </c>
+      <c r="L14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="962"/>
+      <c r="E15" s="173" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="963"/>
+      <c r="D16" t="s">
+        <v>878</v>
+      </c>
+      <c r="E16" s="173" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K16" s="173" t="s">
+        <v>1519</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="963"/>
+      <c r="E17" s="173" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="967" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="963"/>
+      <c r="E19" s="173" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="963"/>
+      <c r="E20" s="173" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="173"/>
+      <c r="C21" s="963"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="963"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="963"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="963"/>
+      <c r="E24" s="173" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="962"/>
+      <c r="E25" s="173" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="962"/>
+      <c r="E26" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="962"/>
+      <c r="E27" s="173" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C28" s="964" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCF7363-61E7-433B-9A81-B20290178B03}">
   <dimension ref="C2:L89"/>
   <sheetViews>
@@ -24032,7 +26149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A436CB-B0DA-4590-BD2D-E9CB7D4C10FD}">
   <dimension ref="B1:E46"/>
   <sheetViews>
@@ -24054,16 +26171,16 @@
     <row r="2" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="504"/>
       <c r="C2" s="505"/>
-      <c r="D2" s="1041" t="s">
+      <c r="D2" s="1086" t="s">
         <v>819</v>
       </c>
-      <c r="E2" s="1042"/>
+      <c r="E2" s="1087"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1043" t="s">
+      <c r="B3" s="1088" t="s">
         <v>816</v>
       </c>
-      <c r="C3" s="1044"/>
+      <c r="C3" s="1089"/>
       <c r="D3" s="506" t="s">
         <v>821</v>
       </c>
@@ -24424,7 +26541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0731475D-AB58-41D2-BD1B-6AE5CD589798}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -24448,7 +26565,7 @@
       <c r="B3" s="501" t="s">
         <v>838</v>
       </c>
-      <c r="C3" s="1047" t="s">
+      <c r="C3" s="1092" t="s">
         <v>851</v>
       </c>
     </row>
@@ -24456,13 +26573,13 @@
       <c r="B4" s="502" t="s">
         <v>839</v>
       </c>
-      <c r="C4" s="1048"/>
+      <c r="C4" s="1093"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" s="502" t="s">
         <v>840</v>
       </c>
-      <c r="C5" s="1048"/>
+      <c r="C5" s="1093"/>
       <c r="H5" s="517" t="s">
         <v>196</v>
       </c>
@@ -24517,7 +26634,7 @@
       <c r="B6" s="502" t="s">
         <v>841</v>
       </c>
-      <c r="C6" s="1048"/>
+      <c r="C6" s="1093"/>
       <c r="H6" s="516"/>
       <c r="I6" s="518" t="s">
         <v>881</v>
@@ -24574,7 +26691,7 @@
       <c r="B7" s="502" t="s">
         <v>842</v>
       </c>
-      <c r="C7" s="1048"/>
+      <c r="C7" s="1093"/>
       <c r="H7" s="516"/>
       <c r="I7" s="516"/>
       <c r="J7" s="518" t="s">
@@ -24631,7 +26748,7 @@
       <c r="B8" s="502" t="s">
         <v>852</v>
       </c>
-      <c r="C8" s="1048"/>
+      <c r="C8" s="1093"/>
       <c r="H8" s="516"/>
       <c r="I8" s="517" t="s">
         <v>216</v>
@@ -24686,13 +26803,13 @@
       <c r="B9" s="502" t="s">
         <v>843</v>
       </c>
-      <c r="C9" s="1048"/>
+      <c r="C9" s="1093"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" s="502" t="s">
         <v>844</v>
       </c>
-      <c r="C10" s="1048"/>
+      <c r="C10" s="1093"/>
       <c r="H10" s="519" t="s">
         <v>97</v>
       </c>
@@ -24747,7 +26864,7 @@
       <c r="B11" s="502" t="s">
         <v>845</v>
       </c>
-      <c r="C11" s="1048"/>
+      <c r="C11" s="1093"/>
       <c r="H11" s="516"/>
       <c r="I11" s="518" t="s">
         <v>862</v>
@@ -24855,7 +26972,7 @@
       <c r="B13" s="502" t="s">
         <v>846</v>
       </c>
-      <c r="C13" s="1049" t="s">
+      <c r="C13" s="1094" t="s">
         <v>850</v>
       </c>
       <c r="H13" s="516"/>
@@ -24912,19 +27029,19 @@
       <c r="B14" s="502" t="s">
         <v>847</v>
       </c>
-      <c r="C14" s="1050"/>
+      <c r="C14" s="1095"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" s="502" t="s">
         <v>848</v>
       </c>
-      <c r="C15" s="1050"/>
+      <c r="C15" s="1095"/>
     </row>
     <row r="16" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="503" t="s">
         <v>849</v>
       </c>
-      <c r="C16" s="1051"/>
+      <c r="C16" s="1096"/>
     </row>
     <row r="17" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="737"/>
@@ -27192,28 +29309,28 @@
       <c r="BJ43" s="794"/>
     </row>
     <row r="44" spans="5:62" x14ac:dyDescent="0.25">
-      <c r="E44" s="1045" t="s">
+      <c r="E44" s="1090" t="s">
         <v>1166</v>
       </c>
-      <c r="F44" s="1046"/>
-      <c r="G44" s="1046"/>
-      <c r="H44" s="1046"/>
-      <c r="I44" s="1046"/>
-      <c r="J44" s="1046"/>
-      <c r="K44" s="1046"/>
-      <c r="L44" s="1046"/>
+      <c r="F44" s="1091"/>
+      <c r="G44" s="1091"/>
+      <c r="H44" s="1091"/>
+      <c r="I44" s="1091"/>
+      <c r="J44" s="1091"/>
+      <c r="K44" s="1091"/>
+      <c r="L44" s="1091"/>
       <c r="M44" s="397"/>
       <c r="N44" s="397"/>
-      <c r="O44" s="1045" t="s">
+      <c r="O44" s="1090" t="s">
         <v>1167</v>
       </c>
-      <c r="P44" s="1046"/>
-      <c r="Q44" s="1046"/>
-      <c r="R44" s="1046"/>
-      <c r="S44" s="1046"/>
-      <c r="T44" s="1046"/>
-      <c r="U44" s="1046"/>
-      <c r="V44" s="1046"/>
+      <c r="P44" s="1091"/>
+      <c r="Q44" s="1091"/>
+      <c r="R44" s="1091"/>
+      <c r="S44" s="1091"/>
+      <c r="T44" s="1091"/>
+      <c r="U44" s="1091"/>
+      <c r="V44" s="1091"/>
       <c r="Y44" s="397"/>
       <c r="Z44" s="818"/>
       <c r="AA44" s="818"/>
@@ -27589,7 +29706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E0C934-BD7B-4AC9-84C6-818AD6535062}">
   <dimension ref="C1:J49"/>
   <sheetViews>
@@ -27929,1522 +30046,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B65578-EE9C-4070-ADA1-057A5CA694AC}">
-  <dimension ref="A1:L67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="202"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1052" t="s">
-        <v>618</v>
-      </c>
-      <c r="C1" s="1053"/>
-      <c r="D1" s="330" t="s">
-        <v>627</v>
-      </c>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="335"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="140" t="s">
-        <v>619</v>
-      </c>
-      <c r="C2" s="141" t="s">
-        <v>620</v>
-      </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="342" t="s">
-        <v>653</v>
-      </c>
-      <c r="F2" s="342" t="s">
-        <v>659</v>
-      </c>
-      <c r="G2" s="342" t="s">
-        <v>661</v>
-      </c>
-      <c r="H2" s="322" t="s">
-        <v>498</v>
-      </c>
-      <c r="I2" s="322" t="s">
-        <v>498</v>
-      </c>
-      <c r="J2" s="322" t="s">
-        <v>638</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="339" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="323" t="s">
-        <v>637</v>
-      </c>
-      <c r="B3" s="324">
-        <v>0</v>
-      </c>
-      <c r="C3" s="327" t="s">
-        <v>562</v>
-      </c>
-      <c r="D3" s="331" t="s">
-        <v>625</v>
-      </c>
-      <c r="E3" s="340"/>
-      <c r="F3" s="340"/>
-      <c r="G3" s="340"/>
-      <c r="H3" s="27" t="s">
-        <v>907</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="336" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="325">
-        <v>2</v>
-      </c>
-      <c r="C4" s="328" t="s">
-        <v>383</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
-        <v>908</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="337"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="325">
-        <v>4</v>
-      </c>
-      <c r="C5" s="328" t="s">
-        <v>566</v>
-      </c>
-      <c r="D5" s="791" t="s">
-        <v>916</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17" t="s">
-        <v>916</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="337"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="325">
-        <v>6</v>
-      </c>
-      <c r="C6" s="328" t="s">
-        <v>565</v>
-      </c>
-      <c r="D6" s="332" t="s">
-        <v>628</v>
-      </c>
-      <c r="E6" s="341" t="s">
-        <v>628</v>
-      </c>
-      <c r="F6" s="341"/>
-      <c r="G6" s="341"/>
-      <c r="H6" s="17" t="s">
-        <v>917</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="309" t="s">
-        <v>641</v>
-      </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="337"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="325">
-        <v>8</v>
-      </c>
-      <c r="C7" s="328" t="s">
-        <v>384</v>
-      </c>
-      <c r="D7" s="332" t="s">
-        <v>630</v>
-      </c>
-      <c r="E7" s="341" t="s">
-        <v>630</v>
-      </c>
-      <c r="F7" s="341"/>
-      <c r="G7" s="341"/>
-      <c r="H7" s="17" t="s">
-        <v>918</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="309" t="s">
-        <v>644</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="337"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="325">
-        <v>10</v>
-      </c>
-      <c r="C8" s="328" t="s">
-        <v>567</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="s">
-        <v>919</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="337"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="325">
-        <v>12</v>
-      </c>
-      <c r="C9" s="328" t="s">
-        <v>568</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="337"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="12">
-        <v>14</v>
-      </c>
-      <c r="C10" s="684" t="s">
-        <v>569</v>
-      </c>
-      <c r="D10" s="788" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E10" s="686"/>
-      <c r="F10" s="686"/>
-      <c r="G10" s="686"/>
-      <c r="H10" s="687"/>
-      <c r="I10" s="687"/>
-      <c r="J10" s="687"/>
-      <c r="K10" s="688"/>
-      <c r="L10" s="689"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="691">
-        <v>16</v>
-      </c>
-      <c r="C11" s="692" t="s">
-        <v>362</v>
-      </c>
-      <c r="D11" s="693" t="s">
-        <v>626</v>
-      </c>
-      <c r="E11" s="694"/>
-      <c r="F11" s="786" t="s">
-        <v>663</v>
-      </c>
-      <c r="G11" s="694"/>
-      <c r="H11" s="695" t="s">
-        <v>909</v>
-      </c>
-      <c r="I11" s="695"/>
-      <c r="J11" s="695"/>
-      <c r="K11" s="696"/>
-      <c r="L11" s="697" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="325">
-        <v>18</v>
-      </c>
-      <c r="C12" s="328" t="s">
-        <v>366</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17" t="s">
-        <v>921</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="337"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="325">
-        <v>20</v>
-      </c>
-      <c r="C13" s="328" t="s">
-        <v>370</v>
-      </c>
-      <c r="D13" s="791" t="s">
-        <v>922</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17" t="s">
-        <v>922</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="337"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="325">
-        <v>22</v>
-      </c>
-      <c r="C14" s="328" t="s">
-        <v>374</v>
-      </c>
-      <c r="D14" s="332" t="s">
-        <v>629</v>
-      </c>
-      <c r="E14" s="341" t="s">
-        <v>629</v>
-      </c>
-      <c r="F14" s="341"/>
-      <c r="G14" s="341"/>
-      <c r="H14" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="309" t="s">
-        <v>642</v>
-      </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="337"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="325">
-        <v>24</v>
-      </c>
-      <c r="C15" s="328" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="332" t="s">
-        <v>631</v>
-      </c>
-      <c r="E15" s="341" t="s">
-        <v>631</v>
-      </c>
-      <c r="F15" s="341"/>
-      <c r="G15" s="341"/>
-      <c r="H15" s="17" t="s">
-        <v>924</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="309" t="s">
-        <v>643</v>
-      </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="337"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="325">
-        <v>26</v>
-      </c>
-      <c r="C16" s="328" t="s">
-        <v>570</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17" t="s">
-        <v>925</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="337"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="325">
-        <v>28</v>
-      </c>
-      <c r="C17" s="328" t="s">
-        <v>572</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17" t="s">
-        <v>926</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="337"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="698">
-        <v>30</v>
-      </c>
-      <c r="C18" s="699" t="s">
-        <v>571</v>
-      </c>
-      <c r="D18" s="790" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E18" s="700"/>
-      <c r="F18" s="700"/>
-      <c r="G18" s="700"/>
-      <c r="H18" s="701"/>
-      <c r="I18" s="701"/>
-      <c r="J18" s="701"/>
-      <c r="K18" s="702"/>
-      <c r="L18" s="703"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="324">
-        <v>32</v>
-      </c>
-      <c r="C19" s="327" t="s">
-        <v>573</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26" t="s">
-        <v>660</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27" t="s">
-        <v>910</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="690" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="325">
-        <v>34</v>
-      </c>
-      <c r="C20" s="328" t="s">
-        <v>574</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17" t="s">
-        <v>927</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="337"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="325">
-        <v>36</v>
-      </c>
-      <c r="C21" s="328" t="s">
-        <v>575</v>
-      </c>
-      <c r="D21" s="332" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="341"/>
-      <c r="F21" s="343"/>
-      <c r="G21" s="341"/>
-      <c r="H21" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="309" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="337"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="325">
-        <v>38</v>
-      </c>
-      <c r="C22" s="328" t="s">
-        <v>576</v>
-      </c>
-      <c r="D22" s="791" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17" t="s">
-        <v>928</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="309" t="s">
-        <v>639</v>
-      </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="337"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="325">
-        <v>40</v>
-      </c>
-      <c r="C23" s="328" t="s">
-        <v>577</v>
-      </c>
-      <c r="D23" s="793" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E23" s="341"/>
-      <c r="F23" s="341"/>
-      <c r="G23" s="341"/>
-      <c r="H23" s="787" t="s">
-        <v>632</v>
-      </c>
-      <c r="I23" s="309" t="s">
-        <v>931</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="337"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="325">
-        <v>42</v>
-      </c>
-      <c r="C24" s="328" t="s">
-        <v>578</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17" t="s">
-        <v>929</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="337"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="325">
-        <v>44</v>
-      </c>
-      <c r="C25" s="328" t="s">
-        <v>579</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17" t="s">
-        <v>930</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="337"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="12">
-        <v>46</v>
-      </c>
-      <c r="C26" s="684" t="s">
-        <v>580</v>
-      </c>
-      <c r="D26" s="788" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E26" s="686"/>
-      <c r="F26" s="686"/>
-      <c r="G26" s="686"/>
-      <c r="H26" s="687"/>
-      <c r="I26" s="687"/>
-      <c r="J26" s="687"/>
-      <c r="K26" s="688"/>
-      <c r="L26" s="689"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="691">
-        <v>48</v>
-      </c>
-      <c r="C27" s="692" t="s">
-        <v>581</v>
-      </c>
-      <c r="D27" s="704" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E27" s="705"/>
-      <c r="F27" s="705" t="s">
-        <v>526</v>
-      </c>
-      <c r="G27" s="705"/>
-      <c r="H27" s="695" t="s">
-        <v>911</v>
-      </c>
-      <c r="I27" s="695"/>
-      <c r="J27" s="695"/>
-      <c r="K27" s="696"/>
-      <c r="L27" s="697" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="325">
-        <v>50</v>
-      </c>
-      <c r="C28" s="328" t="s">
-        <v>582</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="337"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="325">
-        <v>52</v>
-      </c>
-      <c r="C29" s="328" t="s">
-        <v>583</v>
-      </c>
-      <c r="D29" s="791" t="s">
-        <v>966</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17" t="s">
-        <v>933</v>
-      </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="337"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="325">
-        <v>54</v>
-      </c>
-      <c r="C30" s="328" t="s">
-        <v>584</v>
-      </c>
-      <c r="D30" s="791" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17" t="s">
-        <v>934</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="309" t="s">
-        <v>640</v>
-      </c>
-      <c r="K30" s="43"/>
-      <c r="L30" s="337"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="325">
-        <v>56</v>
-      </c>
-      <c r="C31" s="328" t="s">
-        <v>585</v>
-      </c>
-      <c r="D31" s="791" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="787" t="s">
-        <v>935</v>
-      </c>
-      <c r="I31" s="309" t="s">
-        <v>635</v>
-      </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="337"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="325">
-        <v>58</v>
-      </c>
-      <c r="C32" s="328" t="s">
-        <v>586</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="337"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="325">
-        <v>60</v>
-      </c>
-      <c r="C33" s="328" t="s">
-        <v>587</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17" t="s">
-        <v>937</v>
-      </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="337"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="698">
-        <v>62</v>
-      </c>
-      <c r="C34" s="699" t="s">
-        <v>588</v>
-      </c>
-      <c r="D34" s="789" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E34" s="700"/>
-      <c r="F34" s="700"/>
-      <c r="G34" s="700"/>
-      <c r="H34" s="701"/>
-      <c r="I34" s="701"/>
-      <c r="J34" s="701"/>
-      <c r="K34" s="702"/>
-      <c r="L34" s="703"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="324">
-        <v>64</v>
-      </c>
-      <c r="C35" s="327" t="s">
-        <v>589</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27" t="s">
-        <v>912</v>
-      </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="690" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="325">
-        <v>66</v>
-      </c>
-      <c r="C36" s="328" t="s">
-        <v>590</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17" t="s">
-        <v>938</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="337"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="325">
-        <v>68</v>
-      </c>
-      <c r="C37" s="328" t="s">
-        <v>563</v>
-      </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17" t="s">
-        <v>939</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="337"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="325">
-        <v>70</v>
-      </c>
-      <c r="C38" s="328" t="s">
-        <v>591</v>
-      </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17" t="s">
-        <v>940</v>
-      </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="337"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="325">
-        <v>72</v>
-      </c>
-      <c r="C39" s="328" t="s">
-        <v>592</v>
-      </c>
-      <c r="D39" s="332" t="s">
-        <v>623</v>
-      </c>
-      <c r="E39" s="341" t="s">
-        <v>657</v>
-      </c>
-      <c r="F39" s="341"/>
-      <c r="G39" s="341"/>
-      <c r="H39" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="337"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="325">
-        <v>74</v>
-      </c>
-      <c r="C40" s="328" t="s">
-        <v>593</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17" t="s">
-        <v>941</v>
-      </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="337"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="325">
-        <v>76</v>
-      </c>
-      <c r="C41" s="328" t="s">
-        <v>594</v>
-      </c>
-      <c r="D41" s="332" t="s">
-        <v>479</v>
-      </c>
-      <c r="E41" s="341" t="s">
-        <v>658</v>
-      </c>
-      <c r="F41" s="341"/>
-      <c r="G41" s="341"/>
-      <c r="H41" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="337"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="12">
-        <v>78</v>
-      </c>
-      <c r="C42" s="684" t="s">
-        <v>595</v>
-      </c>
-      <c r="D42" s="788" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E42" s="686"/>
-      <c r="F42" s="686"/>
-      <c r="G42" s="686"/>
-      <c r="H42" s="687"/>
-      <c r="I42" s="687"/>
-      <c r="J42" s="687"/>
-      <c r="K42" s="688"/>
-      <c r="L42" s="689"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="691">
-        <v>80</v>
-      </c>
-      <c r="C43" s="692" t="s">
-        <v>596</v>
-      </c>
-      <c r="D43" s="704" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E43" s="705"/>
-      <c r="F43" s="705"/>
-      <c r="G43" s="705"/>
-      <c r="H43" s="695" t="s">
-        <v>913</v>
-      </c>
-      <c r="I43" s="695"/>
-      <c r="J43" s="695"/>
-      <c r="K43" s="696"/>
-      <c r="L43" s="697" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="325">
-        <v>82</v>
-      </c>
-      <c r="C44" s="328" t="s">
-        <v>599</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17" t="s">
-        <v>942</v>
-      </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="337"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="325">
-        <v>84</v>
-      </c>
-      <c r="C45" s="328" t="s">
-        <v>600</v>
-      </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17" t="s">
-        <v>943</v>
-      </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="337"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="325">
-        <v>86</v>
-      </c>
-      <c r="C46" s="328" t="s">
-        <v>601</v>
-      </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17" t="s">
-        <v>944</v>
-      </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="337"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="325">
-        <v>88</v>
-      </c>
-      <c r="C47" s="328" t="s">
-        <v>602</v>
-      </c>
-      <c r="D47" s="332" t="s">
-        <v>624</v>
-      </c>
-      <c r="E47" s="341"/>
-      <c r="F47" s="341"/>
-      <c r="G47" s="343" t="s">
-        <v>662</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="309" t="s">
-        <v>624</v>
-      </c>
-      <c r="K47" s="43"/>
-      <c r="L47" s="337"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="325">
-        <v>90</v>
-      </c>
-      <c r="C48" s="328" t="s">
-        <v>603</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="17" t="s">
-        <v>945</v>
-      </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="337"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="325">
-        <v>92</v>
-      </c>
-      <c r="C49" s="328" t="s">
-        <v>604</v>
-      </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="337"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="698">
-        <v>94</v>
-      </c>
-      <c r="C50" s="699" t="s">
-        <v>606</v>
-      </c>
-      <c r="D50" s="790" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E50" s="700"/>
-      <c r="F50" s="700"/>
-      <c r="G50" s="700"/>
-      <c r="H50" s="701"/>
-      <c r="I50" s="701"/>
-      <c r="J50" s="701"/>
-      <c r="K50" s="702"/>
-      <c r="L50" s="703"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="324">
-        <v>96</v>
-      </c>
-      <c r="C51" s="327" t="s">
-        <v>607</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27" t="s">
-        <v>914</v>
-      </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="690" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="325">
-        <v>98</v>
-      </c>
-      <c r="C52" s="328" t="s">
-        <v>597</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17" t="s">
-        <v>946</v>
-      </c>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="337"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="325">
-        <v>100</v>
-      </c>
-      <c r="C53" s="328" t="s">
-        <v>598</v>
-      </c>
-      <c r="D53" s="48"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17" t="s">
-        <v>947</v>
-      </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="337"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="325">
-        <v>102</v>
-      </c>
-      <c r="C54" s="328" t="s">
-        <v>564</v>
-      </c>
-      <c r="D54" s="48"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="337"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="325">
-        <v>104</v>
-      </c>
-      <c r="C55" s="328" t="s">
-        <v>608</v>
-      </c>
-      <c r="D55" s="332" t="s">
-        <v>781</v>
-      </c>
-      <c r="E55" s="341" t="s">
-        <v>654</v>
-      </c>
-      <c r="F55" s="341"/>
-      <c r="G55" s="341"/>
-      <c r="H55" s="309" t="s">
-        <v>949</v>
-      </c>
-      <c r="I55" s="309" t="s">
-        <v>633</v>
-      </c>
-      <c r="J55" s="17"/>
-      <c r="K55" s="334" t="s">
-        <v>634</v>
-      </c>
-      <c r="L55" s="337"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="325">
-        <v>106</v>
-      </c>
-      <c r="C56" s="328" t="s">
-        <v>609</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17" t="s">
-        <v>950</v>
-      </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="337"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="325">
-        <v>108</v>
-      </c>
-      <c r="C57" s="328" t="s">
-        <v>610</v>
-      </c>
-      <c r="D57" s="48"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="337"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="12">
-        <v>110</v>
-      </c>
-      <c r="C58" s="684" t="s">
-        <v>605</v>
-      </c>
-      <c r="D58" s="685"/>
-      <c r="E58" s="686"/>
-      <c r="F58" s="686"/>
-      <c r="G58" s="686"/>
-      <c r="H58" s="687"/>
-      <c r="I58" s="687"/>
-      <c r="J58" s="687"/>
-      <c r="K58" s="688"/>
-      <c r="L58" s="689"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="691">
-        <v>112</v>
-      </c>
-      <c r="C59" s="692" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="704" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E59" s="705"/>
-      <c r="F59" s="705"/>
-      <c r="G59" s="705"/>
-      <c r="H59" s="695" t="s">
-        <v>915</v>
-      </c>
-      <c r="I59" s="695"/>
-      <c r="J59" s="695"/>
-      <c r="K59" s="696"/>
-      <c r="L59" s="697" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="325">
-        <v>114</v>
-      </c>
-      <c r="C60" s="328" t="s">
-        <v>611</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17" t="s">
-        <v>951</v>
-      </c>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="337"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="325">
-        <v>116</v>
-      </c>
-      <c r="C61" s="328" t="s">
-        <v>612</v>
-      </c>
-      <c r="D61" s="332" t="s">
-        <v>621</v>
-      </c>
-      <c r="E61" s="341" t="s">
-        <v>655</v>
-      </c>
-      <c r="F61" s="341"/>
-      <c r="G61" s="341"/>
-      <c r="H61" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="309" t="s">
-        <v>621</v>
-      </c>
-      <c r="K61" s="43"/>
-      <c r="L61" s="337"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="325">
-        <v>118</v>
-      </c>
-      <c r="C62" s="328" t="s">
-        <v>613</v>
-      </c>
-      <c r="D62" s="332" t="s">
-        <v>622</v>
-      </c>
-      <c r="E62" s="341" t="s">
-        <v>656</v>
-      </c>
-      <c r="F62" s="341"/>
-      <c r="G62" s="341"/>
-      <c r="H62" s="17" t="s">
-        <v>952</v>
-      </c>
-      <c r="I62" s="17"/>
-      <c r="J62" s="309" t="s">
-        <v>622</v>
-      </c>
-      <c r="K62" s="43"/>
-      <c r="L62" s="337"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="325">
-        <v>120</v>
-      </c>
-      <c r="C63" s="328" t="s">
-        <v>614</v>
-      </c>
-      <c r="D63" s="791" t="s">
-        <v>506</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="17" t="s">
-        <v>953</v>
-      </c>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="337"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="325">
-        <v>122</v>
-      </c>
-      <c r="C64" s="328" t="s">
-        <v>615</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17" t="s">
-        <v>954</v>
-      </c>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="337"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="325">
-        <v>124</v>
-      </c>
-      <c r="C65" s="328" t="s">
-        <v>616</v>
-      </c>
-      <c r="D65" s="791" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="337"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="326">
-        <v>126</v>
-      </c>
-      <c r="C66" s="329" t="s">
-        <v>617</v>
-      </c>
-      <c r="D66" s="792" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="338"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C67" s="173"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DOC/DEG2000.xlsx
+++ b/DOC/DEG2000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devel\1 DEG2000\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2F0F48-EC52-43AB-8077-5ADA2BA63B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCEFADC-CFAA-4035-B4C9-C159D45E48F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7125" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{F91C61BF-F393-4C13-9000-551DF6FEF055}"/>
+    <workbookView xWindow="22110" yWindow="5325" windowWidth="30900" windowHeight="25815" activeTab="1" xr2:uid="{F91C61BF-F393-4C13-9000-551DF6FEF055}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGridView" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="1534">
   <si>
     <t>cpuStatus</t>
   </si>
@@ -4716,6 +4716,48 @@
   </si>
   <si>
     <t>128</t>
+  </si>
+  <si>
+    <t>sbios1</t>
+  </si>
+  <si>
+    <t>opsmac</t>
+  </si>
+  <si>
+    <t>op12</t>
+  </si>
+  <si>
+    <t>abios1</t>
+  </si>
+  <si>
+    <t>gosys1</t>
+  </si>
+  <si>
+    <t>abios2</t>
+  </si>
+  <si>
+    <t>gosys2</t>
+  </si>
+  <si>
+    <t>gosys3</t>
+  </si>
+  <si>
+    <t>18E5</t>
+  </si>
+  <si>
+    <t>13A4</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>setla:</t>
+  </si>
+  <si>
+    <t>resla:</t>
   </si>
 </sst>
 </file>
@@ -11257,41 +11299,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="315" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="316" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="317" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="320" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="321" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="322" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -11301,9 +11380,6 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11336,9 +11412,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -11392,72 +11465,61 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="315" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="316" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="317" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="320" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="321" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="322" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="183" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="184" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="189" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="327" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -11503,15 +11565,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="332" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="329" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11527,45 +11580,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="328" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="183" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="191" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="184" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="175" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="189" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="179" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="187" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="180" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="199" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="177" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="178" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="200" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="179" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="180" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="202" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="178" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="175" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="191" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="215" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15616,7 +15658,7 @@
       <c r="P6" s="1102"/>
       <c r="Q6" s="1102"/>
       <c r="R6" s="1102"/>
-      <c r="S6" s="1042"/>
+      <c r="S6" s="997"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -15637,7 +15679,7 @@
       <c r="P7" s="1104"/>
       <c r="Q7" s="1104"/>
       <c r="R7" s="1104"/>
-      <c r="S7" s="1044"/>
+      <c r="S7" s="999"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -15810,7 +15852,7 @@
       <c r="P15" s="1102"/>
       <c r="Q15" s="1102"/>
       <c r="R15" s="1102"/>
-      <c r="S15" s="1042"/>
+      <c r="S15" s="997"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
@@ -15831,7 +15873,7 @@
       <c r="P16" s="1104"/>
       <c r="Q16" s="1104"/>
       <c r="R16" s="1104"/>
-      <c r="S16" s="1044"/>
+      <c r="S16" s="999"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
@@ -15950,7 +15992,7 @@
       <c r="P24" s="1115"/>
       <c r="Q24" s="1115"/>
       <c r="R24" s="1115"/>
-      <c r="S24" s="1009"/>
+      <c r="S24" s="1018"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C25" s="173" t="s">
@@ -16000,7 +16042,7 @@
       <c r="P26" s="1102"/>
       <c r="Q26" s="1102"/>
       <c r="R26" s="1102"/>
-      <c r="S26" s="1042"/>
+      <c r="S26" s="997"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
@@ -16021,7 +16063,7 @@
       <c r="P27" s="1104"/>
       <c r="Q27" s="1104"/>
       <c r="R27" s="1104"/>
-      <c r="S27" s="1044"/>
+      <c r="S27" s="999"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
@@ -19813,15 +19855,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7213ADEA-A0ED-4772-BDDF-F43C00D4300A}">
-  <dimension ref="B3:AK69"/>
+  <dimension ref="A3:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:T68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -19838,42 +19880,42 @@
       <c r="L3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="995">
+      <c r="M3" s="996">
         <v>0</v>
       </c>
-      <c r="N3" s="1009"/>
-      <c r="O3" s="995" t="s">
+      <c r="N3" s="1018"/>
+      <c r="O3" s="996" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="996"/>
-      <c r="Q3" s="996"/>
-      <c r="R3" s="996"/>
-      <c r="S3" s="996"/>
-      <c r="T3" s="997"/>
-      <c r="U3" s="1007">
+      <c r="P3" s="1006"/>
+      <c r="Q3" s="1006"/>
+      <c r="R3" s="1006"/>
+      <c r="S3" s="1006"/>
+      <c r="T3" s="1007"/>
+      <c r="U3" s="979">
         <v>2</v>
       </c>
-      <c r="V3" s="1007">
+      <c r="V3" s="979">
         <v>3</v>
       </c>
-      <c r="W3" s="995">
+      <c r="W3" s="996">
         <v>4</v>
       </c>
-      <c r="X3" s="1042"/>
-      <c r="Y3" s="1007">
+      <c r="X3" s="997"/>
+      <c r="Y3" s="979">
         <v>5</v>
       </c>
-      <c r="AC3" s="986" t="s">
+      <c r="AC3" s="1047" t="s">
         <v>1438</v>
       </c>
-      <c r="AD3" s="986"/>
-      <c r="AE3" s="986"/>
-      <c r="AF3" s="986"/>
-      <c r="AG3" s="986"/>
-      <c r="AH3" s="986"/>
-      <c r="AI3" s="986"/>
-      <c r="AJ3" s="986"/>
-      <c r="AK3" s="986"/>
+      <c r="AD3" s="1047"/>
+      <c r="AE3" s="1047"/>
+      <c r="AF3" s="1047"/>
+      <c r="AG3" s="1047"/>
+      <c r="AH3" s="1047"/>
+      <c r="AI3" s="1047"/>
+      <c r="AJ3" s="1047"/>
+      <c r="AK3" s="1047"/>
     </row>
     <row r="4" spans="12:37" x14ac:dyDescent="0.25">
       <c r="L4" s="114" t="s">
@@ -19899,40 +19941,40 @@
       <c r="T4" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="1008"/>
-      <c r="V4" s="1008"/>
-      <c r="W4" s="1043" t="s">
+      <c r="U4" s="1017"/>
+      <c r="V4" s="1017"/>
+      <c r="W4" s="998" t="s">
         <v>320</v>
       </c>
-      <c r="X4" s="1044"/>
-      <c r="Y4" s="1026"/>
+      <c r="X4" s="999"/>
+      <c r="Y4" s="980"/>
       <c r="AB4" s="898"/>
-      <c r="AC4" s="979" t="s">
+      <c r="AC4" s="1040" t="s">
         <v>1389</v>
       </c>
-      <c r="AD4" s="980"/>
-      <c r="AE4" s="981" t="s">
+      <c r="AD4" s="1041"/>
+      <c r="AE4" s="1042" t="s">
         <v>1388</v>
       </c>
-      <c r="AF4" s="982"/>
-      <c r="AG4" s="979" t="s">
+      <c r="AF4" s="1043"/>
+      <c r="AG4" s="1040" t="s">
         <v>1390</v>
       </c>
-      <c r="AH4" s="982"/>
-      <c r="AI4" s="983" t="s">
+      <c r="AH4" s="1043"/>
+      <c r="AI4" s="1044" t="s">
         <v>1437</v>
       </c>
-      <c r="AJ4" s="984"/>
-      <c r="AK4" s="985"/>
+      <c r="AJ4" s="1045"/>
+      <c r="AK4" s="1046"/>
     </row>
     <row r="5" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L5" s="987" t="s">
+      <c r="L5" s="1035" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="992" t="s">
+      <c r="M5" s="1003" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="1010" t="s">
+      <c r="N5" s="1019" t="s">
         <v>324</v>
       </c>
       <c r="O5" s="61"/>
@@ -19945,19 +19987,19 @@
       <c r="T5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="1001" t="s">
+      <c r="U5" s="1011" t="s">
         <v>470</v>
       </c>
-      <c r="V5" s="1004" t="s">
+      <c r="V5" s="1014" t="s">
         <v>323</v>
       </c>
-      <c r="W5" s="1036" t="s">
+      <c r="W5" s="990" t="s">
         <v>311</v>
       </c>
-      <c r="X5" s="1040" t="s">
+      <c r="X5" s="994" t="s">
         <v>312</v>
       </c>
-      <c r="Y5" s="1027" t="s">
+      <c r="Y5" s="981" t="s">
         <v>114</v>
       </c>
       <c r="AB5" s="911">
@@ -19990,9 +20032,9 @@
       <c r="AK5" s="902"/>
     </row>
     <row r="6" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L6" s="988"/>
-      <c r="M6" s="993"/>
-      <c r="N6" s="1011"/>
+      <c r="L6" s="1036"/>
+      <c r="M6" s="1004"/>
+      <c r="N6" s="1020"/>
       <c r="O6" s="64"/>
       <c r="P6" s="65"/>
       <c r="Q6" s="65"/>
@@ -20001,11 +20043,11 @@
       <c r="T6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="1002"/>
-      <c r="V6" s="1005"/>
-      <c r="W6" s="1037"/>
-      <c r="X6" s="1041"/>
-      <c r="Y6" s="1028"/>
+      <c r="U6" s="1012"/>
+      <c r="V6" s="1015"/>
+      <c r="W6" s="991"/>
+      <c r="X6" s="995"/>
+      <c r="Y6" s="982"/>
       <c r="AB6" s="279">
         <v>2</v>
       </c>
@@ -20036,9 +20078,9 @@
       <c r="AK6" s="215"/>
     </row>
     <row r="7" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L7" s="988"/>
-      <c r="M7" s="993"/>
-      <c r="N7" s="1012"/>
+      <c r="L7" s="1036"/>
+      <c r="M7" s="1004"/>
+      <c r="N7" s="1021"/>
       <c r="O7" s="64"/>
       <c r="P7" s="65"/>
       <c r="Q7" s="65"/>
@@ -20047,13 +20089,13 @@
       <c r="T7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="1002"/>
-      <c r="V7" s="1005"/>
-      <c r="W7" s="1038"/>
-      <c r="X7" s="1045" t="s">
+      <c r="U7" s="1012"/>
+      <c r="V7" s="1015"/>
+      <c r="W7" s="992"/>
+      <c r="X7" s="1000" t="s">
         <v>317</v>
       </c>
-      <c r="Y7" s="1028"/>
+      <c r="Y7" s="982"/>
       <c r="AB7" s="279">
         <v>3</v>
       </c>
@@ -20084,9 +20126,9 @@
       <c r="AK7" s="215"/>
     </row>
     <row r="8" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L8" s="989"/>
-      <c r="M8" s="993"/>
-      <c r="N8" s="1015" t="s">
+      <c r="L8" s="1037"/>
+      <c r="M8" s="1004"/>
+      <c r="N8" s="1024" t="s">
         <v>309</v>
       </c>
       <c r="O8" s="108"/>
@@ -20099,11 +20141,11 @@
       <c r="T8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="1002"/>
-      <c r="V8" s="1005"/>
-      <c r="W8" s="1038"/>
-      <c r="X8" s="1046"/>
-      <c r="Y8" s="1028"/>
+      <c r="U8" s="1012"/>
+      <c r="V8" s="1015"/>
+      <c r="W8" s="992"/>
+      <c r="X8" s="1001"/>
+      <c r="Y8" s="982"/>
       <c r="AB8" s="279">
         <v>4</v>
       </c>
@@ -20134,11 +20176,11 @@
       <c r="AK8" s="215"/>
     </row>
     <row r="9" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L9" s="987" t="s">
+      <c r="L9" s="1035" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="993"/>
-      <c r="N9" s="1016"/>
+      <c r="M9" s="1004"/>
+      <c r="N9" s="1025"/>
       <c r="O9" s="61"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
@@ -20149,13 +20191,13 @@
       <c r="T9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="1002"/>
-      <c r="V9" s="1005"/>
-      <c r="W9" s="1038"/>
-      <c r="X9" s="1041" t="s">
+      <c r="U9" s="1012"/>
+      <c r="V9" s="1015"/>
+      <c r="W9" s="992"/>
+      <c r="X9" s="995" t="s">
         <v>316</v>
       </c>
-      <c r="Y9" s="1028"/>
+      <c r="Y9" s="982"/>
       <c r="AB9" s="279">
         <v>5</v>
       </c>
@@ -20188,9 +20230,9 @@
       </c>
     </row>
     <row r="10" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L10" s="988"/>
-      <c r="M10" s="993"/>
-      <c r="N10" s="1016"/>
+      <c r="L10" s="1036"/>
+      <c r="M10" s="1004"/>
+      <c r="N10" s="1025"/>
       <c r="O10" s="64"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="65"/>
@@ -20199,11 +20241,11 @@
       <c r="T10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="1002"/>
-      <c r="V10" s="1005"/>
-      <c r="W10" s="1038"/>
-      <c r="X10" s="1047"/>
-      <c r="Y10" s="1028"/>
+      <c r="U10" s="1012"/>
+      <c r="V10" s="1015"/>
+      <c r="W10" s="992"/>
+      <c r="X10" s="1002"/>
+      <c r="Y10" s="982"/>
       <c r="AB10" s="279">
         <v>6</v>
       </c>
@@ -20234,9 +20276,9 @@
       <c r="AK10" s="917"/>
     </row>
     <row r="11" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L11" s="988"/>
-      <c r="M11" s="993"/>
-      <c r="N11" s="1017"/>
+      <c r="L11" s="1036"/>
+      <c r="M11" s="1004"/>
+      <c r="N11" s="1026"/>
       <c r="O11" s="64"/>
       <c r="P11" s="65"/>
       <c r="Q11" s="65"/>
@@ -20245,13 +20287,13 @@
       <c r="T11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="1002"/>
-      <c r="V11" s="1005"/>
-      <c r="W11" s="1038"/>
-      <c r="X11" s="1045" t="s">
+      <c r="U11" s="1012"/>
+      <c r="V11" s="1015"/>
+      <c r="W11" s="992"/>
+      <c r="X11" s="1000" t="s">
         <v>315</v>
       </c>
-      <c r="Y11" s="1028"/>
+      <c r="Y11" s="982"/>
       <c r="AB11" s="279">
         <v>7</v>
       </c>
@@ -20282,9 +20324,9 @@
       <c r="AK11" s="215"/>
     </row>
     <row r="12" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L12" s="989"/>
-      <c r="M12" s="993"/>
-      <c r="N12" s="1013" t="s">
+      <c r="L12" s="1037"/>
+      <c r="M12" s="1004"/>
+      <c r="N12" s="1022" t="s">
         <v>308</v>
       </c>
       <c r="O12" s="80"/>
@@ -20297,11 +20339,11 @@
       <c r="T12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="1002"/>
-      <c r="V12" s="1005"/>
-      <c r="W12" s="1038"/>
-      <c r="X12" s="1046"/>
-      <c r="Y12" s="1028"/>
+      <c r="U12" s="1012"/>
+      <c r="V12" s="1015"/>
+      <c r="W12" s="992"/>
+      <c r="X12" s="1001"/>
+      <c r="Y12" s="982"/>
       <c r="Z12" s="201"/>
       <c r="AB12" s="279">
         <v>8</v>
@@ -20333,11 +20375,11 @@
       <c r="AK12" s="215"/>
     </row>
     <row r="13" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L13" s="987" t="s">
+      <c r="L13" s="1035" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="993"/>
-      <c r="N13" s="1014"/>
+      <c r="M13" s="1004"/>
+      <c r="N13" s="1023"/>
       <c r="O13" s="106"/>
       <c r="P13" s="107"/>
       <c r="Q13" s="107"/>
@@ -20348,13 +20390,13 @@
       <c r="T13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="1002"/>
-      <c r="V13" s="1005"/>
-      <c r="W13" s="1038"/>
-      <c r="X13" s="1041" t="s">
+      <c r="U13" s="1012"/>
+      <c r="V13" s="1015"/>
+      <c r="W13" s="992"/>
+      <c r="X13" s="995" t="s">
         <v>314</v>
       </c>
-      <c r="Y13" s="1028"/>
+      <c r="Y13" s="982"/>
       <c r="Z13" s="202"/>
       <c r="AB13" s="279">
         <v>9</v>
@@ -20386,8 +20428,8 @@
       <c r="AK13" s="215"/>
     </row>
     <row r="14" spans="12:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="988"/>
-      <c r="M14" s="993"/>
+      <c r="L14" s="1036"/>
+      <c r="M14" s="1004"/>
       <c r="N14" s="203"/>
       <c r="O14" s="64"/>
       <c r="P14" s="65"/>
@@ -20397,11 +20439,11 @@
       <c r="T14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="1002"/>
-      <c r="V14" s="1005"/>
-      <c r="W14" s="1038"/>
-      <c r="X14" s="1047"/>
-      <c r="Y14" s="1028"/>
+      <c r="U14" s="1012"/>
+      <c r="V14" s="1015"/>
+      <c r="W14" s="992"/>
+      <c r="X14" s="1002"/>
+      <c r="Y14" s="982"/>
       <c r="Z14" s="202"/>
       <c r="AB14" s="279">
         <v>10</v>
@@ -20433,8 +20475,8 @@
       <c r="AK14" s="215"/>
     </row>
     <row r="15" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L15" s="988"/>
-      <c r="M15" s="993"/>
+      <c r="L15" s="1036"/>
+      <c r="M15" s="1004"/>
       <c r="N15" s="204"/>
       <c r="O15" s="64"/>
       <c r="P15" s="65"/>
@@ -20444,13 +20486,13 @@
       <c r="T15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="1002"/>
-      <c r="V15" s="1005"/>
-      <c r="W15" s="1038"/>
-      <c r="X15" s="1045" t="s">
+      <c r="U15" s="1012"/>
+      <c r="V15" s="1015"/>
+      <c r="W15" s="992"/>
+      <c r="X15" s="1000" t="s">
         <v>313</v>
       </c>
-      <c r="Y15" s="1028"/>
+      <c r="Y15" s="982"/>
       <c r="Z15" s="202"/>
       <c r="AB15" s="279">
         <v>11</v>
@@ -20482,8 +20524,8 @@
       <c r="AK15" s="215"/>
     </row>
     <row r="16" spans="12:37" x14ac:dyDescent="0.25">
-      <c r="L16" s="989"/>
-      <c r="M16" s="993"/>
+      <c r="L16" s="1037"/>
+      <c r="M16" s="1004"/>
       <c r="N16" s="204"/>
       <c r="O16" s="108"/>
       <c r="P16" s="109"/>
@@ -20495,11 +20537,11 @@
       <c r="T16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="1002"/>
-      <c r="V16" s="1005"/>
-      <c r="W16" s="1039"/>
-      <c r="X16" s="1046"/>
-      <c r="Y16" s="1028"/>
+      <c r="U16" s="1012"/>
+      <c r="V16" s="1015"/>
+      <c r="W16" s="993"/>
+      <c r="X16" s="1001"/>
+      <c r="Y16" s="982"/>
       <c r="Z16" s="202"/>
       <c r="AB16" s="279">
         <v>12</v>
@@ -20531,10 +20573,10 @@
       <c r="AK16" s="215"/>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L17" s="987" t="s">
+      <c r="L17" s="1035" t="s">
         <v>108</v>
       </c>
-      <c r="M17" s="993"/>
+      <c r="M17" s="1004"/>
       <c r="N17" s="204"/>
       <c r="O17" s="61"/>
       <c r="P17" s="62"/>
@@ -20546,13 +20588,13 @@
       <c r="T17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="1002"/>
-      <c r="V17" s="1005"/>
-      <c r="W17" s="1030" t="s">
+      <c r="U17" s="1012"/>
+      <c r="V17" s="1015"/>
+      <c r="W17" s="984" t="s">
         <v>318</v>
       </c>
-      <c r="X17" s="1031"/>
-      <c r="Y17" s="1028"/>
+      <c r="X17" s="985"/>
+      <c r="Y17" s="982"/>
       <c r="Z17" s="202"/>
       <c r="AB17" s="279">
         <v>13</v>
@@ -20584,8 +20626,8 @@
       <c r="AK17" s="215"/>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L18" s="988"/>
-      <c r="M18" s="993"/>
+      <c r="L18" s="1036"/>
+      <c r="M18" s="1004"/>
       <c r="N18" s="204"/>
       <c r="O18" s="64"/>
       <c r="P18" s="65"/>
@@ -20595,11 +20637,11 @@
       <c r="T18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="1002"/>
-      <c r="V18" s="1005"/>
-      <c r="W18" s="1032"/>
-      <c r="X18" s="1033"/>
-      <c r="Y18" s="1028"/>
+      <c r="U18" s="1012"/>
+      <c r="V18" s="1015"/>
+      <c r="W18" s="986"/>
+      <c r="X18" s="987"/>
+      <c r="Y18" s="982"/>
       <c r="Z18" s="202"/>
       <c r="AB18" s="279">
         <v>14</v>
@@ -20631,8 +20673,8 @@
       <c r="AK18" s="215"/>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L19" s="988"/>
-      <c r="M19" s="993"/>
+      <c r="L19" s="1036"/>
+      <c r="M19" s="1004"/>
       <c r="N19" s="204"/>
       <c r="O19" s="64"/>
       <c r="P19" s="65"/>
@@ -20642,11 +20684,11 @@
       <c r="T19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="1002"/>
-      <c r="V19" s="1005"/>
-      <c r="W19" s="1032"/>
-      <c r="X19" s="1033"/>
-      <c r="Y19" s="1028"/>
+      <c r="U19" s="1012"/>
+      <c r="V19" s="1015"/>
+      <c r="W19" s="986"/>
+      <c r="X19" s="987"/>
+      <c r="Y19" s="982"/>
       <c r="Z19" s="202"/>
       <c r="AB19" s="279">
         <v>15</v>
@@ -20678,8 +20720,8 @@
       <c r="AK19" s="207"/>
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L20" s="989"/>
-      <c r="M20" s="993"/>
+      <c r="L20" s="1037"/>
+      <c r="M20" s="1004"/>
       <c r="N20" s="204"/>
       <c r="O20" s="80" t="s">
         <v>73</v>
@@ -20695,11 +20737,11 @@
       <c r="T20" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="1002"/>
-      <c r="V20" s="1005"/>
-      <c r="W20" s="1032"/>
-      <c r="X20" s="1033"/>
-      <c r="Y20" s="1028"/>
+      <c r="U20" s="1012"/>
+      <c r="V20" s="1015"/>
+      <c r="W20" s="986"/>
+      <c r="X20" s="987"/>
+      <c r="Y20" s="982"/>
       <c r="Z20" s="202"/>
       <c r="AB20" s="279">
         <v>16</v>
@@ -20731,10 +20773,10 @@
       <c r="AK20" s="207"/>
     </row>
     <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L21" s="987" t="s">
+      <c r="L21" s="1035" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="993"/>
+      <c r="M21" s="1004"/>
       <c r="N21" s="204"/>
       <c r="O21" s="78"/>
       <c r="P21" s="79"/>
@@ -20746,11 +20788,11 @@
       <c r="T21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="1002"/>
-      <c r="V21" s="1005"/>
-      <c r="W21" s="1032"/>
-      <c r="X21" s="1033"/>
-      <c r="Y21" s="1028"/>
+      <c r="U21" s="1012"/>
+      <c r="V21" s="1015"/>
+      <c r="W21" s="986"/>
+      <c r="X21" s="987"/>
+      <c r="Y21" s="982"/>
       <c r="Z21" s="202"/>
       <c r="AB21" s="279">
         <v>17</v>
@@ -20806,8 +20848,8 @@
       <c r="I22" s="193">
         <v>7759</v>
       </c>
-      <c r="L22" s="988"/>
-      <c r="M22" s="993"/>
+      <c r="L22" s="1036"/>
+      <c r="M22" s="1004"/>
       <c r="N22" s="204"/>
       <c r="O22" s="64"/>
       <c r="P22" s="65"/>
@@ -20817,11 +20859,11 @@
       <c r="T22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="1002"/>
-      <c r="V22" s="1005"/>
-      <c r="W22" s="1032"/>
-      <c r="X22" s="1033"/>
-      <c r="Y22" s="1028"/>
+      <c r="U22" s="1012"/>
+      <c r="V22" s="1015"/>
+      <c r="W22" s="986"/>
+      <c r="X22" s="987"/>
+      <c r="Y22" s="982"/>
       <c r="AB22" s="279">
         <v>18</v>
       </c>
@@ -20855,8 +20897,8 @@
       <c r="D23" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="988"/>
-      <c r="M23" s="993"/>
+      <c r="L23" s="1036"/>
+      <c r="M23" s="1004"/>
       <c r="N23" s="204"/>
       <c r="O23" s="80"/>
       <c r="P23" s="81"/>
@@ -20866,11 +20908,11 @@
       <c r="T23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="1002"/>
-      <c r="V23" s="1005"/>
-      <c r="W23" s="1032"/>
-      <c r="X23" s="1033"/>
-      <c r="Y23" s="1028"/>
+      <c r="U23" s="1012"/>
+      <c r="V23" s="1015"/>
+      <c r="W23" s="986"/>
+      <c r="X23" s="987"/>
+      <c r="Y23" s="982"/>
       <c r="AB23" s="279">
         <v>19</v>
       </c>
@@ -20924,8 +20966,8 @@
         <v>302</v>
       </c>
       <c r="J24" s="173"/>
-      <c r="L24" s="989"/>
-      <c r="M24" s="993"/>
+      <c r="L24" s="1037"/>
+      <c r="M24" s="1004"/>
       <c r="N24" s="204"/>
       <c r="O24" s="108"/>
       <c r="P24" s="109"/>
@@ -20937,11 +20979,11 @@
       <c r="T24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="1002"/>
-      <c r="V24" s="1005"/>
-      <c r="W24" s="1032"/>
-      <c r="X24" s="1033"/>
-      <c r="Y24" s="1028"/>
+      <c r="U24" s="1012"/>
+      <c r="V24" s="1015"/>
+      <c r="W24" s="986"/>
+      <c r="X24" s="987"/>
+      <c r="Y24" s="982"/>
       <c r="AB24" s="279">
         <v>20</v>
       </c>
@@ -20995,10 +21037,10 @@
         <v>30</v>
       </c>
       <c r="J25" s="288"/>
-      <c r="L25" s="987" t="s">
+      <c r="L25" s="1035" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="993"/>
+      <c r="M25" s="1004"/>
       <c r="N25" s="204"/>
       <c r="O25" s="61"/>
       <c r="P25" s="62"/>
@@ -21010,11 +21052,11 @@
       <c r="T25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U25" s="1002"/>
-      <c r="V25" s="1005"/>
-      <c r="W25" s="1032"/>
-      <c r="X25" s="1033"/>
-      <c r="Y25" s="1028"/>
+      <c r="U25" s="1012"/>
+      <c r="V25" s="1015"/>
+      <c r="W25" s="986"/>
+      <c r="X25" s="987"/>
+      <c r="Y25" s="982"/>
       <c r="AB25" s="912">
         <v>21</v>
       </c>
@@ -21033,9 +21075,9 @@
       <c r="AK25" s="210"/>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L26" s="988"/>
-      <c r="M26" s="993"/>
-      <c r="N26" s="1023" t="s">
+      <c r="L26" s="1036"/>
+      <c r="M26" s="1004"/>
+      <c r="N26" s="1032" t="s">
         <v>327</v>
       </c>
       <c r="O26" s="64"/>
@@ -21046,17 +21088,17 @@
       <c r="T26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="1002"/>
-      <c r="V26" s="1005"/>
-      <c r="W26" s="1032"/>
-      <c r="X26" s="1033"/>
-      <c r="Y26" s="1028"/>
+      <c r="U26" s="1012"/>
+      <c r="V26" s="1015"/>
+      <c r="W26" s="986"/>
+      <c r="X26" s="987"/>
+      <c r="Y26" s="982"/>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H27" s="173"/>
-      <c r="L27" s="988"/>
-      <c r="M27" s="993"/>
-      <c r="N27" s="1024"/>
+      <c r="L27" s="1036"/>
+      <c r="M27" s="1004"/>
+      <c r="N27" s="1033"/>
       <c r="O27" s="80"/>
       <c r="P27" s="81"/>
       <c r="Q27" s="81"/>
@@ -21065,17 +21107,17 @@
       <c r="T27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U27" s="1002"/>
-      <c r="V27" s="1005"/>
-      <c r="W27" s="1032"/>
-      <c r="X27" s="1033"/>
-      <c r="Y27" s="1028"/>
+      <c r="U27" s="1012"/>
+      <c r="V27" s="1015"/>
+      <c r="W27" s="986"/>
+      <c r="X27" s="987"/>
+      <c r="Y27" s="982"/>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H28" s="173"/>
-      <c r="L28" s="989"/>
-      <c r="M28" s="993"/>
-      <c r="N28" s="1024"/>
+      <c r="L28" s="1037"/>
+      <c r="M28" s="1004"/>
+      <c r="N28" s="1033"/>
       <c r="O28" s="80"/>
       <c r="P28" s="81"/>
       <c r="Q28" s="82" t="s">
@@ -21086,18 +21128,18 @@
       <c r="T28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U28" s="1002"/>
-      <c r="V28" s="1005"/>
-      <c r="W28" s="1032"/>
-      <c r="X28" s="1033"/>
-      <c r="Y28" s="1028"/>
+      <c r="U28" s="1012"/>
+      <c r="V28" s="1015"/>
+      <c r="W28" s="986"/>
+      <c r="X28" s="987"/>
+      <c r="Y28" s="982"/>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L29" s="987" t="s">
+      <c r="L29" s="1035" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="993"/>
-      <c r="N29" s="1024"/>
+      <c r="M29" s="1004"/>
+      <c r="N29" s="1033"/>
       <c r="O29" s="106"/>
       <c r="P29" s="107"/>
       <c r="Q29" s="107"/>
@@ -21108,16 +21150,16 @@
       <c r="T29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="1002"/>
-      <c r="V29" s="1005"/>
-      <c r="W29" s="1032"/>
-      <c r="X29" s="1033"/>
-      <c r="Y29" s="1028"/>
+      <c r="U29" s="1012"/>
+      <c r="V29" s="1015"/>
+      <c r="W29" s="986"/>
+      <c r="X29" s="987"/>
+      <c r="Y29" s="982"/>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L30" s="988"/>
-      <c r="M30" s="993"/>
-      <c r="N30" s="1025"/>
+      <c r="L30" s="1036"/>
+      <c r="M30" s="1004"/>
+      <c r="N30" s="1034"/>
       <c r="O30" s="64"/>
       <c r="P30" s="65"/>
       <c r="Q30" s="65"/>
@@ -21126,16 +21168,16 @@
       <c r="T30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U30" s="1002"/>
-      <c r="V30" s="1005"/>
-      <c r="W30" s="1032"/>
-      <c r="X30" s="1033"/>
-      <c r="Y30" s="1028"/>
+      <c r="U30" s="1012"/>
+      <c r="V30" s="1015"/>
+      <c r="W30" s="986"/>
+      <c r="X30" s="987"/>
+      <c r="Y30" s="982"/>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L31" s="988"/>
-      <c r="M31" s="993"/>
-      <c r="N31" s="1022" t="s">
+      <c r="L31" s="1036"/>
+      <c r="M31" s="1004"/>
+      <c r="N31" s="1031" t="s">
         <v>326</v>
       </c>
       <c r="O31" s="64"/>
@@ -21146,16 +21188,16 @@
       <c r="T31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="1002"/>
-      <c r="V31" s="1005"/>
-      <c r="W31" s="1032"/>
-      <c r="X31" s="1033"/>
-      <c r="Y31" s="1028"/>
+      <c r="U31" s="1012"/>
+      <c r="V31" s="1015"/>
+      <c r="W31" s="986"/>
+      <c r="X31" s="987"/>
+      <c r="Y31" s="982"/>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="L32" s="989"/>
-      <c r="M32" s="993"/>
-      <c r="N32" s="1016"/>
+      <c r="L32" s="1037"/>
+      <c r="M32" s="1004"/>
+      <c r="N32" s="1025"/>
       <c r="O32" s="110"/>
       <c r="P32" s="111"/>
       <c r="Q32" s="112" t="s">
@@ -21166,18 +21208,18 @@
       <c r="T32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="1002"/>
-      <c r="V32" s="1005"/>
-      <c r="W32" s="1032"/>
-      <c r="X32" s="1033"/>
-      <c r="Y32" s="1028"/>
-    </row>
-    <row r="33" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L33" s="987" t="s">
+      <c r="U32" s="1012"/>
+      <c r="V32" s="1015"/>
+      <c r="W32" s="986"/>
+      <c r="X32" s="987"/>
+      <c r="Y32" s="982"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L33" s="1035" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="993"/>
-      <c r="N33" s="1016"/>
+      <c r="M33" s="1004"/>
+      <c r="N33" s="1025"/>
       <c r="O33" s="61"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
@@ -21188,16 +21230,16 @@
       <c r="T33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U33" s="1002"/>
-      <c r="V33" s="1005"/>
-      <c r="W33" s="1032"/>
-      <c r="X33" s="1033"/>
-      <c r="Y33" s="1028"/>
-    </row>
-    <row r="34" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L34" s="988"/>
-      <c r="M34" s="993"/>
-      <c r="N34" s="1017"/>
+      <c r="U33" s="1012"/>
+      <c r="V33" s="1015"/>
+      <c r="W33" s="986"/>
+      <c r="X33" s="987"/>
+      <c r="Y33" s="982"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L34" s="1036"/>
+      <c r="M34" s="1004"/>
+      <c r="N34" s="1026"/>
       <c r="O34" s="64"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="65"/>
@@ -21206,16 +21248,19 @@
       <c r="T34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="1002"/>
-      <c r="V34" s="1005"/>
-      <c r="W34" s="1032"/>
-      <c r="X34" s="1033"/>
-      <c r="Y34" s="1028"/>
-    </row>
-    <row r="35" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L35" s="988"/>
-      <c r="M35" s="993"/>
-      <c r="N35" s="1021" t="s">
+      <c r="U34" s="1012"/>
+      <c r="V34" s="1015"/>
+      <c r="W34" s="986"/>
+      <c r="X34" s="987"/>
+      <c r="Y34" s="982"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L35" s="1036"/>
+      <c r="M35" s="1004"/>
+      <c r="N35" s="1030" t="s">
         <v>325</v>
       </c>
       <c r="O35" s="64"/>
@@ -21226,17 +21271,20 @@
       <c r="T35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U35" s="1002"/>
-      <c r="V35" s="1005"/>
-      <c r="W35" s="1032"/>
-      <c r="X35" s="1033"/>
-      <c r="Y35" s="1028"/>
+      <c r="U35" s="1012"/>
+      <c r="V35" s="1015"/>
+      <c r="W35" s="986"/>
+      <c r="X35" s="987"/>
+      <c r="Y35" s="982"/>
       <c r="Z35" s="201"/>
     </row>
-    <row r="36" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L36" s="989"/>
-      <c r="M36" s="993"/>
-      <c r="N36" s="1014"/>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1523</v>
+      </c>
+      <c r="L36" s="1037"/>
+      <c r="M36" s="1004"/>
+      <c r="N36" s="1023"/>
       <c r="O36" s="67" t="s">
         <v>73</v>
       </c>
@@ -21251,19 +21299,22 @@
       <c r="T36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U36" s="1002"/>
-      <c r="V36" s="1005"/>
-      <c r="W36" s="1032"/>
-      <c r="X36" s="1033"/>
-      <c r="Y36" s="1028"/>
+      <c r="U36" s="1012"/>
+      <c r="V36" s="1015"/>
+      <c r="W36" s="986"/>
+      <c r="X36" s="987"/>
+      <c r="Y36" s="982"/>
       <c r="Z36" s="202"/>
     </row>
-    <row r="37" spans="12:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L37" s="987" t="s">
+    <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L37" s="1035" t="s">
         <v>103</v>
       </c>
-      <c r="M37" s="993"/>
-      <c r="N37" s="1018" t="s">
+      <c r="M37" s="1004"/>
+      <c r="N37" s="1027" t="s">
         <v>310</v>
       </c>
       <c r="O37" s="70"/>
@@ -21280,17 +21331,17 @@
       <c r="T37" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="U37" s="1002"/>
-      <c r="V37" s="1005"/>
-      <c r="W37" s="1032"/>
-      <c r="X37" s="1033"/>
-      <c r="Y37" s="1028"/>
+      <c r="U37" s="1012"/>
+      <c r="V37" s="1015"/>
+      <c r="W37" s="986"/>
+      <c r="X37" s="987"/>
+      <c r="Y37" s="982"/>
       <c r="Z37" s="202"/>
     </row>
-    <row r="38" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L38" s="988"/>
-      <c r="M38" s="993"/>
-      <c r="N38" s="1019"/>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L38" s="1036"/>
+      <c r="M38" s="1004"/>
+      <c r="N38" s="1028"/>
       <c r="O38" s="72"/>
       <c r="P38" s="73"/>
       <c r="Q38" s="74" t="s">
@@ -21303,17 +21354,20 @@
       <c r="T38" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U38" s="1002"/>
-      <c r="V38" s="1005"/>
-      <c r="W38" s="1032"/>
-      <c r="X38" s="1033"/>
-      <c r="Y38" s="1028"/>
+      <c r="U38" s="1012"/>
+      <c r="V38" s="1015"/>
+      <c r="W38" s="986"/>
+      <c r="X38" s="987"/>
+      <c r="Y38" s="982"/>
       <c r="Z38" s="202"/>
     </row>
-    <row r="39" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L39" s="988"/>
-      <c r="M39" s="993"/>
-      <c r="N39" s="1019"/>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1526</v>
+      </c>
+      <c r="L39" s="1036"/>
+      <c r="M39" s="1004"/>
+      <c r="N39" s="1028"/>
       <c r="O39" s="72"/>
       <c r="P39" s="73"/>
       <c r="Q39" s="74" t="s">
@@ -21326,16 +21380,19 @@
       <c r="T39" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U39" s="1002"/>
-      <c r="V39" s="1005"/>
-      <c r="W39" s="1032"/>
-      <c r="X39" s="1033"/>
-      <c r="Y39" s="1028"/>
-    </row>
-    <row r="40" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L40" s="989"/>
-      <c r="M40" s="993"/>
-      <c r="N40" s="1019"/>
+      <c r="U39" s="1012"/>
+      <c r="V39" s="1015"/>
+      <c r="W39" s="986"/>
+      <c r="X39" s="987"/>
+      <c r="Y39" s="982"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1527</v>
+      </c>
+      <c r="L40" s="1037"/>
+      <c r="M40" s="1004"/>
+      <c r="N40" s="1028"/>
       <c r="O40" s="96"/>
       <c r="P40" s="97"/>
       <c r="Q40" s="169" t="s">
@@ -21350,19 +21407,19 @@
       <c r="T40" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U40" s="1002"/>
-      <c r="V40" s="1005"/>
-      <c r="W40" s="1032"/>
-      <c r="X40" s="1033"/>
-      <c r="Y40" s="1028"/>
+      <c r="U40" s="1012"/>
+      <c r="V40" s="1015"/>
+      <c r="W40" s="986"/>
+      <c r="X40" s="987"/>
+      <c r="Y40" s="982"/>
       <c r="Z40" s="201"/>
     </row>
-    <row r="41" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L41" s="987" t="s">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L41" s="1035" t="s">
         <v>102</v>
       </c>
-      <c r="M41" s="993"/>
-      <c r="N41" s="1019"/>
+      <c r="M41" s="1004"/>
+      <c r="N41" s="1028"/>
       <c r="O41" s="101"/>
       <c r="P41" s="102"/>
       <c r="Q41" s="103" t="s">
@@ -21377,17 +21434,20 @@
       <c r="T41" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U41" s="1002"/>
-      <c r="V41" s="1005"/>
-      <c r="W41" s="1032"/>
-      <c r="X41" s="1033"/>
-      <c r="Y41" s="1028"/>
+      <c r="U41" s="1012"/>
+      <c r="V41" s="1015"/>
+      <c r="W41" s="986"/>
+      <c r="X41" s="987"/>
+      <c r="Y41" s="982"/>
       <c r="Z41" s="202"/>
     </row>
-    <row r="42" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L42" s="988"/>
-      <c r="M42" s="993"/>
-      <c r="N42" s="1019"/>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L42" s="1036"/>
+      <c r="M42" s="1004"/>
+      <c r="N42" s="1028"/>
       <c r="O42" s="72"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="74" t="s">
@@ -21400,16 +21460,19 @@
       <c r="T42" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="1002"/>
-      <c r="V42" s="1005"/>
-      <c r="W42" s="1032"/>
-      <c r="X42" s="1033"/>
-      <c r="Y42" s="1028"/>
-    </row>
-    <row r="43" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L43" s="988"/>
-      <c r="M43" s="993"/>
-      <c r="N43" s="1019"/>
+      <c r="U42" s="1012"/>
+      <c r="V42" s="1015"/>
+      <c r="W42" s="986"/>
+      <c r="X42" s="987"/>
+      <c r="Y42" s="982"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1524</v>
+      </c>
+      <c r="L43" s="1036"/>
+      <c r="M43" s="1004"/>
+      <c r="N43" s="1028"/>
       <c r="O43" s="96"/>
       <c r="P43" s="97"/>
       <c r="Q43" s="169" t="s">
@@ -21422,16 +21485,16 @@
       <c r="T43" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U43" s="1002"/>
-      <c r="V43" s="1005"/>
-      <c r="W43" s="1032"/>
-      <c r="X43" s="1033"/>
-      <c r="Y43" s="1028"/>
-    </row>
-    <row r="44" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L44" s="989"/>
-      <c r="M44" s="993"/>
-      <c r="N44" s="1019"/>
+      <c r="U43" s="1012"/>
+      <c r="V43" s="1015"/>
+      <c r="W43" s="986"/>
+      <c r="X43" s="987"/>
+      <c r="Y43" s="982"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L44" s="1037"/>
+      <c r="M44" s="1004"/>
+      <c r="N44" s="1028"/>
       <c r="O44" s="104"/>
       <c r="P44" s="105"/>
       <c r="Q44" s="170" t="s">
@@ -21444,18 +21507,27 @@
       <c r="T44" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U44" s="1002"/>
-      <c r="V44" s="1005"/>
-      <c r="W44" s="1032"/>
-      <c r="X44" s="1033"/>
-      <c r="Y44" s="1028"/>
-    </row>
-    <row r="45" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L45" s="987" t="s">
+      <c r="U44" s="1012"/>
+      <c r="V44" s="1015"/>
+      <c r="W44" s="986"/>
+      <c r="X44" s="987"/>
+      <c r="Y44" s="982"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B45" s="288" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1530</v>
+      </c>
+      <c r="L45" s="1035" t="s">
         <v>101</v>
       </c>
-      <c r="M45" s="993"/>
-      <c r="N45" s="1019"/>
+      <c r="M45" s="1004"/>
+      <c r="N45" s="1028"/>
       <c r="O45" s="98"/>
       <c r="P45" s="99"/>
       <c r="Q45" s="100" t="s">
@@ -21468,16 +21540,28 @@
       <c r="T45" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U45" s="1002"/>
-      <c r="V45" s="1005"/>
-      <c r="W45" s="1032"/>
-      <c r="X45" s="1033"/>
-      <c r="Y45" s="1028"/>
-    </row>
-    <row r="46" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L46" s="990"/>
-      <c r="M46" s="993"/>
-      <c r="N46" s="1019"/>
+      <c r="U45" s="1012"/>
+      <c r="V45" s="1015"/>
+      <c r="W45" s="986"/>
+      <c r="X45" s="987"/>
+      <c r="Y45" s="982"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B46" s="173" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D46" s="173" t="s">
+        <v>1531</v>
+      </c>
+      <c r="L46" s="1038"/>
+      <c r="M46" s="1004"/>
+      <c r="N46" s="1028"/>
       <c r="O46" s="72"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="74" t="s">
@@ -21490,16 +21574,16 @@
       <c r="T46" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U46" s="1002"/>
-      <c r="V46" s="1005"/>
-      <c r="W46" s="1032"/>
-      <c r="X46" s="1033"/>
-      <c r="Y46" s="1028"/>
-    </row>
-    <row r="47" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L47" s="990"/>
-      <c r="M47" s="993"/>
-      <c r="N47" s="1019"/>
+      <c r="U46" s="1012"/>
+      <c r="V46" s="1015"/>
+      <c r="W46" s="986"/>
+      <c r="X46" s="987"/>
+      <c r="Y46" s="982"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L47" s="1038"/>
+      <c r="M47" s="1004"/>
+      <c r="N47" s="1028"/>
       <c r="O47" s="96"/>
       <c r="P47" s="97"/>
       <c r="Q47" s="169" t="s">
@@ -21512,16 +21596,16 @@
       <c r="T47" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U47" s="1002"/>
-      <c r="V47" s="1005"/>
-      <c r="W47" s="1032"/>
-      <c r="X47" s="1033"/>
-      <c r="Y47" s="1028"/>
-    </row>
-    <row r="48" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="L48" s="991"/>
-      <c r="M48" s="993"/>
-      <c r="N48" s="1019"/>
+      <c r="U47" s="1012"/>
+      <c r="V47" s="1015"/>
+      <c r="W47" s="986"/>
+      <c r="X47" s="987"/>
+      <c r="Y47" s="982"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L48" s="1039"/>
+      <c r="M48" s="1004"/>
+      <c r="N48" s="1028"/>
       <c r="O48" s="104"/>
       <c r="P48" s="105"/>
       <c r="Q48" s="170" t="s">
@@ -21534,18 +21618,18 @@
       <c r="T48" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U48" s="1002"/>
-      <c r="V48" s="1005"/>
-      <c r="W48" s="1032"/>
-      <c r="X48" s="1033"/>
-      <c r="Y48" s="1028"/>
-    </row>
-    <row r="49" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L49" s="987" t="s">
+      <c r="U48" s="1012"/>
+      <c r="V48" s="1015"/>
+      <c r="W48" s="986"/>
+      <c r="X48" s="987"/>
+      <c r="Y48" s="982"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L49" s="1035" t="s">
         <v>100</v>
       </c>
-      <c r="M49" s="993"/>
-      <c r="N49" s="1019"/>
+      <c r="M49" s="1004"/>
+      <c r="N49" s="1028"/>
       <c r="O49" s="98"/>
       <c r="P49" s="99"/>
       <c r="Q49" s="100" t="s">
@@ -21558,16 +21642,16 @@
       <c r="T49" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U49" s="1002"/>
-      <c r="V49" s="1005"/>
-      <c r="W49" s="1032"/>
-      <c r="X49" s="1033"/>
-      <c r="Y49" s="1028"/>
-    </row>
-    <row r="50" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L50" s="988"/>
-      <c r="M50" s="993"/>
-      <c r="N50" s="1019"/>
+      <c r="U49" s="1012"/>
+      <c r="V49" s="1015"/>
+      <c r="W49" s="986"/>
+      <c r="X49" s="987"/>
+      <c r="Y49" s="982"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L50" s="1036"/>
+      <c r="M50" s="1004"/>
+      <c r="N50" s="1028"/>
       <c r="O50" s="72"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="74" t="s">
@@ -21576,22 +21660,25 @@
       <c r="R50" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="S50" s="998" t="s">
+      <c r="S50" s="1008" t="s">
         <v>115</v>
       </c>
       <c r="T50" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U50" s="1002"/>
-      <c r="V50" s="1005"/>
-      <c r="W50" s="1032"/>
-      <c r="X50" s="1033"/>
-      <c r="Y50" s="1028"/>
-    </row>
-    <row r="51" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L51" s="988"/>
-      <c r="M51" s="993"/>
-      <c r="N51" s="1019"/>
+      <c r="U50" s="1012"/>
+      <c r="V50" s="1015"/>
+      <c r="W50" s="986"/>
+      <c r="X50" s="987"/>
+      <c r="Y50" s="982"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1532</v>
+      </c>
+      <c r="L51" s="1036"/>
+      <c r="M51" s="1004"/>
+      <c r="N51" s="1028"/>
       <c r="O51" s="72"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="74" t="s">
@@ -21600,20 +21687,23 @@
       <c r="R51" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="S51" s="999"/>
+      <c r="S51" s="1009"/>
       <c r="T51" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U51" s="1002"/>
-      <c r="V51" s="1005"/>
-      <c r="W51" s="1032"/>
-      <c r="X51" s="1033"/>
-      <c r="Y51" s="1028"/>
-    </row>
-    <row r="52" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L52" s="989"/>
-      <c r="M52" s="993"/>
-      <c r="N52" s="1019"/>
+      <c r="U51" s="1012"/>
+      <c r="V51" s="1015"/>
+      <c r="W51" s="986"/>
+      <c r="X51" s="987"/>
+      <c r="Y51" s="982"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L52" s="1037"/>
+      <c r="M52" s="1004"/>
+      <c r="N52" s="1028"/>
       <c r="O52" s="75" t="s">
         <v>64</v>
       </c>
@@ -21624,22 +21714,22 @@
       <c r="R52" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="S52" s="1000"/>
+      <c r="S52" s="1010"/>
       <c r="T52" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U52" s="1002"/>
-      <c r="V52" s="1005"/>
-      <c r="W52" s="1032"/>
-      <c r="X52" s="1033"/>
-      <c r="Y52" s="1028"/>
-    </row>
-    <row r="53" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L53" s="987" t="s">
+      <c r="U52" s="1012"/>
+      <c r="V52" s="1015"/>
+      <c r="W52" s="986"/>
+      <c r="X52" s="987"/>
+      <c r="Y52" s="982"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L53" s="1035" t="s">
         <v>99</v>
       </c>
-      <c r="M53" s="993"/>
-      <c r="N53" s="1019"/>
+      <c r="M53" s="1004"/>
+      <c r="N53" s="1028"/>
       <c r="O53" s="83"/>
       <c r="P53" s="84"/>
       <c r="Q53" s="85" t="s">
@@ -21652,16 +21742,16 @@
       <c r="T53" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U53" s="1002"/>
-      <c r="V53" s="1005"/>
-      <c r="W53" s="1032"/>
-      <c r="X53" s="1033"/>
-      <c r="Y53" s="1028"/>
-    </row>
-    <row r="54" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L54" s="988"/>
-      <c r="M54" s="993"/>
-      <c r="N54" s="1019"/>
+      <c r="U53" s="1012"/>
+      <c r="V53" s="1015"/>
+      <c r="W53" s="986"/>
+      <c r="X53" s="987"/>
+      <c r="Y53" s="982"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L54" s="1036"/>
+      <c r="M54" s="1004"/>
+      <c r="N54" s="1028"/>
       <c r="O54" s="86"/>
       <c r="P54" s="87"/>
       <c r="Q54" s="88" t="s">
@@ -21674,16 +21764,16 @@
       <c r="T54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U54" s="1002"/>
-      <c r="V54" s="1005"/>
-      <c r="W54" s="1032"/>
-      <c r="X54" s="1033"/>
-      <c r="Y54" s="1028"/>
-    </row>
-    <row r="55" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L55" s="988"/>
-      <c r="M55" s="993"/>
-      <c r="N55" s="1019"/>
+      <c r="U54" s="1012"/>
+      <c r="V54" s="1015"/>
+      <c r="W54" s="986"/>
+      <c r="X54" s="987"/>
+      <c r="Y54" s="982"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L55" s="1036"/>
+      <c r="M55" s="1004"/>
+      <c r="N55" s="1028"/>
       <c r="O55" s="86"/>
       <c r="P55" s="87"/>
       <c r="Q55" s="88" t="s">
@@ -21696,16 +21786,16 @@
       <c r="T55" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U55" s="1002"/>
-      <c r="V55" s="1005"/>
-      <c r="W55" s="1032"/>
-      <c r="X55" s="1033"/>
-      <c r="Y55" s="1028"/>
-    </row>
-    <row r="56" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L56" s="989"/>
-      <c r="M56" s="993"/>
-      <c r="N56" s="1019"/>
+      <c r="U55" s="1012"/>
+      <c r="V55" s="1015"/>
+      <c r="W55" s="986"/>
+      <c r="X55" s="987"/>
+      <c r="Y55" s="982"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L56" s="1037"/>
+      <c r="M56" s="1004"/>
+      <c r="N56" s="1028"/>
       <c r="O56" s="89" t="s">
         <v>54</v>
       </c>
@@ -21722,18 +21812,18 @@
       <c r="T56" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U56" s="1002"/>
-      <c r="V56" s="1005"/>
-      <c r="W56" s="1032"/>
-      <c r="X56" s="1033"/>
-      <c r="Y56" s="1028"/>
-    </row>
-    <row r="57" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L57" s="987" t="s">
+      <c r="U56" s="1012"/>
+      <c r="V56" s="1015"/>
+      <c r="W56" s="986"/>
+      <c r="X56" s="987"/>
+      <c r="Y56" s="982"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L57" s="1035" t="s">
         <v>98</v>
       </c>
-      <c r="M57" s="993"/>
-      <c r="N57" s="1019"/>
+      <c r="M57" s="1004"/>
+      <c r="N57" s="1028"/>
       <c r="O57" s="52"/>
       <c r="P57" s="53"/>
       <c r="Q57" s="54" t="s">
@@ -21746,16 +21836,16 @@
       <c r="T57" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U57" s="1002"/>
-      <c r="V57" s="1005"/>
-      <c r="W57" s="1032"/>
-      <c r="X57" s="1033"/>
-      <c r="Y57" s="1028"/>
-    </row>
-    <row r="58" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L58" s="988"/>
-      <c r="M58" s="993"/>
-      <c r="N58" s="1019"/>
+      <c r="U57" s="1012"/>
+      <c r="V57" s="1015"/>
+      <c r="W57" s="986"/>
+      <c r="X57" s="987"/>
+      <c r="Y57" s="982"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L58" s="1036"/>
+      <c r="M58" s="1004"/>
+      <c r="N58" s="1028"/>
       <c r="O58" s="55"/>
       <c r="P58" s="56"/>
       <c r="Q58" s="57" t="s">
@@ -21768,16 +21858,16 @@
       <c r="T58" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="U58" s="1002"/>
-      <c r="V58" s="1005"/>
-      <c r="W58" s="1032"/>
-      <c r="X58" s="1033"/>
-      <c r="Y58" s="1028"/>
-    </row>
-    <row r="59" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L59" s="988"/>
-      <c r="M59" s="993"/>
-      <c r="N59" s="1019"/>
+      <c r="U58" s="1012"/>
+      <c r="V58" s="1015"/>
+      <c r="W58" s="986"/>
+      <c r="X58" s="987"/>
+      <c r="Y58" s="982"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L59" s="1036"/>
+      <c r="M59" s="1004"/>
+      <c r="N59" s="1028"/>
       <c r="O59" s="55"/>
       <c r="P59" s="56"/>
       <c r="Q59" s="57" t="s">
@@ -21790,16 +21880,16 @@
       <c r="T59" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U59" s="1002"/>
-      <c r="V59" s="1005"/>
-      <c r="W59" s="1032"/>
-      <c r="X59" s="1033"/>
-      <c r="Y59" s="1028"/>
-    </row>
-    <row r="60" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L60" s="989"/>
-      <c r="M60" s="993"/>
-      <c r="N60" s="1019"/>
+      <c r="U59" s="1012"/>
+      <c r="V59" s="1015"/>
+      <c r="W59" s="986"/>
+      <c r="X59" s="987"/>
+      <c r="Y59" s="982"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L60" s="1037"/>
+      <c r="M60" s="1004"/>
+      <c r="N60" s="1028"/>
       <c r="O60" s="55"/>
       <c r="P60" s="56"/>
       <c r="Q60" s="57" t="s">
@@ -21812,18 +21902,18 @@
       <c r="T60" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U60" s="1002"/>
-      <c r="V60" s="1005"/>
-      <c r="W60" s="1032"/>
-      <c r="X60" s="1033"/>
-      <c r="Y60" s="1028"/>
-    </row>
-    <row r="61" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L61" s="987" t="s">
+      <c r="U60" s="1012"/>
+      <c r="V60" s="1015"/>
+      <c r="W60" s="986"/>
+      <c r="X60" s="987"/>
+      <c r="Y60" s="982"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L61" s="1035" t="s">
         <v>97</v>
       </c>
-      <c r="M61" s="993"/>
-      <c r="N61" s="1019"/>
+      <c r="M61" s="1004"/>
+      <c r="N61" s="1028"/>
       <c r="O61" s="55"/>
       <c r="P61" s="56"/>
       <c r="Q61" s="57" t="s">
@@ -21836,16 +21926,16 @@
       <c r="T61" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U61" s="1002"/>
-      <c r="V61" s="1005"/>
-      <c r="W61" s="1032"/>
-      <c r="X61" s="1033"/>
-      <c r="Y61" s="1028"/>
-    </row>
-    <row r="62" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L62" s="988"/>
-      <c r="M62" s="993"/>
-      <c r="N62" s="1019"/>
+      <c r="U61" s="1012"/>
+      <c r="V61" s="1015"/>
+      <c r="W61" s="986"/>
+      <c r="X61" s="987"/>
+      <c r="Y61" s="982"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L62" s="1036"/>
+      <c r="M62" s="1004"/>
+      <c r="N62" s="1028"/>
       <c r="O62" s="55"/>
       <c r="P62" s="56"/>
       <c r="Q62" s="57" t="s">
@@ -21858,16 +21948,16 @@
       <c r="T62" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U62" s="1002"/>
-      <c r="V62" s="1005"/>
-      <c r="W62" s="1032"/>
-      <c r="X62" s="1033"/>
-      <c r="Y62" s="1028"/>
-    </row>
-    <row r="63" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L63" s="988"/>
-      <c r="M63" s="993"/>
-      <c r="N63" s="1019"/>
+      <c r="U62" s="1012"/>
+      <c r="V62" s="1015"/>
+      <c r="W62" s="986"/>
+      <c r="X62" s="987"/>
+      <c r="Y62" s="982"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L63" s="1036"/>
+      <c r="M63" s="1004"/>
+      <c r="N63" s="1028"/>
       <c r="O63" s="55"/>
       <c r="P63" s="56"/>
       <c r="Q63" s="57" t="s">
@@ -21880,16 +21970,16 @@
       <c r="T63" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U63" s="1002"/>
-      <c r="V63" s="1005"/>
-      <c r="W63" s="1032"/>
-      <c r="X63" s="1033"/>
-      <c r="Y63" s="1028"/>
-    </row>
-    <row r="64" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L64" s="989"/>
-      <c r="M64" s="993"/>
-      <c r="N64" s="1019"/>
+      <c r="U63" s="1012"/>
+      <c r="V63" s="1015"/>
+      <c r="W63" s="986"/>
+      <c r="X63" s="987"/>
+      <c r="Y63" s="982"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L64" s="1037"/>
+      <c r="M64" s="1004"/>
+      <c r="N64" s="1028"/>
       <c r="O64" s="58" t="s">
         <v>36</v>
       </c>
@@ -21906,18 +21996,18 @@
       <c r="T64" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U64" s="1002"/>
-      <c r="V64" s="1005"/>
-      <c r="W64" s="1032"/>
-      <c r="X64" s="1033"/>
-      <c r="Y64" s="1028"/>
+      <c r="U64" s="1012"/>
+      <c r="V64" s="1015"/>
+      <c r="W64" s="986"/>
+      <c r="X64" s="987"/>
+      <c r="Y64" s="982"/>
     </row>
     <row r="65" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L65" s="987" t="s">
+      <c r="L65" s="1035" t="s">
         <v>96</v>
       </c>
-      <c r="M65" s="993"/>
-      <c r="N65" s="1019"/>
+      <c r="M65" s="1004"/>
+      <c r="N65" s="1028"/>
       <c r="O65" s="61"/>
       <c r="P65" s="62"/>
       <c r="Q65" s="63" t="s">
@@ -21930,16 +22020,16 @@
       <c r="T65" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="U65" s="1002"/>
-      <c r="V65" s="1005"/>
-      <c r="W65" s="1032"/>
-      <c r="X65" s="1033"/>
-      <c r="Y65" s="1028"/>
+      <c r="U65" s="1012"/>
+      <c r="V65" s="1015"/>
+      <c r="W65" s="986"/>
+      <c r="X65" s="987"/>
+      <c r="Y65" s="982"/>
     </row>
     <row r="66" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L66" s="988"/>
-      <c r="M66" s="993"/>
-      <c r="N66" s="1019"/>
+      <c r="L66" s="1036"/>
+      <c r="M66" s="1004"/>
+      <c r="N66" s="1028"/>
       <c r="O66" s="64"/>
       <c r="P66" s="65"/>
       <c r="Q66" s="66" t="s">
@@ -21952,16 +22042,16 @@
       <c r="T66" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U66" s="1002"/>
-      <c r="V66" s="1005"/>
-      <c r="W66" s="1032"/>
-      <c r="X66" s="1033"/>
-      <c r="Y66" s="1028"/>
+      <c r="U66" s="1012"/>
+      <c r="V66" s="1015"/>
+      <c r="W66" s="986"/>
+      <c r="X66" s="987"/>
+      <c r="Y66" s="982"/>
     </row>
     <row r="67" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L67" s="988"/>
-      <c r="M67" s="993"/>
-      <c r="N67" s="1019"/>
+      <c r="L67" s="1036"/>
+      <c r="M67" s="1004"/>
+      <c r="N67" s="1028"/>
       <c r="O67" s="64"/>
       <c r="P67" s="65"/>
       <c r="Q67" s="66" t="s">
@@ -21974,16 +22064,16 @@
       <c r="T67" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="U67" s="1002"/>
-      <c r="V67" s="1005"/>
-      <c r="W67" s="1032"/>
-      <c r="X67" s="1033"/>
-      <c r="Y67" s="1028"/>
+      <c r="U67" s="1012"/>
+      <c r="V67" s="1015"/>
+      <c r="W67" s="986"/>
+      <c r="X67" s="987"/>
+      <c r="Y67" s="982"/>
     </row>
     <row r="68" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L68" s="989"/>
-      <c r="M68" s="994"/>
-      <c r="N68" s="1020"/>
+      <c r="L68" s="1037"/>
+      <c r="M68" s="1005"/>
+      <c r="N68" s="1029"/>
       <c r="O68" s="67" t="s">
         <v>25</v>
       </c>
@@ -22000,11 +22090,11 @@
       <c r="T68" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="U68" s="1003"/>
-      <c r="V68" s="1006"/>
-      <c r="W68" s="1034"/>
-      <c r="X68" s="1035"/>
-      <c r="Y68" s="1029"/>
+      <c r="U68" s="1013"/>
+      <c r="V68" s="1016"/>
+      <c r="W68" s="988"/>
+      <c r="X68" s="989"/>
+      <c r="Y68" s="983"/>
     </row>
     <row r="69" spans="12:25" x14ac:dyDescent="0.25">
       <c r="N69" s="205"/>
@@ -22012,34 +22102,11 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Y5:Y68"/>
-    <mergeCell ref="W17:X67"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="W5:W16"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="M5:M68"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="U5:U68"/>
-    <mergeCell ref="V5:V68"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="N37:N68"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AC3:AK3"/>
     <mergeCell ref="L65:L68"/>
     <mergeCell ref="L61:L64"/>
     <mergeCell ref="L57:L60"/>
@@ -22056,11 +22123,34 @@
     <mergeCell ref="L49:L52"/>
     <mergeCell ref="L45:L48"/>
     <mergeCell ref="L41:L44"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AC3:AK3"/>
+    <mergeCell ref="M5:M68"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="U5:U68"/>
+    <mergeCell ref="V5:V68"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="N37:N68"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Y5:Y68"/>
+    <mergeCell ref="W17:X67"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="W5:W16"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X15:X16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22085,18 +22175,18 @@
       <c r="E3" s="466" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="1071" t="s">
+      <c r="F3" s="1048" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="1072"/>
-      <c r="H3" s="1072"/>
-      <c r="I3" s="1072"/>
-      <c r="J3" s="1072"/>
-      <c r="K3" s="1072"/>
-      <c r="L3" s="1059">
+      <c r="G3" s="1049"/>
+      <c r="H3" s="1049"/>
+      <c r="I3" s="1049"/>
+      <c r="J3" s="1049"/>
+      <c r="K3" s="1049"/>
+      <c r="L3" s="1067">
         <v>2</v>
       </c>
-      <c r="M3" s="1061">
+      <c r="M3" s="1069">
         <v>5</v>
       </c>
     </row>
@@ -22120,11 +22210,11 @@
       <c r="K4" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="1060"/>
-      <c r="M4" s="1062"/>
+      <c r="L4" s="1068"/>
+      <c r="M4" s="1070"/>
     </row>
     <row r="5" spans="5:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="1063" t="s">
+      <c r="E5" s="1050" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="920"/>
@@ -22135,13 +22225,13 @@
       <c r="K5" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="1048" t="s">
+      <c r="L5" s="1056" t="s">
         <v>1447</v>
       </c>
       <c r="M5" s="954"/>
     </row>
     <row r="6" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="1064"/>
+      <c r="E6" s="1051"/>
       <c r="F6" s="406"/>
       <c r="G6" s="924"/>
       <c r="H6" s="924"/>
@@ -22150,11 +22240,11 @@
       <c r="K6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="1049"/>
+      <c r="L6" s="1057"/>
       <c r="M6" s="955"/>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="1064"/>
+      <c r="E7" s="1051"/>
       <c r="F7" s="406"/>
       <c r="G7" s="924"/>
       <c r="H7" s="924"/>
@@ -22163,11 +22253,11 @@
       <c r="K7" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="1049"/>
+      <c r="L7" s="1057"/>
       <c r="M7" s="955"/>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="1065"/>
+      <c r="E8" s="1053"/>
       <c r="F8" s="925"/>
       <c r="G8" s="926"/>
       <c r="H8" s="927"/>
@@ -22176,11 +22266,11 @@
       <c r="K8" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="1049"/>
+      <c r="L8" s="1057"/>
       <c r="M8" s="955"/>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="1063" t="s">
+      <c r="E9" s="1050" t="s">
         <v>110</v>
       </c>
       <c r="F9" s="920"/>
@@ -22191,11 +22281,11 @@
       <c r="K9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="1049"/>
+      <c r="L9" s="1057"/>
       <c r="M9" s="955"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="1064"/>
+      <c r="E10" s="1051"/>
       <c r="F10" s="406"/>
       <c r="G10" s="924"/>
       <c r="H10" s="924"/>
@@ -22204,11 +22294,11 @@
       <c r="K10" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="1049"/>
+      <c r="L10" s="1057"/>
       <c r="M10" s="955"/>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="1064"/>
+      <c r="E11" s="1051"/>
       <c r="F11" s="406"/>
       <c r="G11" s="924"/>
       <c r="H11" s="924"/>
@@ -22217,11 +22307,11 @@
       <c r="K11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="1049"/>
+      <c r="L11" s="1057"/>
       <c r="M11" s="955"/>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="1065"/>
+      <c r="E12" s="1053"/>
       <c r="F12" s="930"/>
       <c r="G12" s="931"/>
       <c r="H12" s="932"/>
@@ -22230,11 +22320,11 @@
       <c r="K12" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="1049"/>
+      <c r="L12" s="1057"/>
       <c r="M12" s="955"/>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="1063" t="s">
+      <c r="E13" s="1050" t="s">
         <v>109</v>
       </c>
       <c r="F13" s="933"/>
@@ -22245,11 +22335,11 @@
       <c r="K13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="1049"/>
+      <c r="L13" s="1057"/>
       <c r="M13" s="955"/>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="1064"/>
+      <c r="E14" s="1051"/>
       <c r="F14" s="406"/>
       <c r="G14" s="924"/>
       <c r="H14" s="924"/>
@@ -22258,11 +22348,11 @@
       <c r="K14" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="1049"/>
+      <c r="L14" s="1057"/>
       <c r="M14" s="955"/>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="1064"/>
+      <c r="E15" s="1051"/>
       <c r="F15" s="406"/>
       <c r="G15" s="924"/>
       <c r="H15" s="924"/>
@@ -22271,11 +22361,11 @@
       <c r="K15" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="1049"/>
+      <c r="L15" s="1057"/>
       <c r="M15" s="955"/>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="1065"/>
+      <c r="E16" s="1053"/>
       <c r="F16" s="925"/>
       <c r="G16" s="926"/>
       <c r="H16" s="927"/>
@@ -22284,11 +22374,11 @@
       <c r="K16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="1049"/>
+      <c r="L16" s="1057"/>
       <c r="M16" s="955"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="1063" t="s">
+      <c r="E17" s="1050" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="920"/>
@@ -22299,11 +22389,11 @@
       <c r="K17" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="1049"/>
+      <c r="L17" s="1057"/>
       <c r="M17" s="955"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="1064"/>
+      <c r="E18" s="1051"/>
       <c r="F18" s="406"/>
       <c r="G18" s="924"/>
       <c r="H18" s="924"/>
@@ -22312,11 +22402,11 @@
       <c r="K18" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="1049"/>
+      <c r="L18" s="1057"/>
       <c r="M18" s="955"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="1064"/>
+      <c r="E19" s="1051"/>
       <c r="F19" s="406"/>
       <c r="G19" s="924"/>
       <c r="H19" s="924"/>
@@ -22325,11 +22415,11 @@
       <c r="K19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="1049"/>
+      <c r="L19" s="1057"/>
       <c r="M19" s="955"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E20" s="1065"/>
+      <c r="E20" s="1053"/>
       <c r="F20" s="930"/>
       <c r="G20" s="931"/>
       <c r="H20" s="932"/>
@@ -22338,11 +22428,11 @@
       <c r="K20" s="688" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="1049"/>
+      <c r="L20" s="1057"/>
       <c r="M20" s="955"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="1063" t="s">
+      <c r="E21" s="1050" t="s">
         <v>107</v>
       </c>
       <c r="F21" s="936"/>
@@ -22353,13 +22443,13 @@
       <c r="K21" s="901" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="1068" t="s">
+      <c r="L21" s="1073" t="s">
         <v>1452</v>
       </c>
       <c r="M21" s="955"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="1064"/>
+      <c r="E22" s="1051"/>
       <c r="F22" s="406"/>
       <c r="G22" s="924"/>
       <c r="H22" s="924"/>
@@ -22368,11 +22458,11 @@
       <c r="K22" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="1069"/>
+      <c r="L22" s="1074"/>
       <c r="M22" s="955"/>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E23" s="1064"/>
+      <c r="E23" s="1051"/>
       <c r="F23" s="930"/>
       <c r="G23" s="931"/>
       <c r="H23" s="931"/>
@@ -22381,11 +22471,11 @@
       <c r="K23" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="1069"/>
+      <c r="L23" s="1074"/>
       <c r="M23" s="955"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="1065"/>
+      <c r="E24" s="1053"/>
       <c r="F24" s="925"/>
       <c r="G24" s="926"/>
       <c r="H24" s="927"/>
@@ -22394,11 +22484,11 @@
       <c r="K24" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="1069"/>
+      <c r="L24" s="1074"/>
       <c r="M24" s="955"/>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="1063" t="s">
+      <c r="E25" s="1050" t="s">
         <v>106</v>
       </c>
       <c r="F25" s="920"/>
@@ -22409,11 +22499,11 @@
       <c r="K25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="1069"/>
+      <c r="L25" s="1074"/>
       <c r="M25" s="955"/>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="1064"/>
+      <c r="E26" s="1051"/>
       <c r="F26" s="406"/>
       <c r="G26" s="924"/>
       <c r="H26" s="924"/>
@@ -22422,11 +22512,11 @@
       <c r="K26" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="1070"/>
+      <c r="L26" s="1075"/>
       <c r="M26" s="955"/>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="1064"/>
+      <c r="E27" s="1051"/>
       <c r="F27" s="930"/>
       <c r="G27" s="931"/>
       <c r="H27" s="932" t="s">
@@ -22439,13 +22529,13 @@
       <c r="K27" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="1066" t="s">
+      <c r="L27" s="1071" t="s">
         <v>1448</v>
       </c>
       <c r="M27" s="955"/>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="1065"/>
+      <c r="E28" s="1053"/>
       <c r="F28" s="930"/>
       <c r="G28" s="931"/>
       <c r="H28" s="932" t="s">
@@ -22458,11 +22548,11 @@
       <c r="K28" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="1067"/>
+      <c r="L28" s="1072"/>
       <c r="M28" s="955"/>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="1063" t="s">
+      <c r="E29" s="1050" t="s">
         <v>105</v>
       </c>
       <c r="F29" s="933"/>
@@ -22473,13 +22563,13 @@
       <c r="K29" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="1050" t="s">
+      <c r="L29" s="1058" t="s">
         <v>1450</v>
       </c>
       <c r="M29" s="955"/>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E30" s="1064"/>
+      <c r="E30" s="1051"/>
       <c r="F30" s="406"/>
       <c r="G30" s="924"/>
       <c r="H30" s="924"/>
@@ -22488,11 +22578,11 @@
       <c r="K30" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="1051"/>
+      <c r="L30" s="1059"/>
       <c r="M30" s="955"/>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E31" s="1064"/>
+      <c r="E31" s="1051"/>
       <c r="F31" s="406"/>
       <c r="G31" s="924"/>
       <c r="H31" s="924"/>
@@ -22501,11 +22591,11 @@
       <c r="K31" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="1051"/>
+      <c r="L31" s="1059"/>
       <c r="M31" s="955"/>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E32" s="1065"/>
+      <c r="E32" s="1053"/>
       <c r="F32" s="941"/>
       <c r="G32" s="942"/>
       <c r="H32" s="943"/>
@@ -22514,11 +22604,11 @@
       <c r="K32" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="1051"/>
+      <c r="L32" s="1059"/>
       <c r="M32" s="955"/>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E33" s="1063" t="s">
+      <c r="E33" s="1050" t="s">
         <v>104</v>
       </c>
       <c r="F33" s="920"/>
@@ -22529,11 +22619,11 @@
       <c r="K33" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="1051"/>
+      <c r="L33" s="1059"/>
       <c r="M33" s="955"/>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E34" s="1064"/>
+      <c r="E34" s="1051"/>
       <c r="F34" s="406"/>
       <c r="G34" s="924"/>
       <c r="H34" s="924"/>
@@ -22542,11 +22632,11 @@
       <c r="K34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="1051"/>
+      <c r="L34" s="1059"/>
       <c r="M34" s="955"/>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E35" s="1064"/>
+      <c r="E35" s="1051"/>
       <c r="F35" s="406"/>
       <c r="G35" s="924"/>
       <c r="H35" s="924"/>
@@ -22555,11 +22645,11 @@
       <c r="K35" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="1051"/>
+      <c r="L35" s="1059"/>
       <c r="M35" s="955"/>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E36" s="1065"/>
+      <c r="E36" s="1053"/>
       <c r="F36" s="945"/>
       <c r="G36" s="946"/>
       <c r="H36" s="947"/>
@@ -22568,11 +22658,11 @@
       <c r="K36" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="1052"/>
+      <c r="L36" s="1060"/>
       <c r="M36" s="955"/>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E37" s="1063" t="s">
+      <c r="E37" s="1050" t="s">
         <v>103</v>
       </c>
       <c r="F37" s="70"/>
@@ -22589,15 +22679,15 @@
       <c r="K37" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="1053" t="s">
+      <c r="L37" s="1061" t="s">
         <v>1451</v>
       </c>
-      <c r="M37" s="1056" t="s">
+      <c r="M37" s="1064" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E38" s="1064"/>
+      <c r="E38" s="1051"/>
       <c r="F38" s="72"/>
       <c r="G38" s="73"/>
       <c r="H38" s="74" t="s">
@@ -22610,11 +22700,11 @@
       <c r="K38" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L38" s="1054"/>
-      <c r="M38" s="1057"/>
+      <c r="L38" s="1062"/>
+      <c r="M38" s="1065"/>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E39" s="1064"/>
+      <c r="E39" s="1051"/>
       <c r="F39" s="72"/>
       <c r="G39" s="73"/>
       <c r="H39" s="74" t="s">
@@ -22627,11 +22717,11 @@
       <c r="K39" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L39" s="1054"/>
-      <c r="M39" s="1057"/>
+      <c r="L39" s="1062"/>
+      <c r="M39" s="1065"/>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E40" s="1065"/>
+      <c r="E40" s="1053"/>
       <c r="F40" s="96"/>
       <c r="G40" s="97"/>
       <c r="H40" s="169" t="s">
@@ -22646,11 +22736,11 @@
       <c r="K40" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L40" s="1054"/>
-      <c r="M40" s="1057"/>
+      <c r="L40" s="1062"/>
+      <c r="M40" s="1065"/>
     </row>
     <row r="41" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E41" s="1063" t="s">
+      <c r="E41" s="1050" t="s">
         <v>102</v>
       </c>
       <c r="F41" s="101"/>
@@ -22667,11 +22757,11 @@
       <c r="K41" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L41" s="1054"/>
-      <c r="M41" s="1057"/>
+      <c r="L41" s="1062"/>
+      <c r="M41" s="1065"/>
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E42" s="1064"/>
+      <c r="E42" s="1051"/>
       <c r="F42" s="72"/>
       <c r="G42" s="73"/>
       <c r="H42" s="74" t="s">
@@ -22684,11 +22774,11 @@
       <c r="K42" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L42" s="1054"/>
-      <c r="M42" s="1057"/>
+      <c r="L42" s="1062"/>
+      <c r="M42" s="1065"/>
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E43" s="1064"/>
+      <c r="E43" s="1051"/>
       <c r="F43" s="96"/>
       <c r="G43" s="97"/>
       <c r="H43" s="169" t="s">
@@ -22701,11 +22791,11 @@
       <c r="K43" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="1054"/>
-      <c r="M43" s="1057"/>
+      <c r="L43" s="1062"/>
+      <c r="M43" s="1065"/>
     </row>
     <row r="44" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E44" s="1065"/>
+      <c r="E44" s="1053"/>
       <c r="F44" s="104"/>
       <c r="G44" s="105"/>
       <c r="H44" s="170" t="s">
@@ -22718,11 +22808,11 @@
       <c r="K44" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L44" s="1054"/>
-      <c r="M44" s="1057"/>
+      <c r="L44" s="1062"/>
+      <c r="M44" s="1065"/>
     </row>
     <row r="45" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E45" s="1063" t="s">
+      <c r="E45" s="1050" t="s">
         <v>101</v>
       </c>
       <c r="F45" s="98"/>
@@ -22737,11 +22827,11 @@
       <c r="K45" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L45" s="1054"/>
-      <c r="M45" s="1057"/>
+      <c r="L45" s="1062"/>
+      <c r="M45" s="1065"/>
     </row>
     <row r="46" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E46" s="1074"/>
+      <c r="E46" s="1054"/>
       <c r="F46" s="72"/>
       <c r="G46" s="73"/>
       <c r="H46" s="74" t="s">
@@ -22754,11 +22844,11 @@
       <c r="K46" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L46" s="1054"/>
-      <c r="M46" s="1057"/>
+      <c r="L46" s="1062"/>
+      <c r="M46" s="1065"/>
     </row>
     <row r="47" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E47" s="1074"/>
+      <c r="E47" s="1054"/>
       <c r="F47" s="96"/>
       <c r="G47" s="97"/>
       <c r="H47" s="169" t="s">
@@ -22771,11 +22861,11 @@
       <c r="K47" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L47" s="1054"/>
-      <c r="M47" s="1057"/>
+      <c r="L47" s="1062"/>
+      <c r="M47" s="1065"/>
     </row>
     <row r="48" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E48" s="1075"/>
+      <c r="E48" s="1055"/>
       <c r="F48" s="104"/>
       <c r="G48" s="105"/>
       <c r="H48" s="170" t="s">
@@ -22788,11 +22878,11 @@
       <c r="K48" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L48" s="1054"/>
-      <c r="M48" s="1057"/>
+      <c r="L48" s="1062"/>
+      <c r="M48" s="1065"/>
     </row>
     <row r="49" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E49" s="1063" t="s">
+      <c r="E49" s="1050" t="s">
         <v>100</v>
       </c>
       <c r="F49" s="98"/>
@@ -22807,11 +22897,11 @@
       <c r="K49" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L49" s="1054"/>
-      <c r="M49" s="1057"/>
+      <c r="L49" s="1062"/>
+      <c r="M49" s="1065"/>
     </row>
     <row r="50" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E50" s="1064"/>
+      <c r="E50" s="1051"/>
       <c r="F50" s="72"/>
       <c r="G50" s="73"/>
       <c r="H50" s="74" t="s">
@@ -22820,17 +22910,17 @@
       <c r="I50" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="J50" s="998" t="s">
+      <c r="J50" s="1008" t="s">
         <v>115</v>
       </c>
       <c r="K50" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="1054"/>
-      <c r="M50" s="1057"/>
+      <c r="L50" s="1062"/>
+      <c r="M50" s="1065"/>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E51" s="1064"/>
+      <c r="E51" s="1051"/>
       <c r="F51" s="72"/>
       <c r="G51" s="73"/>
       <c r="H51" s="74" t="s">
@@ -22839,15 +22929,15 @@
       <c r="I51" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="J51" s="999"/>
+      <c r="J51" s="1009"/>
       <c r="K51" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L51" s="1054"/>
-      <c r="M51" s="1057"/>
+      <c r="L51" s="1062"/>
+      <c r="M51" s="1065"/>
     </row>
     <row r="52" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E52" s="1065"/>
+      <c r="E52" s="1053"/>
       <c r="F52" s="75" t="s">
         <v>64</v>
       </c>
@@ -22858,15 +22948,15 @@
       <c r="I52" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="J52" s="1000"/>
+      <c r="J52" s="1010"/>
       <c r="K52" s="951" t="s">
         <v>32</v>
       </c>
-      <c r="L52" s="1054"/>
-      <c r="M52" s="1057"/>
+      <c r="L52" s="1062"/>
+      <c r="M52" s="1065"/>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E53" s="1063" t="s">
+      <c r="E53" s="1050" t="s">
         <v>99</v>
       </c>
       <c r="F53" s="83"/>
@@ -22881,11 +22971,11 @@
       <c r="K53" s="901" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="1054"/>
-      <c r="M53" s="1057"/>
+      <c r="L53" s="1062"/>
+      <c r="M53" s="1065"/>
     </row>
     <row r="54" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E54" s="1064"/>
+      <c r="E54" s="1051"/>
       <c r="F54" s="86"/>
       <c r="G54" s="87"/>
       <c r="H54" s="88" t="s">
@@ -22898,11 +22988,11 @@
       <c r="K54" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L54" s="1054"/>
-      <c r="M54" s="1057"/>
+      <c r="L54" s="1062"/>
+      <c r="M54" s="1065"/>
     </row>
     <row r="55" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E55" s="1064"/>
+      <c r="E55" s="1051"/>
       <c r="F55" s="86"/>
       <c r="G55" s="87"/>
       <c r="H55" s="88" t="s">
@@ -22915,11 +23005,11 @@
       <c r="K55" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L55" s="1054"/>
-      <c r="M55" s="1057"/>
+      <c r="L55" s="1062"/>
+      <c r="M55" s="1065"/>
     </row>
     <row r="56" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E56" s="1065"/>
+      <c r="E56" s="1053"/>
       <c r="F56" s="89" t="s">
         <v>54</v>
       </c>
@@ -22936,11 +23026,11 @@
       <c r="K56" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L56" s="1054"/>
-      <c r="M56" s="1057"/>
+      <c r="L56" s="1062"/>
+      <c r="M56" s="1065"/>
     </row>
     <row r="57" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E57" s="1063" t="s">
+      <c r="E57" s="1050" t="s">
         <v>98</v>
       </c>
       <c r="F57" s="52"/>
@@ -22955,11 +23045,11 @@
       <c r="K57" s="901" t="s">
         <v>33</v>
       </c>
-      <c r="L57" s="1054"/>
-      <c r="M57" s="1057"/>
+      <c r="L57" s="1062"/>
+      <c r="M57" s="1065"/>
     </row>
     <row r="58" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E58" s="1064"/>
+      <c r="E58" s="1051"/>
       <c r="F58" s="55"/>
       <c r="G58" s="56"/>
       <c r="H58" s="57" t="s">
@@ -22972,11 +23062,11 @@
       <c r="K58" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L58" s="1054"/>
-      <c r="M58" s="1057"/>
+      <c r="L58" s="1062"/>
+      <c r="M58" s="1065"/>
     </row>
     <row r="59" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E59" s="1064"/>
+      <c r="E59" s="1051"/>
       <c r="F59" s="55"/>
       <c r="G59" s="56"/>
       <c r="H59" s="57" t="s">
@@ -22989,11 +23079,11 @@
       <c r="K59" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L59" s="1054"/>
-      <c r="M59" s="1057"/>
+      <c r="L59" s="1062"/>
+      <c r="M59" s="1065"/>
     </row>
     <row r="60" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E60" s="1065"/>
+      <c r="E60" s="1053"/>
       <c r="F60" s="55"/>
       <c r="G60" s="56"/>
       <c r="H60" s="57" t="s">
@@ -23006,11 +23096,11 @@
       <c r="K60" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L60" s="1054"/>
-      <c r="M60" s="1057"/>
+      <c r="L60" s="1062"/>
+      <c r="M60" s="1065"/>
     </row>
     <row r="61" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E61" s="1063" t="s">
+      <c r="E61" s="1050" t="s">
         <v>97</v>
       </c>
       <c r="F61" s="55"/>
@@ -23025,11 +23115,11 @@
       <c r="K61" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L61" s="1054"/>
-      <c r="M61" s="1057"/>
+      <c r="L61" s="1062"/>
+      <c r="M61" s="1065"/>
     </row>
     <row r="62" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E62" s="1064"/>
+      <c r="E62" s="1051"/>
       <c r="F62" s="55"/>
       <c r="G62" s="56"/>
       <c r="H62" s="57" t="s">
@@ -23042,11 +23132,11 @@
       <c r="K62" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L62" s="1054"/>
-      <c r="M62" s="1057"/>
+      <c r="L62" s="1062"/>
+      <c r="M62" s="1065"/>
     </row>
     <row r="63" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E63" s="1064"/>
+      <c r="E63" s="1051"/>
       <c r="F63" s="55"/>
       <c r="G63" s="56"/>
       <c r="H63" s="57" t="s">
@@ -23059,11 +23149,11 @@
       <c r="K63" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L63" s="1054"/>
-      <c r="M63" s="1057"/>
+      <c r="L63" s="1062"/>
+      <c r="M63" s="1065"/>
     </row>
     <row r="64" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E64" s="1065"/>
+      <c r="E64" s="1053"/>
       <c r="F64" s="58" t="s">
         <v>36</v>
       </c>
@@ -23080,11 +23170,11 @@
       <c r="K64" s="951" t="s">
         <v>32</v>
       </c>
-      <c r="L64" s="1055"/>
-      <c r="M64" s="1058"/>
+      <c r="L64" s="1063"/>
+      <c r="M64" s="1066"/>
     </row>
     <row r="65" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E65" s="1063" t="s">
+      <c r="E65" s="1050" t="s">
         <v>96</v>
       </c>
       <c r="F65" s="61"/>
@@ -23103,7 +23193,7 @@
       <c r="M65" s="955"/>
     </row>
     <row r="66" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E66" s="1064"/>
+      <c r="E66" s="1051"/>
       <c r="F66" s="64"/>
       <c r="G66" s="65"/>
       <c r="H66" s="66" t="s">
@@ -23120,7 +23210,7 @@
       <c r="M66" s="955"/>
     </row>
     <row r="67" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E67" s="1064"/>
+      <c r="E67" s="1051"/>
       <c r="F67" s="64"/>
       <c r="G67" s="65"/>
       <c r="H67" s="66" t="s">
@@ -23137,7 +23227,7 @@
       <c r="M67" s="955"/>
     </row>
     <row r="68" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="1073"/>
+      <c r="E68" s="1052"/>
       <c r="F68" s="469" t="s">
         <v>25</v>
       </c>
@@ -23160,6 +23250,16 @@
     <row r="69" spans="5:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="M37:M64"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="L5:L20"/>
+    <mergeCell ref="L29:L36"/>
+    <mergeCell ref="L37:L64"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="J50:J52"/>
     <mergeCell ref="E65:E68"/>
@@ -23176,16 +23276,6 @@
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="E17:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="L5:L20"/>
-    <mergeCell ref="L29:L36"/>
-    <mergeCell ref="L37:L64"/>
-    <mergeCell ref="M37:M64"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L21:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23212,13 +23302,13 @@
       <c r="C4" s="466" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="1071" t="s">
+      <c r="D4" s="1048" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="1072"/>
-      <c r="F4" s="1072"/>
-      <c r="G4" s="1072"/>
-      <c r="H4" s="1072"/>
+      <c r="E4" s="1049"/>
+      <c r="F4" s="1049"/>
+      <c r="G4" s="1049"/>
+      <c r="H4" s="1049"/>
       <c r="I4" s="482"/>
     </row>
     <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23245,7 +23335,7 @@
       </c>
     </row>
     <row r="6" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="1085" t="s">
+      <c r="C6" s="1076" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="473"/>
@@ -23257,12 +23347,12 @@
       <c r="H6" s="480" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1076" t="s">
+      <c r="I6" s="1080" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="1064"/>
+      <c r="C7" s="1051"/>
       <c r="D7" s="434"/>
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
@@ -23270,10 +23360,10 @@
       <c r="H7" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="1077"/>
+      <c r="I7" s="1081"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="1064"/>
+      <c r="C8" s="1051"/>
       <c r="D8" s="434"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
@@ -23281,10 +23371,10 @@
       <c r="H8" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="1077"/>
+      <c r="I8" s="1081"/>
     </row>
     <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="1065"/>
+      <c r="C9" s="1053"/>
       <c r="D9" s="435" t="s">
         <v>73</v>
       </c>
@@ -23298,10 +23388,10 @@
       <c r="H9" s="468" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="1078"/>
+      <c r="I9" s="1084"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="1063" t="s">
+      <c r="C10" s="1050" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="478"/>
@@ -23313,12 +23403,12 @@
       <c r="H10" s="493" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="1079" t="s">
+      <c r="I10" s="1078" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1064"/>
+      <c r="C11" s="1051"/>
       <c r="D11" s="72"/>
       <c r="E11" s="73"/>
       <c r="F11" s="65"/>
@@ -23326,10 +23416,10 @@
       <c r="H11" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="1079"/>
+      <c r="I11" s="1078"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1064"/>
+      <c r="C12" s="1051"/>
       <c r="D12" s="72"/>
       <c r="E12" s="73"/>
       <c r="F12" s="65"/>
@@ -23337,10 +23427,10 @@
       <c r="H12" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="1079"/>
+      <c r="I12" s="1078"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="1065"/>
+      <c r="C13" s="1053"/>
       <c r="D13" s="96"/>
       <c r="E13" s="97"/>
       <c r="F13" s="82" t="s">
@@ -23350,10 +23440,10 @@
       <c r="H13" s="491" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="1079"/>
+      <c r="I13" s="1078"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1063" t="s">
+      <c r="C14" s="1050" t="s">
         <v>109</v>
       </c>
       <c r="D14" s="101"/>
@@ -23365,10 +23455,10 @@
       <c r="H14" s="495" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="1079"/>
+      <c r="I14" s="1078"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1064"/>
+      <c r="C15" s="1051"/>
       <c r="D15" s="72"/>
       <c r="E15" s="73"/>
       <c r="F15" s="65"/>
@@ -23376,10 +23466,10 @@
       <c r="H15" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="1079"/>
+      <c r="I15" s="1078"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1064"/>
+      <c r="C16" s="1051"/>
       <c r="D16" s="96"/>
       <c r="E16" s="97"/>
       <c r="F16" s="65"/>
@@ -23387,10 +23477,10 @@
       <c r="H16" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="1079"/>
+      <c r="I16" s="1078"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="1065"/>
+      <c r="C17" s="1053"/>
       <c r="D17" s="104"/>
       <c r="E17" s="105"/>
       <c r="F17" s="113" t="s">
@@ -23400,10 +23490,10 @@
       <c r="H17" s="491" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="1079"/>
+      <c r="I17" s="1078"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="1063" t="s">
+      <c r="C18" s="1050" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="98"/>
@@ -23415,10 +23505,10 @@
       <c r="H18" s="495" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="1079"/>
+      <c r="I18" s="1078"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="1064"/>
+      <c r="C19" s="1051"/>
       <c r="D19" s="72"/>
       <c r="E19" s="73"/>
       <c r="F19" s="65"/>
@@ -23426,10 +23516,10 @@
       <c r="H19" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="1079"/>
+      <c r="I19" s="1078"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="1064"/>
+      <c r="C20" s="1051"/>
       <c r="D20" s="96"/>
       <c r="E20" s="97"/>
       <c r="F20" s="65"/>
@@ -23437,10 +23527,10 @@
       <c r="H20" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="1079"/>
+      <c r="I20" s="1078"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="1065"/>
+      <c r="C21" s="1053"/>
       <c r="D21" s="104"/>
       <c r="E21" s="105"/>
       <c r="F21" s="82" t="s">
@@ -23450,10 +23540,10 @@
       <c r="H21" s="496" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="1079"/>
+      <c r="I21" s="1078"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="1063" t="s">
+      <c r="C22" s="1050" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="98"/>
@@ -23465,10 +23555,10 @@
       <c r="H22" s="494" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="1079"/>
+      <c r="I22" s="1078"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="1064"/>
+      <c r="C23" s="1051"/>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
       <c r="F23" s="65"/>
@@ -23476,10 +23566,10 @@
       <c r="H23" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="1079"/>
+      <c r="I23" s="1078"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="1064"/>
+      <c r="C24" s="1051"/>
       <c r="D24" s="72"/>
       <c r="E24" s="73"/>
       <c r="F24" s="81"/>
@@ -23487,10 +23577,10 @@
       <c r="H24" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="1079"/>
+      <c r="I24" s="1078"/>
     </row>
     <row r="25" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="1065"/>
+      <c r="C25" s="1053"/>
       <c r="D25" s="96" t="s">
         <v>64</v>
       </c>
@@ -23504,10 +23594,10 @@
       <c r="H25" s="491" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="1080"/>
+      <c r="I25" s="1079"/>
     </row>
     <row r="26" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="1063" t="s">
+      <c r="C26" s="1050" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="474" t="s">
@@ -23530,7 +23620,7 @@
       </c>
     </row>
     <row r="27" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1064"/>
+      <c r="C27" s="1051"/>
       <c r="D27" s="438"/>
       <c r="E27" s="273"/>
       <c r="F27" s="62"/>
@@ -23540,12 +23630,12 @@
       <c r="H27" s="467" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="1081" t="s">
+      <c r="I27" s="1085" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="28" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="1064"/>
+      <c r="C28" s="1051"/>
       <c r="D28" s="436"/>
       <c r="E28" s="437"/>
       <c r="F28" s="81"/>
@@ -23553,10 +23643,10 @@
       <c r="H28" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="1077"/>
+      <c r="I28" s="1081"/>
     </row>
     <row r="29" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="1065"/>
+      <c r="C29" s="1053"/>
       <c r="D29" s="436"/>
       <c r="E29" s="437"/>
       <c r="F29" s="82" t="s">
@@ -23587,7 +23677,7 @@
       </c>
     </row>
     <row r="30" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1063" t="s">
+      <c r="C30" s="1050" t="s">
         <v>105</v>
       </c>
       <c r="D30" s="439"/>
@@ -23610,12 +23700,12 @@
       <c r="N30" s="452" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="1076" t="s">
+      <c r="O30" s="1080" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="1064"/>
+      <c r="C31" s="1051"/>
       <c r="D31" s="64"/>
       <c r="E31" s="65"/>
       <c r="F31" s="65"/>
@@ -23634,10 +23724,10 @@
       <c r="N31" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="1077"/>
+      <c r="O31" s="1081"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="1064"/>
+      <c r="C32" s="1051"/>
       <c r="D32" s="64"/>
       <c r="E32" s="65"/>
       <c r="F32" s="65"/>
@@ -23656,10 +23746,10 @@
       <c r="N32" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="1077"/>
+      <c r="O32" s="1081"/>
     </row>
     <row r="33" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="1065"/>
+      <c r="C33" s="1053"/>
       <c r="D33" s="442" t="s">
         <v>73</v>
       </c>
@@ -23684,10 +23774,10 @@
       <c r="N33" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="1077"/>
+      <c r="O33" s="1081"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="1063" t="s">
+      <c r="C34" s="1050" t="s">
         <v>104</v>
       </c>
       <c r="D34" s="61"/>
@@ -23710,10 +23800,10 @@
       <c r="N34" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="1077"/>
+      <c r="O34" s="1081"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="1064"/>
+      <c r="C35" s="1051"/>
       <c r="D35" s="64"/>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
@@ -23732,10 +23822,10 @@
       <c r="N35" s="446" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="1077"/>
+      <c r="O35" s="1081"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="1064"/>
+      <c r="C36" s="1051"/>
       <c r="D36" s="64"/>
       <c r="E36" s="65"/>
       <c r="F36" s="65"/>
@@ -23754,10 +23844,10 @@
       <c r="N36" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="1077"/>
+      <c r="O36" s="1081"/>
     </row>
     <row r="37" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="1065"/>
+      <c r="C37" s="1053"/>
       <c r="D37" s="80" t="s">
         <v>73</v>
       </c>
@@ -23789,7 +23879,7 @@
       <c r="O37" s="1082"/>
     </row>
     <row r="38" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="1063" t="s">
+      <c r="C38" s="1050" t="s">
         <v>103</v>
       </c>
       <c r="D38" s="439"/>
@@ -23805,7 +23895,7 @@
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="1064"/>
+      <c r="C39" s="1051"/>
       <c r="D39" s="64"/>
       <c r="E39" s="65"/>
       <c r="F39" s="66" t="s">
@@ -23819,7 +23909,7 @@
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="1064"/>
+      <c r="C40" s="1051"/>
       <c r="D40" s="64"/>
       <c r="E40" s="65"/>
       <c r="F40" s="66" t="s">
@@ -23833,7 +23923,7 @@
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="1065"/>
+      <c r="C41" s="1053"/>
       <c r="D41" s="108"/>
       <c r="E41" s="109"/>
       <c r="F41" s="82" t="s">
@@ -23847,7 +23937,7 @@
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="1063" t="s">
+      <c r="C42" s="1050" t="s">
         <v>102</v>
       </c>
       <c r="D42" s="61"/>
@@ -23863,7 +23953,7 @@
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="1064"/>
+      <c r="C43" s="1051"/>
       <c r="D43" s="64"/>
       <c r="E43" s="65"/>
       <c r="F43" s="66" t="s">
@@ -23877,7 +23967,7 @@
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="1064"/>
+      <c r="C44" s="1051"/>
       <c r="D44" s="64"/>
       <c r="E44" s="65"/>
       <c r="F44" s="82" t="s">
@@ -23891,7 +23981,7 @@
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="1065"/>
+      <c r="C45" s="1053"/>
       <c r="D45" s="80"/>
       <c r="E45" s="81"/>
       <c r="F45" s="113" t="s">
@@ -23905,7 +23995,7 @@
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="1063" t="s">
+      <c r="C46" s="1050" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="106"/>
@@ -23921,7 +24011,7 @@
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="1074"/>
+      <c r="C47" s="1054"/>
       <c r="D47" s="64"/>
       <c r="E47" s="65"/>
       <c r="F47" s="66" t="s">
@@ -23935,7 +24025,7 @@
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="1074"/>
+      <c r="C48" s="1054"/>
       <c r="D48" s="64"/>
       <c r="E48" s="65"/>
       <c r="F48" s="82" t="s">
@@ -23949,7 +24039,7 @@
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="1075"/>
+      <c r="C49" s="1055"/>
       <c r="D49" s="108"/>
       <c r="E49" s="109"/>
       <c r="F49" s="113" t="s">
@@ -23963,7 +24053,7 @@
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="1063" t="s">
+      <c r="C50" s="1050" t="s">
         <v>100</v>
       </c>
       <c r="D50" s="61"/>
@@ -23979,7 +24069,7 @@
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="1064"/>
+      <c r="C51" s="1051"/>
       <c r="D51" s="64"/>
       <c r="E51" s="65"/>
       <c r="F51" s="66" t="s">
@@ -23993,7 +24083,7 @@
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="1064"/>
+      <c r="C52" s="1051"/>
       <c r="D52" s="64"/>
       <c r="E52" s="65"/>
       <c r="F52" s="66" t="s">
@@ -24007,7 +24097,7 @@
       </c>
     </row>
     <row r="53" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="1065"/>
+      <c r="C53" s="1053"/>
       <c r="D53" s="442" t="s">
         <v>73</v>
       </c>
@@ -24025,7 +24115,7 @@
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="1063" t="s">
+      <c r="C54" s="1050" t="s">
         <v>99</v>
       </c>
       <c r="D54" s="61"/>
@@ -24041,7 +24131,7 @@
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="1064"/>
+      <c r="C55" s="1051"/>
       <c r="D55" s="64"/>
       <c r="E55" s="65"/>
       <c r="F55" s="66" t="s">
@@ -24055,7 +24145,7 @@
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="1064"/>
+      <c r="C56" s="1051"/>
       <c r="D56" s="80"/>
       <c r="E56" s="81"/>
       <c r="F56" s="66" t="s">
@@ -24069,7 +24159,7 @@
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="1065"/>
+      <c r="C57" s="1053"/>
       <c r="D57" s="108"/>
       <c r="E57" s="109"/>
       <c r="F57" s="82" t="s">
@@ -24083,7 +24173,7 @@
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="1063" t="s">
+      <c r="C58" s="1050" t="s">
         <v>98</v>
       </c>
       <c r="D58" s="61"/>
@@ -24099,7 +24189,7 @@
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="1064"/>
+      <c r="C59" s="1051"/>
       <c r="D59" s="64"/>
       <c r="E59" s="65"/>
       <c r="F59" s="66" t="s">
@@ -24113,7 +24203,7 @@
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="1064"/>
+      <c r="C60" s="1051"/>
       <c r="D60" s="80"/>
       <c r="E60" s="81"/>
       <c r="F60" s="66" t="s">
@@ -24127,7 +24217,7 @@
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="1065"/>
+      <c r="C61" s="1053"/>
       <c r="D61" s="80"/>
       <c r="E61" s="81"/>
       <c r="F61" s="82" t="s">
@@ -24141,7 +24231,7 @@
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="1063" t="s">
+      <c r="C62" s="1050" t="s">
         <v>97</v>
       </c>
       <c r="D62" s="106"/>
@@ -24157,7 +24247,7 @@
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="1064"/>
+      <c r="C63" s="1051"/>
       <c r="D63" s="64"/>
       <c r="E63" s="65"/>
       <c r="F63" s="66" t="s">
@@ -24171,7 +24261,7 @@
       </c>
     </row>
     <row r="64" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="1064"/>
+      <c r="C64" s="1051"/>
       <c r="D64" s="64"/>
       <c r="E64" s="65"/>
       <c r="F64" s="66" t="s">
@@ -24185,7 +24275,7 @@
       </c>
     </row>
     <row r="65" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="1065"/>
+      <c r="C65" s="1053"/>
       <c r="D65" s="110"/>
       <c r="E65" s="109"/>
       <c r="F65" s="113" t="s">
@@ -24217,7 +24307,7 @@
       </c>
     </row>
     <row r="66" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="1063" t="s">
+      <c r="C66" s="1050" t="s">
         <v>96</v>
       </c>
       <c r="D66" s="61"/>
@@ -24231,7 +24321,7 @@
       <c r="H66" s="467" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="1084"/>
+      <c r="I66" s="1083"/>
       <c r="J66" s="463"/>
       <c r="K66" s="464"/>
       <c r="L66" s="453" t="s">
@@ -24243,12 +24333,12 @@
       <c r="N66" s="465" t="s">
         <v>33</v>
       </c>
-      <c r="O66" s="1083" t="s">
+      <c r="O66" s="1077" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C67" s="1064"/>
+      <c r="C67" s="1051"/>
       <c r="D67" s="64"/>
       <c r="E67" s="65"/>
       <c r="F67" s="66" t="s">
@@ -24260,7 +24350,7 @@
       <c r="H67" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="1084"/>
+      <c r="I67" s="1083"/>
       <c r="J67" s="455"/>
       <c r="K67" s="65"/>
       <c r="L67" s="66" t="s">
@@ -24272,10 +24362,10 @@
       <c r="N67" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="O67" s="1079"/>
+      <c r="O67" s="1078"/>
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C68" s="1064"/>
+      <c r="C68" s="1051"/>
       <c r="D68" s="64"/>
       <c r="E68" s="65"/>
       <c r="F68" s="66" t="s">
@@ -24287,7 +24377,7 @@
       <c r="H68" s="447" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="1084"/>
+      <c r="I68" s="1083"/>
       <c r="J68" s="455"/>
       <c r="K68" s="65"/>
       <c r="L68" s="66" t="s">
@@ -24299,10 +24389,10 @@
       <c r="N68" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="O68" s="1079"/>
+      <c r="O68" s="1078"/>
     </row>
     <row r="69" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="1073"/>
+      <c r="C69" s="1052"/>
       <c r="D69" s="469" t="s">
         <v>73</v>
       </c>
@@ -24318,7 +24408,7 @@
       <c r="H69" s="448" t="s">
         <v>33</v>
       </c>
-      <c r="I69" s="1084"/>
+      <c r="I69" s="1083"/>
       <c r="J69" s="456" t="s">
         <v>25</v>
       </c>
@@ -24334,16 +24424,16 @@
       <c r="N69" s="462" t="s">
         <v>32</v>
       </c>
-      <c r="O69" s="1080"/>
+      <c r="O69" s="1079"/>
     </row>
     <row r="70" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="I27:I29"/>
     <mergeCell ref="O66:O69"/>
     <mergeCell ref="O30:O37"/>
     <mergeCell ref="C38:C41"/>
@@ -24357,11 +24447,11 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
